--- a/designment/mvc-framework-document.xlsx
+++ b/designment/mvc-framework-document.xlsx
@@ -5,31 +5,42 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="VINE" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="VERS_0_Document" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="VERS_0_Guide" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="VERS_0_Classification" sheetId="3" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="0" name="AREA" vbProcedure="false">VINE!$A$1:$AA$229</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="LMN_0" vbProcedure="false">VINE!$B$1:$K$229</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="LMN_0_PAT" vbProcedure="false">VINE!$L$1:$L$229</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="LMN_0_SUBSET" vbProcedure="false">VINE!$P$1:$P$229</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="LMN_0_SUPSET" vbProcedure="false">VINE!$O$1:$O$229</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="MOD_0" vbProcedure="false">VINE!$A$1:$AA$229</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="MOD_0_COM" vbProcedure="false">VINE!$A$4:$AA$229</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="AREA" vbProcedure="false">VINE!$A$1:$AA$233</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="LMN_0" vbProcedure="false">VINE!$B$1:$K$233</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="LMN_0_PAT" vbProcedure="false">VINE!$L$1:$L$233</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="LMN_0_SUBSET" vbProcedure="false">VINE!$P$1:$P$233</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="LMN_0_SUPSET" vbProcedure="false">VINE!$O$1:$O$233</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="MOD_0" vbProcedure="false">VINE!$A$1:$AA$233</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="MOD_0_COM" vbProcedure="false">VINE!$A$4:$AA$233</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="MOD_0_SUP" vbProcedure="false">VINE!$A$1:$AA$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="AREA" vbProcedure="false">VERS_0_Document!$A$1:$Q$20</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="LMN_0" vbProcedure="false">VERS_0_Document!$F$1:$M$20</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="LMN_0_SUBSET" vbProcedure="false">VERS_0_Document!$D$1:$D$20</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="LMN_0_SUPSET" vbProcedure="false">VERS_0_Document!$C$1:$C$20</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="AREA" vbProcedure="false">VERS_0_Guide!$A$1:$P$185</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="LMN_0" vbProcedure="false">VERS_0_Guide!$F$1:$O$185</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="LMN_0_SUBSET" vbProcedure="false">VERS_0_Guide!$D$1:$D$185</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="LMN_0_SUPSET" vbProcedure="false">VERS_0_Guide!$C$1:$C$185</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="LMN_1" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="LMN_1_SUBSET" vbProcedure="false">VERS_0_Document!$D$1:$D$20</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="LMN_1_SUPSET" vbProcedure="false">VERS_0_Document!$C$1:$C$20</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="MOD_0" vbProcedure="false">VERS_0_Document!$A$1:$Q$20</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="MOD_0_COM" vbProcedure="false">VERS_0_Document!$A$5:$Q$20</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="MOD_0_SUP" vbProcedure="false">VERS_0_Document!$A$1:$Q$4</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="LMN_1_SUBSET" vbProcedure="false">VERS_0_Guide!$D$1:$D$185</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="LMN_1_SUPSET" vbProcedure="false">VERS_0_Guide!$C$1:$C$185</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="MOD_0" vbProcedure="false">VERS_0_Guide!$A$1:$P$185</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="MOD_0_COM" vbProcedure="false">VERS_0_Guide!$A$4:$P$185</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="MOD_0_SUP" vbProcedure="false">VERS_0_Guide!$A$1:$P$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="AREA" vbProcedure="false">VERS_0_Classification!$A$1:$P$23</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="LMN_0" vbProcedure="false">VERS_0_Classification!$F$1:$O$23</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="LMN_0_SUBSET" vbProcedure="false">VERS_0_Classification!$D$1:$D$23</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="LMN_0_SUPSET" vbProcedure="false">VERS_0_Classification!$C$1:$C$23</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="LMN_1" vbProcedure="false">#REF!</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="LMN_1_SUBSET" vbProcedure="false">VERS_0_Classification!$D$1:$D$23</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="LMN_1_SUPSET" vbProcedure="false">VERS_0_Classification!$C$1:$C$23</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="MOD_0" vbProcedure="false">VERS_0_Classification!$A$1:$P$23</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="MOD_0_COM" vbProcedure="false">VERS_0_Classification!$A$4:$P$23</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="MOD_0_SUP" vbProcedure="false">VERS_0_Classification!$A$1:$P$3</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -41,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2098" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2458" uniqueCount="258">
   <si>
     <t xml:space="preserve">fs</t>
   </si>
@@ -163,7 +174,7 @@
     <t xml:space="preserve">document</t>
   </si>
   <si>
-    <t xml:space="preserve">demonstrations</t>
+    <t xml:space="preserve">Guide</t>
   </si>
   <si>
     <t xml:space="preserve">index.md</t>
@@ -175,7 +186,10 @@
     <t xml:space="preserve">DynamicEventSystem</t>
   </si>
   <si>
-    <t xml:space="preserve">classes</t>
+    <t xml:space="preserve">Classification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Control</t>
   </si>
   <si>
     <t xml:space="preserve">Core</t>
@@ -415,9 +429,6 @@
     <t xml:space="preserve">Trap</t>
   </si>
   <si>
-    <t xml:space="preserve">EventSystem</t>
-  </si>
-  <si>
     <t xml:space="preserve">Event</t>
   </si>
   <si>
@@ -475,18 +486,6 @@
     <t xml:space="preserve">ten</t>
   </si>
   <si>
-    <t xml:space="preserve">pos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">par</t>
-  </si>
-  <si>
-    <t xml:space="preserve">in</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ex</t>
-  </si>
-  <si>
     <t xml:space="preserve">README</t>
   </si>
   <si>
@@ -511,16 +510,16 @@
     <t xml:space="preserve">Features</t>
   </si>
   <si>
-    <t xml:space="preserve">- </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dynamic Event Target (DET) ventilates prototypal Object, Array, and Map property modifier functions. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dynamic Event System (DES) facilitates proprietal Event Target/Dynamic Event Target assignment and ablement.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fetch Router configurates interfacile client/server endpoint calls and callbacks. </t>
+    <t xml:space="preserve">-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dynamic Event Target (DET) ventilates Object, Array, and Map property modifier functions. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dynamic Event System (DES) facilitates Event Target/Dynamic Event Target property assignment and ablement.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fetch Router interfacilitates client/server endpoint calls and callbacks. </t>
   </si>
   <si>
     <t xml:space="preserve">Documents</t>
@@ -529,10 +528,304 @@
     <t xml:space="preserve">###</t>
   </si>
   <si>
-    <t xml:space="preserve">Class System</t>
+    <t xml:space="preserve">[Classification](./document/Classification/index.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Core](./document/Classification/Core/index.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Model](./document/Classification/Model/index.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[View](./document/Classification/View/index.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Control](./document/Classification/Control/index.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Router](./document/Classification/Router/index.md)</t>
   </si>
   <si>
     <t xml:space="preserve">Demonstration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dynamic Event Target Guide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dynamic Event Target (DET) Guide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Overview</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ventilated DET Object Methods</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**5** Object Property Modifier Functions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**10** Object Property Modifier Function Event Emissions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">####</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Object Assign</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**4** Object Assign Events</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#####</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">assignSource</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">assignSourceProperty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">assignSourcePropertyKey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Object Define Properties</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**1** Object Define Properties Event</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Object Define Property</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**2** Object Define Property Events</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">definePropertyKey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Object Freeze</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**1** Object Freeze Event</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Object Seal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**1** Object Seal Event</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Object Set Prototype</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**1** Object Set Prototype Event</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ventilated DET Array Methods</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**10** Array Property Modifier Functions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**16** Array Property Modifier Function Event Emissions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Copy Within</t>
+  </si>
+  <si>
+    <t xml:space="preserve">copyWithinIndex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fillIndex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Length</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lengthSet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Push</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pushProp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reverse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shift</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.1.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sort</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Splice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spliceDelete</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spliceAdd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unshift</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unshiftProp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Examples</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Example \#1 - Ventilated Object</t>
+  </si>
+  <si>
+    <t xml:space="preserve">```</t>
+  </si>
+  <si>
+    <t xml:space="preserve">const object = new DynamicEventTarget({</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aaa: 111,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bbb: true,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ccc: "333",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ddd: {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eee: 555,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fff: false,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ggg: "777",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hhh: {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iii: 999,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jjj: null,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kkk: "111111"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">})</t>
+  </si>
+  <si>
+    <t xml:space="preserve">object.addEventListener({</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DET Handler Trap Events</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dynamic Event Target (DET) Class</t>
   </si>
 </sst>
 </file>
@@ -673,7 +966,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -707,7 +1000,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF5C6BC0"/>
-        <bgColor rgb="FF837D8C"/>
+        <bgColor rgb="FF7E57C2"/>
       </patternFill>
     </fill>
     <fill>
@@ -725,7 +1018,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF7B1FA2"/>
-        <bgColor rgb="FF4A148C"/>
+        <bgColor rgb="FF5E35B1"/>
       </patternFill>
     </fill>
     <fill>
@@ -737,13 +1030,13 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFAB47BC"/>
-        <bgColor rgb="FF7B1FA2"/>
+        <bgColor rgb="FF7E57C2"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF837D8C"/>
-        <bgColor rgb="FF80715E"/>
+        <bgColor rgb="FF757575"/>
       </patternFill>
     </fill>
     <fill>
@@ -767,7 +1060,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF616161"/>
-        <bgColor rgb="FF80715E"/>
+        <bgColor rgb="FF757575"/>
       </patternFill>
     </fill>
     <fill>
@@ -810,12 +1103,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF332B34"/>
         <bgColor rgb="FF28222A"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF80715E"/>
-        <bgColor rgb="FF837D8C"/>
       </patternFill>
     </fill>
     <fill>
@@ -866,8 +1153,50 @@
         <bgColor rgb="FFAD1457"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF757575"/>
+        <bgColor rgb="FF837D8C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD81B60"/>
+        <bgColor rgb="FFC2185B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBDBDBD"/>
+        <bgColor rgb="FFB7B3B2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEC407A"/>
+        <bgColor rgb="FFD81B60"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF512DA8"/>
+        <bgColor rgb="FF5E35B1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5E35B1"/>
+        <bgColor rgb="FF512DA8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7E57C2"/>
+        <bgColor rgb="FF5C6BC0"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -970,21 +1299,6 @@
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left style="thin">
-        <color rgb="FFBDBDBD"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFBDBDBD"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFBDBDBD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFBDBDBD"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
         <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
@@ -1067,7 +1381,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="111">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1224,10 +1538,6 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="21" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1260,24 +1570,20 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="16" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="24" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="16" fillId="25" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="16" fillId="24" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="26" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="17" fillId="25" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="26" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="17" fillId="25" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -1292,63 +1598,79 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="27" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="26" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="27" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="26" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="27" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="26" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="27" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="27" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="27" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="27" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="27" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="28" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="28" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="29" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="29" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="29" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="30" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="30" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="30" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="28" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="28" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="28" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="28" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="16" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="16" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="28" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="29" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="29" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="29" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="29" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="30" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="30" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="30" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="16" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1364,80 +1686,144 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="31" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="28" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="30" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="32" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="31" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="32" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="32" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="33" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="33" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="33" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="33" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="33" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="31" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="34" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="29" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="34" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="29" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="34" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="35" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="35" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="29" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="35" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="29" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="35" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="16" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="17" fillId="35" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="36" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="36" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="16" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="36" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="36" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="36" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="37" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="16" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="37" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="37" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="37" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="37" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="38" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="32" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="32" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="38" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="32" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="38" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="32" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="38" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="32" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="17" fillId="38" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="32" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="13" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="13" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="13" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="13" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1466,19 +1852,19 @@
       <rgbColor rgb="FFFFFFFF"/>
       <rgbColor rgb="FFD81B60"/>
       <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF5E35B1"/>
       <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFD500F9"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FFA61137"/>
       <rgbColor rgb="FF33691E"/>
       <rgbColor rgb="FF311B92"/>
-      <rgbColor rgb="FF80715E"/>
+      <rgbColor rgb="FF757575"/>
       <rgbColor rgb="FF880E4F"/>
       <rgbColor rgb="FF424242"/>
       <rgbColor rgb="FFBDBDBD"/>
       <rgbColor rgb="FF837D8C"/>
-      <rgbColor rgb="FFAB47BC"/>
+      <rgbColor rgb="FF7E57C2"/>
       <rgbColor rgb="FFAD1457"/>
       <rgbColor rgb="FFFAFAFA"/>
       <rgbColor rgb="FFE7E9F4"/>
@@ -1486,8 +1872,8 @@
       <rgbColor rgb="FFFFAB40"/>
       <rgbColor rgb="FF1D639D"/>
       <rgbColor rgb="FFF3E5F5"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF512DA8"/>
+      <rgbColor rgb="FFEC407A"/>
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF7B1FA2"/>
@@ -1500,7 +1886,7 @@
       <rgbColor rgb="FFFFE082"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFE5E05"/>
-      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFAB47BC"/>
       <rgbColor rgb="FFFFDE8A"/>
       <rgbColor rgb="FF0D47A1"/>
       <rgbColor rgb="FF33CCCC"/>
@@ -1635,19 +2021,19 @@
     <tabColor rgb="FFBF360C"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AB236"/>
+  <dimension ref="A1:AB240"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="11" ySplit="3" topLeftCell="L4" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="L1" activeCellId="0" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D15" activeCellId="0" sqref="D15"/>
+      <selection pane="bottomRight" activeCell="C15" activeCellId="0" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="4.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="2" style="1" width="2.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="26.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="3.09"/>
@@ -2442,59 +2828,65 @@
       <c r="AB14" s="5"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="28" t="n">
+      <c r="A15" s="22" t="n">
         <f aca="false">ROW() - 4</f>
         <v>11</v>
       </c>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="M15" s="31"/>
-      <c r="N15" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="O15" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="P15" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q15" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="R15" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="S15" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="T15" s="31"/>
-      <c r="U15" s="30" t="n">
-        <v>7</v>
-      </c>
-      <c r="V15" s="30" t="n">
-        <v>5</v>
-      </c>
-      <c r="W15" s="30" t="n">
-        <v>5</v>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="M15" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="N15" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="O15" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="P15" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q15" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="R15" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="S15" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="T15" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="U15" s="24" t="n">
+        <v>6</v>
+      </c>
+      <c r="V15" s="24" t="n">
+        <v>4</v>
+      </c>
+      <c r="W15" s="24" t="n">
+        <v>4</v>
       </c>
       <c r="X15" s="15"/>
       <c r="Y15" s="15"/>
       <c r="Z15" s="15"/>
       <c r="AA15" s="15"/>
-      <c r="AB15" s="5"/>
+      <c r="AB15" s="5" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="28" t="n">
@@ -2502,10 +2894,10 @@
         <v>12</v>
       </c>
       <c r="B16" s="29"/>
-      <c r="C16" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29" t="s">
+        <v>43</v>
+      </c>
       <c r="E16" s="29"/>
       <c r="F16" s="29"/>
       <c r="G16" s="29"/>
@@ -2549,9 +2941,7 @@
       <c r="Y16" s="15"/>
       <c r="Z16" s="15"/>
       <c r="AA16" s="15"/>
-      <c r="AB16" s="5" t="s">
-        <v>2</v>
-      </c>
+      <c r="AB16" s="5"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="22" t="n">
@@ -2560,10 +2950,10 @@
       </c>
       <c r="B17" s="23"/>
       <c r="C17" s="23"/>
-      <c r="D17" s="23" t="s">
+      <c r="D17" s="23"/>
+      <c r="E17" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="E17" s="23"/>
       <c r="F17" s="23"/>
       <c r="G17" s="23"/>
       <c r="H17" s="23"/>
@@ -2620,10 +3010,10 @@
         <v>14</v>
       </c>
       <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29" t="s">
-        <v>45</v>
-      </c>
+      <c r="C18" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="29"/>
       <c r="E18" s="29"/>
       <c r="F18" s="29"/>
       <c r="G18" s="29"/>
@@ -2678,10 +3068,10 @@
       </c>
       <c r="B19" s="23"/>
       <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23" t="s">
+      <c r="D19" s="23" t="s">
         <v>41</v>
       </c>
+      <c r="E19" s="23"/>
       <c r="F19" s="23"/>
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
@@ -2728,7 +3118,9 @@
       <c r="Y19" s="15"/>
       <c r="Z19" s="15"/>
       <c r="AA19" s="15"/>
-      <c r="AB19" s="5"/>
+      <c r="AB19" s="5" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="28" t="n">
@@ -2737,10 +3129,10 @@
       </c>
       <c r="B20" s="29"/>
       <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29" t="s">
-        <v>42</v>
-      </c>
+      <c r="D20" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="29"/>
       <c r="F20" s="29"/>
       <c r="G20" s="29"/>
       <c r="H20" s="29"/>
@@ -2795,10 +3187,10 @@
       <c r="B21" s="23"/>
       <c r="C21" s="23"/>
       <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23" t="s">
+      <c r="E21" s="23" t="s">
         <v>41</v>
       </c>
+      <c r="F21" s="23"/>
       <c r="G21" s="23"/>
       <c r="H21" s="23"/>
       <c r="I21" s="23"/>
@@ -2844,7 +3236,9 @@
       <c r="Y21" s="15"/>
       <c r="Z21" s="15"/>
       <c r="AA21" s="15"/>
-      <c r="AB21" s="5"/>
+      <c r="AB21" s="5" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="28" t="n">
@@ -2853,11 +3247,11 @@
       </c>
       <c r="B22" s="29"/>
       <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
+      <c r="D22" s="29" t="s">
+        <v>46</v>
+      </c>
       <c r="E22" s="29"/>
-      <c r="F22" s="29" t="s">
-        <v>46</v>
-      </c>
+      <c r="F22" s="29"/>
       <c r="G22" s="29"/>
       <c r="H22" s="29"/>
       <c r="I22" s="29"/>
@@ -2911,11 +3305,11 @@
       <c r="B23" s="23"/>
       <c r="C23" s="23"/>
       <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
+      <c r="E23" s="23" t="s">
+        <v>41</v>
+      </c>
       <c r="F23" s="23"/>
-      <c r="G23" s="23" t="s">
-        <v>41</v>
-      </c>
+      <c r="G23" s="23"/>
       <c r="H23" s="23"/>
       <c r="I23" s="23"/>
       <c r="J23" s="23"/>
@@ -2970,11 +3364,11 @@
       <c r="B24" s="29"/>
       <c r="C24" s="29"/>
       <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
+      <c r="E24" s="29" t="s">
+        <v>42</v>
+      </c>
       <c r="F24" s="29"/>
-      <c r="G24" s="29" t="s">
-        <v>47</v>
-      </c>
+      <c r="G24" s="29"/>
       <c r="H24" s="29"/>
       <c r="I24" s="29"/>
       <c r="J24" s="29"/>
@@ -3028,11 +3422,11 @@
       <c r="C25" s="23"/>
       <c r="D25" s="23"/>
       <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
+      <c r="F25" s="23" t="s">
+        <v>41</v>
+      </c>
       <c r="G25" s="23"/>
-      <c r="H25" s="23" t="s">
-        <v>41</v>
-      </c>
+      <c r="H25" s="23"/>
       <c r="I25" s="23"/>
       <c r="J25" s="23"/>
       <c r="K25" s="23"/>
@@ -3087,11 +3481,11 @@
       <c r="C26" s="29"/>
       <c r="D26" s="29"/>
       <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
+      <c r="F26" s="29" t="s">
+        <v>47</v>
+      </c>
       <c r="G26" s="29"/>
-      <c r="H26" s="29" t="s">
-        <v>48</v>
-      </c>
+      <c r="H26" s="29"/>
       <c r="I26" s="29"/>
       <c r="J26" s="29"/>
       <c r="K26" s="29"/>
@@ -3145,11 +3539,11 @@
       <c r="D27" s="23"/>
       <c r="E27" s="23"/>
       <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
+      <c r="G27" s="23" t="s">
+        <v>41</v>
+      </c>
       <c r="H27" s="23"/>
-      <c r="I27" s="23" t="s">
-        <v>41</v>
-      </c>
+      <c r="I27" s="23"/>
       <c r="J27" s="23"/>
       <c r="K27" s="23"/>
       <c r="L27" s="24" t="s">
@@ -3204,10 +3598,10 @@
       <c r="D28" s="29"/>
       <c r="E28" s="29"/>
       <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29" t="s">
-        <v>49</v>
-      </c>
+      <c r="G28" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="H28" s="29"/>
       <c r="I28" s="29"/>
       <c r="J28" s="29"/>
       <c r="K28" s="29"/>
@@ -3262,10 +3656,10 @@
       <c r="E29" s="23"/>
       <c r="F29" s="23"/>
       <c r="G29" s="23"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="23" t="s">
+      <c r="H29" s="23" t="s">
         <v>41</v>
       </c>
+      <c r="I29" s="23"/>
       <c r="J29" s="23"/>
       <c r="K29" s="23"/>
       <c r="L29" s="24" t="s">
@@ -3310,7 +3704,7 @@
       <c r="AA29" s="15"/>
       <c r="AB29" s="5"/>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="28" t="n">
         <f aca="false">ROW() - 4</f>
         <v>26</v>
@@ -3321,10 +3715,10 @@
       <c r="E30" s="29"/>
       <c r="F30" s="29"/>
       <c r="G30" s="29"/>
-      <c r="H30" s="29"/>
-      <c r="I30" s="29" t="s">
-        <v>50</v>
-      </c>
+      <c r="H30" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="I30" s="29"/>
       <c r="J30" s="29"/>
       <c r="K30" s="29"/>
       <c r="L30" s="30" t="s">
@@ -3367,7 +3761,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="22" t="n">
         <f aca="false">ROW() - 4</f>
         <v>27</v>
@@ -3379,10 +3773,10 @@
       <c r="F31" s="23"/>
       <c r="G31" s="23"/>
       <c r="H31" s="23"/>
-      <c r="I31" s="23"/>
-      <c r="J31" s="23" t="s">
+      <c r="I31" s="23" t="s">
         <v>41</v>
       </c>
+      <c r="J31" s="23"/>
       <c r="K31" s="23"/>
       <c r="L31" s="24" t="s">
         <v>23</v>
@@ -3426,7 +3820,7 @@
       <c r="AA31" s="15"/>
       <c r="AB31" s="5"/>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="28" t="n">
         <f aca="false">ROW() - 4</f>
         <v>28</v>
@@ -3437,11 +3831,11 @@
       <c r="E32" s="29"/>
       <c r="F32" s="29"/>
       <c r="G32" s="29"/>
-      <c r="H32" s="29"/>
+      <c r="H32" s="29" t="s">
+        <v>50</v>
+      </c>
       <c r="I32" s="29"/>
-      <c r="J32" s="29" t="s">
-        <v>51</v>
-      </c>
+      <c r="J32" s="29"/>
       <c r="K32" s="29"/>
       <c r="L32" s="30" t="s">
         <v>23</v>
@@ -3483,7 +3877,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="22" t="n">
         <f aca="false">ROW() - 4</f>
         <v>29</v>
@@ -3495,7 +3889,9 @@
       <c r="F33" s="23"/>
       <c r="G33" s="23"/>
       <c r="H33" s="23"/>
-      <c r="I33" s="23"/>
+      <c r="I33" s="23" t="s">
+        <v>41</v>
+      </c>
       <c r="J33" s="23"/>
       <c r="K33" s="23"/>
       <c r="L33" s="24" t="s">
@@ -3552,10 +3948,10 @@
       <c r="F34" s="29"/>
       <c r="G34" s="29"/>
       <c r="H34" s="29"/>
-      <c r="I34" s="29"/>
-      <c r="J34" s="29" t="s">
-        <v>52</v>
-      </c>
+      <c r="I34" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="J34" s="29"/>
       <c r="K34" s="29"/>
       <c r="L34" s="30" t="s">
         <v>23</v>
@@ -3610,7 +4006,9 @@
       <c r="G35" s="23"/>
       <c r="H35" s="23"/>
       <c r="I35" s="23"/>
-      <c r="J35" s="23"/>
+      <c r="J35" s="23" t="s">
+        <v>41</v>
+      </c>
       <c r="K35" s="23"/>
       <c r="L35" s="24" t="s">
         <v>23</v>
@@ -3668,7 +4066,7 @@
       <c r="H36" s="29"/>
       <c r="I36" s="29"/>
       <c r="J36" s="29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K36" s="29"/>
       <c r="L36" s="30" t="s">
@@ -3782,7 +4180,7 @@
       <c r="H38" s="29"/>
       <c r="I38" s="29"/>
       <c r="J38" s="29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K38" s="29"/>
       <c r="L38" s="30" t="s">
@@ -3896,7 +4294,7 @@
       <c r="H40" s="29"/>
       <c r="I40" s="29"/>
       <c r="J40" s="29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K40" s="29"/>
       <c r="L40" s="30" t="s">
@@ -4010,7 +4408,7 @@
       <c r="H42" s="29"/>
       <c r="I42" s="29"/>
       <c r="J42" s="29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K42" s="29"/>
       <c r="L42" s="30" t="s">
@@ -4124,7 +4522,7 @@
       <c r="H44" s="29"/>
       <c r="I44" s="29"/>
       <c r="J44" s="29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K44" s="29"/>
       <c r="L44" s="30" t="s">
@@ -4238,7 +4636,7 @@
       <c r="H46" s="29"/>
       <c r="I46" s="29"/>
       <c r="J46" s="29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K46" s="29"/>
       <c r="L46" s="30" t="s">
@@ -4352,7 +4750,7 @@
       <c r="H48" s="29"/>
       <c r="I48" s="29"/>
       <c r="J48" s="29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K48" s="29"/>
       <c r="L48" s="30" t="s">
@@ -4466,7 +4864,7 @@
       <c r="H50" s="29"/>
       <c r="I50" s="29"/>
       <c r="J50" s="29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K50" s="29"/>
       <c r="L50" s="30" t="s">
@@ -4580,7 +4978,7 @@
       <c r="H52" s="29"/>
       <c r="I52" s="29"/>
       <c r="J52" s="29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K52" s="29"/>
       <c r="L52" s="30" t="s">
@@ -4694,7 +5092,7 @@
       <c r="H54" s="29"/>
       <c r="I54" s="29"/>
       <c r="J54" s="29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K54" s="29"/>
       <c r="L54" s="30" t="s">
@@ -4808,7 +5206,7 @@
       <c r="H56" s="29"/>
       <c r="I56" s="29"/>
       <c r="J56" s="29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K56" s="29"/>
       <c r="L56" s="30" t="s">
@@ -4922,7 +5320,7 @@
       <c r="H58" s="29"/>
       <c r="I58" s="29"/>
       <c r="J58" s="29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K58" s="29"/>
       <c r="L58" s="30" t="s">
@@ -5036,7 +5434,7 @@
       <c r="H60" s="29"/>
       <c r="I60" s="29"/>
       <c r="J60" s="29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K60" s="29"/>
       <c r="L60" s="30" t="s">
@@ -5150,7 +5548,7 @@
       <c r="H62" s="29"/>
       <c r="I62" s="29"/>
       <c r="J62" s="29" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K62" s="29"/>
       <c r="L62" s="30" t="s">
@@ -5264,7 +5662,7 @@
       <c r="H64" s="29"/>
       <c r="I64" s="29"/>
       <c r="J64" s="29" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K64" s="29"/>
       <c r="L64" s="30" t="s">
@@ -5378,7 +5776,7 @@
       <c r="H66" s="29"/>
       <c r="I66" s="29"/>
       <c r="J66" s="29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K66" s="29"/>
       <c r="L66" s="30" t="s">
@@ -5492,7 +5890,7 @@
       <c r="H68" s="29"/>
       <c r="I68" s="29"/>
       <c r="J68" s="29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K68" s="29"/>
       <c r="L68" s="30" t="s">
@@ -5606,7 +6004,7 @@
       <c r="H70" s="29"/>
       <c r="I70" s="29"/>
       <c r="J70" s="29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K70" s="29"/>
       <c r="L70" s="30" t="s">
@@ -5720,7 +6118,7 @@
       <c r="H72" s="29"/>
       <c r="I72" s="29"/>
       <c r="J72" s="29" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K72" s="29"/>
       <c r="L72" s="30" t="s">
@@ -5834,7 +6232,7 @@
       <c r="H74" s="29"/>
       <c r="I74" s="29"/>
       <c r="J74" s="29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K74" s="29"/>
       <c r="L74" s="30" t="s">
@@ -5948,7 +6346,7 @@
       <c r="H76" s="29"/>
       <c r="I76" s="29"/>
       <c r="J76" s="29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K76" s="29"/>
       <c r="L76" s="30" t="s">
@@ -6062,7 +6460,7 @@
       <c r="H78" s="29"/>
       <c r="I78" s="29"/>
       <c r="J78" s="29" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K78" s="29"/>
       <c r="L78" s="30" t="s">
@@ -6176,7 +6574,7 @@
       <c r="H80" s="29"/>
       <c r="I80" s="29"/>
       <c r="J80" s="29" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K80" s="29"/>
       <c r="L80" s="30" t="s">
@@ -6290,7 +6688,7 @@
       <c r="H82" s="29"/>
       <c r="I82" s="29"/>
       <c r="J82" s="29" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K82" s="29"/>
       <c r="L82" s="30" t="s">
@@ -6404,7 +6802,7 @@
       <c r="H84" s="29"/>
       <c r="I84" s="29"/>
       <c r="J84" s="29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K84" s="29"/>
       <c r="L84" s="30" t="s">
@@ -6518,7 +6916,7 @@
       <c r="H86" s="29"/>
       <c r="I86" s="29"/>
       <c r="J86" s="29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K86" s="29"/>
       <c r="L86" s="30" t="s">
@@ -6632,7 +7030,7 @@
       <c r="H88" s="29"/>
       <c r="I88" s="29"/>
       <c r="J88" s="29" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K88" s="29"/>
       <c r="L88" s="30" t="s">
@@ -6746,7 +7144,7 @@
       <c r="H90" s="29"/>
       <c r="I90" s="29"/>
       <c r="J90" s="29" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K90" s="29"/>
       <c r="L90" s="30" t="s">
@@ -6860,7 +7258,7 @@
       <c r="H92" s="29"/>
       <c r="I92" s="29"/>
       <c r="J92" s="29" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K92" s="29"/>
       <c r="L92" s="30" t="s">
@@ -6974,7 +7372,7 @@
       <c r="H94" s="29"/>
       <c r="I94" s="29"/>
       <c r="J94" s="29" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K94" s="29"/>
       <c r="L94" s="30" t="s">
@@ -7088,7 +7486,7 @@
       <c r="H96" s="29"/>
       <c r="I96" s="29"/>
       <c r="J96" s="29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K96" s="29"/>
       <c r="L96" s="30" t="s">
@@ -7202,7 +7600,7 @@
       <c r="H98" s="29"/>
       <c r="I98" s="29"/>
       <c r="J98" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K98" s="29"/>
       <c r="L98" s="30" t="s">
@@ -7316,7 +7714,7 @@
       <c r="H100" s="29"/>
       <c r="I100" s="29"/>
       <c r="J100" s="29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K100" s="29"/>
       <c r="L100" s="30" t="s">
@@ -7430,7 +7828,7 @@
       <c r="H102" s="29"/>
       <c r="I102" s="29"/>
       <c r="J102" s="29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K102" s="29"/>
       <c r="L102" s="30" t="s">
@@ -7544,7 +7942,7 @@
       <c r="H104" s="29"/>
       <c r="I104" s="29"/>
       <c r="J104" s="29" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K104" s="29"/>
       <c r="L104" s="30" t="s">
@@ -7658,7 +8056,7 @@
       <c r="H106" s="29"/>
       <c r="I106" s="29"/>
       <c r="J106" s="29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K106" s="29"/>
       <c r="L106" s="30" t="s">
@@ -7772,7 +8170,7 @@
       <c r="H108" s="29"/>
       <c r="I108" s="29"/>
       <c r="J108" s="29" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K108" s="29"/>
       <c r="L108" s="30" t="s">
@@ -7886,7 +8284,7 @@
       <c r="H110" s="29"/>
       <c r="I110" s="29"/>
       <c r="J110" s="29" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K110" s="29"/>
       <c r="L110" s="30" t="s">
@@ -8000,7 +8398,7 @@
       <c r="H112" s="29"/>
       <c r="I112" s="29"/>
       <c r="J112" s="29" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K112" s="29"/>
       <c r="L112" s="30" t="s">
@@ -8114,7 +8512,7 @@
       <c r="H114" s="29"/>
       <c r="I114" s="29"/>
       <c r="J114" s="29" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K114" s="29"/>
       <c r="L114" s="30" t="s">
@@ -8226,10 +8624,10 @@
       <c r="F116" s="29"/>
       <c r="G116" s="29"/>
       <c r="H116" s="29"/>
-      <c r="I116" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="J116" s="29"/>
+      <c r="I116" s="29"/>
+      <c r="J116" s="29" t="s">
+        <v>92</v>
+      </c>
       <c r="K116" s="29"/>
       <c r="L116" s="30" t="s">
         <v>23</v>
@@ -8284,9 +8682,7 @@
       <c r="G117" s="23"/>
       <c r="H117" s="23"/>
       <c r="I117" s="23"/>
-      <c r="J117" s="23" t="s">
-        <v>41</v>
-      </c>
+      <c r="J117" s="23"/>
       <c r="K117" s="23"/>
       <c r="L117" s="24" t="s">
         <v>23</v>
@@ -8344,7 +8740,7 @@
       <c r="H118" s="29"/>
       <c r="I118" s="29"/>
       <c r="J118" s="29" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K118" s="29"/>
       <c r="L118" s="30" t="s">
@@ -8383,7 +8779,9 @@
       <c r="Y118" s="15"/>
       <c r="Z118" s="15"/>
       <c r="AA118" s="15"/>
-      <c r="AB118" s="5"/>
+      <c r="AB118" s="5" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A119" s="22" t="n">
@@ -8454,10 +8852,10 @@
       <c r="F120" s="29"/>
       <c r="G120" s="29"/>
       <c r="H120" s="29"/>
-      <c r="I120" s="29"/>
-      <c r="J120" s="29" t="s">
-        <v>15</v>
-      </c>
+      <c r="I120" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="J120" s="29"/>
       <c r="K120" s="29"/>
       <c r="L120" s="30" t="s">
         <v>23</v>
@@ -8495,7 +8893,9 @@
       <c r="Y120" s="15"/>
       <c r="Z120" s="15"/>
       <c r="AA120" s="15"/>
-      <c r="AB120" s="5"/>
+      <c r="AB120" s="5" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A121" s="22" t="n">
@@ -8510,7 +8910,9 @@
       <c r="G121" s="23"/>
       <c r="H121" s="23"/>
       <c r="I121" s="23"/>
-      <c r="J121" s="23"/>
+      <c r="J121" s="23" t="s">
+        <v>41</v>
+      </c>
       <c r="K121" s="23"/>
       <c r="L121" s="24" t="s">
         <v>23</v>
@@ -8568,7 +8970,7 @@
       <c r="H122" s="29"/>
       <c r="I122" s="29"/>
       <c r="J122" s="29" t="s">
-        <v>54</v>
+        <v>95</v>
       </c>
       <c r="K122" s="29"/>
       <c r="L122" s="30" t="s">
@@ -8680,7 +9082,7 @@
       <c r="H124" s="29"/>
       <c r="I124" s="29"/>
       <c r="J124" s="29" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="K124" s="29"/>
       <c r="L124" s="30" t="s">
@@ -8792,7 +9194,7 @@
       <c r="H126" s="29"/>
       <c r="I126" s="29"/>
       <c r="J126" s="29" t="s">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="K126" s="29"/>
       <c r="L126" s="30" t="s">
@@ -8904,7 +9306,7 @@
       <c r="H128" s="29"/>
       <c r="I128" s="29"/>
       <c r="J128" s="29" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="K128" s="29"/>
       <c r="L128" s="30" t="s">
@@ -9016,7 +9418,7 @@
       <c r="H130" s="29"/>
       <c r="I130" s="29"/>
       <c r="J130" s="29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K130" s="29"/>
       <c r="L130" s="30" t="s">
@@ -9128,7 +9530,7 @@
       <c r="H132" s="29"/>
       <c r="I132" s="29"/>
       <c r="J132" s="29" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="K132" s="29"/>
       <c r="L132" s="30" t="s">
@@ -9352,7 +9754,7 @@
       <c r="H136" s="29"/>
       <c r="I136" s="29"/>
       <c r="J136" s="29" t="s">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="K136" s="29"/>
       <c r="L136" s="30" t="s">
@@ -9464,7 +9866,7 @@
       <c r="H138" s="29"/>
       <c r="I138" s="29"/>
       <c r="J138" s="29" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="K138" s="29"/>
       <c r="L138" s="30" t="s">
@@ -9574,10 +9976,10 @@
       <c r="F140" s="29"/>
       <c r="G140" s="29"/>
       <c r="H140" s="29"/>
-      <c r="I140" s="29" t="s">
+      <c r="I140" s="29"/>
+      <c r="J140" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="J140" s="29"/>
       <c r="K140" s="29"/>
       <c r="L140" s="30" t="s">
         <v>23</v>
@@ -9615,9 +10017,7 @@
       <c r="Y140" s="15"/>
       <c r="Z140" s="15"/>
       <c r="AA140" s="15"/>
-      <c r="AB140" s="5" t="s">
-        <v>2</v>
-      </c>
+      <c r="AB140" s="5"/>
     </row>
     <row r="141" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A141" s="22" t="n">
@@ -9632,9 +10032,7 @@
       <c r="G141" s="23"/>
       <c r="H141" s="23"/>
       <c r="I141" s="23"/>
-      <c r="J141" s="23" t="s">
-        <v>41</v>
-      </c>
+      <c r="J141" s="23"/>
       <c r="K141" s="23"/>
       <c r="L141" s="24" t="s">
         <v>23</v>
@@ -9692,7 +10090,7 @@
       <c r="H142" s="29"/>
       <c r="I142" s="29"/>
       <c r="J142" s="29" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="K142" s="29"/>
       <c r="L142" s="30" t="s">
@@ -9731,9 +10129,7 @@
       <c r="Y142" s="15"/>
       <c r="Z142" s="15"/>
       <c r="AA142" s="15"/>
-      <c r="AB142" s="5" t="s">
-        <v>2</v>
-      </c>
+      <c r="AB142" s="5"/>
     </row>
     <row r="143" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A143" s="22" t="n">
@@ -9804,10 +10200,10 @@
       <c r="F144" s="29"/>
       <c r="G144" s="29"/>
       <c r="H144" s="29"/>
-      <c r="I144" s="29"/>
-      <c r="J144" s="29" t="s">
-        <v>102</v>
-      </c>
+      <c r="I144" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="J144" s="29"/>
       <c r="K144" s="29"/>
       <c r="L144" s="30" t="s">
         <v>23</v>
@@ -9862,7 +10258,9 @@
       <c r="G145" s="23"/>
       <c r="H145" s="23"/>
       <c r="I145" s="23"/>
-      <c r="J145" s="23"/>
+      <c r="J145" s="23" t="s">
+        <v>41</v>
+      </c>
       <c r="K145" s="23"/>
       <c r="L145" s="24" t="s">
         <v>23</v>
@@ -9920,7 +10318,7 @@
       <c r="H146" s="29"/>
       <c r="I146" s="29"/>
       <c r="J146" s="29" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K146" s="29"/>
       <c r="L146" s="30" t="s">
@@ -10034,7 +10432,7 @@
       <c r="H148" s="29"/>
       <c r="I148" s="29"/>
       <c r="J148" s="29" t="s">
-        <v>54</v>
+        <v>103</v>
       </c>
       <c r="K148" s="29"/>
       <c r="L148" s="30" t="s">
@@ -10187,7 +10585,9 @@
       <c r="Y150" s="15"/>
       <c r="Z150" s="15"/>
       <c r="AA150" s="15"/>
-      <c r="AB150" s="5"/>
+      <c r="AB150" s="5" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="151" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A151" s="22" t="n">
@@ -10260,7 +10660,7 @@
       <c r="H152" s="29"/>
       <c r="I152" s="29"/>
       <c r="J152" s="29" t="s">
-        <v>105</v>
+        <v>55</v>
       </c>
       <c r="K152" s="29"/>
       <c r="L152" s="30" t="s">
@@ -10299,7 +10699,9 @@
       <c r="Y152" s="15"/>
       <c r="Z152" s="15"/>
       <c r="AA152" s="15"/>
-      <c r="AB152" s="5"/>
+      <c r="AB152" s="5" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="153" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A153" s="22" t="n">
@@ -10372,7 +10774,7 @@
       <c r="H154" s="29"/>
       <c r="I154" s="29"/>
       <c r="J154" s="29" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K154" s="29"/>
       <c r="L154" s="30" t="s">
@@ -10484,7 +10886,7 @@
       <c r="H156" s="29"/>
       <c r="I156" s="29"/>
       <c r="J156" s="29" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K156" s="29"/>
       <c r="L156" s="30" t="s">
@@ -10596,7 +10998,7 @@
       <c r="H158" s="29"/>
       <c r="I158" s="29"/>
       <c r="J158" s="29" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K158" s="29"/>
       <c r="L158" s="30" t="s">
@@ -10708,7 +11110,7 @@
       <c r="H160" s="29"/>
       <c r="I160" s="29"/>
       <c r="J160" s="29" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K160" s="29"/>
       <c r="L160" s="30" t="s">
@@ -10820,7 +11222,7 @@
       <c r="H162" s="29"/>
       <c r="I162" s="29"/>
       <c r="J162" s="29" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K162" s="29"/>
       <c r="L162" s="30" t="s">
@@ -10932,7 +11334,7 @@
       <c r="H164" s="29"/>
       <c r="I164" s="29"/>
       <c r="J164" s="29" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="K164" s="29"/>
       <c r="L164" s="30" t="s">
@@ -11156,7 +11558,7 @@
       <c r="H168" s="29"/>
       <c r="I168" s="29"/>
       <c r="J168" s="29" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="K168" s="29"/>
       <c r="L168" s="30" t="s">
@@ -11268,7 +11670,7 @@
       <c r="H170" s="29"/>
       <c r="I170" s="29"/>
       <c r="J170" s="29" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K170" s="29"/>
       <c r="L170" s="30" t="s">
@@ -11380,7 +11782,7 @@
       <c r="H172" s="29"/>
       <c r="I172" s="29"/>
       <c r="J172" s="29" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K172" s="29"/>
       <c r="L172" s="30" t="s">
@@ -11492,7 +11894,7 @@
       <c r="H174" s="29"/>
       <c r="I174" s="29"/>
       <c r="J174" s="29" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K174" s="29"/>
       <c r="L174" s="30" t="s">
@@ -11604,7 +12006,7 @@
       <c r="H176" s="29"/>
       <c r="I176" s="29"/>
       <c r="J176" s="29" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K176" s="29"/>
       <c r="L176" s="30" t="s">
@@ -11716,7 +12118,7 @@
       <c r="H178" s="29"/>
       <c r="I178" s="29"/>
       <c r="J178" s="29" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K178" s="29"/>
       <c r="L178" s="30" t="s">
@@ -11828,7 +12230,7 @@
       <c r="H180" s="29"/>
       <c r="I180" s="29"/>
       <c r="J180" s="29" t="s">
-        <v>71</v>
+        <v>117</v>
       </c>
       <c r="K180" s="29"/>
       <c r="L180" s="30" t="s">
@@ -12052,7 +12454,7 @@
       <c r="H184" s="29"/>
       <c r="I184" s="29"/>
       <c r="J184" s="29" t="s">
-        <v>119</v>
+        <v>72</v>
       </c>
       <c r="K184" s="29"/>
       <c r="L184" s="30" t="s">
@@ -12164,7 +12566,7 @@
       <c r="H186" s="29"/>
       <c r="I186" s="29"/>
       <c r="J186" s="29" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K186" s="29"/>
       <c r="L186" s="30" t="s">
@@ -12276,7 +12678,7 @@
       <c r="H188" s="29"/>
       <c r="I188" s="29"/>
       <c r="J188" s="29" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K188" s="29"/>
       <c r="L188" s="30" t="s">
@@ -12388,7 +12790,7 @@
       <c r="H190" s="29"/>
       <c r="I190" s="29"/>
       <c r="J190" s="29" t="s">
-        <v>85</v>
+        <v>121</v>
       </c>
       <c r="K190" s="29"/>
       <c r="L190" s="30" t="s">
@@ -12500,7 +12902,7 @@
       <c r="H192" s="29"/>
       <c r="I192" s="29"/>
       <c r="J192" s="29" t="s">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="K192" s="29"/>
       <c r="L192" s="30" t="s">
@@ -12612,7 +13014,7 @@
       <c r="H194" s="29"/>
       <c r="I194" s="29"/>
       <c r="J194" s="29" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
       <c r="K194" s="29"/>
       <c r="L194" s="30" t="s">
@@ -12724,7 +13126,7 @@
       <c r="H196" s="29"/>
       <c r="I196" s="29"/>
       <c r="J196" s="29" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K196" s="29"/>
       <c r="L196" s="30" t="s">
@@ -12822,7 +13224,7 @@
       <c r="AA197" s="15"/>
       <c r="AB197" s="5"/>
     </row>
-    <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="198" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A198" s="28" t="n">
         <f aca="false">ROW() - 4</f>
         <v>194</v>
@@ -12834,10 +13236,10 @@
       <c r="F198" s="29"/>
       <c r="G198" s="29"/>
       <c r="H198" s="29"/>
-      <c r="I198" s="29" t="s">
+      <c r="I198" s="29"/>
+      <c r="J198" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="J198" s="29"/>
       <c r="K198" s="29"/>
       <c r="L198" s="30" t="s">
         <v>23</v>
@@ -12875,11 +13277,9 @@
       <c r="Y198" s="15"/>
       <c r="Z198" s="15"/>
       <c r="AA198" s="15"/>
-      <c r="AB198" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AB198" s="5"/>
+    </row>
+    <row r="199" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A199" s="22" t="n">
         <f aca="false">ROW() - 4</f>
         <v>195</v>
@@ -12892,9 +13292,7 @@
       <c r="G199" s="23"/>
       <c r="H199" s="23"/>
       <c r="I199" s="23"/>
-      <c r="J199" s="23" t="s">
-        <v>41</v>
-      </c>
+      <c r="J199" s="23"/>
       <c r="K199" s="23"/>
       <c r="L199" s="24" t="s">
         <v>23</v>
@@ -12938,7 +13336,7 @@
       <c r="AA199" s="15"/>
       <c r="AB199" s="5"/>
     </row>
-    <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="200" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A200" s="28" t="n">
         <f aca="false">ROW() - 4</f>
         <v>196</v>
@@ -12946,14 +13344,14 @@
       <c r="B200" s="29"/>
       <c r="C200" s="29"/>
       <c r="D200" s="29"/>
-      <c r="E200" s="29" t="s">
-        <v>124</v>
-      </c>
+      <c r="E200" s="29"/>
       <c r="F200" s="29"/>
       <c r="G200" s="29"/>
       <c r="H200" s="29"/>
       <c r="I200" s="29"/>
-      <c r="J200" s="29"/>
+      <c r="J200" s="29" t="s">
+        <v>92</v>
+      </c>
       <c r="K200" s="29"/>
       <c r="L200" s="30" t="s">
         <v>23</v>
@@ -12991,11 +13389,9 @@
       <c r="Y200" s="15"/>
       <c r="Z200" s="15"/>
       <c r="AA200" s="15"/>
-      <c r="AB200" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AB200" s="5"/>
+    </row>
+    <row r="201" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A201" s="22" t="n">
         <f aca="false">ROW() - 4</f>
         <v>197</v>
@@ -13004,9 +13400,7 @@
       <c r="C201" s="23"/>
       <c r="D201" s="23"/>
       <c r="E201" s="23"/>
-      <c r="F201" s="23" t="s">
-        <v>41</v>
-      </c>
+      <c r="F201" s="23"/>
       <c r="G201" s="23"/>
       <c r="H201" s="23"/>
       <c r="I201" s="23"/>
@@ -13063,12 +13457,12 @@
       <c r="C202" s="29"/>
       <c r="D202" s="29"/>
       <c r="E202" s="29"/>
-      <c r="F202" s="29" t="s">
-        <v>125</v>
-      </c>
+      <c r="F202" s="29"/>
       <c r="G202" s="29"/>
       <c r="H202" s="29"/>
-      <c r="I202" s="29"/>
+      <c r="I202" s="29" t="s">
+        <v>124</v>
+      </c>
       <c r="J202" s="29"/>
       <c r="K202" s="29"/>
       <c r="L202" s="30" t="s">
@@ -13121,12 +13515,12 @@
       <c r="D203" s="23"/>
       <c r="E203" s="23"/>
       <c r="F203" s="23"/>
-      <c r="G203" s="23" t="s">
-        <v>41</v>
-      </c>
+      <c r="G203" s="23"/>
       <c r="H203" s="23"/>
       <c r="I203" s="23"/>
-      <c r="J203" s="23"/>
+      <c r="J203" s="23" t="s">
+        <v>41</v>
+      </c>
       <c r="K203" s="23"/>
       <c r="L203" s="24" t="s">
         <v>23</v>
@@ -13177,10 +13571,10 @@
       </c>
       <c r="B204" s="29"/>
       <c r="C204" s="29"/>
-      <c r="D204" s="29" t="s">
-        <v>126</v>
-      </c>
-      <c r="E204" s="29"/>
+      <c r="D204" s="29"/>
+      <c r="E204" s="29" t="s">
+        <v>43</v>
+      </c>
       <c r="F204" s="29"/>
       <c r="G204" s="29"/>
       <c r="H204" s="29"/>
@@ -13235,10 +13629,10 @@
       <c r="B205" s="23"/>
       <c r="C205" s="23"/>
       <c r="D205" s="23"/>
-      <c r="E205" s="23" t="s">
+      <c r="E205" s="23"/>
+      <c r="F205" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="F205" s="23"/>
       <c r="G205" s="23"/>
       <c r="H205" s="23"/>
       <c r="I205" s="23"/>
@@ -13294,10 +13688,10 @@
       <c r="B206" s="29"/>
       <c r="C206" s="29"/>
       <c r="D206" s="29"/>
-      <c r="E206" s="29" t="s">
-        <v>127</v>
-      </c>
-      <c r="F206" s="29"/>
+      <c r="E206" s="29"/>
+      <c r="F206" s="29" t="s">
+        <v>125</v>
+      </c>
       <c r="G206" s="29"/>
       <c r="H206" s="29"/>
       <c r="I206" s="29"/>
@@ -13352,10 +13746,10 @@
       <c r="C207" s="23"/>
       <c r="D207" s="23"/>
       <c r="E207" s="23"/>
-      <c r="F207" s="23" t="s">
+      <c r="F207" s="23"/>
+      <c r="G207" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="G207" s="23"/>
       <c r="H207" s="23"/>
       <c r="I207" s="23"/>
       <c r="J207" s="23"/>
@@ -13410,7 +13804,7 @@
       <c r="B208" s="29"/>
       <c r="C208" s="29"/>
       <c r="D208" s="29" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E208" s="29"/>
       <c r="F208" s="29"/>
@@ -13527,7 +13921,7 @@
       <c r="C210" s="29"/>
       <c r="D210" s="29"/>
       <c r="E210" s="29" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F210" s="29"/>
       <c r="G210" s="29"/>
@@ -13641,11 +14035,11 @@
       </c>
       <c r="B212" s="29"/>
       <c r="C212" s="29"/>
-      <c r="D212" s="29"/>
+      <c r="D212" s="29" t="s">
+        <v>128</v>
+      </c>
       <c r="E212" s="29"/>
-      <c r="F212" s="29" t="s">
-        <v>130</v>
-      </c>
+      <c r="F212" s="29"/>
       <c r="G212" s="29"/>
       <c r="H212" s="29"/>
       <c r="I212" s="29"/>
@@ -13699,11 +14093,11 @@
       <c r="B213" s="23"/>
       <c r="C213" s="23"/>
       <c r="D213" s="23"/>
-      <c r="E213" s="23"/>
+      <c r="E213" s="23" t="s">
+        <v>41</v>
+      </c>
       <c r="F213" s="23"/>
-      <c r="G213" s="23" t="s">
-        <v>41</v>
-      </c>
+      <c r="G213" s="23"/>
       <c r="H213" s="23"/>
       <c r="I213" s="23"/>
       <c r="J213" s="23"/>
@@ -13758,10 +14152,10 @@
       <c r="B214" s="29"/>
       <c r="C214" s="29"/>
       <c r="D214" s="29"/>
-      <c r="E214" s="29"/>
-      <c r="F214" s="29" t="s">
-        <v>131</v>
-      </c>
+      <c r="E214" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="F214" s="29"/>
       <c r="G214" s="29"/>
       <c r="H214" s="29"/>
       <c r="I214" s="29"/>
@@ -13816,10 +14210,10 @@
       <c r="C215" s="23"/>
       <c r="D215" s="23"/>
       <c r="E215" s="23"/>
-      <c r="F215" s="23"/>
-      <c r="G215" s="23" t="s">
+      <c r="F215" s="23" t="s">
         <v>41</v>
       </c>
+      <c r="G215" s="23"/>
       <c r="H215" s="23"/>
       <c r="I215" s="23"/>
       <c r="J215" s="23"/>
@@ -13875,10 +14269,10 @@
       <c r="C216" s="29"/>
       <c r="D216" s="29"/>
       <c r="E216" s="29"/>
-      <c r="F216" s="29"/>
-      <c r="G216" s="29" t="s">
-        <v>132</v>
-      </c>
+      <c r="F216" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="G216" s="29"/>
       <c r="H216" s="29"/>
       <c r="I216" s="29"/>
       <c r="J216" s="29"/>
@@ -13924,169 +14318,173 @@
       </c>
     </row>
     <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="28" t="n">
+      <c r="A217" s="22" t="n">
         <f aca="false">ROW() - 4</f>
         <v>213</v>
       </c>
-      <c r="B217" s="29"/>
-      <c r="C217" s="29"/>
-      <c r="D217" s="29"/>
-      <c r="E217" s="29"/>
-      <c r="F217" s="29"/>
-      <c r="G217" s="29"/>
-      <c r="H217" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="I217" s="29"/>
-      <c r="J217" s="29"/>
-      <c r="K217" s="29"/>
-      <c r="L217" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="M217" s="31"/>
-      <c r="N217" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="O217" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="P217" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q217" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="R217" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="S217" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="T217" s="31"/>
-      <c r="U217" s="30" t="n">
-        <v>7</v>
-      </c>
-      <c r="V217" s="30" t="n">
-        <v>5</v>
-      </c>
-      <c r="W217" s="30" t="n">
-        <v>5</v>
+      <c r="B217" s="23"/>
+      <c r="C217" s="23"/>
+      <c r="D217" s="23"/>
+      <c r="E217" s="23"/>
+      <c r="F217" s="23"/>
+      <c r="G217" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="H217" s="23"/>
+      <c r="I217" s="23"/>
+      <c r="J217" s="23"/>
+      <c r="K217" s="23"/>
+      <c r="L217" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="M217" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="N217" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="O217" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="P217" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q217" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="R217" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="S217" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="T217" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="U217" s="24" t="n">
+        <v>6</v>
+      </c>
+      <c r="V217" s="24" t="n">
+        <v>4</v>
+      </c>
+      <c r="W217" s="24" t="n">
+        <v>4</v>
       </c>
       <c r="X217" s="15"/>
       <c r="Y217" s="15"/>
       <c r="Z217" s="15"/>
       <c r="AA217" s="15"/>
-      <c r="AB217" s="5" t="s">
-        <v>2</v>
-      </c>
+      <c r="AB217" s="5"/>
     </row>
     <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="22" t="n">
+      <c r="A218" s="28" t="n">
         <f aca="false">ROW() - 4</f>
         <v>214</v>
       </c>
-      <c r="B218" s="23"/>
-      <c r="C218" s="23"/>
-      <c r="D218" s="23"/>
-      <c r="E218" s="23"/>
-      <c r="F218" s="23"/>
-      <c r="G218" s="23"/>
-      <c r="H218" s="23"/>
-      <c r="I218" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="J218" s="23"/>
-      <c r="K218" s="23"/>
-      <c r="L218" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="M218" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="N218" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="O218" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="P218" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q218" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="R218" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="S218" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="T218" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="U218" s="24" t="n">
-        <v>6</v>
-      </c>
-      <c r="V218" s="24" t="n">
-        <v>4</v>
-      </c>
-      <c r="W218" s="24" t="n">
-        <v>4</v>
+      <c r="B218" s="29"/>
+      <c r="C218" s="29"/>
+      <c r="D218" s="29"/>
+      <c r="E218" s="29"/>
+      <c r="F218" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="G218" s="29"/>
+      <c r="H218" s="29"/>
+      <c r="I218" s="29"/>
+      <c r="J218" s="29"/>
+      <c r="K218" s="29"/>
+      <c r="L218" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="M218" s="31"/>
+      <c r="N218" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="O218" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="P218" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q218" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="R218" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="S218" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="T218" s="31"/>
+      <c r="U218" s="30" t="n">
+        <v>7</v>
+      </c>
+      <c r="V218" s="30" t="n">
+        <v>5</v>
+      </c>
+      <c r="W218" s="30" t="n">
+        <v>5</v>
       </c>
       <c r="X218" s="15"/>
       <c r="Y218" s="15"/>
       <c r="Z218" s="15"/>
       <c r="AA218" s="15"/>
-      <c r="AB218" s="5"/>
+      <c r="AB218" s="5" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="28" t="n">
+      <c r="A219" s="22" t="n">
         <f aca="false">ROW() - 4</f>
         <v>215</v>
       </c>
-      <c r="B219" s="29"/>
-      <c r="C219" s="29"/>
-      <c r="D219" s="29"/>
-      <c r="E219" s="29" t="s">
-        <v>133</v>
-      </c>
-      <c r="F219" s="29"/>
-      <c r="G219" s="29"/>
-      <c r="H219" s="29"/>
-      <c r="I219" s="29"/>
-      <c r="J219" s="29"/>
-      <c r="K219" s="29"/>
-      <c r="L219" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="M219" s="31"/>
-      <c r="N219" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="O219" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="P219" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q219" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="R219" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="S219" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="T219" s="31"/>
-      <c r="U219" s="30" t="n">
-        <v>7</v>
-      </c>
-      <c r="V219" s="30" t="n">
-        <v>5</v>
-      </c>
-      <c r="W219" s="30" t="n">
-        <v>5</v>
+      <c r="B219" s="23"/>
+      <c r="C219" s="23"/>
+      <c r="D219" s="23"/>
+      <c r="E219" s="23"/>
+      <c r="F219" s="23"/>
+      <c r="G219" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="H219" s="23"/>
+      <c r="I219" s="23"/>
+      <c r="J219" s="23"/>
+      <c r="K219" s="23"/>
+      <c r="L219" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="M219" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="N219" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="O219" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="P219" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q219" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="R219" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="S219" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="T219" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="U219" s="24" t="n">
+        <v>6</v>
+      </c>
+      <c r="V219" s="24" t="n">
+        <v>4</v>
+      </c>
+      <c r="W219" s="24" t="n">
+        <v>4</v>
       </c>
       <c r="X219" s="15"/>
       <c r="Y219" s="15"/>
@@ -14095,63 +14493,61 @@
       <c r="AB219" s="5"/>
     </row>
     <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="22" t="n">
+      <c r="A220" s="28" t="n">
         <f aca="false">ROW() - 4</f>
         <v>216</v>
       </c>
-      <c r="B220" s="23"/>
-      <c r="C220" s="23"/>
-      <c r="D220" s="23"/>
-      <c r="E220" s="23"/>
-      <c r="F220" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="G220" s="23"/>
-      <c r="H220" s="23"/>
-      <c r="I220" s="23"/>
-      <c r="J220" s="23"/>
-      <c r="K220" s="23"/>
-      <c r="L220" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="M220" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="N220" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="O220" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="P220" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q220" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="R220" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="S220" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="T220" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="U220" s="24" t="n">
-        <v>6</v>
-      </c>
-      <c r="V220" s="24" t="n">
-        <v>4</v>
-      </c>
-      <c r="W220" s="24" t="n">
-        <v>4</v>
+      <c r="B220" s="29"/>
+      <c r="C220" s="29"/>
+      <c r="D220" s="29"/>
+      <c r="E220" s="29"/>
+      <c r="F220" s="29"/>
+      <c r="G220" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="H220" s="29"/>
+      <c r="I220" s="29"/>
+      <c r="J220" s="29"/>
+      <c r="K220" s="29"/>
+      <c r="L220" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="M220" s="31"/>
+      <c r="N220" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="O220" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="P220" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q220" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="R220" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="S220" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="T220" s="31"/>
+      <c r="U220" s="30" t="n">
+        <v>7</v>
+      </c>
+      <c r="V220" s="30" t="n">
+        <v>5</v>
+      </c>
+      <c r="W220" s="30" t="n">
+        <v>5</v>
       </c>
       <c r="X220" s="15"/>
       <c r="Y220" s="15"/>
       <c r="Z220" s="15"/>
       <c r="AA220" s="15"/>
-      <c r="AB220" s="5"/>
+      <c r="AB220" s="5" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="28" t="n">
@@ -14160,13 +14556,13 @@
       </c>
       <c r="B221" s="29"/>
       <c r="C221" s="29"/>
-      <c r="D221" s="29" t="s">
-        <v>134</v>
-      </c>
+      <c r="D221" s="29"/>
       <c r="E221" s="29"/>
       <c r="F221" s="29"/>
       <c r="G221" s="29"/>
-      <c r="H221" s="29"/>
+      <c r="H221" s="29" t="s">
+        <v>49</v>
+      </c>
       <c r="I221" s="29"/>
       <c r="J221" s="29"/>
       <c r="K221" s="29"/>
@@ -14206,7 +14602,9 @@
       <c r="Y221" s="15"/>
       <c r="Z221" s="15"/>
       <c r="AA221" s="15"/>
-      <c r="AB221" s="5"/>
+      <c r="AB221" s="5" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="22" t="n">
@@ -14217,12 +14615,12 @@
       <c r="C222" s="23"/>
       <c r="D222" s="23"/>
       <c r="E222" s="23"/>
-      <c r="F222" s="23" t="s">
-        <v>41</v>
-      </c>
+      <c r="F222" s="23"/>
       <c r="G222" s="23"/>
       <c r="H222" s="23"/>
-      <c r="I222" s="23"/>
+      <c r="I222" s="23" t="s">
+        <v>41</v>
+      </c>
       <c r="J222" s="23"/>
       <c r="K222" s="23"/>
       <c r="L222" s="24" t="s">
@@ -14276,7 +14674,7 @@
       <c r="C223" s="29"/>
       <c r="D223" s="29"/>
       <c r="E223" s="29" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F223" s="29"/>
       <c r="G223" s="29"/>
@@ -14388,10 +14786,10 @@
       </c>
       <c r="B225" s="29"/>
       <c r="C225" s="29"/>
-      <c r="D225" s="29"/>
-      <c r="E225" s="29" t="s">
-        <v>136</v>
-      </c>
+      <c r="D225" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="E225" s="29"/>
       <c r="F225" s="29"/>
       <c r="G225" s="29"/>
       <c r="H225" s="29"/>
@@ -14504,7 +14902,7 @@
       <c r="C227" s="29"/>
       <c r="D227" s="29"/>
       <c r="E227" s="29" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F227" s="29"/>
       <c r="G227" s="29"/>
@@ -14610,89 +15008,317 @@
       <c r="AB228" s="5"/>
     </row>
     <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="22"/>
-      <c r="B229" s="23"/>
-      <c r="C229" s="23"/>
-      <c r="D229" s="23"/>
-      <c r="E229" s="23"/>
-      <c r="F229" s="23"/>
-      <c r="G229" s="23"/>
-      <c r="H229" s="23"/>
-      <c r="I229" s="23"/>
-      <c r="J229" s="23"/>
-      <c r="K229" s="23"/>
-      <c r="L229" s="24"/>
-      <c r="M229" s="25"/>
-      <c r="N229" s="26"/>
-      <c r="O229" s="26"/>
-      <c r="P229" s="27"/>
-      <c r="Q229" s="25"/>
-      <c r="R229" s="25"/>
-      <c r="S229" s="25"/>
-      <c r="T229" s="26"/>
-      <c r="U229" s="24"/>
-      <c r="V229" s="24"/>
-      <c r="W229" s="24"/>
+      <c r="A229" s="28" t="n">
+        <f aca="false">ROW() - 4</f>
+        <v>225</v>
+      </c>
+      <c r="B229" s="29"/>
+      <c r="C229" s="29"/>
+      <c r="D229" s="29"/>
+      <c r="E229" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="F229" s="29"/>
+      <c r="G229" s="29"/>
+      <c r="H229" s="29"/>
+      <c r="I229" s="29"/>
+      <c r="J229" s="29"/>
+      <c r="K229" s="29"/>
+      <c r="L229" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="M229" s="31"/>
+      <c r="N229" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="O229" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="P229" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q229" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="R229" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="S229" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="T229" s="31"/>
+      <c r="U229" s="30" t="n">
+        <v>7</v>
+      </c>
+      <c r="V229" s="30" t="n">
+        <v>5</v>
+      </c>
+      <c r="W229" s="30" t="n">
+        <v>5</v>
+      </c>
       <c r="X229" s="15"/>
       <c r="Y229" s="15"/>
       <c r="Z229" s="15"/>
       <c r="AA229" s="15"/>
       <c r="AB229" s="5"/>
     </row>
-    <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="32"/>
-      <c r="B230" s="33" t="n">
+    <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A230" s="22" t="n">
+        <f aca="false">ROW() - 4</f>
+        <v>226</v>
+      </c>
+      <c r="B230" s="23"/>
+      <c r="C230" s="23"/>
+      <c r="D230" s="23"/>
+      <c r="E230" s="23"/>
+      <c r="F230" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="G230" s="23"/>
+      <c r="H230" s="23"/>
+      <c r="I230" s="23"/>
+      <c r="J230" s="23"/>
+      <c r="K230" s="23"/>
+      <c r="L230" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="M230" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="N230" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="O230" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="P230" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q230" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="R230" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="S230" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="T230" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="U230" s="24" t="n">
+        <v>6</v>
+      </c>
+      <c r="V230" s="24" t="n">
+        <v>4</v>
+      </c>
+      <c r="W230" s="24" t="n">
+        <v>4</v>
+      </c>
+      <c r="X230" s="15"/>
+      <c r="Y230" s="15"/>
+      <c r="Z230" s="15"/>
+      <c r="AA230" s="15"/>
+      <c r="AB230" s="5"/>
+    </row>
+    <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A231" s="28" t="n">
+        <f aca="false">ROW() - 4</f>
+        <v>227</v>
+      </c>
+      <c r="B231" s="29"/>
+      <c r="C231" s="29"/>
+      <c r="D231" s="29"/>
+      <c r="E231" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="F231" s="29"/>
+      <c r="G231" s="29"/>
+      <c r="H231" s="29"/>
+      <c r="I231" s="29"/>
+      <c r="J231" s="29"/>
+      <c r="K231" s="29"/>
+      <c r="L231" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="M231" s="31"/>
+      <c r="N231" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="O231" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="P231" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q231" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="R231" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="S231" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="T231" s="31"/>
+      <c r="U231" s="30" t="n">
+        <v>7</v>
+      </c>
+      <c r="V231" s="30" t="n">
+        <v>5</v>
+      </c>
+      <c r="W231" s="30" t="n">
+        <v>5</v>
+      </c>
+      <c r="X231" s="15"/>
+      <c r="Y231" s="15"/>
+      <c r="Z231" s="15"/>
+      <c r="AA231" s="15"/>
+      <c r="AB231" s="5"/>
+    </row>
+    <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A232" s="22" t="n">
+        <f aca="false">ROW() - 4</f>
+        <v>228</v>
+      </c>
+      <c r="B232" s="23"/>
+      <c r="C232" s="23"/>
+      <c r="D232" s="23"/>
+      <c r="E232" s="23"/>
+      <c r="F232" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="G232" s="23"/>
+      <c r="H232" s="23"/>
+      <c r="I232" s="23"/>
+      <c r="J232" s="23"/>
+      <c r="K232" s="23"/>
+      <c r="L232" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="M232" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="N232" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="O232" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="P232" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q232" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="R232" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="S232" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="T232" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="U232" s="24" t="n">
+        <v>6</v>
+      </c>
+      <c r="V232" s="24" t="n">
+        <v>4</v>
+      </c>
+      <c r="W232" s="24" t="n">
+        <v>4</v>
+      </c>
+      <c r="X232" s="15"/>
+      <c r="Y232" s="15"/>
+      <c r="Z232" s="15"/>
+      <c r="AA232" s="15"/>
+      <c r="AB232" s="5"/>
+    </row>
+    <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A233" s="22"/>
+      <c r="B233" s="23"/>
+      <c r="C233" s="23"/>
+      <c r="D233" s="23"/>
+      <c r="E233" s="23"/>
+      <c r="F233" s="23"/>
+      <c r="G233" s="23"/>
+      <c r="H233" s="23"/>
+      <c r="I233" s="23"/>
+      <c r="J233" s="23"/>
+      <c r="K233" s="23"/>
+      <c r="L233" s="24"/>
+      <c r="M233" s="25"/>
+      <c r="N233" s="26"/>
+      <c r="O233" s="26"/>
+      <c r="P233" s="27"/>
+      <c r="Q233" s="25"/>
+      <c r="R233" s="25"/>
+      <c r="S233" s="25"/>
+      <c r="T233" s="26"/>
+      <c r="U233" s="24"/>
+      <c r="V233" s="24"/>
+      <c r="W233" s="24"/>
+      <c r="X233" s="15"/>
+      <c r="Y233" s="15"/>
+      <c r="Z233" s="15"/>
+      <c r="AA233" s="15"/>
+      <c r="AB233" s="5"/>
+    </row>
+    <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A234" s="32"/>
+      <c r="B234" s="33" t="n">
         <v>1</v>
       </c>
-      <c r="C230" s="33" t="n">
+      <c r="C234" s="33" t="n">
         <v>2</v>
       </c>
-      <c r="D230" s="33" t="n">
+      <c r="D234" s="33" t="n">
         <v>3</v>
       </c>
-      <c r="E230" s="33" t="n">
-        <v>4</v>
-      </c>
-      <c r="F230" s="34" t="n">
-        <v>5</v>
-      </c>
-      <c r="G230" s="34" t="n">
+      <c r="E234" s="33" t="n">
+        <v>4</v>
+      </c>
+      <c r="F234" s="34" t="n">
+        <v>5</v>
+      </c>
+      <c r="G234" s="34" t="n">
         <v>6</v>
       </c>
-      <c r="H230" s="34" t="n">
+      <c r="H234" s="34" t="n">
         <v>7</v>
       </c>
-      <c r="I230" s="34" t="n">
+      <c r="I234" s="34" t="n">
         <v>8</v>
       </c>
-      <c r="J230" s="34" t="n">
+      <c r="J234" s="34" t="n">
         <v>9</v>
       </c>
-      <c r="K230" s="34" t="n">
+      <c r="K234" s="34" t="n">
         <v>10</v>
       </c>
-      <c r="L230" s="32"/>
-      <c r="M230" s="32"/>
-      <c r="N230" s="32"/>
-      <c r="O230" s="32"/>
-      <c r="P230" s="32"/>
-      <c r="Q230" s="5"/>
-      <c r="R230" s="32"/>
-      <c r="S230" s="32"/>
-      <c r="T230" s="32"/>
-      <c r="U230" s="35"/>
-      <c r="V230" s="35"/>
-      <c r="W230" s="35"/>
-      <c r="X230" s="5"/>
-      <c r="Y230" s="5"/>
-      <c r="Z230" s="5"/>
-      <c r="AA230" s="5"/>
-      <c r="AB230" s="5" t="s">
+      <c r="L234" s="32"/>
+      <c r="M234" s="32"/>
+      <c r="N234" s="32"/>
+      <c r="O234" s="32"/>
+      <c r="P234" s="32"/>
+      <c r="Q234" s="5"/>
+      <c r="R234" s="32"/>
+      <c r="S234" s="32"/>
+      <c r="T234" s="32"/>
+      <c r="U234" s="35"/>
+      <c r="V234" s="35"/>
+      <c r="W234" s="35"/>
+      <c r="X234" s="5"/>
+      <c r="Y234" s="5"/>
+      <c r="Z234" s="5"/>
+      <c r="AA234" s="5"/>
+      <c r="AB234" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Z236" s="36"/>
+    <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z240" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -14724,746 +15350,5542 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
-    <tabColor rgb="FF33691E"/>
+    <tabColor rgb="FFD500F9"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AD38"/>
+  <dimension ref="A1:AC203"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G27" activeCellId="0" sqref="G27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="3" topLeftCell="E24" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A24" activeCellId="0" sqref="A24"/>
+      <selection pane="bottomRight" activeCell="F38" activeCellId="0" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="37" width="6.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="37" width="3.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="38" width="4.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="38" width="10.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="37" width="4.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="37" width="2.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="38" width="2.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="38" width="3.03"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="38" width="10.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="6" style="37" width="4.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="37" width="70.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="14" style="39" width="2.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="39" width="4.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="37" width="4.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="18" style="37" width="9.21"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="30" min="20" style="37" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="37" width="7.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="7" style="37" width="2.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="10" style="37" width="4.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="37" width="5.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="37" width="60.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="37" width="4.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="17" style="37" width="9.21"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="29" min="19" style="37" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="41" t="s">
+      <c r="B1" s="39"/>
+      <c r="C1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41" t="s">
+      <c r="D1" s="40"/>
+      <c r="E1" s="40" t="s">
         <v>137</v>
       </c>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
       <c r="P1" s="41"/>
       <c r="Q1" s="42"/>
-      <c r="R1" s="43"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="43" t="s">
         <v>138</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="44" t="s">
         <v>139</v>
       </c>
-      <c r="D2" s="45" t="s">
+      <c r="D2" s="44" t="s">
         <v>140</v>
       </c>
-      <c r="E2" s="46" t="s">
+      <c r="E2" s="45" t="s">
         <v>141</v>
       </c>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="41"/>
       <c r="Q2" s="42"/>
-      <c r="R2" s="43"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="44"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="47" t="s">
+      <c r="A3" s="43"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="46" t="s">
         <v>142</v>
       </c>
-      <c r="F3" s="44" t="s">
+      <c r="F3" s="43" t="s">
         <v>143</v>
       </c>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="48" t="s">
-        <v>144</v>
-      </c>
-      <c r="O3" s="48"/>
-      <c r="P3" s="48" t="s">
-        <v>145</v>
-      </c>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="41"/>
       <c r="Q3" s="42"/>
-      <c r="R3" s="43"/>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="44"/>
-      <c r="B4" s="44"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="44"/>
-      <c r="M4" s="44"/>
-      <c r="N4" s="49" t="s">
-        <v>146</v>
-      </c>
-      <c r="O4" s="49" t="s">
-        <v>147</v>
-      </c>
-      <c r="P4" s="48"/>
-      <c r="Q4" s="42"/>
-      <c r="R4" s="43"/>
-      <c r="AC4" s="39"/>
-      <c r="AD4" s="39"/>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="50" t="n">
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="47" t="n">
         <f aca="false">VINE!$A$10</f>
         <v>6</v>
       </c>
-      <c r="B5" s="51" t="s">
+      <c r="B4" s="48" t="s">
+        <v>144</v>
+      </c>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="49"/>
+      <c r="N4" s="49"/>
+      <c r="O4" s="49"/>
+      <c r="P4" s="41"/>
+      <c r="Q4" s="42"/>
+      <c r="AB4" s="50"/>
+      <c r="AC4" s="50"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="51"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="52" t="s">
+        <v>145</v>
+      </c>
+      <c r="D5" s="53" t="s">
+        <v>146</v>
+      </c>
+      <c r="E5" s="54" t="s">
+        <v>147</v>
+      </c>
+      <c r="F5" s="55" t="s">
         <v>148</v>
       </c>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="52"/>
-      <c r="J5" s="52"/>
-      <c r="K5" s="52"/>
-      <c r="L5" s="52"/>
-      <c r="M5" s="52"/>
-      <c r="N5" s="52"/>
-      <c r="O5" s="52"/>
-      <c r="P5" s="52"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="56"/>
+      <c r="L5" s="56"/>
+      <c r="M5" s="56"/>
+      <c r="N5" s="56"/>
+      <c r="O5" s="56"/>
+      <c r="P5" s="41"/>
       <c r="Q5" s="42"/>
-      <c r="R5" s="43"/>
-      <c r="AC5" s="39"/>
-      <c r="AD5" s="39"/>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="53"/>
-      <c r="B6" s="53"/>
-      <c r="C6" s="54" t="s">
+      <c r="AB5" s="50"/>
+      <c r="AC5" s="50"/>
+    </row>
+    <row r="6" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="57"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="58" t="s">
+        <v>145</v>
+      </c>
+      <c r="D6" s="59" t="s">
+        <v>146</v>
+      </c>
+      <c r="E6" s="60"/>
+      <c r="F6" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="D6" s="55" t="s">
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
+      <c r="M6" s="61"/>
+      <c r="N6" s="61"/>
+      <c r="O6" s="61"/>
+      <c r="P6" s="41"/>
+      <c r="Q6" s="42"/>
+      <c r="AB6" s="50"/>
+      <c r="AC6" s="50"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="62"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="63" t="s">
+        <v>145</v>
+      </c>
+      <c r="D7" s="64" t="s">
+        <v>146</v>
+      </c>
+      <c r="E7" s="65" t="s">
         <v>150</v>
       </c>
-      <c r="E6" s="56" t="s">
+      <c r="F7" s="66" t="s">
         <v>151</v>
       </c>
-      <c r="F6" s="57" t="s">
+      <c r="G7" s="67"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="67"/>
+      <c r="J7" s="67"/>
+      <c r="K7" s="67"/>
+      <c r="L7" s="67"/>
+      <c r="M7" s="67"/>
+      <c r="N7" s="67"/>
+      <c r="O7" s="67"/>
+      <c r="P7" s="41"/>
+      <c r="Q7" s="42"/>
+      <c r="AB7" s="50"/>
+      <c r="AC7" s="50"/>
+    </row>
+    <row r="8" customFormat="false" ht="21.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="57"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="58" t="s">
+        <v>145</v>
+      </c>
+      <c r="D8" s="59" t="s">
+        <v>146</v>
+      </c>
+      <c r="E8" s="60"/>
+      <c r="F8" s="68" t="s">
         <v>152</v>
       </c>
-      <c r="G6" s="58"/>
-      <c r="H6" s="58"/>
-      <c r="I6" s="58"/>
-      <c r="J6" s="58"/>
-      <c r="K6" s="58"/>
-      <c r="L6" s="58"/>
-      <c r="M6" s="59"/>
-      <c r="N6" s="60"/>
-      <c r="O6" s="60"/>
-      <c r="P6" s="60"/>
-      <c r="Q6" s="42"/>
-      <c r="R6" s="43"/>
-      <c r="AC6" s="39"/>
-      <c r="AD6" s="39"/>
-    </row>
-    <row r="7" customFormat="false" ht="31.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="61"/>
-      <c r="B7" s="61"/>
-      <c r="C7" s="62" t="s">
-        <v>149</v>
-      </c>
-      <c r="D7" s="63" t="s">
+      <c r="G8" s="69"/>
+      <c r="H8" s="61" t="s">
+        <v>153</v>
+      </c>
+      <c r="I8" s="61"/>
+      <c r="J8" s="61"/>
+      <c r="K8" s="61"/>
+      <c r="L8" s="61"/>
+      <c r="M8" s="61"/>
+      <c r="N8" s="61"/>
+      <c r="O8" s="61"/>
+      <c r="P8" s="41"/>
+      <c r="Q8" s="42"/>
+      <c r="AB8" s="50"/>
+      <c r="AC8" s="50"/>
+    </row>
+    <row r="9" customFormat="false" ht="21.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="57"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="58" t="s">
+        <v>145</v>
+      </c>
+      <c r="D9" s="59" t="s">
+        <v>146</v>
+      </c>
+      <c r="E9" s="60"/>
+      <c r="F9" s="68" t="s">
+        <v>152</v>
+      </c>
+      <c r="G9" s="69"/>
+      <c r="H9" s="61" t="s">
+        <v>154</v>
+      </c>
+      <c r="I9" s="61"/>
+      <c r="J9" s="61"/>
+      <c r="K9" s="61"/>
+      <c r="L9" s="61"/>
+      <c r="M9" s="61"/>
+      <c r="N9" s="61"/>
+      <c r="O9" s="61"/>
+      <c r="P9" s="41"/>
+      <c r="Q9" s="42"/>
+      <c r="AB9" s="50"/>
+      <c r="AC9" s="50"/>
+    </row>
+    <row r="10" customFormat="false" ht="21.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="57"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="58" t="s">
+        <v>145</v>
+      </c>
+      <c r="D10" s="59" t="s">
+        <v>146</v>
+      </c>
+      <c r="E10" s="60"/>
+      <c r="F10" s="68" t="s">
+        <v>152</v>
+      </c>
+      <c r="G10" s="69"/>
+      <c r="H10" s="61" t="s">
+        <v>155</v>
+      </c>
+      <c r="I10" s="61"/>
+      <c r="J10" s="61"/>
+      <c r="K10" s="61"/>
+      <c r="L10" s="61"/>
+      <c r="M10" s="61"/>
+      <c r="N10" s="61"/>
+      <c r="O10" s="61"/>
+      <c r="P10" s="41"/>
+      <c r="Q10" s="42"/>
+      <c r="AB10" s="50"/>
+      <c r="AC10" s="50"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="62"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="63" t="s">
+        <v>145</v>
+      </c>
+      <c r="D11" s="64" t="s">
+        <v>146</v>
+      </c>
+      <c r="E11" s="65" t="s">
         <v>150</v>
       </c>
-      <c r="E7" s="64"/>
-      <c r="F7" s="65" t="s">
-        <v>153</v>
-      </c>
-      <c r="G7" s="65"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="65"/>
-      <c r="J7" s="65"/>
-      <c r="K7" s="65"/>
-      <c r="L7" s="65"/>
-      <c r="M7" s="65"/>
-      <c r="N7" s="66"/>
-      <c r="O7" s="66"/>
-      <c r="P7" s="66"/>
-      <c r="Q7" s="42"/>
-      <c r="R7" s="43"/>
-      <c r="AC7" s="39"/>
-      <c r="AD7" s="39"/>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="61"/>
-      <c r="B8" s="61"/>
-      <c r="C8" s="62" t="s">
-        <v>149</v>
-      </c>
-      <c r="D8" s="63" t="s">
+      <c r="F11" s="66" t="s">
+        <v>156</v>
+      </c>
+      <c r="G11" s="67"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="67"/>
+      <c r="K11" s="67"/>
+      <c r="L11" s="67"/>
+      <c r="M11" s="67"/>
+      <c r="N11" s="67"/>
+      <c r="O11" s="67"/>
+      <c r="P11" s="41"/>
+      <c r="Q11" s="42"/>
+      <c r="AB11" s="50"/>
+      <c r="AC11" s="50"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="70"/>
+      <c r="B12" s="70"/>
+      <c r="C12" s="71" t="s">
+        <v>145</v>
+      </c>
+      <c r="D12" s="72" t="s">
+        <v>146</v>
+      </c>
+      <c r="E12" s="73" t="s">
+        <v>157</v>
+      </c>
+      <c r="F12" s="74" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" s="75"/>
+      <c r="H12" s="75"/>
+      <c r="I12" s="75"/>
+      <c r="J12" s="75"/>
+      <c r="K12" s="75"/>
+      <c r="L12" s="75"/>
+      <c r="M12" s="75"/>
+      <c r="N12" s="75"/>
+      <c r="O12" s="75"/>
+      <c r="P12" s="41"/>
+      <c r="Q12" s="42"/>
+      <c r="AB12" s="50"/>
+      <c r="AC12" s="50"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="57"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="58" t="s">
+        <v>145</v>
+      </c>
+      <c r="D13" s="59" t="s">
+        <v>146</v>
+      </c>
+      <c r="E13" s="60"/>
+      <c r="F13" s="68" t="s">
+        <v>152</v>
+      </c>
+      <c r="G13" s="69"/>
+      <c r="H13" s="69" t="s">
+        <v>158</v>
+      </c>
+      <c r="I13" s="69"/>
+      <c r="J13" s="69"/>
+      <c r="K13" s="69"/>
+      <c r="L13" s="69"/>
+      <c r="M13" s="69"/>
+      <c r="N13" s="69"/>
+      <c r="O13" s="69"/>
+      <c r="P13" s="41"/>
+      <c r="Q13" s="42"/>
+      <c r="AB13" s="50"/>
+      <c r="AC13" s="50"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="57"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="58" t="s">
+        <v>145</v>
+      </c>
+      <c r="D14" s="59" t="s">
+        <v>146</v>
+      </c>
+      <c r="E14" s="60"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="69"/>
+      <c r="H14" s="68" t="s">
+        <v>152</v>
+      </c>
+      <c r="I14" s="69"/>
+      <c r="J14" s="69" t="s">
+        <v>159</v>
+      </c>
+      <c r="K14" s="69"/>
+      <c r="L14" s="69"/>
+      <c r="M14" s="69"/>
+      <c r="N14" s="69"/>
+      <c r="O14" s="69"/>
+      <c r="P14" s="41"/>
+      <c r="Q14" s="42"/>
+      <c r="AB14" s="50"/>
+      <c r="AC14" s="50"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="57"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="58" t="s">
+        <v>145</v>
+      </c>
+      <c r="D15" s="59" t="s">
+        <v>146</v>
+      </c>
+      <c r="E15" s="60"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="69"/>
+      <c r="H15" s="68" t="s">
+        <v>152</v>
+      </c>
+      <c r="I15" s="69"/>
+      <c r="J15" s="69" t="s">
+        <v>160</v>
+      </c>
+      <c r="K15" s="69"/>
+      <c r="L15" s="69"/>
+      <c r="M15" s="69"/>
+      <c r="N15" s="69"/>
+      <c r="O15" s="69"/>
+      <c r="P15" s="41"/>
+      <c r="Q15" s="42"/>
+      <c r="AB15" s="50"/>
+      <c r="AC15" s="50"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="57"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="58" t="s">
+        <v>145</v>
+      </c>
+      <c r="D16" s="59" t="s">
+        <v>146</v>
+      </c>
+      <c r="E16" s="60"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="69"/>
+      <c r="H16" s="68" t="s">
+        <v>152</v>
+      </c>
+      <c r="I16" s="69"/>
+      <c r="J16" s="69" t="s">
+        <v>161</v>
+      </c>
+      <c r="K16" s="69"/>
+      <c r="L16" s="69"/>
+      <c r="M16" s="69"/>
+      <c r="N16" s="69"/>
+      <c r="O16" s="69"/>
+      <c r="P16" s="41"/>
+      <c r="Q16" s="42"/>
+      <c r="AB16" s="50"/>
+      <c r="AC16" s="50"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="57"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="58" t="s">
+        <v>145</v>
+      </c>
+      <c r="D17" s="59" t="s">
+        <v>146</v>
+      </c>
+      <c r="E17" s="60"/>
+      <c r="F17" s="68"/>
+      <c r="G17" s="69"/>
+      <c r="H17" s="68" t="s">
+        <v>152</v>
+      </c>
+      <c r="I17" s="69"/>
+      <c r="J17" s="69" t="s">
+        <v>162</v>
+      </c>
+      <c r="K17" s="69"/>
+      <c r="L17" s="69"/>
+      <c r="M17" s="69"/>
+      <c r="N17" s="69"/>
+      <c r="O17" s="69"/>
+      <c r="P17" s="41"/>
+      <c r="Q17" s="42"/>
+      <c r="AB17" s="50"/>
+      <c r="AC17" s="50"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="57"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="58" t="s">
+        <v>145</v>
+      </c>
+      <c r="D18" s="59" t="s">
+        <v>146</v>
+      </c>
+      <c r="E18" s="60"/>
+      <c r="F18" s="68"/>
+      <c r="G18" s="69"/>
+      <c r="H18" s="68" t="s">
+        <v>152</v>
+      </c>
+      <c r="I18" s="69"/>
+      <c r="J18" s="69" t="s">
+        <v>163</v>
+      </c>
+      <c r="K18" s="69"/>
+      <c r="L18" s="69"/>
+      <c r="M18" s="69"/>
+      <c r="N18" s="69"/>
+      <c r="O18" s="69"/>
+      <c r="P18" s="41"/>
+      <c r="Q18" s="42"/>
+      <c r="AB18" s="50"/>
+      <c r="AC18" s="50"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="70"/>
+      <c r="B19" s="70"/>
+      <c r="C19" s="71" t="s">
+        <v>145</v>
+      </c>
+      <c r="D19" s="72" t="s">
+        <v>146</v>
+      </c>
+      <c r="E19" s="73" t="s">
+        <v>157</v>
+      </c>
+      <c r="F19" s="74" t="s">
+        <v>164</v>
+      </c>
+      <c r="G19" s="75"/>
+      <c r="H19" s="75"/>
+      <c r="I19" s="75"/>
+      <c r="J19" s="75"/>
+      <c r="K19" s="75"/>
+      <c r="L19" s="75"/>
+      <c r="M19" s="75"/>
+      <c r="N19" s="75"/>
+      <c r="O19" s="75"/>
+      <c r="P19" s="41"/>
+      <c r="Q19" s="42"/>
+      <c r="AB19" s="50"/>
+      <c r="AC19" s="50"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="57"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="58" t="s">
+        <v>145</v>
+      </c>
+      <c r="D20" s="59" t="s">
+        <v>146</v>
+      </c>
+      <c r="E20" s="76"/>
+      <c r="F20" s="69"/>
+      <c r="G20" s="69"/>
+      <c r="H20" s="69"/>
+      <c r="I20" s="69"/>
+      <c r="J20" s="69"/>
+      <c r="K20" s="69"/>
+      <c r="L20" s="69"/>
+      <c r="M20" s="69"/>
+      <c r="N20" s="69"/>
+      <c r="O20" s="69"/>
+      <c r="P20" s="41"/>
+      <c r="Q20" s="42"/>
+      <c r="AB20" s="50"/>
+      <c r="AC20" s="50"/>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="47" t="n">
+        <f aca="false">VINE!$A$15</f>
+        <v>11</v>
+      </c>
+      <c r="B21" s="48" t="s">
+        <v>165</v>
+      </c>
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="49"/>
+      <c r="I21" s="49"/>
+      <c r="J21" s="49"/>
+      <c r="K21" s="49"/>
+      <c r="L21" s="49"/>
+      <c r="M21" s="49"/>
+      <c r="N21" s="49"/>
+      <c r="O21" s="49"/>
+      <c r="P21" s="41"/>
+      <c r="Q21" s="42"/>
+      <c r="AB21" s="50"/>
+      <c r="AC21" s="50"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="51"/>
+      <c r="B22" s="51"/>
+      <c r="C22" s="52" t="s">
+        <v>145</v>
+      </c>
+      <c r="D22" s="53" t="s">
+        <v>146</v>
+      </c>
+      <c r="E22" s="54" t="s">
+        <v>147</v>
+      </c>
+      <c r="F22" s="55" t="s">
+        <v>166</v>
+      </c>
+      <c r="G22" s="56"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="56"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="56"/>
+      <c r="L22" s="56"/>
+      <c r="M22" s="56"/>
+      <c r="N22" s="56"/>
+      <c r="O22" s="56"/>
+      <c r="P22" s="41"/>
+      <c r="Q22" s="42"/>
+      <c r="AB22" s="50"/>
+      <c r="AC22" s="50"/>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="62"/>
+      <c r="B23" s="62"/>
+      <c r="C23" s="63" t="s">
+        <v>145</v>
+      </c>
+      <c r="D23" s="64" t="s">
+        <v>146</v>
+      </c>
+      <c r="E23" s="65" t="s">
         <v>150</v>
       </c>
-      <c r="E8" s="64"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="67"/>
-      <c r="H8" s="67"/>
-      <c r="I8" s="67"/>
-      <c r="J8" s="67"/>
-      <c r="K8" s="67"/>
-      <c r="L8" s="67"/>
-      <c r="M8" s="67"/>
-      <c r="N8" s="66"/>
-      <c r="O8" s="66"/>
-      <c r="P8" s="66"/>
-      <c r="Q8" s="42"/>
-      <c r="R8" s="43"/>
-      <c r="AC8" s="39"/>
-      <c r="AD8" s="39"/>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="68"/>
-      <c r="B9" s="68"/>
-      <c r="C9" s="69" t="s">
-        <v>149</v>
-      </c>
-      <c r="D9" s="70" t="s">
+      <c r="F23" s="66" t="s">
+        <v>167</v>
+      </c>
+      <c r="G23" s="67"/>
+      <c r="H23" s="67"/>
+      <c r="I23" s="67"/>
+      <c r="J23" s="67"/>
+      <c r="K23" s="67"/>
+      <c r="L23" s="67"/>
+      <c r="M23" s="67"/>
+      <c r="N23" s="67"/>
+      <c r="O23" s="77"/>
+      <c r="P23" s="41"/>
+      <c r="Q23" s="42"/>
+      <c r="AB23" s="50"/>
+      <c r="AC23" s="50"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="70"/>
+      <c r="B24" s="70"/>
+      <c r="C24" s="71" t="s">
+        <v>145</v>
+      </c>
+      <c r="D24" s="72" t="s">
+        <v>146</v>
+      </c>
+      <c r="E24" s="73" t="s">
+        <v>157</v>
+      </c>
+      <c r="F24" s="74" t="s">
+        <v>168</v>
+      </c>
+      <c r="G24" s="74"/>
+      <c r="H24" s="74"/>
+      <c r="I24" s="74"/>
+      <c r="J24" s="74"/>
+      <c r="K24" s="74"/>
+      <c r="L24" s="74"/>
+      <c r="M24" s="74"/>
+      <c r="N24" s="74"/>
+      <c r="O24" s="74"/>
+      <c r="P24" s="41"/>
+      <c r="Q24" s="42"/>
+      <c r="AB24" s="50"/>
+      <c r="AC24" s="50"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="57"/>
+      <c r="B25" s="57"/>
+      <c r="C25" s="58" t="s">
+        <v>145</v>
+      </c>
+      <c r="D25" s="59" t="s">
+        <v>146</v>
+      </c>
+      <c r="E25" s="76"/>
+      <c r="F25" s="69" t="s">
+        <v>169</v>
+      </c>
+      <c r="G25" s="69"/>
+      <c r="H25" s="69"/>
+      <c r="I25" s="69"/>
+      <c r="J25" s="69"/>
+      <c r="K25" s="69"/>
+      <c r="L25" s="69"/>
+      <c r="M25" s="69"/>
+      <c r="N25" s="69"/>
+      <c r="O25" s="69"/>
+      <c r="P25" s="41"/>
+      <c r="Q25" s="42"/>
+      <c r="AB25" s="50"/>
+      <c r="AC25" s="50"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="57"/>
+      <c r="B26" s="57"/>
+      <c r="C26" s="58" t="s">
+        <v>145</v>
+      </c>
+      <c r="D26" s="59" t="s">
+        <v>146</v>
+      </c>
+      <c r="E26" s="76"/>
+      <c r="F26" s="69" t="s">
+        <v>170</v>
+      </c>
+      <c r="G26" s="69"/>
+      <c r="H26" s="69"/>
+      <c r="I26" s="69"/>
+      <c r="J26" s="69"/>
+      <c r="K26" s="69"/>
+      <c r="L26" s="69"/>
+      <c r="M26" s="69"/>
+      <c r="N26" s="69"/>
+      <c r="O26" s="69"/>
+      <c r="P26" s="41"/>
+      <c r="Q26" s="42"/>
+      <c r="AB26" s="50"/>
+      <c r="AC26" s="50"/>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="78"/>
+      <c r="B27" s="78"/>
+      <c r="C27" s="79" t="s">
+        <v>145</v>
+      </c>
+      <c r="D27" s="80" t="s">
+        <v>146</v>
+      </c>
+      <c r="E27" s="81" t="s">
+        <v>171</v>
+      </c>
+      <c r="F27" s="82" t="s">
+        <v>172</v>
+      </c>
+      <c r="G27" s="83"/>
+      <c r="H27" s="83" t="s">
+        <v>173</v>
+      </c>
+      <c r="I27" s="83"/>
+      <c r="J27" s="83"/>
+      <c r="K27" s="83"/>
+      <c r="L27" s="83"/>
+      <c r="M27" s="84"/>
+      <c r="N27" s="85"/>
+      <c r="O27" s="85"/>
+      <c r="P27" s="41"/>
+      <c r="Q27" s="42"/>
+      <c r="AB27" s="50"/>
+      <c r="AC27" s="50"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="57"/>
+      <c r="B28" s="57"/>
+      <c r="C28" s="58" t="s">
+        <v>145</v>
+      </c>
+      <c r="D28" s="59" t="s">
+        <v>146</v>
+      </c>
+      <c r="E28" s="76"/>
+      <c r="F28" s="69" t="s">
+        <v>174</v>
+      </c>
+      <c r="G28" s="69"/>
+      <c r="H28" s="69"/>
+      <c r="I28" s="69"/>
+      <c r="J28" s="69"/>
+      <c r="K28" s="69"/>
+      <c r="L28" s="69"/>
+      <c r="M28" s="69"/>
+      <c r="N28" s="69"/>
+      <c r="O28" s="69"/>
+      <c r="P28" s="41"/>
+      <c r="Q28" s="42"/>
+      <c r="AB28" s="50"/>
+      <c r="AC28" s="50"/>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="86"/>
+      <c r="B29" s="86"/>
+      <c r="C29" s="87" t="s">
+        <v>145</v>
+      </c>
+      <c r="D29" s="88" t="s">
+        <v>146</v>
+      </c>
+      <c r="E29" s="89" t="s">
+        <v>175</v>
+      </c>
+      <c r="F29" s="90" t="s">
+        <v>176</v>
+      </c>
+      <c r="G29" s="91"/>
+      <c r="H29" s="91" t="s">
+        <v>102</v>
+      </c>
+      <c r="I29" s="91"/>
+      <c r="J29" s="91"/>
+      <c r="K29" s="91"/>
+      <c r="L29" s="91"/>
+      <c r="M29" s="92"/>
+      <c r="N29" s="93"/>
+      <c r="O29" s="93"/>
+      <c r="P29" s="41"/>
+      <c r="Q29" s="42"/>
+      <c r="AB29" s="50"/>
+      <c r="AC29" s="50"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="57"/>
+      <c r="B30" s="57"/>
+      <c r="C30" s="58" t="s">
+        <v>145</v>
+      </c>
+      <c r="D30" s="59" t="s">
+        <v>146</v>
+      </c>
+      <c r="E30" s="76"/>
+      <c r="F30" s="69"/>
+      <c r="G30" s="69"/>
+      <c r="H30" s="69"/>
+      <c r="I30" s="69"/>
+      <c r="J30" s="69"/>
+      <c r="K30" s="69"/>
+      <c r="L30" s="69"/>
+      <c r="M30" s="69"/>
+      <c r="N30" s="69"/>
+      <c r="O30" s="69"/>
+      <c r="P30" s="41"/>
+      <c r="Q30" s="42"/>
+      <c r="AB30" s="50"/>
+      <c r="AC30" s="50"/>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="86"/>
+      <c r="B31" s="86"/>
+      <c r="C31" s="87" t="s">
+        <v>145</v>
+      </c>
+      <c r="D31" s="88" t="s">
+        <v>146</v>
+      </c>
+      <c r="E31" s="89" t="s">
+        <v>175</v>
+      </c>
+      <c r="F31" s="90" t="s">
+        <v>177</v>
+      </c>
+      <c r="G31" s="91"/>
+      <c r="H31" s="91" t="s">
+        <v>178</v>
+      </c>
+      <c r="I31" s="91"/>
+      <c r="J31" s="91"/>
+      <c r="K31" s="91"/>
+      <c r="L31" s="91"/>
+      <c r="M31" s="92"/>
+      <c r="N31" s="93"/>
+      <c r="O31" s="93"/>
+      <c r="P31" s="41"/>
+      <c r="Q31" s="42"/>
+      <c r="AB31" s="50"/>
+      <c r="AC31" s="50"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="57"/>
+      <c r="B32" s="57"/>
+      <c r="C32" s="58" t="s">
+        <v>145</v>
+      </c>
+      <c r="D32" s="59" t="s">
+        <v>146</v>
+      </c>
+      <c r="E32" s="76"/>
+      <c r="F32" s="69"/>
+      <c r="G32" s="69"/>
+      <c r="H32" s="69"/>
+      <c r="I32" s="69"/>
+      <c r="J32" s="69"/>
+      <c r="K32" s="69"/>
+      <c r="L32" s="69"/>
+      <c r="M32" s="69"/>
+      <c r="N32" s="69"/>
+      <c r="O32" s="69"/>
+      <c r="P32" s="41"/>
+      <c r="Q32" s="42"/>
+      <c r="AB32" s="50"/>
+      <c r="AC32" s="50"/>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="86"/>
+      <c r="B33" s="86"/>
+      <c r="C33" s="87" t="s">
+        <v>145</v>
+      </c>
+      <c r="D33" s="88" t="s">
+        <v>146</v>
+      </c>
+      <c r="E33" s="89" t="s">
+        <v>175</v>
+      </c>
+      <c r="F33" s="90" t="s">
+        <v>179</v>
+      </c>
+      <c r="G33" s="91"/>
+      <c r="H33" s="91" t="s">
+        <v>180</v>
+      </c>
+      <c r="I33" s="91"/>
+      <c r="J33" s="91"/>
+      <c r="K33" s="91"/>
+      <c r="L33" s="91"/>
+      <c r="M33" s="92"/>
+      <c r="N33" s="93"/>
+      <c r="O33" s="93"/>
+      <c r="P33" s="41"/>
+      <c r="Q33" s="42"/>
+      <c r="AB33" s="50"/>
+      <c r="AC33" s="50"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="57"/>
+      <c r="B34" s="57"/>
+      <c r="C34" s="58" t="s">
+        <v>145</v>
+      </c>
+      <c r="D34" s="59" t="s">
+        <v>146</v>
+      </c>
+      <c r="E34" s="76"/>
+      <c r="F34" s="69"/>
+      <c r="G34" s="69"/>
+      <c r="H34" s="69"/>
+      <c r="I34" s="69"/>
+      <c r="J34" s="69"/>
+      <c r="K34" s="69"/>
+      <c r="L34" s="69"/>
+      <c r="M34" s="69"/>
+      <c r="N34" s="69"/>
+      <c r="O34" s="69"/>
+      <c r="P34" s="41"/>
+      <c r="Q34" s="42"/>
+      <c r="AB34" s="50"/>
+      <c r="AC34" s="50"/>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="86"/>
+      <c r="B35" s="86"/>
+      <c r="C35" s="87" t="s">
+        <v>145</v>
+      </c>
+      <c r="D35" s="88" t="s">
+        <v>146</v>
+      </c>
+      <c r="E35" s="89" t="s">
+        <v>175</v>
+      </c>
+      <c r="F35" s="90" t="s">
+        <v>181</v>
+      </c>
+      <c r="G35" s="91"/>
+      <c r="H35" s="91" t="s">
+        <v>182</v>
+      </c>
+      <c r="I35" s="91"/>
+      <c r="J35" s="91"/>
+      <c r="K35" s="91"/>
+      <c r="L35" s="91"/>
+      <c r="M35" s="92"/>
+      <c r="N35" s="93"/>
+      <c r="O35" s="93"/>
+      <c r="P35" s="41"/>
+      <c r="Q35" s="42"/>
+      <c r="AB35" s="50"/>
+      <c r="AC35" s="50"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="57"/>
+      <c r="B36" s="57"/>
+      <c r="C36" s="58" t="s">
+        <v>145</v>
+      </c>
+      <c r="D36" s="59" t="s">
+        <v>146</v>
+      </c>
+      <c r="E36" s="76"/>
+      <c r="F36" s="69"/>
+      <c r="G36" s="69"/>
+      <c r="H36" s="69"/>
+      <c r="I36" s="69"/>
+      <c r="J36" s="69"/>
+      <c r="K36" s="69"/>
+      <c r="L36" s="69"/>
+      <c r="M36" s="69"/>
+      <c r="N36" s="69"/>
+      <c r="O36" s="69"/>
+      <c r="P36" s="41"/>
+      <c r="Q36" s="42"/>
+      <c r="AB36" s="50"/>
+      <c r="AC36" s="50"/>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="78"/>
+      <c r="B37" s="78"/>
+      <c r="C37" s="79" t="s">
+        <v>145</v>
+      </c>
+      <c r="D37" s="80" t="s">
+        <v>146</v>
+      </c>
+      <c r="E37" s="81" t="s">
+        <v>171</v>
+      </c>
+      <c r="F37" s="82" t="s">
+        <v>183</v>
+      </c>
+      <c r="G37" s="83"/>
+      <c r="H37" s="83" t="s">
+        <v>184</v>
+      </c>
+      <c r="I37" s="83"/>
+      <c r="J37" s="83"/>
+      <c r="K37" s="83"/>
+      <c r="L37" s="83"/>
+      <c r="M37" s="84"/>
+      <c r="N37" s="85"/>
+      <c r="O37" s="85"/>
+      <c r="P37" s="41"/>
+      <c r="Q37" s="42"/>
+      <c r="AB37" s="50"/>
+      <c r="AC37" s="50"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="57"/>
+      <c r="B38" s="57"/>
+      <c r="C38" s="58" t="s">
+        <v>145</v>
+      </c>
+      <c r="D38" s="59" t="s">
+        <v>146</v>
+      </c>
+      <c r="E38" s="76"/>
+      <c r="F38" s="69" t="s">
+        <v>185</v>
+      </c>
+      <c r="G38" s="69"/>
+      <c r="H38" s="69"/>
+      <c r="I38" s="69"/>
+      <c r="J38" s="69"/>
+      <c r="K38" s="69"/>
+      <c r="L38" s="69"/>
+      <c r="M38" s="69"/>
+      <c r="N38" s="69"/>
+      <c r="O38" s="69"/>
+      <c r="P38" s="41"/>
+      <c r="Q38" s="42"/>
+      <c r="AB38" s="50"/>
+      <c r="AC38" s="50"/>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="86"/>
+      <c r="B39" s="86"/>
+      <c r="C39" s="87" t="s">
+        <v>145</v>
+      </c>
+      <c r="D39" s="88" t="s">
+        <v>146</v>
+      </c>
+      <c r="E39" s="89" t="s">
+        <v>175</v>
+      </c>
+      <c r="F39" s="90" t="s">
+        <v>186</v>
+      </c>
+      <c r="G39" s="91"/>
+      <c r="H39" s="91" t="s">
+        <v>103</v>
+      </c>
+      <c r="I39" s="91"/>
+      <c r="J39" s="91"/>
+      <c r="K39" s="91"/>
+      <c r="L39" s="91"/>
+      <c r="M39" s="92"/>
+      <c r="N39" s="93"/>
+      <c r="O39" s="93"/>
+      <c r="P39" s="41"/>
+      <c r="Q39" s="42"/>
+      <c r="AB39" s="50"/>
+      <c r="AC39" s="50"/>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="57"/>
+      <c r="B40" s="57"/>
+      <c r="C40" s="58" t="s">
+        <v>145</v>
+      </c>
+      <c r="D40" s="59" t="s">
+        <v>146</v>
+      </c>
+      <c r="E40" s="76"/>
+      <c r="F40" s="69"/>
+      <c r="G40" s="69"/>
+      <c r="H40" s="69"/>
+      <c r="I40" s="69"/>
+      <c r="J40" s="69"/>
+      <c r="K40" s="69"/>
+      <c r="L40" s="69"/>
+      <c r="M40" s="69"/>
+      <c r="N40" s="69"/>
+      <c r="O40" s="69"/>
+      <c r="P40" s="41"/>
+      <c r="Q40" s="42"/>
+      <c r="AB40" s="50"/>
+      <c r="AC40" s="50"/>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="57"/>
+      <c r="B41" s="57"/>
+      <c r="C41" s="58" t="s">
+        <v>145</v>
+      </c>
+      <c r="D41" s="59" t="s">
+        <v>146</v>
+      </c>
+      <c r="E41" s="76"/>
+      <c r="F41" s="69"/>
+      <c r="G41" s="69"/>
+      <c r="H41" s="69"/>
+      <c r="I41" s="69"/>
+      <c r="J41" s="69"/>
+      <c r="K41" s="69"/>
+      <c r="L41" s="69"/>
+      <c r="M41" s="69"/>
+      <c r="N41" s="69"/>
+      <c r="O41" s="69"/>
+      <c r="P41" s="41"/>
+      <c r="Q41" s="42"/>
+      <c r="AB41" s="50"/>
+      <c r="AC41" s="50"/>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="78"/>
+      <c r="B42" s="78"/>
+      <c r="C42" s="79" t="s">
+        <v>145</v>
+      </c>
+      <c r="D42" s="80" t="s">
+        <v>146</v>
+      </c>
+      <c r="E42" s="81" t="s">
+        <v>171</v>
+      </c>
+      <c r="F42" s="82" t="s">
+        <v>187</v>
+      </c>
+      <c r="G42" s="83"/>
+      <c r="H42" s="83" t="s">
+        <v>188</v>
+      </c>
+      <c r="I42" s="83"/>
+      <c r="J42" s="83"/>
+      <c r="K42" s="83"/>
+      <c r="L42" s="83"/>
+      <c r="M42" s="84"/>
+      <c r="N42" s="85"/>
+      <c r="O42" s="85"/>
+      <c r="P42" s="41"/>
+      <c r="Q42" s="42"/>
+      <c r="AB42" s="50"/>
+      <c r="AC42" s="50"/>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="57"/>
+      <c r="B43" s="57"/>
+      <c r="C43" s="58" t="s">
+        <v>145</v>
+      </c>
+      <c r="D43" s="59" t="s">
+        <v>146</v>
+      </c>
+      <c r="E43" s="76"/>
+      <c r="F43" s="69" t="s">
+        <v>189</v>
+      </c>
+      <c r="G43" s="69"/>
+      <c r="H43" s="69"/>
+      <c r="I43" s="69"/>
+      <c r="J43" s="69"/>
+      <c r="K43" s="69"/>
+      <c r="L43" s="69"/>
+      <c r="M43" s="69"/>
+      <c r="N43" s="69"/>
+      <c r="O43" s="69"/>
+      <c r="P43" s="41"/>
+      <c r="Q43" s="42"/>
+      <c r="AB43" s="50"/>
+      <c r="AC43" s="50"/>
+    </row>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="86"/>
+      <c r="B44" s="86"/>
+      <c r="C44" s="87" t="s">
+        <v>145</v>
+      </c>
+      <c r="D44" s="88" t="s">
+        <v>146</v>
+      </c>
+      <c r="E44" s="89" t="s">
+        <v>175</v>
+      </c>
+      <c r="F44" s="90" t="s">
+        <v>190</v>
+      </c>
+      <c r="G44" s="91"/>
+      <c r="H44" s="91" t="s">
+        <v>104</v>
+      </c>
+      <c r="I44" s="91"/>
+      <c r="J44" s="91"/>
+      <c r="K44" s="91"/>
+      <c r="L44" s="91"/>
+      <c r="M44" s="92"/>
+      <c r="N44" s="93"/>
+      <c r="O44" s="93"/>
+      <c r="P44" s="41"/>
+      <c r="Q44" s="42"/>
+      <c r="AB44" s="50"/>
+      <c r="AC44" s="50"/>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="57"/>
+      <c r="B45" s="57"/>
+      <c r="C45" s="58" t="s">
+        <v>145</v>
+      </c>
+      <c r="D45" s="59" t="s">
+        <v>146</v>
+      </c>
+      <c r="E45" s="76"/>
+      <c r="F45" s="69"/>
+      <c r="G45" s="69"/>
+      <c r="H45" s="69"/>
+      <c r="I45" s="69"/>
+      <c r="J45" s="69"/>
+      <c r="K45" s="69"/>
+      <c r="L45" s="69"/>
+      <c r="M45" s="69"/>
+      <c r="N45" s="69"/>
+      <c r="O45" s="69"/>
+      <c r="P45" s="41"/>
+      <c r="Q45" s="42"/>
+      <c r="AB45" s="50"/>
+      <c r="AC45" s="50"/>
+    </row>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="86"/>
+      <c r="B46" s="86"/>
+      <c r="C46" s="87" t="s">
+        <v>145</v>
+      </c>
+      <c r="D46" s="88" t="s">
+        <v>146</v>
+      </c>
+      <c r="E46" s="89" t="s">
+        <v>175</v>
+      </c>
+      <c r="F46" s="90" t="s">
+        <v>191</v>
+      </c>
+      <c r="G46" s="91"/>
+      <c r="H46" s="91" t="s">
+        <v>192</v>
+      </c>
+      <c r="I46" s="91"/>
+      <c r="J46" s="91"/>
+      <c r="K46" s="91"/>
+      <c r="L46" s="91"/>
+      <c r="M46" s="92"/>
+      <c r="N46" s="93"/>
+      <c r="O46" s="93"/>
+      <c r="P46" s="41"/>
+      <c r="Q46" s="42"/>
+      <c r="AB46" s="50"/>
+      <c r="AC46" s="50"/>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="57"/>
+      <c r="B47" s="57"/>
+      <c r="C47" s="58" t="s">
+        <v>145</v>
+      </c>
+      <c r="D47" s="59" t="s">
+        <v>146</v>
+      </c>
+      <c r="E47" s="76"/>
+      <c r="F47" s="69"/>
+      <c r="G47" s="69"/>
+      <c r="H47" s="69"/>
+      <c r="I47" s="69"/>
+      <c r="J47" s="69"/>
+      <c r="K47" s="69"/>
+      <c r="L47" s="69"/>
+      <c r="M47" s="69"/>
+      <c r="N47" s="69"/>
+      <c r="O47" s="69"/>
+      <c r="P47" s="41"/>
+      <c r="Q47" s="42"/>
+      <c r="AB47" s="50"/>
+      <c r="AC47" s="50"/>
+    </row>
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="78"/>
+      <c r="B48" s="78"/>
+      <c r="C48" s="79" t="s">
+        <v>145</v>
+      </c>
+      <c r="D48" s="80" t="s">
+        <v>146</v>
+      </c>
+      <c r="E48" s="81" t="s">
+        <v>171</v>
+      </c>
+      <c r="F48" s="82" t="s">
+        <v>193</v>
+      </c>
+      <c r="G48" s="83"/>
+      <c r="H48" s="83" t="s">
+        <v>194</v>
+      </c>
+      <c r="I48" s="83"/>
+      <c r="J48" s="83"/>
+      <c r="K48" s="83"/>
+      <c r="L48" s="83"/>
+      <c r="M48" s="84"/>
+      <c r="N48" s="85"/>
+      <c r="O48" s="85"/>
+      <c r="P48" s="41"/>
+      <c r="Q48" s="42"/>
+      <c r="AB48" s="50"/>
+      <c r="AC48" s="50"/>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="57"/>
+      <c r="B49" s="57"/>
+      <c r="C49" s="58" t="s">
+        <v>145</v>
+      </c>
+      <c r="D49" s="59" t="s">
+        <v>146</v>
+      </c>
+      <c r="E49" s="76"/>
+      <c r="F49" s="69" t="s">
+        <v>195</v>
+      </c>
+      <c r="G49" s="69"/>
+      <c r="H49" s="69"/>
+      <c r="I49" s="69"/>
+      <c r="J49" s="69"/>
+      <c r="K49" s="69"/>
+      <c r="L49" s="69"/>
+      <c r="M49" s="69"/>
+      <c r="N49" s="69"/>
+      <c r="O49" s="69"/>
+      <c r="P49" s="41"/>
+      <c r="Q49" s="42"/>
+      <c r="AB49" s="50"/>
+      <c r="AC49" s="50"/>
+    </row>
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="86"/>
+      <c r="B50" s="86"/>
+      <c r="C50" s="87" t="s">
+        <v>145</v>
+      </c>
+      <c r="D50" s="88" t="s">
+        <v>146</v>
+      </c>
+      <c r="E50" s="89" t="s">
+        <v>175</v>
+      </c>
+      <c r="F50" s="90" t="s">
+        <v>196</v>
+      </c>
+      <c r="G50" s="91"/>
+      <c r="H50" s="91" t="s">
+        <v>105</v>
+      </c>
+      <c r="I50" s="91"/>
+      <c r="J50" s="91"/>
+      <c r="K50" s="91"/>
+      <c r="L50" s="91"/>
+      <c r="M50" s="92"/>
+      <c r="N50" s="93"/>
+      <c r="O50" s="93"/>
+      <c r="P50" s="41"/>
+      <c r="Q50" s="42"/>
+      <c r="AB50" s="50"/>
+      <c r="AC50" s="50"/>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="57"/>
+      <c r="B51" s="57"/>
+      <c r="C51" s="58" t="s">
+        <v>145</v>
+      </c>
+      <c r="D51" s="59" t="s">
+        <v>146</v>
+      </c>
+      <c r="E51" s="76"/>
+      <c r="F51" s="69"/>
+      <c r="G51" s="69"/>
+      <c r="H51" s="69"/>
+      <c r="I51" s="69"/>
+      <c r="J51" s="69"/>
+      <c r="K51" s="69"/>
+      <c r="L51" s="69"/>
+      <c r="M51" s="69"/>
+      <c r="N51" s="69"/>
+      <c r="O51" s="69"/>
+      <c r="P51" s="41"/>
+      <c r="Q51" s="42"/>
+      <c r="AB51" s="50"/>
+      <c r="AC51" s="50"/>
+    </row>
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="78"/>
+      <c r="B52" s="78"/>
+      <c r="C52" s="79" t="s">
+        <v>145</v>
+      </c>
+      <c r="D52" s="80" t="s">
+        <v>146</v>
+      </c>
+      <c r="E52" s="81" t="s">
+        <v>171</v>
+      </c>
+      <c r="F52" s="82" t="s">
+        <v>197</v>
+      </c>
+      <c r="G52" s="83"/>
+      <c r="H52" s="83" t="s">
+        <v>198</v>
+      </c>
+      <c r="I52" s="83"/>
+      <c r="J52" s="83"/>
+      <c r="K52" s="83"/>
+      <c r="L52" s="83"/>
+      <c r="M52" s="84"/>
+      <c r="N52" s="85"/>
+      <c r="O52" s="85"/>
+      <c r="P52" s="41"/>
+      <c r="Q52" s="42"/>
+      <c r="AB52" s="50"/>
+      <c r="AC52" s="50"/>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="57"/>
+      <c r="B53" s="57"/>
+      <c r="C53" s="58" t="s">
+        <v>145</v>
+      </c>
+      <c r="D53" s="59" t="s">
+        <v>146</v>
+      </c>
+      <c r="E53" s="76"/>
+      <c r="F53" s="69" t="s">
+        <v>199</v>
+      </c>
+      <c r="G53" s="69"/>
+      <c r="H53" s="69"/>
+      <c r="I53" s="69"/>
+      <c r="J53" s="69"/>
+      <c r="K53" s="69"/>
+      <c r="L53" s="69"/>
+      <c r="M53" s="69"/>
+      <c r="N53" s="69"/>
+      <c r="O53" s="69"/>
+      <c r="P53" s="41"/>
+      <c r="Q53" s="42"/>
+      <c r="AB53" s="50"/>
+      <c r="AC53" s="50"/>
+    </row>
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="86"/>
+      <c r="B54" s="86"/>
+      <c r="C54" s="87" t="s">
+        <v>145</v>
+      </c>
+      <c r="D54" s="88" t="s">
+        <v>146</v>
+      </c>
+      <c r="E54" s="89" t="s">
+        <v>175</v>
+      </c>
+      <c r="F54" s="90" t="s">
+        <v>200</v>
+      </c>
+      <c r="G54" s="91"/>
+      <c r="H54" s="91" t="s">
+        <v>121</v>
+      </c>
+      <c r="I54" s="91"/>
+      <c r="J54" s="91"/>
+      <c r="K54" s="91"/>
+      <c r="L54" s="91"/>
+      <c r="M54" s="92"/>
+      <c r="N54" s="93"/>
+      <c r="O54" s="93"/>
+      <c r="P54" s="41"/>
+      <c r="Q54" s="42"/>
+      <c r="AB54" s="50"/>
+      <c r="AC54" s="50"/>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="57"/>
+      <c r="B55" s="57"/>
+      <c r="C55" s="58" t="s">
+        <v>145</v>
+      </c>
+      <c r="D55" s="59" t="s">
+        <v>146</v>
+      </c>
+      <c r="E55" s="76"/>
+      <c r="F55" s="69"/>
+      <c r="G55" s="69"/>
+      <c r="H55" s="69"/>
+      <c r="I55" s="69"/>
+      <c r="J55" s="69"/>
+      <c r="K55" s="69"/>
+      <c r="L55" s="69"/>
+      <c r="M55" s="69"/>
+      <c r="N55" s="69"/>
+      <c r="O55" s="69"/>
+      <c r="P55" s="41"/>
+      <c r="Q55" s="42"/>
+      <c r="AB55" s="50"/>
+      <c r="AC55" s="50"/>
+    </row>
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="78"/>
+      <c r="B56" s="78"/>
+      <c r="C56" s="79" t="s">
+        <v>145</v>
+      </c>
+      <c r="D56" s="80" t="s">
+        <v>146</v>
+      </c>
+      <c r="E56" s="81" t="s">
+        <v>171</v>
+      </c>
+      <c r="F56" s="82" t="s">
+        <v>201</v>
+      </c>
+      <c r="G56" s="83"/>
+      <c r="H56" s="83" t="s">
+        <v>202</v>
+      </c>
+      <c r="I56" s="83"/>
+      <c r="J56" s="83"/>
+      <c r="K56" s="83"/>
+      <c r="L56" s="83"/>
+      <c r="M56" s="84"/>
+      <c r="N56" s="85"/>
+      <c r="O56" s="85"/>
+      <c r="P56" s="41"/>
+      <c r="Q56" s="42"/>
+      <c r="AB56" s="50"/>
+      <c r="AC56" s="50"/>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="57"/>
+      <c r="B57" s="57"/>
+      <c r="C57" s="58" t="s">
+        <v>145</v>
+      </c>
+      <c r="D57" s="59" t="s">
+        <v>146</v>
+      </c>
+      <c r="E57" s="76"/>
+      <c r="F57" s="69" t="s">
+        <v>203</v>
+      </c>
+      <c r="G57" s="69"/>
+      <c r="H57" s="69"/>
+      <c r="I57" s="69"/>
+      <c r="J57" s="69"/>
+      <c r="K57" s="69"/>
+      <c r="L57" s="69"/>
+      <c r="M57" s="69"/>
+      <c r="N57" s="69"/>
+      <c r="O57" s="69"/>
+      <c r="P57" s="41"/>
+      <c r="Q57" s="42"/>
+      <c r="AB57" s="50"/>
+      <c r="AC57" s="50"/>
+    </row>
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="86"/>
+      <c r="B58" s="86"/>
+      <c r="C58" s="87" t="s">
+        <v>145</v>
+      </c>
+      <c r="D58" s="88" t="s">
+        <v>146</v>
+      </c>
+      <c r="E58" s="89" t="s">
+        <v>175</v>
+      </c>
+      <c r="F58" s="90" t="s">
+        <v>204</v>
+      </c>
+      <c r="G58" s="91"/>
+      <c r="H58" s="91" t="s">
+        <v>122</v>
+      </c>
+      <c r="I58" s="91"/>
+      <c r="J58" s="91"/>
+      <c r="K58" s="91"/>
+      <c r="L58" s="91"/>
+      <c r="M58" s="92"/>
+      <c r="N58" s="93"/>
+      <c r="O58" s="93"/>
+      <c r="P58" s="41"/>
+      <c r="Q58" s="42"/>
+      <c r="AB58" s="50"/>
+      <c r="AC58" s="50"/>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="57"/>
+      <c r="B59" s="57"/>
+      <c r="C59" s="58" t="s">
+        <v>145</v>
+      </c>
+      <c r="D59" s="59" t="s">
+        <v>146</v>
+      </c>
+      <c r="E59" s="76"/>
+      <c r="F59" s="69"/>
+      <c r="G59" s="69"/>
+      <c r="H59" s="69"/>
+      <c r="I59" s="69"/>
+      <c r="J59" s="69"/>
+      <c r="K59" s="69"/>
+      <c r="L59" s="69"/>
+      <c r="M59" s="69"/>
+      <c r="N59" s="69"/>
+      <c r="O59" s="69"/>
+      <c r="P59" s="41"/>
+      <c r="Q59" s="42"/>
+      <c r="AB59" s="50"/>
+      <c r="AC59" s="50"/>
+    </row>
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="70"/>
+      <c r="B60" s="70"/>
+      <c r="C60" s="71" t="s">
+        <v>145</v>
+      </c>
+      <c r="D60" s="72" t="s">
+        <v>146</v>
+      </c>
+      <c r="E60" s="94" t="s">
+        <v>157</v>
+      </c>
+      <c r="F60" s="95" t="s">
+        <v>205</v>
+      </c>
+      <c r="G60" s="96"/>
+      <c r="H60" s="96"/>
+      <c r="I60" s="96"/>
+      <c r="J60" s="96"/>
+      <c r="K60" s="96"/>
+      <c r="L60" s="96"/>
+      <c r="M60" s="97"/>
+      <c r="N60" s="98"/>
+      <c r="O60" s="98"/>
+      <c r="P60" s="41"/>
+      <c r="Q60" s="42"/>
+      <c r="AB60" s="50"/>
+      <c r="AC60" s="50"/>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="57"/>
+      <c r="B61" s="57"/>
+      <c r="C61" s="58" t="s">
+        <v>145</v>
+      </c>
+      <c r="D61" s="59" t="s">
+        <v>146</v>
+      </c>
+      <c r="E61" s="76"/>
+      <c r="F61" s="69" t="s">
+        <v>206</v>
+      </c>
+      <c r="G61" s="69"/>
+      <c r="H61" s="69"/>
+      <c r="I61" s="69"/>
+      <c r="J61" s="69"/>
+      <c r="K61" s="69"/>
+      <c r="L61" s="69"/>
+      <c r="M61" s="69"/>
+      <c r="N61" s="69"/>
+      <c r="O61" s="69"/>
+      <c r="P61" s="41"/>
+      <c r="Q61" s="42"/>
+      <c r="AB61" s="50"/>
+      <c r="AC61" s="50"/>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="57"/>
+      <c r="B62" s="57"/>
+      <c r="C62" s="58" t="s">
+        <v>145</v>
+      </c>
+      <c r="D62" s="59" t="s">
+        <v>146</v>
+      </c>
+      <c r="E62" s="76"/>
+      <c r="F62" s="69" t="s">
+        <v>207</v>
+      </c>
+      <c r="G62" s="69"/>
+      <c r="H62" s="69"/>
+      <c r="I62" s="69"/>
+      <c r="J62" s="69"/>
+      <c r="K62" s="69"/>
+      <c r="L62" s="69"/>
+      <c r="M62" s="69"/>
+      <c r="N62" s="69"/>
+      <c r="O62" s="69"/>
+      <c r="P62" s="41"/>
+      <c r="Q62" s="42"/>
+      <c r="AB62" s="50"/>
+      <c r="AC62" s="50"/>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="57"/>
+      <c r="B63" s="57"/>
+      <c r="C63" s="58"/>
+      <c r="D63" s="59"/>
+      <c r="E63" s="76"/>
+      <c r="F63" s="69"/>
+      <c r="G63" s="69"/>
+      <c r="H63" s="69"/>
+      <c r="I63" s="69"/>
+      <c r="J63" s="69"/>
+      <c r="K63" s="69"/>
+      <c r="L63" s="69"/>
+      <c r="M63" s="69"/>
+      <c r="N63" s="69"/>
+      <c r="O63" s="69"/>
+      <c r="P63" s="41"/>
+      <c r="Q63" s="42"/>
+      <c r="AB63" s="50"/>
+      <c r="AC63" s="50"/>
+    </row>
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="78"/>
+      <c r="B64" s="78"/>
+      <c r="C64" s="79"/>
+      <c r="D64" s="80"/>
+      <c r="E64" s="99" t="s">
+        <v>171</v>
+      </c>
+      <c r="F64" s="100" t="s">
+        <v>172</v>
+      </c>
+      <c r="G64" s="101"/>
+      <c r="H64" s="101" t="s">
+        <v>208</v>
+      </c>
+      <c r="I64" s="101"/>
+      <c r="J64" s="101"/>
+      <c r="K64" s="101"/>
+      <c r="L64" s="101"/>
+      <c r="M64" s="102"/>
+      <c r="N64" s="103"/>
+      <c r="O64" s="103"/>
+      <c r="P64" s="41"/>
+      <c r="Q64" s="42"/>
+      <c r="AB64" s="50"/>
+      <c r="AC64" s="50"/>
+    </row>
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="86"/>
+      <c r="B65" s="86"/>
+      <c r="C65" s="87"/>
+      <c r="D65" s="88"/>
+      <c r="E65" s="104" t="s">
+        <v>175</v>
+      </c>
+      <c r="F65" s="105" t="s">
+        <v>176</v>
+      </c>
+      <c r="G65" s="106"/>
+      <c r="H65" s="106" t="s">
+        <v>54</v>
+      </c>
+      <c r="I65" s="106"/>
+      <c r="J65" s="106"/>
+      <c r="K65" s="106"/>
+      <c r="L65" s="106"/>
+      <c r="M65" s="107"/>
+      <c r="N65" s="108"/>
+      <c r="O65" s="108"/>
+      <c r="P65" s="41"/>
+      <c r="Q65" s="42"/>
+      <c r="AB65" s="50"/>
+      <c r="AC65" s="50"/>
+    </row>
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="86"/>
+      <c r="B66" s="86"/>
+      <c r="C66" s="87"/>
+      <c r="D66" s="88"/>
+      <c r="E66" s="104" t="s">
+        <v>175</v>
+      </c>
+      <c r="F66" s="105" t="s">
+        <v>177</v>
+      </c>
+      <c r="G66" s="106"/>
+      <c r="H66" s="106" t="s">
+        <v>209</v>
+      </c>
+      <c r="I66" s="106"/>
+      <c r="J66" s="106"/>
+      <c r="K66" s="106"/>
+      <c r="L66" s="106"/>
+      <c r="M66" s="107"/>
+      <c r="N66" s="108"/>
+      <c r="O66" s="108"/>
+      <c r="P66" s="41"/>
+      <c r="Q66" s="42"/>
+      <c r="AB66" s="50"/>
+      <c r="AC66" s="50"/>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="57"/>
+      <c r="B67" s="57"/>
+      <c r="C67" s="58"/>
+      <c r="D67" s="59"/>
+      <c r="E67" s="76"/>
+      <c r="F67" s="69"/>
+      <c r="G67" s="69"/>
+      <c r="H67" s="69"/>
+      <c r="I67" s="69"/>
+      <c r="J67" s="69"/>
+      <c r="K67" s="69"/>
+      <c r="L67" s="69"/>
+      <c r="M67" s="69"/>
+      <c r="N67" s="69"/>
+      <c r="O67" s="69"/>
+      <c r="P67" s="41"/>
+      <c r="Q67" s="42"/>
+      <c r="AB67" s="50"/>
+      <c r="AC67" s="50"/>
+    </row>
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="78"/>
+      <c r="B68" s="78"/>
+      <c r="C68" s="79"/>
+      <c r="D68" s="80"/>
+      <c r="E68" s="99" t="s">
+        <v>171</v>
+      </c>
+      <c r="F68" s="100" t="s">
+        <v>183</v>
+      </c>
+      <c r="G68" s="101"/>
+      <c r="H68" s="101" t="s">
+        <v>210</v>
+      </c>
+      <c r="I68" s="101"/>
+      <c r="J68" s="101"/>
+      <c r="K68" s="101"/>
+      <c r="L68" s="101"/>
+      <c r="M68" s="102"/>
+      <c r="N68" s="103"/>
+      <c r="O68" s="103"/>
+      <c r="P68" s="41"/>
+      <c r="Q68" s="42"/>
+      <c r="AB68" s="50"/>
+      <c r="AC68" s="50"/>
+    </row>
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="86"/>
+      <c r="B69" s="86"/>
+      <c r="C69" s="87"/>
+      <c r="D69" s="88"/>
+      <c r="E69" s="104" t="s">
+        <v>175</v>
+      </c>
+      <c r="F69" s="105" t="s">
+        <v>186</v>
+      </c>
+      <c r="G69" s="106"/>
+      <c r="H69" s="106" t="s">
+        <v>57</v>
+      </c>
+      <c r="I69" s="106"/>
+      <c r="J69" s="106"/>
+      <c r="K69" s="106"/>
+      <c r="L69" s="106"/>
+      <c r="M69" s="107"/>
+      <c r="N69" s="108"/>
+      <c r="O69" s="108"/>
+      <c r="P69" s="41"/>
+      <c r="Q69" s="42"/>
+      <c r="AB69" s="50"/>
+      <c r="AC69" s="50"/>
+    </row>
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="86"/>
+      <c r="B70" s="86"/>
+      <c r="C70" s="87"/>
+      <c r="D70" s="88"/>
+      <c r="E70" s="104" t="s">
+        <v>175</v>
+      </c>
+      <c r="F70" s="105" t="s">
+        <v>211</v>
+      </c>
+      <c r="G70" s="106"/>
+      <c r="H70" s="106" t="s">
+        <v>212</v>
+      </c>
+      <c r="I70" s="106"/>
+      <c r="J70" s="106"/>
+      <c r="K70" s="106"/>
+      <c r="L70" s="106"/>
+      <c r="M70" s="107"/>
+      <c r="N70" s="108"/>
+      <c r="O70" s="108"/>
+      <c r="P70" s="41"/>
+      <c r="Q70" s="42"/>
+      <c r="AB70" s="50"/>
+      <c r="AC70" s="50"/>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="57"/>
+      <c r="B71" s="57"/>
+      <c r="C71" s="58"/>
+      <c r="D71" s="59"/>
+      <c r="E71" s="76"/>
+      <c r="F71" s="69"/>
+      <c r="G71" s="69"/>
+      <c r="H71" s="69"/>
+      <c r="I71" s="69"/>
+      <c r="J71" s="69"/>
+      <c r="K71" s="69"/>
+      <c r="L71" s="69"/>
+      <c r="M71" s="69"/>
+      <c r="N71" s="69"/>
+      <c r="O71" s="69"/>
+      <c r="P71" s="41"/>
+      <c r="Q71" s="42"/>
+      <c r="AB71" s="50"/>
+      <c r="AC71" s="50"/>
+    </row>
+    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="78"/>
+      <c r="B72" s="78"/>
+      <c r="C72" s="79"/>
+      <c r="D72" s="80"/>
+      <c r="E72" s="99" t="s">
+        <v>171</v>
+      </c>
+      <c r="F72" s="100" t="s">
+        <v>187</v>
+      </c>
+      <c r="G72" s="101"/>
+      <c r="H72" s="101" t="s">
+        <v>213</v>
+      </c>
+      <c r="I72" s="101"/>
+      <c r="J72" s="101"/>
+      <c r="K72" s="101"/>
+      <c r="L72" s="101"/>
+      <c r="M72" s="102"/>
+      <c r="N72" s="103"/>
+      <c r="O72" s="103"/>
+      <c r="P72" s="41"/>
+      <c r="Q72" s="42"/>
+      <c r="AB72" s="50"/>
+      <c r="AC72" s="50"/>
+    </row>
+    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="86"/>
+      <c r="B73" s="86"/>
+      <c r="C73" s="87"/>
+      <c r="D73" s="88"/>
+      <c r="E73" s="104" t="s">
+        <v>175</v>
+      </c>
+      <c r="F73" s="105" t="s">
+        <v>190</v>
+      </c>
+      <c r="G73" s="106"/>
+      <c r="H73" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="I73" s="106"/>
+      <c r="J73" s="106"/>
+      <c r="K73" s="106"/>
+      <c r="L73" s="106"/>
+      <c r="M73" s="107"/>
+      <c r="N73" s="108"/>
+      <c r="O73" s="108"/>
+      <c r="P73" s="41"/>
+      <c r="Q73" s="42"/>
+      <c r="AB73" s="50"/>
+      <c r="AC73" s="50"/>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="57"/>
+      <c r="B74" s="57"/>
+      <c r="C74" s="58"/>
+      <c r="D74" s="59"/>
+      <c r="E74" s="76"/>
+      <c r="F74" s="69"/>
+      <c r="G74" s="69"/>
+      <c r="H74" s="69"/>
+      <c r="I74" s="69"/>
+      <c r="J74" s="69"/>
+      <c r="K74" s="69"/>
+      <c r="L74" s="69"/>
+      <c r="M74" s="69"/>
+      <c r="N74" s="69"/>
+      <c r="O74" s="69"/>
+      <c r="P74" s="41"/>
+      <c r="Q74" s="42"/>
+      <c r="AB74" s="50"/>
+      <c r="AC74" s="50"/>
+    </row>
+    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="78"/>
+      <c r="B75" s="78"/>
+      <c r="C75" s="79"/>
+      <c r="D75" s="80"/>
+      <c r="E75" s="99" t="s">
+        <v>171</v>
+      </c>
+      <c r="F75" s="100" t="s">
+        <v>193</v>
+      </c>
+      <c r="G75" s="101"/>
+      <c r="H75" s="101" t="s">
+        <v>215</v>
+      </c>
+      <c r="I75" s="101"/>
+      <c r="J75" s="101"/>
+      <c r="K75" s="101"/>
+      <c r="L75" s="101"/>
+      <c r="M75" s="102"/>
+      <c r="N75" s="103"/>
+      <c r="O75" s="103"/>
+      <c r="P75" s="41"/>
+      <c r="Q75" s="42"/>
+      <c r="AB75" s="50"/>
+      <c r="AC75" s="50"/>
+    </row>
+    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="86"/>
+      <c r="B76" s="86"/>
+      <c r="C76" s="87"/>
+      <c r="D76" s="88"/>
+      <c r="E76" s="104" t="s">
+        <v>175</v>
+      </c>
+      <c r="F76" s="105" t="s">
+        <v>196</v>
+      </c>
+      <c r="G76" s="106"/>
+      <c r="H76" s="106" t="s">
+        <v>78</v>
+      </c>
+      <c r="I76" s="106"/>
+      <c r="J76" s="106"/>
+      <c r="K76" s="106"/>
+      <c r="L76" s="106"/>
+      <c r="M76" s="107"/>
+      <c r="N76" s="108"/>
+      <c r="O76" s="108"/>
+      <c r="P76" s="41"/>
+      <c r="Q76" s="42"/>
+      <c r="AB76" s="50"/>
+      <c r="AC76" s="50"/>
+    </row>
+    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="86"/>
+      <c r="B77" s="86"/>
+      <c r="C77" s="87"/>
+      <c r="D77" s="88"/>
+      <c r="E77" s="104" t="s">
+        <v>175</v>
+      </c>
+      <c r="F77" s="105" t="s">
+        <v>216</v>
+      </c>
+      <c r="G77" s="106"/>
+      <c r="H77" s="106" t="s">
+        <v>217</v>
+      </c>
+      <c r="I77" s="106"/>
+      <c r="J77" s="106"/>
+      <c r="K77" s="106"/>
+      <c r="L77" s="106"/>
+      <c r="M77" s="107"/>
+      <c r="N77" s="108"/>
+      <c r="O77" s="108"/>
+      <c r="P77" s="41"/>
+      <c r="Q77" s="42"/>
+      <c r="AB77" s="50"/>
+      <c r="AC77" s="50"/>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="57"/>
+      <c r="B78" s="57"/>
+      <c r="C78" s="58"/>
+      <c r="D78" s="59"/>
+      <c r="E78" s="76"/>
+      <c r="F78" s="69"/>
+      <c r="G78" s="69"/>
+      <c r="H78" s="69"/>
+      <c r="I78" s="69"/>
+      <c r="J78" s="69"/>
+      <c r="K78" s="69"/>
+      <c r="L78" s="69"/>
+      <c r="M78" s="69"/>
+      <c r="N78" s="69"/>
+      <c r="O78" s="69"/>
+      <c r="P78" s="41"/>
+      <c r="Q78" s="42"/>
+      <c r="AB78" s="50"/>
+      <c r="AC78" s="50"/>
+    </row>
+    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="78"/>
+      <c r="B79" s="78"/>
+      <c r="C79" s="79"/>
+      <c r="D79" s="80"/>
+      <c r="E79" s="99" t="s">
+        <v>171</v>
+      </c>
+      <c r="F79" s="100" t="s">
+        <v>197</v>
+      </c>
+      <c r="G79" s="101"/>
+      <c r="H79" s="101" t="s">
+        <v>218</v>
+      </c>
+      <c r="I79" s="101"/>
+      <c r="J79" s="101"/>
+      <c r="K79" s="101"/>
+      <c r="L79" s="101"/>
+      <c r="M79" s="102"/>
+      <c r="N79" s="103"/>
+      <c r="O79" s="103"/>
+      <c r="P79" s="41"/>
+      <c r="Q79" s="42"/>
+      <c r="AB79" s="50"/>
+      <c r="AC79" s="50"/>
+    </row>
+    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="86"/>
+      <c r="B80" s="86"/>
+      <c r="C80" s="87"/>
+      <c r="D80" s="88"/>
+      <c r="E80" s="104" t="s">
+        <v>175</v>
+      </c>
+      <c r="F80" s="105" t="s">
+        <v>200</v>
+      </c>
+      <c r="G80" s="106"/>
+      <c r="H80" s="106" t="s">
+        <v>77</v>
+      </c>
+      <c r="I80" s="106"/>
+      <c r="J80" s="106"/>
+      <c r="K80" s="106"/>
+      <c r="L80" s="106"/>
+      <c r="M80" s="107"/>
+      <c r="N80" s="108"/>
+      <c r="O80" s="108"/>
+      <c r="P80" s="41"/>
+      <c r="Q80" s="42"/>
+      <c r="AB80" s="50"/>
+      <c r="AC80" s="50"/>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="57"/>
+      <c r="B81" s="57"/>
+      <c r="C81" s="58"/>
+      <c r="D81" s="59"/>
+      <c r="E81" s="76"/>
+      <c r="F81" s="69"/>
+      <c r="G81" s="69"/>
+      <c r="H81" s="69"/>
+      <c r="I81" s="69"/>
+      <c r="J81" s="69"/>
+      <c r="K81" s="69"/>
+      <c r="L81" s="69"/>
+      <c r="M81" s="69"/>
+      <c r="N81" s="69"/>
+      <c r="O81" s="69"/>
+      <c r="P81" s="41"/>
+      <c r="Q81" s="42"/>
+      <c r="AB81" s="50"/>
+      <c r="AC81" s="50"/>
+    </row>
+    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="78"/>
+      <c r="B82" s="78"/>
+      <c r="C82" s="79"/>
+      <c r="D82" s="80"/>
+      <c r="E82" s="99" t="s">
+        <v>171</v>
+      </c>
+      <c r="F82" s="100" t="s">
+        <v>201</v>
+      </c>
+      <c r="G82" s="101"/>
+      <c r="H82" s="101" t="s">
+        <v>219</v>
+      </c>
+      <c r="I82" s="101"/>
+      <c r="J82" s="101"/>
+      <c r="K82" s="101"/>
+      <c r="L82" s="101"/>
+      <c r="M82" s="102"/>
+      <c r="N82" s="103"/>
+      <c r="O82" s="103"/>
+      <c r="P82" s="41"/>
+      <c r="Q82" s="42"/>
+      <c r="AB82" s="50"/>
+      <c r="AC82" s="50"/>
+    </row>
+    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="86"/>
+      <c r="B83" s="86"/>
+      <c r="C83" s="87"/>
+      <c r="D83" s="88"/>
+      <c r="E83" s="104" t="s">
+        <v>175</v>
+      </c>
+      <c r="F83" s="105" t="s">
+        <v>204</v>
+      </c>
+      <c r="G83" s="106"/>
+      <c r="H83" s="106" t="s">
+        <v>81</v>
+      </c>
+      <c r="I83" s="106"/>
+      <c r="J83" s="106"/>
+      <c r="K83" s="106"/>
+      <c r="L83" s="106"/>
+      <c r="M83" s="107"/>
+      <c r="N83" s="108"/>
+      <c r="O83" s="108"/>
+      <c r="P83" s="41"/>
+      <c r="Q83" s="42"/>
+      <c r="AB83" s="50"/>
+      <c r="AC83" s="50"/>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="57"/>
+      <c r="B84" s="57"/>
+      <c r="C84" s="58"/>
+      <c r="D84" s="59"/>
+      <c r="E84" s="76"/>
+      <c r="F84" s="69"/>
+      <c r="G84" s="69"/>
+      <c r="H84" s="69"/>
+      <c r="I84" s="69"/>
+      <c r="J84" s="69"/>
+      <c r="K84" s="69"/>
+      <c r="L84" s="69"/>
+      <c r="M84" s="69"/>
+      <c r="N84" s="69"/>
+      <c r="O84" s="69"/>
+      <c r="P84" s="41"/>
+      <c r="Q84" s="42"/>
+      <c r="AB84" s="50"/>
+      <c r="AC84" s="50"/>
+    </row>
+    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="78"/>
+      <c r="B85" s="78"/>
+      <c r="C85" s="79"/>
+      <c r="D85" s="80"/>
+      <c r="E85" s="99" t="s">
+        <v>171</v>
+      </c>
+      <c r="F85" s="100" t="s">
+        <v>220</v>
+      </c>
+      <c r="G85" s="101"/>
+      <c r="H85" s="101" t="s">
+        <v>221</v>
+      </c>
+      <c r="I85" s="101"/>
+      <c r="J85" s="101"/>
+      <c r="K85" s="101"/>
+      <c r="L85" s="101"/>
+      <c r="M85" s="102"/>
+      <c r="N85" s="103"/>
+      <c r="O85" s="103"/>
+      <c r="P85" s="41"/>
+      <c r="Q85" s="42"/>
+      <c r="AB85" s="50"/>
+      <c r="AC85" s="50"/>
+    </row>
+    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="86"/>
+      <c r="B86" s="86"/>
+      <c r="C86" s="87"/>
+      <c r="D86" s="88"/>
+      <c r="E86" s="104" t="s">
+        <v>175</v>
+      </c>
+      <c r="F86" s="105" t="s">
+        <v>222</v>
+      </c>
+      <c r="G86" s="106"/>
+      <c r="H86" s="106" t="s">
+        <v>82</v>
+      </c>
+      <c r="I86" s="106"/>
+      <c r="J86" s="106"/>
+      <c r="K86" s="106"/>
+      <c r="L86" s="106"/>
+      <c r="M86" s="107"/>
+      <c r="N86" s="108"/>
+      <c r="O86" s="108"/>
+      <c r="P86" s="41"/>
+      <c r="Q86" s="42"/>
+      <c r="AB86" s="50"/>
+      <c r="AC86" s="50"/>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="57"/>
+      <c r="B87" s="57"/>
+      <c r="C87" s="58"/>
+      <c r="D87" s="59"/>
+      <c r="E87" s="76"/>
+      <c r="F87" s="69"/>
+      <c r="G87" s="69"/>
+      <c r="H87" s="69"/>
+      <c r="I87" s="69"/>
+      <c r="J87" s="69"/>
+      <c r="K87" s="69"/>
+      <c r="L87" s="69"/>
+      <c r="M87" s="69"/>
+      <c r="N87" s="69"/>
+      <c r="O87" s="69"/>
+      <c r="P87" s="41"/>
+      <c r="Q87" s="42"/>
+      <c r="AB87" s="50"/>
+      <c r="AC87" s="50"/>
+    </row>
+    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="78"/>
+      <c r="B88" s="78"/>
+      <c r="C88" s="79"/>
+      <c r="D88" s="80"/>
+      <c r="E88" s="99" t="s">
+        <v>171</v>
+      </c>
+      <c r="F88" s="100" t="s">
+        <v>223</v>
+      </c>
+      <c r="G88" s="101"/>
+      <c r="H88" s="101" t="s">
+        <v>224</v>
+      </c>
+      <c r="I88" s="101"/>
+      <c r="J88" s="101"/>
+      <c r="K88" s="101"/>
+      <c r="L88" s="101"/>
+      <c r="M88" s="102"/>
+      <c r="N88" s="103"/>
+      <c r="O88" s="103"/>
+      <c r="P88" s="41"/>
+      <c r="Q88" s="42"/>
+      <c r="AB88" s="50"/>
+      <c r="AC88" s="50"/>
+    </row>
+    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="86"/>
+      <c r="B89" s="86"/>
+      <c r="C89" s="87"/>
+      <c r="D89" s="88"/>
+      <c r="E89" s="104" t="s">
+        <v>175</v>
+      </c>
+      <c r="F89" s="105" t="s">
+        <v>225</v>
+      </c>
+      <c r="G89" s="106"/>
+      <c r="H89" s="106" t="s">
+        <v>84</v>
+      </c>
+      <c r="I89" s="106"/>
+      <c r="J89" s="106"/>
+      <c r="K89" s="106"/>
+      <c r="L89" s="106"/>
+      <c r="M89" s="107"/>
+      <c r="N89" s="108"/>
+      <c r="O89" s="108"/>
+      <c r="P89" s="41"/>
+      <c r="Q89" s="42"/>
+      <c r="AB89" s="50"/>
+      <c r="AC89" s="50"/>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="57"/>
+      <c r="B90" s="57"/>
+      <c r="C90" s="58"/>
+      <c r="D90" s="59"/>
+      <c r="E90" s="76"/>
+      <c r="F90" s="69"/>
+      <c r="G90" s="69"/>
+      <c r="H90" s="69"/>
+      <c r="I90" s="69"/>
+      <c r="J90" s="69"/>
+      <c r="K90" s="69"/>
+      <c r="L90" s="69"/>
+      <c r="M90" s="69"/>
+      <c r="N90" s="69"/>
+      <c r="O90" s="69"/>
+      <c r="P90" s="41"/>
+      <c r="Q90" s="42"/>
+      <c r="AB90" s="50"/>
+      <c r="AC90" s="50"/>
+    </row>
+    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="78"/>
+      <c r="B91" s="78"/>
+      <c r="C91" s="79"/>
+      <c r="D91" s="80"/>
+      <c r="E91" s="99" t="s">
+        <v>171</v>
+      </c>
+      <c r="F91" s="100" t="s">
+        <v>226</v>
+      </c>
+      <c r="G91" s="101"/>
+      <c r="H91" s="101" t="s">
+        <v>227</v>
+      </c>
+      <c r="I91" s="101"/>
+      <c r="J91" s="101"/>
+      <c r="K91" s="101"/>
+      <c r="L91" s="101"/>
+      <c r="M91" s="102"/>
+      <c r="N91" s="103"/>
+      <c r="O91" s="103"/>
+      <c r="P91" s="41"/>
+      <c r="Q91" s="42"/>
+      <c r="AB91" s="50"/>
+      <c r="AC91" s="50"/>
+    </row>
+    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="86"/>
+      <c r="B92" s="86"/>
+      <c r="C92" s="87"/>
+      <c r="D92" s="88"/>
+      <c r="E92" s="104" t="s">
+        <v>175</v>
+      </c>
+      <c r="F92" s="105" t="s">
+        <v>228</v>
+      </c>
+      <c r="G92" s="106"/>
+      <c r="H92" s="106" t="s">
+        <v>229</v>
+      </c>
+      <c r="I92" s="106"/>
+      <c r="J92" s="106"/>
+      <c r="K92" s="106"/>
+      <c r="L92" s="106"/>
+      <c r="M92" s="107"/>
+      <c r="N92" s="108"/>
+      <c r="O92" s="108"/>
+      <c r="P92" s="41"/>
+      <c r="Q92" s="42"/>
+      <c r="AB92" s="50"/>
+      <c r="AC92" s="50"/>
+    </row>
+    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="86"/>
+      <c r="B93" s="86"/>
+      <c r="C93" s="87"/>
+      <c r="D93" s="88"/>
+      <c r="E93" s="104" t="s">
+        <v>175</v>
+      </c>
+      <c r="F93" s="105" t="s">
+        <v>230</v>
+      </c>
+      <c r="G93" s="106"/>
+      <c r="H93" s="106" t="s">
+        <v>231</v>
+      </c>
+      <c r="I93" s="106"/>
+      <c r="J93" s="106"/>
+      <c r="K93" s="106"/>
+      <c r="L93" s="106"/>
+      <c r="M93" s="107"/>
+      <c r="N93" s="108"/>
+      <c r="O93" s="108"/>
+      <c r="P93" s="41"/>
+      <c r="Q93" s="42"/>
+      <c r="AB93" s="50"/>
+      <c r="AC93" s="50"/>
+    </row>
+    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="86"/>
+      <c r="B94" s="86"/>
+      <c r="C94" s="87"/>
+      <c r="D94" s="88"/>
+      <c r="E94" s="104" t="s">
+        <v>175</v>
+      </c>
+      <c r="F94" s="105" t="s">
+        <v>232</v>
+      </c>
+      <c r="G94" s="106"/>
+      <c r="H94" s="106" t="s">
+        <v>85</v>
+      </c>
+      <c r="I94" s="106"/>
+      <c r="J94" s="106"/>
+      <c r="K94" s="106"/>
+      <c r="L94" s="106"/>
+      <c r="M94" s="107"/>
+      <c r="N94" s="108"/>
+      <c r="O94" s="108"/>
+      <c r="P94" s="41"/>
+      <c r="Q94" s="42"/>
+      <c r="AB94" s="50"/>
+      <c r="AC94" s="50"/>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="57"/>
+      <c r="B95" s="57"/>
+      <c r="C95" s="58"/>
+      <c r="D95" s="59"/>
+      <c r="E95" s="76"/>
+      <c r="F95" s="69"/>
+      <c r="G95" s="69"/>
+      <c r="H95" s="69"/>
+      <c r="I95" s="69"/>
+      <c r="J95" s="69"/>
+      <c r="K95" s="69"/>
+      <c r="L95" s="69"/>
+      <c r="M95" s="69"/>
+      <c r="N95" s="69"/>
+      <c r="O95" s="69"/>
+      <c r="P95" s="41"/>
+      <c r="Q95" s="42"/>
+      <c r="AB95" s="50"/>
+      <c r="AC95" s="50"/>
+    </row>
+    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="78"/>
+      <c r="B96" s="78"/>
+      <c r="C96" s="79"/>
+      <c r="D96" s="80"/>
+      <c r="E96" s="99" t="s">
+        <v>171</v>
+      </c>
+      <c r="F96" s="100" t="s">
+        <v>233</v>
+      </c>
+      <c r="G96" s="101"/>
+      <c r="H96" s="101" t="s">
+        <v>234</v>
+      </c>
+      <c r="I96" s="101"/>
+      <c r="J96" s="101"/>
+      <c r="K96" s="101"/>
+      <c r="L96" s="101"/>
+      <c r="M96" s="102"/>
+      <c r="N96" s="103"/>
+      <c r="O96" s="103"/>
+      <c r="P96" s="41"/>
+      <c r="Q96" s="42"/>
+      <c r="AB96" s="50"/>
+      <c r="AC96" s="50"/>
+    </row>
+    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="86"/>
+      <c r="B97" s="86"/>
+      <c r="C97" s="87"/>
+      <c r="D97" s="88"/>
+      <c r="E97" s="104" t="s">
+        <v>175</v>
+      </c>
+      <c r="F97" s="105" t="s">
+        <v>235</v>
+      </c>
+      <c r="G97" s="106"/>
+      <c r="H97" s="106" t="s">
+        <v>91</v>
+      </c>
+      <c r="I97" s="106"/>
+      <c r="J97" s="106"/>
+      <c r="K97" s="106"/>
+      <c r="L97" s="106"/>
+      <c r="M97" s="107"/>
+      <c r="N97" s="108"/>
+      <c r="O97" s="108"/>
+      <c r="P97" s="41"/>
+      <c r="Q97" s="42"/>
+      <c r="AB97" s="50"/>
+      <c r="AC97" s="50"/>
+    </row>
+    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="86"/>
+      <c r="B98" s="86"/>
+      <c r="C98" s="87"/>
+      <c r="D98" s="88"/>
+      <c r="E98" s="104" t="s">
+        <v>175</v>
+      </c>
+      <c r="F98" s="105" t="s">
+        <v>236</v>
+      </c>
+      <c r="G98" s="106"/>
+      <c r="H98" s="106" t="s">
+        <v>237</v>
+      </c>
+      <c r="I98" s="106"/>
+      <c r="J98" s="106"/>
+      <c r="K98" s="106"/>
+      <c r="L98" s="106"/>
+      <c r="M98" s="107"/>
+      <c r="N98" s="108"/>
+      <c r="O98" s="108"/>
+      <c r="P98" s="41"/>
+      <c r="Q98" s="42"/>
+      <c r="AB98" s="50"/>
+      <c r="AC98" s="50"/>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="57"/>
+      <c r="B99" s="57"/>
+      <c r="C99" s="58"/>
+      <c r="D99" s="59"/>
+      <c r="E99" s="76"/>
+      <c r="F99" s="69"/>
+      <c r="G99" s="69"/>
+      <c r="H99" s="69"/>
+      <c r="I99" s="69"/>
+      <c r="J99" s="69"/>
+      <c r="K99" s="69"/>
+      <c r="L99" s="69"/>
+      <c r="M99" s="69"/>
+      <c r="N99" s="69"/>
+      <c r="O99" s="69"/>
+      <c r="P99" s="41"/>
+      <c r="Q99" s="42"/>
+      <c r="AB99" s="50"/>
+      <c r="AC99" s="50"/>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="57"/>
+      <c r="B100" s="57"/>
+      <c r="C100" s="58"/>
+      <c r="D100" s="59"/>
+      <c r="E100" s="76"/>
+      <c r="F100" s="69"/>
+      <c r="G100" s="69"/>
+      <c r="H100" s="69"/>
+      <c r="I100" s="69"/>
+      <c r="J100" s="69"/>
+      <c r="K100" s="69"/>
+      <c r="L100" s="69"/>
+      <c r="M100" s="69"/>
+      <c r="N100" s="69"/>
+      <c r="O100" s="69"/>
+      <c r="P100" s="41"/>
+      <c r="Q100" s="42"/>
+      <c r="AB100" s="50"/>
+      <c r="AC100" s="50"/>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="57"/>
+      <c r="B101" s="57"/>
+      <c r="C101" s="58"/>
+      <c r="D101" s="59"/>
+      <c r="E101" s="76"/>
+      <c r="F101" s="69"/>
+      <c r="G101" s="69"/>
+      <c r="H101" s="69"/>
+      <c r="I101" s="69"/>
+      <c r="J101" s="69"/>
+      <c r="K101" s="69"/>
+      <c r="L101" s="69"/>
+      <c r="M101" s="69"/>
+      <c r="N101" s="69"/>
+      <c r="O101" s="69"/>
+      <c r="P101" s="41"/>
+      <c r="Q101" s="42"/>
+      <c r="AB101" s="50"/>
+      <c r="AC101" s="50"/>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="57"/>
+      <c r="B102" s="57"/>
+      <c r="C102" s="58"/>
+      <c r="D102" s="59"/>
+      <c r="E102" s="76"/>
+      <c r="F102" s="69"/>
+      <c r="G102" s="69"/>
+      <c r="H102" s="69"/>
+      <c r="I102" s="69"/>
+      <c r="J102" s="69"/>
+      <c r="K102" s="69"/>
+      <c r="L102" s="69"/>
+      <c r="M102" s="69"/>
+      <c r="N102" s="69"/>
+      <c r="O102" s="69"/>
+      <c r="P102" s="41"/>
+      <c r="Q102" s="42"/>
+      <c r="AB102" s="50"/>
+      <c r="AC102" s="50"/>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="57"/>
+      <c r="B103" s="57"/>
+      <c r="C103" s="58"/>
+      <c r="D103" s="59"/>
+      <c r="E103" s="76"/>
+      <c r="F103" s="69"/>
+      <c r="G103" s="69"/>
+      <c r="H103" s="69"/>
+      <c r="I103" s="69"/>
+      <c r="J103" s="69"/>
+      <c r="K103" s="69"/>
+      <c r="L103" s="69"/>
+      <c r="M103" s="69"/>
+      <c r="N103" s="69"/>
+      <c r="O103" s="69"/>
+      <c r="P103" s="41"/>
+      <c r="Q103" s="42"/>
+      <c r="AB103" s="50"/>
+      <c r="AC103" s="50"/>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="57"/>
+      <c r="B104" s="57"/>
+      <c r="C104" s="58"/>
+      <c r="D104" s="59"/>
+      <c r="E104" s="76"/>
+      <c r="F104" s="69"/>
+      <c r="G104" s="69"/>
+      <c r="H104" s="69"/>
+      <c r="I104" s="69"/>
+      <c r="J104" s="69"/>
+      <c r="K104" s="69"/>
+      <c r="L104" s="69"/>
+      <c r="M104" s="69"/>
+      <c r="N104" s="69"/>
+      <c r="O104" s="69"/>
+      <c r="P104" s="41"/>
+      <c r="Q104" s="42"/>
+      <c r="AB104" s="50"/>
+      <c r="AC104" s="50"/>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="57"/>
+      <c r="B105" s="57"/>
+      <c r="C105" s="58"/>
+      <c r="D105" s="59"/>
+      <c r="E105" s="76"/>
+      <c r="F105" s="69"/>
+      <c r="G105" s="69"/>
+      <c r="H105" s="69"/>
+      <c r="I105" s="69"/>
+      <c r="J105" s="69"/>
+      <c r="K105" s="69"/>
+      <c r="L105" s="69"/>
+      <c r="M105" s="69"/>
+      <c r="N105" s="69"/>
+      <c r="O105" s="69"/>
+      <c r="P105" s="41"/>
+      <c r="Q105" s="42"/>
+      <c r="AB105" s="50"/>
+      <c r="AC105" s="50"/>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="57"/>
+      <c r="B106" s="57"/>
+      <c r="C106" s="58"/>
+      <c r="D106" s="59"/>
+      <c r="E106" s="76"/>
+      <c r="F106" s="69"/>
+      <c r="G106" s="69"/>
+      <c r="H106" s="69"/>
+      <c r="I106" s="69"/>
+      <c r="J106" s="69"/>
+      <c r="K106" s="69"/>
+      <c r="L106" s="69"/>
+      <c r="M106" s="69"/>
+      <c r="N106" s="69"/>
+      <c r="O106" s="69"/>
+      <c r="P106" s="41"/>
+      <c r="Q106" s="42"/>
+      <c r="AB106" s="50"/>
+      <c r="AC106" s="50"/>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="57"/>
+      <c r="B107" s="57"/>
+      <c r="C107" s="58"/>
+      <c r="D107" s="59"/>
+      <c r="E107" s="76"/>
+      <c r="F107" s="69"/>
+      <c r="G107" s="69"/>
+      <c r="H107" s="69"/>
+      <c r="I107" s="69"/>
+      <c r="J107" s="69"/>
+      <c r="K107" s="69"/>
+      <c r="L107" s="69"/>
+      <c r="M107" s="69"/>
+      <c r="N107" s="69"/>
+      <c r="O107" s="69"/>
+      <c r="P107" s="41"/>
+      <c r="Q107" s="42"/>
+      <c r="AB107" s="50"/>
+      <c r="AC107" s="50"/>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="57"/>
+      <c r="B108" s="57"/>
+      <c r="C108" s="58"/>
+      <c r="D108" s="59"/>
+      <c r="E108" s="76"/>
+      <c r="F108" s="69"/>
+      <c r="G108" s="69"/>
+      <c r="H108" s="69"/>
+      <c r="I108" s="69"/>
+      <c r="J108" s="69"/>
+      <c r="K108" s="69"/>
+      <c r="L108" s="69"/>
+      <c r="M108" s="69"/>
+      <c r="N108" s="69"/>
+      <c r="O108" s="69"/>
+      <c r="P108" s="41"/>
+      <c r="Q108" s="42"/>
+      <c r="AB108" s="50"/>
+      <c r="AC108" s="50"/>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="57"/>
+      <c r="B109" s="57"/>
+      <c r="C109" s="58"/>
+      <c r="D109" s="59"/>
+      <c r="E109" s="76"/>
+      <c r="F109" s="69"/>
+      <c r="G109" s="69"/>
+      <c r="H109" s="69"/>
+      <c r="I109" s="69"/>
+      <c r="J109" s="69"/>
+      <c r="K109" s="69"/>
+      <c r="L109" s="69"/>
+      <c r="M109" s="69"/>
+      <c r="N109" s="69"/>
+      <c r="O109" s="69"/>
+      <c r="P109" s="41"/>
+      <c r="Q109" s="42"/>
+      <c r="AB109" s="50"/>
+      <c r="AC109" s="50"/>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="57"/>
+      <c r="B110" s="57"/>
+      <c r="C110" s="58"/>
+      <c r="D110" s="59"/>
+      <c r="E110" s="76"/>
+      <c r="F110" s="69"/>
+      <c r="G110" s="69"/>
+      <c r="H110" s="69"/>
+      <c r="I110" s="69"/>
+      <c r="J110" s="69"/>
+      <c r="K110" s="69"/>
+      <c r="L110" s="69"/>
+      <c r="M110" s="69"/>
+      <c r="N110" s="69"/>
+      <c r="O110" s="69"/>
+      <c r="P110" s="41"/>
+      <c r="Q110" s="42"/>
+      <c r="AB110" s="50"/>
+      <c r="AC110" s="50"/>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="57"/>
+      <c r="B111" s="57"/>
+      <c r="C111" s="58"/>
+      <c r="D111" s="59"/>
+      <c r="E111" s="76"/>
+      <c r="F111" s="69"/>
+      <c r="G111" s="69"/>
+      <c r="H111" s="69"/>
+      <c r="I111" s="69"/>
+      <c r="J111" s="69"/>
+      <c r="K111" s="69"/>
+      <c r="L111" s="69"/>
+      <c r="M111" s="69"/>
+      <c r="N111" s="69"/>
+      <c r="O111" s="69"/>
+      <c r="P111" s="41"/>
+      <c r="Q111" s="42"/>
+      <c r="AB111" s="50"/>
+      <c r="AC111" s="50"/>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="57"/>
+      <c r="B112" s="57"/>
+      <c r="C112" s="58"/>
+      <c r="D112" s="59"/>
+      <c r="E112" s="76"/>
+      <c r="F112" s="69"/>
+      <c r="G112" s="69"/>
+      <c r="H112" s="69"/>
+      <c r="I112" s="69"/>
+      <c r="J112" s="69"/>
+      <c r="K112" s="69"/>
+      <c r="L112" s="69"/>
+      <c r="M112" s="69"/>
+      <c r="N112" s="69"/>
+      <c r="O112" s="69"/>
+      <c r="P112" s="41"/>
+      <c r="Q112" s="42"/>
+      <c r="AB112" s="50"/>
+      <c r="AC112" s="50"/>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="57"/>
+      <c r="B113" s="57"/>
+      <c r="C113" s="58"/>
+      <c r="D113" s="59"/>
+      <c r="E113" s="76"/>
+      <c r="F113" s="69"/>
+      <c r="G113" s="69"/>
+      <c r="H113" s="69"/>
+      <c r="I113" s="69"/>
+      <c r="J113" s="69"/>
+      <c r="K113" s="69"/>
+      <c r="L113" s="69"/>
+      <c r="M113" s="69"/>
+      <c r="N113" s="69"/>
+      <c r="O113" s="69"/>
+      <c r="P113" s="41"/>
+      <c r="Q113" s="42"/>
+      <c r="AB113" s="50"/>
+      <c r="AC113" s="50"/>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="57"/>
+      <c r="B114" s="57"/>
+      <c r="C114" s="58"/>
+      <c r="D114" s="59"/>
+      <c r="E114" s="76"/>
+      <c r="F114" s="69"/>
+      <c r="G114" s="69"/>
+      <c r="H114" s="69"/>
+      <c r="I114" s="69"/>
+      <c r="J114" s="69"/>
+      <c r="K114" s="69"/>
+      <c r="L114" s="69"/>
+      <c r="M114" s="69"/>
+      <c r="N114" s="69"/>
+      <c r="O114" s="69"/>
+      <c r="P114" s="41"/>
+      <c r="Q114" s="42"/>
+      <c r="AB114" s="50"/>
+      <c r="AC114" s="50"/>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="57"/>
+      <c r="B115" s="57"/>
+      <c r="C115" s="58"/>
+      <c r="D115" s="59"/>
+      <c r="E115" s="76"/>
+      <c r="F115" s="69"/>
+      <c r="G115" s="69"/>
+      <c r="H115" s="69"/>
+      <c r="I115" s="69"/>
+      <c r="J115" s="69"/>
+      <c r="K115" s="69"/>
+      <c r="L115" s="69"/>
+      <c r="M115" s="69"/>
+      <c r="N115" s="69"/>
+      <c r="O115" s="69"/>
+      <c r="P115" s="41"/>
+      <c r="Q115" s="42"/>
+      <c r="AB115" s="50"/>
+      <c r="AC115" s="50"/>
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="57"/>
+      <c r="B116" s="57"/>
+      <c r="C116" s="58"/>
+      <c r="D116" s="59"/>
+      <c r="E116" s="76"/>
+      <c r="F116" s="69"/>
+      <c r="G116" s="69"/>
+      <c r="H116" s="69"/>
+      <c r="I116" s="69"/>
+      <c r="J116" s="69"/>
+      <c r="K116" s="69"/>
+      <c r="L116" s="69"/>
+      <c r="M116" s="69"/>
+      <c r="N116" s="69"/>
+      <c r="O116" s="69"/>
+      <c r="P116" s="41"/>
+      <c r="Q116" s="42"/>
+      <c r="AB116" s="50"/>
+      <c r="AC116" s="50"/>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="57"/>
+      <c r="B117" s="57"/>
+      <c r="C117" s="58"/>
+      <c r="D117" s="59"/>
+      <c r="E117" s="76"/>
+      <c r="F117" s="69"/>
+      <c r="G117" s="69"/>
+      <c r="H117" s="69"/>
+      <c r="I117" s="69"/>
+      <c r="J117" s="69"/>
+      <c r="K117" s="69"/>
+      <c r="L117" s="69"/>
+      <c r="M117" s="69"/>
+      <c r="N117" s="69"/>
+      <c r="O117" s="69"/>
+      <c r="P117" s="41"/>
+      <c r="Q117" s="42"/>
+      <c r="AB117" s="50"/>
+      <c r="AC117" s="50"/>
+    </row>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="57"/>
+      <c r="B118" s="57"/>
+      <c r="C118" s="58"/>
+      <c r="D118" s="59"/>
+      <c r="E118" s="76"/>
+      <c r="F118" s="69"/>
+      <c r="G118" s="69"/>
+      <c r="H118" s="69"/>
+      <c r="I118" s="69"/>
+      <c r="J118" s="69"/>
+      <c r="K118" s="69"/>
+      <c r="L118" s="69"/>
+      <c r="M118" s="69"/>
+      <c r="N118" s="69"/>
+      <c r="O118" s="69"/>
+      <c r="P118" s="41"/>
+      <c r="Q118" s="42"/>
+      <c r="AB118" s="50"/>
+      <c r="AC118" s="50"/>
+    </row>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="57"/>
+      <c r="B119" s="57"/>
+      <c r="C119" s="58"/>
+      <c r="D119" s="59"/>
+      <c r="E119" s="76"/>
+      <c r="F119" s="69"/>
+      <c r="G119" s="69"/>
+      <c r="H119" s="69"/>
+      <c r="I119" s="69"/>
+      <c r="J119" s="69"/>
+      <c r="K119" s="69"/>
+      <c r="L119" s="69"/>
+      <c r="M119" s="69"/>
+      <c r="N119" s="69"/>
+      <c r="O119" s="69"/>
+      <c r="P119" s="41"/>
+      <c r="Q119" s="42"/>
+      <c r="AB119" s="50"/>
+      <c r="AC119" s="50"/>
+    </row>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="57"/>
+      <c r="B120" s="57"/>
+      <c r="C120" s="58"/>
+      <c r="D120" s="59"/>
+      <c r="E120" s="76"/>
+      <c r="F120" s="69"/>
+      <c r="G120" s="69"/>
+      <c r="H120" s="69"/>
+      <c r="I120" s="69"/>
+      <c r="J120" s="69"/>
+      <c r="K120" s="69"/>
+      <c r="L120" s="69"/>
+      <c r="M120" s="69"/>
+      <c r="N120" s="69"/>
+      <c r="O120" s="69"/>
+      <c r="P120" s="41"/>
+      <c r="Q120" s="42"/>
+      <c r="AB120" s="50"/>
+      <c r="AC120" s="50"/>
+    </row>
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="57"/>
+      <c r="B121" s="57"/>
+      <c r="C121" s="58"/>
+      <c r="D121" s="59"/>
+      <c r="E121" s="76"/>
+      <c r="F121" s="69"/>
+      <c r="G121" s="69"/>
+      <c r="H121" s="69"/>
+      <c r="I121" s="69"/>
+      <c r="J121" s="69"/>
+      <c r="K121" s="69"/>
+      <c r="L121" s="69"/>
+      <c r="M121" s="69"/>
+      <c r="N121" s="69"/>
+      <c r="O121" s="69"/>
+      <c r="P121" s="41"/>
+      <c r="Q121" s="42"/>
+      <c r="AB121" s="50"/>
+      <c r="AC121" s="50"/>
+    </row>
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="57"/>
+      <c r="B122" s="57"/>
+      <c r="C122" s="58"/>
+      <c r="D122" s="59"/>
+      <c r="E122" s="76"/>
+      <c r="F122" s="69"/>
+      <c r="G122" s="69"/>
+      <c r="H122" s="69"/>
+      <c r="I122" s="69"/>
+      <c r="J122" s="69"/>
+      <c r="K122" s="69"/>
+      <c r="L122" s="69"/>
+      <c r="M122" s="69"/>
+      <c r="N122" s="69"/>
+      <c r="O122" s="69"/>
+      <c r="P122" s="41"/>
+      <c r="Q122" s="42"/>
+      <c r="AB122" s="50"/>
+      <c r="AC122" s="50"/>
+    </row>
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="57"/>
+      <c r="B123" s="57"/>
+      <c r="C123" s="58"/>
+      <c r="D123" s="59"/>
+      <c r="E123" s="76"/>
+      <c r="F123" s="69"/>
+      <c r="G123" s="69"/>
+      <c r="H123" s="69"/>
+      <c r="I123" s="69"/>
+      <c r="J123" s="69"/>
+      <c r="K123" s="69"/>
+      <c r="L123" s="69"/>
+      <c r="M123" s="69"/>
+      <c r="N123" s="69"/>
+      <c r="O123" s="69"/>
+      <c r="P123" s="41"/>
+      <c r="Q123" s="42"/>
+      <c r="AB123" s="50"/>
+      <c r="AC123" s="50"/>
+    </row>
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="57"/>
+      <c r="B124" s="57"/>
+      <c r="C124" s="58"/>
+      <c r="D124" s="59"/>
+      <c r="E124" s="76"/>
+      <c r="F124" s="69"/>
+      <c r="G124" s="69"/>
+      <c r="H124" s="69"/>
+      <c r="I124" s="69"/>
+      <c r="J124" s="69"/>
+      <c r="K124" s="69"/>
+      <c r="L124" s="69"/>
+      <c r="M124" s="69"/>
+      <c r="N124" s="69"/>
+      <c r="O124" s="69"/>
+      <c r="P124" s="41"/>
+      <c r="Q124" s="42"/>
+      <c r="AB124" s="50"/>
+      <c r="AC124" s="50"/>
+    </row>
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="57"/>
+      <c r="B125" s="57"/>
+      <c r="C125" s="58"/>
+      <c r="D125" s="59"/>
+      <c r="E125" s="76"/>
+      <c r="F125" s="69"/>
+      <c r="G125" s="69"/>
+      <c r="H125" s="69"/>
+      <c r="I125" s="69"/>
+      <c r="J125" s="69"/>
+      <c r="K125" s="69"/>
+      <c r="L125" s="69"/>
+      <c r="M125" s="69"/>
+      <c r="N125" s="69"/>
+      <c r="O125" s="69"/>
+      <c r="P125" s="41"/>
+      <c r="Q125" s="42"/>
+      <c r="AB125" s="50"/>
+      <c r="AC125" s="50"/>
+    </row>
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="57"/>
+      <c r="B126" s="57"/>
+      <c r="C126" s="58"/>
+      <c r="D126" s="59"/>
+      <c r="E126" s="76"/>
+      <c r="F126" s="69"/>
+      <c r="G126" s="69"/>
+      <c r="H126" s="69"/>
+      <c r="I126" s="69"/>
+      <c r="J126" s="69"/>
+      <c r="K126" s="69"/>
+      <c r="L126" s="69"/>
+      <c r="M126" s="69"/>
+      <c r="N126" s="69"/>
+      <c r="O126" s="69"/>
+      <c r="P126" s="41"/>
+      <c r="Q126" s="42"/>
+      <c r="AB126" s="50"/>
+      <c r="AC126" s="50"/>
+    </row>
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="57"/>
+      <c r="B127" s="57"/>
+      <c r="C127" s="58"/>
+      <c r="D127" s="59"/>
+      <c r="E127" s="76"/>
+      <c r="F127" s="69"/>
+      <c r="G127" s="69"/>
+      <c r="H127" s="69"/>
+      <c r="I127" s="69"/>
+      <c r="J127" s="69"/>
+      <c r="K127" s="69"/>
+      <c r="L127" s="69"/>
+      <c r="M127" s="69"/>
+      <c r="N127" s="69"/>
+      <c r="O127" s="69"/>
+      <c r="P127" s="41"/>
+      <c r="Q127" s="42"/>
+      <c r="AB127" s="50"/>
+      <c r="AC127" s="50"/>
+    </row>
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="57"/>
+      <c r="B128" s="57"/>
+      <c r="C128" s="58"/>
+      <c r="D128" s="59"/>
+      <c r="E128" s="76"/>
+      <c r="F128" s="69"/>
+      <c r="G128" s="69"/>
+      <c r="H128" s="69"/>
+      <c r="I128" s="69"/>
+      <c r="J128" s="69"/>
+      <c r="K128" s="69"/>
+      <c r="L128" s="69"/>
+      <c r="M128" s="69"/>
+      <c r="N128" s="69"/>
+      <c r="O128" s="69"/>
+      <c r="P128" s="41"/>
+      <c r="Q128" s="42"/>
+      <c r="AB128" s="50"/>
+      <c r="AC128" s="50"/>
+    </row>
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="57"/>
+      <c r="B129" s="57"/>
+      <c r="C129" s="58"/>
+      <c r="D129" s="59"/>
+      <c r="E129" s="76"/>
+      <c r="F129" s="69"/>
+      <c r="G129" s="69"/>
+      <c r="H129" s="69"/>
+      <c r="I129" s="69"/>
+      <c r="J129" s="69"/>
+      <c r="K129" s="69"/>
+      <c r="L129" s="69"/>
+      <c r="M129" s="69"/>
+      <c r="N129" s="69"/>
+      <c r="O129" s="69"/>
+      <c r="P129" s="41"/>
+      <c r="Q129" s="42"/>
+      <c r="AB129" s="50"/>
+      <c r="AC129" s="50"/>
+    </row>
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="57"/>
+      <c r="B130" s="57"/>
+      <c r="C130" s="58"/>
+      <c r="D130" s="59"/>
+      <c r="E130" s="76"/>
+      <c r="F130" s="69"/>
+      <c r="G130" s="69"/>
+      <c r="H130" s="69"/>
+      <c r="I130" s="69"/>
+      <c r="J130" s="69"/>
+      <c r="K130" s="69"/>
+      <c r="L130" s="69"/>
+      <c r="M130" s="69"/>
+      <c r="N130" s="69"/>
+      <c r="O130" s="69"/>
+      <c r="P130" s="41"/>
+      <c r="Q130" s="42"/>
+      <c r="AB130" s="50"/>
+      <c r="AC130" s="50"/>
+    </row>
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="57"/>
+      <c r="B131" s="57"/>
+      <c r="C131" s="58"/>
+      <c r="D131" s="59"/>
+      <c r="E131" s="76"/>
+      <c r="F131" s="69"/>
+      <c r="G131" s="69"/>
+      <c r="H131" s="69"/>
+      <c r="I131" s="69"/>
+      <c r="J131" s="69"/>
+      <c r="K131" s="69"/>
+      <c r="L131" s="69"/>
+      <c r="M131" s="69"/>
+      <c r="N131" s="69"/>
+      <c r="O131" s="69"/>
+      <c r="P131" s="41"/>
+      <c r="Q131" s="42"/>
+      <c r="AB131" s="50"/>
+      <c r="AC131" s="50"/>
+    </row>
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="57"/>
+      <c r="B132" s="57"/>
+      <c r="C132" s="58"/>
+      <c r="D132" s="59"/>
+      <c r="E132" s="76"/>
+      <c r="F132" s="69"/>
+      <c r="G132" s="69"/>
+      <c r="H132" s="69"/>
+      <c r="I132" s="69"/>
+      <c r="J132" s="69"/>
+      <c r="K132" s="69"/>
+      <c r="L132" s="69"/>
+      <c r="M132" s="69"/>
+      <c r="N132" s="69"/>
+      <c r="O132" s="69"/>
+      <c r="P132" s="41"/>
+      <c r="Q132" s="42"/>
+      <c r="AB132" s="50"/>
+      <c r="AC132" s="50"/>
+    </row>
+    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="57"/>
+      <c r="B133" s="57"/>
+      <c r="C133" s="58"/>
+      <c r="D133" s="59"/>
+      <c r="E133" s="76"/>
+      <c r="F133" s="69"/>
+      <c r="G133" s="69"/>
+      <c r="H133" s="69"/>
+      <c r="I133" s="69"/>
+      <c r="J133" s="69"/>
+      <c r="K133" s="69"/>
+      <c r="L133" s="69"/>
+      <c r="M133" s="69"/>
+      <c r="N133" s="69"/>
+      <c r="O133" s="69"/>
+      <c r="P133" s="41"/>
+      <c r="Q133" s="42"/>
+      <c r="AB133" s="50"/>
+      <c r="AC133" s="50"/>
+    </row>
+    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="57"/>
+      <c r="B134" s="57"/>
+      <c r="C134" s="58"/>
+      <c r="D134" s="59"/>
+      <c r="E134" s="76"/>
+      <c r="F134" s="69"/>
+      <c r="G134" s="69"/>
+      <c r="H134" s="69"/>
+      <c r="I134" s="69"/>
+      <c r="J134" s="69"/>
+      <c r="K134" s="69"/>
+      <c r="L134" s="69"/>
+      <c r="M134" s="69"/>
+      <c r="N134" s="69"/>
+      <c r="O134" s="69"/>
+      <c r="P134" s="41"/>
+      <c r="Q134" s="42"/>
+      <c r="AB134" s="50"/>
+      <c r="AC134" s="50"/>
+    </row>
+    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="57"/>
+      <c r="B135" s="57"/>
+      <c r="C135" s="58"/>
+      <c r="D135" s="59"/>
+      <c r="E135" s="76"/>
+      <c r="F135" s="69"/>
+      <c r="G135" s="69"/>
+      <c r="H135" s="69"/>
+      <c r="I135" s="69"/>
+      <c r="J135" s="69"/>
+      <c r="K135" s="69"/>
+      <c r="L135" s="69"/>
+      <c r="M135" s="69"/>
+      <c r="N135" s="69"/>
+      <c r="O135" s="69"/>
+      <c r="P135" s="41"/>
+      <c r="Q135" s="42"/>
+      <c r="AB135" s="50"/>
+      <c r="AC135" s="50"/>
+    </row>
+    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="57"/>
+      <c r="B136" s="57"/>
+      <c r="C136" s="58"/>
+      <c r="D136" s="59"/>
+      <c r="E136" s="76"/>
+      <c r="F136" s="69"/>
+      <c r="G136" s="69"/>
+      <c r="H136" s="69"/>
+      <c r="I136" s="69"/>
+      <c r="J136" s="69"/>
+      <c r="K136" s="69"/>
+      <c r="L136" s="69"/>
+      <c r="M136" s="69"/>
+      <c r="N136" s="69"/>
+      <c r="O136" s="69"/>
+      <c r="P136" s="41"/>
+      <c r="Q136" s="42"/>
+      <c r="AB136" s="50"/>
+      <c r="AC136" s="50"/>
+    </row>
+    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="57"/>
+      <c r="B137" s="57"/>
+      <c r="C137" s="58"/>
+      <c r="D137" s="59"/>
+      <c r="E137" s="76"/>
+      <c r="F137" s="69"/>
+      <c r="G137" s="69"/>
+      <c r="H137" s="69"/>
+      <c r="I137" s="69"/>
+      <c r="J137" s="69"/>
+      <c r="K137" s="69"/>
+      <c r="L137" s="69"/>
+      <c r="M137" s="69"/>
+      <c r="N137" s="69"/>
+      <c r="O137" s="69"/>
+      <c r="P137" s="41"/>
+      <c r="Q137" s="42"/>
+      <c r="AB137" s="50"/>
+      <c r="AC137" s="50"/>
+    </row>
+    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="57"/>
+      <c r="B138" s="57"/>
+      <c r="C138" s="58"/>
+      <c r="D138" s="59"/>
+      <c r="E138" s="76"/>
+      <c r="F138" s="69"/>
+      <c r="G138" s="69"/>
+      <c r="H138" s="69"/>
+      <c r="I138" s="69"/>
+      <c r="J138" s="69"/>
+      <c r="K138" s="69"/>
+      <c r="L138" s="69"/>
+      <c r="M138" s="69"/>
+      <c r="N138" s="69"/>
+      <c r="O138" s="69"/>
+      <c r="P138" s="41"/>
+      <c r="Q138" s="42"/>
+      <c r="AB138" s="50"/>
+      <c r="AC138" s="50"/>
+    </row>
+    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="57"/>
+      <c r="B139" s="57"/>
+      <c r="C139" s="58"/>
+      <c r="D139" s="59"/>
+      <c r="E139" s="76"/>
+      <c r="F139" s="69"/>
+      <c r="G139" s="69"/>
+      <c r="H139" s="69"/>
+      <c r="I139" s="69"/>
+      <c r="J139" s="69"/>
+      <c r="K139" s="69"/>
+      <c r="L139" s="69"/>
+      <c r="M139" s="69"/>
+      <c r="N139" s="69"/>
+      <c r="O139" s="69"/>
+      <c r="P139" s="41"/>
+      <c r="Q139" s="42"/>
+      <c r="AB139" s="50"/>
+      <c r="AC139" s="50"/>
+    </row>
+    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="57"/>
+      <c r="B140" s="57"/>
+      <c r="C140" s="58"/>
+      <c r="D140" s="59"/>
+      <c r="E140" s="76"/>
+      <c r="F140" s="69"/>
+      <c r="G140" s="69"/>
+      <c r="H140" s="69"/>
+      <c r="I140" s="69"/>
+      <c r="J140" s="69"/>
+      <c r="K140" s="69"/>
+      <c r="L140" s="69"/>
+      <c r="M140" s="69"/>
+      <c r="N140" s="69"/>
+      <c r="O140" s="69"/>
+      <c r="P140" s="41"/>
+      <c r="Q140" s="42"/>
+      <c r="AB140" s="50"/>
+      <c r="AC140" s="50"/>
+    </row>
+    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="57"/>
+      <c r="B141" s="57"/>
+      <c r="C141" s="58"/>
+      <c r="D141" s="59"/>
+      <c r="E141" s="76"/>
+      <c r="F141" s="69"/>
+      <c r="G141" s="69"/>
+      <c r="H141" s="69"/>
+      <c r="I141" s="69"/>
+      <c r="J141" s="69"/>
+      <c r="K141" s="69"/>
+      <c r="L141" s="69"/>
+      <c r="M141" s="69"/>
+      <c r="N141" s="69"/>
+      <c r="O141" s="69"/>
+      <c r="P141" s="41"/>
+      <c r="Q141" s="42"/>
+      <c r="AB141" s="50"/>
+      <c r="AC141" s="50"/>
+    </row>
+    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="57"/>
+      <c r="B142" s="57"/>
+      <c r="C142" s="58"/>
+      <c r="D142" s="59"/>
+      <c r="E142" s="76"/>
+      <c r="F142" s="69"/>
+      <c r="G142" s="69"/>
+      <c r="H142" s="69"/>
+      <c r="I142" s="69"/>
+      <c r="J142" s="69"/>
+      <c r="K142" s="69"/>
+      <c r="L142" s="69"/>
+      <c r="M142" s="69"/>
+      <c r="N142" s="69"/>
+      <c r="O142" s="69"/>
+      <c r="P142" s="41"/>
+      <c r="Q142" s="42"/>
+      <c r="AB142" s="50"/>
+      <c r="AC142" s="50"/>
+    </row>
+    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="57"/>
+      <c r="B143" s="57"/>
+      <c r="C143" s="58"/>
+      <c r="D143" s="59"/>
+      <c r="E143" s="76"/>
+      <c r="F143" s="69"/>
+      <c r="G143" s="69"/>
+      <c r="H143" s="69"/>
+      <c r="I143" s="69"/>
+      <c r="J143" s="69"/>
+      <c r="K143" s="69"/>
+      <c r="L143" s="69"/>
+      <c r="M143" s="69"/>
+      <c r="N143" s="69"/>
+      <c r="O143" s="69"/>
+      <c r="P143" s="41"/>
+      <c r="Q143" s="42"/>
+      <c r="AB143" s="50"/>
+      <c r="AC143" s="50"/>
+    </row>
+    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="57"/>
+      <c r="B144" s="57"/>
+      <c r="C144" s="58"/>
+      <c r="D144" s="59"/>
+      <c r="E144" s="76"/>
+      <c r="F144" s="69"/>
+      <c r="G144" s="69"/>
+      <c r="H144" s="69"/>
+      <c r="I144" s="69"/>
+      <c r="J144" s="69"/>
+      <c r="K144" s="69"/>
+      <c r="L144" s="69"/>
+      <c r="M144" s="69"/>
+      <c r="N144" s="69"/>
+      <c r="O144" s="69"/>
+      <c r="P144" s="41"/>
+      <c r="Q144" s="42"/>
+      <c r="AB144" s="50"/>
+      <c r="AC144" s="50"/>
+    </row>
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="57"/>
+      <c r="B145" s="57"/>
+      <c r="C145" s="58"/>
+      <c r="D145" s="59"/>
+      <c r="E145" s="76"/>
+      <c r="F145" s="69"/>
+      <c r="G145" s="69"/>
+      <c r="H145" s="69"/>
+      <c r="I145" s="69"/>
+      <c r="J145" s="69"/>
+      <c r="K145" s="69"/>
+      <c r="L145" s="69"/>
+      <c r="M145" s="69"/>
+      <c r="N145" s="69"/>
+      <c r="O145" s="69"/>
+      <c r="P145" s="41"/>
+      <c r="Q145" s="42"/>
+      <c r="AB145" s="50"/>
+      <c r="AC145" s="50"/>
+    </row>
+    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="57"/>
+      <c r="B146" s="57"/>
+      <c r="C146" s="58"/>
+      <c r="D146" s="59"/>
+      <c r="E146" s="76"/>
+      <c r="F146" s="69"/>
+      <c r="G146" s="69"/>
+      <c r="H146" s="69"/>
+      <c r="I146" s="69"/>
+      <c r="J146" s="69"/>
+      <c r="K146" s="69"/>
+      <c r="L146" s="69"/>
+      <c r="M146" s="69"/>
+      <c r="N146" s="69"/>
+      <c r="O146" s="69"/>
+      <c r="P146" s="41"/>
+      <c r="Q146" s="42"/>
+      <c r="AB146" s="50"/>
+      <c r="AC146" s="50"/>
+    </row>
+    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="57"/>
+      <c r="B147" s="57"/>
+      <c r="C147" s="58"/>
+      <c r="D147" s="59"/>
+      <c r="E147" s="76"/>
+      <c r="F147" s="69"/>
+      <c r="G147" s="69"/>
+      <c r="H147" s="69"/>
+      <c r="I147" s="69"/>
+      <c r="J147" s="69"/>
+      <c r="K147" s="69"/>
+      <c r="L147" s="69"/>
+      <c r="M147" s="69"/>
+      <c r="N147" s="69"/>
+      <c r="O147" s="69"/>
+      <c r="P147" s="41"/>
+      <c r="Q147" s="42"/>
+      <c r="AB147" s="50"/>
+      <c r="AC147" s="50"/>
+    </row>
+    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="57"/>
+      <c r="B148" s="57"/>
+      <c r="C148" s="58"/>
+      <c r="D148" s="59"/>
+      <c r="E148" s="76"/>
+      <c r="F148" s="69"/>
+      <c r="G148" s="69"/>
+      <c r="H148" s="69"/>
+      <c r="I148" s="69"/>
+      <c r="J148" s="69"/>
+      <c r="K148" s="69"/>
+      <c r="L148" s="69"/>
+      <c r="M148" s="69"/>
+      <c r="N148" s="69"/>
+      <c r="O148" s="69"/>
+      <c r="P148" s="41"/>
+      <c r="Q148" s="42"/>
+      <c r="AB148" s="50"/>
+      <c r="AC148" s="50"/>
+    </row>
+    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="57"/>
+      <c r="B149" s="57"/>
+      <c r="C149" s="58"/>
+      <c r="D149" s="59"/>
+      <c r="E149" s="76"/>
+      <c r="F149" s="69"/>
+      <c r="G149" s="69"/>
+      <c r="H149" s="69"/>
+      <c r="I149" s="69"/>
+      <c r="J149" s="69"/>
+      <c r="K149" s="69"/>
+      <c r="L149" s="69"/>
+      <c r="M149" s="69"/>
+      <c r="N149" s="69"/>
+      <c r="O149" s="69"/>
+      <c r="P149" s="41"/>
+      <c r="Q149" s="42"/>
+      <c r="AB149" s="50"/>
+      <c r="AC149" s="50"/>
+    </row>
+    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="57"/>
+      <c r="B150" s="57"/>
+      <c r="C150" s="58"/>
+      <c r="D150" s="59"/>
+      <c r="E150" s="76"/>
+      <c r="F150" s="69"/>
+      <c r="G150" s="69"/>
+      <c r="H150" s="69"/>
+      <c r="I150" s="69"/>
+      <c r="J150" s="69"/>
+      <c r="K150" s="69"/>
+      <c r="L150" s="69"/>
+      <c r="M150" s="69"/>
+      <c r="N150" s="69"/>
+      <c r="O150" s="69"/>
+      <c r="P150" s="41"/>
+      <c r="Q150" s="42"/>
+      <c r="AB150" s="50"/>
+      <c r="AC150" s="50"/>
+    </row>
+    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="57"/>
+      <c r="B151" s="57"/>
+      <c r="C151" s="58"/>
+      <c r="D151" s="59"/>
+      <c r="E151" s="76"/>
+      <c r="F151" s="69"/>
+      <c r="G151" s="69"/>
+      <c r="H151" s="69"/>
+      <c r="I151" s="69"/>
+      <c r="J151" s="69"/>
+      <c r="K151" s="69"/>
+      <c r="L151" s="69"/>
+      <c r="M151" s="69"/>
+      <c r="N151" s="69"/>
+      <c r="O151" s="69"/>
+      <c r="P151" s="41"/>
+      <c r="Q151" s="42"/>
+      <c r="AB151" s="50"/>
+      <c r="AC151" s="50"/>
+    </row>
+    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="57"/>
+      <c r="B152" s="57"/>
+      <c r="C152" s="58"/>
+      <c r="D152" s="59"/>
+      <c r="E152" s="76"/>
+      <c r="F152" s="69"/>
+      <c r="G152" s="69"/>
+      <c r="H152" s="69"/>
+      <c r="I152" s="69"/>
+      <c r="J152" s="69"/>
+      <c r="K152" s="69"/>
+      <c r="L152" s="69"/>
+      <c r="M152" s="69"/>
+      <c r="N152" s="69"/>
+      <c r="O152" s="69"/>
+      <c r="P152" s="41"/>
+      <c r="Q152" s="42"/>
+      <c r="AB152" s="50"/>
+      <c r="AC152" s="50"/>
+    </row>
+    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="57"/>
+      <c r="B153" s="57"/>
+      <c r="C153" s="58" t="s">
+        <v>145</v>
+      </c>
+      <c r="D153" s="59" t="s">
+        <v>146</v>
+      </c>
+      <c r="E153" s="76"/>
+      <c r="F153" s="69"/>
+      <c r="G153" s="69"/>
+      <c r="H153" s="69"/>
+      <c r="I153" s="69"/>
+      <c r="J153" s="69"/>
+      <c r="K153" s="69"/>
+      <c r="L153" s="69"/>
+      <c r="M153" s="69"/>
+      <c r="N153" s="69"/>
+      <c r="O153" s="69"/>
+      <c r="P153" s="41"/>
+      <c r="Q153" s="42"/>
+      <c r="AB153" s="50"/>
+      <c r="AC153" s="50"/>
+    </row>
+    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="57"/>
+      <c r="B154" s="57"/>
+      <c r="C154" s="58" t="s">
+        <v>145</v>
+      </c>
+      <c r="D154" s="59" t="s">
+        <v>146</v>
+      </c>
+      <c r="E154" s="76"/>
+      <c r="F154" s="69"/>
+      <c r="G154" s="69"/>
+      <c r="H154" s="69"/>
+      <c r="I154" s="69"/>
+      <c r="J154" s="69"/>
+      <c r="K154" s="69"/>
+      <c r="L154" s="69"/>
+      <c r="M154" s="69"/>
+      <c r="N154" s="69"/>
+      <c r="O154" s="69"/>
+      <c r="P154" s="41"/>
+      <c r="Q154" s="42"/>
+      <c r="AB154" s="50"/>
+      <c r="AC154" s="50"/>
+    </row>
+    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="57"/>
+      <c r="B155" s="57"/>
+      <c r="C155" s="58" t="s">
+        <v>145</v>
+      </c>
+      <c r="D155" s="59" t="s">
+        <v>146</v>
+      </c>
+      <c r="E155" s="76"/>
+      <c r="F155" s="69"/>
+      <c r="G155" s="69"/>
+      <c r="H155" s="69"/>
+      <c r="I155" s="69"/>
+      <c r="J155" s="69"/>
+      <c r="K155" s="69"/>
+      <c r="L155" s="69"/>
+      <c r="M155" s="69"/>
+      <c r="N155" s="69"/>
+      <c r="O155" s="69"/>
+      <c r="P155" s="41"/>
+      <c r="Q155" s="42"/>
+      <c r="AB155" s="50"/>
+      <c r="AC155" s="50"/>
+    </row>
+    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="57"/>
+      <c r="B156" s="57"/>
+      <c r="C156" s="58" t="s">
+        <v>145</v>
+      </c>
+      <c r="D156" s="59" t="s">
+        <v>146</v>
+      </c>
+      <c r="E156" s="76"/>
+      <c r="F156" s="69"/>
+      <c r="G156" s="69"/>
+      <c r="H156" s="69"/>
+      <c r="I156" s="69"/>
+      <c r="J156" s="69"/>
+      <c r="K156" s="69"/>
+      <c r="L156" s="69"/>
+      <c r="M156" s="69"/>
+      <c r="N156" s="69"/>
+      <c r="O156" s="69"/>
+      <c r="P156" s="41"/>
+      <c r="Q156" s="42"/>
+      <c r="AB156" s="50"/>
+      <c r="AC156" s="50"/>
+    </row>
+    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="57"/>
+      <c r="B157" s="57"/>
+      <c r="C157" s="58" t="s">
+        <v>145</v>
+      </c>
+      <c r="D157" s="59" t="s">
+        <v>146</v>
+      </c>
+      <c r="E157" s="76"/>
+      <c r="F157" s="69"/>
+      <c r="G157" s="69"/>
+      <c r="H157" s="69"/>
+      <c r="I157" s="69"/>
+      <c r="J157" s="69"/>
+      <c r="K157" s="69"/>
+      <c r="L157" s="69"/>
+      <c r="M157" s="69"/>
+      <c r="N157" s="69"/>
+      <c r="O157" s="69"/>
+      <c r="P157" s="41"/>
+      <c r="Q157" s="42"/>
+      <c r="AB157" s="50"/>
+      <c r="AC157" s="50"/>
+    </row>
+    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="57"/>
+      <c r="B158" s="57"/>
+      <c r="C158" s="58" t="s">
+        <v>145</v>
+      </c>
+      <c r="D158" s="59" t="s">
+        <v>146</v>
+      </c>
+      <c r="E158" s="76"/>
+      <c r="F158" s="69"/>
+      <c r="G158" s="69"/>
+      <c r="H158" s="69"/>
+      <c r="I158" s="69"/>
+      <c r="J158" s="69"/>
+      <c r="K158" s="69"/>
+      <c r="L158" s="69"/>
+      <c r="M158" s="69"/>
+      <c r="N158" s="69"/>
+      <c r="O158" s="69"/>
+      <c r="P158" s="41"/>
+      <c r="Q158" s="42"/>
+      <c r="AB158" s="50"/>
+      <c r="AC158" s="50"/>
+    </row>
+    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="57"/>
+      <c r="B159" s="57"/>
+      <c r="C159" s="58" t="s">
+        <v>145</v>
+      </c>
+      <c r="D159" s="59" t="s">
+        <v>146</v>
+      </c>
+      <c r="E159" s="76"/>
+      <c r="F159" s="69"/>
+      <c r="G159" s="69"/>
+      <c r="H159" s="69"/>
+      <c r="I159" s="69"/>
+      <c r="J159" s="69"/>
+      <c r="K159" s="69"/>
+      <c r="L159" s="69"/>
+      <c r="M159" s="69"/>
+      <c r="N159" s="69"/>
+      <c r="O159" s="69"/>
+      <c r="P159" s="41"/>
+      <c r="Q159" s="42"/>
+      <c r="AB159" s="50"/>
+      <c r="AC159" s="50"/>
+    </row>
+    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="57"/>
+      <c r="B160" s="57"/>
+      <c r="C160" s="58" t="s">
+        <v>145</v>
+      </c>
+      <c r="D160" s="59" t="s">
+        <v>146</v>
+      </c>
+      <c r="E160" s="76"/>
+      <c r="F160" s="69"/>
+      <c r="G160" s="69"/>
+      <c r="H160" s="69"/>
+      <c r="I160" s="69"/>
+      <c r="J160" s="69"/>
+      <c r="K160" s="69"/>
+      <c r="L160" s="69"/>
+      <c r="M160" s="69"/>
+      <c r="N160" s="69"/>
+      <c r="O160" s="69"/>
+      <c r="P160" s="41"/>
+      <c r="Q160" s="42"/>
+      <c r="AB160" s="50"/>
+      <c r="AC160" s="50"/>
+    </row>
+    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="57"/>
+      <c r="B161" s="57"/>
+      <c r="C161" s="58" t="s">
+        <v>145</v>
+      </c>
+      <c r="D161" s="59" t="s">
+        <v>146</v>
+      </c>
+      <c r="E161" s="76"/>
+      <c r="F161" s="69"/>
+      <c r="G161" s="69"/>
+      <c r="H161" s="69"/>
+      <c r="I161" s="69"/>
+      <c r="J161" s="69"/>
+      <c r="K161" s="69"/>
+      <c r="L161" s="69"/>
+      <c r="M161" s="69"/>
+      <c r="N161" s="69"/>
+      <c r="O161" s="69"/>
+      <c r="P161" s="41"/>
+      <c r="Q161" s="42"/>
+      <c r="AB161" s="50"/>
+      <c r="AC161" s="50"/>
+    </row>
+    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="57"/>
+      <c r="B162" s="57"/>
+      <c r="C162" s="58" t="s">
+        <v>145</v>
+      </c>
+      <c r="D162" s="59" t="s">
+        <v>146</v>
+      </c>
+      <c r="E162" s="76"/>
+      <c r="F162" s="69"/>
+      <c r="G162" s="69"/>
+      <c r="H162" s="69"/>
+      <c r="I162" s="69"/>
+      <c r="J162" s="69"/>
+      <c r="K162" s="69"/>
+      <c r="L162" s="69"/>
+      <c r="M162" s="69"/>
+      <c r="N162" s="69"/>
+      <c r="O162" s="69"/>
+      <c r="P162" s="41"/>
+      <c r="Q162" s="42"/>
+      <c r="AB162" s="50"/>
+      <c r="AC162" s="50"/>
+    </row>
+    <row r="163" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A163" s="62"/>
+      <c r="B163" s="62"/>
+      <c r="C163" s="63" t="s">
+        <v>145</v>
+      </c>
+      <c r="D163" s="64" t="s">
+        <v>146</v>
+      </c>
+      <c r="E163" s="65" t="s">
         <v>150</v>
       </c>
-      <c r="E9" s="71" t="s">
-        <v>154</v>
-      </c>
-      <c r="F9" s="72" t="s">
-        <v>155</v>
-      </c>
-      <c r="G9" s="73"/>
-      <c r="H9" s="73"/>
-      <c r="I9" s="73"/>
-      <c r="J9" s="73"/>
-      <c r="K9" s="73"/>
-      <c r="L9" s="73"/>
-      <c r="M9" s="74"/>
-      <c r="N9" s="75"/>
-      <c r="O9" s="75"/>
-      <c r="P9" s="76"/>
-      <c r="Q9" s="42"/>
-      <c r="R9" s="43"/>
-      <c r="AC9" s="39"/>
-      <c r="AD9" s="39"/>
-    </row>
-    <row r="10" customFormat="false" ht="21.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="61"/>
-      <c r="B10" s="61"/>
-      <c r="C10" s="62" t="s">
-        <v>149</v>
-      </c>
-      <c r="D10" s="63" t="s">
-        <v>150</v>
-      </c>
-      <c r="E10" s="64"/>
-      <c r="F10" s="67" t="s">
-        <v>156</v>
-      </c>
-      <c r="G10" s="77" t="s">
+      <c r="F163" s="66" t="s">
+        <v>238</v>
+      </c>
+      <c r="G163" s="67"/>
+      <c r="H163" s="67"/>
+      <c r="I163" s="67"/>
+      <c r="J163" s="67"/>
+      <c r="K163" s="67"/>
+      <c r="L163" s="67"/>
+      <c r="M163" s="67"/>
+      <c r="N163" s="67"/>
+      <c r="O163" s="67"/>
+      <c r="P163" s="41"/>
+      <c r="Q163" s="42"/>
+      <c r="AB163" s="50"/>
+      <c r="AC163" s="50"/>
+    </row>
+    <row r="164" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A164" s="70"/>
+      <c r="B164" s="70"/>
+      <c r="C164" s="71" t="s">
+        <v>145</v>
+      </c>
+      <c r="D164" s="72" t="s">
+        <v>146</v>
+      </c>
+      <c r="E164" s="73" t="s">
         <v>157</v>
       </c>
-      <c r="H10" s="77"/>
-      <c r="I10" s="77"/>
-      <c r="J10" s="77"/>
-      <c r="K10" s="77"/>
-      <c r="L10" s="77"/>
-      <c r="M10" s="77"/>
-      <c r="N10" s="66"/>
-      <c r="O10" s="66"/>
-      <c r="P10" s="78"/>
-      <c r="Q10" s="42"/>
-      <c r="R10" s="43"/>
-      <c r="AC10" s="39"/>
-      <c r="AD10" s="39"/>
-    </row>
-    <row r="11" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="61"/>
-      <c r="B11" s="61"/>
-      <c r="C11" s="62" t="s">
-        <v>149</v>
-      </c>
-      <c r="D11" s="63" t="s">
-        <v>150</v>
-      </c>
-      <c r="E11" s="64"/>
-      <c r="F11" s="67" t="s">
-        <v>156</v>
-      </c>
-      <c r="G11" s="77" t="s">
-        <v>158</v>
-      </c>
-      <c r="H11" s="77"/>
-      <c r="I11" s="77"/>
-      <c r="J11" s="77"/>
-      <c r="K11" s="77"/>
-      <c r="L11" s="77"/>
-      <c r="M11" s="77"/>
-      <c r="N11" s="66"/>
-      <c r="O11" s="66"/>
-      <c r="P11" s="78"/>
-      <c r="Q11" s="42"/>
-      <c r="R11" s="43"/>
-      <c r="AC11" s="39"/>
-      <c r="AD11" s="39"/>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="61"/>
-      <c r="B12" s="61"/>
-      <c r="C12" s="62" t="s">
-        <v>149</v>
-      </c>
-      <c r="D12" s="63" t="s">
-        <v>150</v>
-      </c>
-      <c r="E12" s="64"/>
-      <c r="F12" s="67" t="s">
-        <v>156</v>
-      </c>
-      <c r="G12" s="77" t="s">
-        <v>159</v>
-      </c>
-      <c r="H12" s="77"/>
-      <c r="I12" s="77"/>
-      <c r="J12" s="77"/>
-      <c r="K12" s="77"/>
-      <c r="L12" s="77"/>
-      <c r="M12" s="77"/>
-      <c r="N12" s="66"/>
-      <c r="O12" s="66"/>
-      <c r="P12" s="78"/>
-      <c r="Q12" s="42"/>
-      <c r="R12" s="43"/>
-      <c r="AC12" s="39"/>
-      <c r="AD12" s="39"/>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="68"/>
-      <c r="B13" s="68"/>
-      <c r="C13" s="69" t="s">
-        <v>149</v>
-      </c>
-      <c r="D13" s="70" t="s">
-        <v>150</v>
-      </c>
-      <c r="E13" s="71" t="s">
-        <v>154</v>
-      </c>
-      <c r="F13" s="72" t="s">
-        <v>160</v>
-      </c>
-      <c r="G13" s="73"/>
-      <c r="H13" s="73"/>
-      <c r="I13" s="73"/>
-      <c r="J13" s="73"/>
-      <c r="K13" s="73"/>
-      <c r="L13" s="73"/>
-      <c r="M13" s="74"/>
-      <c r="N13" s="75"/>
-      <c r="O13" s="75"/>
-      <c r="P13" s="76"/>
-      <c r="Q13" s="42"/>
-      <c r="R13" s="43"/>
-      <c r="AC13" s="39"/>
-      <c r="AD13" s="39"/>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="61"/>
-      <c r="B14" s="61"/>
-      <c r="C14" s="62" t="s">
-        <v>149</v>
-      </c>
-      <c r="D14" s="63" t="s">
-        <v>150</v>
-      </c>
-      <c r="E14" s="64"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="79"/>
-      <c r="H14" s="79"/>
-      <c r="I14" s="79"/>
-      <c r="J14" s="79"/>
-      <c r="K14" s="79"/>
-      <c r="L14" s="79"/>
-      <c r="M14" s="80"/>
-      <c r="N14" s="66"/>
-      <c r="O14" s="66"/>
-      <c r="P14" s="78"/>
-      <c r="Q14" s="42"/>
-      <c r="R14" s="43"/>
-      <c r="AC14" s="39"/>
-      <c r="AD14" s="39"/>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="61"/>
-      <c r="B15" s="61"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="67"/>
-      <c r="G15" s="79"/>
-      <c r="H15" s="79"/>
-      <c r="I15" s="79"/>
-      <c r="J15" s="79"/>
-      <c r="K15" s="79"/>
-      <c r="L15" s="79"/>
-      <c r="M15" s="80"/>
-      <c r="N15" s="66"/>
-      <c r="O15" s="66"/>
-      <c r="P15" s="78"/>
-      <c r="Q15" s="42"/>
-      <c r="R15" s="43"/>
-      <c r="AC15" s="39"/>
-      <c r="AD15" s="39"/>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A16" s="81"/>
-      <c r="B16" s="81"/>
-      <c r="C16" s="82" t="s">
-        <v>149</v>
-      </c>
-      <c r="D16" s="83" t="s">
-        <v>150</v>
-      </c>
-      <c r="E16" s="84" t="s">
-        <v>161</v>
-      </c>
-      <c r="F16" s="85" t="s">
-        <v>162</v>
-      </c>
-      <c r="G16" s="86"/>
-      <c r="H16" s="86"/>
-      <c r="I16" s="86"/>
-      <c r="J16" s="86"/>
-      <c r="K16" s="86"/>
-      <c r="L16" s="86"/>
-      <c r="M16" s="87"/>
-      <c r="N16" s="88"/>
-      <c r="O16" s="88"/>
-      <c r="P16" s="89"/>
-      <c r="Q16" s="42"/>
-      <c r="R16" s="43"/>
-      <c r="AC16" s="39"/>
-      <c r="AD16" s="39"/>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A17" s="61"/>
-      <c r="B17" s="61"/>
-      <c r="C17" s="62" t="s">
-        <v>149</v>
-      </c>
-      <c r="D17" s="63" t="s">
-        <v>150</v>
-      </c>
-      <c r="E17" s="64"/>
-      <c r="F17" s="67"/>
-      <c r="G17" s="79"/>
-      <c r="H17" s="79"/>
-      <c r="I17" s="79"/>
-      <c r="J17" s="79"/>
-      <c r="K17" s="79"/>
-      <c r="L17" s="79"/>
-      <c r="M17" s="80"/>
-      <c r="N17" s="66"/>
-      <c r="O17" s="66"/>
-      <c r="P17" s="78"/>
-      <c r="Q17" s="42"/>
-      <c r="R17" s="43"/>
-      <c r="AC17" s="39"/>
-      <c r="AD17" s="39"/>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A18" s="81"/>
-      <c r="B18" s="81"/>
-      <c r="C18" s="82" t="s">
-        <v>149</v>
-      </c>
-      <c r="D18" s="83" t="s">
-        <v>150</v>
-      </c>
-      <c r="E18" s="84" t="s">
-        <v>161</v>
-      </c>
-      <c r="F18" s="85" t="s">
-        <v>163</v>
-      </c>
-      <c r="G18" s="86"/>
-      <c r="H18" s="86"/>
-      <c r="I18" s="86"/>
-      <c r="J18" s="86"/>
-      <c r="K18" s="86"/>
-      <c r="L18" s="86"/>
-      <c r="M18" s="87"/>
-      <c r="N18" s="88"/>
-      <c r="O18" s="88"/>
-      <c r="P18" s="89"/>
-      <c r="Q18" s="42"/>
-      <c r="R18" s="43"/>
-      <c r="AC18" s="39"/>
-      <c r="AD18" s="39"/>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A19" s="61"/>
-      <c r="B19" s="61"/>
-      <c r="C19" s="62" t="s">
-        <v>149</v>
-      </c>
-      <c r="D19" s="63" t="s">
-        <v>150</v>
-      </c>
-      <c r="E19" s="64"/>
-      <c r="F19" s="67"/>
-      <c r="G19" s="79"/>
-      <c r="H19" s="79"/>
-      <c r="I19" s="79"/>
-      <c r="J19" s="79"/>
-      <c r="K19" s="79"/>
-      <c r="L19" s="79"/>
-      <c r="M19" s="80"/>
-      <c r="N19" s="66"/>
-      <c r="O19" s="66"/>
-      <c r="P19" s="78"/>
-      <c r="Q19" s="42"/>
-      <c r="R19" s="43"/>
-      <c r="AC19" s="39"/>
-      <c r="AD19" s="39"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="42"/>
-      <c r="B20" s="42"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="42"/>
-      <c r="K20" s="42"/>
-      <c r="L20" s="42"/>
-      <c r="M20" s="42"/>
-      <c r="N20" s="42"/>
-      <c r="O20" s="42"/>
-      <c r="P20" s="42"/>
-      <c r="Q20" s="42"/>
-      <c r="R20" s="43"/>
-      <c r="X20" s="39"/>
-      <c r="Y20" s="39"/>
-      <c r="AC20" s="39"/>
-      <c r="AD20" s="39"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="43"/>
-      <c r="B21" s="43"/>
-      <c r="C21" s="90"/>
-      <c r="D21" s="90"/>
-      <c r="E21" s="90"/>
-      <c r="F21" s="91" t="n">
+      <c r="F164" s="74" t="s">
+        <v>239</v>
+      </c>
+      <c r="G164" s="75"/>
+      <c r="H164" s="75"/>
+      <c r="I164" s="75"/>
+      <c r="J164" s="75"/>
+      <c r="K164" s="75"/>
+      <c r="L164" s="75"/>
+      <c r="M164" s="75"/>
+      <c r="N164" s="75"/>
+      <c r="O164" s="75"/>
+      <c r="P164" s="41"/>
+      <c r="Q164" s="42"/>
+      <c r="AB164" s="50"/>
+      <c r="AC164" s="50"/>
+    </row>
+    <row r="165" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A165" s="57"/>
+      <c r="B165" s="57"/>
+      <c r="C165" s="58"/>
+      <c r="D165" s="59"/>
+      <c r="E165" s="76" t="s">
+        <v>240</v>
+      </c>
+      <c r="F165" s="69"/>
+      <c r="G165" s="69"/>
+      <c r="H165" s="69"/>
+      <c r="I165" s="69"/>
+      <c r="J165" s="69"/>
+      <c r="K165" s="69"/>
+      <c r="L165" s="69"/>
+      <c r="M165" s="69"/>
+      <c r="N165" s="69"/>
+      <c r="O165" s="69"/>
+      <c r="P165" s="41"/>
+      <c r="Q165" s="42"/>
+      <c r="AB165" s="50"/>
+      <c r="AC165" s="50"/>
+    </row>
+    <row r="166" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A166" s="57"/>
+      <c r="B166" s="57"/>
+      <c r="C166" s="58"/>
+      <c r="D166" s="59"/>
+      <c r="E166" s="76"/>
+      <c r="F166" s="69" t="s">
+        <v>241</v>
+      </c>
+      <c r="G166" s="69"/>
+      <c r="H166" s="69"/>
+      <c r="I166" s="69"/>
+      <c r="J166" s="69"/>
+      <c r="K166" s="69"/>
+      <c r="L166" s="69"/>
+      <c r="M166" s="69"/>
+      <c r="N166" s="69"/>
+      <c r="O166" s="69"/>
+      <c r="P166" s="41"/>
+      <c r="Q166" s="42"/>
+      <c r="AB166" s="50"/>
+      <c r="AC166" s="50"/>
+    </row>
+    <row r="167" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A167" s="57"/>
+      <c r="B167" s="57"/>
+      <c r="C167" s="58"/>
+      <c r="D167" s="59"/>
+      <c r="E167" s="76"/>
+      <c r="F167" s="69"/>
+      <c r="G167" s="69" t="s">
+        <v>242</v>
+      </c>
+      <c r="H167" s="69"/>
+      <c r="I167" s="69"/>
+      <c r="J167" s="69"/>
+      <c r="K167" s="69"/>
+      <c r="L167" s="69"/>
+      <c r="M167" s="69"/>
+      <c r="N167" s="69"/>
+      <c r="O167" s="69"/>
+      <c r="P167" s="41"/>
+      <c r="Q167" s="42"/>
+      <c r="AB167" s="50"/>
+      <c r="AC167" s="50"/>
+    </row>
+    <row r="168" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A168" s="57"/>
+      <c r="B168" s="57"/>
+      <c r="C168" s="58"/>
+      <c r="D168" s="59"/>
+      <c r="E168" s="76"/>
+      <c r="F168" s="69"/>
+      <c r="G168" s="69" t="s">
+        <v>243</v>
+      </c>
+      <c r="H168" s="69"/>
+      <c r="I168" s="69"/>
+      <c r="J168" s="69"/>
+      <c r="K168" s="69"/>
+      <c r="L168" s="69"/>
+      <c r="M168" s="69"/>
+      <c r="N168" s="69"/>
+      <c r="O168" s="69"/>
+      <c r="P168" s="41"/>
+      <c r="Q168" s="42"/>
+      <c r="AB168" s="50"/>
+      <c r="AC168" s="50"/>
+    </row>
+    <row r="169" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A169" s="57"/>
+      <c r="B169" s="57"/>
+      <c r="C169" s="58"/>
+      <c r="D169" s="59"/>
+      <c r="E169" s="76"/>
+      <c r="F169" s="69"/>
+      <c r="G169" s="69" t="s">
+        <v>244</v>
+      </c>
+      <c r="H169" s="69"/>
+      <c r="I169" s="69"/>
+      <c r="J169" s="69"/>
+      <c r="K169" s="69"/>
+      <c r="L169" s="69"/>
+      <c r="M169" s="69"/>
+      <c r="N169" s="69"/>
+      <c r="O169" s="69"/>
+      <c r="P169" s="41"/>
+      <c r="Q169" s="42"/>
+      <c r="AB169" s="50"/>
+      <c r="AC169" s="50"/>
+    </row>
+    <row r="170" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A170" s="57"/>
+      <c r="B170" s="57"/>
+      <c r="C170" s="58"/>
+      <c r="D170" s="59"/>
+      <c r="E170" s="76"/>
+      <c r="F170" s="69"/>
+      <c r="G170" s="69" t="s">
+        <v>245</v>
+      </c>
+      <c r="H170" s="69"/>
+      <c r="I170" s="69"/>
+      <c r="J170" s="69"/>
+      <c r="K170" s="69"/>
+      <c r="L170" s="69"/>
+      <c r="M170" s="69"/>
+      <c r="N170" s="69"/>
+      <c r="O170" s="69"/>
+      <c r="P170" s="41"/>
+      <c r="Q170" s="42"/>
+      <c r="AB170" s="50"/>
+      <c r="AC170" s="50"/>
+    </row>
+    <row r="171" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A171" s="57"/>
+      <c r="B171" s="57"/>
+      <c r="C171" s="58"/>
+      <c r="D171" s="59"/>
+      <c r="E171" s="76"/>
+      <c r="F171" s="69"/>
+      <c r="G171" s="69"/>
+      <c r="H171" s="69" t="s">
+        <v>246</v>
+      </c>
+      <c r="I171" s="69"/>
+      <c r="J171" s="69"/>
+      <c r="K171" s="69"/>
+      <c r="L171" s="69"/>
+      <c r="M171" s="69"/>
+      <c r="N171" s="69"/>
+      <c r="O171" s="69"/>
+      <c r="P171" s="41"/>
+      <c r="Q171" s="42"/>
+      <c r="AB171" s="50"/>
+      <c r="AC171" s="50"/>
+    </row>
+    <row r="172" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A172" s="57"/>
+      <c r="B172" s="57"/>
+      <c r="C172" s="58"/>
+      <c r="D172" s="59"/>
+      <c r="E172" s="76"/>
+      <c r="F172" s="69"/>
+      <c r="G172" s="69"/>
+      <c r="H172" s="69" t="s">
+        <v>247</v>
+      </c>
+      <c r="I172" s="69"/>
+      <c r="J172" s="69"/>
+      <c r="K172" s="69"/>
+      <c r="L172" s="69"/>
+      <c r="M172" s="69"/>
+      <c r="N172" s="69"/>
+      <c r="O172" s="69"/>
+      <c r="P172" s="41"/>
+      <c r="Q172" s="42"/>
+      <c r="AB172" s="50"/>
+      <c r="AC172" s="50"/>
+    </row>
+    <row r="173" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A173" s="57"/>
+      <c r="B173" s="57"/>
+      <c r="C173" s="58"/>
+      <c r="D173" s="59"/>
+      <c r="E173" s="76"/>
+      <c r="F173" s="69"/>
+      <c r="G173" s="69"/>
+      <c r="H173" s="69" t="s">
+        <v>248</v>
+      </c>
+      <c r="I173" s="69"/>
+      <c r="J173" s="69"/>
+      <c r="K173" s="69"/>
+      <c r="L173" s="69"/>
+      <c r="M173" s="69"/>
+      <c r="N173" s="69"/>
+      <c r="O173" s="69"/>
+      <c r="P173" s="41"/>
+      <c r="Q173" s="42"/>
+      <c r="AB173" s="50"/>
+      <c r="AC173" s="50"/>
+    </row>
+    <row r="174" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A174" s="57"/>
+      <c r="B174" s="57"/>
+      <c r="C174" s="58"/>
+      <c r="D174" s="59"/>
+      <c r="E174" s="76"/>
+      <c r="F174" s="69"/>
+      <c r="G174" s="69"/>
+      <c r="H174" s="69" t="s">
+        <v>249</v>
+      </c>
+      <c r="I174" s="69"/>
+      <c r="J174" s="69"/>
+      <c r="K174" s="69"/>
+      <c r="L174" s="69"/>
+      <c r="M174" s="69"/>
+      <c r="N174" s="69"/>
+      <c r="O174" s="69"/>
+      <c r="P174" s="41"/>
+      <c r="Q174" s="42"/>
+      <c r="AB174" s="50"/>
+      <c r="AC174" s="50"/>
+    </row>
+    <row r="175" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A175" s="57"/>
+      <c r="B175" s="57"/>
+      <c r="C175" s="58"/>
+      <c r="D175" s="59"/>
+      <c r="E175" s="76"/>
+      <c r="F175" s="69"/>
+      <c r="G175" s="69"/>
+      <c r="H175" s="69"/>
+      <c r="I175" s="69" t="s">
+        <v>250</v>
+      </c>
+      <c r="J175" s="69"/>
+      <c r="K175" s="69"/>
+      <c r="L175" s="69"/>
+      <c r="M175" s="69"/>
+      <c r="N175" s="69"/>
+      <c r="O175" s="69"/>
+      <c r="P175" s="41"/>
+      <c r="Q175" s="42"/>
+      <c r="AB175" s="50"/>
+      <c r="AC175" s="50"/>
+    </row>
+    <row r="176" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A176" s="57"/>
+      <c r="B176" s="57"/>
+      <c r="C176" s="58"/>
+      <c r="D176" s="59"/>
+      <c r="E176" s="76"/>
+      <c r="F176" s="69"/>
+      <c r="G176" s="69"/>
+      <c r="H176" s="69"/>
+      <c r="I176" s="69" t="s">
+        <v>251</v>
+      </c>
+      <c r="J176" s="69"/>
+      <c r="K176" s="69"/>
+      <c r="L176" s="69"/>
+      <c r="M176" s="69"/>
+      <c r="N176" s="69"/>
+      <c r="O176" s="69"/>
+      <c r="P176" s="41"/>
+      <c r="Q176" s="42"/>
+      <c r="AB176" s="50"/>
+      <c r="AC176" s="50"/>
+    </row>
+    <row r="177" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A177" s="57"/>
+      <c r="B177" s="57"/>
+      <c r="C177" s="58"/>
+      <c r="D177" s="59"/>
+      <c r="E177" s="76"/>
+      <c r="F177" s="69"/>
+      <c r="G177" s="69"/>
+      <c r="H177" s="69"/>
+      <c r="I177" s="69" t="s">
+        <v>252</v>
+      </c>
+      <c r="J177" s="69"/>
+      <c r="K177" s="69"/>
+      <c r="L177" s="69"/>
+      <c r="M177" s="69"/>
+      <c r="N177" s="69"/>
+      <c r="O177" s="69"/>
+      <c r="P177" s="41"/>
+      <c r="Q177" s="42"/>
+      <c r="AB177" s="50"/>
+      <c r="AC177" s="50"/>
+    </row>
+    <row r="178" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A178" s="57"/>
+      <c r="B178" s="57"/>
+      <c r="C178" s="58"/>
+      <c r="D178" s="59"/>
+      <c r="E178" s="76"/>
+      <c r="F178" s="69"/>
+      <c r="G178" s="69"/>
+      <c r="H178" s="69" t="s">
+        <v>253</v>
+      </c>
+      <c r="I178" s="69"/>
+      <c r="J178" s="69"/>
+      <c r="K178" s="69"/>
+      <c r="L178" s="69"/>
+      <c r="M178" s="69"/>
+      <c r="N178" s="69"/>
+      <c r="O178" s="69"/>
+      <c r="P178" s="41"/>
+      <c r="Q178" s="42"/>
+      <c r="AB178" s="50"/>
+      <c r="AC178" s="50"/>
+    </row>
+    <row r="179" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A179" s="57"/>
+      <c r="B179" s="57"/>
+      <c r="C179" s="58"/>
+      <c r="D179" s="59"/>
+      <c r="E179" s="76"/>
+      <c r="F179" s="69"/>
+      <c r="G179" s="69" t="s">
+        <v>253</v>
+      </c>
+      <c r="H179" s="69"/>
+      <c r="I179" s="69"/>
+      <c r="J179" s="69"/>
+      <c r="K179" s="69"/>
+      <c r="L179" s="69"/>
+      <c r="M179" s="69"/>
+      <c r="N179" s="69"/>
+      <c r="O179" s="69"/>
+      <c r="P179" s="41"/>
+      <c r="Q179" s="42"/>
+      <c r="AB179" s="50"/>
+      <c r="AC179" s="50"/>
+    </row>
+    <row r="180" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A180" s="57"/>
+      <c r="B180" s="57"/>
+      <c r="C180" s="58"/>
+      <c r="D180" s="59"/>
+      <c r="E180" s="76"/>
+      <c r="F180" s="69" t="s">
+        <v>254</v>
+      </c>
+      <c r="G180" s="69"/>
+      <c r="H180" s="69"/>
+      <c r="I180" s="69"/>
+      <c r="J180" s="69"/>
+      <c r="K180" s="69"/>
+      <c r="L180" s="69"/>
+      <c r="M180" s="69"/>
+      <c r="N180" s="69"/>
+      <c r="O180" s="69"/>
+      <c r="P180" s="41"/>
+      <c r="Q180" s="42"/>
+      <c r="AB180" s="50"/>
+      <c r="AC180" s="50"/>
+    </row>
+    <row r="181" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A181" s="57"/>
+      <c r="B181" s="57"/>
+      <c r="C181" s="58"/>
+      <c r="D181" s="59"/>
+      <c r="E181" s="76"/>
+      <c r="F181" s="69" t="s">
+        <v>255</v>
+      </c>
+      <c r="G181" s="69"/>
+      <c r="H181" s="69"/>
+      <c r="I181" s="69"/>
+      <c r="J181" s="69"/>
+      <c r="K181" s="69"/>
+      <c r="L181" s="69"/>
+      <c r="M181" s="69"/>
+      <c r="N181" s="69"/>
+      <c r="O181" s="69"/>
+      <c r="P181" s="41"/>
+      <c r="Q181" s="42"/>
+      <c r="AB181" s="50"/>
+      <c r="AC181" s="50"/>
+    </row>
+    <row r="182" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A182" s="57"/>
+      <c r="B182" s="57"/>
+      <c r="C182" s="58"/>
+      <c r="D182" s="59"/>
+      <c r="E182" s="76"/>
+      <c r="F182" s="69"/>
+      <c r="G182" s="69"/>
+      <c r="H182" s="69"/>
+      <c r="I182" s="69"/>
+      <c r="J182" s="69"/>
+      <c r="K182" s="69"/>
+      <c r="L182" s="69"/>
+      <c r="M182" s="69"/>
+      <c r="N182" s="69"/>
+      <c r="O182" s="69"/>
+      <c r="P182" s="41"/>
+      <c r="Q182" s="42"/>
+      <c r="AB182" s="50"/>
+      <c r="AC182" s="50"/>
+    </row>
+    <row r="183" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A183" s="57"/>
+      <c r="B183" s="57"/>
+      <c r="C183" s="58"/>
+      <c r="D183" s="59"/>
+      <c r="E183" s="76"/>
+      <c r="F183" s="69" t="s">
+        <v>254</v>
+      </c>
+      <c r="G183" s="69"/>
+      <c r="H183" s="69"/>
+      <c r="I183" s="69"/>
+      <c r="J183" s="69"/>
+      <c r="K183" s="69"/>
+      <c r="L183" s="69"/>
+      <c r="M183" s="69"/>
+      <c r="N183" s="69"/>
+      <c r="O183" s="69"/>
+      <c r="P183" s="41"/>
+      <c r="Q183" s="42"/>
+      <c r="AB183" s="50"/>
+      <c r="AC183" s="50"/>
+    </row>
+    <row r="184" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A184" s="57"/>
+      <c r="B184" s="57"/>
+      <c r="C184" s="58"/>
+      <c r="D184" s="59"/>
+      <c r="E184" s="76" t="s">
+        <v>240</v>
+      </c>
+      <c r="F184" s="69"/>
+      <c r="G184" s="69"/>
+      <c r="H184" s="69"/>
+      <c r="I184" s="69"/>
+      <c r="J184" s="69"/>
+      <c r="K184" s="69"/>
+      <c r="L184" s="69"/>
+      <c r="M184" s="69"/>
+      <c r="N184" s="69"/>
+      <c r="O184" s="69"/>
+      <c r="P184" s="41"/>
+      <c r="Q184" s="42"/>
+      <c r="AB184" s="50"/>
+      <c r="AC184" s="50"/>
+    </row>
+    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="41"/>
+      <c r="B185" s="41"/>
+      <c r="C185" s="41"/>
+      <c r="D185" s="41"/>
+      <c r="E185" s="41"/>
+      <c r="F185" s="41"/>
+      <c r="G185" s="41"/>
+      <c r="H185" s="41"/>
+      <c r="I185" s="41"/>
+      <c r="J185" s="41"/>
+      <c r="K185" s="41"/>
+      <c r="L185" s="41"/>
+      <c r="M185" s="41"/>
+      <c r="N185" s="41"/>
+      <c r="O185" s="41"/>
+      <c r="P185" s="41"/>
+      <c r="Q185" s="42"/>
+      <c r="W185" s="50"/>
+      <c r="X185" s="50"/>
+      <c r="AB185" s="50"/>
+      <c r="AC185" s="50"/>
+    </row>
+    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="42"/>
+      <c r="B186" s="42"/>
+      <c r="C186" s="109"/>
+      <c r="D186" s="109"/>
+      <c r="E186" s="109"/>
+      <c r="F186" s="110" t="n">
         <v>0</v>
       </c>
-      <c r="G21" s="91" t="n">
+      <c r="G186" s="110" t="n">
         <v>1</v>
       </c>
-      <c r="H21" s="91" t="n">
+      <c r="H186" s="110" t="n">
         <v>2</v>
       </c>
-      <c r="I21" s="91" t="n">
+      <c r="I186" s="110" t="n">
         <v>3</v>
       </c>
-      <c r="J21" s="91" t="n">
-        <v>4</v>
-      </c>
-      <c r="K21" s="91" t="n">
-        <v>5</v>
-      </c>
-      <c r="L21" s="91" t="n">
+      <c r="J186" s="110" t="n">
+        <v>4</v>
+      </c>
+      <c r="K186" s="110" t="n">
+        <v>5</v>
+      </c>
+      <c r="L186" s="110" t="n">
         <v>6</v>
       </c>
-      <c r="M21" s="91" t="n">
+      <c r="M186" s="110" t="n">
         <v>7</v>
       </c>
-      <c r="N21" s="92"/>
-      <c r="O21" s="92"/>
-      <c r="P21" s="92"/>
-      <c r="Q21" s="43"/>
-      <c r="R21" s="43"/>
-      <c r="X21" s="39"/>
-      <c r="Y21" s="39"/>
-      <c r="AC21" s="39"/>
-      <c r="AD21" s="39"/>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="X22" s="39"/>
-      <c r="Y22" s="39"/>
-      <c r="AC22" s="39"/>
-      <c r="AD22" s="39"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="X23" s="39"/>
-      <c r="Y23" s="39"/>
-      <c r="AC23" s="39"/>
-      <c r="AD23" s="39"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="X24" s="39"/>
-      <c r="Y24" s="39"/>
-      <c r="AC24" s="39"/>
-      <c r="AD24" s="39"/>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="X25" s="39"/>
-      <c r="Y25" s="39"/>
-      <c r="AC25" s="39"/>
-      <c r="AD25" s="39"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="X26" s="39"/>
-      <c r="Y26" s="39"/>
-      <c r="AC26" s="39"/>
-      <c r="AD26" s="39"/>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="X27" s="39"/>
-      <c r="Y27" s="39"/>
-      <c r="AC27" s="39"/>
-      <c r="AD27" s="39"/>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="X28" s="39"/>
-      <c r="Y28" s="39"/>
-      <c r="AC28" s="39"/>
-      <c r="AD28" s="39"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="X29" s="39"/>
-      <c r="Y29" s="39"/>
-      <c r="AC29" s="39"/>
-      <c r="AD29" s="39"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="X30" s="39"/>
-      <c r="Y30" s="39"/>
-      <c r="AC30" s="39"/>
-      <c r="AD30" s="39"/>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="X31" s="39"/>
-      <c r="Y31" s="39"/>
-      <c r="AC31" s="39"/>
-      <c r="AD31" s="39"/>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="X32" s="39"/>
-      <c r="Y32" s="39"/>
-      <c r="AC32" s="39"/>
-      <c r="AD32" s="39"/>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="X33" s="39"/>
-      <c r="Y33" s="39"/>
-      <c r="AC33" s="39"/>
-      <c r="AD33" s="39"/>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="X34" s="39"/>
-      <c r="Y34" s="39"/>
-      <c r="AC34" s="39"/>
-      <c r="AD34" s="39"/>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="X35" s="39"/>
-      <c r="Y35" s="39"/>
-      <c r="AC35" s="39"/>
-      <c r="AD35" s="39"/>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="X36" s="39"/>
-      <c r="Y36" s="39"/>
-      <c r="AC36" s="39"/>
-      <c r="AD36" s="39"/>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="X37" s="39"/>
-      <c r="Y37" s="39"/>
-      <c r="AC37" s="39"/>
-      <c r="AD37" s="39"/>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="X38" s="39"/>
-      <c r="Y38" s="39"/>
-      <c r="AC38" s="39"/>
-      <c r="AD38" s="39"/>
+      <c r="N186" s="110" t="n">
+        <v>8</v>
+      </c>
+      <c r="O186" s="110" t="n">
+        <v>9</v>
+      </c>
+      <c r="P186" s="42"/>
+      <c r="Q186" s="42"/>
+      <c r="W186" s="50"/>
+      <c r="X186" s="50"/>
+      <c r="AB186" s="50"/>
+      <c r="AC186" s="50"/>
+    </row>
+    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W187" s="50"/>
+      <c r="X187" s="50"/>
+      <c r="AB187" s="50"/>
+      <c r="AC187" s="50"/>
+    </row>
+    <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W188" s="50"/>
+      <c r="X188" s="50"/>
+      <c r="AB188" s="50"/>
+      <c r="AC188" s="50"/>
+    </row>
+    <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W189" s="50"/>
+      <c r="X189" s="50"/>
+      <c r="AB189" s="50"/>
+      <c r="AC189" s="50"/>
+    </row>
+    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W190" s="50"/>
+      <c r="X190" s="50"/>
+      <c r="AB190" s="50"/>
+      <c r="AC190" s="50"/>
+    </row>
+    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W191" s="50"/>
+      <c r="X191" s="50"/>
+      <c r="AB191" s="50"/>
+      <c r="AC191" s="50"/>
+    </row>
+    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W192" s="50"/>
+      <c r="X192" s="50"/>
+      <c r="AB192" s="50"/>
+      <c r="AC192" s="50"/>
+    </row>
+    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W193" s="50"/>
+      <c r="X193" s="50"/>
+      <c r="AB193" s="50"/>
+      <c r="AC193" s="50"/>
+    </row>
+    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W194" s="50"/>
+      <c r="X194" s="50"/>
+      <c r="AB194" s="50"/>
+      <c r="AC194" s="50"/>
+    </row>
+    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W195" s="50"/>
+      <c r="X195" s="50"/>
+      <c r="AB195" s="50"/>
+      <c r="AC195" s="50"/>
+    </row>
+    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W196" s="50"/>
+      <c r="X196" s="50"/>
+      <c r="AB196" s="50"/>
+      <c r="AC196" s="50"/>
+    </row>
+    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W197" s="50"/>
+      <c r="X197" s="50"/>
+      <c r="AB197" s="50"/>
+      <c r="AC197" s="50"/>
+    </row>
+    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W198" s="50"/>
+      <c r="X198" s="50"/>
+      <c r="AB198" s="50"/>
+      <c r="AC198" s="50"/>
+    </row>
+    <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W199" s="50"/>
+      <c r="X199" s="50"/>
+      <c r="AB199" s="50"/>
+      <c r="AC199" s="50"/>
+    </row>
+    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W200" s="50"/>
+      <c r="X200" s="50"/>
+      <c r="AB200" s="50"/>
+      <c r="AC200" s="50"/>
+    </row>
+    <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W201" s="50"/>
+      <c r="X201" s="50"/>
+      <c r="AB201" s="50"/>
+      <c r="AC201" s="50"/>
+    </row>
+    <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W202" s="50"/>
+      <c r="X202" s="50"/>
+      <c r="AB202" s="50"/>
+      <c r="AC202" s="50"/>
+    </row>
+    <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W203" s="50"/>
+      <c r="X203" s="50"/>
+      <c r="AB203" s="50"/>
+      <c r="AC203" s="50"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="39">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:P1"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="E2:P2"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:M4"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="F7:M7"/>
-    <mergeCell ref="G10:M10"/>
-    <mergeCell ref="G11:M11"/>
-    <mergeCell ref="G12:M12"/>
+    <mergeCell ref="E1:O1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:O2"/>
+    <mergeCell ref="F3:O3"/>
+    <mergeCell ref="F6:O6"/>
+    <mergeCell ref="H8:O8"/>
+    <mergeCell ref="H9:O9"/>
+    <mergeCell ref="H10:O10"/>
+    <mergeCell ref="H13:O13"/>
+    <mergeCell ref="J14:O14"/>
+    <mergeCell ref="J15:O15"/>
+    <mergeCell ref="J16:O16"/>
+    <mergeCell ref="J17:O17"/>
+    <mergeCell ref="J18:O18"/>
+    <mergeCell ref="F24:O24"/>
+    <mergeCell ref="F25:O25"/>
+    <mergeCell ref="F61:O61"/>
+    <mergeCell ref="F165:O165"/>
+    <mergeCell ref="F166:O166"/>
+    <mergeCell ref="G167:O167"/>
+    <mergeCell ref="G168:O168"/>
+    <mergeCell ref="G169:O169"/>
+    <mergeCell ref="G170:O170"/>
+    <mergeCell ref="H171:O171"/>
+    <mergeCell ref="H172:O172"/>
+    <mergeCell ref="H173:O173"/>
+    <mergeCell ref="H174:O174"/>
+    <mergeCell ref="I175:O175"/>
+    <mergeCell ref="I176:O176"/>
+    <mergeCell ref="I177:O177"/>
+    <mergeCell ref="H178:O178"/>
+    <mergeCell ref="G179:O179"/>
+    <mergeCell ref="F180:O180"/>
+    <mergeCell ref="G182:O182"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <tabColor rgb="FF33691E"/>
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:AC41"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="L25" activeCellId="0" sqref="L25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="37" width="4.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="37" width="2.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="38" width="2.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="38" width="3.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="38" width="10.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="6" style="37" width="2.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="10" style="37" width="4.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="37" width="5.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="37" width="60.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="37" width="4.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="17" style="37" width="9.21"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="29" min="19" style="37" width="11.53"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40" t="s">
+        <v>137</v>
+      </c>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="42"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="43" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2" s="44" t="s">
+        <v>139</v>
+      </c>
+      <c r="D2" s="44" t="s">
+        <v>140</v>
+      </c>
+      <c r="E2" s="45" t="s">
+        <v>141</v>
+      </c>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="42"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="43"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="46" t="s">
+        <v>142</v>
+      </c>
+      <c r="F3" s="43" t="s">
+        <v>143</v>
+      </c>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="42"/>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="47" t="n">
+        <f aca="false">VINE!$A$25</f>
+        <v>21</v>
+      </c>
+      <c r="B4" s="48" t="s">
+        <v>256</v>
+      </c>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="49"/>
+      <c r="N4" s="49"/>
+      <c r="O4" s="49"/>
+      <c r="P4" s="41"/>
+      <c r="Q4" s="42"/>
+      <c r="AB4" s="50"/>
+      <c r="AC4" s="50"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="51"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="52" t="s">
+        <v>145</v>
+      </c>
+      <c r="D5" s="53" t="s">
+        <v>146</v>
+      </c>
+      <c r="E5" s="54" t="s">
+        <v>147</v>
+      </c>
+      <c r="F5" s="55" t="s">
+        <v>257</v>
+      </c>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="56"/>
+      <c r="L5" s="56"/>
+      <c r="M5" s="56"/>
+      <c r="N5" s="56"/>
+      <c r="O5" s="56"/>
+      <c r="P5" s="41"/>
+      <c r="Q5" s="42"/>
+      <c r="AB5" s="50"/>
+      <c r="AC5" s="50"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="51"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="56"/>
+      <c r="N6" s="56"/>
+      <c r="O6" s="56"/>
+      <c r="P6" s="41"/>
+      <c r="Q6" s="42"/>
+      <c r="AB6" s="50"/>
+      <c r="AC6" s="50"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="51"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="55" t="s">
+        <v>102</v>
+      </c>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="56"/>
+      <c r="M7" s="56"/>
+      <c r="N7" s="56"/>
+      <c r="O7" s="56"/>
+      <c r="P7" s="41"/>
+      <c r="Q7" s="42"/>
+      <c r="AB7" s="50"/>
+      <c r="AC7" s="50"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="51"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="55" t="s">
+        <v>103</v>
+      </c>
+      <c r="G8" s="56"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="56"/>
+      <c r="L8" s="56"/>
+      <c r="M8" s="56"/>
+      <c r="N8" s="56"/>
+      <c r="O8" s="56"/>
+      <c r="P8" s="41"/>
+      <c r="Q8" s="42"/>
+      <c r="AB8" s="50"/>
+      <c r="AC8" s="50"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="51"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="55" t="s">
+        <v>104</v>
+      </c>
+      <c r="G9" s="56"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="56"/>
+      <c r="M9" s="56"/>
+      <c r="N9" s="56"/>
+      <c r="O9" s="56"/>
+      <c r="P9" s="41"/>
+      <c r="Q9" s="42"/>
+      <c r="AB9" s="50"/>
+      <c r="AC9" s="50"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="51"/>
+      <c r="B10" s="51"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="55" t="s">
+        <v>105</v>
+      </c>
+      <c r="G10" s="56"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="56"/>
+      <c r="L10" s="56"/>
+      <c r="M10" s="56"/>
+      <c r="N10" s="56"/>
+      <c r="O10" s="56"/>
+      <c r="P10" s="41"/>
+      <c r="Q10" s="42"/>
+      <c r="AB10" s="50"/>
+      <c r="AC10" s="50"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="51"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="55" t="s">
+        <v>121</v>
+      </c>
+      <c r="G11" s="56"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="56"/>
+      <c r="M11" s="56"/>
+      <c r="N11" s="56"/>
+      <c r="O11" s="56"/>
+      <c r="P11" s="41"/>
+      <c r="Q11" s="42"/>
+      <c r="AB11" s="50"/>
+      <c r="AC11" s="50"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="51"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="56"/>
+      <c r="O12" s="56"/>
+      <c r="P12" s="41"/>
+      <c r="Q12" s="42"/>
+      <c r="AB12" s="50"/>
+      <c r="AC12" s="50"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="51"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="55" t="s">
+        <v>102</v>
+      </c>
+      <c r="G13" s="56"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="56"/>
+      <c r="M13" s="56"/>
+      <c r="N13" s="56"/>
+      <c r="O13" s="56"/>
+      <c r="P13" s="41"/>
+      <c r="Q13" s="42"/>
+      <c r="AB13" s="50"/>
+      <c r="AC13" s="50"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="51"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="55" t="s">
+        <v>178</v>
+      </c>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="56"/>
+      <c r="O14" s="56"/>
+      <c r="P14" s="41"/>
+      <c r="Q14" s="42"/>
+      <c r="AB14" s="50"/>
+      <c r="AC14" s="50"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="51"/>
+      <c r="B15" s="51"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="55" t="s">
+        <v>180</v>
+      </c>
+      <c r="G15" s="56"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="56"/>
+      <c r="L15" s="56"/>
+      <c r="M15" s="56"/>
+      <c r="N15" s="56"/>
+      <c r="O15" s="56"/>
+      <c r="P15" s="41"/>
+      <c r="Q15" s="42"/>
+      <c r="AB15" s="50"/>
+      <c r="AC15" s="50"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="51"/>
+      <c r="B16" s="51"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="55" t="s">
+        <v>182</v>
+      </c>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="56"/>
+      <c r="O16" s="56"/>
+      <c r="P16" s="41"/>
+      <c r="Q16" s="42"/>
+      <c r="AB16" s="50"/>
+      <c r="AC16" s="50"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="51"/>
+      <c r="B17" s="51"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="55" t="s">
+        <v>103</v>
+      </c>
+      <c r="G17" s="56"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="56"/>
+      <c r="M17" s="56"/>
+      <c r="N17" s="56"/>
+      <c r="O17" s="56"/>
+      <c r="P17" s="41"/>
+      <c r="Q17" s="42"/>
+      <c r="AB17" s="50"/>
+      <c r="AC17" s="50"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="51"/>
+      <c r="B18" s="51"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="55" t="s">
+        <v>104</v>
+      </c>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="56"/>
+      <c r="O18" s="56"/>
+      <c r="P18" s="41"/>
+      <c r="Q18" s="42"/>
+      <c r="AB18" s="50"/>
+      <c r="AC18" s="50"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="51"/>
+      <c r="B19" s="51"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="55" t="s">
+        <v>192</v>
+      </c>
+      <c r="G19" s="56"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="56"/>
+      <c r="L19" s="56"/>
+      <c r="M19" s="56"/>
+      <c r="N19" s="56"/>
+      <c r="O19" s="56"/>
+      <c r="P19" s="41"/>
+      <c r="Q19" s="42"/>
+      <c r="AB19" s="50"/>
+      <c r="AC19" s="50"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="51"/>
+      <c r="B20" s="51"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="55" t="s">
+        <v>105</v>
+      </c>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="56"/>
+      <c r="O20" s="56"/>
+      <c r="P20" s="41"/>
+      <c r="Q20" s="42"/>
+      <c r="AB20" s="50"/>
+      <c r="AC20" s="50"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="51"/>
+      <c r="B21" s="51"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="55" t="s">
+        <v>121</v>
+      </c>
+      <c r="G21" s="56"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="56"/>
+      <c r="K21" s="56"/>
+      <c r="L21" s="56"/>
+      <c r="M21" s="56"/>
+      <c r="N21" s="56"/>
+      <c r="O21" s="56"/>
+      <c r="P21" s="41"/>
+      <c r="Q21" s="42"/>
+      <c r="AB21" s="50"/>
+      <c r="AC21" s="50"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="51"/>
+      <c r="B22" s="51"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="55" t="s">
+        <v>122</v>
+      </c>
+      <c r="G22" s="56"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="56"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="56"/>
+      <c r="L22" s="56"/>
+      <c r="M22" s="56"/>
+      <c r="N22" s="56"/>
+      <c r="O22" s="56"/>
+      <c r="P22" s="41"/>
+      <c r="Q22" s="42"/>
+      <c r="AB22" s="50"/>
+      <c r="AC22" s="50"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="41"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="41"/>
+      <c r="M23" s="41"/>
+      <c r="N23" s="41"/>
+      <c r="O23" s="41"/>
+      <c r="P23" s="41"/>
+      <c r="Q23" s="42"/>
+      <c r="W23" s="50"/>
+      <c r="X23" s="50"/>
+      <c r="AB23" s="50"/>
+      <c r="AC23" s="50"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="42"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="109"/>
+      <c r="D24" s="109"/>
+      <c r="E24" s="109"/>
+      <c r="F24" s="110" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" s="110" t="n">
+        <v>1</v>
+      </c>
+      <c r="H24" s="110" t="n">
+        <v>2</v>
+      </c>
+      <c r="I24" s="110" t="n">
+        <v>3</v>
+      </c>
+      <c r="J24" s="110" t="n">
+        <v>4</v>
+      </c>
+      <c r="K24" s="110" t="n">
+        <v>5</v>
+      </c>
+      <c r="L24" s="110" t="n">
+        <v>6</v>
+      </c>
+      <c r="M24" s="110" t="n">
+        <v>7</v>
+      </c>
+      <c r="N24" s="110" t="n">
+        <v>8</v>
+      </c>
+      <c r="O24" s="110" t="n">
+        <v>9</v>
+      </c>
+      <c r="P24" s="42"/>
+      <c r="Q24" s="42"/>
+      <c r="W24" s="50"/>
+      <c r="X24" s="50"/>
+      <c r="AB24" s="50"/>
+      <c r="AC24" s="50"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W25" s="50"/>
+      <c r="X25" s="50"/>
+      <c r="AB25" s="50"/>
+      <c r="AC25" s="50"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W26" s="50"/>
+      <c r="X26" s="50"/>
+      <c r="AB26" s="50"/>
+      <c r="AC26" s="50"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W27" s="50"/>
+      <c r="X27" s="50"/>
+      <c r="AB27" s="50"/>
+      <c r="AC27" s="50"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W28" s="50"/>
+      <c r="X28" s="50"/>
+      <c r="AB28" s="50"/>
+      <c r="AC28" s="50"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W29" s="50"/>
+      <c r="X29" s="50"/>
+      <c r="AB29" s="50"/>
+      <c r="AC29" s="50"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W30" s="50"/>
+      <c r="X30" s="50"/>
+      <c r="AB30" s="50"/>
+      <c r="AC30" s="50"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W31" s="50"/>
+      <c r="X31" s="50"/>
+      <c r="AB31" s="50"/>
+      <c r="AC31" s="50"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W32" s="50"/>
+      <c r="X32" s="50"/>
+      <c r="AB32" s="50"/>
+      <c r="AC32" s="50"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W33" s="50"/>
+      <c r="X33" s="50"/>
+      <c r="AB33" s="50"/>
+      <c r="AC33" s="50"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W34" s="50"/>
+      <c r="X34" s="50"/>
+      <c r="AB34" s="50"/>
+      <c r="AC34" s="50"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W35" s="50"/>
+      <c r="X35" s="50"/>
+      <c r="AB35" s="50"/>
+      <c r="AC35" s="50"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W36" s="50"/>
+      <c r="X36" s="50"/>
+      <c r="AB36" s="50"/>
+      <c r="AC36" s="50"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W37" s="50"/>
+      <c r="X37" s="50"/>
+      <c r="AB37" s="50"/>
+      <c r="AC37" s="50"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W38" s="50"/>
+      <c r="X38" s="50"/>
+      <c r="AB38" s="50"/>
+      <c r="AC38" s="50"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W39" s="50"/>
+      <c r="X39" s="50"/>
+      <c r="AB39" s="50"/>
+      <c r="AC39" s="50"/>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W40" s="50"/>
+      <c r="X40" s="50"/>
+      <c r="AB40" s="50"/>
+      <c r="AC40" s="50"/>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W41" s="50"/>
+      <c r="X41" s="50"/>
+      <c r="AB41" s="50"/>
+      <c r="AC41" s="50"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:O1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:O2"/>
+    <mergeCell ref="F3:O3"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/designment/mvc-framework-document.xlsx
+++ b/designment/mvc-framework-document.xlsx
@@ -21,25 +21,25 @@
     <definedName function="false" hidden="false" localSheetId="0" name="MOD_0" vbProcedure="false">VINE!$A$1:$AA$233</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="MOD_0_COM" vbProcedure="false">VINE!$A$4:$AA$233</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="MOD_0_SUP" vbProcedure="false">VINE!$A$1:$AA$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="AREA" vbProcedure="false">VERS_0_Guide!$A$1:$P$185</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="LMN_0" vbProcedure="false">VERS_0_Guide!$F$1:$O$185</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="LMN_0_SUBSET" vbProcedure="false">VERS_0_Guide!$D$1:$D$185</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="LMN_0_SUPSET" vbProcedure="false">VERS_0_Guide!$C$1:$C$185</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="AREA" vbProcedure="false">VERS_0_Guide!$A$1:$P$199</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="LMN_0" vbProcedure="false">VERS_0_Guide!$F$1:$O$199</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="LMN_0_SUBSET" vbProcedure="false">VERS_0_Guide!$D$1:$D$199</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="LMN_0_SUPSET" vbProcedure="false">VERS_0_Guide!$C$1:$C$199</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="LMN_1" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="LMN_1_SUBSET" vbProcedure="false">VERS_0_Guide!$D$1:$D$185</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="LMN_1_SUPSET" vbProcedure="false">VERS_0_Guide!$C$1:$C$185</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="MOD_0" vbProcedure="false">VERS_0_Guide!$A$1:$P$185</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="MOD_0_COM" vbProcedure="false">VERS_0_Guide!$A$4:$P$185</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="LMN_1_SUBSET" vbProcedure="false">VERS_0_Guide!$D$1:$D$199</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="LMN_1_SUPSET" vbProcedure="false">VERS_0_Guide!$C$1:$C$199</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="MOD_0" vbProcedure="false">VERS_0_Guide!$A$1:$P$199</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="MOD_0_COM" vbProcedure="false">VERS_0_Guide!$A$4:$P$199</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="MOD_0_SUP" vbProcedure="false">VERS_0_Guide!$A$1:$P$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="AREA" vbProcedure="false">VERS_0_Classification!$A$1:$P$23</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="LMN_0" vbProcedure="false">VERS_0_Classification!$F$1:$O$23</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="LMN_0_SUBSET" vbProcedure="false">VERS_0_Classification!$D$1:$D$23</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="LMN_0_SUPSET" vbProcedure="false">VERS_0_Classification!$C$1:$C$23</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="AREA" vbProcedure="false">VERS_0_Classification!$A$1:$P$22</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="LMN_0" vbProcedure="false">VERS_0_Classification!$F$1:$O$22</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="LMN_0_SUBSET" vbProcedure="false">VERS_0_Classification!$D$1:$D$22</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="LMN_0_SUPSET" vbProcedure="false">VERS_0_Classification!$C$1:$C$22</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="LMN_1" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="LMN_1_SUBSET" vbProcedure="false">VERS_0_Classification!$D$1:$D$23</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="LMN_1_SUPSET" vbProcedure="false">VERS_0_Classification!$C$1:$C$23</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="MOD_0" vbProcedure="false">VERS_0_Classification!$A$1:$P$23</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="MOD_0_COM" vbProcedure="false">VERS_0_Classification!$A$4:$P$23</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="LMN_1_SUBSET" vbProcedure="false">VERS_0_Classification!$D$1:$D$22</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="LMN_1_SUPSET" vbProcedure="false">VERS_0_Classification!$C$1:$C$22</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="MOD_0" vbProcedure="false">VERS_0_Classification!$A$1:$P$22</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="MOD_0_COM" vbProcedure="false">VERS_0_Classification!$A$4:$P$22</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="MOD_0_SUP" vbProcedure="false">VERS_0_Classification!$A$1:$P$3</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2458" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2570" uniqueCount="272">
   <si>
     <t xml:space="preserve">fs</t>
   </si>
@@ -558,13 +558,16 @@
     <t xml:space="preserve">Overview</t>
   </si>
   <si>
-    <t xml:space="preserve">Ventilated DET Object Methods</t>
+    <t xml:space="preserve">Ordered Object/Array/Map Property Modifier Function Event Emissions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ventilated DET Object Modifier Functions</t>
   </si>
   <si>
     <t xml:space="preserve">**5** Object Property Modifier Functions</t>
   </si>
   <si>
-    <t xml:space="preserve">**10** Object Property Modifier Function Event Emissions</t>
+    <t xml:space="preserve">**9** Object Property Modifier Function Event Emissions</t>
   </si>
   <si>
     <t xml:space="preserve">####</t>
@@ -576,7 +579,7 @@
     <t xml:space="preserve">Object Assign</t>
   </si>
   <si>
-    <t xml:space="preserve">**4** Object Assign Events</t>
+    <t xml:space="preserve">**3** Object Assign Events</t>
   </si>
   <si>
     <t xml:space="preserve">#####</t>
@@ -585,22 +588,46 @@
     <t xml:space="preserve">1.1.</t>
   </si>
   <si>
+    <t xml:space="preserve">assignSourceProperty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">`assignSourceProperty` event occurs after each source property assignment to DET instance. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">```</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{</t>
+  </si>
+  <si>
+    <t xml:space="preserve">key,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">val,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">source,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">}</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.2.</t>
   </si>
   <si>
     <t xml:space="preserve">assignSource</t>
   </si>
   <si>
+    <t xml:space="preserve">`assignSource` event occurs after each source assignment to DET instance. </t>
+  </si>
+  <si>
     <t xml:space="preserve">1.3.</t>
   </si>
   <si>
-    <t xml:space="preserve">assignSourceProperty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">assignSourcePropertyKey</t>
+    <t xml:space="preserve">`assign` event occurs after all sources assigned to DET instance. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sources</t>
   </si>
   <si>
     <t xml:space="preserve">2.</t>
@@ -612,9 +639,61 @@
     <t xml:space="preserve">**1** Object Define Properties Event</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="FreeMono"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">**</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="FreeMono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">Triggers**</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="FreeMono"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Define Property Event</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">2.1.</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="FreeMono"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">`</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="FreeMono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">defineProperties` event occurs after all properties defined on DET instance. </t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">3.</t>
   </si>
   <si>
@@ -627,10 +706,16 @@
     <t xml:space="preserve">3.1.</t>
   </si>
   <si>
+    <t xml:space="preserve">definePropertyKey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">`definePropertyKey` event occurs after each property definition on DET instance. </t>
+  </si>
+  <si>
     <t xml:space="preserve">3.2.</t>
   </si>
   <si>
-    <t xml:space="preserve">definePropertyKey</t>
+    <t xml:space="preserve">`defineProperty` event occurs after all property key definitions on DET instance. </t>
   </si>
   <si>
     <t xml:space="preserve">4.</t>
@@ -645,6 +730,9 @@
     <t xml:space="preserve">4.1.</t>
   </si>
   <si>
+    <t xml:space="preserve">`freeze` event occurs after DET instance frozen. </t>
+  </si>
+  <si>
     <t xml:space="preserve">5.</t>
   </si>
   <si>
@@ -657,6 +745,9 @@
     <t xml:space="preserve">5.1.</t>
   </si>
   <si>
+    <t xml:space="preserve">`seal` event occurs after DET instance sealed. </t>
+  </si>
+  <si>
     <t xml:space="preserve">6.</t>
   </si>
   <si>
@@ -669,6 +760,9 @@
     <t xml:space="preserve">6.1.</t>
   </si>
   <si>
+    <t xml:space="preserve">`setPrototypeOf` event occurs after DET instance prototype is set. </t>
+  </si>
+  <si>
     <t xml:space="preserve">Ventilated DET Array Methods</t>
   </si>
   <si>
@@ -687,12 +781,12 @@
     <t xml:space="preserve">Fill</t>
   </si>
   <si>
+    <t xml:space="preserve">fillIndex</t>
+  </si>
+  <si>
     <t xml:space="preserve">2.2.</t>
   </si>
   <si>
-    <t xml:space="preserve">fillIndex</t>
-  </si>
-  <si>
     <t xml:space="preserve">Length</t>
   </si>
   <si>
@@ -702,12 +796,12 @@
     <t xml:space="preserve">Push</t>
   </si>
   <si>
+    <t xml:space="preserve">pushProp</t>
+  </si>
+  <si>
     <t xml:space="preserve">4.2.</t>
   </si>
   <si>
-    <t xml:space="preserve">pushProp</t>
-  </si>
-  <si>
     <t xml:space="preserve">Pop</t>
   </si>
   <si>
@@ -774,9 +868,6 @@
     <t xml:space="preserve">Example \#1 - Ventilated Object</t>
   </si>
   <si>
-    <t xml:space="preserve">```</t>
-  </si>
-  <si>
     <t xml:space="preserve">const object = new DynamicEventTarget({</t>
   </si>
   <si>
@@ -811,9 +902,6 @@
   </si>
   <si>
     <t xml:space="preserve">kkk: "111111"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">}</t>
   </si>
   <si>
     <t xml:space="preserve">})</t>
@@ -836,7 +924,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="General"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="21">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -965,8 +1053,28 @@
       <family val="3"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="16"/>
+      <name val="FreeMono"/>
+      <family val="3"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="14"/>
+      <name val="FreeMono"/>
+      <family val="3"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="FreeMono"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="39">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1179,6 +1287,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF5F5F5"/>
+        <bgColor rgb="FFFAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD1C4E9"/>
+        <bgColor rgb="FFBDBDBD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF512DA8"/>
         <bgColor rgb="FF5E35B1"/>
       </patternFill>
@@ -1381,7 +1501,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="130">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1690,8 +1810,40 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="30" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="18" fillId="26" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="26" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="26" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="30" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="30" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="30" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="30" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="31" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="31" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="32" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -1750,6 +1902,10 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="20" fillId="35" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="35" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1758,24 +1914,16 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="36" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="36" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="36" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="36" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="36" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="36" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="36" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="36" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="37" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -1794,27 +1942,75 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="37" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="37" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="38" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="38" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="38" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="38" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="20" fillId="28" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="17" fillId="38" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="38" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="38" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="38" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="38" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="39" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="39" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="39" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="39" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="39" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="40" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="40" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="40" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="40" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="40" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="40" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1871,7 +2067,7 @@
       <rgbColor rgb="FF4A148C"/>
       <rgbColor rgb="FFFFAB40"/>
       <rgbColor rgb="FF1D639D"/>
-      <rgbColor rgb="FFF3E5F5"/>
+      <rgbColor rgb="FFD1C4E9"/>
       <rgbColor rgb="FF512DA8"/>
       <rgbColor rgb="FFEC407A"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -1881,10 +2077,10 @@
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFF5F5F5"/>
+      <rgbColor rgb="FFF3E5F5"/>
+      <rgbColor rgb="FFFFE082"/>
       <rgbColor rgb="FFFCE4EC"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFE082"/>
-      <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFE5E05"/>
       <rgbColor rgb="FFAB47BC"/>
       <rgbColor rgb="FFFFDE8A"/>
@@ -15353,14 +15549,14 @@
     <tabColor rgb="FFD500F9"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AC203"/>
+  <dimension ref="A1:AC217"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="E24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="E17" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A24" activeCellId="0" sqref="A24"/>
-      <selection pane="bottomRight" activeCell="F38" activeCellId="0" sqref="F38"/>
+      <selection pane="bottomLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
+      <selection pane="bottomRight" activeCell="O38" activeCellId="0" sqref="O38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
@@ -15374,7 +15570,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="7" style="37" width="2.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="10" style="37" width="4.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="37" width="5.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="37" width="60.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="37" width="67.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="37" width="4.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="17" style="37" width="9.21"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="29" min="19" style="37" width="11.53"/>
@@ -15967,7 +16163,7 @@
       <c r="AB21" s="50"/>
       <c r="AC21" s="50"/>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="51"/>
       <c r="B22" s="51"/>
       <c r="C22" s="52" t="s">
@@ -15976,27 +16172,27 @@
       <c r="D22" s="53" t="s">
         <v>146</v>
       </c>
-      <c r="E22" s="54" t="s">
+      <c r="E22" s="77" t="s">
         <v>147</v>
       </c>
-      <c r="F22" s="55" t="s">
+      <c r="F22" s="78" t="s">
         <v>166</v>
       </c>
-      <c r="G22" s="56"/>
-      <c r="H22" s="56"/>
-      <c r="I22" s="56"/>
-      <c r="J22" s="56"/>
-      <c r="K22" s="56"/>
-      <c r="L22" s="56"/>
-      <c r="M22" s="56"/>
-      <c r="N22" s="56"/>
-      <c r="O22" s="56"/>
+      <c r="G22" s="79"/>
+      <c r="H22" s="79"/>
+      <c r="I22" s="79"/>
+      <c r="J22" s="79"/>
+      <c r="K22" s="79"/>
+      <c r="L22" s="79"/>
+      <c r="M22" s="79"/>
+      <c r="N22" s="79"/>
+      <c r="O22" s="79"/>
       <c r="P22" s="41"/>
       <c r="Q22" s="42"/>
       <c r="AB22" s="50"/>
       <c r="AC22" s="50"/>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="62"/>
       <c r="B23" s="62"/>
       <c r="C23" s="63" t="s">
@@ -16005,77 +16201,77 @@
       <c r="D23" s="64" t="s">
         <v>146</v>
       </c>
-      <c r="E23" s="65" t="s">
+      <c r="E23" s="80" t="s">
         <v>150</v>
       </c>
-      <c r="F23" s="66" t="s">
+      <c r="F23" s="81" t="s">
         <v>167</v>
       </c>
-      <c r="G23" s="67"/>
-      <c r="H23" s="67"/>
-      <c r="I23" s="67"/>
-      <c r="J23" s="67"/>
-      <c r="K23" s="67"/>
-      <c r="L23" s="67"/>
-      <c r="M23" s="67"/>
-      <c r="N23" s="67"/>
-      <c r="O23" s="77"/>
+      <c r="G23" s="82"/>
+      <c r="H23" s="82"/>
+      <c r="I23" s="82"/>
+      <c r="J23" s="82"/>
+      <c r="K23" s="82"/>
+      <c r="L23" s="82"/>
+      <c r="M23" s="82"/>
+      <c r="N23" s="82"/>
+      <c r="O23" s="83"/>
       <c r="P23" s="41"/>
       <c r="Q23" s="42"/>
       <c r="AB23" s="50"/>
       <c r="AC23" s="50"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="70"/>
-      <c r="B24" s="70"/>
-      <c r="C24" s="71" t="s">
+      <c r="A24" s="57"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="58" t="s">
         <v>145</v>
       </c>
-      <c r="D24" s="72" t="s">
+      <c r="D24" s="59" t="s">
         <v>146</v>
       </c>
-      <c r="E24" s="73" t="s">
-        <v>157</v>
-      </c>
-      <c r="F24" s="74" t="s">
+      <c r="E24" s="76"/>
+      <c r="F24" s="69" t="s">
         <v>168</v>
       </c>
-      <c r="G24" s="74"/>
-      <c r="H24" s="74"/>
-      <c r="I24" s="74"/>
-      <c r="J24" s="74"/>
-      <c r="K24" s="74"/>
-      <c r="L24" s="74"/>
-      <c r="M24" s="74"/>
-      <c r="N24" s="74"/>
-      <c r="O24" s="74"/>
+      <c r="G24" s="69"/>
+      <c r="H24" s="69"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="69"/>
+      <c r="K24" s="69"/>
+      <c r="L24" s="69"/>
+      <c r="M24" s="69"/>
+      <c r="N24" s="69"/>
+      <c r="O24" s="69"/>
       <c r="P24" s="41"/>
       <c r="Q24" s="42"/>
       <c r="AB24" s="50"/>
       <c r="AC24" s="50"/>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="57"/>
-      <c r="B25" s="57"/>
-      <c r="C25" s="58" t="s">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="70"/>
+      <c r="B25" s="70"/>
+      <c r="C25" s="71" t="s">
         <v>145</v>
       </c>
-      <c r="D25" s="59" t="s">
+      <c r="D25" s="72" t="s">
         <v>146</v>
       </c>
-      <c r="E25" s="76"/>
-      <c r="F25" s="69" t="s">
+      <c r="E25" s="84" t="s">
+        <v>157</v>
+      </c>
+      <c r="F25" s="85" t="s">
         <v>169</v>
       </c>
-      <c r="G25" s="69"/>
-      <c r="H25" s="69"/>
-      <c r="I25" s="69"/>
-      <c r="J25" s="69"/>
-      <c r="K25" s="69"/>
-      <c r="L25" s="69"/>
-      <c r="M25" s="69"/>
-      <c r="N25" s="69"/>
-      <c r="O25" s="69"/>
+      <c r="G25" s="85"/>
+      <c r="H25" s="85"/>
+      <c r="I25" s="85"/>
+      <c r="J25" s="85"/>
+      <c r="K25" s="85"/>
+      <c r="L25" s="85"/>
+      <c r="M25" s="85"/>
+      <c r="N25" s="85"/>
+      <c r="O25" s="85"/>
       <c r="P25" s="41"/>
       <c r="Q25" s="42"/>
       <c r="AB25" s="50"/>
@@ -16108,314 +16304,314 @@
       <c r="AB26" s="50"/>
       <c r="AC26" s="50"/>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="78"/>
-      <c r="B27" s="78"/>
-      <c r="C27" s="79" t="s">
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="57"/>
+      <c r="B27" s="57"/>
+      <c r="C27" s="58" t="s">
         <v>145</v>
       </c>
-      <c r="D27" s="80" t="s">
+      <c r="D27" s="59" t="s">
         <v>146</v>
       </c>
-      <c r="E27" s="81" t="s">
+      <c r="E27" s="76"/>
+      <c r="F27" s="69" t="s">
         <v>171</v>
       </c>
-      <c r="F27" s="82" t="s">
-        <v>172</v>
-      </c>
-      <c r="G27" s="83"/>
-      <c r="H27" s="83" t="s">
-        <v>173</v>
-      </c>
-      <c r="I27" s="83"/>
-      <c r="J27" s="83"/>
-      <c r="K27" s="83"/>
-      <c r="L27" s="83"/>
-      <c r="M27" s="84"/>
-      <c r="N27" s="85"/>
-      <c r="O27" s="85"/>
+      <c r="G27" s="69"/>
+      <c r="H27" s="69"/>
+      <c r="I27" s="69"/>
+      <c r="J27" s="69"/>
+      <c r="K27" s="69"/>
+      <c r="L27" s="69"/>
+      <c r="M27" s="69"/>
+      <c r="N27" s="69"/>
+      <c r="O27" s="69"/>
       <c r="P27" s="41"/>
       <c r="Q27" s="42"/>
       <c r="AB27" s="50"/>
       <c r="AC27" s="50"/>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="57"/>
-      <c r="B28" s="57"/>
-      <c r="C28" s="58" t="s">
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="86"/>
+      <c r="B28" s="86"/>
+      <c r="C28" s="87" t="s">
         <v>145</v>
       </c>
-      <c r="D28" s="59" t="s">
+      <c r="D28" s="88" t="s">
         <v>146</v>
       </c>
-      <c r="E28" s="76"/>
-      <c r="F28" s="69" t="s">
+      <c r="E28" s="89" t="s">
+        <v>172</v>
+      </c>
+      <c r="F28" s="90" t="s">
+        <v>173</v>
+      </c>
+      <c r="G28" s="91"/>
+      <c r="H28" s="91" t="s">
         <v>174</v>
       </c>
-      <c r="G28" s="69"/>
-      <c r="H28" s="69"/>
-      <c r="I28" s="69"/>
-      <c r="J28" s="69"/>
-      <c r="K28" s="69"/>
-      <c r="L28" s="69"/>
-      <c r="M28" s="69"/>
-      <c r="N28" s="69"/>
-      <c r="O28" s="69"/>
+      <c r="I28" s="91"/>
+      <c r="J28" s="91"/>
+      <c r="K28" s="91"/>
+      <c r="L28" s="91"/>
+      <c r="M28" s="92"/>
+      <c r="N28" s="93"/>
+      <c r="O28" s="93"/>
       <c r="P28" s="41"/>
       <c r="Q28" s="42"/>
       <c r="AB28" s="50"/>
       <c r="AC28" s="50"/>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="86"/>
-      <c r="B29" s="86"/>
-      <c r="C29" s="87" t="s">
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="57"/>
+      <c r="B29" s="57"/>
+      <c r="C29" s="58" t="s">
         <v>145</v>
       </c>
-      <c r="D29" s="88" t="s">
+      <c r="D29" s="59" t="s">
         <v>146</v>
       </c>
-      <c r="E29" s="89" t="s">
+      <c r="E29" s="76"/>
+      <c r="F29" s="69" t="s">
         <v>175</v>
       </c>
-      <c r="F29" s="90" t="s">
-        <v>176</v>
-      </c>
-      <c r="G29" s="91"/>
-      <c r="H29" s="91" t="s">
-        <v>102</v>
-      </c>
-      <c r="I29" s="91"/>
-      <c r="J29" s="91"/>
-      <c r="K29" s="91"/>
-      <c r="L29" s="91"/>
-      <c r="M29" s="92"/>
-      <c r="N29" s="93"/>
-      <c r="O29" s="93"/>
+      <c r="G29" s="69"/>
+      <c r="H29" s="69"/>
+      <c r="I29" s="69"/>
+      <c r="J29" s="69"/>
+      <c r="K29" s="69"/>
+      <c r="L29" s="69"/>
+      <c r="M29" s="69"/>
+      <c r="N29" s="69"/>
+      <c r="O29" s="69"/>
       <c r="P29" s="41"/>
       <c r="Q29" s="42"/>
       <c r="AB29" s="50"/>
       <c r="AC29" s="50"/>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="57"/>
-      <c r="B30" s="57"/>
-      <c r="C30" s="58" t="s">
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="94"/>
+      <c r="B30" s="94"/>
+      <c r="C30" s="95" t="s">
         <v>145</v>
       </c>
-      <c r="D30" s="59" t="s">
+      <c r="D30" s="96" t="s">
         <v>146</v>
       </c>
-      <c r="E30" s="76"/>
-      <c r="F30" s="69"/>
-      <c r="G30" s="69"/>
-      <c r="H30" s="69"/>
-      <c r="I30" s="69"/>
-      <c r="J30" s="69"/>
-      <c r="K30" s="69"/>
-      <c r="L30" s="69"/>
-      <c r="M30" s="69"/>
-      <c r="N30" s="69"/>
-      <c r="O30" s="69"/>
+      <c r="E30" s="97" t="s">
+        <v>176</v>
+      </c>
+      <c r="F30" s="98" t="s">
+        <v>177</v>
+      </c>
+      <c r="G30" s="99"/>
+      <c r="H30" s="100" t="s">
+        <v>178</v>
+      </c>
+      <c r="I30" s="99"/>
+      <c r="J30" s="99"/>
+      <c r="K30" s="99"/>
+      <c r="L30" s="99"/>
+      <c r="M30" s="101"/>
+      <c r="N30" s="102"/>
+      <c r="O30" s="102"/>
       <c r="P30" s="41"/>
       <c r="Q30" s="42"/>
       <c r="AB30" s="50"/>
       <c r="AC30" s="50"/>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="86"/>
-      <c r="B31" s="86"/>
-      <c r="C31" s="87" t="s">
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="57"/>
+      <c r="B31" s="57"/>
+      <c r="C31" s="58" t="s">
         <v>145</v>
       </c>
-      <c r="D31" s="88" t="s">
+      <c r="D31" s="59" t="s">
         <v>146</v>
       </c>
-      <c r="E31" s="89" t="s">
-        <v>175</v>
-      </c>
-      <c r="F31" s="90" t="s">
-        <v>177</v>
-      </c>
-      <c r="G31" s="91"/>
-      <c r="H31" s="91" t="s">
-        <v>178</v>
-      </c>
-      <c r="I31" s="91"/>
-      <c r="J31" s="91"/>
-      <c r="K31" s="91"/>
-      <c r="L31" s="91"/>
-      <c r="M31" s="92"/>
-      <c r="N31" s="93"/>
-      <c r="O31" s="93"/>
+      <c r="E31" s="76"/>
+      <c r="F31" s="69" t="s">
+        <v>179</v>
+      </c>
+      <c r="G31" s="69"/>
+      <c r="H31" s="69"/>
+      <c r="I31" s="69"/>
+      <c r="J31" s="69"/>
+      <c r="K31" s="69"/>
+      <c r="L31" s="69"/>
+      <c r="M31" s="69"/>
+      <c r="N31" s="69"/>
+      <c r="O31" s="69"/>
       <c r="P31" s="41"/>
       <c r="Q31" s="42"/>
       <c r="AB31" s="50"/>
       <c r="AC31" s="50"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="57"/>
-      <c r="B32" s="57"/>
-      <c r="C32" s="58" t="s">
+      <c r="A32" s="103"/>
+      <c r="B32" s="103"/>
+      <c r="C32" s="104" t="s">
         <v>145</v>
       </c>
-      <c r="D32" s="59" t="s">
+      <c r="D32" s="105" t="s">
         <v>146</v>
       </c>
-      <c r="E32" s="76"/>
-      <c r="F32" s="69"/>
-      <c r="G32" s="69"/>
-      <c r="H32" s="69"/>
-      <c r="I32" s="69"/>
-      <c r="J32" s="69"/>
-      <c r="K32" s="69"/>
-      <c r="L32" s="69"/>
-      <c r="M32" s="69"/>
-      <c r="N32" s="69"/>
-      <c r="O32" s="69"/>
+      <c r="E32" s="106" t="s">
+        <v>180</v>
+      </c>
+      <c r="F32" s="107" t="s">
+        <v>181</v>
+      </c>
+      <c r="G32" s="108"/>
+      <c r="H32" s="108"/>
+      <c r="I32" s="108"/>
+      <c r="J32" s="108"/>
+      <c r="K32" s="108"/>
+      <c r="L32" s="108"/>
+      <c r="M32" s="109"/>
+      <c r="N32" s="110"/>
+      <c r="O32" s="110"/>
       <c r="P32" s="41"/>
       <c r="Q32" s="42"/>
       <c r="AB32" s="50"/>
       <c r="AC32" s="50"/>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="86"/>
-      <c r="B33" s="86"/>
-      <c r="C33" s="87" t="s">
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="103"/>
+      <c r="B33" s="103"/>
+      <c r="C33" s="104" t="s">
         <v>145</v>
       </c>
-      <c r="D33" s="88" t="s">
+      <c r="D33" s="105" t="s">
         <v>146</v>
       </c>
-      <c r="E33" s="89" t="s">
-        <v>175</v>
-      </c>
-      <c r="F33" s="90" t="s">
-        <v>179</v>
-      </c>
-      <c r="G33" s="91"/>
-      <c r="H33" s="91" t="s">
-        <v>180</v>
-      </c>
-      <c r="I33" s="91"/>
-      <c r="J33" s="91"/>
-      <c r="K33" s="91"/>
-      <c r="L33" s="91"/>
-      <c r="M33" s="92"/>
-      <c r="N33" s="93"/>
-      <c r="O33" s="93"/>
+      <c r="E33" s="106"/>
+      <c r="F33" s="107"/>
+      <c r="G33" s="108" t="s">
+        <v>182</v>
+      </c>
+      <c r="H33" s="108"/>
+      <c r="I33" s="108"/>
+      <c r="J33" s="108"/>
+      <c r="K33" s="108"/>
+      <c r="L33" s="108"/>
+      <c r="M33" s="109"/>
+      <c r="N33" s="110"/>
+      <c r="O33" s="110"/>
       <c r="P33" s="41"/>
       <c r="Q33" s="42"/>
       <c r="AB33" s="50"/>
       <c r="AC33" s="50"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="57"/>
-      <c r="B34" s="57"/>
-      <c r="C34" s="58" t="s">
+      <c r="A34" s="103"/>
+      <c r="B34" s="103"/>
+      <c r="C34" s="104" t="s">
         <v>145</v>
       </c>
-      <c r="D34" s="59" t="s">
+      <c r="D34" s="105" t="s">
         <v>146</v>
       </c>
-      <c r="E34" s="76"/>
-      <c r="F34" s="69"/>
-      <c r="G34" s="69"/>
-      <c r="H34" s="69"/>
-      <c r="I34" s="69"/>
-      <c r="J34" s="69"/>
-      <c r="K34" s="69"/>
-      <c r="L34" s="69"/>
-      <c r="M34" s="69"/>
-      <c r="N34" s="69"/>
-      <c r="O34" s="69"/>
+      <c r="E34" s="106"/>
+      <c r="F34" s="107"/>
+      <c r="G34" s="108" t="s">
+        <v>183</v>
+      </c>
+      <c r="H34" s="108"/>
+      <c r="I34" s="108"/>
+      <c r="J34" s="108"/>
+      <c r="K34" s="108"/>
+      <c r="L34" s="108"/>
+      <c r="M34" s="109"/>
+      <c r="N34" s="110"/>
+      <c r="O34" s="110"/>
       <c r="P34" s="41"/>
       <c r="Q34" s="42"/>
       <c r="AB34" s="50"/>
       <c r="AC34" s="50"/>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="86"/>
-      <c r="B35" s="86"/>
-      <c r="C35" s="87" t="s">
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="103"/>
+      <c r="B35" s="103"/>
+      <c r="C35" s="104" t="s">
         <v>145</v>
       </c>
-      <c r="D35" s="88" t="s">
+      <c r="D35" s="105" t="s">
         <v>146</v>
       </c>
-      <c r="E35" s="89" t="s">
-        <v>175</v>
-      </c>
-      <c r="F35" s="90" t="s">
-        <v>181</v>
-      </c>
-      <c r="G35" s="91"/>
-      <c r="H35" s="91" t="s">
-        <v>182</v>
-      </c>
-      <c r="I35" s="91"/>
-      <c r="J35" s="91"/>
-      <c r="K35" s="91"/>
-      <c r="L35" s="91"/>
-      <c r="M35" s="92"/>
-      <c r="N35" s="93"/>
-      <c r="O35" s="93"/>
+      <c r="E35" s="106"/>
+      <c r="F35" s="107"/>
+      <c r="G35" s="108" t="s">
+        <v>184</v>
+      </c>
+      <c r="H35" s="108"/>
+      <c r="I35" s="108"/>
+      <c r="J35" s="108"/>
+      <c r="K35" s="108"/>
+      <c r="L35" s="108"/>
+      <c r="M35" s="109"/>
+      <c r="N35" s="110"/>
+      <c r="O35" s="110"/>
       <c r="P35" s="41"/>
       <c r="Q35" s="42"/>
       <c r="AB35" s="50"/>
       <c r="AC35" s="50"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="57"/>
-      <c r="B36" s="57"/>
-      <c r="C36" s="58" t="s">
+      <c r="A36" s="103"/>
+      <c r="B36" s="103"/>
+      <c r="C36" s="104" t="s">
         <v>145</v>
       </c>
-      <c r="D36" s="59" t="s">
+      <c r="D36" s="105" t="s">
         <v>146</v>
       </c>
-      <c r="E36" s="76"/>
-      <c r="F36" s="69"/>
-      <c r="G36" s="69"/>
-      <c r="H36" s="69"/>
-      <c r="I36" s="69"/>
-      <c r="J36" s="69"/>
-      <c r="K36" s="69"/>
-      <c r="L36" s="69"/>
-      <c r="M36" s="69"/>
-      <c r="N36" s="69"/>
-      <c r="O36" s="69"/>
+      <c r="E36" s="106" t="s">
+        <v>180</v>
+      </c>
+      <c r="F36" s="107" t="s">
+        <v>185</v>
+      </c>
+      <c r="G36" s="108"/>
+      <c r="H36" s="108"/>
+      <c r="I36" s="108"/>
+      <c r="J36" s="108"/>
+      <c r="K36" s="108"/>
+      <c r="L36" s="108"/>
+      <c r="M36" s="109"/>
+      <c r="N36" s="110"/>
+      <c r="O36" s="110"/>
       <c r="P36" s="41"/>
       <c r="Q36" s="42"/>
       <c r="AB36" s="50"/>
       <c r="AC36" s="50"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="78"/>
-      <c r="B37" s="78"/>
-      <c r="C37" s="79" t="s">
+      <c r="A37" s="94"/>
+      <c r="B37" s="94"/>
+      <c r="C37" s="95" t="s">
         <v>145</v>
       </c>
-      <c r="D37" s="80" t="s">
+      <c r="D37" s="96" t="s">
         <v>146</v>
       </c>
-      <c r="E37" s="81" t="s">
-        <v>171</v>
-      </c>
-      <c r="F37" s="82" t="s">
-        <v>183</v>
-      </c>
-      <c r="G37" s="83"/>
-      <c r="H37" s="83" t="s">
-        <v>184</v>
-      </c>
-      <c r="I37" s="83"/>
-      <c r="J37" s="83"/>
-      <c r="K37" s="83"/>
-      <c r="L37" s="83"/>
-      <c r="M37" s="84"/>
-      <c r="N37" s="85"/>
-      <c r="O37" s="85"/>
+      <c r="E37" s="97" t="s">
+        <v>176</v>
+      </c>
+      <c r="F37" s="98" t="s">
+        <v>186</v>
+      </c>
+      <c r="G37" s="99"/>
+      <c r="H37" s="99" t="s">
+        <v>187</v>
+      </c>
+      <c r="I37" s="99"/>
+      <c r="J37" s="99"/>
+      <c r="K37" s="99"/>
+      <c r="L37" s="99"/>
+      <c r="M37" s="101"/>
+      <c r="N37" s="102"/>
+      <c r="O37" s="102"/>
       <c r="P37" s="41"/>
       <c r="Q37" s="42"/>
       <c r="AB37" s="50"/>
@@ -16432,7 +16628,7 @@
       </c>
       <c r="E38" s="76"/>
       <c r="F38" s="69" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="G38" s="69"/>
       <c r="H38" s="69"/>
@@ -16448,32 +16644,26 @@
       <c r="AB38" s="50"/>
       <c r="AC38" s="50"/>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="86"/>
-      <c r="B39" s="86"/>
-      <c r="C39" s="87" t="s">
-        <v>145</v>
-      </c>
-      <c r="D39" s="88" t="s">
-        <v>146</v>
-      </c>
-      <c r="E39" s="89" t="s">
-        <v>175</v>
-      </c>
-      <c r="F39" s="90" t="s">
-        <v>186</v>
-      </c>
-      <c r="G39" s="91"/>
-      <c r="H39" s="91" t="s">
-        <v>103</v>
-      </c>
-      <c r="I39" s="91"/>
-      <c r="J39" s="91"/>
-      <c r="K39" s="91"/>
-      <c r="L39" s="91"/>
-      <c r="M39" s="92"/>
-      <c r="N39" s="93"/>
-      <c r="O39" s="93"/>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="57"/>
+      <c r="B39" s="57"/>
+      <c r="C39" s="58"/>
+      <c r="D39" s="59"/>
+      <c r="E39" s="106" t="s">
+        <v>180</v>
+      </c>
+      <c r="F39" s="107" t="s">
+        <v>181</v>
+      </c>
+      <c r="G39" s="108"/>
+      <c r="H39" s="108"/>
+      <c r="I39" s="108"/>
+      <c r="J39" s="108"/>
+      <c r="K39" s="108"/>
+      <c r="L39" s="108"/>
+      <c r="M39" s="109"/>
+      <c r="N39" s="110"/>
+      <c r="O39" s="110"/>
       <c r="P39" s="41"/>
       <c r="Q39" s="42"/>
       <c r="AB39" s="50"/>
@@ -16482,23 +16672,21 @@
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="57"/>
       <c r="B40" s="57"/>
-      <c r="C40" s="58" t="s">
-        <v>145</v>
-      </c>
-      <c r="D40" s="59" t="s">
-        <v>146</v>
-      </c>
-      <c r="E40" s="76"/>
-      <c r="F40" s="69"/>
-      <c r="G40" s="69"/>
-      <c r="H40" s="69"/>
-      <c r="I40" s="69"/>
-      <c r="J40" s="69"/>
-      <c r="K40" s="69"/>
-      <c r="L40" s="69"/>
-      <c r="M40" s="69"/>
-      <c r="N40" s="69"/>
-      <c r="O40" s="69"/>
+      <c r="C40" s="58"/>
+      <c r="D40" s="59"/>
+      <c r="E40" s="106"/>
+      <c r="F40" s="107"/>
+      <c r="G40" s="108" t="s">
+        <v>184</v>
+      </c>
+      <c r="H40" s="108"/>
+      <c r="I40" s="108"/>
+      <c r="J40" s="108"/>
+      <c r="K40" s="108"/>
+      <c r="L40" s="108"/>
+      <c r="M40" s="109"/>
+      <c r="N40" s="110"/>
+      <c r="O40" s="110"/>
       <c r="P40" s="41"/>
       <c r="Q40" s="42"/>
       <c r="AB40" s="50"/>
@@ -16507,54 +16695,54 @@
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="57"/>
       <c r="B41" s="57"/>
-      <c r="C41" s="58" t="s">
-        <v>145</v>
-      </c>
-      <c r="D41" s="59" t="s">
-        <v>146</v>
-      </c>
-      <c r="E41" s="76"/>
-      <c r="F41" s="69"/>
-      <c r="G41" s="69"/>
-      <c r="H41" s="69"/>
-      <c r="I41" s="69"/>
-      <c r="J41" s="69"/>
-      <c r="K41" s="69"/>
-      <c r="L41" s="69"/>
-      <c r="M41" s="69"/>
-      <c r="N41" s="69"/>
-      <c r="O41" s="69"/>
+      <c r="C41" s="58"/>
+      <c r="D41" s="59"/>
+      <c r="E41" s="106" t="s">
+        <v>180</v>
+      </c>
+      <c r="F41" s="107" t="s">
+        <v>185</v>
+      </c>
+      <c r="G41" s="108"/>
+      <c r="H41" s="108"/>
+      <c r="I41" s="108"/>
+      <c r="J41" s="108"/>
+      <c r="K41" s="108"/>
+      <c r="L41" s="108"/>
+      <c r="M41" s="109"/>
+      <c r="N41" s="110"/>
+      <c r="O41" s="110"/>
       <c r="P41" s="41"/>
       <c r="Q41" s="42"/>
       <c r="AB41" s="50"/>
       <c r="AC41" s="50"/>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="78"/>
-      <c r="B42" s="78"/>
-      <c r="C42" s="79" t="s">
+      <c r="A42" s="94"/>
+      <c r="B42" s="94"/>
+      <c r="C42" s="95" t="s">
         <v>145</v>
       </c>
-      <c r="D42" s="80" t="s">
+      <c r="D42" s="96" t="s">
         <v>146</v>
       </c>
-      <c r="E42" s="81" t="s">
-        <v>171</v>
-      </c>
-      <c r="F42" s="82" t="s">
-        <v>187</v>
-      </c>
-      <c r="G42" s="83"/>
-      <c r="H42" s="83" t="s">
-        <v>188</v>
-      </c>
-      <c r="I42" s="83"/>
-      <c r="J42" s="83"/>
-      <c r="K42" s="83"/>
-      <c r="L42" s="83"/>
-      <c r="M42" s="84"/>
-      <c r="N42" s="85"/>
-      <c r="O42" s="85"/>
+      <c r="E42" s="97" t="s">
+        <v>176</v>
+      </c>
+      <c r="F42" s="98" t="s">
+        <v>189</v>
+      </c>
+      <c r="G42" s="99"/>
+      <c r="H42" s="100" t="s">
+        <v>102</v>
+      </c>
+      <c r="I42" s="99"/>
+      <c r="J42" s="99"/>
+      <c r="K42" s="99"/>
+      <c r="L42" s="99"/>
+      <c r="M42" s="101"/>
+      <c r="N42" s="102"/>
+      <c r="O42" s="102"/>
       <c r="P42" s="41"/>
       <c r="Q42" s="42"/>
       <c r="AB42" s="50"/>
@@ -16571,7 +16759,7 @@
       </c>
       <c r="E43" s="76"/>
       <c r="F43" s="69" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G43" s="69"/>
       <c r="H43" s="69"/>
@@ -16587,32 +16775,26 @@
       <c r="AB43" s="50"/>
       <c r="AC43" s="50"/>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="86"/>
-      <c r="B44" s="86"/>
-      <c r="C44" s="87" t="s">
-        <v>145</v>
-      </c>
-      <c r="D44" s="88" t="s">
-        <v>146</v>
-      </c>
-      <c r="E44" s="89" t="s">
-        <v>175</v>
-      </c>
-      <c r="F44" s="90" t="s">
-        <v>190</v>
-      </c>
-      <c r="G44" s="91"/>
-      <c r="H44" s="91" t="s">
-        <v>104</v>
-      </c>
-      <c r="I44" s="91"/>
-      <c r="J44" s="91"/>
-      <c r="K44" s="91"/>
-      <c r="L44" s="91"/>
-      <c r="M44" s="92"/>
-      <c r="N44" s="93"/>
-      <c r="O44" s="93"/>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="57"/>
+      <c r="B44" s="57"/>
+      <c r="C44" s="58"/>
+      <c r="D44" s="59"/>
+      <c r="E44" s="106" t="s">
+        <v>180</v>
+      </c>
+      <c r="F44" s="107" t="s">
+        <v>181</v>
+      </c>
+      <c r="G44" s="108"/>
+      <c r="H44" s="108"/>
+      <c r="I44" s="108"/>
+      <c r="J44" s="108"/>
+      <c r="K44" s="108"/>
+      <c r="L44" s="108"/>
+      <c r="M44" s="109"/>
+      <c r="N44" s="110"/>
+      <c r="O44" s="110"/>
       <c r="P44" s="41"/>
       <c r="Q44" s="42"/>
       <c r="AB44" s="50"/>
@@ -16621,110 +16803,104 @@
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="57"/>
       <c r="B45" s="57"/>
-      <c r="C45" s="58" t="s">
-        <v>145</v>
-      </c>
-      <c r="D45" s="59" t="s">
-        <v>146</v>
-      </c>
-      <c r="E45" s="76"/>
-      <c r="F45" s="69"/>
-      <c r="G45" s="69"/>
-      <c r="H45" s="69"/>
-      <c r="I45" s="69"/>
-      <c r="J45" s="69"/>
-      <c r="K45" s="69"/>
-      <c r="L45" s="69"/>
-      <c r="M45" s="69"/>
-      <c r="N45" s="69"/>
-      <c r="O45" s="69"/>
+      <c r="C45" s="58"/>
+      <c r="D45" s="59"/>
+      <c r="E45" s="106"/>
+      <c r="F45" s="107"/>
+      <c r="G45" s="108" t="s">
+        <v>191</v>
+      </c>
+      <c r="H45" s="108"/>
+      <c r="I45" s="108"/>
+      <c r="J45" s="108"/>
+      <c r="K45" s="108"/>
+      <c r="L45" s="108"/>
+      <c r="M45" s="109"/>
+      <c r="N45" s="110"/>
+      <c r="O45" s="110"/>
       <c r="P45" s="41"/>
       <c r="Q45" s="42"/>
       <c r="AB45" s="50"/>
       <c r="AC45" s="50"/>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="86"/>
-      <c r="B46" s="86"/>
-      <c r="C46" s="87" t="s">
-        <v>145</v>
-      </c>
-      <c r="D46" s="88" t="s">
-        <v>146</v>
-      </c>
-      <c r="E46" s="89" t="s">
-        <v>175</v>
-      </c>
-      <c r="F46" s="90" t="s">
-        <v>191</v>
-      </c>
-      <c r="G46" s="91"/>
-      <c r="H46" s="91" t="s">
-        <v>192</v>
-      </c>
-      <c r="I46" s="91"/>
-      <c r="J46" s="91"/>
-      <c r="K46" s="91"/>
-      <c r="L46" s="91"/>
-      <c r="M46" s="92"/>
-      <c r="N46" s="93"/>
-      <c r="O46" s="93"/>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="57"/>
+      <c r="B46" s="57"/>
+      <c r="C46" s="58"/>
+      <c r="D46" s="59"/>
+      <c r="E46" s="106" t="s">
+        <v>180</v>
+      </c>
+      <c r="F46" s="107" t="s">
+        <v>185</v>
+      </c>
+      <c r="G46" s="108"/>
+      <c r="H46" s="108"/>
+      <c r="I46" s="108"/>
+      <c r="J46" s="108"/>
+      <c r="K46" s="108"/>
+      <c r="L46" s="108"/>
+      <c r="M46" s="109"/>
+      <c r="N46" s="110"/>
+      <c r="O46" s="110"/>
       <c r="P46" s="41"/>
       <c r="Q46" s="42"/>
       <c r="AB46" s="50"/>
       <c r="AC46" s="50"/>
     </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="57"/>
-      <c r="B47" s="57"/>
-      <c r="C47" s="58" t="s">
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="86"/>
+      <c r="B47" s="86"/>
+      <c r="C47" s="87" t="s">
         <v>145</v>
       </c>
-      <c r="D47" s="59" t="s">
+      <c r="D47" s="88" t="s">
         <v>146</v>
       </c>
-      <c r="E47" s="76"/>
-      <c r="F47" s="69"/>
-      <c r="G47" s="69"/>
-      <c r="H47" s="69"/>
-      <c r="I47" s="69"/>
-      <c r="J47" s="69"/>
-      <c r="K47" s="69"/>
-      <c r="L47" s="69"/>
-      <c r="M47" s="69"/>
-      <c r="N47" s="69"/>
-      <c r="O47" s="69"/>
+      <c r="E47" s="89" t="s">
+        <v>172</v>
+      </c>
+      <c r="F47" s="90" t="s">
+        <v>192</v>
+      </c>
+      <c r="G47" s="91"/>
+      <c r="H47" s="91" t="s">
+        <v>193</v>
+      </c>
+      <c r="I47" s="91"/>
+      <c r="J47" s="91"/>
+      <c r="K47" s="91"/>
+      <c r="L47" s="91"/>
+      <c r="M47" s="92"/>
+      <c r="N47" s="93"/>
+      <c r="O47" s="93"/>
       <c r="P47" s="41"/>
       <c r="Q47" s="42"/>
       <c r="AB47" s="50"/>
       <c r="AC47" s="50"/>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="78"/>
-      <c r="B48" s="78"/>
-      <c r="C48" s="79" t="s">
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="57"/>
+      <c r="B48" s="57"/>
+      <c r="C48" s="58" t="s">
         <v>145</v>
       </c>
-      <c r="D48" s="80" t="s">
+      <c r="D48" s="59" t="s">
         <v>146</v>
       </c>
-      <c r="E48" s="81" t="s">
-        <v>171</v>
-      </c>
-      <c r="F48" s="82" t="s">
-        <v>193</v>
-      </c>
-      <c r="G48" s="83"/>
-      <c r="H48" s="83" t="s">
+      <c r="E48" s="76"/>
+      <c r="F48" s="69" t="s">
         <v>194</v>
       </c>
-      <c r="I48" s="83"/>
-      <c r="J48" s="83"/>
-      <c r="K48" s="83"/>
-      <c r="L48" s="83"/>
-      <c r="M48" s="84"/>
-      <c r="N48" s="85"/>
-      <c r="O48" s="85"/>
+      <c r="G48" s="69"/>
+      <c r="H48" s="69"/>
+      <c r="I48" s="69"/>
+      <c r="J48" s="69"/>
+      <c r="K48" s="69"/>
+      <c r="L48" s="69"/>
+      <c r="M48" s="69"/>
+      <c r="N48" s="69"/>
+      <c r="O48" s="69"/>
       <c r="P48" s="41"/>
       <c r="Q48" s="42"/>
       <c r="AB48" s="50"/>
@@ -16758,31 +16934,31 @@
       <c r="AC49" s="50"/>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="86"/>
-      <c r="B50" s="86"/>
-      <c r="C50" s="87" t="s">
+      <c r="A50" s="94"/>
+      <c r="B50" s="94"/>
+      <c r="C50" s="95" t="s">
         <v>145</v>
       </c>
-      <c r="D50" s="88" t="s">
+      <c r="D50" s="96" t="s">
         <v>146</v>
       </c>
-      <c r="E50" s="89" t="s">
-        <v>175</v>
-      </c>
-      <c r="F50" s="90" t="s">
+      <c r="E50" s="97" t="s">
+        <v>176</v>
+      </c>
+      <c r="F50" s="98" t="s">
         <v>196</v>
       </c>
-      <c r="G50" s="91"/>
-      <c r="H50" s="91" t="s">
-        <v>105</v>
-      </c>
-      <c r="I50" s="91"/>
-      <c r="J50" s="91"/>
-      <c r="K50" s="91"/>
-      <c r="L50" s="91"/>
-      <c r="M50" s="92"/>
-      <c r="N50" s="93"/>
-      <c r="O50" s="93"/>
+      <c r="G50" s="99"/>
+      <c r="H50" s="99" t="s">
+        <v>103</v>
+      </c>
+      <c r="I50" s="99"/>
+      <c r="J50" s="99"/>
+      <c r="K50" s="99"/>
+      <c r="L50" s="99"/>
+      <c r="M50" s="101"/>
+      <c r="N50" s="102"/>
+      <c r="O50" s="102"/>
       <c r="P50" s="41"/>
       <c r="Q50" s="42"/>
       <c r="AB50" s="50"/>
@@ -16798,7 +16974,9 @@
         <v>146</v>
       </c>
       <c r="E51" s="76"/>
-      <c r="F51" s="69"/>
+      <c r="F51" s="69" t="s">
+        <v>197</v>
+      </c>
       <c r="G51" s="69"/>
       <c r="H51" s="69"/>
       <c r="I51" s="69"/>
@@ -16814,31 +16992,31 @@
       <c r="AC51" s="50"/>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="78"/>
-      <c r="B52" s="78"/>
-      <c r="C52" s="79" t="s">
+      <c r="A52" s="86"/>
+      <c r="B52" s="86"/>
+      <c r="C52" s="87" t="s">
         <v>145</v>
       </c>
-      <c r="D52" s="80" t="s">
+      <c r="D52" s="88" t="s">
         <v>146</v>
       </c>
-      <c r="E52" s="81" t="s">
-        <v>171</v>
-      </c>
-      <c r="F52" s="82" t="s">
-        <v>197</v>
-      </c>
-      <c r="G52" s="83"/>
-      <c r="H52" s="83" t="s">
+      <c r="E52" s="89" t="s">
+        <v>172</v>
+      </c>
+      <c r="F52" s="90" t="s">
         <v>198</v>
       </c>
-      <c r="I52" s="83"/>
-      <c r="J52" s="83"/>
-      <c r="K52" s="83"/>
-      <c r="L52" s="83"/>
-      <c r="M52" s="84"/>
-      <c r="N52" s="85"/>
-      <c r="O52" s="85"/>
+      <c r="G52" s="91"/>
+      <c r="H52" s="91" t="s">
+        <v>199</v>
+      </c>
+      <c r="I52" s="91"/>
+      <c r="J52" s="91"/>
+      <c r="K52" s="91"/>
+      <c r="L52" s="91"/>
+      <c r="M52" s="92"/>
+      <c r="N52" s="93"/>
+      <c r="O52" s="93"/>
       <c r="P52" s="41"/>
       <c r="Q52" s="42"/>
       <c r="AB52" s="50"/>
@@ -16855,7 +17033,7 @@
       </c>
       <c r="E53" s="76"/>
       <c r="F53" s="69" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G53" s="69"/>
       <c r="H53" s="69"/>
@@ -16872,31 +17050,31 @@
       <c r="AC53" s="50"/>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="86"/>
-      <c r="B54" s="86"/>
-      <c r="C54" s="87" t="s">
+      <c r="A54" s="94"/>
+      <c r="B54" s="94"/>
+      <c r="C54" s="95" t="s">
         <v>145</v>
       </c>
-      <c r="D54" s="88" t="s">
+      <c r="D54" s="96" t="s">
         <v>146</v>
       </c>
-      <c r="E54" s="89" t="s">
-        <v>175</v>
-      </c>
-      <c r="F54" s="90" t="s">
-        <v>200</v>
-      </c>
-      <c r="G54" s="91"/>
-      <c r="H54" s="91" t="s">
-        <v>121</v>
-      </c>
-      <c r="I54" s="91"/>
-      <c r="J54" s="91"/>
-      <c r="K54" s="91"/>
-      <c r="L54" s="91"/>
-      <c r="M54" s="92"/>
-      <c r="N54" s="93"/>
-      <c r="O54" s="93"/>
+      <c r="E54" s="97" t="s">
+        <v>176</v>
+      </c>
+      <c r="F54" s="98" t="s">
+        <v>201</v>
+      </c>
+      <c r="G54" s="99"/>
+      <c r="H54" s="99" t="s">
+        <v>202</v>
+      </c>
+      <c r="I54" s="99"/>
+      <c r="J54" s="99"/>
+      <c r="K54" s="99"/>
+      <c r="L54" s="99"/>
+      <c r="M54" s="101"/>
+      <c r="N54" s="102"/>
+      <c r="O54" s="102"/>
       <c r="P54" s="41"/>
       <c r="Q54" s="42"/>
       <c r="AB54" s="50"/>
@@ -16912,7 +17090,9 @@
         <v>146</v>
       </c>
       <c r="E55" s="76"/>
-      <c r="F55" s="69"/>
+      <c r="F55" s="69" t="s">
+        <v>203</v>
+      </c>
       <c r="G55" s="69"/>
       <c r="H55" s="69"/>
       <c r="I55" s="69"/>
@@ -16928,31 +17108,31 @@
       <c r="AC55" s="50"/>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="78"/>
-      <c r="B56" s="78"/>
-      <c r="C56" s="79" t="s">
+      <c r="A56" s="94"/>
+      <c r="B56" s="94"/>
+      <c r="C56" s="95" t="s">
         <v>145</v>
       </c>
-      <c r="D56" s="80" t="s">
+      <c r="D56" s="96" t="s">
         <v>146</v>
       </c>
-      <c r="E56" s="81" t="s">
-        <v>171</v>
-      </c>
-      <c r="F56" s="82" t="s">
-        <v>201</v>
-      </c>
-      <c r="G56" s="83"/>
-      <c r="H56" s="83" t="s">
-        <v>202</v>
-      </c>
-      <c r="I56" s="83"/>
-      <c r="J56" s="83"/>
-      <c r="K56" s="83"/>
-      <c r="L56" s="83"/>
-      <c r="M56" s="84"/>
-      <c r="N56" s="85"/>
-      <c r="O56" s="85"/>
+      <c r="E56" s="97" t="s">
+        <v>176</v>
+      </c>
+      <c r="F56" s="98" t="s">
+        <v>204</v>
+      </c>
+      <c r="G56" s="99"/>
+      <c r="H56" s="99" t="s">
+        <v>104</v>
+      </c>
+      <c r="I56" s="99"/>
+      <c r="J56" s="99"/>
+      <c r="K56" s="99"/>
+      <c r="L56" s="99"/>
+      <c r="M56" s="101"/>
+      <c r="N56" s="102"/>
+      <c r="O56" s="102"/>
       <c r="P56" s="41"/>
       <c r="Q56" s="42"/>
       <c r="AB56" s="50"/>
@@ -16969,7 +17149,7 @@
       </c>
       <c r="E57" s="76"/>
       <c r="F57" s="69" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="G57" s="69"/>
       <c r="H57" s="69"/>
@@ -16995,14 +17175,14 @@
         <v>146</v>
       </c>
       <c r="E58" s="89" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F58" s="90" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="G58" s="91"/>
       <c r="H58" s="91" t="s">
-        <v>122</v>
+        <v>207</v>
       </c>
       <c r="I58" s="91"/>
       <c r="J58" s="91"/>
@@ -17026,7 +17206,9 @@
         <v>146</v>
       </c>
       <c r="E59" s="76"/>
-      <c r="F59" s="69"/>
+      <c r="F59" s="69" t="s">
+        <v>208</v>
+      </c>
       <c r="G59" s="69"/>
       <c r="H59" s="69"/>
       <c r="I59" s="69"/>
@@ -17042,29 +17224,31 @@
       <c r="AC59" s="50"/>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="70"/>
-      <c r="B60" s="70"/>
-      <c r="C60" s="71" t="s">
+      <c r="A60" s="94"/>
+      <c r="B60" s="94"/>
+      <c r="C60" s="95" t="s">
         <v>145</v>
       </c>
-      <c r="D60" s="72" t="s">
+      <c r="D60" s="96" t="s">
         <v>146</v>
       </c>
-      <c r="E60" s="94" t="s">
-        <v>157</v>
-      </c>
-      <c r="F60" s="95" t="s">
-        <v>205</v>
-      </c>
-      <c r="G60" s="96"/>
-      <c r="H60" s="96"/>
-      <c r="I60" s="96"/>
-      <c r="J60" s="96"/>
-      <c r="K60" s="96"/>
-      <c r="L60" s="96"/>
-      <c r="M60" s="97"/>
-      <c r="N60" s="98"/>
-      <c r="O60" s="98"/>
+      <c r="E60" s="97" t="s">
+        <v>176</v>
+      </c>
+      <c r="F60" s="98" t="s">
+        <v>209</v>
+      </c>
+      <c r="G60" s="99"/>
+      <c r="H60" s="99" t="s">
+        <v>105</v>
+      </c>
+      <c r="I60" s="99"/>
+      <c r="J60" s="99"/>
+      <c r="K60" s="99"/>
+      <c r="L60" s="99"/>
+      <c r="M60" s="101"/>
+      <c r="N60" s="102"/>
+      <c r="O60" s="102"/>
       <c r="P60" s="41"/>
       <c r="Q60" s="42"/>
       <c r="AB60" s="50"/>
@@ -17081,7 +17265,7 @@
       </c>
       <c r="E61" s="76"/>
       <c r="F61" s="69" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="G61" s="69"/>
       <c r="H61" s="69"/>
@@ -17097,28 +17281,32 @@
       <c r="AB61" s="50"/>
       <c r="AC61" s="50"/>
     </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="57"/>
-      <c r="B62" s="57"/>
-      <c r="C62" s="58" t="s">
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="86"/>
+      <c r="B62" s="86"/>
+      <c r="C62" s="87" t="s">
         <v>145</v>
       </c>
-      <c r="D62" s="59" t="s">
+      <c r="D62" s="88" t="s">
         <v>146</v>
       </c>
-      <c r="E62" s="76"/>
-      <c r="F62" s="69" t="s">
-        <v>207</v>
-      </c>
-      <c r="G62" s="69"/>
-      <c r="H62" s="69"/>
-      <c r="I62" s="69"/>
-      <c r="J62" s="69"/>
-      <c r="K62" s="69"/>
-      <c r="L62" s="69"/>
-      <c r="M62" s="69"/>
-      <c r="N62" s="69"/>
-      <c r="O62" s="69"/>
+      <c r="E62" s="89" t="s">
+        <v>172</v>
+      </c>
+      <c r="F62" s="90" t="s">
+        <v>211</v>
+      </c>
+      <c r="G62" s="91"/>
+      <c r="H62" s="91" t="s">
+        <v>212</v>
+      </c>
+      <c r="I62" s="91"/>
+      <c r="J62" s="91"/>
+      <c r="K62" s="91"/>
+      <c r="L62" s="91"/>
+      <c r="M62" s="92"/>
+      <c r="N62" s="93"/>
+      <c r="O62" s="93"/>
       <c r="P62" s="41"/>
       <c r="Q62" s="42"/>
       <c r="AB62" s="50"/>
@@ -17127,10 +17315,16 @@
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="57"/>
       <c r="B63" s="57"/>
-      <c r="C63" s="58"/>
-      <c r="D63" s="59"/>
+      <c r="C63" s="58" t="s">
+        <v>145</v>
+      </c>
+      <c r="D63" s="59" t="s">
+        <v>146</v>
+      </c>
       <c r="E63" s="76"/>
-      <c r="F63" s="69"/>
+      <c r="F63" s="69" t="s">
+        <v>213</v>
+      </c>
       <c r="G63" s="69"/>
       <c r="H63" s="69"/>
       <c r="I63" s="69"/>
@@ -17146,54 +17340,58 @@
       <c r="AC63" s="50"/>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="78"/>
-      <c r="B64" s="78"/>
-      <c r="C64" s="79"/>
-      <c r="D64" s="80"/>
-      <c r="E64" s="99" t="s">
-        <v>171</v>
-      </c>
-      <c r="F64" s="100" t="s">
-        <v>172</v>
-      </c>
-      <c r="G64" s="101"/>
-      <c r="H64" s="101" t="s">
-        <v>208</v>
-      </c>
-      <c r="I64" s="101"/>
-      <c r="J64" s="101"/>
-      <c r="K64" s="101"/>
-      <c r="L64" s="101"/>
-      <c r="M64" s="102"/>
-      <c r="N64" s="103"/>
-      <c r="O64" s="103"/>
+      <c r="A64" s="94"/>
+      <c r="B64" s="94"/>
+      <c r="C64" s="95" t="s">
+        <v>145</v>
+      </c>
+      <c r="D64" s="96" t="s">
+        <v>146</v>
+      </c>
+      <c r="E64" s="97" t="s">
+        <v>176</v>
+      </c>
+      <c r="F64" s="98" t="s">
+        <v>214</v>
+      </c>
+      <c r="G64" s="99"/>
+      <c r="H64" s="99" t="s">
+        <v>121</v>
+      </c>
+      <c r="I64" s="99"/>
+      <c r="J64" s="99"/>
+      <c r="K64" s="99"/>
+      <c r="L64" s="99"/>
+      <c r="M64" s="101"/>
+      <c r="N64" s="102"/>
+      <c r="O64" s="102"/>
       <c r="P64" s="41"/>
       <c r="Q64" s="42"/>
       <c r="AB64" s="50"/>
       <c r="AC64" s="50"/>
     </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="86"/>
-      <c r="B65" s="86"/>
-      <c r="C65" s="87"/>
-      <c r="D65" s="88"/>
-      <c r="E65" s="104" t="s">
-        <v>175</v>
-      </c>
-      <c r="F65" s="105" t="s">
-        <v>176</v>
-      </c>
-      <c r="G65" s="106"/>
-      <c r="H65" s="106" t="s">
-        <v>54</v>
-      </c>
-      <c r="I65" s="106"/>
-      <c r="J65" s="106"/>
-      <c r="K65" s="106"/>
-      <c r="L65" s="106"/>
-      <c r="M65" s="107"/>
-      <c r="N65" s="108"/>
-      <c r="O65" s="108"/>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="57"/>
+      <c r="B65" s="57"/>
+      <c r="C65" s="58" t="s">
+        <v>145</v>
+      </c>
+      <c r="D65" s="59" t="s">
+        <v>146</v>
+      </c>
+      <c r="E65" s="76"/>
+      <c r="F65" s="111" t="s">
+        <v>215</v>
+      </c>
+      <c r="G65" s="69"/>
+      <c r="H65" s="69"/>
+      <c r="I65" s="69"/>
+      <c r="J65" s="69"/>
+      <c r="K65" s="69"/>
+      <c r="L65" s="69"/>
+      <c r="M65" s="69"/>
+      <c r="N65" s="69"/>
+      <c r="O65" s="69"/>
       <c r="P65" s="41"/>
       <c r="Q65" s="42"/>
       <c r="AB65" s="50"/>
@@ -17202,25 +17400,29 @@
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="86"/>
       <c r="B66" s="86"/>
-      <c r="C66" s="87"/>
-      <c r="D66" s="88"/>
-      <c r="E66" s="104" t="s">
-        <v>175</v>
-      </c>
-      <c r="F66" s="105" t="s">
-        <v>177</v>
-      </c>
-      <c r="G66" s="106"/>
-      <c r="H66" s="106" t="s">
-        <v>209</v>
-      </c>
-      <c r="I66" s="106"/>
-      <c r="J66" s="106"/>
-      <c r="K66" s="106"/>
-      <c r="L66" s="106"/>
-      <c r="M66" s="107"/>
-      <c r="N66" s="108"/>
-      <c r="O66" s="108"/>
+      <c r="C66" s="87" t="s">
+        <v>145</v>
+      </c>
+      <c r="D66" s="88" t="s">
+        <v>146</v>
+      </c>
+      <c r="E66" s="89" t="s">
+        <v>172</v>
+      </c>
+      <c r="F66" s="90" t="s">
+        <v>216</v>
+      </c>
+      <c r="G66" s="91"/>
+      <c r="H66" s="91" t="s">
+        <v>217</v>
+      </c>
+      <c r="I66" s="91"/>
+      <c r="J66" s="91"/>
+      <c r="K66" s="91"/>
+      <c r="L66" s="91"/>
+      <c r="M66" s="92"/>
+      <c r="N66" s="93"/>
+      <c r="O66" s="93"/>
       <c r="P66" s="41"/>
       <c r="Q66" s="42"/>
       <c r="AB66" s="50"/>
@@ -17229,10 +17431,16 @@
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="57"/>
       <c r="B67" s="57"/>
-      <c r="C67" s="58"/>
-      <c r="D67" s="59"/>
+      <c r="C67" s="58" t="s">
+        <v>145</v>
+      </c>
+      <c r="D67" s="59" t="s">
+        <v>146</v>
+      </c>
       <c r="E67" s="76"/>
-      <c r="F67" s="69"/>
+      <c r="F67" s="69" t="s">
+        <v>218</v>
+      </c>
       <c r="G67" s="69"/>
       <c r="H67" s="69"/>
       <c r="I67" s="69"/>
@@ -17248,81 +17456,87 @@
       <c r="AC67" s="50"/>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="78"/>
-      <c r="B68" s="78"/>
-      <c r="C68" s="79"/>
-      <c r="D68" s="80"/>
-      <c r="E68" s="99" t="s">
-        <v>171</v>
-      </c>
-      <c r="F68" s="100" t="s">
-        <v>183</v>
-      </c>
-      <c r="G68" s="101"/>
-      <c r="H68" s="101" t="s">
-        <v>210</v>
-      </c>
-      <c r="I68" s="101"/>
-      <c r="J68" s="101"/>
-      <c r="K68" s="101"/>
-      <c r="L68" s="101"/>
-      <c r="M68" s="102"/>
-      <c r="N68" s="103"/>
-      <c r="O68" s="103"/>
+      <c r="A68" s="94"/>
+      <c r="B68" s="94"/>
+      <c r="C68" s="95" t="s">
+        <v>145</v>
+      </c>
+      <c r="D68" s="96" t="s">
+        <v>146</v>
+      </c>
+      <c r="E68" s="97" t="s">
+        <v>176</v>
+      </c>
+      <c r="F68" s="98" t="s">
+        <v>219</v>
+      </c>
+      <c r="G68" s="99"/>
+      <c r="H68" s="99" t="s">
+        <v>122</v>
+      </c>
+      <c r="I68" s="99"/>
+      <c r="J68" s="99"/>
+      <c r="K68" s="99"/>
+      <c r="L68" s="99"/>
+      <c r="M68" s="101"/>
+      <c r="N68" s="102"/>
+      <c r="O68" s="102"/>
       <c r="P68" s="41"/>
       <c r="Q68" s="42"/>
       <c r="AB68" s="50"/>
       <c r="AC68" s="50"/>
     </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="86"/>
-      <c r="B69" s="86"/>
-      <c r="C69" s="87"/>
-      <c r="D69" s="88"/>
-      <c r="E69" s="104" t="s">
-        <v>175</v>
-      </c>
-      <c r="F69" s="105" t="s">
-        <v>186</v>
-      </c>
-      <c r="G69" s="106"/>
-      <c r="H69" s="106" t="s">
-        <v>57</v>
-      </c>
-      <c r="I69" s="106"/>
-      <c r="J69" s="106"/>
-      <c r="K69" s="106"/>
-      <c r="L69" s="106"/>
-      <c r="M69" s="107"/>
-      <c r="N69" s="108"/>
-      <c r="O69" s="108"/>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="57"/>
+      <c r="B69" s="57"/>
+      <c r="C69" s="58" t="s">
+        <v>145</v>
+      </c>
+      <c r="D69" s="59" t="s">
+        <v>146</v>
+      </c>
+      <c r="E69" s="76"/>
+      <c r="F69" s="111" t="s">
+        <v>220</v>
+      </c>
+      <c r="G69" s="69"/>
+      <c r="H69" s="69"/>
+      <c r="I69" s="69"/>
+      <c r="J69" s="69"/>
+      <c r="K69" s="69"/>
+      <c r="L69" s="69"/>
+      <c r="M69" s="69"/>
+      <c r="N69" s="69"/>
+      <c r="O69" s="69"/>
       <c r="P69" s="41"/>
       <c r="Q69" s="42"/>
       <c r="AB69" s="50"/>
       <c r="AC69" s="50"/>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="86"/>
-      <c r="B70" s="86"/>
-      <c r="C70" s="87"/>
-      <c r="D70" s="88"/>
-      <c r="E70" s="104" t="s">
-        <v>175</v>
-      </c>
-      <c r="F70" s="105" t="s">
-        <v>211</v>
-      </c>
-      <c r="G70" s="106"/>
-      <c r="H70" s="106" t="s">
-        <v>212</v>
-      </c>
-      <c r="I70" s="106"/>
-      <c r="J70" s="106"/>
-      <c r="K70" s="106"/>
-      <c r="L70" s="106"/>
-      <c r="M70" s="107"/>
-      <c r="N70" s="108"/>
-      <c r="O70" s="108"/>
+      <c r="A70" s="70"/>
+      <c r="B70" s="70"/>
+      <c r="C70" s="71" t="s">
+        <v>145</v>
+      </c>
+      <c r="D70" s="72" t="s">
+        <v>146</v>
+      </c>
+      <c r="E70" s="112" t="s">
+        <v>157</v>
+      </c>
+      <c r="F70" s="113" t="s">
+        <v>221</v>
+      </c>
+      <c r="G70" s="114"/>
+      <c r="H70" s="114"/>
+      <c r="I70" s="114"/>
+      <c r="J70" s="114"/>
+      <c r="K70" s="114"/>
+      <c r="L70" s="114"/>
+      <c r="M70" s="115"/>
+      <c r="N70" s="116"/>
+      <c r="O70" s="116"/>
       <c r="P70" s="41"/>
       <c r="Q70" s="42"/>
       <c r="AB70" s="50"/>
@@ -17331,10 +17545,16 @@
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="57"/>
       <c r="B71" s="57"/>
-      <c r="C71" s="58"/>
-      <c r="D71" s="59"/>
+      <c r="C71" s="58" t="s">
+        <v>145</v>
+      </c>
+      <c r="D71" s="59" t="s">
+        <v>146</v>
+      </c>
       <c r="E71" s="76"/>
-      <c r="F71" s="69"/>
+      <c r="F71" s="69" t="s">
+        <v>222</v>
+      </c>
       <c r="G71" s="69"/>
       <c r="H71" s="69"/>
       <c r="I71" s="69"/>
@@ -17349,28 +17569,28 @@
       <c r="AB71" s="50"/>
       <c r="AC71" s="50"/>
     </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="78"/>
-      <c r="B72" s="78"/>
-      <c r="C72" s="79"/>
-      <c r="D72" s="80"/>
-      <c r="E72" s="99" t="s">
-        <v>171</v>
-      </c>
-      <c r="F72" s="100" t="s">
-        <v>187</v>
-      </c>
-      <c r="G72" s="101"/>
-      <c r="H72" s="101" t="s">
-        <v>213</v>
-      </c>
-      <c r="I72" s="101"/>
-      <c r="J72" s="101"/>
-      <c r="K72" s="101"/>
-      <c r="L72" s="101"/>
-      <c r="M72" s="102"/>
-      <c r="N72" s="103"/>
-      <c r="O72" s="103"/>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="57"/>
+      <c r="B72" s="57"/>
+      <c r="C72" s="58" t="s">
+        <v>145</v>
+      </c>
+      <c r="D72" s="59" t="s">
+        <v>146</v>
+      </c>
+      <c r="E72" s="76"/>
+      <c r="F72" s="69" t="s">
+        <v>223</v>
+      </c>
+      <c r="G72" s="69"/>
+      <c r="H72" s="69"/>
+      <c r="I72" s="69"/>
+      <c r="J72" s="69"/>
+      <c r="K72" s="69"/>
+      <c r="L72" s="69"/>
+      <c r="M72" s="69"/>
+      <c r="N72" s="69"/>
+      <c r="O72" s="69"/>
       <c r="P72" s="41"/>
       <c r="Q72" s="42"/>
       <c r="AB72" s="50"/>
@@ -17379,250 +17599,284 @@
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="86"/>
       <c r="B73" s="86"/>
-      <c r="C73" s="87"/>
-      <c r="D73" s="88"/>
-      <c r="E73" s="104" t="s">
-        <v>175</v>
-      </c>
-      <c r="F73" s="105" t="s">
-        <v>190</v>
-      </c>
-      <c r="G73" s="106"/>
-      <c r="H73" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="I73" s="106"/>
-      <c r="J73" s="106"/>
-      <c r="K73" s="106"/>
-      <c r="L73" s="106"/>
-      <c r="M73" s="107"/>
-      <c r="N73" s="108"/>
-      <c r="O73" s="108"/>
+      <c r="C73" s="71" t="s">
+        <v>145</v>
+      </c>
+      <c r="D73" s="72" t="s">
+        <v>146</v>
+      </c>
+      <c r="E73" s="117" t="s">
+        <v>172</v>
+      </c>
+      <c r="F73" s="118" t="s">
+        <v>173</v>
+      </c>
+      <c r="G73" s="119"/>
+      <c r="H73" s="119" t="s">
+        <v>224</v>
+      </c>
+      <c r="I73" s="119"/>
+      <c r="J73" s="119"/>
+      <c r="K73" s="119"/>
+      <c r="L73" s="119"/>
+      <c r="M73" s="120"/>
+      <c r="N73" s="121"/>
+      <c r="O73" s="121"/>
       <c r="P73" s="41"/>
       <c r="Q73" s="42"/>
       <c r="AB73" s="50"/>
       <c r="AC73" s="50"/>
     </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="57"/>
-      <c r="B74" s="57"/>
-      <c r="C74" s="58"/>
-      <c r="D74" s="59"/>
-      <c r="E74" s="76"/>
-      <c r="F74" s="69"/>
-      <c r="G74" s="69"/>
-      <c r="H74" s="69"/>
-      <c r="I74" s="69"/>
-      <c r="J74" s="69"/>
-      <c r="K74" s="69"/>
-      <c r="L74" s="69"/>
-      <c r="M74" s="69"/>
-      <c r="N74" s="69"/>
-      <c r="O74" s="69"/>
+    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="94"/>
+      <c r="B74" s="94"/>
+      <c r="C74" s="95" t="s">
+        <v>145</v>
+      </c>
+      <c r="D74" s="96" t="s">
+        <v>146</v>
+      </c>
+      <c r="E74" s="122" t="s">
+        <v>176</v>
+      </c>
+      <c r="F74" s="123" t="s">
+        <v>177</v>
+      </c>
+      <c r="G74" s="124"/>
+      <c r="H74" s="125" t="s">
+        <v>225</v>
+      </c>
+      <c r="I74" s="124"/>
+      <c r="J74" s="124"/>
+      <c r="K74" s="124"/>
+      <c r="L74" s="124"/>
+      <c r="M74" s="126"/>
+      <c r="N74" s="127"/>
+      <c r="O74" s="127"/>
       <c r="P74" s="41"/>
       <c r="Q74" s="42"/>
       <c r="AB74" s="50"/>
       <c r="AC74" s="50"/>
     </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="78"/>
-      <c r="B75" s="78"/>
-      <c r="C75" s="79"/>
-      <c r="D75" s="80"/>
-      <c r="E75" s="99" t="s">
-        <v>171</v>
-      </c>
-      <c r="F75" s="100" t="s">
-        <v>193</v>
-      </c>
-      <c r="G75" s="101"/>
-      <c r="H75" s="101" t="s">
-        <v>215</v>
-      </c>
-      <c r="I75" s="101"/>
-      <c r="J75" s="101"/>
-      <c r="K75" s="101"/>
-      <c r="L75" s="101"/>
-      <c r="M75" s="102"/>
-      <c r="N75" s="103"/>
-      <c r="O75" s="103"/>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="57"/>
+      <c r="B75" s="57"/>
+      <c r="C75" s="58" t="s">
+        <v>145</v>
+      </c>
+      <c r="D75" s="59" t="s">
+        <v>146</v>
+      </c>
+      <c r="E75" s="76"/>
+      <c r="F75" s="69"/>
+      <c r="G75" s="69"/>
+      <c r="H75" s="69"/>
+      <c r="I75" s="69"/>
+      <c r="J75" s="69"/>
+      <c r="K75" s="69"/>
+      <c r="L75" s="69"/>
+      <c r="M75" s="69"/>
+      <c r="N75" s="69"/>
+      <c r="O75" s="69"/>
       <c r="P75" s="41"/>
       <c r="Q75" s="42"/>
       <c r="AB75" s="50"/>
       <c r="AC75" s="50"/>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="86"/>
-      <c r="B76" s="86"/>
-      <c r="C76" s="87"/>
-      <c r="D76" s="88"/>
-      <c r="E76" s="104" t="s">
-        <v>175</v>
-      </c>
-      <c r="F76" s="105" t="s">
-        <v>196</v>
-      </c>
-      <c r="G76" s="106"/>
-      <c r="H76" s="106" t="s">
-        <v>78</v>
-      </c>
-      <c r="I76" s="106"/>
-      <c r="J76" s="106"/>
-      <c r="K76" s="106"/>
-      <c r="L76" s="106"/>
-      <c r="M76" s="107"/>
-      <c r="N76" s="108"/>
-      <c r="O76" s="108"/>
+      <c r="A76" s="94"/>
+      <c r="B76" s="94"/>
+      <c r="C76" s="95" t="s">
+        <v>145</v>
+      </c>
+      <c r="D76" s="96" t="s">
+        <v>146</v>
+      </c>
+      <c r="E76" s="122" t="s">
+        <v>176</v>
+      </c>
+      <c r="F76" s="123" t="s">
+        <v>186</v>
+      </c>
+      <c r="G76" s="124"/>
+      <c r="H76" s="125" t="s">
+        <v>54</v>
+      </c>
+      <c r="I76" s="124"/>
+      <c r="J76" s="124"/>
+      <c r="K76" s="124"/>
+      <c r="L76" s="124"/>
+      <c r="M76" s="126"/>
+      <c r="N76" s="127"/>
+      <c r="O76" s="127"/>
       <c r="P76" s="41"/>
       <c r="Q76" s="42"/>
       <c r="AB76" s="50"/>
       <c r="AC76" s="50"/>
     </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="86"/>
-      <c r="B77" s="86"/>
-      <c r="C77" s="87"/>
-      <c r="D77" s="88"/>
-      <c r="E77" s="104" t="s">
-        <v>175</v>
-      </c>
-      <c r="F77" s="105" t="s">
-        <v>216</v>
-      </c>
-      <c r="G77" s="106"/>
-      <c r="H77" s="106" t="s">
-        <v>217</v>
-      </c>
-      <c r="I77" s="106"/>
-      <c r="J77" s="106"/>
-      <c r="K77" s="106"/>
-      <c r="L77" s="106"/>
-      <c r="M77" s="107"/>
-      <c r="N77" s="108"/>
-      <c r="O77" s="108"/>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="57"/>
+      <c r="B77" s="57"/>
+      <c r="C77" s="58" t="s">
+        <v>145</v>
+      </c>
+      <c r="D77" s="59" t="s">
+        <v>146</v>
+      </c>
+      <c r="E77" s="76"/>
+      <c r="F77" s="69"/>
+      <c r="G77" s="69"/>
+      <c r="H77" s="69"/>
+      <c r="I77" s="69"/>
+      <c r="J77" s="69"/>
+      <c r="K77" s="69"/>
+      <c r="L77" s="69"/>
+      <c r="M77" s="69"/>
+      <c r="N77" s="69"/>
+      <c r="O77" s="69"/>
       <c r="P77" s="41"/>
       <c r="Q77" s="42"/>
       <c r="AB77" s="50"/>
       <c r="AC77" s="50"/>
     </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="57"/>
-      <c r="B78" s="57"/>
-      <c r="C78" s="58"/>
-      <c r="D78" s="59"/>
-      <c r="E78" s="76"/>
-      <c r="F78" s="69"/>
-      <c r="G78" s="69"/>
-      <c r="H78" s="69"/>
-      <c r="I78" s="69"/>
-      <c r="J78" s="69"/>
-      <c r="K78" s="69"/>
-      <c r="L78" s="69"/>
-      <c r="M78" s="69"/>
-      <c r="N78" s="69"/>
-      <c r="O78" s="69"/>
+    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="86"/>
+      <c r="B78" s="86"/>
+      <c r="C78" s="71" t="s">
+        <v>145</v>
+      </c>
+      <c r="D78" s="72" t="s">
+        <v>146</v>
+      </c>
+      <c r="E78" s="117" t="s">
+        <v>172</v>
+      </c>
+      <c r="F78" s="118" t="s">
+        <v>192</v>
+      </c>
+      <c r="G78" s="119"/>
+      <c r="H78" s="119" t="s">
+        <v>226</v>
+      </c>
+      <c r="I78" s="119"/>
+      <c r="J78" s="119"/>
+      <c r="K78" s="119"/>
+      <c r="L78" s="119"/>
+      <c r="M78" s="120"/>
+      <c r="N78" s="121"/>
+      <c r="O78" s="121"/>
       <c r="P78" s="41"/>
       <c r="Q78" s="42"/>
       <c r="AB78" s="50"/>
       <c r="AC78" s="50"/>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="78"/>
-      <c r="B79" s="78"/>
-      <c r="C79" s="79"/>
-      <c r="D79" s="80"/>
-      <c r="E79" s="99" t="s">
-        <v>171</v>
-      </c>
-      <c r="F79" s="100" t="s">
-        <v>197</v>
-      </c>
-      <c r="G79" s="101"/>
-      <c r="H79" s="101" t="s">
-        <v>218</v>
-      </c>
-      <c r="I79" s="101"/>
-      <c r="J79" s="101"/>
-      <c r="K79" s="101"/>
-      <c r="L79" s="101"/>
-      <c r="M79" s="102"/>
-      <c r="N79" s="103"/>
-      <c r="O79" s="103"/>
+      <c r="A79" s="94"/>
+      <c r="B79" s="94"/>
+      <c r="C79" s="95" t="s">
+        <v>145</v>
+      </c>
+      <c r="D79" s="96" t="s">
+        <v>146</v>
+      </c>
+      <c r="E79" s="122" t="s">
+        <v>176</v>
+      </c>
+      <c r="F79" s="123" t="s">
+        <v>196</v>
+      </c>
+      <c r="G79" s="124"/>
+      <c r="H79" s="125" t="s">
+        <v>227</v>
+      </c>
+      <c r="I79" s="124"/>
+      <c r="J79" s="124"/>
+      <c r="K79" s="124"/>
+      <c r="L79" s="124"/>
+      <c r="M79" s="126"/>
+      <c r="N79" s="127"/>
+      <c r="O79" s="127"/>
       <c r="P79" s="41"/>
       <c r="Q79" s="42"/>
       <c r="AB79" s="50"/>
       <c r="AC79" s="50"/>
     </row>
-    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="86"/>
-      <c r="B80" s="86"/>
-      <c r="C80" s="87"/>
-      <c r="D80" s="88"/>
-      <c r="E80" s="104" t="s">
-        <v>175</v>
-      </c>
-      <c r="F80" s="105" t="s">
-        <v>200</v>
-      </c>
-      <c r="G80" s="106"/>
-      <c r="H80" s="106" t="s">
-        <v>77</v>
-      </c>
-      <c r="I80" s="106"/>
-      <c r="J80" s="106"/>
-      <c r="K80" s="106"/>
-      <c r="L80" s="106"/>
-      <c r="M80" s="107"/>
-      <c r="N80" s="108"/>
-      <c r="O80" s="108"/>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="57"/>
+      <c r="B80" s="57"/>
+      <c r="C80" s="58" t="s">
+        <v>145</v>
+      </c>
+      <c r="D80" s="59" t="s">
+        <v>146</v>
+      </c>
+      <c r="E80" s="76"/>
+      <c r="F80" s="69"/>
+      <c r="G80" s="69"/>
+      <c r="H80" s="69"/>
+      <c r="I80" s="69"/>
+      <c r="J80" s="69"/>
+      <c r="K80" s="69"/>
+      <c r="L80" s="69"/>
+      <c r="M80" s="69"/>
+      <c r="N80" s="69"/>
+      <c r="O80" s="69"/>
       <c r="P80" s="41"/>
       <c r="Q80" s="42"/>
       <c r="AB80" s="50"/>
       <c r="AC80" s="50"/>
     </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="57"/>
-      <c r="B81" s="57"/>
-      <c r="C81" s="58"/>
-      <c r="D81" s="59"/>
-      <c r="E81" s="76"/>
-      <c r="F81" s="69"/>
-      <c r="G81" s="69"/>
-      <c r="H81" s="69"/>
-      <c r="I81" s="69"/>
-      <c r="J81" s="69"/>
-      <c r="K81" s="69"/>
-      <c r="L81" s="69"/>
-      <c r="M81" s="69"/>
-      <c r="N81" s="69"/>
-      <c r="O81" s="69"/>
+    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="94"/>
+      <c r="B81" s="94"/>
+      <c r="C81" s="95" t="s">
+        <v>145</v>
+      </c>
+      <c r="D81" s="96" t="s">
+        <v>146</v>
+      </c>
+      <c r="E81" s="122" t="s">
+        <v>176</v>
+      </c>
+      <c r="F81" s="123" t="s">
+        <v>228</v>
+      </c>
+      <c r="G81" s="124"/>
+      <c r="H81" s="125" t="s">
+        <v>57</v>
+      </c>
+      <c r="I81" s="124"/>
+      <c r="J81" s="124"/>
+      <c r="K81" s="124"/>
+      <c r="L81" s="124"/>
+      <c r="M81" s="126"/>
+      <c r="N81" s="127"/>
+      <c r="O81" s="127"/>
       <c r="P81" s="41"/>
       <c r="Q81" s="42"/>
       <c r="AB81" s="50"/>
       <c r="AC81" s="50"/>
     </row>
-    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="78"/>
-      <c r="B82" s="78"/>
-      <c r="C82" s="79"/>
-      <c r="D82" s="80"/>
-      <c r="E82" s="99" t="s">
-        <v>171</v>
-      </c>
-      <c r="F82" s="100" t="s">
-        <v>201</v>
-      </c>
-      <c r="G82" s="101"/>
-      <c r="H82" s="101" t="s">
-        <v>219</v>
-      </c>
-      <c r="I82" s="101"/>
-      <c r="J82" s="101"/>
-      <c r="K82" s="101"/>
-      <c r="L82" s="101"/>
-      <c r="M82" s="102"/>
-      <c r="N82" s="103"/>
-      <c r="O82" s="103"/>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="57"/>
+      <c r="B82" s="57"/>
+      <c r="C82" s="58" t="s">
+        <v>145</v>
+      </c>
+      <c r="D82" s="59" t="s">
+        <v>146</v>
+      </c>
+      <c r="E82" s="76"/>
+      <c r="F82" s="69"/>
+      <c r="G82" s="69"/>
+      <c r="H82" s="69"/>
+      <c r="I82" s="69"/>
+      <c r="J82" s="69"/>
+      <c r="K82" s="69"/>
+      <c r="L82" s="69"/>
+      <c r="M82" s="69"/>
+      <c r="N82" s="69"/>
+      <c r="O82" s="69"/>
       <c r="P82" s="41"/>
       <c r="Q82" s="42"/>
       <c r="AB82" s="50"/>
@@ -17631,73 +17885,85 @@
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="86"/>
       <c r="B83" s="86"/>
-      <c r="C83" s="87"/>
-      <c r="D83" s="88"/>
-      <c r="E83" s="104" t="s">
-        <v>175</v>
-      </c>
-      <c r="F83" s="105" t="s">
-        <v>204</v>
-      </c>
-      <c r="G83" s="106"/>
-      <c r="H83" s="106" t="s">
-        <v>81</v>
-      </c>
-      <c r="I83" s="106"/>
-      <c r="J83" s="106"/>
-      <c r="K83" s="106"/>
-      <c r="L83" s="106"/>
-      <c r="M83" s="107"/>
-      <c r="N83" s="108"/>
-      <c r="O83" s="108"/>
+      <c r="C83" s="71" t="s">
+        <v>145</v>
+      </c>
+      <c r="D83" s="72" t="s">
+        <v>146</v>
+      </c>
+      <c r="E83" s="117" t="s">
+        <v>172</v>
+      </c>
+      <c r="F83" s="118" t="s">
+        <v>198</v>
+      </c>
+      <c r="G83" s="119"/>
+      <c r="H83" s="119" t="s">
+        <v>229</v>
+      </c>
+      <c r="I83" s="119"/>
+      <c r="J83" s="119"/>
+      <c r="K83" s="119"/>
+      <c r="L83" s="119"/>
+      <c r="M83" s="120"/>
+      <c r="N83" s="121"/>
+      <c r="O83" s="121"/>
       <c r="P83" s="41"/>
       <c r="Q83" s="42"/>
       <c r="AB83" s="50"/>
       <c r="AC83" s="50"/>
     </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="57"/>
-      <c r="B84" s="57"/>
-      <c r="C84" s="58"/>
-      <c r="D84" s="59"/>
-      <c r="E84" s="76"/>
-      <c r="F84" s="69"/>
-      <c r="G84" s="69"/>
-      <c r="H84" s="69"/>
-      <c r="I84" s="69"/>
-      <c r="J84" s="69"/>
-      <c r="K84" s="69"/>
-      <c r="L84" s="69"/>
-      <c r="M84" s="69"/>
-      <c r="N84" s="69"/>
-      <c r="O84" s="69"/>
+    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="94"/>
+      <c r="B84" s="94"/>
+      <c r="C84" s="95" t="s">
+        <v>145</v>
+      </c>
+      <c r="D84" s="96" t="s">
+        <v>146</v>
+      </c>
+      <c r="E84" s="122" t="s">
+        <v>176</v>
+      </c>
+      <c r="F84" s="123" t="s">
+        <v>201</v>
+      </c>
+      <c r="G84" s="124"/>
+      <c r="H84" s="124" t="s">
+        <v>230</v>
+      </c>
+      <c r="I84" s="124"/>
+      <c r="J84" s="124"/>
+      <c r="K84" s="124"/>
+      <c r="L84" s="124"/>
+      <c r="M84" s="126"/>
+      <c r="N84" s="127"/>
+      <c r="O84" s="127"/>
       <c r="P84" s="41"/>
       <c r="Q84" s="42"/>
       <c r="AB84" s="50"/>
       <c r="AC84" s="50"/>
     </row>
-    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="78"/>
-      <c r="B85" s="78"/>
-      <c r="C85" s="79"/>
-      <c r="D85" s="80"/>
-      <c r="E85" s="99" t="s">
-        <v>171</v>
-      </c>
-      <c r="F85" s="100" t="s">
-        <v>220</v>
-      </c>
-      <c r="G85" s="101"/>
-      <c r="H85" s="101" t="s">
-        <v>221</v>
-      </c>
-      <c r="I85" s="101"/>
-      <c r="J85" s="101"/>
-      <c r="K85" s="101"/>
-      <c r="L85" s="101"/>
-      <c r="M85" s="102"/>
-      <c r="N85" s="103"/>
-      <c r="O85" s="103"/>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="57"/>
+      <c r="B85" s="57"/>
+      <c r="C85" s="58" t="s">
+        <v>145</v>
+      </c>
+      <c r="D85" s="59" t="s">
+        <v>146</v>
+      </c>
+      <c r="E85" s="76"/>
+      <c r="F85" s="69"/>
+      <c r="G85" s="69"/>
+      <c r="H85" s="69"/>
+      <c r="I85" s="69"/>
+      <c r="J85" s="69"/>
+      <c r="K85" s="69"/>
+      <c r="L85" s="69"/>
+      <c r="M85" s="69"/>
+      <c r="N85" s="69"/>
+      <c r="O85" s="69"/>
       <c r="P85" s="41"/>
       <c r="Q85" s="42"/>
       <c r="AB85" s="50"/>
@@ -17706,175 +17972,203 @@
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="86"/>
       <c r="B86" s="86"/>
-      <c r="C86" s="87"/>
-      <c r="D86" s="88"/>
-      <c r="E86" s="104" t="s">
-        <v>175</v>
-      </c>
-      <c r="F86" s="105" t="s">
-        <v>222</v>
-      </c>
-      <c r="G86" s="106"/>
-      <c r="H86" s="106" t="s">
-        <v>82</v>
-      </c>
-      <c r="I86" s="106"/>
-      <c r="J86" s="106"/>
-      <c r="K86" s="106"/>
-      <c r="L86" s="106"/>
-      <c r="M86" s="107"/>
-      <c r="N86" s="108"/>
-      <c r="O86" s="108"/>
+      <c r="C86" s="71" t="s">
+        <v>145</v>
+      </c>
+      <c r="D86" s="72" t="s">
+        <v>146</v>
+      </c>
+      <c r="E86" s="117" t="s">
+        <v>172</v>
+      </c>
+      <c r="F86" s="118" t="s">
+        <v>206</v>
+      </c>
+      <c r="G86" s="119"/>
+      <c r="H86" s="119" t="s">
+        <v>231</v>
+      </c>
+      <c r="I86" s="119"/>
+      <c r="J86" s="119"/>
+      <c r="K86" s="119"/>
+      <c r="L86" s="119"/>
+      <c r="M86" s="120"/>
+      <c r="N86" s="121"/>
+      <c r="O86" s="121"/>
       <c r="P86" s="41"/>
       <c r="Q86" s="42"/>
       <c r="AB86" s="50"/>
       <c r="AC86" s="50"/>
     </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="57"/>
-      <c r="B87" s="57"/>
-      <c r="C87" s="58"/>
-      <c r="D87" s="59"/>
-      <c r="E87" s="76"/>
-      <c r="F87" s="69"/>
-      <c r="G87" s="69"/>
-      <c r="H87" s="69"/>
-      <c r="I87" s="69"/>
-      <c r="J87" s="69"/>
-      <c r="K87" s="69"/>
-      <c r="L87" s="69"/>
-      <c r="M87" s="69"/>
-      <c r="N87" s="69"/>
-      <c r="O87" s="69"/>
+    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="94"/>
+      <c r="B87" s="94"/>
+      <c r="C87" s="95" t="s">
+        <v>145</v>
+      </c>
+      <c r="D87" s="96" t="s">
+        <v>146</v>
+      </c>
+      <c r="E87" s="122" t="s">
+        <v>176</v>
+      </c>
+      <c r="F87" s="123" t="s">
+        <v>209</v>
+      </c>
+      <c r="G87" s="124"/>
+      <c r="H87" s="125" t="s">
+        <v>232</v>
+      </c>
+      <c r="I87" s="124"/>
+      <c r="J87" s="124"/>
+      <c r="K87" s="124"/>
+      <c r="L87" s="124"/>
+      <c r="M87" s="126"/>
+      <c r="N87" s="127"/>
+      <c r="O87" s="127"/>
       <c r="P87" s="41"/>
       <c r="Q87" s="42"/>
       <c r="AB87" s="50"/>
       <c r="AC87" s="50"/>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="78"/>
-      <c r="B88" s="78"/>
-      <c r="C88" s="79"/>
-      <c r="D88" s="80"/>
-      <c r="E88" s="99" t="s">
-        <v>171</v>
-      </c>
-      <c r="F88" s="100" t="s">
-        <v>223</v>
-      </c>
-      <c r="G88" s="101"/>
-      <c r="H88" s="101" t="s">
-        <v>224</v>
-      </c>
-      <c r="I88" s="101"/>
-      <c r="J88" s="101"/>
-      <c r="K88" s="101"/>
-      <c r="L88" s="101"/>
-      <c r="M88" s="102"/>
-      <c r="N88" s="103"/>
-      <c r="O88" s="103"/>
+      <c r="A88" s="94"/>
+      <c r="B88" s="94"/>
+      <c r="C88" s="95" t="s">
+        <v>145</v>
+      </c>
+      <c r="D88" s="96" t="s">
+        <v>146</v>
+      </c>
+      <c r="E88" s="122" t="s">
+        <v>176</v>
+      </c>
+      <c r="F88" s="123" t="s">
+        <v>233</v>
+      </c>
+      <c r="G88" s="124"/>
+      <c r="H88" s="125" t="s">
+        <v>78</v>
+      </c>
+      <c r="I88" s="124"/>
+      <c r="J88" s="124"/>
+      <c r="K88" s="124"/>
+      <c r="L88" s="124"/>
+      <c r="M88" s="126"/>
+      <c r="N88" s="127"/>
+      <c r="O88" s="127"/>
       <c r="P88" s="41"/>
       <c r="Q88" s="42"/>
       <c r="AB88" s="50"/>
       <c r="AC88" s="50"/>
     </row>
-    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="86"/>
-      <c r="B89" s="86"/>
-      <c r="C89" s="87"/>
-      <c r="D89" s="88"/>
-      <c r="E89" s="104" t="s">
-        <v>175</v>
-      </c>
-      <c r="F89" s="105" t="s">
-        <v>225</v>
-      </c>
-      <c r="G89" s="106"/>
-      <c r="H89" s="106" t="s">
-        <v>84</v>
-      </c>
-      <c r="I89" s="106"/>
-      <c r="J89" s="106"/>
-      <c r="K89" s="106"/>
-      <c r="L89" s="106"/>
-      <c r="M89" s="107"/>
-      <c r="N89" s="108"/>
-      <c r="O89" s="108"/>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="57"/>
+      <c r="B89" s="57"/>
+      <c r="C89" s="58" t="s">
+        <v>145</v>
+      </c>
+      <c r="D89" s="59" t="s">
+        <v>146</v>
+      </c>
+      <c r="E89" s="76"/>
+      <c r="F89" s="69"/>
+      <c r="G89" s="69"/>
+      <c r="H89" s="69"/>
+      <c r="I89" s="69"/>
+      <c r="J89" s="69"/>
+      <c r="K89" s="69"/>
+      <c r="L89" s="69"/>
+      <c r="M89" s="69"/>
+      <c r="N89" s="69"/>
+      <c r="O89" s="69"/>
       <c r="P89" s="41"/>
       <c r="Q89" s="42"/>
       <c r="AB89" s="50"/>
       <c r="AC89" s="50"/>
     </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="57"/>
-      <c r="B90" s="57"/>
-      <c r="C90" s="58"/>
-      <c r="D90" s="59"/>
-      <c r="E90" s="76"/>
-      <c r="F90" s="69"/>
-      <c r="G90" s="69"/>
-      <c r="H90" s="69"/>
-      <c r="I90" s="69"/>
-      <c r="J90" s="69"/>
-      <c r="K90" s="69"/>
-      <c r="L90" s="69"/>
-      <c r="M90" s="69"/>
-      <c r="N90" s="69"/>
-      <c r="O90" s="69"/>
+    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="86"/>
+      <c r="B90" s="86"/>
+      <c r="C90" s="71" t="s">
+        <v>145</v>
+      </c>
+      <c r="D90" s="72" t="s">
+        <v>146</v>
+      </c>
+      <c r="E90" s="117" t="s">
+        <v>172</v>
+      </c>
+      <c r="F90" s="118" t="s">
+        <v>211</v>
+      </c>
+      <c r="G90" s="119"/>
+      <c r="H90" s="119" t="s">
+        <v>234</v>
+      </c>
+      <c r="I90" s="119"/>
+      <c r="J90" s="119"/>
+      <c r="K90" s="119"/>
+      <c r="L90" s="119"/>
+      <c r="M90" s="120"/>
+      <c r="N90" s="121"/>
+      <c r="O90" s="121"/>
       <c r="P90" s="41"/>
       <c r="Q90" s="42"/>
       <c r="AB90" s="50"/>
       <c r="AC90" s="50"/>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="78"/>
-      <c r="B91" s="78"/>
-      <c r="C91" s="79"/>
-      <c r="D91" s="80"/>
-      <c r="E91" s="99" t="s">
-        <v>171</v>
-      </c>
-      <c r="F91" s="100" t="s">
-        <v>226</v>
-      </c>
-      <c r="G91" s="101"/>
-      <c r="H91" s="101" t="s">
-        <v>227</v>
-      </c>
-      <c r="I91" s="101"/>
-      <c r="J91" s="101"/>
-      <c r="K91" s="101"/>
-      <c r="L91" s="101"/>
-      <c r="M91" s="102"/>
-      <c r="N91" s="103"/>
-      <c r="O91" s="103"/>
+      <c r="A91" s="94"/>
+      <c r="B91" s="94"/>
+      <c r="C91" s="95" t="s">
+        <v>145</v>
+      </c>
+      <c r="D91" s="96" t="s">
+        <v>146</v>
+      </c>
+      <c r="E91" s="122" t="s">
+        <v>176</v>
+      </c>
+      <c r="F91" s="123" t="s">
+        <v>214</v>
+      </c>
+      <c r="G91" s="124"/>
+      <c r="H91" s="124" t="s">
+        <v>77</v>
+      </c>
+      <c r="I91" s="124"/>
+      <c r="J91" s="124"/>
+      <c r="K91" s="124"/>
+      <c r="L91" s="124"/>
+      <c r="M91" s="126"/>
+      <c r="N91" s="127"/>
+      <c r="O91" s="127"/>
       <c r="P91" s="41"/>
       <c r="Q91" s="42"/>
       <c r="AB91" s="50"/>
       <c r="AC91" s="50"/>
     </row>
-    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="86"/>
-      <c r="B92" s="86"/>
-      <c r="C92" s="87"/>
-      <c r="D92" s="88"/>
-      <c r="E92" s="104" t="s">
-        <v>175</v>
-      </c>
-      <c r="F92" s="105" t="s">
-        <v>228</v>
-      </c>
-      <c r="G92" s="106"/>
-      <c r="H92" s="106" t="s">
-        <v>229</v>
-      </c>
-      <c r="I92" s="106"/>
-      <c r="J92" s="106"/>
-      <c r="K92" s="106"/>
-      <c r="L92" s="106"/>
-      <c r="M92" s="107"/>
-      <c r="N92" s="108"/>
-      <c r="O92" s="108"/>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="57"/>
+      <c r="B92" s="57"/>
+      <c r="C92" s="58" t="s">
+        <v>145</v>
+      </c>
+      <c r="D92" s="59" t="s">
+        <v>146</v>
+      </c>
+      <c r="E92" s="76"/>
+      <c r="F92" s="69"/>
+      <c r="G92" s="69"/>
+      <c r="H92" s="69"/>
+      <c r="I92" s="69"/>
+      <c r="J92" s="69"/>
+      <c r="K92" s="69"/>
+      <c r="L92" s="69"/>
+      <c r="M92" s="69"/>
+      <c r="N92" s="69"/>
+      <c r="O92" s="69"/>
       <c r="P92" s="41"/>
       <c r="Q92" s="42"/>
       <c r="AB92" s="50"/>
@@ -17883,52 +18177,60 @@
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="86"/>
       <c r="B93" s="86"/>
-      <c r="C93" s="87"/>
-      <c r="D93" s="88"/>
-      <c r="E93" s="104" t="s">
-        <v>175</v>
-      </c>
-      <c r="F93" s="105" t="s">
-        <v>230</v>
-      </c>
-      <c r="G93" s="106"/>
-      <c r="H93" s="106" t="s">
-        <v>231</v>
-      </c>
-      <c r="I93" s="106"/>
-      <c r="J93" s="106"/>
-      <c r="K93" s="106"/>
-      <c r="L93" s="106"/>
-      <c r="M93" s="107"/>
-      <c r="N93" s="108"/>
-      <c r="O93" s="108"/>
+      <c r="C93" s="71" t="s">
+        <v>145</v>
+      </c>
+      <c r="D93" s="72" t="s">
+        <v>146</v>
+      </c>
+      <c r="E93" s="117" t="s">
+        <v>172</v>
+      </c>
+      <c r="F93" s="118" t="s">
+        <v>216</v>
+      </c>
+      <c r="G93" s="119"/>
+      <c r="H93" s="119" t="s">
+        <v>235</v>
+      </c>
+      <c r="I93" s="119"/>
+      <c r="J93" s="119"/>
+      <c r="K93" s="119"/>
+      <c r="L93" s="119"/>
+      <c r="M93" s="120"/>
+      <c r="N93" s="121"/>
+      <c r="O93" s="121"/>
       <c r="P93" s="41"/>
       <c r="Q93" s="42"/>
       <c r="AB93" s="50"/>
       <c r="AC93" s="50"/>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="86"/>
-      <c r="B94" s="86"/>
-      <c r="C94" s="87"/>
-      <c r="D94" s="88"/>
-      <c r="E94" s="104" t="s">
-        <v>175</v>
-      </c>
-      <c r="F94" s="105" t="s">
-        <v>232</v>
-      </c>
-      <c r="G94" s="106"/>
-      <c r="H94" s="106" t="s">
-        <v>85</v>
-      </c>
-      <c r="I94" s="106"/>
-      <c r="J94" s="106"/>
-      <c r="K94" s="106"/>
-      <c r="L94" s="106"/>
-      <c r="M94" s="107"/>
-      <c r="N94" s="108"/>
-      <c r="O94" s="108"/>
+      <c r="A94" s="94"/>
+      <c r="B94" s="94"/>
+      <c r="C94" s="95" t="s">
+        <v>145</v>
+      </c>
+      <c r="D94" s="96" t="s">
+        <v>146</v>
+      </c>
+      <c r="E94" s="122" t="s">
+        <v>176</v>
+      </c>
+      <c r="F94" s="123" t="s">
+        <v>219</v>
+      </c>
+      <c r="G94" s="124"/>
+      <c r="H94" s="124" t="s">
+        <v>81</v>
+      </c>
+      <c r="I94" s="124"/>
+      <c r="J94" s="124"/>
+      <c r="K94" s="124"/>
+      <c r="L94" s="124"/>
+      <c r="M94" s="126"/>
+      <c r="N94" s="127"/>
+      <c r="O94" s="127"/>
       <c r="P94" s="41"/>
       <c r="Q94" s="42"/>
       <c r="AB94" s="50"/>
@@ -17937,8 +18239,12 @@
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="57"/>
       <c r="B95" s="57"/>
-      <c r="C95" s="58"/>
-      <c r="D95" s="59"/>
+      <c r="C95" s="58" t="s">
+        <v>145</v>
+      </c>
+      <c r="D95" s="59" t="s">
+        <v>146</v>
+      </c>
       <c r="E95" s="76"/>
       <c r="F95" s="69"/>
       <c r="G95" s="69"/>
@@ -17956,123 +18262,149 @@
       <c r="AC95" s="50"/>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="78"/>
-      <c r="B96" s="78"/>
-      <c r="C96" s="79"/>
-      <c r="D96" s="80"/>
-      <c r="E96" s="99" t="s">
-        <v>171</v>
-      </c>
-      <c r="F96" s="100" t="s">
-        <v>233</v>
-      </c>
-      <c r="G96" s="101"/>
-      <c r="H96" s="101" t="s">
-        <v>234</v>
-      </c>
-      <c r="I96" s="101"/>
-      <c r="J96" s="101"/>
-      <c r="K96" s="101"/>
-      <c r="L96" s="101"/>
-      <c r="M96" s="102"/>
-      <c r="N96" s="103"/>
-      <c r="O96" s="103"/>
+      <c r="A96" s="86"/>
+      <c r="B96" s="86"/>
+      <c r="C96" s="71" t="s">
+        <v>145</v>
+      </c>
+      <c r="D96" s="72" t="s">
+        <v>146</v>
+      </c>
+      <c r="E96" s="117" t="s">
+        <v>172</v>
+      </c>
+      <c r="F96" s="118" t="s">
+        <v>236</v>
+      </c>
+      <c r="G96" s="119"/>
+      <c r="H96" s="119" t="s">
+        <v>237</v>
+      </c>
+      <c r="I96" s="119"/>
+      <c r="J96" s="119"/>
+      <c r="K96" s="119"/>
+      <c r="L96" s="119"/>
+      <c r="M96" s="120"/>
+      <c r="N96" s="121"/>
+      <c r="O96" s="121"/>
       <c r="P96" s="41"/>
       <c r="Q96" s="42"/>
       <c r="AB96" s="50"/>
       <c r="AC96" s="50"/>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="86"/>
-      <c r="B97" s="86"/>
-      <c r="C97" s="87"/>
-      <c r="D97" s="88"/>
-      <c r="E97" s="104" t="s">
-        <v>175</v>
-      </c>
-      <c r="F97" s="105" t="s">
-        <v>235</v>
-      </c>
-      <c r="G97" s="106"/>
-      <c r="H97" s="106" t="s">
-        <v>91</v>
-      </c>
-      <c r="I97" s="106"/>
-      <c r="J97" s="106"/>
-      <c r="K97" s="106"/>
-      <c r="L97" s="106"/>
-      <c r="M97" s="107"/>
-      <c r="N97" s="108"/>
-      <c r="O97" s="108"/>
+      <c r="A97" s="94"/>
+      <c r="B97" s="94"/>
+      <c r="C97" s="95" t="s">
+        <v>145</v>
+      </c>
+      <c r="D97" s="96" t="s">
+        <v>146</v>
+      </c>
+      <c r="E97" s="122" t="s">
+        <v>176</v>
+      </c>
+      <c r="F97" s="123" t="s">
+        <v>238</v>
+      </c>
+      <c r="G97" s="124"/>
+      <c r="H97" s="124" t="s">
+        <v>82</v>
+      </c>
+      <c r="I97" s="124"/>
+      <c r="J97" s="124"/>
+      <c r="K97" s="124"/>
+      <c r="L97" s="124"/>
+      <c r="M97" s="126"/>
+      <c r="N97" s="127"/>
+      <c r="O97" s="127"/>
       <c r="P97" s="41"/>
       <c r="Q97" s="42"/>
       <c r="AB97" s="50"/>
       <c r="AC97" s="50"/>
     </row>
-    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="86"/>
-      <c r="B98" s="86"/>
-      <c r="C98" s="87"/>
-      <c r="D98" s="88"/>
-      <c r="E98" s="104" t="s">
-        <v>175</v>
-      </c>
-      <c r="F98" s="105" t="s">
-        <v>236</v>
-      </c>
-      <c r="G98" s="106"/>
-      <c r="H98" s="106" t="s">
-        <v>237</v>
-      </c>
-      <c r="I98" s="106"/>
-      <c r="J98" s="106"/>
-      <c r="K98" s="106"/>
-      <c r="L98" s="106"/>
-      <c r="M98" s="107"/>
-      <c r="N98" s="108"/>
-      <c r="O98" s="108"/>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="57"/>
+      <c r="B98" s="57"/>
+      <c r="C98" s="58" t="s">
+        <v>145</v>
+      </c>
+      <c r="D98" s="59" t="s">
+        <v>146</v>
+      </c>
+      <c r="E98" s="76"/>
+      <c r="F98" s="69"/>
+      <c r="G98" s="69"/>
+      <c r="H98" s="69"/>
+      <c r="I98" s="69"/>
+      <c r="J98" s="69"/>
+      <c r="K98" s="69"/>
+      <c r="L98" s="69"/>
+      <c r="M98" s="69"/>
+      <c r="N98" s="69"/>
+      <c r="O98" s="69"/>
       <c r="P98" s="41"/>
       <c r="Q98" s="42"/>
       <c r="AB98" s="50"/>
       <c r="AC98" s="50"/>
     </row>
-    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="57"/>
-      <c r="B99" s="57"/>
-      <c r="C99" s="58"/>
-      <c r="D99" s="59"/>
-      <c r="E99" s="76"/>
-      <c r="F99" s="69"/>
-      <c r="G99" s="69"/>
-      <c r="H99" s="69"/>
-      <c r="I99" s="69"/>
-      <c r="J99" s="69"/>
-      <c r="K99" s="69"/>
-      <c r="L99" s="69"/>
-      <c r="M99" s="69"/>
-      <c r="N99" s="69"/>
-      <c r="O99" s="69"/>
+    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="86"/>
+      <c r="B99" s="86"/>
+      <c r="C99" s="71" t="s">
+        <v>145</v>
+      </c>
+      <c r="D99" s="72" t="s">
+        <v>146</v>
+      </c>
+      <c r="E99" s="117" t="s">
+        <v>172</v>
+      </c>
+      <c r="F99" s="118" t="s">
+        <v>239</v>
+      </c>
+      <c r="G99" s="119"/>
+      <c r="H99" s="119" t="s">
+        <v>240</v>
+      </c>
+      <c r="I99" s="119"/>
+      <c r="J99" s="119"/>
+      <c r="K99" s="119"/>
+      <c r="L99" s="119"/>
+      <c r="M99" s="120"/>
+      <c r="N99" s="121"/>
+      <c r="O99" s="121"/>
       <c r="P99" s="41"/>
       <c r="Q99" s="42"/>
       <c r="AB99" s="50"/>
       <c r="AC99" s="50"/>
     </row>
-    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="57"/>
-      <c r="B100" s="57"/>
-      <c r="C100" s="58"/>
-      <c r="D100" s="59"/>
-      <c r="E100" s="76"/>
-      <c r="F100" s="69"/>
-      <c r="G100" s="69"/>
-      <c r="H100" s="69"/>
-      <c r="I100" s="69"/>
-      <c r="J100" s="69"/>
-      <c r="K100" s="69"/>
-      <c r="L100" s="69"/>
-      <c r="M100" s="69"/>
-      <c r="N100" s="69"/>
-      <c r="O100" s="69"/>
+    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="94"/>
+      <c r="B100" s="94"/>
+      <c r="C100" s="95" t="s">
+        <v>145</v>
+      </c>
+      <c r="D100" s="96" t="s">
+        <v>146</v>
+      </c>
+      <c r="E100" s="122" t="s">
+        <v>176</v>
+      </c>
+      <c r="F100" s="123" t="s">
+        <v>241</v>
+      </c>
+      <c r="G100" s="124"/>
+      <c r="H100" s="124" t="s">
+        <v>84</v>
+      </c>
+      <c r="I100" s="124"/>
+      <c r="J100" s="124"/>
+      <c r="K100" s="124"/>
+      <c r="L100" s="124"/>
+      <c r="M100" s="126"/>
+      <c r="N100" s="127"/>
+      <c r="O100" s="127"/>
       <c r="P100" s="41"/>
       <c r="Q100" s="42"/>
       <c r="AB100" s="50"/>
@@ -18081,8 +18413,12 @@
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="57"/>
       <c r="B101" s="57"/>
-      <c r="C101" s="58"/>
-      <c r="D101" s="59"/>
+      <c r="C101" s="58" t="s">
+        <v>145</v>
+      </c>
+      <c r="D101" s="59" t="s">
+        <v>146</v>
+      </c>
       <c r="E101" s="76"/>
       <c r="F101" s="69"/>
       <c r="G101" s="69"/>
@@ -18099,43 +18435,63 @@
       <c r="AB101" s="50"/>
       <c r="AC101" s="50"/>
     </row>
-    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="57"/>
-      <c r="B102" s="57"/>
-      <c r="C102" s="58"/>
-      <c r="D102" s="59"/>
-      <c r="E102" s="76"/>
-      <c r="F102" s="69"/>
-      <c r="G102" s="69"/>
-      <c r="H102" s="69"/>
-      <c r="I102" s="69"/>
-      <c r="J102" s="69"/>
-      <c r="K102" s="69"/>
-      <c r="L102" s="69"/>
-      <c r="M102" s="69"/>
-      <c r="N102" s="69"/>
-      <c r="O102" s="69"/>
+    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="86"/>
+      <c r="B102" s="86"/>
+      <c r="C102" s="71" t="s">
+        <v>145</v>
+      </c>
+      <c r="D102" s="72" t="s">
+        <v>146</v>
+      </c>
+      <c r="E102" s="117" t="s">
+        <v>172</v>
+      </c>
+      <c r="F102" s="118" t="s">
+        <v>242</v>
+      </c>
+      <c r="G102" s="119"/>
+      <c r="H102" s="119" t="s">
+        <v>243</v>
+      </c>
+      <c r="I102" s="119"/>
+      <c r="J102" s="119"/>
+      <c r="K102" s="119"/>
+      <c r="L102" s="119"/>
+      <c r="M102" s="120"/>
+      <c r="N102" s="121"/>
+      <c r="O102" s="121"/>
       <c r="P102" s="41"/>
       <c r="Q102" s="42"/>
       <c r="AB102" s="50"/>
       <c r="AC102" s="50"/>
     </row>
-    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="57"/>
-      <c r="B103" s="57"/>
-      <c r="C103" s="58"/>
-      <c r="D103" s="59"/>
-      <c r="E103" s="76"/>
-      <c r="F103" s="69"/>
-      <c r="G103" s="69"/>
-      <c r="H103" s="69"/>
-      <c r="I103" s="69"/>
-      <c r="J103" s="69"/>
-      <c r="K103" s="69"/>
-      <c r="L103" s="69"/>
-      <c r="M103" s="69"/>
-      <c r="N103" s="69"/>
-      <c r="O103" s="69"/>
+    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="94"/>
+      <c r="B103" s="94"/>
+      <c r="C103" s="95" t="s">
+        <v>145</v>
+      </c>
+      <c r="D103" s="96" t="s">
+        <v>146</v>
+      </c>
+      <c r="E103" s="122" t="s">
+        <v>176</v>
+      </c>
+      <c r="F103" s="123" t="s">
+        <v>244</v>
+      </c>
+      <c r="G103" s="124"/>
+      <c r="H103" s="124" t="s">
+        <v>245</v>
+      </c>
+      <c r="I103" s="124"/>
+      <c r="J103" s="124"/>
+      <c r="K103" s="124"/>
+      <c r="L103" s="124"/>
+      <c r="M103" s="126"/>
+      <c r="N103" s="127"/>
+      <c r="O103" s="127"/>
       <c r="P103" s="41"/>
       <c r="Q103" s="42"/>
       <c r="AB103" s="50"/>
@@ -18144,8 +18500,12 @@
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="57"/>
       <c r="B104" s="57"/>
-      <c r="C104" s="58"/>
-      <c r="D104" s="59"/>
+      <c r="C104" s="58" t="s">
+        <v>145</v>
+      </c>
+      <c r="D104" s="59" t="s">
+        <v>146</v>
+      </c>
       <c r="E104" s="76"/>
       <c r="F104" s="69"/>
       <c r="G104" s="69"/>
@@ -18162,22 +18522,32 @@
       <c r="AB104" s="50"/>
       <c r="AC104" s="50"/>
     </row>
-    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="57"/>
-      <c r="B105" s="57"/>
-      <c r="C105" s="58"/>
-      <c r="D105" s="59"/>
-      <c r="E105" s="76"/>
-      <c r="F105" s="69"/>
-      <c r="G105" s="69"/>
-      <c r="H105" s="69"/>
-      <c r="I105" s="69"/>
-      <c r="J105" s="69"/>
-      <c r="K105" s="69"/>
-      <c r="L105" s="69"/>
-      <c r="M105" s="69"/>
-      <c r="N105" s="69"/>
-      <c r="O105" s="69"/>
+    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="94"/>
+      <c r="B105" s="94"/>
+      <c r="C105" s="95" t="s">
+        <v>145</v>
+      </c>
+      <c r="D105" s="96" t="s">
+        <v>146</v>
+      </c>
+      <c r="E105" s="122" t="s">
+        <v>176</v>
+      </c>
+      <c r="F105" s="123" t="s">
+        <v>246</v>
+      </c>
+      <c r="G105" s="124"/>
+      <c r="H105" s="124" t="s">
+        <v>247</v>
+      </c>
+      <c r="I105" s="124"/>
+      <c r="J105" s="124"/>
+      <c r="K105" s="124"/>
+      <c r="L105" s="124"/>
+      <c r="M105" s="126"/>
+      <c r="N105" s="127"/>
+      <c r="O105" s="127"/>
       <c r="P105" s="41"/>
       <c r="Q105" s="42"/>
       <c r="AB105" s="50"/>
@@ -18186,8 +18556,12 @@
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="57"/>
       <c r="B106" s="57"/>
-      <c r="C106" s="58"/>
-      <c r="D106" s="59"/>
+      <c r="C106" s="58" t="s">
+        <v>145</v>
+      </c>
+      <c r="D106" s="59" t="s">
+        <v>146</v>
+      </c>
       <c r="E106" s="76"/>
       <c r="F106" s="69"/>
       <c r="G106" s="69"/>
@@ -18204,22 +18578,32 @@
       <c r="AB106" s="50"/>
       <c r="AC106" s="50"/>
     </row>
-    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="57"/>
-      <c r="B107" s="57"/>
-      <c r="C107" s="58"/>
-      <c r="D107" s="59"/>
-      <c r="E107" s="76"/>
-      <c r="F107" s="69"/>
-      <c r="G107" s="69"/>
-      <c r="H107" s="69"/>
-      <c r="I107" s="69"/>
-      <c r="J107" s="69"/>
-      <c r="K107" s="69"/>
-      <c r="L107" s="69"/>
-      <c r="M107" s="69"/>
-      <c r="N107" s="69"/>
-      <c r="O107" s="69"/>
+    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="94"/>
+      <c r="B107" s="94"/>
+      <c r="C107" s="95" t="s">
+        <v>145</v>
+      </c>
+      <c r="D107" s="96" t="s">
+        <v>146</v>
+      </c>
+      <c r="E107" s="122" t="s">
+        <v>176</v>
+      </c>
+      <c r="F107" s="123" t="s">
+        <v>248</v>
+      </c>
+      <c r="G107" s="124"/>
+      <c r="H107" s="124" t="s">
+        <v>85</v>
+      </c>
+      <c r="I107" s="124"/>
+      <c r="J107" s="124"/>
+      <c r="K107" s="124"/>
+      <c r="L107" s="124"/>
+      <c r="M107" s="126"/>
+      <c r="N107" s="127"/>
+      <c r="O107" s="127"/>
       <c r="P107" s="41"/>
       <c r="Q107" s="42"/>
       <c r="AB107" s="50"/>
@@ -18228,8 +18612,12 @@
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="57"/>
       <c r="B108" s="57"/>
-      <c r="C108" s="58"/>
-      <c r="D108" s="59"/>
+      <c r="C108" s="58" t="s">
+        <v>145</v>
+      </c>
+      <c r="D108" s="59" t="s">
+        <v>146</v>
+      </c>
       <c r="E108" s="76"/>
       <c r="F108" s="69"/>
       <c r="G108" s="69"/>
@@ -18246,43 +18634,63 @@
       <c r="AB108" s="50"/>
       <c r="AC108" s="50"/>
     </row>
-    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="57"/>
-      <c r="B109" s="57"/>
-      <c r="C109" s="58"/>
-      <c r="D109" s="59"/>
-      <c r="E109" s="76"/>
-      <c r="F109" s="69"/>
-      <c r="G109" s="69"/>
-      <c r="H109" s="69"/>
-      <c r="I109" s="69"/>
-      <c r="J109" s="69"/>
-      <c r="K109" s="69"/>
-      <c r="L109" s="69"/>
-      <c r="M109" s="69"/>
-      <c r="N109" s="69"/>
-      <c r="O109" s="69"/>
+    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="86"/>
+      <c r="B109" s="86"/>
+      <c r="C109" s="71" t="s">
+        <v>145</v>
+      </c>
+      <c r="D109" s="72" t="s">
+        <v>146</v>
+      </c>
+      <c r="E109" s="117" t="s">
+        <v>172</v>
+      </c>
+      <c r="F109" s="118" t="s">
+        <v>249</v>
+      </c>
+      <c r="G109" s="119"/>
+      <c r="H109" s="119" t="s">
+        <v>250</v>
+      </c>
+      <c r="I109" s="119"/>
+      <c r="J109" s="119"/>
+      <c r="K109" s="119"/>
+      <c r="L109" s="119"/>
+      <c r="M109" s="120"/>
+      <c r="N109" s="121"/>
+      <c r="O109" s="121"/>
       <c r="P109" s="41"/>
       <c r="Q109" s="42"/>
       <c r="AB109" s="50"/>
       <c r="AC109" s="50"/>
     </row>
-    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="57"/>
-      <c r="B110" s="57"/>
-      <c r="C110" s="58"/>
-      <c r="D110" s="59"/>
-      <c r="E110" s="76"/>
-      <c r="F110" s="69"/>
-      <c r="G110" s="69"/>
-      <c r="H110" s="69"/>
-      <c r="I110" s="69"/>
-      <c r="J110" s="69"/>
-      <c r="K110" s="69"/>
-      <c r="L110" s="69"/>
-      <c r="M110" s="69"/>
-      <c r="N110" s="69"/>
-      <c r="O110" s="69"/>
+    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="94"/>
+      <c r="B110" s="94"/>
+      <c r="C110" s="95" t="s">
+        <v>145</v>
+      </c>
+      <c r="D110" s="96" t="s">
+        <v>146</v>
+      </c>
+      <c r="E110" s="122" t="s">
+        <v>176</v>
+      </c>
+      <c r="F110" s="123" t="s">
+        <v>251</v>
+      </c>
+      <c r="G110" s="124"/>
+      <c r="H110" s="124" t="s">
+        <v>91</v>
+      </c>
+      <c r="I110" s="124"/>
+      <c r="J110" s="124"/>
+      <c r="K110" s="124"/>
+      <c r="L110" s="124"/>
+      <c r="M110" s="126"/>
+      <c r="N110" s="127"/>
+      <c r="O110" s="127"/>
       <c r="P110" s="41"/>
       <c r="Q110" s="42"/>
       <c r="AB110" s="50"/>
@@ -18291,8 +18699,12 @@
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="57"/>
       <c r="B111" s="57"/>
-      <c r="C111" s="58"/>
-      <c r="D111" s="59"/>
+      <c r="C111" s="58" t="s">
+        <v>145</v>
+      </c>
+      <c r="D111" s="59" t="s">
+        <v>146</v>
+      </c>
       <c r="E111" s="76"/>
       <c r="F111" s="69"/>
       <c r="G111" s="69"/>
@@ -18309,22 +18721,32 @@
       <c r="AB111" s="50"/>
       <c r="AC111" s="50"/>
     </row>
-    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="57"/>
-      <c r="B112" s="57"/>
-      <c r="C112" s="58"/>
-      <c r="D112" s="59"/>
-      <c r="E112" s="76"/>
-      <c r="F112" s="69"/>
-      <c r="G112" s="69"/>
-      <c r="H112" s="69"/>
-      <c r="I112" s="69"/>
-      <c r="J112" s="69"/>
-      <c r="K112" s="69"/>
-      <c r="L112" s="69"/>
-      <c r="M112" s="69"/>
-      <c r="N112" s="69"/>
-      <c r="O112" s="69"/>
+    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="94"/>
+      <c r="B112" s="94"/>
+      <c r="C112" s="95" t="s">
+        <v>145</v>
+      </c>
+      <c r="D112" s="96" t="s">
+        <v>146</v>
+      </c>
+      <c r="E112" s="122" t="s">
+        <v>176</v>
+      </c>
+      <c r="F112" s="123" t="s">
+        <v>252</v>
+      </c>
+      <c r="G112" s="124"/>
+      <c r="H112" s="124" t="s">
+        <v>253</v>
+      </c>
+      <c r="I112" s="124"/>
+      <c r="J112" s="124"/>
+      <c r="K112" s="124"/>
+      <c r="L112" s="124"/>
+      <c r="M112" s="126"/>
+      <c r="N112" s="127"/>
+      <c r="O112" s="127"/>
       <c r="P112" s="41"/>
       <c r="Q112" s="42"/>
       <c r="AB112" s="50"/>
@@ -19173,12 +19595,8 @@
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="57"/>
       <c r="B153" s="57"/>
-      <c r="C153" s="58" t="s">
-        <v>145</v>
-      </c>
-      <c r="D153" s="59" t="s">
-        <v>146</v>
-      </c>
+      <c r="C153" s="58"/>
+      <c r="D153" s="59"/>
       <c r="E153" s="76"/>
       <c r="F153" s="69"/>
       <c r="G153" s="69"/>
@@ -19198,12 +19616,8 @@
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="57"/>
       <c r="B154" s="57"/>
-      <c r="C154" s="58" t="s">
-        <v>145</v>
-      </c>
-      <c r="D154" s="59" t="s">
-        <v>146</v>
-      </c>
+      <c r="C154" s="58"/>
+      <c r="D154" s="59"/>
       <c r="E154" s="76"/>
       <c r="F154" s="69"/>
       <c r="G154" s="69"/>
@@ -19223,12 +19637,8 @@
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="57"/>
       <c r="B155" s="57"/>
-      <c r="C155" s="58" t="s">
-        <v>145</v>
-      </c>
-      <c r="D155" s="59" t="s">
-        <v>146</v>
-      </c>
+      <c r="C155" s="58"/>
+      <c r="D155" s="59"/>
       <c r="E155" s="76"/>
       <c r="F155" s="69"/>
       <c r="G155" s="69"/>
@@ -19248,12 +19658,8 @@
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="57"/>
       <c r="B156" s="57"/>
-      <c r="C156" s="58" t="s">
-        <v>145</v>
-      </c>
-      <c r="D156" s="59" t="s">
-        <v>146</v>
-      </c>
+      <c r="C156" s="58"/>
+      <c r="D156" s="59"/>
       <c r="E156" s="76"/>
       <c r="F156" s="69"/>
       <c r="G156" s="69"/>
@@ -19273,12 +19679,8 @@
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="57"/>
       <c r="B157" s="57"/>
-      <c r="C157" s="58" t="s">
-        <v>145</v>
-      </c>
-      <c r="D157" s="59" t="s">
-        <v>146</v>
-      </c>
+      <c r="C157" s="58"/>
+      <c r="D157" s="59"/>
       <c r="E157" s="76"/>
       <c r="F157" s="69"/>
       <c r="G157" s="69"/>
@@ -19298,12 +19700,8 @@
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="57"/>
       <c r="B158" s="57"/>
-      <c r="C158" s="58" t="s">
-        <v>145</v>
-      </c>
-      <c r="D158" s="59" t="s">
-        <v>146</v>
-      </c>
+      <c r="C158" s="58"/>
+      <c r="D158" s="59"/>
       <c r="E158" s="76"/>
       <c r="F158" s="69"/>
       <c r="G158" s="69"/>
@@ -19323,12 +19721,8 @@
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="57"/>
       <c r="B159" s="57"/>
-      <c r="C159" s="58" t="s">
-        <v>145</v>
-      </c>
-      <c r="D159" s="59" t="s">
-        <v>146</v>
-      </c>
+      <c r="C159" s="58"/>
+      <c r="D159" s="59"/>
       <c r="E159" s="76"/>
       <c r="F159" s="69"/>
       <c r="G159" s="69"/>
@@ -19348,12 +19742,8 @@
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="57"/>
       <c r="B160" s="57"/>
-      <c r="C160" s="58" t="s">
-        <v>145</v>
-      </c>
-      <c r="D160" s="59" t="s">
-        <v>146</v>
-      </c>
+      <c r="C160" s="58"/>
+      <c r="D160" s="59"/>
       <c r="E160" s="76"/>
       <c r="F160" s="69"/>
       <c r="G160" s="69"/>
@@ -19373,12 +19763,8 @@
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="57"/>
       <c r="B161" s="57"/>
-      <c r="C161" s="58" t="s">
-        <v>145</v>
-      </c>
-      <c r="D161" s="59" t="s">
-        <v>146</v>
-      </c>
+      <c r="C161" s="58"/>
+      <c r="D161" s="59"/>
       <c r="E161" s="76"/>
       <c r="F161" s="69"/>
       <c r="G161" s="69"/>
@@ -19398,12 +19784,8 @@
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="57"/>
       <c r="B162" s="57"/>
-      <c r="C162" s="58" t="s">
-        <v>145</v>
-      </c>
-      <c r="D162" s="59" t="s">
-        <v>146</v>
-      </c>
+      <c r="C162" s="58"/>
+      <c r="D162" s="59"/>
       <c r="E162" s="76"/>
       <c r="F162" s="69"/>
       <c r="G162" s="69"/>
@@ -19420,72 +19802,54 @@
       <c r="AB162" s="50"/>
       <c r="AC162" s="50"/>
     </row>
-    <row r="163" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A163" s="62"/>
-      <c r="B163" s="62"/>
-      <c r="C163" s="63" t="s">
-        <v>145</v>
-      </c>
-      <c r="D163" s="64" t="s">
-        <v>146</v>
-      </c>
-      <c r="E163" s="65" t="s">
-        <v>150</v>
-      </c>
-      <c r="F163" s="66" t="s">
-        <v>238</v>
-      </c>
-      <c r="G163" s="67"/>
-      <c r="H163" s="67"/>
-      <c r="I163" s="67"/>
-      <c r="J163" s="67"/>
-      <c r="K163" s="67"/>
-      <c r="L163" s="67"/>
-      <c r="M163" s="67"/>
-      <c r="N163" s="67"/>
-      <c r="O163" s="67"/>
+    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="57"/>
+      <c r="B163" s="57"/>
+      <c r="C163" s="58"/>
+      <c r="D163" s="59"/>
+      <c r="E163" s="76"/>
+      <c r="F163" s="69"/>
+      <c r="G163" s="69"/>
+      <c r="H163" s="69"/>
+      <c r="I163" s="69"/>
+      <c r="J163" s="69"/>
+      <c r="K163" s="69"/>
+      <c r="L163" s="69"/>
+      <c r="M163" s="69"/>
+      <c r="N163" s="69"/>
+      <c r="O163" s="69"/>
       <c r="P163" s="41"/>
       <c r="Q163" s="42"/>
       <c r="AB163" s="50"/>
       <c r="AC163" s="50"/>
     </row>
-    <row r="164" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A164" s="70"/>
-      <c r="B164" s="70"/>
-      <c r="C164" s="71" t="s">
-        <v>145</v>
-      </c>
-      <c r="D164" s="72" t="s">
-        <v>146</v>
-      </c>
-      <c r="E164" s="73" t="s">
-        <v>157</v>
-      </c>
-      <c r="F164" s="74" t="s">
-        <v>239</v>
-      </c>
-      <c r="G164" s="75"/>
-      <c r="H164" s="75"/>
-      <c r="I164" s="75"/>
-      <c r="J164" s="75"/>
-      <c r="K164" s="75"/>
-      <c r="L164" s="75"/>
-      <c r="M164" s="75"/>
-      <c r="N164" s="75"/>
-      <c r="O164" s="75"/>
+    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="57"/>
+      <c r="B164" s="57"/>
+      <c r="C164" s="58"/>
+      <c r="D164" s="59"/>
+      <c r="E164" s="76"/>
+      <c r="F164" s="69"/>
+      <c r="G164" s="69"/>
+      <c r="H164" s="69"/>
+      <c r="I164" s="69"/>
+      <c r="J164" s="69"/>
+      <c r="K164" s="69"/>
+      <c r="L164" s="69"/>
+      <c r="M164" s="69"/>
+      <c r="N164" s="69"/>
+      <c r="O164" s="69"/>
       <c r="P164" s="41"/>
       <c r="Q164" s="42"/>
       <c r="AB164" s="50"/>
       <c r="AC164" s="50"/>
     </row>
-    <row r="165" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="57"/>
       <c r="B165" s="57"/>
       <c r="C165" s="58"/>
       <c r="D165" s="59"/>
-      <c r="E165" s="76" t="s">
-        <v>240</v>
-      </c>
+      <c r="E165" s="76"/>
       <c r="F165" s="69"/>
       <c r="G165" s="69"/>
       <c r="H165" s="69"/>
@@ -19501,15 +19865,13 @@
       <c r="AB165" s="50"/>
       <c r="AC165" s="50"/>
     </row>
-    <row r="166" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="57"/>
       <c r="B166" s="57"/>
       <c r="C166" s="58"/>
       <c r="D166" s="59"/>
       <c r="E166" s="76"/>
-      <c r="F166" s="69" t="s">
-        <v>241</v>
-      </c>
+      <c r="F166" s="69"/>
       <c r="G166" s="69"/>
       <c r="H166" s="69"/>
       <c r="I166" s="69"/>
@@ -19524,16 +19886,18 @@
       <c r="AB166" s="50"/>
       <c r="AC166" s="50"/>
     </row>
-    <row r="167" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="57"/>
       <c r="B167" s="57"/>
-      <c r="C167" s="58"/>
-      <c r="D167" s="59"/>
+      <c r="C167" s="58" t="s">
+        <v>145</v>
+      </c>
+      <c r="D167" s="59" t="s">
+        <v>146</v>
+      </c>
       <c r="E167" s="76"/>
       <c r="F167" s="69"/>
-      <c r="G167" s="69" t="s">
-        <v>242</v>
-      </c>
+      <c r="G167" s="69"/>
       <c r="H167" s="69"/>
       <c r="I167" s="69"/>
       <c r="J167" s="69"/>
@@ -19547,16 +19911,18 @@
       <c r="AB167" s="50"/>
       <c r="AC167" s="50"/>
     </row>
-    <row r="168" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="57"/>
       <c r="B168" s="57"/>
-      <c r="C168" s="58"/>
-      <c r="D168" s="59"/>
+      <c r="C168" s="58" t="s">
+        <v>145</v>
+      </c>
+      <c r="D168" s="59" t="s">
+        <v>146</v>
+      </c>
       <c r="E168" s="76"/>
       <c r="F168" s="69"/>
-      <c r="G168" s="69" t="s">
-        <v>243</v>
-      </c>
+      <c r="G168" s="69"/>
       <c r="H168" s="69"/>
       <c r="I168" s="69"/>
       <c r="J168" s="69"/>
@@ -19570,16 +19936,18 @@
       <c r="AB168" s="50"/>
       <c r="AC168" s="50"/>
     </row>
-    <row r="169" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="57"/>
       <c r="B169" s="57"/>
-      <c r="C169" s="58"/>
-      <c r="D169" s="59"/>
+      <c r="C169" s="58" t="s">
+        <v>145</v>
+      </c>
+      <c r="D169" s="59" t="s">
+        <v>146</v>
+      </c>
       <c r="E169" s="76"/>
       <c r="F169" s="69"/>
-      <c r="G169" s="69" t="s">
-        <v>244</v>
-      </c>
+      <c r="G169" s="69"/>
       <c r="H169" s="69"/>
       <c r="I169" s="69"/>
       <c r="J169" s="69"/>
@@ -19593,16 +19961,18 @@
       <c r="AB169" s="50"/>
       <c r="AC169" s="50"/>
     </row>
-    <row r="170" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="57"/>
       <c r="B170" s="57"/>
-      <c r="C170" s="58"/>
-      <c r="D170" s="59"/>
+      <c r="C170" s="58" t="s">
+        <v>145</v>
+      </c>
+      <c r="D170" s="59" t="s">
+        <v>146</v>
+      </c>
       <c r="E170" s="76"/>
       <c r="F170" s="69"/>
-      <c r="G170" s="69" t="s">
-        <v>245</v>
-      </c>
+      <c r="G170" s="69"/>
       <c r="H170" s="69"/>
       <c r="I170" s="69"/>
       <c r="J170" s="69"/>
@@ -19616,17 +19986,19 @@
       <c r="AB170" s="50"/>
       <c r="AC170" s="50"/>
     </row>
-    <row r="171" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="57"/>
       <c r="B171" s="57"/>
-      <c r="C171" s="58"/>
-      <c r="D171" s="59"/>
+      <c r="C171" s="58" t="s">
+        <v>145</v>
+      </c>
+      <c r="D171" s="59" t="s">
+        <v>146</v>
+      </c>
       <c r="E171" s="76"/>
       <c r="F171" s="69"/>
       <c r="G171" s="69"/>
-      <c r="H171" s="69" t="s">
-        <v>246</v>
-      </c>
+      <c r="H171" s="69"/>
       <c r="I171" s="69"/>
       <c r="J171" s="69"/>
       <c r="K171" s="69"/>
@@ -19639,17 +20011,19 @@
       <c r="AB171" s="50"/>
       <c r="AC171" s="50"/>
     </row>
-    <row r="172" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="57"/>
       <c r="B172" s="57"/>
-      <c r="C172" s="58"/>
-      <c r="D172" s="59"/>
+      <c r="C172" s="58" t="s">
+        <v>145</v>
+      </c>
+      <c r="D172" s="59" t="s">
+        <v>146</v>
+      </c>
       <c r="E172" s="76"/>
       <c r="F172" s="69"/>
       <c r="G172" s="69"/>
-      <c r="H172" s="69" t="s">
-        <v>247</v>
-      </c>
+      <c r="H172" s="69"/>
       <c r="I172" s="69"/>
       <c r="J172" s="69"/>
       <c r="K172" s="69"/>
@@ -19662,17 +20036,19 @@
       <c r="AB172" s="50"/>
       <c r="AC172" s="50"/>
     </row>
-    <row r="173" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="57"/>
       <c r="B173" s="57"/>
-      <c r="C173" s="58"/>
-      <c r="D173" s="59"/>
+      <c r="C173" s="58" t="s">
+        <v>145</v>
+      </c>
+      <c r="D173" s="59" t="s">
+        <v>146</v>
+      </c>
       <c r="E173" s="76"/>
       <c r="F173" s="69"/>
       <c r="G173" s="69"/>
-      <c r="H173" s="69" t="s">
-        <v>248</v>
-      </c>
+      <c r="H173" s="69"/>
       <c r="I173" s="69"/>
       <c r="J173" s="69"/>
       <c r="K173" s="69"/>
@@ -19685,17 +20061,19 @@
       <c r="AB173" s="50"/>
       <c r="AC173" s="50"/>
     </row>
-    <row r="174" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="57"/>
       <c r="B174" s="57"/>
-      <c r="C174" s="58"/>
-      <c r="D174" s="59"/>
+      <c r="C174" s="58" t="s">
+        <v>145</v>
+      </c>
+      <c r="D174" s="59" t="s">
+        <v>146</v>
+      </c>
       <c r="E174" s="76"/>
       <c r="F174" s="69"/>
       <c r="G174" s="69"/>
-      <c r="H174" s="69" t="s">
-        <v>249</v>
-      </c>
+      <c r="H174" s="69"/>
       <c r="I174" s="69"/>
       <c r="J174" s="69"/>
       <c r="K174" s="69"/>
@@ -19708,18 +20086,20 @@
       <c r="AB174" s="50"/>
       <c r="AC174" s="50"/>
     </row>
-    <row r="175" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="57"/>
       <c r="B175" s="57"/>
-      <c r="C175" s="58"/>
-      <c r="D175" s="59"/>
+      <c r="C175" s="58" t="s">
+        <v>145</v>
+      </c>
+      <c r="D175" s="59" t="s">
+        <v>146</v>
+      </c>
       <c r="E175" s="76"/>
       <c r="F175" s="69"/>
       <c r="G175" s="69"/>
       <c r="H175" s="69"/>
-      <c r="I175" s="69" t="s">
-        <v>250</v>
-      </c>
+      <c r="I175" s="69"/>
       <c r="J175" s="69"/>
       <c r="K175" s="69"/>
       <c r="L175" s="69"/>
@@ -19731,18 +20111,20 @@
       <c r="AB175" s="50"/>
       <c r="AC175" s="50"/>
     </row>
-    <row r="176" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="57"/>
       <c r="B176" s="57"/>
-      <c r="C176" s="58"/>
-      <c r="D176" s="59"/>
+      <c r="C176" s="58" t="s">
+        <v>145</v>
+      </c>
+      <c r="D176" s="59" t="s">
+        <v>146</v>
+      </c>
       <c r="E176" s="76"/>
       <c r="F176" s="69"/>
       <c r="G176" s="69"/>
       <c r="H176" s="69"/>
-      <c r="I176" s="69" t="s">
-        <v>251</v>
-      </c>
+      <c r="I176" s="69"/>
       <c r="J176" s="69"/>
       <c r="K176" s="69"/>
       <c r="L176" s="69"/>
@@ -19755,46 +20137,58 @@
       <c r="AC176" s="50"/>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A177" s="57"/>
-      <c r="B177" s="57"/>
-      <c r="C177" s="58"/>
-      <c r="D177" s="59"/>
-      <c r="E177" s="76"/>
-      <c r="F177" s="69"/>
-      <c r="G177" s="69"/>
-      <c r="H177" s="69"/>
-      <c r="I177" s="69" t="s">
-        <v>252</v>
-      </c>
-      <c r="J177" s="69"/>
-      <c r="K177" s="69"/>
-      <c r="L177" s="69"/>
-      <c r="M177" s="69"/>
-      <c r="N177" s="69"/>
-      <c r="O177" s="69"/>
+      <c r="A177" s="62"/>
+      <c r="B177" s="62"/>
+      <c r="C177" s="63" t="s">
+        <v>145</v>
+      </c>
+      <c r="D177" s="64" t="s">
+        <v>146</v>
+      </c>
+      <c r="E177" s="65" t="s">
+        <v>150</v>
+      </c>
+      <c r="F177" s="66" t="s">
+        <v>254</v>
+      </c>
+      <c r="G177" s="67"/>
+      <c r="H177" s="67"/>
+      <c r="I177" s="67"/>
+      <c r="J177" s="67"/>
+      <c r="K177" s="67"/>
+      <c r="L177" s="67"/>
+      <c r="M177" s="67"/>
+      <c r="N177" s="67"/>
+      <c r="O177" s="67"/>
       <c r="P177" s="41"/>
       <c r="Q177" s="42"/>
       <c r="AB177" s="50"/>
       <c r="AC177" s="50"/>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A178" s="57"/>
-      <c r="B178" s="57"/>
-      <c r="C178" s="58"/>
-      <c r="D178" s="59"/>
-      <c r="E178" s="76"/>
-      <c r="F178" s="69"/>
-      <c r="G178" s="69"/>
-      <c r="H178" s="69" t="s">
-        <v>253</v>
-      </c>
-      <c r="I178" s="69"/>
-      <c r="J178" s="69"/>
-      <c r="K178" s="69"/>
-      <c r="L178" s="69"/>
-      <c r="M178" s="69"/>
-      <c r="N178" s="69"/>
-      <c r="O178" s="69"/>
+      <c r="A178" s="70"/>
+      <c r="B178" s="70"/>
+      <c r="C178" s="71" t="s">
+        <v>145</v>
+      </c>
+      <c r="D178" s="72" t="s">
+        <v>146</v>
+      </c>
+      <c r="E178" s="73" t="s">
+        <v>157</v>
+      </c>
+      <c r="F178" s="74" t="s">
+        <v>255</v>
+      </c>
+      <c r="G178" s="75"/>
+      <c r="H178" s="75"/>
+      <c r="I178" s="75"/>
+      <c r="J178" s="75"/>
+      <c r="K178" s="75"/>
+      <c r="L178" s="75"/>
+      <c r="M178" s="75"/>
+      <c r="N178" s="75"/>
+      <c r="O178" s="75"/>
       <c r="P178" s="41"/>
       <c r="Q178" s="42"/>
       <c r="AB178" s="50"/>
@@ -19805,11 +20199,11 @@
       <c r="B179" s="57"/>
       <c r="C179" s="58"/>
       <c r="D179" s="59"/>
-      <c r="E179" s="76"/>
+      <c r="E179" s="76" t="s">
+        <v>180</v>
+      </c>
       <c r="F179" s="69"/>
-      <c r="G179" s="69" t="s">
-        <v>253</v>
-      </c>
+      <c r="G179" s="69"/>
       <c r="H179" s="69"/>
       <c r="I179" s="69"/>
       <c r="J179" s="69"/>
@@ -19830,7 +20224,7 @@
       <c r="D180" s="59"/>
       <c r="E180" s="76"/>
       <c r="F180" s="69" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="G180" s="69"/>
       <c r="H180" s="69"/>
@@ -19852,10 +20246,10 @@
       <c r="C181" s="58"/>
       <c r="D181" s="59"/>
       <c r="E181" s="76"/>
-      <c r="F181" s="69" t="s">
-        <v>255</v>
-      </c>
-      <c r="G181" s="69"/>
+      <c r="F181" s="69"/>
+      <c r="G181" s="69" t="s">
+        <v>257</v>
+      </c>
       <c r="H181" s="69"/>
       <c r="I181" s="69"/>
       <c r="J181" s="69"/>
@@ -19876,7 +20270,9 @@
       <c r="D182" s="59"/>
       <c r="E182" s="76"/>
       <c r="F182" s="69"/>
-      <c r="G182" s="69"/>
+      <c r="G182" s="69" t="s">
+        <v>258</v>
+      </c>
       <c r="H182" s="69"/>
       <c r="I182" s="69"/>
       <c r="J182" s="69"/>
@@ -19896,10 +20292,10 @@
       <c r="C183" s="58"/>
       <c r="D183" s="59"/>
       <c r="E183" s="76"/>
-      <c r="F183" s="69" t="s">
-        <v>254</v>
-      </c>
-      <c r="G183" s="69"/>
+      <c r="F183" s="69"/>
+      <c r="G183" s="69" t="s">
+        <v>259</v>
+      </c>
       <c r="H183" s="69"/>
       <c r="I183" s="69"/>
       <c r="J183" s="69"/>
@@ -19918,11 +20314,11 @@
       <c r="B184" s="57"/>
       <c r="C184" s="58"/>
       <c r="D184" s="59"/>
-      <c r="E184" s="76" t="s">
-        <v>240</v>
-      </c>
+      <c r="E184" s="76"/>
       <c r="F184" s="69"/>
-      <c r="G184" s="69"/>
+      <c r="G184" s="69" t="s">
+        <v>260</v>
+      </c>
       <c r="H184" s="69"/>
       <c r="I184" s="69"/>
       <c r="J184" s="69"/>
@@ -19936,151 +20332,387 @@
       <c r="AB184" s="50"/>
       <c r="AC184" s="50"/>
     </row>
-    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="41"/>
-      <c r="B185" s="41"/>
-      <c r="C185" s="41"/>
-      <c r="D185" s="41"/>
-      <c r="E185" s="41"/>
-      <c r="F185" s="41"/>
-      <c r="G185" s="41"/>
-      <c r="H185" s="41"/>
-      <c r="I185" s="41"/>
-      <c r="J185" s="41"/>
-      <c r="K185" s="41"/>
-      <c r="L185" s="41"/>
-      <c r="M185" s="41"/>
-      <c r="N185" s="41"/>
-      <c r="O185" s="41"/>
+    <row r="185" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A185" s="57"/>
+      <c r="B185" s="57"/>
+      <c r="C185" s="58"/>
+      <c r="D185" s="59"/>
+      <c r="E185" s="76"/>
+      <c r="F185" s="69"/>
+      <c r="G185" s="69"/>
+      <c r="H185" s="69" t="s">
+        <v>261</v>
+      </c>
+      <c r="I185" s="69"/>
+      <c r="J185" s="69"/>
+      <c r="K185" s="69"/>
+      <c r="L185" s="69"/>
+      <c r="M185" s="69"/>
+      <c r="N185" s="69"/>
+      <c r="O185" s="69"/>
       <c r="P185" s="41"/>
       <c r="Q185" s="42"/>
-      <c r="W185" s="50"/>
-      <c r="X185" s="50"/>
       <c r="AB185" s="50"/>
       <c r="AC185" s="50"/>
     </row>
-    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="42"/>
-      <c r="B186" s="42"/>
-      <c r="C186" s="109"/>
-      <c r="D186" s="109"/>
-      <c r="E186" s="109"/>
-      <c r="F186" s="110" t="n">
-        <v>0</v>
-      </c>
-      <c r="G186" s="110" t="n">
-        <v>1</v>
-      </c>
-      <c r="H186" s="110" t="n">
-        <v>2</v>
-      </c>
-      <c r="I186" s="110" t="n">
-        <v>3</v>
-      </c>
-      <c r="J186" s="110" t="n">
-        <v>4</v>
-      </c>
-      <c r="K186" s="110" t="n">
-        <v>5</v>
-      </c>
-      <c r="L186" s="110" t="n">
-        <v>6</v>
-      </c>
-      <c r="M186" s="110" t="n">
-        <v>7</v>
-      </c>
-      <c r="N186" s="110" t="n">
-        <v>8</v>
-      </c>
-      <c r="O186" s="110" t="n">
-        <v>9</v>
-      </c>
-      <c r="P186" s="42"/>
+    <row r="186" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A186" s="57"/>
+      <c r="B186" s="57"/>
+      <c r="C186" s="58"/>
+      <c r="D186" s="59"/>
+      <c r="E186" s="76"/>
+      <c r="F186" s="69"/>
+      <c r="G186" s="69"/>
+      <c r="H186" s="69" t="s">
+        <v>262</v>
+      </c>
+      <c r="I186" s="69"/>
+      <c r="J186" s="69"/>
+      <c r="K186" s="69"/>
+      <c r="L186" s="69"/>
+      <c r="M186" s="69"/>
+      <c r="N186" s="69"/>
+      <c r="O186" s="69"/>
+      <c r="P186" s="41"/>
       <c r="Q186" s="42"/>
-      <c r="W186" s="50"/>
-      <c r="X186" s="50"/>
       <c r="AB186" s="50"/>
       <c r="AC186" s="50"/>
     </row>
-    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W187" s="50"/>
-      <c r="X187" s="50"/>
+    <row r="187" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A187" s="57"/>
+      <c r="B187" s="57"/>
+      <c r="C187" s="58"/>
+      <c r="D187" s="59"/>
+      <c r="E187" s="76"/>
+      <c r="F187" s="69"/>
+      <c r="G187" s="69"/>
+      <c r="H187" s="69" t="s">
+        <v>263</v>
+      </c>
+      <c r="I187" s="69"/>
+      <c r="J187" s="69"/>
+      <c r="K187" s="69"/>
+      <c r="L187" s="69"/>
+      <c r="M187" s="69"/>
+      <c r="N187" s="69"/>
+      <c r="O187" s="69"/>
+      <c r="P187" s="41"/>
+      <c r="Q187" s="42"/>
       <c r="AB187" s="50"/>
       <c r="AC187" s="50"/>
     </row>
-    <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W188" s="50"/>
-      <c r="X188" s="50"/>
+    <row r="188" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A188" s="57"/>
+      <c r="B188" s="57"/>
+      <c r="C188" s="58"/>
+      <c r="D188" s="59"/>
+      <c r="E188" s="76"/>
+      <c r="F188" s="69"/>
+      <c r="G188" s="69"/>
+      <c r="H188" s="69" t="s">
+        <v>264</v>
+      </c>
+      <c r="I188" s="69"/>
+      <c r="J188" s="69"/>
+      <c r="K188" s="69"/>
+      <c r="L188" s="69"/>
+      <c r="M188" s="69"/>
+      <c r="N188" s="69"/>
+      <c r="O188" s="69"/>
+      <c r="P188" s="41"/>
+      <c r="Q188" s="42"/>
       <c r="AB188" s="50"/>
       <c r="AC188" s="50"/>
     </row>
-    <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W189" s="50"/>
-      <c r="X189" s="50"/>
+    <row r="189" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A189" s="57"/>
+      <c r="B189" s="57"/>
+      <c r="C189" s="58"/>
+      <c r="D189" s="59"/>
+      <c r="E189" s="76"/>
+      <c r="F189" s="69"/>
+      <c r="G189" s="69"/>
+      <c r="H189" s="69"/>
+      <c r="I189" s="69" t="s">
+        <v>265</v>
+      </c>
+      <c r="J189" s="69"/>
+      <c r="K189" s="69"/>
+      <c r="L189" s="69"/>
+      <c r="M189" s="69"/>
+      <c r="N189" s="69"/>
+      <c r="O189" s="69"/>
+      <c r="P189" s="41"/>
+      <c r="Q189" s="42"/>
       <c r="AB189" s="50"/>
       <c r="AC189" s="50"/>
     </row>
-    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W190" s="50"/>
-      <c r="X190" s="50"/>
+    <row r="190" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A190" s="57"/>
+      <c r="B190" s="57"/>
+      <c r="C190" s="58"/>
+      <c r="D190" s="59"/>
+      <c r="E190" s="76"/>
+      <c r="F190" s="69"/>
+      <c r="G190" s="69"/>
+      <c r="H190" s="69"/>
+      <c r="I190" s="69" t="s">
+        <v>266</v>
+      </c>
+      <c r="J190" s="69"/>
+      <c r="K190" s="69"/>
+      <c r="L190" s="69"/>
+      <c r="M190" s="69"/>
+      <c r="N190" s="69"/>
+      <c r="O190" s="69"/>
+      <c r="P190" s="41"/>
+      <c r="Q190" s="42"/>
       <c r="AB190" s="50"/>
       <c r="AC190" s="50"/>
     </row>
-    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W191" s="50"/>
-      <c r="X191" s="50"/>
+    <row r="191" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A191" s="57"/>
+      <c r="B191" s="57"/>
+      <c r="C191" s="58"/>
+      <c r="D191" s="59"/>
+      <c r="E191" s="76"/>
+      <c r="F191" s="69"/>
+      <c r="G191" s="69"/>
+      <c r="H191" s="69"/>
+      <c r="I191" s="69" t="s">
+        <v>267</v>
+      </c>
+      <c r="J191" s="69"/>
+      <c r="K191" s="69"/>
+      <c r="L191" s="69"/>
+      <c r="M191" s="69"/>
+      <c r="N191" s="69"/>
+      <c r="O191" s="69"/>
+      <c r="P191" s="41"/>
+      <c r="Q191" s="42"/>
       <c r="AB191" s="50"/>
       <c r="AC191" s="50"/>
     </row>
-    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W192" s="50"/>
-      <c r="X192" s="50"/>
+    <row r="192" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A192" s="57"/>
+      <c r="B192" s="57"/>
+      <c r="C192" s="58"/>
+      <c r="D192" s="59"/>
+      <c r="E192" s="76"/>
+      <c r="F192" s="69"/>
+      <c r="G192" s="69"/>
+      <c r="H192" s="69" t="s">
+        <v>185</v>
+      </c>
+      <c r="I192" s="69"/>
+      <c r="J192" s="69"/>
+      <c r="K192" s="69"/>
+      <c r="L192" s="69"/>
+      <c r="M192" s="69"/>
+      <c r="N192" s="69"/>
+      <c r="O192" s="69"/>
+      <c r="P192" s="41"/>
+      <c r="Q192" s="42"/>
       <c r="AB192" s="50"/>
       <c r="AC192" s="50"/>
     </row>
-    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W193" s="50"/>
-      <c r="X193" s="50"/>
+    <row r="193" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A193" s="57"/>
+      <c r="B193" s="57"/>
+      <c r="C193" s="58"/>
+      <c r="D193" s="59"/>
+      <c r="E193" s="76"/>
+      <c r="F193" s="69"/>
+      <c r="G193" s="69" t="s">
+        <v>185</v>
+      </c>
+      <c r="H193" s="69"/>
+      <c r="I193" s="69"/>
+      <c r="J193" s="69"/>
+      <c r="K193" s="69"/>
+      <c r="L193" s="69"/>
+      <c r="M193" s="69"/>
+      <c r="N193" s="69"/>
+      <c r="O193" s="69"/>
+      <c r="P193" s="41"/>
+      <c r="Q193" s="42"/>
       <c r="AB193" s="50"/>
       <c r="AC193" s="50"/>
     </row>
-    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W194" s="50"/>
-      <c r="X194" s="50"/>
+    <row r="194" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A194" s="57"/>
+      <c r="B194" s="57"/>
+      <c r="C194" s="58"/>
+      <c r="D194" s="59"/>
+      <c r="E194" s="76"/>
+      <c r="F194" s="69" t="s">
+        <v>268</v>
+      </c>
+      <c r="G194" s="69"/>
+      <c r="H194" s="69"/>
+      <c r="I194" s="69"/>
+      <c r="J194" s="69"/>
+      <c r="K194" s="69"/>
+      <c r="L194" s="69"/>
+      <c r="M194" s="69"/>
+      <c r="N194" s="69"/>
+      <c r="O194" s="69"/>
+      <c r="P194" s="41"/>
+      <c r="Q194" s="42"/>
       <c r="AB194" s="50"/>
       <c r="AC194" s="50"/>
     </row>
-    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W195" s="50"/>
-      <c r="X195" s="50"/>
+    <row r="195" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A195" s="57"/>
+      <c r="B195" s="57"/>
+      <c r="C195" s="58"/>
+      <c r="D195" s="59"/>
+      <c r="E195" s="76"/>
+      <c r="F195" s="69" t="s">
+        <v>269</v>
+      </c>
+      <c r="G195" s="69"/>
+      <c r="H195" s="69"/>
+      <c r="I195" s="69"/>
+      <c r="J195" s="69"/>
+      <c r="K195" s="69"/>
+      <c r="L195" s="69"/>
+      <c r="M195" s="69"/>
+      <c r="N195" s="69"/>
+      <c r="O195" s="69"/>
+      <c r="P195" s="41"/>
+      <c r="Q195" s="42"/>
       <c r="AB195" s="50"/>
       <c r="AC195" s="50"/>
     </row>
-    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W196" s="50"/>
-      <c r="X196" s="50"/>
+    <row r="196" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A196" s="57"/>
+      <c r="B196" s="57"/>
+      <c r="C196" s="58"/>
+      <c r="D196" s="59"/>
+      <c r="E196" s="76"/>
+      <c r="F196" s="69"/>
+      <c r="G196" s="69"/>
+      <c r="H196" s="69"/>
+      <c r="I196" s="69"/>
+      <c r="J196" s="69"/>
+      <c r="K196" s="69"/>
+      <c r="L196" s="69"/>
+      <c r="M196" s="69"/>
+      <c r="N196" s="69"/>
+      <c r="O196" s="69"/>
+      <c r="P196" s="41"/>
+      <c r="Q196" s="42"/>
       <c r="AB196" s="50"/>
       <c r="AC196" s="50"/>
     </row>
-    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W197" s="50"/>
-      <c r="X197" s="50"/>
+    <row r="197" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A197" s="57"/>
+      <c r="B197" s="57"/>
+      <c r="C197" s="58"/>
+      <c r="D197" s="59"/>
+      <c r="E197" s="76"/>
+      <c r="F197" s="69" t="s">
+        <v>268</v>
+      </c>
+      <c r="G197" s="69"/>
+      <c r="H197" s="69"/>
+      <c r="I197" s="69"/>
+      <c r="J197" s="69"/>
+      <c r="K197" s="69"/>
+      <c r="L197" s="69"/>
+      <c r="M197" s="69"/>
+      <c r="N197" s="69"/>
+      <c r="O197" s="69"/>
+      <c r="P197" s="41"/>
+      <c r="Q197" s="42"/>
       <c r="AB197" s="50"/>
       <c r="AC197" s="50"/>
     </row>
-    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W198" s="50"/>
-      <c r="X198" s="50"/>
+    <row r="198" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A198" s="57"/>
+      <c r="B198" s="57"/>
+      <c r="C198" s="58"/>
+      <c r="D198" s="59"/>
+      <c r="E198" s="76" t="s">
+        <v>180</v>
+      </c>
+      <c r="F198" s="69"/>
+      <c r="G198" s="69"/>
+      <c r="H198" s="69"/>
+      <c r="I198" s="69"/>
+      <c r="J198" s="69"/>
+      <c r="K198" s="69"/>
+      <c r="L198" s="69"/>
+      <c r="M198" s="69"/>
+      <c r="N198" s="69"/>
+      <c r="O198" s="69"/>
+      <c r="P198" s="41"/>
+      <c r="Q198" s="42"/>
       <c r="AB198" s="50"/>
       <c r="AC198" s="50"/>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="41"/>
+      <c r="B199" s="41"/>
+      <c r="C199" s="41"/>
+      <c r="D199" s="41"/>
+      <c r="E199" s="41"/>
+      <c r="F199" s="41"/>
+      <c r="G199" s="41"/>
+      <c r="H199" s="41"/>
+      <c r="I199" s="41"/>
+      <c r="J199" s="41"/>
+      <c r="K199" s="41"/>
+      <c r="L199" s="41"/>
+      <c r="M199" s="41"/>
+      <c r="N199" s="41"/>
+      <c r="O199" s="41"/>
+      <c r="P199" s="41"/>
+      <c r="Q199" s="42"/>
       <c r="W199" s="50"/>
       <c r="X199" s="50"/>
       <c r="AB199" s="50"/>
       <c r="AC199" s="50"/>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="42"/>
+      <c r="B200" s="42"/>
+      <c r="C200" s="128"/>
+      <c r="D200" s="128"/>
+      <c r="E200" s="128"/>
+      <c r="F200" s="129" t="n">
+        <v>0</v>
+      </c>
+      <c r="G200" s="129" t="n">
+        <v>1</v>
+      </c>
+      <c r="H200" s="129" t="n">
+        <v>2</v>
+      </c>
+      <c r="I200" s="129" t="n">
+        <v>3</v>
+      </c>
+      <c r="J200" s="129" t="n">
+        <v>4</v>
+      </c>
+      <c r="K200" s="129" t="n">
+        <v>5</v>
+      </c>
+      <c r="L200" s="129" t="n">
+        <v>6</v>
+      </c>
+      <c r="M200" s="129" t="n">
+        <v>7</v>
+      </c>
+      <c r="N200" s="129" t="n">
+        <v>8</v>
+      </c>
+      <c r="O200" s="129" t="n">
+        <v>9</v>
+      </c>
+      <c r="P200" s="42"/>
+      <c r="Q200" s="42"/>
       <c r="W200" s="50"/>
       <c r="X200" s="50"/>
       <c r="AB200" s="50"/>
@@ -20103,6 +20735,90 @@
       <c r="X203" s="50"/>
       <c r="AB203" s="50"/>
       <c r="AC203" s="50"/>
+    </row>
+    <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W204" s="50"/>
+      <c r="X204" s="50"/>
+      <c r="AB204" s="50"/>
+      <c r="AC204" s="50"/>
+    </row>
+    <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W205" s="50"/>
+      <c r="X205" s="50"/>
+      <c r="AB205" s="50"/>
+      <c r="AC205" s="50"/>
+    </row>
+    <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W206" s="50"/>
+      <c r="X206" s="50"/>
+      <c r="AB206" s="50"/>
+      <c r="AC206" s="50"/>
+    </row>
+    <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W207" s="50"/>
+      <c r="X207" s="50"/>
+      <c r="AB207" s="50"/>
+      <c r="AC207" s="50"/>
+    </row>
+    <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W208" s="50"/>
+      <c r="X208" s="50"/>
+      <c r="AB208" s="50"/>
+      <c r="AC208" s="50"/>
+    </row>
+    <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W209" s="50"/>
+      <c r="X209" s="50"/>
+      <c r="AB209" s="50"/>
+      <c r="AC209" s="50"/>
+    </row>
+    <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W210" s="50"/>
+      <c r="X210" s="50"/>
+      <c r="AB210" s="50"/>
+      <c r="AC210" s="50"/>
+    </row>
+    <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W211" s="50"/>
+      <c r="X211" s="50"/>
+      <c r="AB211" s="50"/>
+      <c r="AC211" s="50"/>
+    </row>
+    <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W212" s="50"/>
+      <c r="X212" s="50"/>
+      <c r="AB212" s="50"/>
+      <c r="AC212" s="50"/>
+    </row>
+    <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W213" s="50"/>
+      <c r="X213" s="50"/>
+      <c r="AB213" s="50"/>
+      <c r="AC213" s="50"/>
+    </row>
+    <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W214" s="50"/>
+      <c r="X214" s="50"/>
+      <c r="AB214" s="50"/>
+      <c r="AC214" s="50"/>
+    </row>
+    <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W215" s="50"/>
+      <c r="X215" s="50"/>
+      <c r="AB215" s="50"/>
+      <c r="AC215" s="50"/>
+    </row>
+    <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W216" s="50"/>
+      <c r="X216" s="50"/>
+      <c r="AB216" s="50"/>
+      <c r="AC216" s="50"/>
+    </row>
+    <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W217" s="50"/>
+      <c r="X217" s="50"/>
+      <c r="AB217" s="50"/>
+      <c r="AC217" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="39">
@@ -20125,26 +20841,26 @@
     <mergeCell ref="J16:O16"/>
     <mergeCell ref="J17:O17"/>
     <mergeCell ref="J18:O18"/>
-    <mergeCell ref="F24:O24"/>
     <mergeCell ref="F25:O25"/>
-    <mergeCell ref="F61:O61"/>
-    <mergeCell ref="F165:O165"/>
-    <mergeCell ref="F166:O166"/>
-    <mergeCell ref="G167:O167"/>
-    <mergeCell ref="G168:O168"/>
-    <mergeCell ref="G169:O169"/>
-    <mergeCell ref="G170:O170"/>
-    <mergeCell ref="H171:O171"/>
-    <mergeCell ref="H172:O172"/>
-    <mergeCell ref="H173:O173"/>
-    <mergeCell ref="H174:O174"/>
-    <mergeCell ref="I175:O175"/>
-    <mergeCell ref="I176:O176"/>
-    <mergeCell ref="I177:O177"/>
-    <mergeCell ref="H178:O178"/>
-    <mergeCell ref="G179:O179"/>
+    <mergeCell ref="F26:O26"/>
+    <mergeCell ref="F71:O71"/>
+    <mergeCell ref="F179:O179"/>
     <mergeCell ref="F180:O180"/>
+    <mergeCell ref="G181:O181"/>
     <mergeCell ref="G182:O182"/>
+    <mergeCell ref="G183:O183"/>
+    <mergeCell ref="G184:O184"/>
+    <mergeCell ref="H185:O185"/>
+    <mergeCell ref="H186:O186"/>
+    <mergeCell ref="H187:O187"/>
+    <mergeCell ref="H188:O188"/>
+    <mergeCell ref="I189:O189"/>
+    <mergeCell ref="I190:O190"/>
+    <mergeCell ref="I191:O191"/>
+    <mergeCell ref="H192:O192"/>
+    <mergeCell ref="G193:O193"/>
+    <mergeCell ref="F194:O194"/>
+    <mergeCell ref="G196:O196"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -20162,14 +20878,14 @@
     <tabColor rgb="FF33691E"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AC41"/>
+  <dimension ref="A1:AC40"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="L25" activeCellId="0" sqref="L25"/>
+      <selection pane="bottomRight" activeCell="F18" activeCellId="0" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20271,7 +20987,7 @@
         <v>21</v>
       </c>
       <c r="B4" s="48" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="C4" s="49"/>
       <c r="D4" s="49"/>
@@ -20304,7 +21020,7 @@
         <v>147</v>
       </c>
       <c r="F5" s="55" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="G5" s="56"/>
       <c r="H5" s="56"/>
@@ -20507,7 +21223,7 @@
       <c r="D14" s="53"/>
       <c r="E14" s="54"/>
       <c r="F14" s="55" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="G14" s="56"/>
       <c r="H14" s="56"/>
@@ -20530,7 +21246,7 @@
       <c r="D15" s="53"/>
       <c r="E15" s="54"/>
       <c r="F15" s="55" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G15" s="56"/>
       <c r="H15" s="56"/>
@@ -20553,7 +21269,7 @@
       <c r="D16" s="53"/>
       <c r="E16" s="54"/>
       <c r="F16" s="55" t="s">
-        <v>182</v>
+        <v>103</v>
       </c>
       <c r="G16" s="56"/>
       <c r="H16" s="56"/>
@@ -20576,7 +21292,7 @@
       <c r="D17" s="53"/>
       <c r="E17" s="54"/>
       <c r="F17" s="55" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G17" s="56"/>
       <c r="H17" s="56"/>
@@ -20599,7 +21315,7 @@
       <c r="D18" s="53"/>
       <c r="E18" s="54"/>
       <c r="F18" s="55" t="s">
-        <v>104</v>
+        <v>202</v>
       </c>
       <c r="G18" s="56"/>
       <c r="H18" s="56"/>
@@ -20622,7 +21338,7 @@
       <c r="D19" s="53"/>
       <c r="E19" s="54"/>
       <c r="F19" s="55" t="s">
-        <v>192</v>
+        <v>105</v>
       </c>
       <c r="G19" s="56"/>
       <c r="H19" s="56"/>
@@ -20645,7 +21361,7 @@
       <c r="D20" s="53"/>
       <c r="E20" s="54"/>
       <c r="F20" s="55" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="G20" s="56"/>
       <c r="H20" s="56"/>
@@ -20668,7 +21384,7 @@
       <c r="D21" s="53"/>
       <c r="E21" s="54"/>
       <c r="F21" s="55" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G21" s="56"/>
       <c r="H21" s="56"/>
@@ -20685,45 +21401,65 @@
       <c r="AC21" s="50"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="51"/>
-      <c r="B22" s="51"/>
-      <c r="C22" s="52"/>
-      <c r="D22" s="53"/>
-      <c r="E22" s="54"/>
-      <c r="F22" s="55" t="s">
-        <v>122</v>
-      </c>
-      <c r="G22" s="56"/>
-      <c r="H22" s="56"/>
-      <c r="I22" s="56"/>
-      <c r="J22" s="56"/>
-      <c r="K22" s="56"/>
-      <c r="L22" s="56"/>
-      <c r="M22" s="56"/>
-      <c r="N22" s="56"/>
-      <c r="O22" s="56"/>
+      <c r="A22" s="41"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="41"/>
+      <c r="K22" s="41"/>
+      <c r="L22" s="41"/>
+      <c r="M22" s="41"/>
+      <c r="N22" s="41"/>
+      <c r="O22" s="41"/>
       <c r="P22" s="41"/>
       <c r="Q22" s="42"/>
+      <c r="W22" s="50"/>
+      <c r="X22" s="50"/>
       <c r="AB22" s="50"/>
       <c r="AC22" s="50"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="41"/>
-      <c r="B23" s="41"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="41"/>
-      <c r="I23" s="41"/>
-      <c r="J23" s="41"/>
-      <c r="K23" s="41"/>
-      <c r="L23" s="41"/>
-      <c r="M23" s="41"/>
-      <c r="N23" s="41"/>
-      <c r="O23" s="41"/>
-      <c r="P23" s="41"/>
+      <c r="A23" s="42"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="128"/>
+      <c r="D23" s="128"/>
+      <c r="E23" s="128"/>
+      <c r="F23" s="129" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" s="129" t="n">
+        <v>1</v>
+      </c>
+      <c r="H23" s="129" t="n">
+        <v>2</v>
+      </c>
+      <c r="I23" s="129" t="n">
+        <v>3</v>
+      </c>
+      <c r="J23" s="129" t="n">
+        <v>4</v>
+      </c>
+      <c r="K23" s="129" t="n">
+        <v>5</v>
+      </c>
+      <c r="L23" s="129" t="n">
+        <v>6</v>
+      </c>
+      <c r="M23" s="129" t="n">
+        <v>7</v>
+      </c>
+      <c r="N23" s="129" t="n">
+        <v>8</v>
+      </c>
+      <c r="O23" s="129" t="n">
+        <v>9</v>
+      </c>
+      <c r="P23" s="42"/>
       <c r="Q23" s="42"/>
       <c r="W23" s="50"/>
       <c r="X23" s="50"/>
@@ -20731,43 +21467,6 @@
       <c r="AC23" s="50"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="42"/>
-      <c r="B24" s="42"/>
-      <c r="C24" s="109"/>
-      <c r="D24" s="109"/>
-      <c r="E24" s="109"/>
-      <c r="F24" s="110" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" s="110" t="n">
-        <v>1</v>
-      </c>
-      <c r="H24" s="110" t="n">
-        <v>2</v>
-      </c>
-      <c r="I24" s="110" t="n">
-        <v>3</v>
-      </c>
-      <c r="J24" s="110" t="n">
-        <v>4</v>
-      </c>
-      <c r="K24" s="110" t="n">
-        <v>5</v>
-      </c>
-      <c r="L24" s="110" t="n">
-        <v>6</v>
-      </c>
-      <c r="M24" s="110" t="n">
-        <v>7</v>
-      </c>
-      <c r="N24" s="110" t="n">
-        <v>8</v>
-      </c>
-      <c r="O24" s="110" t="n">
-        <v>9</v>
-      </c>
-      <c r="P24" s="42"/>
-      <c r="Q24" s="42"/>
       <c r="W24" s="50"/>
       <c r="X24" s="50"/>
       <c r="AB24" s="50"/>
@@ -20868,12 +21567,6 @@
       <c r="X40" s="50"/>
       <c r="AB40" s="50"/>
       <c r="AC40" s="50"/>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W41" s="50"/>
-      <c r="X41" s="50"/>
-      <c r="AB41" s="50"/>
-      <c r="AC41" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/designment/mvc-framework-document.xlsx
+++ b/designment/mvc-framework-document.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="VINE" sheetId="1" state="visible" r:id="rId3"/>
@@ -21,16 +21,16 @@
     <definedName function="false" hidden="false" localSheetId="0" name="MOD_0" vbProcedure="false">VINE!$A$1:$AA$233</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="MOD_0_COM" vbProcedure="false">VINE!$A$4:$AA$233</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="MOD_0_SUP" vbProcedure="false">VINE!$A$1:$AA$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="AREA" vbProcedure="false">VORM_0_Guide!$A$1:$R$165</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="LMN_0" vbProcedure="false">VORM_0_Guide!$F$1:$Q$165</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="LMN_0_SUBSET" vbProcedure="false">VORM_0_Guide!$D$1:$D$165</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="LMN_0_SUPSET" vbProcedure="false">VORM_0_Guide!$C$1:$C$165</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="AREA" vbProcedure="false">VORM_0_Guide!$A$1:$R$170</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="LMN_0" vbProcedure="false">VORM_0_Guide!$F$1:$Q$170</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="LMN_0_SUBSET" vbProcedure="false">VORM_0_Guide!$D$1:$D$170</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="LMN_0_SUPSET" vbProcedure="false">VORM_0_Guide!$C$1:$C$170</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="LMN_1" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="LMN_1_SUBSET" vbProcedure="false">VORM_0_Guide!$D$1:$D$165</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="LMN_1_SUPSET" vbProcedure="false">VORM_0_Guide!$C$1:$C$165</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="MOD_0" vbProcedure="false">VORM_0_Guide!$A$1:$R$165</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="MOD_0_COM" vbProcedure="false">VORM_0_Guide!$A$4:$R$165</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="MOD_0_SUP" vbProcedure="false">VORM_0_Guide!$A$1:$R$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="LMN_1_SUBSET" vbProcedure="false">VORM_0_Guide!$D$1:$D$170</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="LMN_1_SUPSET" vbProcedure="false">VORM_0_Guide!$C$1:$C$170</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="MOD_0" vbProcedure="false">VORM_0_Guide!$A$1:$R$170</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="MOD_0_COM" vbProcedure="false">VORM_0_Guide!$A$5:$R$170</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="MOD_0_SUP" vbProcedure="false">VORM_0_Guide!$A$1:$R$4</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="AREA" vbProcedure="false">VORM_0_Classification!$A$1:$P$22</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="LMN_0" vbProcedure="false">VORM_0_Classification!$F$1:$O$22</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="LMN_0_SUBSET" vbProcedure="false">VORM_0_Classification!$D$1:$D$22</definedName>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2647" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2678" uniqueCount="276">
   <si>
     <t xml:space="preserve">fs</t>
   </si>
@@ -480,15 +480,15 @@
     <t xml:space="preserve">lexter</t>
   </si>
   <si>
+    <t xml:space="preserve">ser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ten</t>
+  </si>
+  <si>
     <t xml:space="preserve">pos</t>
   </si>
   <si>
-    <t xml:space="preserve">ser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ten</t>
-  </si>
-  <si>
     <t xml:space="preserve">in</t>
   </si>
   <si>
@@ -573,10 +573,10 @@
     <t xml:space="preserve">DET Object Events</t>
   </si>
   <si>
-    <t xml:space="preserve">**6** Object Property Modifier Functions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">**8** Object Property Modifier Function Event Emissions</t>
+    <t xml:space="preserve">**6** Object Property Modifier Functions  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">**8** Object Property Modifier Function Event Emissions  </t>
   </si>
   <si>
     <t xml:space="preserve">####</t>
@@ -597,6 +597,9 @@
     <t xml:space="preserve">`assignSourceProperty` event occurs after each source property assignment to DET instance. </t>
   </si>
   <si>
+    <t xml:space="preserve">:#</t>
+  </si>
+  <si>
     <t xml:space="preserve">```</t>
   </si>
   <si>
@@ -751,6 +754,9 @@
   </si>
   <si>
     <t xml:space="preserve">})</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1. DET Object Event Listener Signment</t>
   </si>
   <si>
     <r>
@@ -761,7 +767,7 @@
         <family val="3"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1.1. </t>
+      <t xml:space="preserve">function objectAssign(</t>
     </r>
     <r>
       <rPr>
@@ -770,11 +776,62 @@
         <rFont val="FreeMono"/>
         <family val="3"/>
       </rPr>
-      <t xml:space="preserve">DET Object Instance Add Event Listener</t>
+      <t xml:space="preserve">$event) { console.log($event.type, $event.detail) }</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">object.addEventListener({</t>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="FreeMono"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">object.addEventListener(</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="FreeMono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">"assign", objectAssign)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">object.assign({ aaa: 111111 })</t>
+  </si>
+  <si>
+    <t xml:space="preserve">// CONSOLE LOG: assign { sources: [{ aaa: 111111 }]</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="FreeMono"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">object.removeEventListener(</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="FreeMono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">"assign", objectAssign)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">object.assign({ aaa: 111111111 })</t>
+  </si>
+  <si>
+    <t xml:space="preserve">// CONSOLE LOG: EMPTY</t>
   </si>
   <si>
     <t xml:space="preserve">Ventilated DET Array Methods</t>
@@ -1291,7 +1348,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -1381,6 +1438,21 @@
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left style="thin">
+        <color rgb="FF9E9E9E"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF9E9E9E"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF9E9E9E"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF9E9E9E"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
         <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
@@ -1463,7 +1535,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="129">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1649,11 +1721,11 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="16" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="16" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="24" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -1666,10 +1738,6 @@
     </xf>
     <xf numFmtId="164" fontId="17" fillId="26" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="26" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -1700,6 +1768,10 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="27" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="28" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1718,6 +1790,10 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="29" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="29" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="30" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -1741,6 +1817,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="31" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="31" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1776,6 +1856,10 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="32" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="29" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1788,7 +1872,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="27" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="18" fillId="27" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1800,11 +1884,11 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="31" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="19" fillId="31" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="31" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="19" fillId="31" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1813,6 +1897,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="17" fillId="32" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="32" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1836,7 +1924,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="34" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="17" fillId="34" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1860,7 +1948,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="36" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="17" fillId="36" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1884,6 +1972,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="17" fillId="38" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="37" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1900,7 +1992,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="39" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="17" fillId="39" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1912,7 +2004,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="40" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="17" fillId="40" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1924,7 +2016,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="41" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="17" fillId="41" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1936,7 +2028,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="42" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="17" fillId="42" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1944,12 +2036,20 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="17" fillId="40" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="8" fillId="13" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="13" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="13" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="26" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -2003,7 +2103,7 @@
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF7B1FA2"/>
-      <rgbColor rgb="FFFE5E05"/>
+      <rgbColor rgb="FFAB47BC"/>
       <rgbColor rgb="FF424242"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
@@ -2012,16 +2112,16 @@
       <rgbColor rgb="FFFFE082"/>
       <rgbColor rgb="FFFCE4EC"/>
       <rgbColor rgb="FFF8BBD0"/>
-      <rgbColor rgb="FFAB47BC"/>
+      <rgbColor rgb="FFB7B3B2"/>
       <rgbColor rgb="FFFFDE8A"/>
       <rgbColor rgb="FF0D47A1"/>
       <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFE5E05"/>
       <rgbColor rgb="FFFFD740"/>
       <rgbColor rgb="FFFFA000"/>
       <rgbColor rgb="FFFF6201"/>
       <rgbColor rgb="FF5C6BC0"/>
-      <rgbColor rgb="FFB7B3B2"/>
+      <rgbColor rgb="FF9E9E9E"/>
       <rgbColor rgb="FF1A237E"/>
       <rgbColor rgb="FF757575"/>
       <rgbColor rgb="FF212121"/>
@@ -2149,12 +2249,12 @@
   </sheetPr>
   <dimension ref="A1:AB240"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="11" ySplit="3" topLeftCell="L20" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="L1" activeCellId="0" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
-      <selection pane="bottomRight" activeCell="N216" activeCellId="0" sqref="N216"/>
+      <selection pane="bottomRight" activeCell="K214" activeCellId="0" sqref="K214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
@@ -15479,14 +15579,12 @@
     <tabColor rgb="FFD500F9"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AE183"/>
+  <dimension ref="A1:AE188"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="E81" activePane="bottomRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A81" activeCellId="0" sqref="A81"/>
-      <selection pane="bottomRight" activeCell="D105" activeCellId="0" sqref="D105"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A113" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="0" topLeftCell="E113" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A113" activeCellId="0" sqref="A113"/>
+      <selection pane="topRight" activeCell="Q151" activeCellId="0" sqref="Q151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -15498,9 +15596,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="38" width="10.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="6" style="37" width="4.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="37" width="5.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="37" width="78.13"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="16" min="16" style="37" width="6.64"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="17" min="17" style="37" width="6.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="37" width="78.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="16" min="16" style="37" width="6.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="17" min="17" style="37" width="6.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="37" width="4.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="19" style="37" width="9.21"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="31" min="21" style="37" width="11.53"/>
@@ -15559,10 +15657,8 @@
       <c r="M2" s="45"/>
       <c r="N2" s="45"/>
       <c r="O2" s="45"/>
-      <c r="P2" s="46" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q2" s="46"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="45"/>
       <c r="R2" s="41"/>
       <c r="S2" s="42"/>
     </row>
@@ -15571,11 +15667,11 @@
       <c r="B3" s="43"/>
       <c r="C3" s="44"/>
       <c r="D3" s="44"/>
-      <c r="E3" s="47" t="s">
+      <c r="E3" s="46" t="s">
+        <v>142</v>
+      </c>
+      <c r="F3" s="43" t="s">
         <v>143</v>
-      </c>
-      <c r="F3" s="43" t="s">
-        <v>144</v>
       </c>
       <c r="G3" s="43"/>
       <c r="H3" s="43"/>
@@ -15586,166 +15682,158 @@
       <c r="M3" s="43"/>
       <c r="N3" s="43"/>
       <c r="O3" s="43"/>
-      <c r="P3" s="48" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q3" s="48" t="s">
-        <v>146</v>
-      </c>
+      <c r="P3" s="47" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q3" s="47"/>
       <c r="R3" s="41"/>
       <c r="S3" s="42"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="49" t="n">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="43"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="43"/>
+      <c r="P4" s="48" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q4" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="R4" s="41"/>
+      <c r="S4" s="42"/>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="49" t="n">
         <f aca="false">VINE!$A$10</f>
         <v>6</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B5" s="50" t="s">
         <v>147</v>
       </c>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="51"/>
-      <c r="N4" s="51"/>
-      <c r="O4" s="51"/>
-      <c r="P4" s="51"/>
-      <c r="Q4" s="51"/>
-      <c r="R4" s="41"/>
-      <c r="S4" s="42"/>
-      <c r="AD4" s="52"/>
-      <c r="AE4" s="52"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="53"/>
-      <c r="B5" s="53"/>
-      <c r="C5" s="54" t="s">
-        <v>148</v>
-      </c>
-      <c r="D5" s="55" t="s">
-        <v>149</v>
-      </c>
-      <c r="E5" s="56" t="s">
-        <v>150</v>
-      </c>
-      <c r="F5" s="57" t="s">
-        <v>151</v>
-      </c>
-      <c r="G5" s="58"/>
-      <c r="H5" s="58"/>
-      <c r="I5" s="58"/>
-      <c r="J5" s="58"/>
-      <c r="K5" s="58"/>
-      <c r="L5" s="58"/>
-      <c r="M5" s="58"/>
-      <c r="N5" s="58"/>
-      <c r="O5" s="58"/>
-      <c r="P5" s="58"/>
-      <c r="Q5" s="58"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="50"/>
+      <c r="N5" s="50"/>
+      <c r="O5" s="50"/>
+      <c r="P5" s="50"/>
+      <c r="Q5" s="50"/>
       <c r="R5" s="41"/>
       <c r="S5" s="42"/>
-      <c r="AD5" s="52"/>
-      <c r="AE5" s="52"/>
-    </row>
-    <row r="6" customFormat="false" ht="21.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="59"/>
-      <c r="B6" s="59"/>
-      <c r="C6" s="60" t="s">
+      <c r="AD5" s="51"/>
+      <c r="AE5" s="51"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="52"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="53" t="s">
         <v>148</v>
       </c>
-      <c r="D6" s="61" t="s">
+      <c r="D6" s="54" t="s">
         <v>149</v>
       </c>
-      <c r="E6" s="62"/>
-      <c r="F6" s="63" t="s">
-        <v>152</v>
-      </c>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="63"/>
-      <c r="K6" s="63"/>
-      <c r="L6" s="63"/>
-      <c r="M6" s="63"/>
-      <c r="N6" s="63"/>
-      <c r="O6" s="63"/>
-      <c r="P6" s="63"/>
-      <c r="Q6" s="63"/>
+      <c r="E6" s="55" t="s">
+        <v>150</v>
+      </c>
+      <c r="F6" s="56" t="s">
+        <v>151</v>
+      </c>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="57"/>
+      <c r="N6" s="57"/>
+      <c r="O6" s="57"/>
+      <c r="P6" s="58"/>
+      <c r="Q6" s="58"/>
       <c r="R6" s="41"/>
       <c r="S6" s="42"/>
-      <c r="AD6" s="52"/>
-      <c r="AE6" s="52"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="64"/>
-      <c r="B7" s="64"/>
-      <c r="C7" s="65" t="s">
+      <c r="AD6" s="51"/>
+      <c r="AE6" s="51"/>
+    </row>
+    <row r="7" customFormat="false" ht="21.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="59"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="60" t="s">
         <v>148</v>
       </c>
-      <c r="D7" s="66" t="s">
+      <c r="D7" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="E7" s="67" t="s">
-        <v>153</v>
-      </c>
-      <c r="F7" s="68" t="s">
-        <v>154</v>
-      </c>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="69"/>
-      <c r="J7" s="69"/>
-      <c r="K7" s="69"/>
-      <c r="L7" s="69"/>
-      <c r="M7" s="69"/>
-      <c r="N7" s="69"/>
-      <c r="O7" s="69"/>
-      <c r="P7" s="69"/>
-      <c r="Q7" s="69"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="63" t="s">
+        <v>152</v>
+      </c>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="63"/>
+      <c r="L7" s="63"/>
+      <c r="M7" s="63"/>
+      <c r="N7" s="63"/>
+      <c r="O7" s="63"/>
+      <c r="P7" s="64"/>
+      <c r="Q7" s="64"/>
       <c r="R7" s="41"/>
       <c r="S7" s="42"/>
-      <c r="AD7" s="52"/>
-      <c r="AE7" s="52"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="59"/>
-      <c r="B8" s="59"/>
-      <c r="C8" s="60" t="s">
+      <c r="AD7" s="51"/>
+      <c r="AE7" s="51"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="65"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="66" t="s">
         <v>148</v>
       </c>
-      <c r="D8" s="61" t="s">
+      <c r="D8" s="67" t="s">
         <v>149</v>
       </c>
-      <c r="E8" s="62"/>
-      <c r="F8" s="70" t="s">
-        <v>155</v>
-      </c>
-      <c r="G8" s="71"/>
-      <c r="H8" s="63" t="s">
-        <v>156</v>
-      </c>
-      <c r="I8" s="63"/>
-      <c r="J8" s="63"/>
-      <c r="K8" s="63"/>
-      <c r="L8" s="63"/>
-      <c r="M8" s="63"/>
-      <c r="N8" s="63"/>
-      <c r="O8" s="63"/>
-      <c r="P8" s="63"/>
-      <c r="Q8" s="63"/>
+      <c r="E8" s="68" t="s">
+        <v>153</v>
+      </c>
+      <c r="F8" s="69" t="s">
+        <v>154</v>
+      </c>
+      <c r="G8" s="70"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="70"/>
+      <c r="J8" s="70"/>
+      <c r="K8" s="70"/>
+      <c r="L8" s="70"/>
+      <c r="M8" s="70"/>
+      <c r="N8" s="70"/>
+      <c r="O8" s="70"/>
+      <c r="P8" s="71"/>
+      <c r="Q8" s="71"/>
       <c r="R8" s="41"/>
       <c r="S8" s="42"/>
-      <c r="AD8" s="52"/>
-      <c r="AE8" s="52"/>
-    </row>
-    <row r="9" customFormat="false" ht="21.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AD8" s="51"/>
+      <c r="AE8" s="51"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="59"/>
       <c r="B9" s="59"/>
       <c r="C9" s="60" t="s">
@@ -15755,12 +15843,12 @@
         <v>149</v>
       </c>
       <c r="E9" s="62"/>
-      <c r="F9" s="70" t="s">
+      <c r="F9" s="72" t="s">
         <v>155</v>
       </c>
-      <c r="G9" s="71"/>
+      <c r="G9" s="73"/>
       <c r="H9" s="63" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I9" s="63"/>
       <c r="J9" s="63"/>
@@ -15769,14 +15857,14 @@
       <c r="M9" s="63"/>
       <c r="N9" s="63"/>
       <c r="O9" s="63"/>
-      <c r="P9" s="63"/>
-      <c r="Q9" s="63"/>
+      <c r="P9" s="64"/>
+      <c r="Q9" s="64"/>
       <c r="R9" s="41"/>
       <c r="S9" s="42"/>
-      <c r="AD9" s="52"/>
-      <c r="AE9" s="52"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AD9" s="51"/>
+      <c r="AE9" s="51"/>
+    </row>
+    <row r="10" customFormat="false" ht="21.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="59"/>
       <c r="B10" s="59"/>
       <c r="C10" s="60" t="s">
@@ -15786,12 +15874,12 @@
         <v>149</v>
       </c>
       <c r="E10" s="62"/>
-      <c r="F10" s="70" t="s">
+      <c r="F10" s="72" t="s">
         <v>155</v>
       </c>
-      <c r="G10" s="71"/>
+      <c r="G10" s="73"/>
       <c r="H10" s="63" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I10" s="63"/>
       <c r="J10" s="63"/>
@@ -15800,105 +15888,105 @@
       <c r="M10" s="63"/>
       <c r="N10" s="63"/>
       <c r="O10" s="63"/>
-      <c r="P10" s="63"/>
-      <c r="Q10" s="63"/>
+      <c r="P10" s="64"/>
+      <c r="Q10" s="64"/>
       <c r="R10" s="41"/>
       <c r="S10" s="42"/>
-      <c r="AD10" s="52"/>
-      <c r="AE10" s="52"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="64"/>
-      <c r="B11" s="64"/>
-      <c r="C11" s="65" t="s">
+      <c r="AD10" s="51"/>
+      <c r="AE10" s="51"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="59"/>
+      <c r="B11" s="59"/>
+      <c r="C11" s="60" t="s">
         <v>148</v>
       </c>
-      <c r="D11" s="66" t="s">
+      <c r="D11" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="E11" s="67" t="s">
-        <v>153</v>
-      </c>
-      <c r="F11" s="68" t="s">
-        <v>159</v>
-      </c>
-      <c r="G11" s="69"/>
-      <c r="H11" s="69"/>
-      <c r="I11" s="69"/>
-      <c r="J11" s="69"/>
-      <c r="K11" s="69"/>
-      <c r="L11" s="69"/>
-      <c r="M11" s="69"/>
-      <c r="N11" s="69"/>
-      <c r="O11" s="69"/>
-      <c r="P11" s="69"/>
-      <c r="Q11" s="69"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="72" t="s">
+        <v>155</v>
+      </c>
+      <c r="G11" s="73"/>
+      <c r="H11" s="63" t="s">
+        <v>158</v>
+      </c>
+      <c r="I11" s="63"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="63"/>
+      <c r="L11" s="63"/>
+      <c r="M11" s="63"/>
+      <c r="N11" s="63"/>
+      <c r="O11" s="63"/>
+      <c r="P11" s="64"/>
+      <c r="Q11" s="64"/>
       <c r="R11" s="41"/>
       <c r="S11" s="42"/>
-      <c r="AD11" s="52"/>
-      <c r="AE11" s="52"/>
+      <c r="AD11" s="51"/>
+      <c r="AE11" s="51"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="72"/>
-      <c r="B12" s="72"/>
-      <c r="C12" s="73" t="s">
+      <c r="A12" s="65"/>
+      <c r="B12" s="65"/>
+      <c r="C12" s="66" t="s">
         <v>148</v>
       </c>
-      <c r="D12" s="74" t="s">
+      <c r="D12" s="67" t="s">
         <v>149</v>
       </c>
-      <c r="E12" s="75" t="s">
-        <v>160</v>
-      </c>
-      <c r="F12" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="G12" s="77"/>
-      <c r="H12" s="77"/>
-      <c r="I12" s="77"/>
-      <c r="J12" s="77"/>
-      <c r="K12" s="77"/>
-      <c r="L12" s="77"/>
-      <c r="M12" s="77"/>
-      <c r="N12" s="77"/>
-      <c r="O12" s="77"/>
-      <c r="P12" s="77"/>
-      <c r="Q12" s="77"/>
+      <c r="E12" s="68" t="s">
+        <v>153</v>
+      </c>
+      <c r="F12" s="69" t="s">
+        <v>159</v>
+      </c>
+      <c r="G12" s="70"/>
+      <c r="H12" s="70"/>
+      <c r="I12" s="70"/>
+      <c r="J12" s="70"/>
+      <c r="K12" s="70"/>
+      <c r="L12" s="70"/>
+      <c r="M12" s="70"/>
+      <c r="N12" s="70"/>
+      <c r="O12" s="70"/>
+      <c r="P12" s="71"/>
+      <c r="Q12" s="71"/>
       <c r="R12" s="41"/>
       <c r="S12" s="42"/>
-      <c r="AD12" s="52"/>
-      <c r="AE12" s="52"/>
+      <c r="AD12" s="51"/>
+      <c r="AE12" s="51"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="59"/>
-      <c r="B13" s="59"/>
-      <c r="C13" s="60" t="s">
+      <c r="A13" s="74"/>
+      <c r="B13" s="74"/>
+      <c r="C13" s="75" t="s">
         <v>148</v>
       </c>
-      <c r="D13" s="61" t="s">
+      <c r="D13" s="76" t="s">
         <v>149</v>
       </c>
-      <c r="E13" s="62"/>
-      <c r="F13" s="70" t="s">
-        <v>155</v>
-      </c>
-      <c r="G13" s="71"/>
-      <c r="H13" s="71" t="s">
-        <v>161</v>
-      </c>
-      <c r="I13" s="71"/>
-      <c r="J13" s="71"/>
-      <c r="K13" s="71"/>
-      <c r="L13" s="71"/>
-      <c r="M13" s="71"/>
-      <c r="N13" s="71"/>
-      <c r="O13" s="71"/>
-      <c r="P13" s="71"/>
-      <c r="Q13" s="71"/>
+      <c r="E13" s="77" t="s">
+        <v>160</v>
+      </c>
+      <c r="F13" s="78" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13" s="79"/>
+      <c r="H13" s="79"/>
+      <c r="I13" s="79"/>
+      <c r="J13" s="79"/>
+      <c r="K13" s="79"/>
+      <c r="L13" s="79"/>
+      <c r="M13" s="79"/>
+      <c r="N13" s="79"/>
+      <c r="O13" s="79"/>
+      <c r="P13" s="80"/>
+      <c r="Q13" s="80"/>
       <c r="R13" s="41"/>
       <c r="S13" s="42"/>
-      <c r="AD13" s="52"/>
-      <c r="AE13" s="52"/>
+      <c r="AD13" s="51"/>
+      <c r="AE13" s="51"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="59"/>
@@ -15910,26 +15998,26 @@
         <v>149</v>
       </c>
       <c r="E14" s="62"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="71"/>
-      <c r="H14" s="70" t="s">
+      <c r="F14" s="72" t="s">
         <v>155</v>
       </c>
-      <c r="I14" s="71"/>
-      <c r="J14" s="71" t="s">
-        <v>162</v>
-      </c>
-      <c r="K14" s="71"/>
-      <c r="L14" s="71"/>
-      <c r="M14" s="71"/>
-      <c r="N14" s="71"/>
-      <c r="O14" s="71"/>
-      <c r="P14" s="71"/>
-      <c r="Q14" s="71"/>
+      <c r="G14" s="73"/>
+      <c r="H14" s="73" t="s">
+        <v>161</v>
+      </c>
+      <c r="I14" s="73"/>
+      <c r="J14" s="73"/>
+      <c r="K14" s="73"/>
+      <c r="L14" s="73"/>
+      <c r="M14" s="73"/>
+      <c r="N14" s="73"/>
+      <c r="O14" s="73"/>
+      <c r="P14" s="64"/>
+      <c r="Q14" s="64"/>
       <c r="R14" s="41"/>
       <c r="S14" s="42"/>
-      <c r="AD14" s="52"/>
-      <c r="AE14" s="52"/>
+      <c r="AD14" s="51"/>
+      <c r="AE14" s="51"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="59"/>
@@ -15941,26 +16029,26 @@
         <v>149</v>
       </c>
       <c r="E15" s="62"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="71"/>
-      <c r="H15" s="70" t="s">
+      <c r="F15" s="72"/>
+      <c r="G15" s="73"/>
+      <c r="H15" s="72" t="s">
         <v>155</v>
       </c>
-      <c r="I15" s="71"/>
-      <c r="J15" s="71" t="s">
-        <v>163</v>
-      </c>
-      <c r="K15" s="71"/>
-      <c r="L15" s="71"/>
-      <c r="M15" s="71"/>
-      <c r="N15" s="71"/>
-      <c r="O15" s="71"/>
-      <c r="P15" s="71"/>
-      <c r="Q15" s="71"/>
+      <c r="I15" s="73"/>
+      <c r="J15" s="73" t="s">
+        <v>162</v>
+      </c>
+      <c r="K15" s="73"/>
+      <c r="L15" s="73"/>
+      <c r="M15" s="73"/>
+      <c r="N15" s="73"/>
+      <c r="O15" s="73"/>
+      <c r="P15" s="64"/>
+      <c r="Q15" s="64"/>
       <c r="R15" s="41"/>
       <c r="S15" s="42"/>
-      <c r="AD15" s="52"/>
-      <c r="AE15" s="52"/>
+      <c r="AD15" s="51"/>
+      <c r="AE15" s="51"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="59"/>
@@ -15972,26 +16060,26 @@
         <v>149</v>
       </c>
       <c r="E16" s="62"/>
-      <c r="F16" s="70"/>
-      <c r="G16" s="71"/>
-      <c r="H16" s="70" t="s">
+      <c r="F16" s="72"/>
+      <c r="G16" s="73"/>
+      <c r="H16" s="72" t="s">
         <v>155</v>
       </c>
-      <c r="I16" s="71"/>
-      <c r="J16" s="71" t="s">
-        <v>164</v>
-      </c>
-      <c r="K16" s="71"/>
-      <c r="L16" s="71"/>
-      <c r="M16" s="71"/>
-      <c r="N16" s="71"/>
-      <c r="O16" s="71"/>
-      <c r="P16" s="71"/>
-      <c r="Q16" s="71"/>
+      <c r="I16" s="73"/>
+      <c r="J16" s="73" t="s">
+        <v>163</v>
+      </c>
+      <c r="K16" s="73"/>
+      <c r="L16" s="73"/>
+      <c r="M16" s="73"/>
+      <c r="N16" s="73"/>
+      <c r="O16" s="73"/>
+      <c r="P16" s="64"/>
+      <c r="Q16" s="64"/>
       <c r="R16" s="41"/>
       <c r="S16" s="42"/>
-      <c r="AD16" s="52"/>
-      <c r="AE16" s="52"/>
+      <c r="AD16" s="51"/>
+      <c r="AE16" s="51"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="59"/>
@@ -16003,26 +16091,26 @@
         <v>149</v>
       </c>
       <c r="E17" s="62"/>
-      <c r="F17" s="70"/>
-      <c r="G17" s="71"/>
-      <c r="H17" s="70" t="s">
+      <c r="F17" s="72"/>
+      <c r="G17" s="73"/>
+      <c r="H17" s="72" t="s">
         <v>155</v>
       </c>
-      <c r="I17" s="71"/>
-      <c r="J17" s="71" t="s">
-        <v>165</v>
-      </c>
-      <c r="K17" s="71"/>
-      <c r="L17" s="71"/>
-      <c r="M17" s="71"/>
-      <c r="N17" s="71"/>
-      <c r="O17" s="71"/>
-      <c r="P17" s="71"/>
-      <c r="Q17" s="71"/>
+      <c r="I17" s="73"/>
+      <c r="J17" s="73" t="s">
+        <v>164</v>
+      </c>
+      <c r="K17" s="73"/>
+      <c r="L17" s="73"/>
+      <c r="M17" s="73"/>
+      <c r="N17" s="73"/>
+      <c r="O17" s="73"/>
+      <c r="P17" s="64"/>
+      <c r="Q17" s="64"/>
       <c r="R17" s="41"/>
       <c r="S17" s="42"/>
-      <c r="AD17" s="52"/>
-      <c r="AE17" s="52"/>
+      <c r="AD17" s="51"/>
+      <c r="AE17" s="51"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="59"/>
@@ -16034,158 +16122,158 @@
         <v>149</v>
       </c>
       <c r="E18" s="62"/>
-      <c r="F18" s="70"/>
-      <c r="G18" s="71"/>
-      <c r="H18" s="70" t="s">
+      <c r="F18" s="72"/>
+      <c r="G18" s="73"/>
+      <c r="H18" s="72" t="s">
         <v>155</v>
       </c>
-      <c r="I18" s="71"/>
-      <c r="J18" s="71" t="s">
-        <v>166</v>
-      </c>
-      <c r="K18" s="71"/>
-      <c r="L18" s="71"/>
-      <c r="M18" s="71"/>
-      <c r="N18" s="71"/>
-      <c r="O18" s="71"/>
-      <c r="P18" s="71"/>
-      <c r="Q18" s="71"/>
+      <c r="I18" s="73"/>
+      <c r="J18" s="73" t="s">
+        <v>165</v>
+      </c>
+      <c r="K18" s="73"/>
+      <c r="L18" s="73"/>
+      <c r="M18" s="73"/>
+      <c r="N18" s="73"/>
+      <c r="O18" s="73"/>
+      <c r="P18" s="64"/>
+      <c r="Q18" s="64"/>
       <c r="R18" s="41"/>
       <c r="S18" s="42"/>
-      <c r="AD18" s="52"/>
-      <c r="AE18" s="52"/>
+      <c r="AD18" s="51"/>
+      <c r="AE18" s="51"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="72"/>
-      <c r="B19" s="72"/>
-      <c r="C19" s="73" t="s">
+      <c r="A19" s="59"/>
+      <c r="B19" s="59"/>
+      <c r="C19" s="60" t="s">
         <v>148</v>
       </c>
-      <c r="D19" s="74" t="s">
+      <c r="D19" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="E19" s="75" t="s">
-        <v>160</v>
-      </c>
-      <c r="F19" s="76" t="s">
-        <v>167</v>
-      </c>
-      <c r="G19" s="77"/>
-      <c r="H19" s="77"/>
-      <c r="I19" s="77"/>
-      <c r="J19" s="77"/>
-      <c r="K19" s="77"/>
-      <c r="L19" s="77"/>
-      <c r="M19" s="77"/>
-      <c r="N19" s="77"/>
-      <c r="O19" s="77"/>
-      <c r="P19" s="77"/>
-      <c r="Q19" s="77"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="72"/>
+      <c r="G19" s="73"/>
+      <c r="H19" s="72" t="s">
+        <v>155</v>
+      </c>
+      <c r="I19" s="73"/>
+      <c r="J19" s="73" t="s">
+        <v>166</v>
+      </c>
+      <c r="K19" s="73"/>
+      <c r="L19" s="73"/>
+      <c r="M19" s="73"/>
+      <c r="N19" s="73"/>
+      <c r="O19" s="73"/>
+      <c r="P19" s="64"/>
+      <c r="Q19" s="64"/>
       <c r="R19" s="41"/>
       <c r="S19" s="42"/>
-      <c r="AD19" s="52"/>
-      <c r="AE19" s="52"/>
+      <c r="AD19" s="51"/>
+      <c r="AE19" s="51"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="59"/>
-      <c r="B20" s="59"/>
-      <c r="C20" s="60" t="s">
+      <c r="A20" s="74"/>
+      <c r="B20" s="74"/>
+      <c r="C20" s="75" t="s">
         <v>148</v>
       </c>
-      <c r="D20" s="61" t="s">
+      <c r="D20" s="76" t="s">
         <v>149</v>
       </c>
-      <c r="E20" s="78"/>
-      <c r="F20" s="71"/>
-      <c r="G20" s="71"/>
-      <c r="H20" s="71"/>
-      <c r="I20" s="71"/>
-      <c r="J20" s="71"/>
-      <c r="K20" s="71"/>
-      <c r="L20" s="71"/>
-      <c r="M20" s="71"/>
-      <c r="N20" s="71"/>
-      <c r="O20" s="71"/>
-      <c r="P20" s="71"/>
-      <c r="Q20" s="71"/>
+      <c r="E20" s="77" t="s">
+        <v>160</v>
+      </c>
+      <c r="F20" s="78" t="s">
+        <v>167</v>
+      </c>
+      <c r="G20" s="79"/>
+      <c r="H20" s="79"/>
+      <c r="I20" s="79"/>
+      <c r="J20" s="79"/>
+      <c r="K20" s="79"/>
+      <c r="L20" s="79"/>
+      <c r="M20" s="79"/>
+      <c r="N20" s="79"/>
+      <c r="O20" s="79"/>
+      <c r="P20" s="80"/>
+      <c r="Q20" s="80"/>
       <c r="R20" s="41"/>
       <c r="S20" s="42"/>
-      <c r="AD20" s="52"/>
-      <c r="AE20" s="52"/>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="49" t="n">
+      <c r="AD20" s="51"/>
+      <c r="AE20" s="51"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="59"/>
+      <c r="B21" s="59"/>
+      <c r="C21" s="60" t="s">
+        <v>148</v>
+      </c>
+      <c r="D21" s="61" t="s">
+        <v>149</v>
+      </c>
+      <c r="E21" s="81"/>
+      <c r="F21" s="73"/>
+      <c r="G21" s="73"/>
+      <c r="H21" s="73"/>
+      <c r="I21" s="73"/>
+      <c r="J21" s="73"/>
+      <c r="K21" s="73"/>
+      <c r="L21" s="73"/>
+      <c r="M21" s="73"/>
+      <c r="N21" s="73"/>
+      <c r="O21" s="73"/>
+      <c r="P21" s="64"/>
+      <c r="Q21" s="64"/>
+      <c r="R21" s="41"/>
+      <c r="S21" s="42"/>
+      <c r="AD21" s="51"/>
+      <c r="AE21" s="51"/>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="49" t="n">
         <f aca="false">VINE!$A$15</f>
         <v>11</v>
       </c>
-      <c r="B21" s="50" t="s">
+      <c r="B22" s="50" t="s">
         <v>168</v>
       </c>
-      <c r="C21" s="51"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="51"/>
-      <c r="I21" s="51"/>
-      <c r="J21" s="51"/>
-      <c r="K21" s="51"/>
-      <c r="L21" s="51"/>
-      <c r="M21" s="51"/>
-      <c r="N21" s="51"/>
-      <c r="O21" s="51"/>
-      <c r="P21" s="51"/>
-      <c r="Q21" s="51"/>
-      <c r="R21" s="41"/>
-      <c r="S21" s="42"/>
-      <c r="AD21" s="52"/>
-      <c r="AE21" s="52"/>
-    </row>
-    <row r="22" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="53"/>
-      <c r="B22" s="53"/>
-      <c r="C22" s="54" t="s">
-        <v>148</v>
-      </c>
-      <c r="D22" s="55" t="s">
-        <v>149</v>
-      </c>
-      <c r="E22" s="79" t="s">
-        <v>150</v>
-      </c>
-      <c r="F22" s="80" t="s">
-        <v>169</v>
-      </c>
-      <c r="G22" s="80"/>
-      <c r="H22" s="80"/>
-      <c r="I22" s="80"/>
-      <c r="J22" s="80"/>
-      <c r="K22" s="80"/>
-      <c r="L22" s="80"/>
-      <c r="M22" s="80"/>
-      <c r="N22" s="80"/>
-      <c r="O22" s="80"/>
-      <c r="P22" s="81"/>
-      <c r="Q22" s="81"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="50"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="50"/>
+      <c r="L22" s="50"/>
+      <c r="M22" s="50"/>
+      <c r="N22" s="50"/>
+      <c r="O22" s="50"/>
+      <c r="P22" s="50"/>
+      <c r="Q22" s="50"/>
       <c r="R22" s="41"/>
       <c r="S22" s="42"/>
-      <c r="AD22" s="52"/>
-      <c r="AE22" s="52"/>
-    </row>
-    <row r="23" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="64"/>
-      <c r="B23" s="64"/>
-      <c r="C23" s="65" t="s">
+      <c r="AD22" s="51"/>
+      <c r="AE22" s="51"/>
+    </row>
+    <row r="23" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="52"/>
+      <c r="B23" s="52"/>
+      <c r="C23" s="53" t="s">
         <v>148</v>
       </c>
-      <c r="D23" s="66" t="s">
+      <c r="D23" s="54" t="s">
         <v>149</v>
       </c>
       <c r="E23" s="82" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F23" s="83" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G23" s="83"/>
       <c r="H23" s="83"/>
@@ -16197,100 +16285,102 @@
       <c r="N23" s="83"/>
       <c r="O23" s="83"/>
       <c r="P23" s="84"/>
-      <c r="Q23" s="85"/>
+      <c r="Q23" s="84"/>
       <c r="R23" s="41"/>
       <c r="S23" s="42"/>
-      <c r="AD23" s="52"/>
-      <c r="AE23" s="52"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="59"/>
-      <c r="B24" s="59"/>
-      <c r="C24" s="60" t="s">
+      <c r="AD23" s="51"/>
+      <c r="AE23" s="51"/>
+    </row>
+    <row r="24" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="65"/>
+      <c r="B24" s="65"/>
+      <c r="C24" s="66" t="s">
         <v>148</v>
       </c>
-      <c r="D24" s="61" t="s">
+      <c r="D24" s="67" t="s">
         <v>149</v>
       </c>
-      <c r="E24" s="78"/>
-      <c r="F24" s="71" t="s">
-        <v>171</v>
-      </c>
-      <c r="G24" s="71"/>
-      <c r="H24" s="71"/>
-      <c r="I24" s="71"/>
-      <c r="J24" s="71"/>
-      <c r="K24" s="71"/>
-      <c r="L24" s="71"/>
-      <c r="M24" s="71"/>
-      <c r="N24" s="71"/>
-      <c r="O24" s="71"/>
-      <c r="P24" s="71"/>
-      <c r="Q24" s="71"/>
+      <c r="E24" s="85" t="s">
+        <v>153</v>
+      </c>
+      <c r="F24" s="86" t="s">
+        <v>170</v>
+      </c>
+      <c r="G24" s="86"/>
+      <c r="H24" s="86"/>
+      <c r="I24" s="86"/>
+      <c r="J24" s="86"/>
+      <c r="K24" s="86"/>
+      <c r="L24" s="86"/>
+      <c r="M24" s="86"/>
+      <c r="N24" s="86"/>
+      <c r="O24" s="86"/>
+      <c r="P24" s="87"/>
+      <c r="Q24" s="88"/>
       <c r="R24" s="41"/>
       <c r="S24" s="42"/>
-      <c r="AD24" s="52"/>
-      <c r="AE24" s="52"/>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="72"/>
-      <c r="B25" s="72"/>
-      <c r="C25" s="73" t="s">
+      <c r="AD24" s="51"/>
+      <c r="AE24" s="51"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="59"/>
+      <c r="B25" s="59"/>
+      <c r="C25" s="60" t="s">
         <v>148</v>
       </c>
-      <c r="D25" s="74" t="s">
+      <c r="D25" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="E25" s="86" t="s">
-        <v>160</v>
-      </c>
-      <c r="F25" s="87" t="s">
-        <v>172</v>
-      </c>
-      <c r="G25" s="87"/>
-      <c r="H25" s="87"/>
-      <c r="I25" s="87"/>
-      <c r="J25" s="87"/>
-      <c r="K25" s="87"/>
-      <c r="L25" s="87"/>
-      <c r="M25" s="87"/>
-      <c r="N25" s="87"/>
-      <c r="O25" s="87"/>
-      <c r="P25" s="87"/>
-      <c r="Q25" s="87"/>
+      <c r="E25" s="81"/>
+      <c r="F25" s="73" t="s">
+        <v>171</v>
+      </c>
+      <c r="G25" s="73"/>
+      <c r="H25" s="73"/>
+      <c r="I25" s="73"/>
+      <c r="J25" s="73"/>
+      <c r="K25" s="73"/>
+      <c r="L25" s="73"/>
+      <c r="M25" s="73"/>
+      <c r="N25" s="73"/>
+      <c r="O25" s="73"/>
+      <c r="P25" s="64"/>
+      <c r="Q25" s="64"/>
       <c r="R25" s="41"/>
       <c r="S25" s="42"/>
-      <c r="AD25" s="52"/>
-      <c r="AE25" s="52"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="59"/>
-      <c r="B26" s="59"/>
-      <c r="C26" s="60" t="s">
+      <c r="AD25" s="51"/>
+      <c r="AE25" s="51"/>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="74"/>
+      <c r="B26" s="74"/>
+      <c r="C26" s="75" t="s">
         <v>148</v>
       </c>
-      <c r="D26" s="61" t="s">
+      <c r="D26" s="76" t="s">
         <v>149</v>
       </c>
-      <c r="E26" s="78"/>
-      <c r="F26" s="71" t="s">
-        <v>173</v>
-      </c>
-      <c r="G26" s="71"/>
-      <c r="H26" s="71"/>
-      <c r="I26" s="71"/>
-      <c r="J26" s="71"/>
-      <c r="K26" s="71"/>
-      <c r="L26" s="71"/>
-      <c r="M26" s="71"/>
-      <c r="N26" s="71"/>
-      <c r="O26" s="71"/>
-      <c r="P26" s="71"/>
-      <c r="Q26" s="71"/>
+      <c r="E26" s="89" t="s">
+        <v>160</v>
+      </c>
+      <c r="F26" s="90" t="s">
+        <v>172</v>
+      </c>
+      <c r="G26" s="90"/>
+      <c r="H26" s="90"/>
+      <c r="I26" s="90"/>
+      <c r="J26" s="90"/>
+      <c r="K26" s="90"/>
+      <c r="L26" s="90"/>
+      <c r="M26" s="90"/>
+      <c r="N26" s="90"/>
+      <c r="O26" s="90"/>
+      <c r="P26" s="91"/>
+      <c r="Q26" s="91"/>
       <c r="R26" s="41"/>
       <c r="S26" s="42"/>
-      <c r="AD26" s="52"/>
-      <c r="AE26" s="52"/>
+      <c r="AD26" s="51"/>
+      <c r="AE26" s="51"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="59"/>
@@ -16301,414 +16391,414 @@
       <c r="D27" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="E27" s="78"/>
-      <c r="F27" s="71" t="s">
-        <v>174</v>
-      </c>
-      <c r="G27" s="71"/>
-      <c r="H27" s="71"/>
-      <c r="I27" s="71"/>
-      <c r="J27" s="71"/>
-      <c r="K27" s="71"/>
-      <c r="L27" s="71"/>
-      <c r="M27" s="71"/>
-      <c r="N27" s="71"/>
-      <c r="O27" s="71"/>
-      <c r="P27" s="71"/>
-      <c r="Q27" s="71"/>
+      <c r="E27" s="81"/>
+      <c r="F27" s="73" t="s">
+        <v>173</v>
+      </c>
+      <c r="G27" s="73"/>
+      <c r="H27" s="73"/>
+      <c r="I27" s="73"/>
+      <c r="J27" s="73"/>
+      <c r="K27" s="73"/>
+      <c r="L27" s="73"/>
+      <c r="M27" s="73"/>
+      <c r="N27" s="73"/>
+      <c r="O27" s="73"/>
+      <c r="P27" s="64"/>
+      <c r="Q27" s="64"/>
       <c r="R27" s="41"/>
       <c r="S27" s="42"/>
-      <c r="AD27" s="52"/>
-      <c r="AE27" s="52"/>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="88"/>
-      <c r="B28" s="88"/>
-      <c r="C28" s="89" t="s">
+      <c r="AD27" s="51"/>
+      <c r="AE27" s="51"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="59"/>
+      <c r="B28" s="59"/>
+      <c r="C28" s="60" t="s">
         <v>148</v>
       </c>
-      <c r="D28" s="90" t="s">
+      <c r="D28" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="E28" s="91" t="s">
-        <v>175</v>
-      </c>
-      <c r="F28" s="92" t="s">
-        <v>176</v>
-      </c>
-      <c r="G28" s="92"/>
-      <c r="H28" s="92"/>
-      <c r="I28" s="92"/>
-      <c r="J28" s="92"/>
-      <c r="K28" s="92"/>
-      <c r="L28" s="92"/>
-      <c r="M28" s="92"/>
-      <c r="N28" s="92"/>
-      <c r="O28" s="92"/>
-      <c r="P28" s="93"/>
-      <c r="Q28" s="93"/>
+      <c r="E28" s="81"/>
+      <c r="F28" s="73" t="s">
+        <v>174</v>
+      </c>
+      <c r="G28" s="73"/>
+      <c r="H28" s="73"/>
+      <c r="I28" s="73"/>
+      <c r="J28" s="73"/>
+      <c r="K28" s="73"/>
+      <c r="L28" s="73"/>
+      <c r="M28" s="73"/>
+      <c r="N28" s="73"/>
+      <c r="O28" s="73"/>
+      <c r="P28" s="64"/>
+      <c r="Q28" s="64"/>
       <c r="R28" s="41"/>
       <c r="S28" s="42"/>
-      <c r="AD28" s="52"/>
-      <c r="AE28" s="52"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="59"/>
-      <c r="B29" s="59"/>
-      <c r="C29" s="60" t="s">
+      <c r="AD28" s="51"/>
+      <c r="AE28" s="51"/>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="92"/>
+      <c r="B29" s="92"/>
+      <c r="C29" s="93" t="s">
         <v>148</v>
       </c>
-      <c r="D29" s="61" t="s">
+      <c r="D29" s="94" t="s">
         <v>149</v>
       </c>
-      <c r="E29" s="78"/>
-      <c r="F29" s="71" t="s">
-        <v>177</v>
-      </c>
-      <c r="G29" s="71"/>
-      <c r="H29" s="71"/>
-      <c r="I29" s="71"/>
-      <c r="J29" s="71"/>
-      <c r="K29" s="71"/>
-      <c r="L29" s="71"/>
-      <c r="M29" s="71"/>
-      <c r="N29" s="71"/>
-      <c r="O29" s="71"/>
-      <c r="P29" s="71"/>
-      <c r="Q29" s="71"/>
+      <c r="E29" s="95" t="s">
+        <v>175</v>
+      </c>
+      <c r="F29" s="96" t="s">
+        <v>176</v>
+      </c>
+      <c r="G29" s="96"/>
+      <c r="H29" s="96"/>
+      <c r="I29" s="96"/>
+      <c r="J29" s="96"/>
+      <c r="K29" s="96"/>
+      <c r="L29" s="96"/>
+      <c r="M29" s="96"/>
+      <c r="N29" s="96"/>
+      <c r="O29" s="96"/>
+      <c r="P29" s="97"/>
+      <c r="Q29" s="97"/>
       <c r="R29" s="41"/>
       <c r="S29" s="42"/>
-      <c r="AD29" s="52"/>
-      <c r="AE29" s="52"/>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="94"/>
-      <c r="B30" s="94"/>
-      <c r="C30" s="95" t="s">
+      <c r="AD29" s="51"/>
+      <c r="AE29" s="51"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="59"/>
+      <c r="B30" s="59"/>
+      <c r="C30" s="60" t="s">
         <v>148</v>
       </c>
-      <c r="D30" s="96" t="s">
+      <c r="D30" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="E30" s="97" t="s">
-        <v>178</v>
-      </c>
-      <c r="F30" s="98" t="s">
-        <v>179</v>
-      </c>
-      <c r="G30" s="98"/>
-      <c r="H30" s="98"/>
-      <c r="I30" s="98"/>
-      <c r="J30" s="98"/>
-      <c r="K30" s="98"/>
-      <c r="L30" s="98"/>
-      <c r="M30" s="98"/>
-      <c r="N30" s="98"/>
-      <c r="O30" s="98"/>
-      <c r="P30" s="99"/>
-      <c r="Q30" s="99"/>
+      <c r="E30" s="81"/>
+      <c r="F30" s="73" t="s">
+        <v>177</v>
+      </c>
+      <c r="G30" s="73"/>
+      <c r="H30" s="73"/>
+      <c r="I30" s="73"/>
+      <c r="J30" s="73"/>
+      <c r="K30" s="73"/>
+      <c r="L30" s="73"/>
+      <c r="M30" s="73"/>
+      <c r="N30" s="73"/>
+      <c r="O30" s="73"/>
+      <c r="P30" s="64"/>
+      <c r="Q30" s="64"/>
       <c r="R30" s="41"/>
       <c r="S30" s="42"/>
-      <c r="AD30" s="52"/>
-      <c r="AE30" s="52"/>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="59"/>
-      <c r="B31" s="59"/>
-      <c r="C31" s="60" t="s">
+      <c r="AD30" s="51"/>
+      <c r="AE30" s="51"/>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="98"/>
+      <c r="B31" s="98"/>
+      <c r="C31" s="99" t="s">
         <v>148</v>
       </c>
-      <c r="D31" s="61" t="s">
+      <c r="D31" s="100" t="s">
         <v>149</v>
       </c>
-      <c r="E31" s="78"/>
-      <c r="F31" s="71" t="s">
-        <v>180</v>
-      </c>
-      <c r="G31" s="71"/>
-      <c r="H31" s="71"/>
-      <c r="I31" s="71"/>
-      <c r="J31" s="71"/>
-      <c r="K31" s="71"/>
-      <c r="L31" s="71"/>
-      <c r="M31" s="71"/>
-      <c r="N31" s="71"/>
-      <c r="O31" s="71"/>
-      <c r="P31" s="71"/>
-      <c r="Q31" s="71"/>
+      <c r="E31" s="101" t="s">
+        <v>178</v>
+      </c>
+      <c r="F31" s="102" t="s">
+        <v>179</v>
+      </c>
+      <c r="G31" s="102"/>
+      <c r="H31" s="102"/>
+      <c r="I31" s="102"/>
+      <c r="J31" s="102"/>
+      <c r="K31" s="102"/>
+      <c r="L31" s="102"/>
+      <c r="M31" s="102"/>
+      <c r="N31" s="102"/>
+      <c r="O31" s="102"/>
+      <c r="P31" s="103"/>
+      <c r="Q31" s="103"/>
       <c r="R31" s="41"/>
       <c r="S31" s="42"/>
-      <c r="AD31" s="52"/>
-      <c r="AE31" s="52"/>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="100"/>
-      <c r="B32" s="100"/>
+      <c r="AD31" s="51"/>
+      <c r="AE31" s="51"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="59"/>
+      <c r="B32" s="59"/>
       <c r="C32" s="60" t="s">
         <v>148</v>
       </c>
       <c r="D32" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="E32" s="101" t="s">
-        <v>181</v>
-      </c>
-      <c r="F32" s="102"/>
-      <c r="G32" s="103"/>
-      <c r="H32" s="103"/>
-      <c r="I32" s="103"/>
-      <c r="J32" s="103"/>
-      <c r="K32" s="103"/>
-      <c r="L32" s="103"/>
-      <c r="M32" s="103"/>
-      <c r="N32" s="103"/>
-      <c r="O32" s="104"/>
-      <c r="P32" s="104" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q32" s="104" t="s">
-        <v>181</v>
-      </c>
+      <c r="E32" s="81"/>
+      <c r="F32" s="73" t="s">
+        <v>180</v>
+      </c>
+      <c r="G32" s="73"/>
+      <c r="H32" s="73"/>
+      <c r="I32" s="73"/>
+      <c r="J32" s="73"/>
+      <c r="K32" s="73"/>
+      <c r="L32" s="73"/>
+      <c r="M32" s="73"/>
+      <c r="N32" s="73"/>
+      <c r="O32" s="73"/>
+      <c r="P32" s="64"/>
+      <c r="Q32" s="64"/>
       <c r="R32" s="41"/>
       <c r="S32" s="42"/>
-      <c r="AD32" s="52"/>
-      <c r="AE32" s="52"/>
+      <c r="AD32" s="51"/>
+      <c r="AE32" s="51"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="100"/>
-      <c r="B33" s="100"/>
+      <c r="A33" s="104"/>
+      <c r="B33" s="104"/>
       <c r="C33" s="60" t="s">
         <v>148</v>
       </c>
       <c r="D33" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="E33" s="101"/>
-      <c r="F33" s="102" t="s">
+      <c r="E33" s="105"/>
+      <c r="F33" s="106" t="s">
+        <v>181</v>
+      </c>
+      <c r="G33" s="107"/>
+      <c r="H33" s="107"/>
+      <c r="I33" s="107"/>
+      <c r="J33" s="107"/>
+      <c r="K33" s="107"/>
+      <c r="L33" s="107"/>
+      <c r="M33" s="107"/>
+      <c r="N33" s="107"/>
+      <c r="O33" s="108"/>
+      <c r="P33" s="109" t="s">
         <v>182</v>
       </c>
-      <c r="G33" s="103"/>
-      <c r="H33" s="103"/>
-      <c r="I33" s="103"/>
-      <c r="J33" s="103"/>
-      <c r="K33" s="103"/>
-      <c r="L33" s="103"/>
-      <c r="M33" s="103"/>
-      <c r="N33" s="103"/>
-      <c r="O33" s="104"/>
-      <c r="P33" s="104"/>
-      <c r="Q33" s="104"/>
+      <c r="Q33" s="109"/>
       <c r="R33" s="41"/>
       <c r="S33" s="42"/>
-      <c r="AD33" s="52"/>
-      <c r="AE33" s="52"/>
+      <c r="AD33" s="51"/>
+      <c r="AE33" s="51"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="100"/>
-      <c r="B34" s="100"/>
+      <c r="A34" s="104"/>
+      <c r="B34" s="104"/>
       <c r="C34" s="60" t="s">
         <v>148</v>
       </c>
       <c r="D34" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="E34" s="101"/>
-      <c r="F34" s="102"/>
-      <c r="G34" s="103" t="s">
+      <c r="E34" s="105"/>
+      <c r="F34" s="107" t="s">
         <v>183</v>
       </c>
-      <c r="H34" s="103"/>
-      <c r="I34" s="103"/>
-      <c r="J34" s="103"/>
-      <c r="K34" s="103"/>
-      <c r="L34" s="103"/>
-      <c r="M34" s="103"/>
-      <c r="N34" s="103"/>
-      <c r="O34" s="104"/>
-      <c r="P34" s="104"/>
-      <c r="Q34" s="104"/>
+      <c r="G34" s="107"/>
+      <c r="H34" s="107"/>
+      <c r="I34" s="107"/>
+      <c r="J34" s="107"/>
+      <c r="K34" s="107"/>
+      <c r="L34" s="107"/>
+      <c r="M34" s="107"/>
+      <c r="N34" s="107"/>
+      <c r="O34" s="108"/>
+      <c r="P34" s="109"/>
+      <c r="Q34" s="109"/>
       <c r="R34" s="41"/>
       <c r="S34" s="42"/>
-      <c r="AD34" s="52"/>
-      <c r="AE34" s="52"/>
+      <c r="AD34" s="51"/>
+      <c r="AE34" s="51"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="100"/>
-      <c r="B35" s="100"/>
-      <c r="C35" s="105" t="s">
+      <c r="A35" s="104"/>
+      <c r="B35" s="104"/>
+      <c r="C35" s="60" t="s">
         <v>148</v>
       </c>
-      <c r="D35" s="106" t="s">
+      <c r="D35" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="E35" s="101"/>
-      <c r="F35" s="102"/>
-      <c r="G35" s="103" t="s">
+      <c r="E35" s="105"/>
+      <c r="F35" s="107"/>
+      <c r="G35" s="107" t="s">
         <v>184</v>
       </c>
-      <c r="H35" s="103"/>
-      <c r="I35" s="103"/>
-      <c r="J35" s="103"/>
-      <c r="K35" s="103"/>
-      <c r="L35" s="103"/>
-      <c r="M35" s="103"/>
-      <c r="N35" s="103"/>
-      <c r="O35" s="104"/>
-      <c r="P35" s="104"/>
-      <c r="Q35" s="104"/>
+      <c r="H35" s="107"/>
+      <c r="I35" s="107"/>
+      <c r="J35" s="107"/>
+      <c r="K35" s="107"/>
+      <c r="L35" s="107"/>
+      <c r="M35" s="107"/>
+      <c r="N35" s="107"/>
+      <c r="O35" s="108"/>
+      <c r="P35" s="109"/>
+      <c r="Q35" s="109"/>
       <c r="R35" s="41"/>
       <c r="S35" s="42"/>
-      <c r="AD35" s="52"/>
-      <c r="AE35" s="52"/>
+      <c r="AD35" s="51"/>
+      <c r="AE35" s="51"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="100"/>
-      <c r="B36" s="100"/>
-      <c r="C36" s="60" t="s">
+      <c r="A36" s="104"/>
+      <c r="B36" s="104"/>
+      <c r="C36" s="110" t="s">
         <v>148</v>
       </c>
-      <c r="D36" s="61" t="s">
+      <c r="D36" s="111" t="s">
         <v>149</v>
       </c>
-      <c r="E36" s="101"/>
-      <c r="F36" s="102"/>
-      <c r="G36" s="103" t="s">
+      <c r="E36" s="105"/>
+      <c r="F36" s="107"/>
+      <c r="G36" s="107" t="s">
         <v>185</v>
       </c>
-      <c r="H36" s="103"/>
-      <c r="I36" s="103"/>
-      <c r="J36" s="103"/>
-      <c r="K36" s="103"/>
-      <c r="L36" s="103"/>
-      <c r="M36" s="103"/>
-      <c r="N36" s="103"/>
-      <c r="O36" s="104"/>
-      <c r="P36" s="104"/>
-      <c r="Q36" s="104"/>
+      <c r="H36" s="107"/>
+      <c r="I36" s="107"/>
+      <c r="J36" s="107"/>
+      <c r="K36" s="107"/>
+      <c r="L36" s="107"/>
+      <c r="M36" s="107"/>
+      <c r="N36" s="107"/>
+      <c r="O36" s="108"/>
+      <c r="P36" s="109"/>
+      <c r="Q36" s="109"/>
       <c r="R36" s="41"/>
       <c r="S36" s="42"/>
-      <c r="AD36" s="52"/>
-      <c r="AE36" s="52"/>
+      <c r="AD36" s="51"/>
+      <c r="AE36" s="51"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="100"/>
-      <c r="B37" s="100"/>
+      <c r="A37" s="104"/>
+      <c r="B37" s="104"/>
       <c r="C37" s="60" t="s">
         <v>148</v>
       </c>
       <c r="D37" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="E37" s="101"/>
-      <c r="F37" s="102" t="s">
+      <c r="E37" s="105"/>
+      <c r="F37" s="107"/>
+      <c r="G37" s="107" t="s">
         <v>186</v>
       </c>
-      <c r="G37" s="103"/>
-      <c r="H37" s="103"/>
-      <c r="I37" s="103"/>
-      <c r="J37" s="103"/>
-      <c r="K37" s="103"/>
-      <c r="L37" s="103"/>
-      <c r="M37" s="103"/>
-      <c r="N37" s="103"/>
-      <c r="O37" s="104"/>
-      <c r="P37" s="104"/>
-      <c r="Q37" s="104"/>
+      <c r="H37" s="107"/>
+      <c r="I37" s="107"/>
+      <c r="J37" s="107"/>
+      <c r="K37" s="107"/>
+      <c r="L37" s="107"/>
+      <c r="M37" s="107"/>
+      <c r="N37" s="107"/>
+      <c r="O37" s="108"/>
+      <c r="P37" s="109"/>
+      <c r="Q37" s="109"/>
       <c r="R37" s="41"/>
       <c r="S37" s="42"/>
-      <c r="AD37" s="52"/>
-      <c r="AE37" s="52"/>
+      <c r="AD37" s="51"/>
+      <c r="AE37" s="51"/>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="100"/>
-      <c r="B38" s="100"/>
+      <c r="A38" s="104"/>
+      <c r="B38" s="104"/>
       <c r="C38" s="60" t="s">
         <v>148</v>
       </c>
       <c r="D38" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="E38" s="101" t="s">
-        <v>181</v>
-      </c>
-      <c r="F38" s="102"/>
-      <c r="G38" s="103"/>
-      <c r="H38" s="103"/>
-      <c r="I38" s="103"/>
-      <c r="J38" s="103"/>
-      <c r="K38" s="103"/>
-      <c r="L38" s="103"/>
-      <c r="M38" s="103"/>
-      <c r="N38" s="103"/>
-      <c r="O38" s="104"/>
-      <c r="P38" s="104"/>
-      <c r="Q38" s="104"/>
+      <c r="E38" s="105"/>
+      <c r="F38" s="107" t="s">
+        <v>187</v>
+      </c>
+      <c r="G38" s="107"/>
+      <c r="H38" s="107"/>
+      <c r="I38" s="107"/>
+      <c r="J38" s="107"/>
+      <c r="K38" s="107"/>
+      <c r="L38" s="107"/>
+      <c r="M38" s="107"/>
+      <c r="N38" s="107"/>
+      <c r="O38" s="108"/>
+      <c r="P38" s="109"/>
+      <c r="Q38" s="109"/>
       <c r="R38" s="41"/>
       <c r="S38" s="42"/>
-      <c r="AD38" s="52"/>
-      <c r="AE38" s="52"/>
+      <c r="AD38" s="51"/>
+      <c r="AE38" s="51"/>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="94"/>
-      <c r="B39" s="94"/>
-      <c r="C39" s="95" t="s">
+      <c r="A39" s="104"/>
+      <c r="B39" s="104"/>
+      <c r="C39" s="60" t="s">
         <v>148</v>
       </c>
-      <c r="D39" s="96" t="s">
+      <c r="D39" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="E39" s="97" t="s">
-        <v>178</v>
-      </c>
-      <c r="F39" s="98" t="s">
-        <v>187</v>
-      </c>
-      <c r="G39" s="98"/>
-      <c r="H39" s="98"/>
-      <c r="I39" s="98"/>
-      <c r="J39" s="98"/>
-      <c r="K39" s="98"/>
-      <c r="L39" s="98"/>
-      <c r="M39" s="98"/>
-      <c r="N39" s="98"/>
-      <c r="O39" s="98"/>
-      <c r="P39" s="99"/>
-      <c r="Q39" s="99"/>
+      <c r="E39" s="105"/>
+      <c r="F39" s="106" t="s">
+        <v>181</v>
+      </c>
+      <c r="G39" s="107"/>
+      <c r="H39" s="107"/>
+      <c r="I39" s="107"/>
+      <c r="J39" s="107"/>
+      <c r="K39" s="107"/>
+      <c r="L39" s="107"/>
+      <c r="M39" s="107"/>
+      <c r="N39" s="107"/>
+      <c r="O39" s="108"/>
+      <c r="P39" s="109"/>
+      <c r="Q39" s="109" t="s">
+        <v>182</v>
+      </c>
       <c r="R39" s="41"/>
       <c r="S39" s="42"/>
-      <c r="AD39" s="52"/>
-      <c r="AE39" s="52"/>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="59"/>
-      <c r="B40" s="59"/>
-      <c r="C40" s="60" t="s">
+      <c r="AD39" s="51"/>
+      <c r="AE39" s="51"/>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="98"/>
+      <c r="B40" s="98"/>
+      <c r="C40" s="99" t="s">
         <v>148</v>
       </c>
-      <c r="D40" s="61" t="s">
+      <c r="D40" s="100" t="s">
         <v>149</v>
       </c>
-      <c r="E40" s="78"/>
-      <c r="F40" s="71" t="s">
+      <c r="E40" s="101" t="s">
+        <v>178</v>
+      </c>
+      <c r="F40" s="102" t="s">
         <v>188</v>
       </c>
-      <c r="G40" s="71"/>
-      <c r="H40" s="71"/>
-      <c r="I40" s="71"/>
-      <c r="J40" s="71"/>
-      <c r="K40" s="71"/>
-      <c r="L40" s="71"/>
-      <c r="M40" s="71"/>
-      <c r="N40" s="71"/>
-      <c r="O40" s="71"/>
-      <c r="P40" s="71"/>
-      <c r="Q40" s="71"/>
+      <c r="G40" s="102"/>
+      <c r="H40" s="102"/>
+      <c r="I40" s="102"/>
+      <c r="J40" s="102"/>
+      <c r="K40" s="102"/>
+      <c r="L40" s="102"/>
+      <c r="M40" s="102"/>
+      <c r="N40" s="102"/>
+      <c r="O40" s="102"/>
+      <c r="P40" s="103"/>
+      <c r="Q40" s="103"/>
       <c r="R40" s="41"/>
       <c r="S40" s="42"/>
-      <c r="AD40" s="52"/>
-      <c r="AE40" s="52"/>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD40" s="51"/>
+      <c r="AE40" s="51"/>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="59"/>
       <c r="B41" s="59"/>
       <c r="C41" s="60" t="s">
@@ -16717,25 +16807,25 @@
       <c r="D41" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="E41" s="101" t="s">
-        <v>181</v>
-      </c>
-      <c r="F41" s="102"/>
-      <c r="G41" s="103"/>
-      <c r="H41" s="103"/>
-      <c r="I41" s="103"/>
-      <c r="J41" s="103"/>
-      <c r="K41" s="103"/>
-      <c r="L41" s="103"/>
-      <c r="M41" s="103"/>
-      <c r="N41" s="103"/>
-      <c r="O41" s="104"/>
-      <c r="P41" s="104"/>
-      <c r="Q41" s="104"/>
+      <c r="E41" s="81"/>
+      <c r="F41" s="73" t="s">
+        <v>189</v>
+      </c>
+      <c r="G41" s="73"/>
+      <c r="H41" s="73"/>
+      <c r="I41" s="73"/>
+      <c r="J41" s="73"/>
+      <c r="K41" s="73"/>
+      <c r="L41" s="73"/>
+      <c r="M41" s="73"/>
+      <c r="N41" s="73"/>
+      <c r="O41" s="73"/>
+      <c r="P41" s="64"/>
+      <c r="Q41" s="64"/>
       <c r="R41" s="41"/>
       <c r="S41" s="42"/>
-      <c r="AD41" s="52"/>
-      <c r="AE41" s="52"/>
+      <c r="AD41" s="51"/>
+      <c r="AE41" s="51"/>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="59"/>
@@ -16746,25 +16836,27 @@
       <c r="D42" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="E42" s="101"/>
-      <c r="F42" s="102" t="s">
+      <c r="E42" s="105"/>
+      <c r="F42" s="106" t="s">
+        <v>181</v>
+      </c>
+      <c r="G42" s="107"/>
+      <c r="H42" s="107"/>
+      <c r="I42" s="107"/>
+      <c r="J42" s="107"/>
+      <c r="K42" s="107"/>
+      <c r="L42" s="107"/>
+      <c r="M42" s="107"/>
+      <c r="N42" s="107"/>
+      <c r="O42" s="108"/>
+      <c r="P42" s="109" t="s">
         <v>182</v>
       </c>
-      <c r="G42" s="103"/>
-      <c r="H42" s="103"/>
-      <c r="I42" s="103"/>
-      <c r="J42" s="103"/>
-      <c r="K42" s="103"/>
-      <c r="L42" s="103"/>
-      <c r="M42" s="103"/>
-      <c r="N42" s="103"/>
-      <c r="O42" s="104"/>
-      <c r="P42" s="104"/>
-      <c r="Q42" s="104"/>
+      <c r="Q42" s="109"/>
       <c r="R42" s="41"/>
       <c r="S42" s="42"/>
-      <c r="AD42" s="52"/>
-      <c r="AE42" s="52"/>
+      <c r="AD42" s="51"/>
+      <c r="AE42" s="51"/>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="59"/>
@@ -16775,25 +16867,25 @@
       <c r="D43" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="E43" s="101"/>
-      <c r="F43" s="102"/>
-      <c r="G43" s="103" t="s">
-        <v>185</v>
-      </c>
-      <c r="H43" s="103"/>
-      <c r="I43" s="103"/>
-      <c r="J43" s="103"/>
-      <c r="K43" s="103"/>
-      <c r="L43" s="103"/>
-      <c r="M43" s="103"/>
-      <c r="N43" s="103"/>
-      <c r="O43" s="104"/>
-      <c r="P43" s="104"/>
-      <c r="Q43" s="104"/>
+      <c r="E43" s="105"/>
+      <c r="F43" s="107" t="s">
+        <v>183</v>
+      </c>
+      <c r="G43" s="107"/>
+      <c r="H43" s="107"/>
+      <c r="I43" s="107"/>
+      <c r="J43" s="107"/>
+      <c r="K43" s="107"/>
+      <c r="L43" s="107"/>
+      <c r="M43" s="107"/>
+      <c r="N43" s="107"/>
+      <c r="O43" s="108"/>
+      <c r="P43" s="109"/>
+      <c r="Q43" s="109"/>
       <c r="R43" s="41"/>
       <c r="S43" s="42"/>
-      <c r="AD43" s="52"/>
-      <c r="AE43" s="52"/>
+      <c r="AD43" s="51"/>
+      <c r="AE43" s="51"/>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="59"/>
@@ -16804,25 +16896,25 @@
       <c r="D44" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="E44" s="101"/>
-      <c r="F44" s="102" t="s">
+      <c r="E44" s="105"/>
+      <c r="F44" s="107"/>
+      <c r="G44" s="107" t="s">
         <v>186</v>
       </c>
-      <c r="G44" s="103"/>
-      <c r="H44" s="103"/>
-      <c r="I44" s="103"/>
-      <c r="J44" s="103"/>
-      <c r="K44" s="103"/>
-      <c r="L44" s="103"/>
-      <c r="M44" s="103"/>
-      <c r="N44" s="103"/>
-      <c r="O44" s="104"/>
-      <c r="P44" s="104"/>
-      <c r="Q44" s="104"/>
+      <c r="H44" s="107"/>
+      <c r="I44" s="107"/>
+      <c r="J44" s="107"/>
+      <c r="K44" s="107"/>
+      <c r="L44" s="107"/>
+      <c r="M44" s="107"/>
+      <c r="N44" s="107"/>
+      <c r="O44" s="108"/>
+      <c r="P44" s="109"/>
+      <c r="Q44" s="109"/>
       <c r="R44" s="41"/>
       <c r="S44" s="42"/>
-      <c r="AD44" s="52"/>
-      <c r="AE44" s="52"/>
+      <c r="AD44" s="51"/>
+      <c r="AE44" s="51"/>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="59"/>
@@ -16833,87 +16925,89 @@
       <c r="D45" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="E45" s="101" t="s">
-        <v>181</v>
-      </c>
-      <c r="F45" s="102"/>
-      <c r="G45" s="103"/>
-      <c r="H45" s="103"/>
-      <c r="I45" s="103"/>
-      <c r="J45" s="103"/>
-      <c r="K45" s="103"/>
-      <c r="L45" s="103"/>
-      <c r="M45" s="103"/>
-      <c r="N45" s="103"/>
-      <c r="O45" s="104"/>
-      <c r="P45" s="104"/>
-      <c r="Q45" s="104"/>
+      <c r="E45" s="105"/>
+      <c r="F45" s="107" t="s">
+        <v>187</v>
+      </c>
+      <c r="G45" s="107"/>
+      <c r="H45" s="107"/>
+      <c r="I45" s="107"/>
+      <c r="J45" s="107"/>
+      <c r="K45" s="107"/>
+      <c r="L45" s="107"/>
+      <c r="M45" s="107"/>
+      <c r="N45" s="107"/>
+      <c r="O45" s="108"/>
+      <c r="P45" s="109"/>
+      <c r="Q45" s="109"/>
       <c r="R45" s="41"/>
       <c r="S45" s="42"/>
-      <c r="AD45" s="52"/>
-      <c r="AE45" s="52"/>
+      <c r="AD45" s="51"/>
+      <c r="AE45" s="51"/>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="94"/>
-      <c r="B46" s="94"/>
-      <c r="C46" s="95" t="s">
+      <c r="A46" s="59"/>
+      <c r="B46" s="59"/>
+      <c r="C46" s="60" t="s">
         <v>148</v>
       </c>
-      <c r="D46" s="96" t="s">
+      <c r="D46" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="E46" s="97" t="s">
-        <v>178</v>
-      </c>
-      <c r="F46" s="98" t="s">
-        <v>189</v>
-      </c>
-      <c r="G46" s="98"/>
-      <c r="H46" s="98"/>
-      <c r="I46" s="98"/>
-      <c r="J46" s="98"/>
-      <c r="K46" s="98"/>
-      <c r="L46" s="98"/>
-      <c r="M46" s="98"/>
-      <c r="N46" s="98"/>
-      <c r="O46" s="98"/>
-      <c r="P46" s="99"/>
-      <c r="Q46" s="99"/>
+      <c r="E46" s="105"/>
+      <c r="F46" s="106" t="s">
+        <v>181</v>
+      </c>
+      <c r="G46" s="107"/>
+      <c r="H46" s="107"/>
+      <c r="I46" s="107"/>
+      <c r="J46" s="107"/>
+      <c r="K46" s="107"/>
+      <c r="L46" s="107"/>
+      <c r="M46" s="107"/>
+      <c r="N46" s="107"/>
+      <c r="O46" s="108"/>
+      <c r="P46" s="109"/>
+      <c r="Q46" s="109" t="s">
+        <v>182</v>
+      </c>
       <c r="R46" s="41"/>
       <c r="S46" s="42"/>
-      <c r="AD46" s="52"/>
-      <c r="AE46" s="52"/>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="59"/>
-      <c r="B47" s="59"/>
-      <c r="C47" s="60" t="s">
+      <c r="AD46" s="51"/>
+      <c r="AE46" s="51"/>
+    </row>
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="98"/>
+      <c r="B47" s="98"/>
+      <c r="C47" s="99" t="s">
         <v>148</v>
       </c>
-      <c r="D47" s="61" t="s">
+      <c r="D47" s="100" t="s">
         <v>149</v>
       </c>
-      <c r="E47" s="78"/>
-      <c r="F47" s="71" t="s">
+      <c r="E47" s="101" t="s">
+        <v>178</v>
+      </c>
+      <c r="F47" s="102" t="s">
         <v>190</v>
       </c>
-      <c r="G47" s="71"/>
-      <c r="H47" s="71"/>
-      <c r="I47" s="71"/>
-      <c r="J47" s="71"/>
-      <c r="K47" s="71"/>
-      <c r="L47" s="71"/>
-      <c r="M47" s="71"/>
-      <c r="N47" s="71"/>
-      <c r="O47" s="71"/>
-      <c r="P47" s="71"/>
-      <c r="Q47" s="71"/>
+      <c r="G47" s="102"/>
+      <c r="H47" s="102"/>
+      <c r="I47" s="102"/>
+      <c r="J47" s="102"/>
+      <c r="K47" s="102"/>
+      <c r="L47" s="102"/>
+      <c r="M47" s="102"/>
+      <c r="N47" s="102"/>
+      <c r="O47" s="102"/>
+      <c r="P47" s="103"/>
+      <c r="Q47" s="103"/>
       <c r="R47" s="41"/>
       <c r="S47" s="42"/>
-      <c r="AD47" s="52"/>
-      <c r="AE47" s="52"/>
-    </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD47" s="51"/>
+      <c r="AE47" s="51"/>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="59"/>
       <c r="B48" s="59"/>
       <c r="C48" s="60" t="s">
@@ -16922,25 +17016,25 @@
       <c r="D48" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="E48" s="101" t="s">
-        <v>181</v>
-      </c>
-      <c r="F48" s="102"/>
-      <c r="G48" s="103"/>
-      <c r="H48" s="103"/>
-      <c r="I48" s="103"/>
-      <c r="J48" s="103"/>
-      <c r="K48" s="103"/>
-      <c r="L48" s="103"/>
-      <c r="M48" s="103"/>
-      <c r="N48" s="103"/>
-      <c r="O48" s="104"/>
-      <c r="P48" s="104"/>
-      <c r="Q48" s="104"/>
+      <c r="E48" s="81"/>
+      <c r="F48" s="73" t="s">
+        <v>191</v>
+      </c>
+      <c r="G48" s="73"/>
+      <c r="H48" s="73"/>
+      <c r="I48" s="73"/>
+      <c r="J48" s="73"/>
+      <c r="K48" s="73"/>
+      <c r="L48" s="73"/>
+      <c r="M48" s="73"/>
+      <c r="N48" s="73"/>
+      <c r="O48" s="73"/>
+      <c r="P48" s="64"/>
+      <c r="Q48" s="64"/>
       <c r="R48" s="41"/>
       <c r="S48" s="42"/>
-      <c r="AD48" s="52"/>
-      <c r="AE48" s="52"/>
+      <c r="AD48" s="51"/>
+      <c r="AE48" s="51"/>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="59"/>
@@ -16951,25 +17045,27 @@
       <c r="D49" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="E49" s="101"/>
-      <c r="F49" s="102" t="s">
+      <c r="E49" s="105"/>
+      <c r="F49" s="106" t="s">
+        <v>181</v>
+      </c>
+      <c r="G49" s="107"/>
+      <c r="H49" s="107"/>
+      <c r="I49" s="107"/>
+      <c r="J49" s="107"/>
+      <c r="K49" s="107"/>
+      <c r="L49" s="107"/>
+      <c r="M49" s="107"/>
+      <c r="N49" s="107"/>
+      <c r="O49" s="108"/>
+      <c r="P49" s="109" t="s">
         <v>182</v>
       </c>
-      <c r="G49" s="103"/>
-      <c r="H49" s="103"/>
-      <c r="I49" s="103"/>
-      <c r="J49" s="103"/>
-      <c r="K49" s="103"/>
-      <c r="L49" s="103"/>
-      <c r="M49" s="103"/>
-      <c r="N49" s="103"/>
-      <c r="O49" s="104"/>
-      <c r="P49" s="104"/>
-      <c r="Q49" s="104"/>
+      <c r="Q49" s="109"/>
       <c r="R49" s="41"/>
       <c r="S49" s="42"/>
-      <c r="AD49" s="52"/>
-      <c r="AE49" s="52"/>
+      <c r="AD49" s="51"/>
+      <c r="AE49" s="51"/>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="59"/>
@@ -16980,25 +17076,25 @@
       <c r="D50" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="E50" s="101"/>
-      <c r="F50" s="102"/>
-      <c r="G50" s="103" t="s">
-        <v>191</v>
-      </c>
-      <c r="H50" s="103"/>
-      <c r="I50" s="103"/>
-      <c r="J50" s="103"/>
-      <c r="K50" s="103"/>
-      <c r="L50" s="103"/>
-      <c r="M50" s="103"/>
-      <c r="N50" s="103"/>
-      <c r="O50" s="104"/>
-      <c r="P50" s="104"/>
-      <c r="Q50" s="104"/>
+      <c r="E50" s="105"/>
+      <c r="F50" s="107" t="s">
+        <v>183</v>
+      </c>
+      <c r="G50" s="107"/>
+      <c r="H50" s="107"/>
+      <c r="I50" s="107"/>
+      <c r="J50" s="107"/>
+      <c r="K50" s="107"/>
+      <c r="L50" s="107"/>
+      <c r="M50" s="107"/>
+      <c r="N50" s="107"/>
+      <c r="O50" s="108"/>
+      <c r="P50" s="109"/>
+      <c r="Q50" s="109"/>
       <c r="R50" s="41"/>
       <c r="S50" s="42"/>
-      <c r="AD50" s="52"/>
-      <c r="AE50" s="52"/>
+      <c r="AD50" s="51"/>
+      <c r="AE50" s="51"/>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="59"/>
@@ -17009,25 +17105,25 @@
       <c r="D51" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="E51" s="101"/>
-      <c r="F51" s="102" t="s">
-        <v>186</v>
-      </c>
-      <c r="G51" s="103"/>
-      <c r="H51" s="103"/>
-      <c r="I51" s="103"/>
-      <c r="J51" s="103"/>
-      <c r="K51" s="103"/>
-      <c r="L51" s="103"/>
-      <c r="M51" s="103"/>
-      <c r="N51" s="103"/>
-      <c r="O51" s="104"/>
-      <c r="P51" s="104"/>
-      <c r="Q51" s="104"/>
+      <c r="E51" s="105"/>
+      <c r="F51" s="107"/>
+      <c r="G51" s="107" t="s">
+        <v>192</v>
+      </c>
+      <c r="H51" s="107"/>
+      <c r="I51" s="107"/>
+      <c r="J51" s="107"/>
+      <c r="K51" s="107"/>
+      <c r="L51" s="107"/>
+      <c r="M51" s="107"/>
+      <c r="N51" s="107"/>
+      <c r="O51" s="108"/>
+      <c r="P51" s="109"/>
+      <c r="Q51" s="109"/>
       <c r="R51" s="41"/>
       <c r="S51" s="42"/>
-      <c r="AD51" s="52"/>
-      <c r="AE51" s="52"/>
+      <c r="AD51" s="51"/>
+      <c r="AE51" s="51"/>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="59"/>
@@ -17038,85 +17134,87 @@
       <c r="D52" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="E52" s="101" t="s">
-        <v>181</v>
-      </c>
-      <c r="F52" s="102"/>
-      <c r="G52" s="103"/>
-      <c r="H52" s="103"/>
-      <c r="I52" s="103"/>
-      <c r="J52" s="103"/>
-      <c r="K52" s="103"/>
-      <c r="L52" s="103"/>
-      <c r="M52" s="103"/>
-      <c r="N52" s="103"/>
-      <c r="O52" s="104"/>
-      <c r="P52" s="104"/>
-      <c r="Q52" s="104"/>
+      <c r="E52" s="105"/>
+      <c r="F52" s="107" t="s">
+        <v>187</v>
+      </c>
+      <c r="G52" s="107"/>
+      <c r="H52" s="107"/>
+      <c r="I52" s="107"/>
+      <c r="J52" s="107"/>
+      <c r="K52" s="107"/>
+      <c r="L52" s="107"/>
+      <c r="M52" s="107"/>
+      <c r="N52" s="107"/>
+      <c r="O52" s="108"/>
+      <c r="P52" s="109"/>
+      <c r="Q52" s="109"/>
       <c r="R52" s="41"/>
       <c r="S52" s="42"/>
-      <c r="AD52" s="52"/>
-      <c r="AE52" s="52"/>
+      <c r="AD52" s="51"/>
+      <c r="AE52" s="51"/>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="88"/>
-      <c r="B53" s="88"/>
-      <c r="C53" s="89" t="s">
+      <c r="A53" s="59"/>
+      <c r="B53" s="59"/>
+      <c r="C53" s="60" t="s">
         <v>148</v>
       </c>
-      <c r="D53" s="90" t="s">
+      <c r="D53" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="E53" s="91" t="s">
-        <v>175</v>
-      </c>
-      <c r="F53" s="92" t="s">
-        <v>192</v>
-      </c>
-      <c r="G53" s="92"/>
-      <c r="H53" s="92"/>
-      <c r="I53" s="92"/>
-      <c r="J53" s="92"/>
-      <c r="K53" s="92"/>
-      <c r="L53" s="92"/>
-      <c r="M53" s="92"/>
-      <c r="N53" s="92"/>
-      <c r="O53" s="92"/>
-      <c r="P53" s="93"/>
-      <c r="Q53" s="93"/>
+      <c r="E53" s="105"/>
+      <c r="F53" s="106" t="s">
+        <v>181</v>
+      </c>
+      <c r="G53" s="107"/>
+      <c r="H53" s="107"/>
+      <c r="I53" s="107"/>
+      <c r="J53" s="107"/>
+      <c r="K53" s="107"/>
+      <c r="L53" s="107"/>
+      <c r="M53" s="107"/>
+      <c r="N53" s="107"/>
+      <c r="O53" s="108"/>
+      <c r="P53" s="109"/>
+      <c r="Q53" s="109" t="s">
+        <v>182</v>
+      </c>
       <c r="R53" s="41"/>
       <c r="S53" s="42"/>
-      <c r="AD53" s="52"/>
-      <c r="AE53" s="52"/>
-    </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="59"/>
-      <c r="B54" s="59"/>
-      <c r="C54" s="60" t="s">
+      <c r="AD53" s="51"/>
+      <c r="AE53" s="51"/>
+    </row>
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="92"/>
+      <c r="B54" s="92"/>
+      <c r="C54" s="93" t="s">
         <v>148</v>
       </c>
-      <c r="D54" s="61" t="s">
+      <c r="D54" s="94" t="s">
         <v>149</v>
       </c>
-      <c r="E54" s="78"/>
-      <c r="F54" s="71" t="s">
+      <c r="E54" s="95" t="s">
+        <v>175</v>
+      </c>
+      <c r="F54" s="96" t="s">
         <v>193</v>
       </c>
-      <c r="G54" s="71"/>
-      <c r="H54" s="71"/>
-      <c r="I54" s="71"/>
-      <c r="J54" s="71"/>
-      <c r="K54" s="71"/>
-      <c r="L54" s="71"/>
-      <c r="M54" s="71"/>
-      <c r="N54" s="71"/>
-      <c r="O54" s="71"/>
-      <c r="P54" s="71"/>
-      <c r="Q54" s="71"/>
+      <c r="G54" s="96"/>
+      <c r="H54" s="96"/>
+      <c r="I54" s="96"/>
+      <c r="J54" s="96"/>
+      <c r="K54" s="96"/>
+      <c r="L54" s="96"/>
+      <c r="M54" s="96"/>
+      <c r="N54" s="96"/>
+      <c r="O54" s="96"/>
+      <c r="P54" s="97"/>
+      <c r="Q54" s="97"/>
       <c r="R54" s="41"/>
       <c r="S54" s="42"/>
-      <c r="AD54" s="52"/>
-      <c r="AE54" s="52"/>
+      <c r="AD54" s="51"/>
+      <c r="AE54" s="51"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="59"/>
@@ -17127,87 +17225,87 @@
       <c r="D55" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="E55" s="78"/>
-      <c r="F55" s="71" t="s">
+      <c r="E55" s="81"/>
+      <c r="F55" s="73" t="s">
         <v>194</v>
       </c>
-      <c r="G55" s="71"/>
-      <c r="H55" s="71"/>
-      <c r="I55" s="71"/>
-      <c r="J55" s="71"/>
-      <c r="K55" s="71"/>
-      <c r="L55" s="71"/>
-      <c r="M55" s="71"/>
-      <c r="N55" s="71"/>
-      <c r="O55" s="71"/>
-      <c r="P55" s="71"/>
-      <c r="Q55" s="71"/>
+      <c r="G55" s="73"/>
+      <c r="H55" s="73"/>
+      <c r="I55" s="73"/>
+      <c r="J55" s="73"/>
+      <c r="K55" s="73"/>
+      <c r="L55" s="73"/>
+      <c r="M55" s="73"/>
+      <c r="N55" s="73"/>
+      <c r="O55" s="73"/>
+      <c r="P55" s="64"/>
+      <c r="Q55" s="64"/>
       <c r="R55" s="41"/>
       <c r="S55" s="42"/>
-      <c r="AD55" s="52"/>
-      <c r="AE55" s="52"/>
-    </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="94"/>
-      <c r="B56" s="94"/>
-      <c r="C56" s="95" t="s">
+      <c r="AD55" s="51"/>
+      <c r="AE55" s="51"/>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="59"/>
+      <c r="B56" s="59"/>
+      <c r="C56" s="60" t="s">
         <v>148</v>
       </c>
-      <c r="D56" s="96" t="s">
+      <c r="D56" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="E56" s="97" t="s">
-        <v>178</v>
-      </c>
-      <c r="F56" s="98" t="s">
+      <c r="E56" s="81"/>
+      <c r="F56" s="73" t="s">
         <v>195</v>
       </c>
-      <c r="G56" s="98"/>
-      <c r="H56" s="98"/>
-      <c r="I56" s="98"/>
-      <c r="J56" s="98"/>
-      <c r="K56" s="98"/>
-      <c r="L56" s="98"/>
-      <c r="M56" s="98"/>
-      <c r="N56" s="98"/>
-      <c r="O56" s="98"/>
-      <c r="P56" s="99"/>
-      <c r="Q56" s="99"/>
+      <c r="G56" s="73"/>
+      <c r="H56" s="73"/>
+      <c r="I56" s="73"/>
+      <c r="J56" s="73"/>
+      <c r="K56" s="73"/>
+      <c r="L56" s="73"/>
+      <c r="M56" s="73"/>
+      <c r="N56" s="73"/>
+      <c r="O56" s="73"/>
+      <c r="P56" s="64"/>
+      <c r="Q56" s="64"/>
       <c r="R56" s="41"/>
       <c r="S56" s="42"/>
-      <c r="AD56" s="52"/>
-      <c r="AE56" s="52"/>
-    </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="59"/>
-      <c r="B57" s="59"/>
-      <c r="C57" s="60" t="s">
+      <c r="AD56" s="51"/>
+      <c r="AE56" s="51"/>
+    </row>
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="98"/>
+      <c r="B57" s="98"/>
+      <c r="C57" s="99" t="s">
         <v>148</v>
       </c>
-      <c r="D57" s="61" t="s">
+      <c r="D57" s="100" t="s">
         <v>149</v>
       </c>
-      <c r="E57" s="78"/>
-      <c r="F57" s="71" t="s">
+      <c r="E57" s="101" t="s">
+        <v>178</v>
+      </c>
+      <c r="F57" s="102" t="s">
         <v>196</v>
       </c>
-      <c r="G57" s="71"/>
-      <c r="H57" s="71"/>
-      <c r="I57" s="71"/>
-      <c r="J57" s="71"/>
-      <c r="K57" s="71"/>
-      <c r="L57" s="71"/>
-      <c r="M57" s="71"/>
-      <c r="N57" s="71"/>
-      <c r="O57" s="71"/>
-      <c r="P57" s="71"/>
-      <c r="Q57" s="71"/>
+      <c r="G57" s="102"/>
+      <c r="H57" s="102"/>
+      <c r="I57" s="102"/>
+      <c r="J57" s="102"/>
+      <c r="K57" s="102"/>
+      <c r="L57" s="102"/>
+      <c r="M57" s="102"/>
+      <c r="N57" s="102"/>
+      <c r="O57" s="102"/>
+      <c r="P57" s="103"/>
+      <c r="Q57" s="103"/>
       <c r="R57" s="41"/>
       <c r="S57" s="42"/>
-      <c r="AD57" s="52"/>
-      <c r="AE57" s="52"/>
-    </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD57" s="51"/>
+      <c r="AE57" s="51"/>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="59"/>
       <c r="B58" s="59"/>
       <c r="C58" s="60" t="s">
@@ -17216,25 +17314,25 @@
       <c r="D58" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="E58" s="101" t="s">
-        <v>181</v>
-      </c>
-      <c r="F58" s="102"/>
-      <c r="G58" s="103"/>
-      <c r="H58" s="103"/>
-      <c r="I58" s="103"/>
-      <c r="J58" s="103"/>
-      <c r="K58" s="103"/>
-      <c r="L58" s="103"/>
-      <c r="M58" s="103"/>
-      <c r="N58" s="103"/>
-      <c r="O58" s="104"/>
-      <c r="P58" s="104"/>
-      <c r="Q58" s="104"/>
+      <c r="E58" s="81"/>
+      <c r="F58" s="73" t="s">
+        <v>197</v>
+      </c>
+      <c r="G58" s="73"/>
+      <c r="H58" s="73"/>
+      <c r="I58" s="73"/>
+      <c r="J58" s="73"/>
+      <c r="K58" s="73"/>
+      <c r="L58" s="73"/>
+      <c r="M58" s="73"/>
+      <c r="N58" s="73"/>
+      <c r="O58" s="73"/>
+      <c r="P58" s="64"/>
+      <c r="Q58" s="64"/>
       <c r="R58" s="41"/>
       <c r="S58" s="42"/>
-      <c r="AD58" s="52"/>
-      <c r="AE58" s="52"/>
+      <c r="AD58" s="51"/>
+      <c r="AE58" s="51"/>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="59"/>
@@ -17245,25 +17343,27 @@
       <c r="D59" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="E59" s="101"/>
-      <c r="F59" s="102" t="s">
+      <c r="E59" s="105"/>
+      <c r="F59" s="106" t="s">
+        <v>181</v>
+      </c>
+      <c r="G59" s="107"/>
+      <c r="H59" s="107"/>
+      <c r="I59" s="107"/>
+      <c r="J59" s="107"/>
+      <c r="K59" s="107"/>
+      <c r="L59" s="107"/>
+      <c r="M59" s="107"/>
+      <c r="N59" s="107"/>
+      <c r="O59" s="108"/>
+      <c r="P59" s="109" t="s">
         <v>182</v>
       </c>
-      <c r="G59" s="103"/>
-      <c r="H59" s="103"/>
-      <c r="I59" s="103"/>
-      <c r="J59" s="103"/>
-      <c r="K59" s="103"/>
-      <c r="L59" s="103"/>
-      <c r="M59" s="103"/>
-      <c r="N59" s="103"/>
-      <c r="O59" s="104"/>
-      <c r="P59" s="104"/>
-      <c r="Q59" s="104"/>
+      <c r="Q59" s="109"/>
       <c r="R59" s="41"/>
       <c r="S59" s="42"/>
-      <c r="AD59" s="52"/>
-      <c r="AE59" s="52"/>
+      <c r="AD59" s="51"/>
+      <c r="AE59" s="51"/>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="59"/>
@@ -17274,25 +17374,25 @@
       <c r="D60" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="E60" s="101"/>
-      <c r="F60" s="102"/>
-      <c r="G60" s="103" t="s">
-        <v>197</v>
-      </c>
-      <c r="H60" s="103"/>
-      <c r="I60" s="103"/>
-      <c r="J60" s="103"/>
-      <c r="K60" s="103"/>
-      <c r="L60" s="103"/>
-      <c r="M60" s="103"/>
-      <c r="N60" s="103"/>
-      <c r="O60" s="104"/>
-      <c r="P60" s="104"/>
-      <c r="Q60" s="104"/>
+      <c r="E60" s="105"/>
+      <c r="F60" s="107" t="s">
+        <v>183</v>
+      </c>
+      <c r="G60" s="107"/>
+      <c r="H60" s="107"/>
+      <c r="I60" s="107"/>
+      <c r="J60" s="107"/>
+      <c r="K60" s="107"/>
+      <c r="L60" s="107"/>
+      <c r="M60" s="107"/>
+      <c r="N60" s="107"/>
+      <c r="O60" s="108"/>
+      <c r="P60" s="109"/>
+      <c r="Q60" s="109"/>
       <c r="R60" s="41"/>
       <c r="S60" s="42"/>
-      <c r="AD60" s="52"/>
-      <c r="AE60" s="52"/>
+      <c r="AD60" s="51"/>
+      <c r="AE60" s="51"/>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="59"/>
@@ -17303,25 +17403,25 @@
       <c r="D61" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="E61" s="101"/>
-      <c r="F61" s="102" t="s">
-        <v>186</v>
-      </c>
-      <c r="G61" s="103"/>
-      <c r="H61" s="103"/>
-      <c r="I61" s="103"/>
-      <c r="J61" s="103"/>
-      <c r="K61" s="103"/>
-      <c r="L61" s="103"/>
-      <c r="M61" s="103"/>
-      <c r="N61" s="103"/>
-      <c r="O61" s="104"/>
-      <c r="P61" s="104"/>
-      <c r="Q61" s="104"/>
+      <c r="E61" s="105"/>
+      <c r="F61" s="107"/>
+      <c r="G61" s="107" t="s">
+        <v>198</v>
+      </c>
+      <c r="H61" s="107"/>
+      <c r="I61" s="107"/>
+      <c r="J61" s="107"/>
+      <c r="K61" s="107"/>
+      <c r="L61" s="107"/>
+      <c r="M61" s="107"/>
+      <c r="N61" s="107"/>
+      <c r="O61" s="108"/>
+      <c r="P61" s="109"/>
+      <c r="Q61" s="109"/>
       <c r="R61" s="41"/>
       <c r="S61" s="42"/>
-      <c r="AD61" s="52"/>
-      <c r="AE61" s="52"/>
+      <c r="AD61" s="51"/>
+      <c r="AE61" s="51"/>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="59"/>
@@ -17332,147 +17432,149 @@
       <c r="D62" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="E62" s="101" t="s">
-        <v>181</v>
-      </c>
-      <c r="F62" s="102"/>
-      <c r="G62" s="103"/>
-      <c r="H62" s="103"/>
-      <c r="I62" s="103"/>
-      <c r="J62" s="103"/>
-      <c r="K62" s="103"/>
-      <c r="L62" s="103"/>
-      <c r="M62" s="103"/>
-      <c r="N62" s="103"/>
-      <c r="O62" s="104"/>
-      <c r="P62" s="104"/>
-      <c r="Q62" s="104"/>
+      <c r="E62" s="105"/>
+      <c r="F62" s="107" t="s">
+        <v>187</v>
+      </c>
+      <c r="G62" s="107"/>
+      <c r="H62" s="107"/>
+      <c r="I62" s="107"/>
+      <c r="J62" s="107"/>
+      <c r="K62" s="107"/>
+      <c r="L62" s="107"/>
+      <c r="M62" s="107"/>
+      <c r="N62" s="107"/>
+      <c r="O62" s="108"/>
+      <c r="P62" s="109"/>
+      <c r="Q62" s="109"/>
       <c r="R62" s="41"/>
       <c r="S62" s="42"/>
-      <c r="AD62" s="52"/>
-      <c r="AE62" s="52"/>
+      <c r="AD62" s="51"/>
+      <c r="AE62" s="51"/>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="88"/>
-      <c r="B63" s="88"/>
-      <c r="C63" s="89" t="s">
+      <c r="A63" s="59"/>
+      <c r="B63" s="59"/>
+      <c r="C63" s="60" t="s">
         <v>148</v>
       </c>
-      <c r="D63" s="90" t="s">
+      <c r="D63" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="E63" s="91" t="s">
-        <v>175</v>
-      </c>
-      <c r="F63" s="92" t="s">
-        <v>198</v>
-      </c>
-      <c r="G63" s="92"/>
-      <c r="H63" s="92"/>
-      <c r="I63" s="92"/>
-      <c r="J63" s="92"/>
-      <c r="K63" s="92"/>
-      <c r="L63" s="92"/>
-      <c r="M63" s="92"/>
-      <c r="N63" s="92"/>
-      <c r="O63" s="92"/>
-      <c r="P63" s="93"/>
-      <c r="Q63" s="93"/>
+      <c r="E63" s="105"/>
+      <c r="F63" s="106" t="s">
+        <v>181</v>
+      </c>
+      <c r="G63" s="107"/>
+      <c r="H63" s="107"/>
+      <c r="I63" s="107"/>
+      <c r="J63" s="107"/>
+      <c r="K63" s="107"/>
+      <c r="L63" s="107"/>
+      <c r="M63" s="107"/>
+      <c r="N63" s="107"/>
+      <c r="O63" s="108"/>
+      <c r="P63" s="109"/>
+      <c r="Q63" s="109" t="s">
+        <v>182</v>
+      </c>
       <c r="R63" s="41"/>
       <c r="S63" s="42"/>
-      <c r="AD63" s="52"/>
-      <c r="AE63" s="52"/>
-    </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="59"/>
-      <c r="B64" s="59"/>
-      <c r="C64" s="60" t="s">
+      <c r="AD63" s="51"/>
+      <c r="AE63" s="51"/>
+    </row>
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="92"/>
+      <c r="B64" s="92"/>
+      <c r="C64" s="93" t="s">
         <v>148</v>
       </c>
-      <c r="D64" s="61" t="s">
+      <c r="D64" s="94" t="s">
         <v>149</v>
       </c>
-      <c r="E64" s="78"/>
-      <c r="F64" s="71" t="s">
+      <c r="E64" s="95" t="s">
+        <v>175</v>
+      </c>
+      <c r="F64" s="96" t="s">
         <v>199</v>
       </c>
-      <c r="G64" s="71"/>
-      <c r="H64" s="71"/>
-      <c r="I64" s="71"/>
-      <c r="J64" s="71"/>
-      <c r="K64" s="71"/>
-      <c r="L64" s="71"/>
-      <c r="M64" s="71"/>
-      <c r="N64" s="71"/>
-      <c r="O64" s="71"/>
-      <c r="P64" s="71"/>
-      <c r="Q64" s="71"/>
+      <c r="G64" s="96"/>
+      <c r="H64" s="96"/>
+      <c r="I64" s="96"/>
+      <c r="J64" s="96"/>
+      <c r="K64" s="96"/>
+      <c r="L64" s="96"/>
+      <c r="M64" s="96"/>
+      <c r="N64" s="96"/>
+      <c r="O64" s="96"/>
+      <c r="P64" s="97"/>
+      <c r="Q64" s="97"/>
       <c r="R64" s="41"/>
       <c r="S64" s="42"/>
-      <c r="AD64" s="52"/>
-      <c r="AE64" s="52"/>
-    </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="94"/>
-      <c r="B65" s="94"/>
-      <c r="C65" s="95" t="s">
+      <c r="AD64" s="51"/>
+      <c r="AE64" s="51"/>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="59"/>
+      <c r="B65" s="59"/>
+      <c r="C65" s="60" t="s">
         <v>148</v>
       </c>
-      <c r="D65" s="96" t="s">
+      <c r="D65" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="E65" s="97" t="s">
-        <v>178</v>
-      </c>
-      <c r="F65" s="98" t="s">
+      <c r="E65" s="81"/>
+      <c r="F65" s="73" t="s">
         <v>200</v>
       </c>
-      <c r="G65" s="98"/>
-      <c r="H65" s="98"/>
-      <c r="I65" s="98"/>
-      <c r="J65" s="98"/>
-      <c r="K65" s="98"/>
-      <c r="L65" s="98"/>
-      <c r="M65" s="98"/>
-      <c r="N65" s="98"/>
-      <c r="O65" s="98"/>
-      <c r="P65" s="99"/>
-      <c r="Q65" s="99"/>
+      <c r="G65" s="73"/>
+      <c r="H65" s="73"/>
+      <c r="I65" s="73"/>
+      <c r="J65" s="73"/>
+      <c r="K65" s="73"/>
+      <c r="L65" s="73"/>
+      <c r="M65" s="73"/>
+      <c r="N65" s="73"/>
+      <c r="O65" s="73"/>
+      <c r="P65" s="64"/>
+      <c r="Q65" s="64"/>
       <c r="R65" s="41"/>
       <c r="S65" s="42"/>
-      <c r="AD65" s="52"/>
-      <c r="AE65" s="52"/>
-    </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="59"/>
-      <c r="B66" s="59"/>
-      <c r="C66" s="60" t="s">
+      <c r="AD65" s="51"/>
+      <c r="AE65" s="51"/>
+    </row>
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="98"/>
+      <c r="B66" s="98"/>
+      <c r="C66" s="99" t="s">
         <v>148</v>
       </c>
-      <c r="D66" s="61" t="s">
+      <c r="D66" s="100" t="s">
         <v>149</v>
       </c>
-      <c r="E66" s="78"/>
-      <c r="F66" s="71" t="s">
+      <c r="E66" s="101" t="s">
+        <v>178</v>
+      </c>
+      <c r="F66" s="102" t="s">
         <v>201</v>
       </c>
-      <c r="G66" s="71"/>
-      <c r="H66" s="71"/>
-      <c r="I66" s="71"/>
-      <c r="J66" s="71"/>
-      <c r="K66" s="71"/>
-      <c r="L66" s="71"/>
-      <c r="M66" s="71"/>
-      <c r="N66" s="71"/>
-      <c r="O66" s="71"/>
-      <c r="P66" s="71"/>
-      <c r="Q66" s="71"/>
+      <c r="G66" s="102"/>
+      <c r="H66" s="102"/>
+      <c r="I66" s="102"/>
+      <c r="J66" s="102"/>
+      <c r="K66" s="102"/>
+      <c r="L66" s="102"/>
+      <c r="M66" s="102"/>
+      <c r="N66" s="102"/>
+      <c r="O66" s="102"/>
+      <c r="P66" s="103"/>
+      <c r="Q66" s="103"/>
       <c r="R66" s="41"/>
       <c r="S66" s="42"/>
-      <c r="AD66" s="52"/>
-      <c r="AE66" s="52"/>
-    </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD66" s="51"/>
+      <c r="AE66" s="51"/>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="59"/>
       <c r="B67" s="59"/>
       <c r="C67" s="60" t="s">
@@ -17481,25 +17583,25 @@
       <c r="D67" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="E67" s="101" t="s">
-        <v>181</v>
-      </c>
-      <c r="F67" s="102"/>
-      <c r="G67" s="103"/>
-      <c r="H67" s="103"/>
-      <c r="I67" s="103"/>
-      <c r="J67" s="103"/>
-      <c r="K67" s="103"/>
-      <c r="L67" s="103"/>
-      <c r="M67" s="103"/>
-      <c r="N67" s="103"/>
-      <c r="O67" s="104"/>
-      <c r="P67" s="104"/>
-      <c r="Q67" s="104"/>
+      <c r="E67" s="81"/>
+      <c r="F67" s="73" t="s">
+        <v>202</v>
+      </c>
+      <c r="G67" s="73"/>
+      <c r="H67" s="73"/>
+      <c r="I67" s="73"/>
+      <c r="J67" s="73"/>
+      <c r="K67" s="73"/>
+      <c r="L67" s="73"/>
+      <c r="M67" s="73"/>
+      <c r="N67" s="73"/>
+      <c r="O67" s="73"/>
+      <c r="P67" s="64"/>
+      <c r="Q67" s="64"/>
       <c r="R67" s="41"/>
       <c r="S67" s="42"/>
-      <c r="AD67" s="52"/>
-      <c r="AE67" s="52"/>
+      <c r="AD67" s="51"/>
+      <c r="AE67" s="51"/>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="59"/>
@@ -17510,25 +17612,27 @@
       <c r="D68" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="E68" s="101"/>
-      <c r="F68" s="102" t="s">
+      <c r="E68" s="105"/>
+      <c r="F68" s="106" t="s">
+        <v>181</v>
+      </c>
+      <c r="G68" s="107"/>
+      <c r="H68" s="107"/>
+      <c r="I68" s="107"/>
+      <c r="J68" s="107"/>
+      <c r="K68" s="107"/>
+      <c r="L68" s="107"/>
+      <c r="M68" s="107"/>
+      <c r="N68" s="107"/>
+      <c r="O68" s="108"/>
+      <c r="P68" s="109" t="s">
         <v>182</v>
       </c>
-      <c r="G68" s="103"/>
-      <c r="H68" s="103"/>
-      <c r="I68" s="103"/>
-      <c r="J68" s="103"/>
-      <c r="K68" s="103"/>
-      <c r="L68" s="103"/>
-      <c r="M68" s="103"/>
-      <c r="N68" s="103"/>
-      <c r="O68" s="104"/>
-      <c r="P68" s="104"/>
-      <c r="Q68" s="104"/>
+      <c r="Q68" s="109"/>
       <c r="R68" s="41"/>
       <c r="S68" s="42"/>
-      <c r="AD68" s="52"/>
-      <c r="AE68" s="52"/>
+      <c r="AD68" s="51"/>
+      <c r="AE68" s="51"/>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="59"/>
@@ -17539,25 +17643,25 @@
       <c r="D69" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="E69" s="101"/>
-      <c r="F69" s="102"/>
-      <c r="G69" s="103" t="s">
-        <v>202</v>
-      </c>
-      <c r="H69" s="103"/>
-      <c r="I69" s="103"/>
-      <c r="J69" s="103"/>
-      <c r="K69" s="103"/>
-      <c r="L69" s="103"/>
-      <c r="M69" s="103"/>
-      <c r="N69" s="103"/>
-      <c r="O69" s="104"/>
-      <c r="P69" s="104"/>
-      <c r="Q69" s="104"/>
+      <c r="E69" s="105"/>
+      <c r="F69" s="107" t="s">
+        <v>183</v>
+      </c>
+      <c r="G69" s="107"/>
+      <c r="H69" s="107"/>
+      <c r="I69" s="107"/>
+      <c r="J69" s="107"/>
+      <c r="K69" s="107"/>
+      <c r="L69" s="107"/>
+      <c r="M69" s="107"/>
+      <c r="N69" s="107"/>
+      <c r="O69" s="108"/>
+      <c r="P69" s="109"/>
+      <c r="Q69" s="109"/>
       <c r="R69" s="41"/>
       <c r="S69" s="42"/>
-      <c r="AD69" s="52"/>
-      <c r="AE69" s="52"/>
+      <c r="AD69" s="51"/>
+      <c r="AE69" s="51"/>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="59"/>
@@ -17568,25 +17672,25 @@
       <c r="D70" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="E70" s="101"/>
-      <c r="F70" s="102"/>
-      <c r="G70" s="103" t="s">
+      <c r="E70" s="105"/>
+      <c r="F70" s="107"/>
+      <c r="G70" s="107" t="s">
         <v>203</v>
       </c>
-      <c r="H70" s="103"/>
-      <c r="I70" s="103"/>
-      <c r="J70" s="103"/>
-      <c r="K70" s="103"/>
-      <c r="L70" s="103"/>
-      <c r="M70" s="103"/>
-      <c r="N70" s="103"/>
-      <c r="O70" s="104"/>
-      <c r="P70" s="104"/>
-      <c r="Q70" s="104"/>
+      <c r="H70" s="107"/>
+      <c r="I70" s="107"/>
+      <c r="J70" s="107"/>
+      <c r="K70" s="107"/>
+      <c r="L70" s="107"/>
+      <c r="M70" s="107"/>
+      <c r="N70" s="107"/>
+      <c r="O70" s="108"/>
+      <c r="P70" s="109"/>
+      <c r="Q70" s="109"/>
       <c r="R70" s="41"/>
       <c r="S70" s="42"/>
-      <c r="AD70" s="52"/>
-      <c r="AE70" s="52"/>
+      <c r="AD70" s="51"/>
+      <c r="AE70" s="51"/>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="59"/>
@@ -17597,25 +17701,25 @@
       <c r="D71" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="E71" s="101"/>
-      <c r="F71" s="102" t="s">
-        <v>186</v>
-      </c>
-      <c r="G71" s="103"/>
-      <c r="H71" s="103"/>
-      <c r="I71" s="103"/>
-      <c r="J71" s="103"/>
-      <c r="K71" s="103"/>
-      <c r="L71" s="103"/>
-      <c r="M71" s="103"/>
-      <c r="N71" s="103"/>
-      <c r="O71" s="104"/>
-      <c r="P71" s="104"/>
-      <c r="Q71" s="104"/>
+      <c r="E71" s="105"/>
+      <c r="F71" s="107"/>
+      <c r="G71" s="107" t="s">
+        <v>204</v>
+      </c>
+      <c r="H71" s="107"/>
+      <c r="I71" s="107"/>
+      <c r="J71" s="107"/>
+      <c r="K71" s="107"/>
+      <c r="L71" s="107"/>
+      <c r="M71" s="107"/>
+      <c r="N71" s="107"/>
+      <c r="O71" s="108"/>
+      <c r="P71" s="109"/>
+      <c r="Q71" s="109"/>
       <c r="R71" s="41"/>
       <c r="S71" s="42"/>
-      <c r="AD71" s="52"/>
-      <c r="AE71" s="52"/>
+      <c r="AD71" s="51"/>
+      <c r="AE71" s="51"/>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="59"/>
@@ -17626,147 +17730,149 @@
       <c r="D72" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="E72" s="101" t="s">
-        <v>181</v>
-      </c>
-      <c r="F72" s="102"/>
-      <c r="G72" s="103"/>
-      <c r="H72" s="103"/>
-      <c r="I72" s="103"/>
-      <c r="J72" s="103"/>
-      <c r="K72" s="103"/>
-      <c r="L72" s="103"/>
-      <c r="M72" s="103"/>
-      <c r="N72" s="103"/>
-      <c r="O72" s="104"/>
-      <c r="P72" s="104"/>
-      <c r="Q72" s="104"/>
+      <c r="E72" s="105"/>
+      <c r="F72" s="107" t="s">
+        <v>187</v>
+      </c>
+      <c r="G72" s="107"/>
+      <c r="H72" s="107"/>
+      <c r="I72" s="107"/>
+      <c r="J72" s="107"/>
+      <c r="K72" s="107"/>
+      <c r="L72" s="107"/>
+      <c r="M72" s="107"/>
+      <c r="N72" s="107"/>
+      <c r="O72" s="108"/>
+      <c r="P72" s="109"/>
+      <c r="Q72" s="109"/>
       <c r="R72" s="41"/>
       <c r="S72" s="42"/>
-      <c r="AD72" s="52"/>
-      <c r="AE72" s="52"/>
+      <c r="AD72" s="51"/>
+      <c r="AE72" s="51"/>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="88"/>
-      <c r="B73" s="88"/>
-      <c r="C73" s="89" t="s">
+      <c r="A73" s="59"/>
+      <c r="B73" s="59"/>
+      <c r="C73" s="60" t="s">
         <v>148</v>
       </c>
-      <c r="D73" s="90" t="s">
+      <c r="D73" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="E73" s="91" t="s">
-        <v>175</v>
-      </c>
-      <c r="F73" s="92" t="s">
-        <v>204</v>
-      </c>
-      <c r="G73" s="92"/>
-      <c r="H73" s="92"/>
-      <c r="I73" s="92"/>
-      <c r="J73" s="92"/>
-      <c r="K73" s="92"/>
-      <c r="L73" s="92"/>
-      <c r="M73" s="92"/>
-      <c r="N73" s="92"/>
-      <c r="O73" s="92"/>
-      <c r="P73" s="93"/>
-      <c r="Q73" s="93"/>
+      <c r="E73" s="105"/>
+      <c r="F73" s="106" t="s">
+        <v>181</v>
+      </c>
+      <c r="G73" s="107"/>
+      <c r="H73" s="107"/>
+      <c r="I73" s="107"/>
+      <c r="J73" s="107"/>
+      <c r="K73" s="107"/>
+      <c r="L73" s="107"/>
+      <c r="M73" s="107"/>
+      <c r="N73" s="107"/>
+      <c r="O73" s="108"/>
+      <c r="P73" s="109"/>
+      <c r="Q73" s="109" t="s">
+        <v>182</v>
+      </c>
       <c r="R73" s="41"/>
       <c r="S73" s="42"/>
-      <c r="AD73" s="52"/>
-      <c r="AE73" s="52"/>
-    </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="59"/>
-      <c r="B74" s="59"/>
-      <c r="C74" s="60" t="s">
+      <c r="AD73" s="51"/>
+      <c r="AE73" s="51"/>
+    </row>
+    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="92"/>
+      <c r="B74" s="92"/>
+      <c r="C74" s="93" t="s">
         <v>148</v>
       </c>
-      <c r="D74" s="61" t="s">
+      <c r="D74" s="94" t="s">
         <v>149</v>
       </c>
-      <c r="E74" s="78"/>
-      <c r="F74" s="71" t="s">
+      <c r="E74" s="95" t="s">
+        <v>175</v>
+      </c>
+      <c r="F74" s="96" t="s">
         <v>205</v>
       </c>
-      <c r="G74" s="71"/>
-      <c r="H74" s="71"/>
-      <c r="I74" s="71"/>
-      <c r="J74" s="71"/>
-      <c r="K74" s="71"/>
-      <c r="L74" s="71"/>
-      <c r="M74" s="71"/>
-      <c r="N74" s="71"/>
-      <c r="O74" s="71"/>
-      <c r="P74" s="71"/>
-      <c r="Q74" s="71"/>
+      <c r="G74" s="96"/>
+      <c r="H74" s="96"/>
+      <c r="I74" s="96"/>
+      <c r="J74" s="96"/>
+      <c r="K74" s="96"/>
+      <c r="L74" s="96"/>
+      <c r="M74" s="96"/>
+      <c r="N74" s="96"/>
+      <c r="O74" s="96"/>
+      <c r="P74" s="97"/>
+      <c r="Q74" s="97"/>
       <c r="R74" s="41"/>
       <c r="S74" s="42"/>
-      <c r="AD74" s="52"/>
-      <c r="AE74" s="52"/>
-    </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="94"/>
-      <c r="B75" s="94"/>
-      <c r="C75" s="95" t="s">
+      <c r="AD74" s="51"/>
+      <c r="AE74" s="51"/>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="59"/>
+      <c r="B75" s="59"/>
+      <c r="C75" s="60" t="s">
         <v>148</v>
       </c>
-      <c r="D75" s="96" t="s">
+      <c r="D75" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="E75" s="97" t="s">
-        <v>178</v>
-      </c>
-      <c r="F75" s="98" t="s">
+      <c r="E75" s="81"/>
+      <c r="F75" s="73" t="s">
         <v>206</v>
       </c>
-      <c r="G75" s="98"/>
-      <c r="H75" s="98"/>
-      <c r="I75" s="98"/>
-      <c r="J75" s="98"/>
-      <c r="K75" s="98"/>
-      <c r="L75" s="98"/>
-      <c r="M75" s="98"/>
-      <c r="N75" s="98"/>
-      <c r="O75" s="98"/>
-      <c r="P75" s="99"/>
-      <c r="Q75" s="99"/>
+      <c r="G75" s="73"/>
+      <c r="H75" s="73"/>
+      <c r="I75" s="73"/>
+      <c r="J75" s="73"/>
+      <c r="K75" s="73"/>
+      <c r="L75" s="73"/>
+      <c r="M75" s="73"/>
+      <c r="N75" s="73"/>
+      <c r="O75" s="73"/>
+      <c r="P75" s="64"/>
+      <c r="Q75" s="64"/>
       <c r="R75" s="41"/>
       <c r="S75" s="42"/>
-      <c r="AD75" s="52"/>
-      <c r="AE75" s="52"/>
-    </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="59"/>
-      <c r="B76" s="59"/>
-      <c r="C76" s="60" t="s">
+      <c r="AD75" s="51"/>
+      <c r="AE75" s="51"/>
+    </row>
+    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="98"/>
+      <c r="B76" s="98"/>
+      <c r="C76" s="99" t="s">
         <v>148</v>
       </c>
-      <c r="D76" s="61" t="s">
+      <c r="D76" s="100" t="s">
         <v>149</v>
       </c>
-      <c r="E76" s="78"/>
-      <c r="F76" s="71" t="s">
+      <c r="E76" s="101" t="s">
+        <v>178</v>
+      </c>
+      <c r="F76" s="102" t="s">
         <v>207</v>
       </c>
-      <c r="G76" s="71"/>
-      <c r="H76" s="71"/>
-      <c r="I76" s="71"/>
-      <c r="J76" s="71"/>
-      <c r="K76" s="71"/>
-      <c r="L76" s="71"/>
-      <c r="M76" s="71"/>
-      <c r="N76" s="71"/>
-      <c r="O76" s="71"/>
-      <c r="P76" s="71"/>
-      <c r="Q76" s="71"/>
+      <c r="G76" s="102"/>
+      <c r="H76" s="102"/>
+      <c r="I76" s="102"/>
+      <c r="J76" s="102"/>
+      <c r="K76" s="102"/>
+      <c r="L76" s="102"/>
+      <c r="M76" s="102"/>
+      <c r="N76" s="102"/>
+      <c r="O76" s="102"/>
+      <c r="P76" s="103"/>
+      <c r="Q76" s="103"/>
       <c r="R76" s="41"/>
       <c r="S76" s="42"/>
-      <c r="AD76" s="52"/>
-      <c r="AE76" s="52"/>
-    </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD76" s="51"/>
+      <c r="AE76" s="51"/>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="59"/>
       <c r="B77" s="59"/>
       <c r="C77" s="60" t="s">
@@ -17775,25 +17881,25 @@
       <c r="D77" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="E77" s="101" t="s">
-        <v>181</v>
-      </c>
-      <c r="F77" s="103"/>
-      <c r="G77" s="103"/>
-      <c r="H77" s="103"/>
-      <c r="I77" s="103"/>
-      <c r="J77" s="103"/>
-      <c r="K77" s="103"/>
-      <c r="L77" s="103"/>
-      <c r="M77" s="103"/>
-      <c r="N77" s="103"/>
-      <c r="O77" s="103"/>
-      <c r="P77" s="104"/>
-      <c r="Q77" s="104"/>
+      <c r="E77" s="81"/>
+      <c r="F77" s="73" t="s">
+        <v>208</v>
+      </c>
+      <c r="G77" s="73"/>
+      <c r="H77" s="73"/>
+      <c r="I77" s="73"/>
+      <c r="J77" s="73"/>
+      <c r="K77" s="73"/>
+      <c r="L77" s="73"/>
+      <c r="M77" s="73"/>
+      <c r="N77" s="73"/>
+      <c r="O77" s="73"/>
+      <c r="P77" s="64"/>
+      <c r="Q77" s="64"/>
       <c r="R77" s="41"/>
       <c r="S77" s="42"/>
-      <c r="AD77" s="52"/>
-      <c r="AE77" s="52"/>
+      <c r="AD77" s="51"/>
+      <c r="AE77" s="51"/>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="59"/>
@@ -17804,25 +17910,27 @@
       <c r="D78" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="E78" s="101"/>
-      <c r="F78" s="103" t="s">
-        <v>208</v>
-      </c>
-      <c r="G78" s="103"/>
-      <c r="H78" s="103"/>
-      <c r="I78" s="103"/>
-      <c r="J78" s="103"/>
-      <c r="K78" s="103"/>
-      <c r="L78" s="103"/>
-      <c r="M78" s="103"/>
-      <c r="N78" s="103"/>
-      <c r="O78" s="103"/>
-      <c r="P78" s="104"/>
-      <c r="Q78" s="104"/>
+      <c r="E78" s="105"/>
+      <c r="F78" s="106" t="s">
+        <v>181</v>
+      </c>
+      <c r="G78" s="107"/>
+      <c r="H78" s="107"/>
+      <c r="I78" s="107"/>
+      <c r="J78" s="107"/>
+      <c r="K78" s="107"/>
+      <c r="L78" s="107"/>
+      <c r="M78" s="107"/>
+      <c r="N78" s="107"/>
+      <c r="O78" s="107"/>
+      <c r="P78" s="109" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q78" s="109"/>
       <c r="R78" s="41"/>
       <c r="S78" s="42"/>
-      <c r="AD78" s="52"/>
-      <c r="AE78" s="52"/>
+      <c r="AD78" s="51"/>
+      <c r="AE78" s="51"/>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="59"/>
@@ -17833,147 +17941,149 @@
       <c r="D79" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="E79" s="101" t="s">
-        <v>181</v>
-      </c>
-      <c r="F79" s="103"/>
-      <c r="G79" s="103"/>
-      <c r="H79" s="103"/>
-      <c r="I79" s="103"/>
-      <c r="J79" s="103"/>
-      <c r="K79" s="103"/>
-      <c r="L79" s="103"/>
-      <c r="M79" s="103"/>
-      <c r="N79" s="103"/>
-      <c r="O79" s="103"/>
-      <c r="P79" s="104"/>
-      <c r="Q79" s="104"/>
+      <c r="E79" s="105"/>
+      <c r="F79" s="107" t="s">
+        <v>209</v>
+      </c>
+      <c r="G79" s="107"/>
+      <c r="H79" s="107"/>
+      <c r="I79" s="107"/>
+      <c r="J79" s="107"/>
+      <c r="K79" s="107"/>
+      <c r="L79" s="107"/>
+      <c r="M79" s="107"/>
+      <c r="N79" s="107"/>
+      <c r="O79" s="107"/>
+      <c r="P79" s="109"/>
+      <c r="Q79" s="109"/>
       <c r="R79" s="41"/>
       <c r="S79" s="42"/>
-      <c r="AD79" s="52"/>
-      <c r="AE79" s="52"/>
+      <c r="AD79" s="51"/>
+      <c r="AE79" s="51"/>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="88"/>
-      <c r="B80" s="88"/>
-      <c r="C80" s="89" t="s">
+      <c r="A80" s="59"/>
+      <c r="B80" s="59"/>
+      <c r="C80" s="60" t="s">
         <v>148</v>
       </c>
-      <c r="D80" s="90" t="s">
+      <c r="D80" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="E80" s="91" t="s">
-        <v>175</v>
-      </c>
-      <c r="F80" s="92" t="s">
-        <v>209</v>
-      </c>
-      <c r="G80" s="92"/>
-      <c r="H80" s="92"/>
-      <c r="I80" s="92"/>
-      <c r="J80" s="92"/>
-      <c r="K80" s="92"/>
-      <c r="L80" s="92"/>
-      <c r="M80" s="92"/>
-      <c r="N80" s="92"/>
-      <c r="O80" s="92"/>
-      <c r="P80" s="93"/>
-      <c r="Q80" s="93"/>
+      <c r="E80" s="105"/>
+      <c r="F80" s="106" t="s">
+        <v>181</v>
+      </c>
+      <c r="G80" s="107"/>
+      <c r="H80" s="107"/>
+      <c r="I80" s="107"/>
+      <c r="J80" s="107"/>
+      <c r="K80" s="107"/>
+      <c r="L80" s="107"/>
+      <c r="M80" s="107"/>
+      <c r="N80" s="107"/>
+      <c r="O80" s="107"/>
+      <c r="P80" s="109"/>
+      <c r="Q80" s="109" t="s">
+        <v>182</v>
+      </c>
       <c r="R80" s="41"/>
       <c r="S80" s="42"/>
-      <c r="AD80" s="52"/>
-      <c r="AE80" s="52"/>
-    </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="59"/>
-      <c r="B81" s="59"/>
-      <c r="C81" s="60" t="s">
+      <c r="AD80" s="51"/>
+      <c r="AE80" s="51"/>
+    </row>
+    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="92"/>
+      <c r="B81" s="92"/>
+      <c r="C81" s="93" t="s">
         <v>148</v>
       </c>
-      <c r="D81" s="61" t="s">
+      <c r="D81" s="94" t="s">
         <v>149</v>
       </c>
-      <c r="E81" s="78"/>
-      <c r="F81" s="71" t="s">
+      <c r="E81" s="95" t="s">
+        <v>175</v>
+      </c>
+      <c r="F81" s="96" t="s">
         <v>210</v>
       </c>
-      <c r="G81" s="71"/>
-      <c r="H81" s="71"/>
-      <c r="I81" s="71"/>
-      <c r="J81" s="71"/>
-      <c r="K81" s="71"/>
-      <c r="L81" s="71"/>
-      <c r="M81" s="71"/>
-      <c r="N81" s="71"/>
-      <c r="O81" s="71"/>
-      <c r="P81" s="71"/>
-      <c r="Q81" s="71"/>
+      <c r="G81" s="96"/>
+      <c r="H81" s="96"/>
+      <c r="I81" s="96"/>
+      <c r="J81" s="96"/>
+      <c r="K81" s="96"/>
+      <c r="L81" s="96"/>
+      <c r="M81" s="96"/>
+      <c r="N81" s="96"/>
+      <c r="O81" s="96"/>
+      <c r="P81" s="97"/>
+      <c r="Q81" s="97"/>
       <c r="R81" s="41"/>
       <c r="S81" s="42"/>
-      <c r="AD81" s="52"/>
-      <c r="AE81" s="52"/>
-    </row>
-    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="94"/>
-      <c r="B82" s="94"/>
-      <c r="C82" s="95" t="s">
+      <c r="AD81" s="51"/>
+      <c r="AE81" s="51"/>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="59"/>
+      <c r="B82" s="59"/>
+      <c r="C82" s="60" t="s">
         <v>148</v>
       </c>
-      <c r="D82" s="96" t="s">
+      <c r="D82" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="E82" s="97" t="s">
-        <v>178</v>
-      </c>
-      <c r="F82" s="98" t="s">
+      <c r="E82" s="81"/>
+      <c r="F82" s="73" t="s">
         <v>211</v>
       </c>
-      <c r="G82" s="98"/>
-      <c r="H82" s="98"/>
-      <c r="I82" s="98"/>
-      <c r="J82" s="98"/>
-      <c r="K82" s="98"/>
-      <c r="L82" s="98"/>
-      <c r="M82" s="98"/>
-      <c r="N82" s="98"/>
-      <c r="O82" s="98"/>
-      <c r="P82" s="99"/>
-      <c r="Q82" s="99"/>
+      <c r="G82" s="73"/>
+      <c r="H82" s="73"/>
+      <c r="I82" s="73"/>
+      <c r="J82" s="73"/>
+      <c r="K82" s="73"/>
+      <c r="L82" s="73"/>
+      <c r="M82" s="73"/>
+      <c r="N82" s="73"/>
+      <c r="O82" s="73"/>
+      <c r="P82" s="64"/>
+      <c r="Q82" s="64"/>
       <c r="R82" s="41"/>
       <c r="S82" s="42"/>
-      <c r="AD82" s="52"/>
-      <c r="AE82" s="52"/>
-    </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="59"/>
-      <c r="B83" s="59"/>
-      <c r="C83" s="60" t="s">
+      <c r="AD82" s="51"/>
+      <c r="AE82" s="51"/>
+    </row>
+    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="98"/>
+      <c r="B83" s="98"/>
+      <c r="C83" s="99" t="s">
         <v>148</v>
       </c>
-      <c r="D83" s="61" t="s">
+      <c r="D83" s="100" t="s">
         <v>149</v>
       </c>
-      <c r="E83" s="78"/>
-      <c r="F83" s="71" t="s">
+      <c r="E83" s="101" t="s">
+        <v>178</v>
+      </c>
+      <c r="F83" s="102" t="s">
         <v>212</v>
       </c>
-      <c r="G83" s="71"/>
-      <c r="H83" s="71"/>
-      <c r="I83" s="71"/>
-      <c r="J83" s="71"/>
-      <c r="K83" s="71"/>
-      <c r="L83" s="71"/>
-      <c r="M83" s="71"/>
-      <c r="N83" s="71"/>
-      <c r="O83" s="71"/>
-      <c r="P83" s="71"/>
-      <c r="Q83" s="71"/>
+      <c r="G83" s="102"/>
+      <c r="H83" s="102"/>
+      <c r="I83" s="102"/>
+      <c r="J83" s="102"/>
+      <c r="K83" s="102"/>
+      <c r="L83" s="102"/>
+      <c r="M83" s="102"/>
+      <c r="N83" s="102"/>
+      <c r="O83" s="102"/>
+      <c r="P83" s="103"/>
+      <c r="Q83" s="103"/>
       <c r="R83" s="41"/>
       <c r="S83" s="42"/>
-      <c r="AD83" s="52"/>
-      <c r="AE83" s="52"/>
-    </row>
-    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD83" s="51"/>
+      <c r="AE83" s="51"/>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="59"/>
       <c r="B84" s="59"/>
       <c r="C84" s="60" t="s">
@@ -17982,25 +18092,25 @@
       <c r="D84" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="E84" s="101" t="s">
-        <v>181</v>
-      </c>
-      <c r="F84" s="102"/>
-      <c r="G84" s="103"/>
-      <c r="H84" s="103"/>
-      <c r="I84" s="103"/>
-      <c r="J84" s="103"/>
-      <c r="K84" s="103"/>
-      <c r="L84" s="103"/>
-      <c r="M84" s="103"/>
-      <c r="N84" s="103"/>
-      <c r="O84" s="104"/>
-      <c r="P84" s="104"/>
-      <c r="Q84" s="104"/>
+      <c r="E84" s="81"/>
+      <c r="F84" s="73" t="s">
+        <v>213</v>
+      </c>
+      <c r="G84" s="73"/>
+      <c r="H84" s="73"/>
+      <c r="I84" s="73"/>
+      <c r="J84" s="73"/>
+      <c r="K84" s="73"/>
+      <c r="L84" s="73"/>
+      <c r="M84" s="73"/>
+      <c r="N84" s="73"/>
+      <c r="O84" s="73"/>
+      <c r="P84" s="64"/>
+      <c r="Q84" s="64"/>
       <c r="R84" s="41"/>
       <c r="S84" s="42"/>
-      <c r="AD84" s="52"/>
-      <c r="AE84" s="52"/>
+      <c r="AD84" s="51"/>
+      <c r="AE84" s="51"/>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="59"/>
@@ -18011,25 +18121,27 @@
       <c r="D85" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="E85" s="101"/>
-      <c r="F85" s="102" t="s">
-        <v>208</v>
-      </c>
-      <c r="G85" s="103"/>
-      <c r="H85" s="103"/>
-      <c r="I85" s="103"/>
-      <c r="J85" s="103"/>
-      <c r="K85" s="103"/>
-      <c r="L85" s="103"/>
-      <c r="M85" s="103"/>
-      <c r="N85" s="103"/>
-      <c r="O85" s="104"/>
-      <c r="P85" s="104"/>
-      <c r="Q85" s="104"/>
+      <c r="E85" s="105"/>
+      <c r="F85" s="106" t="s">
+        <v>181</v>
+      </c>
+      <c r="G85" s="107"/>
+      <c r="H85" s="107"/>
+      <c r="I85" s="107"/>
+      <c r="J85" s="107"/>
+      <c r="K85" s="107"/>
+      <c r="L85" s="107"/>
+      <c r="M85" s="107"/>
+      <c r="N85" s="107"/>
+      <c r="O85" s="108"/>
+      <c r="P85" s="109" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q85" s="109"/>
       <c r="R85" s="41"/>
       <c r="S85" s="42"/>
-      <c r="AD85" s="52"/>
-      <c r="AE85" s="52"/>
+      <c r="AD85" s="51"/>
+      <c r="AE85" s="51"/>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="59"/>
@@ -18040,147 +18152,149 @@
       <c r="D86" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="E86" s="101" t="s">
-        <v>181</v>
-      </c>
-      <c r="F86" s="102"/>
-      <c r="G86" s="103"/>
-      <c r="H86" s="103"/>
-      <c r="I86" s="103"/>
-      <c r="J86" s="103"/>
-      <c r="K86" s="103"/>
-      <c r="L86" s="103"/>
-      <c r="M86" s="103"/>
-      <c r="N86" s="103"/>
-      <c r="O86" s="104"/>
-      <c r="P86" s="104"/>
-      <c r="Q86" s="104"/>
+      <c r="E86" s="105"/>
+      <c r="F86" s="106" t="s">
+        <v>209</v>
+      </c>
+      <c r="G86" s="107"/>
+      <c r="H86" s="107"/>
+      <c r="I86" s="107"/>
+      <c r="J86" s="107"/>
+      <c r="K86" s="107"/>
+      <c r="L86" s="107"/>
+      <c r="M86" s="107"/>
+      <c r="N86" s="107"/>
+      <c r="O86" s="108"/>
+      <c r="P86" s="109"/>
+      <c r="Q86" s="109"/>
       <c r="R86" s="41"/>
       <c r="S86" s="42"/>
-      <c r="AD86" s="52"/>
-      <c r="AE86" s="52"/>
+      <c r="AD86" s="51"/>
+      <c r="AE86" s="51"/>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="88"/>
-      <c r="B87" s="88"/>
-      <c r="C87" s="89" t="s">
+      <c r="A87" s="59"/>
+      <c r="B87" s="59"/>
+      <c r="C87" s="60" t="s">
         <v>148</v>
       </c>
-      <c r="D87" s="90" t="s">
+      <c r="D87" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="E87" s="91" t="s">
-        <v>175</v>
-      </c>
-      <c r="F87" s="92" t="s">
-        <v>213</v>
-      </c>
-      <c r="G87" s="92"/>
-      <c r="H87" s="92"/>
-      <c r="I87" s="92"/>
-      <c r="J87" s="92"/>
-      <c r="K87" s="92"/>
-      <c r="L87" s="92"/>
-      <c r="M87" s="92"/>
-      <c r="N87" s="92"/>
-      <c r="O87" s="92"/>
-      <c r="P87" s="93"/>
-      <c r="Q87" s="93"/>
+      <c r="E87" s="105"/>
+      <c r="F87" s="106" t="s">
+        <v>181</v>
+      </c>
+      <c r="G87" s="107"/>
+      <c r="H87" s="107"/>
+      <c r="I87" s="107"/>
+      <c r="J87" s="107"/>
+      <c r="K87" s="107"/>
+      <c r="L87" s="107"/>
+      <c r="M87" s="107"/>
+      <c r="N87" s="107"/>
+      <c r="O87" s="108"/>
+      <c r="P87" s="109"/>
+      <c r="Q87" s="109" t="s">
+        <v>182</v>
+      </c>
       <c r="R87" s="41"/>
       <c r="S87" s="42"/>
-      <c r="AD87" s="52"/>
-      <c r="AE87" s="52"/>
-    </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="59"/>
-      <c r="B88" s="59"/>
-      <c r="C88" s="60" t="s">
+      <c r="AD87" s="51"/>
+      <c r="AE87" s="51"/>
+    </row>
+    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="92"/>
+      <c r="B88" s="92"/>
+      <c r="C88" s="93" t="s">
         <v>148</v>
       </c>
-      <c r="D88" s="61" t="s">
+      <c r="D88" s="94" t="s">
         <v>149</v>
       </c>
-      <c r="E88" s="78"/>
-      <c r="F88" s="71" t="s">
+      <c r="E88" s="95" t="s">
+        <v>175</v>
+      </c>
+      <c r="F88" s="96" t="s">
         <v>214</v>
       </c>
-      <c r="G88" s="71"/>
-      <c r="H88" s="71"/>
-      <c r="I88" s="71"/>
-      <c r="J88" s="71"/>
-      <c r="K88" s="71"/>
-      <c r="L88" s="71"/>
-      <c r="M88" s="71"/>
-      <c r="N88" s="71"/>
-      <c r="O88" s="71"/>
-      <c r="P88" s="71"/>
-      <c r="Q88" s="71"/>
+      <c r="G88" s="96"/>
+      <c r="H88" s="96"/>
+      <c r="I88" s="96"/>
+      <c r="J88" s="96"/>
+      <c r="K88" s="96"/>
+      <c r="L88" s="96"/>
+      <c r="M88" s="96"/>
+      <c r="N88" s="96"/>
+      <c r="O88" s="96"/>
+      <c r="P88" s="97"/>
+      <c r="Q88" s="97"/>
       <c r="R88" s="41"/>
       <c r="S88" s="42"/>
-      <c r="AD88" s="52"/>
-      <c r="AE88" s="52"/>
-    </row>
-    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="94"/>
-      <c r="B89" s="94"/>
-      <c r="C89" s="95" t="s">
+      <c r="AD88" s="51"/>
+      <c r="AE88" s="51"/>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="59"/>
+      <c r="B89" s="59"/>
+      <c r="C89" s="60" t="s">
         <v>148</v>
       </c>
-      <c r="D89" s="96" t="s">
+      <c r="D89" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="E89" s="97" t="s">
-        <v>178</v>
-      </c>
-      <c r="F89" s="98" t="s">
+      <c r="E89" s="81"/>
+      <c r="F89" s="73" t="s">
         <v>215</v>
       </c>
-      <c r="G89" s="98"/>
-      <c r="H89" s="98"/>
-      <c r="I89" s="98"/>
-      <c r="J89" s="98"/>
-      <c r="K89" s="98"/>
-      <c r="L89" s="98"/>
-      <c r="M89" s="98"/>
-      <c r="N89" s="98"/>
-      <c r="O89" s="98"/>
-      <c r="P89" s="99"/>
-      <c r="Q89" s="99"/>
+      <c r="G89" s="73"/>
+      <c r="H89" s="73"/>
+      <c r="I89" s="73"/>
+      <c r="J89" s="73"/>
+      <c r="K89" s="73"/>
+      <c r="L89" s="73"/>
+      <c r="M89" s="73"/>
+      <c r="N89" s="73"/>
+      <c r="O89" s="73"/>
+      <c r="P89" s="64"/>
+      <c r="Q89" s="64"/>
       <c r="R89" s="41"/>
       <c r="S89" s="42"/>
-      <c r="AD89" s="52"/>
-      <c r="AE89" s="52"/>
-    </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="59"/>
-      <c r="B90" s="59"/>
-      <c r="C90" s="60" t="s">
+      <c r="AD89" s="51"/>
+      <c r="AE89" s="51"/>
+    </row>
+    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="98"/>
+      <c r="B90" s="98"/>
+      <c r="C90" s="99" t="s">
         <v>148</v>
       </c>
-      <c r="D90" s="61" t="s">
+      <c r="D90" s="100" t="s">
         <v>149</v>
       </c>
-      <c r="E90" s="78"/>
-      <c r="F90" s="71" t="s">
+      <c r="E90" s="101" t="s">
+        <v>178</v>
+      </c>
+      <c r="F90" s="102" t="s">
         <v>216</v>
       </c>
-      <c r="G90" s="71"/>
-      <c r="H90" s="71"/>
-      <c r="I90" s="71"/>
-      <c r="J90" s="71"/>
-      <c r="K90" s="71"/>
-      <c r="L90" s="71"/>
-      <c r="M90" s="71"/>
-      <c r="N90" s="71"/>
-      <c r="O90" s="71"/>
-      <c r="P90" s="71"/>
-      <c r="Q90" s="71"/>
+      <c r="G90" s="102"/>
+      <c r="H90" s="102"/>
+      <c r="I90" s="102"/>
+      <c r="J90" s="102"/>
+      <c r="K90" s="102"/>
+      <c r="L90" s="102"/>
+      <c r="M90" s="102"/>
+      <c r="N90" s="102"/>
+      <c r="O90" s="102"/>
+      <c r="P90" s="103"/>
+      <c r="Q90" s="103"/>
       <c r="R90" s="41"/>
       <c r="S90" s="42"/>
-      <c r="AD90" s="52"/>
-      <c r="AE90" s="52"/>
-    </row>
-    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD90" s="51"/>
+      <c r="AE90" s="51"/>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="59"/>
       <c r="B91" s="59"/>
       <c r="C91" s="60" t="s">
@@ -18189,25 +18303,25 @@
       <c r="D91" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="E91" s="101" t="s">
-        <v>181</v>
-      </c>
-      <c r="F91" s="102"/>
-      <c r="G91" s="103"/>
-      <c r="H91" s="103"/>
-      <c r="I91" s="103"/>
-      <c r="J91" s="103"/>
-      <c r="K91" s="103"/>
-      <c r="L91" s="103"/>
-      <c r="M91" s="103"/>
-      <c r="N91" s="103"/>
-      <c r="O91" s="104"/>
-      <c r="P91" s="104"/>
-      <c r="Q91" s="104"/>
+      <c r="E91" s="81"/>
+      <c r="F91" s="73" t="s">
+        <v>217</v>
+      </c>
+      <c r="G91" s="73"/>
+      <c r="H91" s="73"/>
+      <c r="I91" s="73"/>
+      <c r="J91" s="73"/>
+      <c r="K91" s="73"/>
+      <c r="L91" s="73"/>
+      <c r="M91" s="73"/>
+      <c r="N91" s="73"/>
+      <c r="O91" s="73"/>
+      <c r="P91" s="64"/>
+      <c r="Q91" s="64"/>
       <c r="R91" s="41"/>
       <c r="S91" s="42"/>
-      <c r="AD91" s="52"/>
-      <c r="AE91" s="52"/>
+      <c r="AD91" s="51"/>
+      <c r="AE91" s="51"/>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="59"/>
@@ -18218,25 +18332,27 @@
       <c r="D92" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="E92" s="101"/>
-      <c r="F92" s="102" t="s">
+      <c r="E92" s="105"/>
+      <c r="F92" s="106" t="s">
+        <v>181</v>
+      </c>
+      <c r="G92" s="107"/>
+      <c r="H92" s="107"/>
+      <c r="I92" s="107"/>
+      <c r="J92" s="107"/>
+      <c r="K92" s="107"/>
+      <c r="L92" s="107"/>
+      <c r="M92" s="107"/>
+      <c r="N92" s="107"/>
+      <c r="O92" s="108"/>
+      <c r="P92" s="109" t="s">
         <v>182</v>
       </c>
-      <c r="G92" s="103"/>
-      <c r="H92" s="103"/>
-      <c r="I92" s="103"/>
-      <c r="J92" s="103"/>
-      <c r="K92" s="103"/>
-      <c r="L92" s="103"/>
-      <c r="M92" s="103"/>
-      <c r="N92" s="103"/>
-      <c r="O92" s="104"/>
-      <c r="P92" s="104"/>
-      <c r="Q92" s="104"/>
+      <c r="Q92" s="109"/>
       <c r="R92" s="41"/>
       <c r="S92" s="42"/>
-      <c r="AD92" s="52"/>
-      <c r="AE92" s="52"/>
+      <c r="AD92" s="51"/>
+      <c r="AE92" s="51"/>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="59"/>
@@ -18247,25 +18363,25 @@
       <c r="D93" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="E93" s="101"/>
-      <c r="F93" s="102"/>
-      <c r="G93" s="103" t="s">
-        <v>217</v>
-      </c>
-      <c r="H93" s="103"/>
-      <c r="I93" s="103"/>
-      <c r="J93" s="103"/>
-      <c r="K93" s="103"/>
-      <c r="L93" s="103"/>
-      <c r="M93" s="103"/>
-      <c r="N93" s="103"/>
-      <c r="O93" s="104"/>
-      <c r="P93" s="104"/>
-      <c r="Q93" s="104"/>
+      <c r="E93" s="105"/>
+      <c r="F93" s="106" t="s">
+        <v>183</v>
+      </c>
+      <c r="G93" s="107"/>
+      <c r="H93" s="107"/>
+      <c r="I93" s="107"/>
+      <c r="J93" s="107"/>
+      <c r="K93" s="107"/>
+      <c r="L93" s="107"/>
+      <c r="M93" s="107"/>
+      <c r="N93" s="107"/>
+      <c r="O93" s="108"/>
+      <c r="P93" s="109"/>
+      <c r="Q93" s="109"/>
       <c r="R93" s="41"/>
       <c r="S93" s="42"/>
-      <c r="AD93" s="52"/>
-      <c r="AE93" s="52"/>
+      <c r="AD93" s="51"/>
+      <c r="AE93" s="51"/>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="59"/>
@@ -18276,25 +18392,25 @@
       <c r="D94" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="E94" s="101"/>
-      <c r="F94" s="102" t="s">
-        <v>186</v>
-      </c>
-      <c r="G94" s="103"/>
-      <c r="H94" s="103"/>
-      <c r="I94" s="103"/>
-      <c r="J94" s="103"/>
-      <c r="K94" s="103"/>
-      <c r="L94" s="103"/>
-      <c r="M94" s="103"/>
-      <c r="N94" s="103"/>
-      <c r="O94" s="104"/>
-      <c r="P94" s="104"/>
-      <c r="Q94" s="104"/>
+      <c r="E94" s="105"/>
+      <c r="F94" s="106"/>
+      <c r="G94" s="107" t="s">
+        <v>218</v>
+      </c>
+      <c r="H94" s="107"/>
+      <c r="I94" s="107"/>
+      <c r="J94" s="107"/>
+      <c r="K94" s="107"/>
+      <c r="L94" s="107"/>
+      <c r="M94" s="107"/>
+      <c r="N94" s="107"/>
+      <c r="O94" s="108"/>
+      <c r="P94" s="109"/>
+      <c r="Q94" s="109"/>
       <c r="R94" s="41"/>
       <c r="S94" s="42"/>
-      <c r="AD94" s="52"/>
-      <c r="AE94" s="52"/>
+      <c r="AD94" s="51"/>
+      <c r="AE94" s="51"/>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="59"/>
@@ -18305,116 +18421,118 @@
       <c r="D95" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="E95" s="101" t="s">
-        <v>181</v>
-      </c>
-      <c r="F95" s="102"/>
-      <c r="G95" s="103"/>
-      <c r="H95" s="103"/>
-      <c r="I95" s="103"/>
-      <c r="J95" s="103"/>
-      <c r="K95" s="103"/>
-      <c r="L95" s="103"/>
-      <c r="M95" s="103"/>
-      <c r="N95" s="103"/>
-      <c r="O95" s="104"/>
-      <c r="P95" s="104"/>
-      <c r="Q95" s="104"/>
+      <c r="E95" s="105"/>
+      <c r="F95" s="106" t="s">
+        <v>187</v>
+      </c>
+      <c r="G95" s="107"/>
+      <c r="H95" s="107"/>
+      <c r="I95" s="107"/>
+      <c r="J95" s="107"/>
+      <c r="K95" s="107"/>
+      <c r="L95" s="107"/>
+      <c r="M95" s="107"/>
+      <c r="N95" s="107"/>
+      <c r="O95" s="108"/>
+      <c r="P95" s="109"/>
+      <c r="Q95" s="109"/>
       <c r="R95" s="41"/>
       <c r="S95" s="42"/>
-      <c r="AD95" s="52"/>
-      <c r="AE95" s="52"/>
+      <c r="AD95" s="51"/>
+      <c r="AE95" s="51"/>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="72"/>
-      <c r="B96" s="72"/>
-      <c r="C96" s="73" t="s">
+      <c r="A96" s="59"/>
+      <c r="B96" s="59"/>
+      <c r="C96" s="60" t="s">
         <v>148</v>
       </c>
-      <c r="D96" s="74" t="s">
+      <c r="D96" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="E96" s="86" t="s">
-        <v>160</v>
-      </c>
-      <c r="F96" s="87" t="s">
-        <v>218</v>
-      </c>
-      <c r="G96" s="87"/>
-      <c r="H96" s="87"/>
-      <c r="I96" s="87"/>
-      <c r="J96" s="87"/>
-      <c r="K96" s="87"/>
-      <c r="L96" s="87"/>
-      <c r="M96" s="87"/>
-      <c r="N96" s="87"/>
-      <c r="O96" s="87"/>
-      <c r="P96" s="87"/>
-      <c r="Q96" s="87"/>
+      <c r="E96" s="105"/>
+      <c r="F96" s="106" t="s">
+        <v>181</v>
+      </c>
+      <c r="G96" s="106"/>
+      <c r="H96" s="107"/>
+      <c r="I96" s="107"/>
+      <c r="J96" s="107"/>
+      <c r="K96" s="107"/>
+      <c r="L96" s="107"/>
+      <c r="M96" s="107"/>
+      <c r="N96" s="107"/>
+      <c r="O96" s="108"/>
+      <c r="P96" s="109"/>
+      <c r="Q96" s="109" t="s">
+        <v>182</v>
+      </c>
       <c r="R96" s="41"/>
       <c r="S96" s="42"/>
-      <c r="AD96" s="52"/>
-      <c r="AE96" s="52"/>
+      <c r="AD96" s="51"/>
+      <c r="AE96" s="51"/>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="88"/>
-      <c r="B97" s="88"/>
-      <c r="C97" s="89" t="s">
+      <c r="A97" s="74"/>
+      <c r="B97" s="74"/>
+      <c r="C97" s="75" t="s">
         <v>148</v>
       </c>
-      <c r="D97" s="90" t="s">
+      <c r="D97" s="76" t="s">
         <v>149</v>
       </c>
-      <c r="E97" s="91" t="s">
-        <v>175</v>
-      </c>
-      <c r="F97" s="92" t="s">
+      <c r="E97" s="89" t="s">
+        <v>160</v>
+      </c>
+      <c r="F97" s="90" t="s">
         <v>219</v>
       </c>
-      <c r="G97" s="92"/>
-      <c r="H97" s="92"/>
-      <c r="I97" s="92"/>
-      <c r="J97" s="92"/>
-      <c r="K97" s="92"/>
-      <c r="L97" s="92"/>
-      <c r="M97" s="92"/>
-      <c r="N97" s="92"/>
-      <c r="O97" s="92"/>
-      <c r="P97" s="93"/>
-      <c r="Q97" s="93"/>
+      <c r="G97" s="90"/>
+      <c r="H97" s="90"/>
+      <c r="I97" s="90"/>
+      <c r="J97" s="90"/>
+      <c r="K97" s="90"/>
+      <c r="L97" s="90"/>
+      <c r="M97" s="90"/>
+      <c r="N97" s="90"/>
+      <c r="O97" s="90"/>
+      <c r="P97" s="97"/>
+      <c r="Q97" s="97"/>
       <c r="R97" s="41"/>
       <c r="S97" s="42"/>
-      <c r="AD97" s="52"/>
-      <c r="AE97" s="52"/>
+      <c r="AD97" s="51"/>
+      <c r="AE97" s="51"/>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="59"/>
-      <c r="B98" s="59"/>
-      <c r="C98" s="60" t="s">
+      <c r="A98" s="92"/>
+      <c r="B98" s="92"/>
+      <c r="C98" s="93" t="s">
         <v>148</v>
       </c>
-      <c r="D98" s="61" t="s">
+      <c r="D98" s="94" t="s">
         <v>149</v>
       </c>
-      <c r="E98" s="101" t="s">
-        <v>181</v>
-      </c>
-      <c r="F98" s="102"/>
-      <c r="G98" s="103"/>
-      <c r="H98" s="103"/>
-      <c r="I98" s="103"/>
-      <c r="J98" s="103"/>
-      <c r="K98" s="103"/>
-      <c r="L98" s="103"/>
-      <c r="M98" s="103"/>
-      <c r="N98" s="103"/>
-      <c r="O98" s="104"/>
-      <c r="P98" s="104"/>
-      <c r="Q98" s="104"/>
+      <c r="E98" s="95" t="s">
+        <v>175</v>
+      </c>
+      <c r="F98" s="96" t="s">
+        <v>220</v>
+      </c>
+      <c r="G98" s="96"/>
+      <c r="H98" s="96"/>
+      <c r="I98" s="96"/>
+      <c r="J98" s="96"/>
+      <c r="K98" s="96"/>
+      <c r="L98" s="96"/>
+      <c r="M98" s="96"/>
+      <c r="N98" s="96"/>
+      <c r="O98" s="96"/>
+      <c r="P98" s="97"/>
+      <c r="Q98" s="97"/>
       <c r="R98" s="41"/>
       <c r="S98" s="42"/>
-      <c r="AD98" s="52"/>
-      <c r="AE98" s="52"/>
+      <c r="AD98" s="51"/>
+      <c r="AE98" s="51"/>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="59"/>
@@ -18425,25 +18543,27 @@
       <c r="D99" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="E99" s="101"/>
-      <c r="F99" s="102" t="s">
-        <v>220</v>
-      </c>
-      <c r="G99" s="103"/>
-      <c r="H99" s="103"/>
-      <c r="I99" s="103"/>
-      <c r="J99" s="103"/>
-      <c r="K99" s="103"/>
-      <c r="L99" s="103"/>
-      <c r="M99" s="103"/>
-      <c r="N99" s="103"/>
-      <c r="O99" s="104"/>
-      <c r="P99" s="104"/>
-      <c r="Q99" s="104"/>
+      <c r="E99" s="105"/>
+      <c r="F99" s="106" t="s">
+        <v>181</v>
+      </c>
+      <c r="G99" s="107"/>
+      <c r="H99" s="107"/>
+      <c r="I99" s="107"/>
+      <c r="J99" s="107"/>
+      <c r="K99" s="107"/>
+      <c r="L99" s="107"/>
+      <c r="M99" s="107"/>
+      <c r="N99" s="107"/>
+      <c r="O99" s="108"/>
+      <c r="P99" s="109" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q99" s="109"/>
       <c r="R99" s="41"/>
       <c r="S99" s="42"/>
-      <c r="AD99" s="52"/>
-      <c r="AE99" s="52"/>
+      <c r="AD99" s="51"/>
+      <c r="AE99" s="51"/>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="59"/>
@@ -18454,25 +18574,25 @@
       <c r="D100" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="E100" s="101"/>
-      <c r="F100" s="102"/>
-      <c r="G100" s="103" t="s">
+      <c r="E100" s="105"/>
+      <c r="F100" s="106" t="s">
         <v>221</v>
       </c>
-      <c r="H100" s="103"/>
-      <c r="I100" s="103"/>
-      <c r="J100" s="103"/>
-      <c r="K100" s="103"/>
-      <c r="L100" s="103"/>
-      <c r="M100" s="103"/>
-      <c r="N100" s="103"/>
-      <c r="O100" s="104"/>
-      <c r="P100" s="104"/>
-      <c r="Q100" s="104"/>
+      <c r="G100" s="107"/>
+      <c r="H100" s="107"/>
+      <c r="I100" s="107"/>
+      <c r="J100" s="107"/>
+      <c r="K100" s="107"/>
+      <c r="L100" s="107"/>
+      <c r="M100" s="107"/>
+      <c r="N100" s="107"/>
+      <c r="O100" s="108"/>
+      <c r="P100" s="109"/>
+      <c r="Q100" s="109"/>
       <c r="R100" s="41"/>
       <c r="S100" s="42"/>
-      <c r="AD100" s="52"/>
-      <c r="AE100" s="52"/>
+      <c r="AD100" s="51"/>
+      <c r="AE100" s="51"/>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="59"/>
@@ -18483,25 +18603,25 @@
       <c r="D101" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="E101" s="101"/>
-      <c r="F101" s="102"/>
-      <c r="G101" s="103" t="s">
+      <c r="E101" s="105"/>
+      <c r="F101" s="106"/>
+      <c r="G101" s="107" t="s">
         <v>222</v>
       </c>
-      <c r="H101" s="103"/>
-      <c r="I101" s="103"/>
-      <c r="J101" s="103"/>
-      <c r="K101" s="103"/>
-      <c r="L101" s="103"/>
-      <c r="M101" s="103"/>
-      <c r="N101" s="103"/>
-      <c r="O101" s="104"/>
-      <c r="P101" s="104"/>
-      <c r="Q101" s="104"/>
+      <c r="H101" s="107"/>
+      <c r="I101" s="107"/>
+      <c r="J101" s="107"/>
+      <c r="K101" s="107"/>
+      <c r="L101" s="107"/>
+      <c r="M101" s="107"/>
+      <c r="N101" s="107"/>
+      <c r="O101" s="108"/>
+      <c r="P101" s="109"/>
+      <c r="Q101" s="109"/>
       <c r="R101" s="41"/>
       <c r="S101" s="42"/>
-      <c r="AD101" s="52"/>
-      <c r="AE101" s="52"/>
+      <c r="AD101" s="51"/>
+      <c r="AE101" s="51"/>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="59"/>
@@ -18512,25 +18632,25 @@
       <c r="D102" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="E102" s="101"/>
-      <c r="F102" s="102"/>
-      <c r="G102" s="103" t="s">
+      <c r="E102" s="105"/>
+      <c r="F102" s="106"/>
+      <c r="G102" s="107" t="s">
         <v>223</v>
       </c>
-      <c r="H102" s="103"/>
-      <c r="I102" s="103"/>
-      <c r="J102" s="103"/>
-      <c r="K102" s="103"/>
-      <c r="L102" s="103"/>
-      <c r="M102" s="103"/>
-      <c r="N102" s="103"/>
-      <c r="O102" s="104"/>
-      <c r="P102" s="104"/>
-      <c r="Q102" s="104"/>
+      <c r="H102" s="107"/>
+      <c r="I102" s="107"/>
+      <c r="J102" s="107"/>
+      <c r="K102" s="107"/>
+      <c r="L102" s="107"/>
+      <c r="M102" s="107"/>
+      <c r="N102" s="107"/>
+      <c r="O102" s="108"/>
+      <c r="P102" s="109"/>
+      <c r="Q102" s="109"/>
       <c r="R102" s="41"/>
       <c r="S102" s="42"/>
-      <c r="AD102" s="52"/>
-      <c r="AE102" s="52"/>
+      <c r="AD102" s="51"/>
+      <c r="AE102" s="51"/>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="59"/>
@@ -18541,25 +18661,25 @@
       <c r="D103" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="E103" s="101"/>
-      <c r="F103" s="102"/>
-      <c r="G103" s="103" t="s">
+      <c r="E103" s="105"/>
+      <c r="F103" s="106"/>
+      <c r="G103" s="107" t="s">
         <v>224</v>
       </c>
-      <c r="H103" s="103"/>
-      <c r="I103" s="103"/>
-      <c r="J103" s="103"/>
-      <c r="K103" s="103"/>
-      <c r="L103" s="103"/>
-      <c r="M103" s="103"/>
-      <c r="N103" s="103"/>
-      <c r="O103" s="104"/>
-      <c r="P103" s="104"/>
-      <c r="Q103" s="104"/>
+      <c r="H103" s="107"/>
+      <c r="I103" s="107"/>
+      <c r="J103" s="107"/>
+      <c r="K103" s="107"/>
+      <c r="L103" s="107"/>
+      <c r="M103" s="107"/>
+      <c r="N103" s="107"/>
+      <c r="O103" s="108"/>
+      <c r="P103" s="109"/>
+      <c r="Q103" s="109"/>
       <c r="R103" s="41"/>
       <c r="S103" s="42"/>
-      <c r="AD103" s="52"/>
-      <c r="AE103" s="52"/>
+      <c r="AD103" s="51"/>
+      <c r="AE103" s="51"/>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="59"/>
@@ -18570,25 +18690,25 @@
       <c r="D104" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="E104" s="101"/>
-      <c r="F104" s="102"/>
-      <c r="G104" s="103"/>
-      <c r="H104" s="103" t="s">
+      <c r="E104" s="105"/>
+      <c r="F104" s="106"/>
+      <c r="G104" s="107" t="s">
         <v>225</v>
       </c>
-      <c r="I104" s="103"/>
-      <c r="J104" s="103"/>
-      <c r="K104" s="103"/>
-      <c r="L104" s="103"/>
-      <c r="M104" s="103"/>
-      <c r="N104" s="103"/>
-      <c r="O104" s="104"/>
-      <c r="P104" s="104"/>
-      <c r="Q104" s="104"/>
+      <c r="H104" s="107"/>
+      <c r="I104" s="107"/>
+      <c r="J104" s="107"/>
+      <c r="K104" s="107"/>
+      <c r="L104" s="107"/>
+      <c r="M104" s="107"/>
+      <c r="N104" s="107"/>
+      <c r="O104" s="108"/>
+      <c r="P104" s="109"/>
+      <c r="Q104" s="109"/>
       <c r="R104" s="41"/>
       <c r="S104" s="42"/>
-      <c r="AD104" s="52"/>
-      <c r="AE104" s="52"/>
+      <c r="AD104" s="51"/>
+      <c r="AE104" s="51"/>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="59"/>
@@ -18599,25 +18719,25 @@
       <c r="D105" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="E105" s="101"/>
-      <c r="F105" s="102"/>
-      <c r="G105" s="103"/>
-      <c r="H105" s="103" t="s">
+      <c r="E105" s="105"/>
+      <c r="F105" s="106"/>
+      <c r="G105" s="107"/>
+      <c r="H105" s="107" t="s">
         <v>226</v>
       </c>
-      <c r="I105" s="103"/>
-      <c r="J105" s="103"/>
-      <c r="K105" s="103"/>
-      <c r="L105" s="103"/>
-      <c r="M105" s="103"/>
-      <c r="N105" s="103"/>
-      <c r="O105" s="104"/>
-      <c r="P105" s="104"/>
-      <c r="Q105" s="104"/>
+      <c r="I105" s="107"/>
+      <c r="J105" s="107"/>
+      <c r="K105" s="107"/>
+      <c r="L105" s="107"/>
+      <c r="M105" s="107"/>
+      <c r="N105" s="107"/>
+      <c r="O105" s="108"/>
+      <c r="P105" s="109"/>
+      <c r="Q105" s="109"/>
       <c r="R105" s="41"/>
       <c r="S105" s="42"/>
-      <c r="AD105" s="52"/>
-      <c r="AE105" s="52"/>
+      <c r="AD105" s="51"/>
+      <c r="AE105" s="51"/>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="59"/>
@@ -18628,25 +18748,25 @@
       <c r="D106" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="E106" s="101"/>
-      <c r="F106" s="102"/>
-      <c r="G106" s="103"/>
-      <c r="H106" s="103" t="s">
+      <c r="E106" s="105"/>
+      <c r="F106" s="106"/>
+      <c r="G106" s="107"/>
+      <c r="H106" s="107" t="s">
         <v>227</v>
       </c>
-      <c r="I106" s="103"/>
-      <c r="J106" s="103"/>
-      <c r="K106" s="103"/>
-      <c r="L106" s="103"/>
-      <c r="M106" s="103"/>
-      <c r="N106" s="103"/>
-      <c r="O106" s="104"/>
-      <c r="P106" s="104"/>
-      <c r="Q106" s="104"/>
+      <c r="I106" s="107"/>
+      <c r="J106" s="107"/>
+      <c r="K106" s="107"/>
+      <c r="L106" s="107"/>
+      <c r="M106" s="107"/>
+      <c r="N106" s="107"/>
+      <c r="O106" s="108"/>
+      <c r="P106" s="109"/>
+      <c r="Q106" s="109"/>
       <c r="R106" s="41"/>
       <c r="S106" s="42"/>
-      <c r="AD106" s="52"/>
-      <c r="AE106" s="52"/>
+      <c r="AD106" s="51"/>
+      <c r="AE106" s="51"/>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="59"/>
@@ -18657,25 +18777,25 @@
       <c r="D107" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="E107" s="101"/>
-      <c r="F107" s="102"/>
-      <c r="G107" s="103"/>
-      <c r="H107" s="103" t="s">
+      <c r="E107" s="105"/>
+      <c r="F107" s="106"/>
+      <c r="G107" s="107"/>
+      <c r="H107" s="107" t="s">
         <v>228</v>
       </c>
-      <c r="I107" s="103"/>
-      <c r="J107" s="103"/>
-      <c r="K107" s="103"/>
-      <c r="L107" s="103"/>
-      <c r="M107" s="103"/>
-      <c r="N107" s="103"/>
-      <c r="O107" s="104"/>
-      <c r="P107" s="104"/>
-      <c r="Q107" s="104"/>
+      <c r="I107" s="107"/>
+      <c r="J107" s="107"/>
+      <c r="K107" s="107"/>
+      <c r="L107" s="107"/>
+      <c r="M107" s="107"/>
+      <c r="N107" s="107"/>
+      <c r="O107" s="108"/>
+      <c r="P107" s="109"/>
+      <c r="Q107" s="109"/>
       <c r="R107" s="41"/>
       <c r="S107" s="42"/>
-      <c r="AD107" s="52"/>
-      <c r="AE107" s="52"/>
+      <c r="AD107" s="51"/>
+      <c r="AE107" s="51"/>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="59"/>
@@ -18686,25 +18806,25 @@
       <c r="D108" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="E108" s="101"/>
-      <c r="F108" s="102"/>
-      <c r="G108" s="103"/>
-      <c r="H108" s="103"/>
-      <c r="I108" s="103" t="s">
+      <c r="E108" s="105"/>
+      <c r="F108" s="106"/>
+      <c r="G108" s="107"/>
+      <c r="H108" s="107" t="s">
         <v>229</v>
       </c>
-      <c r="J108" s="103"/>
-      <c r="K108" s="103"/>
-      <c r="L108" s="103"/>
-      <c r="M108" s="103"/>
-      <c r="N108" s="103"/>
-      <c r="O108" s="104"/>
-      <c r="P108" s="104"/>
-      <c r="Q108" s="104"/>
+      <c r="I108" s="107"/>
+      <c r="J108" s="107"/>
+      <c r="K108" s="107"/>
+      <c r="L108" s="107"/>
+      <c r="M108" s="107"/>
+      <c r="N108" s="107"/>
+      <c r="O108" s="108"/>
+      <c r="P108" s="109"/>
+      <c r="Q108" s="109"/>
       <c r="R108" s="41"/>
       <c r="S108" s="42"/>
-      <c r="AD108" s="52"/>
-      <c r="AE108" s="52"/>
+      <c r="AD108" s="51"/>
+      <c r="AE108" s="51"/>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="59"/>
@@ -18715,25 +18835,25 @@
       <c r="D109" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="E109" s="101"/>
-      <c r="F109" s="102"/>
-      <c r="G109" s="103"/>
-      <c r="H109" s="103"/>
-      <c r="I109" s="103" t="s">
+      <c r="E109" s="105"/>
+      <c r="F109" s="106"/>
+      <c r="G109" s="107"/>
+      <c r="H109" s="107"/>
+      <c r="I109" s="107" t="s">
         <v>230</v>
       </c>
-      <c r="J109" s="103"/>
-      <c r="K109" s="103"/>
-      <c r="L109" s="103"/>
-      <c r="M109" s="103"/>
-      <c r="N109" s="103"/>
-      <c r="O109" s="104"/>
-      <c r="P109" s="104"/>
-      <c r="Q109" s="104"/>
+      <c r="J109" s="107"/>
+      <c r="K109" s="107"/>
+      <c r="L109" s="107"/>
+      <c r="M109" s="107"/>
+      <c r="N109" s="107"/>
+      <c r="O109" s="108"/>
+      <c r="P109" s="109"/>
+      <c r="Q109" s="109"/>
       <c r="R109" s="41"/>
       <c r="S109" s="42"/>
-      <c r="AD109" s="52"/>
-      <c r="AE109" s="52"/>
+      <c r="AD109" s="51"/>
+      <c r="AE109" s="51"/>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="59"/>
@@ -18744,25 +18864,25 @@
       <c r="D110" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="E110" s="101"/>
-      <c r="F110" s="102"/>
-      <c r="G110" s="103"/>
-      <c r="H110" s="103"/>
-      <c r="I110" s="103" t="s">
+      <c r="E110" s="105"/>
+      <c r="F110" s="106"/>
+      <c r="G110" s="107"/>
+      <c r="H110" s="107"/>
+      <c r="I110" s="107" t="s">
         <v>231</v>
       </c>
-      <c r="J110" s="103"/>
-      <c r="K110" s="103"/>
-      <c r="L110" s="103"/>
-      <c r="M110" s="103"/>
-      <c r="N110" s="103"/>
-      <c r="O110" s="104"/>
-      <c r="P110" s="104"/>
-      <c r="Q110" s="104"/>
+      <c r="J110" s="107"/>
+      <c r="K110" s="107"/>
+      <c r="L110" s="107"/>
+      <c r="M110" s="107"/>
+      <c r="N110" s="107"/>
+      <c r="O110" s="108"/>
+      <c r="P110" s="109"/>
+      <c r="Q110" s="109"/>
       <c r="R110" s="41"/>
       <c r="S110" s="42"/>
-      <c r="AD110" s="52"/>
-      <c r="AE110" s="52"/>
+      <c r="AD110" s="51"/>
+      <c r="AE110" s="51"/>
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="59"/>
@@ -18773,25 +18893,25 @@
       <c r="D111" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="E111" s="101"/>
-      <c r="F111" s="102"/>
-      <c r="G111" s="103"/>
-      <c r="H111" s="103" t="s">
-        <v>186</v>
-      </c>
-      <c r="I111" s="103"/>
-      <c r="J111" s="103"/>
-      <c r="K111" s="103"/>
-      <c r="L111" s="103"/>
-      <c r="M111" s="103"/>
-      <c r="N111" s="103"/>
-      <c r="O111" s="104"/>
-      <c r="P111" s="104"/>
-      <c r="Q111" s="104"/>
+      <c r="E111" s="105"/>
+      <c r="F111" s="106"/>
+      <c r="G111" s="107"/>
+      <c r="H111" s="107"/>
+      <c r="I111" s="107" t="s">
+        <v>232</v>
+      </c>
+      <c r="J111" s="107"/>
+      <c r="K111" s="107"/>
+      <c r="L111" s="107"/>
+      <c r="M111" s="107"/>
+      <c r="N111" s="107"/>
+      <c r="O111" s="108"/>
+      <c r="P111" s="109"/>
+      <c r="Q111" s="109"/>
       <c r="R111" s="41"/>
       <c r="S111" s="42"/>
-      <c r="AD111" s="52"/>
-      <c r="AE111" s="52"/>
+      <c r="AD111" s="51"/>
+      <c r="AE111" s="51"/>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="59"/>
@@ -18802,25 +18922,25 @@
       <c r="D112" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="E112" s="101"/>
-      <c r="F112" s="102"/>
-      <c r="G112" s="103" t="s">
-        <v>186</v>
-      </c>
-      <c r="H112" s="103"/>
-      <c r="I112" s="103"/>
-      <c r="J112" s="103"/>
-      <c r="K112" s="103"/>
-      <c r="L112" s="103"/>
-      <c r="M112" s="103"/>
-      <c r="N112" s="103"/>
-      <c r="O112" s="104"/>
-      <c r="P112" s="104"/>
-      <c r="Q112" s="104"/>
+      <c r="E112" s="105"/>
+      <c r="F112" s="106"/>
+      <c r="G112" s="107"/>
+      <c r="H112" s="107" t="s">
+        <v>187</v>
+      </c>
+      <c r="I112" s="107"/>
+      <c r="J112" s="107"/>
+      <c r="K112" s="107"/>
+      <c r="L112" s="107"/>
+      <c r="M112" s="107"/>
+      <c r="N112" s="107"/>
+      <c r="O112" s="108"/>
+      <c r="P112" s="109"/>
+      <c r="Q112" s="109"/>
       <c r="R112" s="41"/>
       <c r="S112" s="42"/>
-      <c r="AD112" s="52"/>
-      <c r="AE112" s="52"/>
+      <c r="AD112" s="51"/>
+      <c r="AE112" s="51"/>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="59"/>
@@ -18831,25 +18951,25 @@
       <c r="D113" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="E113" s="101"/>
-      <c r="F113" s="102" t="s">
-        <v>232</v>
-      </c>
-      <c r="G113" s="103"/>
-      <c r="H113" s="103"/>
-      <c r="I113" s="103"/>
-      <c r="J113" s="103"/>
-      <c r="K113" s="103"/>
-      <c r="L113" s="103"/>
-      <c r="M113" s="103"/>
-      <c r="N113" s="103"/>
-      <c r="O113" s="104"/>
-      <c r="P113" s="104"/>
-      <c r="Q113" s="104"/>
+      <c r="E113" s="105"/>
+      <c r="F113" s="106"/>
+      <c r="G113" s="107" t="s">
+        <v>187</v>
+      </c>
+      <c r="H113" s="107"/>
+      <c r="I113" s="107"/>
+      <c r="J113" s="107"/>
+      <c r="K113" s="107"/>
+      <c r="L113" s="107"/>
+      <c r="M113" s="107"/>
+      <c r="N113" s="107"/>
+      <c r="O113" s="108"/>
+      <c r="P113" s="109"/>
+      <c r="Q113" s="109"/>
       <c r="R113" s="41"/>
       <c r="S113" s="42"/>
-      <c r="AD113" s="52"/>
-      <c r="AE113" s="52"/>
+      <c r="AD113" s="51"/>
+      <c r="AE113" s="51"/>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="59"/>
@@ -18860,85 +18980,87 @@
       <c r="D114" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="E114" s="101" t="s">
-        <v>181</v>
-      </c>
-      <c r="F114" s="102"/>
-      <c r="G114" s="103"/>
-      <c r="H114" s="103"/>
-      <c r="I114" s="103"/>
-      <c r="J114" s="103"/>
-      <c r="K114" s="103"/>
-      <c r="L114" s="103"/>
-      <c r="M114" s="103"/>
-      <c r="N114" s="103"/>
-      <c r="O114" s="104"/>
-      <c r="P114" s="104"/>
-      <c r="Q114" s="104"/>
+      <c r="E114" s="105"/>
+      <c r="F114" s="106" t="s">
+        <v>233</v>
+      </c>
+      <c r="G114" s="107"/>
+      <c r="H114" s="107"/>
+      <c r="I114" s="107"/>
+      <c r="J114" s="107"/>
+      <c r="K114" s="107"/>
+      <c r="L114" s="107"/>
+      <c r="M114" s="107"/>
+      <c r="N114" s="107"/>
+      <c r="O114" s="108"/>
+      <c r="P114" s="109"/>
+      <c r="Q114" s="109"/>
       <c r="R114" s="41"/>
       <c r="S114" s="42"/>
-      <c r="AD114" s="52"/>
-      <c r="AE114" s="52"/>
+      <c r="AD114" s="51"/>
+      <c r="AE114" s="51"/>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="94"/>
-      <c r="B115" s="94"/>
-      <c r="C115" s="95" t="s">
+      <c r="A115" s="59"/>
+      <c r="B115" s="59"/>
+      <c r="C115" s="60" t="s">
         <v>148</v>
       </c>
-      <c r="D115" s="96" t="s">
+      <c r="D115" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="E115" s="97" t="s">
-        <v>178</v>
-      </c>
-      <c r="F115" s="98" t="s">
-        <v>233</v>
-      </c>
-      <c r="G115" s="98"/>
-      <c r="H115" s="98"/>
-      <c r="I115" s="98"/>
-      <c r="J115" s="98"/>
-      <c r="K115" s="98"/>
-      <c r="L115" s="98"/>
-      <c r="M115" s="98"/>
-      <c r="N115" s="98"/>
-      <c r="O115" s="98"/>
-      <c r="P115" s="99"/>
-      <c r="Q115" s="99"/>
+      <c r="E115" s="105"/>
+      <c r="F115" s="106" t="s">
+        <v>181</v>
+      </c>
+      <c r="G115" s="107"/>
+      <c r="H115" s="107"/>
+      <c r="I115" s="107"/>
+      <c r="J115" s="107"/>
+      <c r="K115" s="107"/>
+      <c r="L115" s="107"/>
+      <c r="M115" s="107"/>
+      <c r="N115" s="107"/>
+      <c r="O115" s="108"/>
+      <c r="P115" s="109"/>
+      <c r="Q115" s="109" t="s">
+        <v>182</v>
+      </c>
       <c r="R115" s="41"/>
       <c r="S115" s="42"/>
-      <c r="AD115" s="52"/>
-      <c r="AE115" s="52"/>
+      <c r="AD115" s="51"/>
+      <c r="AE115" s="51"/>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="59"/>
-      <c r="B116" s="59"/>
-      <c r="C116" s="60" t="s">
+      <c r="A116" s="98"/>
+      <c r="B116" s="98"/>
+      <c r="C116" s="99" t="s">
         <v>148</v>
       </c>
-      <c r="D116" s="61" t="s">
+      <c r="D116" s="100" t="s">
         <v>149</v>
       </c>
       <c r="E116" s="101" t="s">
-        <v>181</v>
-      </c>
-      <c r="F116" s="102"/>
-      <c r="G116" s="103"/>
-      <c r="H116" s="103"/>
-      <c r="I116" s="103"/>
-      <c r="J116" s="103"/>
-      <c r="K116" s="103"/>
-      <c r="L116" s="103"/>
-      <c r="M116" s="103"/>
-      <c r="N116" s="103"/>
-      <c r="O116" s="104"/>
-      <c r="P116" s="104"/>
-      <c r="Q116" s="104"/>
+        <v>178</v>
+      </c>
+      <c r="F116" s="102" t="s">
+        <v>234</v>
+      </c>
+      <c r="G116" s="102"/>
+      <c r="H116" s="102"/>
+      <c r="I116" s="102"/>
+      <c r="J116" s="102"/>
+      <c r="K116" s="102"/>
+      <c r="L116" s="102"/>
+      <c r="M116" s="102"/>
+      <c r="N116" s="102"/>
+      <c r="O116" s="102"/>
+      <c r="P116" s="103"/>
+      <c r="Q116" s="103"/>
       <c r="R116" s="41"/>
       <c r="S116" s="42"/>
-      <c r="AD116" s="52"/>
-      <c r="AE116" s="52"/>
+      <c r="AD116" s="51"/>
+      <c r="AE116" s="51"/>
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="59"/>
@@ -18949,25 +19071,27 @@
       <c r="D117" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="E117" s="101"/>
-      <c r="F117" s="102" t="s">
-        <v>234</v>
-      </c>
-      <c r="G117" s="103"/>
-      <c r="H117" s="103"/>
-      <c r="I117" s="103"/>
-      <c r="J117" s="103"/>
-      <c r="K117" s="103"/>
-      <c r="L117" s="103"/>
-      <c r="M117" s="103"/>
-      <c r="N117" s="103"/>
-      <c r="O117" s="104"/>
-      <c r="P117" s="104"/>
-      <c r="Q117" s="104"/>
+      <c r="E117" s="105"/>
+      <c r="F117" s="106" t="s">
+        <v>181</v>
+      </c>
+      <c r="G117" s="107"/>
+      <c r="H117" s="107"/>
+      <c r="I117" s="107"/>
+      <c r="J117" s="107"/>
+      <c r="K117" s="107"/>
+      <c r="L117" s="107"/>
+      <c r="M117" s="107"/>
+      <c r="N117" s="107"/>
+      <c r="O117" s="108"/>
+      <c r="P117" s="109" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q117" s="109"/>
       <c r="R117" s="41"/>
       <c r="S117" s="42"/>
-      <c r="AD117" s="52"/>
-      <c r="AE117" s="52"/>
+      <c r="AD117" s="51"/>
+      <c r="AE117" s="51"/>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="59"/>
@@ -18978,23 +19102,25 @@
       <c r="D118" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="E118" s="101"/>
-      <c r="F118" s="102"/>
-      <c r="G118" s="103"/>
-      <c r="H118" s="103"/>
-      <c r="I118" s="103"/>
-      <c r="J118" s="103"/>
-      <c r="K118" s="103"/>
-      <c r="L118" s="103"/>
-      <c r="M118" s="103"/>
-      <c r="N118" s="103"/>
-      <c r="O118" s="104"/>
-      <c r="P118" s="104"/>
-      <c r="Q118" s="104"/>
+      <c r="E118" s="105"/>
+      <c r="F118" s="106" t="s">
+        <v>235</v>
+      </c>
+      <c r="G118" s="107"/>
+      <c r="H118" s="107"/>
+      <c r="I118" s="107"/>
+      <c r="J118" s="107"/>
+      <c r="K118" s="107"/>
+      <c r="L118" s="107"/>
+      <c r="M118" s="107"/>
+      <c r="N118" s="107"/>
+      <c r="O118" s="108"/>
+      <c r="P118" s="109"/>
+      <c r="Q118" s="109"/>
       <c r="R118" s="41"/>
       <c r="S118" s="42"/>
-      <c r="AD118" s="52"/>
-      <c r="AE118" s="52"/>
+      <c r="AD118" s="51"/>
+      <c r="AE118" s="51"/>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="59"/>
@@ -19005,25 +19131,25 @@
       <c r="D119" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="E119" s="101"/>
-      <c r="F119" s="102" t="s">
-        <v>232</v>
-      </c>
-      <c r="G119" s="103"/>
-      <c r="H119" s="103"/>
-      <c r="I119" s="103"/>
-      <c r="J119" s="103"/>
-      <c r="K119" s="103"/>
-      <c r="L119" s="103"/>
-      <c r="M119" s="103"/>
-      <c r="N119" s="103"/>
-      <c r="O119" s="104"/>
-      <c r="P119" s="104"/>
-      <c r="Q119" s="104"/>
+      <c r="E119" s="105"/>
+      <c r="F119" s="107" t="s">
+        <v>236</v>
+      </c>
+      <c r="G119" s="107"/>
+      <c r="H119" s="107"/>
+      <c r="I119" s="107"/>
+      <c r="J119" s="107"/>
+      <c r="K119" s="107"/>
+      <c r="L119" s="107"/>
+      <c r="M119" s="107"/>
+      <c r="N119" s="107"/>
+      <c r="O119" s="108"/>
+      <c r="P119" s="109"/>
+      <c r="Q119" s="109"/>
       <c r="R119" s="41"/>
       <c r="S119" s="42"/>
-      <c r="AD119" s="52"/>
-      <c r="AE119" s="52"/>
+      <c r="AD119" s="51"/>
+      <c r="AE119" s="51"/>
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="59"/>
@@ -19034,58 +19160,56 @@
       <c r="D120" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="E120" s="101" t="s">
-        <v>181</v>
-      </c>
-      <c r="F120" s="102"/>
-      <c r="G120" s="103"/>
-      <c r="H120" s="103"/>
-      <c r="I120" s="103"/>
-      <c r="J120" s="103"/>
-      <c r="K120" s="103"/>
-      <c r="L120" s="103"/>
-      <c r="M120" s="103"/>
-      <c r="N120" s="103"/>
-      <c r="O120" s="104"/>
-      <c r="P120" s="104"/>
-      <c r="Q120" s="104"/>
+      <c r="E120" s="105"/>
+      <c r="F120" s="107" t="s">
+        <v>237</v>
+      </c>
+      <c r="G120" s="107"/>
+      <c r="H120" s="107"/>
+      <c r="I120" s="107"/>
+      <c r="J120" s="107"/>
+      <c r="K120" s="107"/>
+      <c r="L120" s="107"/>
+      <c r="M120" s="107"/>
+      <c r="N120" s="107"/>
+      <c r="O120" s="108"/>
+      <c r="P120" s="109"/>
+      <c r="Q120" s="109"/>
       <c r="R120" s="41"/>
       <c r="S120" s="42"/>
-      <c r="AD120" s="52"/>
-      <c r="AE120" s="52"/>
-    </row>
-    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A121" s="72"/>
-      <c r="B121" s="72"/>
-      <c r="C121" s="73" t="s">
+      <c r="AD120" s="51"/>
+      <c r="AE120" s="51"/>
+    </row>
+    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="59"/>
+      <c r="B121" s="59"/>
+      <c r="C121" s="60" t="s">
         <v>148</v>
       </c>
-      <c r="D121" s="74" t="s">
+      <c r="D121" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="E121" s="107" t="s">
-        <v>160</v>
-      </c>
-      <c r="F121" s="108" t="s">
-        <v>235</v>
-      </c>
-      <c r="G121" s="108"/>
-      <c r="H121" s="108"/>
-      <c r="I121" s="108"/>
-      <c r="J121" s="108"/>
-      <c r="K121" s="108"/>
-      <c r="L121" s="108"/>
-      <c r="M121" s="108"/>
-      <c r="N121" s="108"/>
+      <c r="E121" s="105"/>
+      <c r="F121" s="107" t="s">
+        <v>238</v>
+      </c>
+      <c r="G121" s="107"/>
+      <c r="H121" s="107"/>
+      <c r="I121" s="107"/>
+      <c r="J121" s="107"/>
+      <c r="K121" s="107"/>
+      <c r="L121" s="107"/>
+      <c r="M121" s="107"/>
+      <c r="N121" s="107"/>
       <c r="O121" s="108"/>
       <c r="P121" s="109"/>
       <c r="Q121" s="109"/>
       <c r="R121" s="41"/>
       <c r="S121" s="42"/>
-      <c r="AD121" s="52"/>
-      <c r="AE121" s="52"/>
-    </row>
-    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="AD121" s="51"/>
+      <c r="AE121" s="51"/>
+    </row>
+    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="59"/>
       <c r="B122" s="59"/>
       <c r="C122" s="60" t="s">
@@ -19094,27 +19218,27 @@
       <c r="D122" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="E122" s="110"/>
-      <c r="F122" s="111" t="s">
-        <v>236</v>
-      </c>
-      <c r="G122" s="111"/>
-      <c r="H122" s="111"/>
-      <c r="I122" s="111"/>
-      <c r="J122" s="111"/>
-      <c r="K122" s="111"/>
-      <c r="L122" s="111"/>
-      <c r="M122" s="111"/>
-      <c r="N122" s="111"/>
-      <c r="O122" s="111"/>
-      <c r="P122" s="112"/>
-      <c r="Q122" s="112"/>
+      <c r="E122" s="105"/>
+      <c r="F122" s="107" t="s">
+        <v>239</v>
+      </c>
+      <c r="G122" s="107"/>
+      <c r="H122" s="107"/>
+      <c r="I122" s="107"/>
+      <c r="J122" s="107"/>
+      <c r="K122" s="107"/>
+      <c r="L122" s="107"/>
+      <c r="M122" s="107"/>
+      <c r="N122" s="107"/>
+      <c r="O122" s="108"/>
+      <c r="P122" s="109"/>
+      <c r="Q122" s="109"/>
       <c r="R122" s="41"/>
       <c r="S122" s="42"/>
-      <c r="AD122" s="52"/>
-      <c r="AE122" s="52"/>
-    </row>
-    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="AD122" s="51"/>
+      <c r="AE122" s="51"/>
+    </row>
+    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="59"/>
       <c r="B123" s="59"/>
       <c r="C123" s="60" t="s">
@@ -19123,145 +19247,145 @@
       <c r="D123" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="E123" s="110"/>
-      <c r="F123" s="111" t="s">
-        <v>237</v>
-      </c>
-      <c r="G123" s="111"/>
-      <c r="H123" s="111"/>
-      <c r="I123" s="111"/>
-      <c r="J123" s="111"/>
-      <c r="K123" s="111"/>
-      <c r="L123" s="111"/>
-      <c r="M123" s="111"/>
-      <c r="N123" s="111"/>
-      <c r="O123" s="111"/>
-      <c r="P123" s="112"/>
-      <c r="Q123" s="112"/>
+      <c r="E123" s="105"/>
+      <c r="F123" s="107" t="s">
+        <v>240</v>
+      </c>
+      <c r="G123" s="107"/>
+      <c r="H123" s="107"/>
+      <c r="I123" s="107"/>
+      <c r="J123" s="107"/>
+      <c r="K123" s="107"/>
+      <c r="L123" s="107"/>
+      <c r="M123" s="107"/>
+      <c r="N123" s="107"/>
+      <c r="O123" s="108"/>
+      <c r="P123" s="109"/>
+      <c r="Q123" s="109"/>
       <c r="R123" s="41"/>
       <c r="S123" s="42"/>
-      <c r="AD123" s="52"/>
-      <c r="AE123" s="52"/>
-    </row>
-    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A124" s="88"/>
-      <c r="B124" s="88"/>
-      <c r="C124" s="73" t="s">
+      <c r="AD123" s="51"/>
+      <c r="AE123" s="51"/>
+    </row>
+    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="59"/>
+      <c r="B124" s="59"/>
+      <c r="C124" s="60" t="s">
         <v>148</v>
       </c>
-      <c r="D124" s="74" t="s">
+      <c r="D124" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="E124" s="113" t="s">
-        <v>175</v>
-      </c>
-      <c r="F124" s="114" t="s">
-        <v>238</v>
-      </c>
-      <c r="G124" s="114"/>
-      <c r="H124" s="114"/>
-      <c r="I124" s="114"/>
-      <c r="J124" s="114"/>
-      <c r="K124" s="114"/>
-      <c r="L124" s="114"/>
-      <c r="M124" s="114"/>
-      <c r="N124" s="114"/>
-      <c r="O124" s="114"/>
-      <c r="P124" s="115"/>
-      <c r="Q124" s="115"/>
+      <c r="E124" s="105"/>
+      <c r="F124" s="107" t="s">
+        <v>241</v>
+      </c>
+      <c r="G124" s="107"/>
+      <c r="H124" s="107"/>
+      <c r="I124" s="107"/>
+      <c r="J124" s="107"/>
+      <c r="K124" s="107"/>
+      <c r="L124" s="107"/>
+      <c r="M124" s="107"/>
+      <c r="N124" s="107"/>
+      <c r="O124" s="108"/>
+      <c r="P124" s="109"/>
+      <c r="Q124" s="109"/>
       <c r="R124" s="41"/>
       <c r="S124" s="42"/>
-      <c r="AD124" s="52"/>
-      <c r="AE124" s="52"/>
-    </row>
-    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A125" s="94"/>
-      <c r="B125" s="94"/>
-      <c r="C125" s="95" t="s">
+      <c r="AD124" s="51"/>
+      <c r="AE124" s="51"/>
+    </row>
+    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="59"/>
+      <c r="B125" s="59"/>
+      <c r="C125" s="60" t="s">
         <v>148</v>
       </c>
-      <c r="D125" s="96" t="s">
+      <c r="D125" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="E125" s="116" t="s">
-        <v>178</v>
-      </c>
-      <c r="F125" s="117" t="s">
-        <v>239</v>
-      </c>
-      <c r="G125" s="117"/>
-      <c r="H125" s="117"/>
-      <c r="I125" s="117"/>
-      <c r="J125" s="117"/>
-      <c r="K125" s="117"/>
-      <c r="L125" s="117"/>
-      <c r="M125" s="117"/>
-      <c r="N125" s="117"/>
-      <c r="O125" s="117"/>
-      <c r="P125" s="118"/>
-      <c r="Q125" s="118"/>
+      <c r="E125" s="105"/>
+      <c r="F125" s="106" t="s">
+        <v>181</v>
+      </c>
+      <c r="G125" s="107"/>
+      <c r="H125" s="107"/>
+      <c r="I125" s="107"/>
+      <c r="J125" s="107"/>
+      <c r="K125" s="107"/>
+      <c r="L125" s="107"/>
+      <c r="M125" s="107"/>
+      <c r="N125" s="107"/>
+      <c r="O125" s="108"/>
+      <c r="P125" s="109"/>
+      <c r="Q125" s="109" t="s">
+        <v>182</v>
+      </c>
       <c r="R125" s="41"/>
       <c r="S125" s="42"/>
-      <c r="AD125" s="52"/>
-      <c r="AE125" s="52"/>
+      <c r="AD125" s="51"/>
+      <c r="AE125" s="51"/>
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A126" s="59"/>
-      <c r="B126" s="59"/>
-      <c r="C126" s="60" t="s">
+      <c r="A126" s="74"/>
+      <c r="B126" s="74"/>
+      <c r="C126" s="75" t="s">
         <v>148</v>
       </c>
-      <c r="D126" s="61" t="s">
+      <c r="D126" s="76" t="s">
         <v>149</v>
       </c>
-      <c r="E126" s="110"/>
-      <c r="F126" s="111"/>
-      <c r="G126" s="119"/>
-      <c r="H126" s="119"/>
-      <c r="I126" s="119"/>
-      <c r="J126" s="119"/>
-      <c r="K126" s="119"/>
-      <c r="L126" s="119"/>
-      <c r="M126" s="119"/>
-      <c r="N126" s="119"/>
-      <c r="O126" s="112"/>
-      <c r="P126" s="112"/>
-      <c r="Q126" s="112"/>
+      <c r="E126" s="112" t="s">
+        <v>160</v>
+      </c>
+      <c r="F126" s="113" t="s">
+        <v>242</v>
+      </c>
+      <c r="G126" s="113"/>
+      <c r="H126" s="113"/>
+      <c r="I126" s="113"/>
+      <c r="J126" s="113"/>
+      <c r="K126" s="113"/>
+      <c r="L126" s="113"/>
+      <c r="M126" s="113"/>
+      <c r="N126" s="113"/>
+      <c r="O126" s="113"/>
+      <c r="P126" s="114"/>
+      <c r="Q126" s="114"/>
       <c r="R126" s="41"/>
       <c r="S126" s="42"/>
-      <c r="AD126" s="52"/>
-      <c r="AE126" s="52"/>
+      <c r="AD126" s="51"/>
+      <c r="AE126" s="51"/>
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A127" s="94"/>
-      <c r="B127" s="94"/>
-      <c r="C127" s="95" t="s">
+      <c r="A127" s="59"/>
+      <c r="B127" s="59"/>
+      <c r="C127" s="60" t="s">
         <v>148</v>
       </c>
-      <c r="D127" s="96" t="s">
+      <c r="D127" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="E127" s="116" t="s">
-        <v>178</v>
-      </c>
-      <c r="F127" s="117" t="s">
-        <v>240</v>
-      </c>
-      <c r="G127" s="117"/>
-      <c r="H127" s="117"/>
-      <c r="I127" s="117"/>
-      <c r="J127" s="117"/>
-      <c r="K127" s="117"/>
-      <c r="L127" s="117"/>
-      <c r="M127" s="117"/>
-      <c r="N127" s="117"/>
-      <c r="O127" s="117"/>
-      <c r="P127" s="118"/>
-      <c r="Q127" s="118"/>
+      <c r="E127" s="115"/>
+      <c r="F127" s="116" t="s">
+        <v>243</v>
+      </c>
+      <c r="G127" s="116"/>
+      <c r="H127" s="116"/>
+      <c r="I127" s="116"/>
+      <c r="J127" s="116"/>
+      <c r="K127" s="116"/>
+      <c r="L127" s="116"/>
+      <c r="M127" s="116"/>
+      <c r="N127" s="116"/>
+      <c r="O127" s="116"/>
+      <c r="P127" s="117"/>
+      <c r="Q127" s="117"/>
       <c r="R127" s="41"/>
       <c r="S127" s="42"/>
-      <c r="AD127" s="52"/>
-      <c r="AE127" s="52"/>
+      <c r="AD127" s="51"/>
+      <c r="AE127" s="51"/>
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A128" s="59"/>
@@ -19272,85 +19396,87 @@
       <c r="D128" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="E128" s="110"/>
-      <c r="F128" s="111"/>
-      <c r="G128" s="119"/>
-      <c r="H128" s="119"/>
-      <c r="I128" s="119"/>
-      <c r="J128" s="119"/>
-      <c r="K128" s="119"/>
-      <c r="L128" s="119"/>
-      <c r="M128" s="119"/>
-      <c r="N128" s="119"/>
-      <c r="O128" s="112"/>
-      <c r="P128" s="112"/>
-      <c r="Q128" s="112"/>
+      <c r="E128" s="115"/>
+      <c r="F128" s="116" t="s">
+        <v>244</v>
+      </c>
+      <c r="G128" s="116"/>
+      <c r="H128" s="116"/>
+      <c r="I128" s="116"/>
+      <c r="J128" s="116"/>
+      <c r="K128" s="116"/>
+      <c r="L128" s="116"/>
+      <c r="M128" s="116"/>
+      <c r="N128" s="116"/>
+      <c r="O128" s="116"/>
+      <c r="P128" s="117"/>
+      <c r="Q128" s="117"/>
       <c r="R128" s="41"/>
       <c r="S128" s="42"/>
-      <c r="AD128" s="52"/>
-      <c r="AE128" s="52"/>
+      <c r="AD128" s="51"/>
+      <c r="AE128" s="51"/>
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A129" s="88"/>
-      <c r="B129" s="88"/>
-      <c r="C129" s="73" t="s">
+      <c r="A129" s="92"/>
+      <c r="B129" s="92"/>
+      <c r="C129" s="75" t="s">
         <v>148</v>
       </c>
-      <c r="D129" s="74" t="s">
+      <c r="D129" s="76" t="s">
         <v>149</v>
       </c>
-      <c r="E129" s="113" t="s">
+      <c r="E129" s="118" t="s">
         <v>175</v>
       </c>
-      <c r="F129" s="114" t="s">
-        <v>241</v>
-      </c>
-      <c r="G129" s="114"/>
-      <c r="H129" s="114"/>
-      <c r="I129" s="114"/>
-      <c r="J129" s="114"/>
-      <c r="K129" s="114"/>
-      <c r="L129" s="114"/>
-      <c r="M129" s="114"/>
-      <c r="N129" s="114"/>
-      <c r="O129" s="114"/>
-      <c r="P129" s="115"/>
-      <c r="Q129" s="115"/>
+      <c r="F129" s="119" t="s">
+        <v>245</v>
+      </c>
+      <c r="G129" s="119"/>
+      <c r="H129" s="119"/>
+      <c r="I129" s="119"/>
+      <c r="J129" s="119"/>
+      <c r="K129" s="119"/>
+      <c r="L129" s="119"/>
+      <c r="M129" s="119"/>
+      <c r="N129" s="119"/>
+      <c r="O129" s="119"/>
+      <c r="P129" s="120"/>
+      <c r="Q129" s="120"/>
       <c r="R129" s="41"/>
       <c r="S129" s="42"/>
-      <c r="AD129" s="52"/>
-      <c r="AE129" s="52"/>
+      <c r="AD129" s="51"/>
+      <c r="AE129" s="51"/>
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A130" s="94"/>
-      <c r="B130" s="94"/>
-      <c r="C130" s="95" t="s">
+      <c r="A130" s="98"/>
+      <c r="B130" s="98"/>
+      <c r="C130" s="99" t="s">
         <v>148</v>
       </c>
-      <c r="D130" s="96" t="s">
+      <c r="D130" s="100" t="s">
         <v>149</v>
       </c>
-      <c r="E130" s="116" t="s">
+      <c r="E130" s="121" t="s">
         <v>178</v>
       </c>
-      <c r="F130" s="117" t="s">
-        <v>242</v>
-      </c>
-      <c r="G130" s="117"/>
-      <c r="H130" s="117"/>
-      <c r="I130" s="117"/>
-      <c r="J130" s="117"/>
-      <c r="K130" s="117"/>
-      <c r="L130" s="117"/>
-      <c r="M130" s="117"/>
-      <c r="N130" s="117"/>
-      <c r="O130" s="117"/>
-      <c r="P130" s="118"/>
-      <c r="Q130" s="118"/>
+      <c r="F130" s="122" t="s">
+        <v>246</v>
+      </c>
+      <c r="G130" s="122"/>
+      <c r="H130" s="122"/>
+      <c r="I130" s="122"/>
+      <c r="J130" s="122"/>
+      <c r="K130" s="122"/>
+      <c r="L130" s="122"/>
+      <c r="M130" s="122"/>
+      <c r="N130" s="122"/>
+      <c r="O130" s="122"/>
+      <c r="P130" s="123"/>
+      <c r="Q130" s="123"/>
       <c r="R130" s="41"/>
       <c r="S130" s="42"/>
-      <c r="AD130" s="52"/>
-      <c r="AE130" s="52"/>
+      <c r="AD130" s="51"/>
+      <c r="AE130" s="51"/>
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A131" s="59"/>
@@ -19361,54 +19487,54 @@
       <c r="D131" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="E131" s="110"/>
-      <c r="F131" s="111"/>
-      <c r="G131" s="119"/>
-      <c r="H131" s="119"/>
-      <c r="I131" s="119"/>
-      <c r="J131" s="119"/>
-      <c r="K131" s="119"/>
-      <c r="L131" s="119"/>
-      <c r="M131" s="119"/>
-      <c r="N131" s="119"/>
-      <c r="O131" s="112"/>
-      <c r="P131" s="112"/>
-      <c r="Q131" s="112"/>
+      <c r="E131" s="115"/>
+      <c r="F131" s="116"/>
+      <c r="G131" s="124"/>
+      <c r="H131" s="124"/>
+      <c r="I131" s="124"/>
+      <c r="J131" s="124"/>
+      <c r="K131" s="124"/>
+      <c r="L131" s="124"/>
+      <c r="M131" s="124"/>
+      <c r="N131" s="124"/>
+      <c r="O131" s="125"/>
+      <c r="P131" s="117"/>
+      <c r="Q131" s="117"/>
       <c r="R131" s="41"/>
       <c r="S131" s="42"/>
-      <c r="AD131" s="52"/>
-      <c r="AE131" s="52"/>
+      <c r="AD131" s="51"/>
+      <c r="AE131" s="51"/>
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A132" s="94"/>
-      <c r="B132" s="94"/>
-      <c r="C132" s="95" t="s">
+      <c r="A132" s="98"/>
+      <c r="B132" s="98"/>
+      <c r="C132" s="99" t="s">
         <v>148</v>
       </c>
-      <c r="D132" s="96" t="s">
+      <c r="D132" s="100" t="s">
         <v>149</v>
       </c>
-      <c r="E132" s="116" t="s">
+      <c r="E132" s="121" t="s">
         <v>178</v>
       </c>
-      <c r="F132" s="117" t="s">
-        <v>243</v>
-      </c>
-      <c r="G132" s="117"/>
-      <c r="H132" s="117"/>
-      <c r="I132" s="117"/>
-      <c r="J132" s="117"/>
-      <c r="K132" s="117"/>
-      <c r="L132" s="117"/>
-      <c r="M132" s="117"/>
-      <c r="N132" s="117"/>
-      <c r="O132" s="117"/>
-      <c r="P132" s="118"/>
-      <c r="Q132" s="118"/>
+      <c r="F132" s="122" t="s">
+        <v>247</v>
+      </c>
+      <c r="G132" s="122"/>
+      <c r="H132" s="122"/>
+      <c r="I132" s="122"/>
+      <c r="J132" s="122"/>
+      <c r="K132" s="122"/>
+      <c r="L132" s="122"/>
+      <c r="M132" s="122"/>
+      <c r="N132" s="122"/>
+      <c r="O132" s="122"/>
+      <c r="P132" s="123"/>
+      <c r="Q132" s="123"/>
       <c r="R132" s="41"/>
       <c r="S132" s="42"/>
-      <c r="AD132" s="52"/>
-      <c r="AE132" s="52"/>
+      <c r="AD132" s="51"/>
+      <c r="AE132" s="51"/>
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A133" s="59"/>
@@ -19419,85 +19545,85 @@
       <c r="D133" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="E133" s="110"/>
-      <c r="F133" s="111"/>
-      <c r="G133" s="119"/>
-      <c r="H133" s="119"/>
-      <c r="I133" s="119"/>
-      <c r="J133" s="119"/>
-      <c r="K133" s="119"/>
-      <c r="L133" s="119"/>
-      <c r="M133" s="119"/>
-      <c r="N133" s="119"/>
-      <c r="O133" s="112"/>
-      <c r="P133" s="112"/>
-      <c r="Q133" s="112"/>
+      <c r="E133" s="115"/>
+      <c r="F133" s="116"/>
+      <c r="G133" s="124"/>
+      <c r="H133" s="124"/>
+      <c r="I133" s="124"/>
+      <c r="J133" s="124"/>
+      <c r="K133" s="124"/>
+      <c r="L133" s="124"/>
+      <c r="M133" s="124"/>
+      <c r="N133" s="124"/>
+      <c r="O133" s="125"/>
+      <c r="P133" s="117"/>
+      <c r="Q133" s="117"/>
       <c r="R133" s="41"/>
       <c r="S133" s="42"/>
-      <c r="AD133" s="52"/>
-      <c r="AE133" s="52"/>
+      <c r="AD133" s="51"/>
+      <c r="AE133" s="51"/>
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A134" s="88"/>
-      <c r="B134" s="88"/>
-      <c r="C134" s="73" t="s">
+      <c r="A134" s="92"/>
+      <c r="B134" s="92"/>
+      <c r="C134" s="75" t="s">
         <v>148</v>
       </c>
-      <c r="D134" s="74" t="s">
+      <c r="D134" s="76" t="s">
         <v>149</v>
       </c>
-      <c r="E134" s="113" t="s">
+      <c r="E134" s="118" t="s">
         <v>175</v>
       </c>
-      <c r="F134" s="114" t="s">
-        <v>244</v>
-      </c>
-      <c r="G134" s="114"/>
-      <c r="H134" s="114"/>
-      <c r="I134" s="114"/>
-      <c r="J134" s="114"/>
-      <c r="K134" s="114"/>
-      <c r="L134" s="114"/>
-      <c r="M134" s="114"/>
-      <c r="N134" s="114"/>
-      <c r="O134" s="114"/>
-      <c r="P134" s="115"/>
-      <c r="Q134" s="115"/>
+      <c r="F134" s="119" t="s">
+        <v>248</v>
+      </c>
+      <c r="G134" s="119"/>
+      <c r="H134" s="119"/>
+      <c r="I134" s="119"/>
+      <c r="J134" s="119"/>
+      <c r="K134" s="119"/>
+      <c r="L134" s="119"/>
+      <c r="M134" s="119"/>
+      <c r="N134" s="119"/>
+      <c r="O134" s="119"/>
+      <c r="P134" s="120"/>
+      <c r="Q134" s="120"/>
       <c r="R134" s="41"/>
       <c r="S134" s="42"/>
-      <c r="AD134" s="52"/>
-      <c r="AE134" s="52"/>
+      <c r="AD134" s="51"/>
+      <c r="AE134" s="51"/>
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A135" s="94"/>
-      <c r="B135" s="94"/>
-      <c r="C135" s="95" t="s">
+      <c r="A135" s="98"/>
+      <c r="B135" s="98"/>
+      <c r="C135" s="99" t="s">
         <v>148</v>
       </c>
-      <c r="D135" s="96" t="s">
+      <c r="D135" s="100" t="s">
         <v>149</v>
       </c>
-      <c r="E135" s="116" t="s">
+      <c r="E135" s="121" t="s">
         <v>178</v>
       </c>
-      <c r="F135" s="117" t="s">
-        <v>245</v>
-      </c>
-      <c r="G135" s="117"/>
-      <c r="H135" s="117"/>
-      <c r="I135" s="117"/>
-      <c r="J135" s="117"/>
-      <c r="K135" s="117"/>
-      <c r="L135" s="117"/>
-      <c r="M135" s="117"/>
-      <c r="N135" s="117"/>
-      <c r="O135" s="117"/>
-      <c r="P135" s="118"/>
-      <c r="Q135" s="118"/>
+      <c r="F135" s="122" t="s">
+        <v>249</v>
+      </c>
+      <c r="G135" s="122"/>
+      <c r="H135" s="122"/>
+      <c r="I135" s="122"/>
+      <c r="J135" s="122"/>
+      <c r="K135" s="122"/>
+      <c r="L135" s="122"/>
+      <c r="M135" s="122"/>
+      <c r="N135" s="122"/>
+      <c r="O135" s="122"/>
+      <c r="P135" s="123"/>
+      <c r="Q135" s="123"/>
       <c r="R135" s="41"/>
       <c r="S135" s="42"/>
-      <c r="AD135" s="52"/>
-      <c r="AE135" s="52"/>
+      <c r="AD135" s="51"/>
+      <c r="AE135" s="51"/>
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A136" s="59"/>
@@ -19508,306 +19634,306 @@
       <c r="D136" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="E136" s="110"/>
-      <c r="F136" s="111"/>
-      <c r="G136" s="119"/>
-      <c r="H136" s="119"/>
-      <c r="I136" s="119"/>
-      <c r="J136" s="119"/>
-      <c r="K136" s="119"/>
-      <c r="L136" s="119"/>
-      <c r="M136" s="119"/>
-      <c r="N136" s="119"/>
-      <c r="O136" s="112"/>
-      <c r="P136" s="112"/>
-      <c r="Q136" s="112"/>
+      <c r="E136" s="115"/>
+      <c r="F136" s="116"/>
+      <c r="G136" s="124"/>
+      <c r="H136" s="124"/>
+      <c r="I136" s="124"/>
+      <c r="J136" s="124"/>
+      <c r="K136" s="124"/>
+      <c r="L136" s="124"/>
+      <c r="M136" s="124"/>
+      <c r="N136" s="124"/>
+      <c r="O136" s="125"/>
+      <c r="P136" s="117"/>
+      <c r="Q136" s="117"/>
       <c r="R136" s="41"/>
       <c r="S136" s="42"/>
-      <c r="AD136" s="52"/>
-      <c r="AE136" s="52"/>
+      <c r="AD136" s="51"/>
+      <c r="AE136" s="51"/>
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A137" s="88"/>
-      <c r="B137" s="88"/>
-      <c r="C137" s="73" t="s">
+      <c r="A137" s="98"/>
+      <c r="B137" s="98"/>
+      <c r="C137" s="99" t="s">
         <v>148</v>
       </c>
-      <c r="D137" s="74" t="s">
+      <c r="D137" s="100" t="s">
         <v>149</v>
       </c>
-      <c r="E137" s="113" t="s">
-        <v>175</v>
-      </c>
-      <c r="F137" s="114" t="s">
-        <v>246</v>
-      </c>
-      <c r="G137" s="114"/>
-      <c r="H137" s="114"/>
-      <c r="I137" s="114"/>
-      <c r="J137" s="114"/>
-      <c r="K137" s="114"/>
-      <c r="L137" s="114"/>
-      <c r="M137" s="114"/>
-      <c r="N137" s="114"/>
-      <c r="O137" s="114"/>
-      <c r="P137" s="115"/>
-      <c r="Q137" s="115"/>
+      <c r="E137" s="121" t="s">
+        <v>178</v>
+      </c>
+      <c r="F137" s="122" t="s">
+        <v>250</v>
+      </c>
+      <c r="G137" s="122"/>
+      <c r="H137" s="122"/>
+      <c r="I137" s="122"/>
+      <c r="J137" s="122"/>
+      <c r="K137" s="122"/>
+      <c r="L137" s="122"/>
+      <c r="M137" s="122"/>
+      <c r="N137" s="122"/>
+      <c r="O137" s="122"/>
+      <c r="P137" s="123"/>
+      <c r="Q137" s="123"/>
       <c r="R137" s="41"/>
       <c r="S137" s="42"/>
-      <c r="AD137" s="52"/>
-      <c r="AE137" s="52"/>
+      <c r="AD137" s="51"/>
+      <c r="AE137" s="51"/>
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A138" s="94"/>
-      <c r="B138" s="94"/>
-      <c r="C138" s="95" t="s">
+      <c r="A138" s="59"/>
+      <c r="B138" s="59"/>
+      <c r="C138" s="60" t="s">
         <v>148</v>
       </c>
-      <c r="D138" s="96" t="s">
+      <c r="D138" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="E138" s="116" t="s">
-        <v>178</v>
-      </c>
-      <c r="F138" s="117" t="s">
-        <v>247</v>
-      </c>
-      <c r="G138" s="117"/>
-      <c r="H138" s="117"/>
-      <c r="I138" s="117"/>
-      <c r="J138" s="117"/>
-      <c r="K138" s="117"/>
-      <c r="L138" s="117"/>
-      <c r="M138" s="117"/>
-      <c r="N138" s="117"/>
-      <c r="O138" s="117"/>
-      <c r="P138" s="118"/>
-      <c r="Q138" s="118"/>
+      <c r="E138" s="115"/>
+      <c r="F138" s="116"/>
+      <c r="G138" s="124"/>
+      <c r="H138" s="124"/>
+      <c r="I138" s="124"/>
+      <c r="J138" s="124"/>
+      <c r="K138" s="124"/>
+      <c r="L138" s="124"/>
+      <c r="M138" s="124"/>
+      <c r="N138" s="124"/>
+      <c r="O138" s="125"/>
+      <c r="P138" s="117"/>
+      <c r="Q138" s="117"/>
       <c r="R138" s="41"/>
       <c r="S138" s="42"/>
-      <c r="AD138" s="52"/>
-      <c r="AE138" s="52"/>
+      <c r="AD138" s="51"/>
+      <c r="AE138" s="51"/>
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A139" s="94"/>
-      <c r="B139" s="94"/>
-      <c r="C139" s="95" t="s">
+      <c r="A139" s="92"/>
+      <c r="B139" s="92"/>
+      <c r="C139" s="75" t="s">
         <v>148</v>
       </c>
-      <c r="D139" s="96" t="s">
+      <c r="D139" s="76" t="s">
         <v>149</v>
       </c>
-      <c r="E139" s="116" t="s">
-        <v>178</v>
-      </c>
-      <c r="F139" s="117" t="s">
-        <v>248</v>
-      </c>
-      <c r="G139" s="117"/>
-      <c r="H139" s="117"/>
-      <c r="I139" s="117"/>
-      <c r="J139" s="117"/>
-      <c r="K139" s="117"/>
-      <c r="L139" s="117"/>
-      <c r="M139" s="117"/>
-      <c r="N139" s="117"/>
-      <c r="O139" s="117"/>
-      <c r="P139" s="118"/>
-      <c r="Q139" s="118"/>
+      <c r="E139" s="118" t="s">
+        <v>175</v>
+      </c>
+      <c r="F139" s="119" t="s">
+        <v>251</v>
+      </c>
+      <c r="G139" s="119"/>
+      <c r="H139" s="119"/>
+      <c r="I139" s="119"/>
+      <c r="J139" s="119"/>
+      <c r="K139" s="119"/>
+      <c r="L139" s="119"/>
+      <c r="M139" s="119"/>
+      <c r="N139" s="119"/>
+      <c r="O139" s="119"/>
+      <c r="P139" s="120"/>
+      <c r="Q139" s="120"/>
       <c r="R139" s="41"/>
       <c r="S139" s="42"/>
-      <c r="AD139" s="52"/>
-      <c r="AE139" s="52"/>
+      <c r="AD139" s="51"/>
+      <c r="AE139" s="51"/>
     </row>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A140" s="59"/>
-      <c r="B140" s="59"/>
-      <c r="C140" s="60" t="s">
+      <c r="A140" s="98"/>
+      <c r="B140" s="98"/>
+      <c r="C140" s="99" t="s">
         <v>148</v>
       </c>
-      <c r="D140" s="61" t="s">
+      <c r="D140" s="100" t="s">
         <v>149</v>
       </c>
-      <c r="E140" s="110"/>
-      <c r="F140" s="111"/>
-      <c r="G140" s="119"/>
-      <c r="H140" s="119"/>
-      <c r="I140" s="119"/>
-      <c r="J140" s="119"/>
-      <c r="K140" s="119"/>
-      <c r="L140" s="119"/>
-      <c r="M140" s="119"/>
-      <c r="N140" s="119"/>
-      <c r="O140" s="112"/>
-      <c r="P140" s="112"/>
-      <c r="Q140" s="112"/>
+      <c r="E140" s="121" t="s">
+        <v>178</v>
+      </c>
+      <c r="F140" s="122" t="s">
+        <v>252</v>
+      </c>
+      <c r="G140" s="122"/>
+      <c r="H140" s="122"/>
+      <c r="I140" s="122"/>
+      <c r="J140" s="122"/>
+      <c r="K140" s="122"/>
+      <c r="L140" s="122"/>
+      <c r="M140" s="122"/>
+      <c r="N140" s="122"/>
+      <c r="O140" s="122"/>
+      <c r="P140" s="123"/>
+      <c r="Q140" s="123"/>
       <c r="R140" s="41"/>
       <c r="S140" s="42"/>
-      <c r="AD140" s="52"/>
-      <c r="AE140" s="52"/>
+      <c r="AD140" s="51"/>
+      <c r="AE140" s="51"/>
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A141" s="88"/>
-      <c r="B141" s="88"/>
-      <c r="C141" s="73" t="s">
+      <c r="A141" s="59"/>
+      <c r="B141" s="59"/>
+      <c r="C141" s="60" t="s">
         <v>148</v>
       </c>
-      <c r="D141" s="74" t="s">
+      <c r="D141" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="E141" s="113" t="s">
-        <v>175</v>
-      </c>
-      <c r="F141" s="114" t="s">
-        <v>249</v>
-      </c>
-      <c r="G141" s="114"/>
-      <c r="H141" s="114"/>
-      <c r="I141" s="114"/>
-      <c r="J141" s="114"/>
-      <c r="K141" s="114"/>
-      <c r="L141" s="114"/>
-      <c r="M141" s="114"/>
-      <c r="N141" s="114"/>
-      <c r="O141" s="114"/>
-      <c r="P141" s="115"/>
-      <c r="Q141" s="115"/>
+      <c r="E141" s="115"/>
+      <c r="F141" s="116"/>
+      <c r="G141" s="124"/>
+      <c r="H141" s="124"/>
+      <c r="I141" s="124"/>
+      <c r="J141" s="124"/>
+      <c r="K141" s="124"/>
+      <c r="L141" s="124"/>
+      <c r="M141" s="124"/>
+      <c r="N141" s="124"/>
+      <c r="O141" s="125"/>
+      <c r="P141" s="117"/>
+      <c r="Q141" s="117"/>
       <c r="R141" s="41"/>
       <c r="S141" s="42"/>
-      <c r="AD141" s="52"/>
-      <c r="AE141" s="52"/>
+      <c r="AD141" s="51"/>
+      <c r="AE141" s="51"/>
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A142" s="94"/>
-      <c r="B142" s="94"/>
-      <c r="C142" s="95" t="s">
+      <c r="A142" s="92"/>
+      <c r="B142" s="92"/>
+      <c r="C142" s="75" t="s">
         <v>148</v>
       </c>
-      <c r="D142" s="96" t="s">
+      <c r="D142" s="76" t="s">
         <v>149</v>
       </c>
-      <c r="E142" s="116" t="s">
-        <v>178</v>
-      </c>
-      <c r="F142" s="117" t="s">
-        <v>250</v>
-      </c>
-      <c r="G142" s="117"/>
-      <c r="H142" s="117"/>
-      <c r="I142" s="117"/>
-      <c r="J142" s="117"/>
-      <c r="K142" s="117"/>
-      <c r="L142" s="117"/>
-      <c r="M142" s="117"/>
-      <c r="N142" s="117"/>
-      <c r="O142" s="117"/>
-      <c r="P142" s="118"/>
-      <c r="Q142" s="118"/>
+      <c r="E142" s="118" t="s">
+        <v>175</v>
+      </c>
+      <c r="F142" s="119" t="s">
+        <v>253</v>
+      </c>
+      <c r="G142" s="119"/>
+      <c r="H142" s="119"/>
+      <c r="I142" s="119"/>
+      <c r="J142" s="119"/>
+      <c r="K142" s="119"/>
+      <c r="L142" s="119"/>
+      <c r="M142" s="119"/>
+      <c r="N142" s="119"/>
+      <c r="O142" s="119"/>
+      <c r="P142" s="120"/>
+      <c r="Q142" s="120"/>
       <c r="R142" s="41"/>
       <c r="S142" s="42"/>
-      <c r="AD142" s="52"/>
-      <c r="AE142" s="52"/>
+      <c r="AD142" s="51"/>
+      <c r="AE142" s="51"/>
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A143" s="59"/>
-      <c r="B143" s="59"/>
-      <c r="C143" s="60" t="s">
+      <c r="A143" s="98"/>
+      <c r="B143" s="98"/>
+      <c r="C143" s="99" t="s">
         <v>148</v>
       </c>
-      <c r="D143" s="61" t="s">
+      <c r="D143" s="100" t="s">
         <v>149</v>
       </c>
-      <c r="E143" s="110"/>
-      <c r="F143" s="111"/>
-      <c r="G143" s="119"/>
-      <c r="H143" s="119"/>
-      <c r="I143" s="119"/>
-      <c r="J143" s="119"/>
-      <c r="K143" s="119"/>
-      <c r="L143" s="119"/>
-      <c r="M143" s="119"/>
-      <c r="N143" s="119"/>
-      <c r="O143" s="112"/>
-      <c r="P143" s="112"/>
-      <c r="Q143" s="112"/>
+      <c r="E143" s="121" t="s">
+        <v>178</v>
+      </c>
+      <c r="F143" s="122" t="s">
+        <v>254</v>
+      </c>
+      <c r="G143" s="122"/>
+      <c r="H143" s="122"/>
+      <c r="I143" s="122"/>
+      <c r="J143" s="122"/>
+      <c r="K143" s="122"/>
+      <c r="L143" s="122"/>
+      <c r="M143" s="122"/>
+      <c r="N143" s="122"/>
+      <c r="O143" s="122"/>
+      <c r="P143" s="123"/>
+      <c r="Q143" s="123"/>
       <c r="R143" s="41"/>
       <c r="S143" s="42"/>
-      <c r="AD143" s="52"/>
-      <c r="AE143" s="52"/>
+      <c r="AD143" s="51"/>
+      <c r="AE143" s="51"/>
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A144" s="88"/>
-      <c r="B144" s="88"/>
-      <c r="C144" s="73" t="s">
+      <c r="A144" s="98"/>
+      <c r="B144" s="98"/>
+      <c r="C144" s="99" t="s">
         <v>148</v>
       </c>
-      <c r="D144" s="74" t="s">
+      <c r="D144" s="100" t="s">
         <v>149</v>
       </c>
-      <c r="E144" s="113" t="s">
-        <v>175</v>
-      </c>
-      <c r="F144" s="114" t="s">
-        <v>251</v>
-      </c>
-      <c r="G144" s="114"/>
-      <c r="H144" s="114"/>
-      <c r="I144" s="114"/>
-      <c r="J144" s="114"/>
-      <c r="K144" s="114"/>
-      <c r="L144" s="114"/>
-      <c r="M144" s="114"/>
-      <c r="N144" s="114"/>
-      <c r="O144" s="114"/>
-      <c r="P144" s="115"/>
-      <c r="Q144" s="115"/>
+      <c r="E144" s="121" t="s">
+        <v>178</v>
+      </c>
+      <c r="F144" s="122" t="s">
+        <v>255</v>
+      </c>
+      <c r="G144" s="122"/>
+      <c r="H144" s="122"/>
+      <c r="I144" s="122"/>
+      <c r="J144" s="122"/>
+      <c r="K144" s="122"/>
+      <c r="L144" s="122"/>
+      <c r="M144" s="122"/>
+      <c r="N144" s="122"/>
+      <c r="O144" s="122"/>
+      <c r="P144" s="123"/>
+      <c r="Q144" s="123"/>
       <c r="R144" s="41"/>
       <c r="S144" s="42"/>
-      <c r="AD144" s="52"/>
-      <c r="AE144" s="52"/>
+      <c r="AD144" s="51"/>
+      <c r="AE144" s="51"/>
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A145" s="94"/>
-      <c r="B145" s="94"/>
-      <c r="C145" s="95" t="s">
+      <c r="A145" s="59"/>
+      <c r="B145" s="59"/>
+      <c r="C145" s="60" t="s">
         <v>148</v>
       </c>
-      <c r="D145" s="96" t="s">
+      <c r="D145" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="E145" s="116" t="s">
-        <v>178</v>
-      </c>
-      <c r="F145" s="117" t="s">
-        <v>252</v>
-      </c>
-      <c r="G145" s="117"/>
-      <c r="H145" s="117"/>
-      <c r="I145" s="117"/>
-      <c r="J145" s="117"/>
-      <c r="K145" s="117"/>
-      <c r="L145" s="117"/>
-      <c r="M145" s="117"/>
-      <c r="N145" s="117"/>
-      <c r="O145" s="117"/>
-      <c r="P145" s="118"/>
-      <c r="Q145" s="118"/>
+      <c r="E145" s="115"/>
+      <c r="F145" s="116"/>
+      <c r="G145" s="124"/>
+      <c r="H145" s="124"/>
+      <c r="I145" s="124"/>
+      <c r="J145" s="124"/>
+      <c r="K145" s="124"/>
+      <c r="L145" s="124"/>
+      <c r="M145" s="124"/>
+      <c r="N145" s="124"/>
+      <c r="O145" s="125"/>
+      <c r="P145" s="117"/>
+      <c r="Q145" s="117"/>
       <c r="R145" s="41"/>
       <c r="S145" s="42"/>
-      <c r="AD145" s="52"/>
-      <c r="AE145" s="52"/>
+      <c r="AD145" s="51"/>
+      <c r="AE145" s="51"/>
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A146" s="59"/>
-      <c r="B146" s="59"/>
-      <c r="C146" s="60" t="s">
+      <c r="A146" s="92"/>
+      <c r="B146" s="92"/>
+      <c r="C146" s="75" t="s">
         <v>148</v>
       </c>
-      <c r="D146" s="61" t="s">
+      <c r="D146" s="76" t="s">
         <v>149</v>
       </c>
-      <c r="E146" s="110"/>
-      <c r="F146" s="111"/>
+      <c r="E146" s="118" t="s">
+        <v>175</v>
+      </c>
+      <c r="F146" s="119" t="s">
+        <v>256</v>
+      </c>
       <c r="G146" s="119"/>
       <c r="H146" s="119"/>
       <c r="I146" s="119"/>
@@ -19816,87 +19942,87 @@
       <c r="L146" s="119"/>
       <c r="M146" s="119"/>
       <c r="N146" s="119"/>
-      <c r="O146" s="112"/>
-      <c r="P146" s="112"/>
-      <c r="Q146" s="112"/>
+      <c r="O146" s="119"/>
+      <c r="P146" s="120"/>
+      <c r="Q146" s="120"/>
       <c r="R146" s="41"/>
       <c r="S146" s="42"/>
-      <c r="AD146" s="52"/>
-      <c r="AE146" s="52"/>
+      <c r="AD146" s="51"/>
+      <c r="AE146" s="51"/>
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A147" s="88"/>
-      <c r="B147" s="88"/>
-      <c r="C147" s="73" t="s">
+      <c r="A147" s="98"/>
+      <c r="B147" s="98"/>
+      <c r="C147" s="99" t="s">
         <v>148</v>
       </c>
-      <c r="D147" s="74" t="s">
+      <c r="D147" s="100" t="s">
         <v>149</v>
       </c>
-      <c r="E147" s="113" t="s">
-        <v>175</v>
-      </c>
-      <c r="F147" s="114" t="s">
-        <v>253</v>
-      </c>
-      <c r="G147" s="114"/>
-      <c r="H147" s="114"/>
-      <c r="I147" s="114"/>
-      <c r="J147" s="114"/>
-      <c r="K147" s="114"/>
-      <c r="L147" s="114"/>
-      <c r="M147" s="114"/>
-      <c r="N147" s="114"/>
-      <c r="O147" s="114"/>
-      <c r="P147" s="115"/>
-      <c r="Q147" s="115"/>
+      <c r="E147" s="121" t="s">
+        <v>178</v>
+      </c>
+      <c r="F147" s="122" t="s">
+        <v>257</v>
+      </c>
+      <c r="G147" s="122"/>
+      <c r="H147" s="122"/>
+      <c r="I147" s="122"/>
+      <c r="J147" s="122"/>
+      <c r="K147" s="122"/>
+      <c r="L147" s="122"/>
+      <c r="M147" s="122"/>
+      <c r="N147" s="122"/>
+      <c r="O147" s="122"/>
+      <c r="P147" s="123"/>
+      <c r="Q147" s="123"/>
       <c r="R147" s="41"/>
       <c r="S147" s="42"/>
-      <c r="AD147" s="52"/>
-      <c r="AE147" s="52"/>
+      <c r="AD147" s="51"/>
+      <c r="AE147" s="51"/>
     </row>
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A148" s="94"/>
-      <c r="B148" s="94"/>
-      <c r="C148" s="95" t="s">
+      <c r="A148" s="59"/>
+      <c r="B148" s="59"/>
+      <c r="C148" s="60" t="s">
         <v>148</v>
       </c>
-      <c r="D148" s="96" t="s">
+      <c r="D148" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="E148" s="116" t="s">
-        <v>178</v>
-      </c>
-      <c r="F148" s="117" t="s">
-        <v>254</v>
-      </c>
-      <c r="G148" s="117"/>
-      <c r="H148" s="117"/>
-      <c r="I148" s="117"/>
-      <c r="J148" s="117"/>
-      <c r="K148" s="117"/>
-      <c r="L148" s="117"/>
-      <c r="M148" s="117"/>
-      <c r="N148" s="117"/>
-      <c r="O148" s="117"/>
-      <c r="P148" s="118"/>
-      <c r="Q148" s="118"/>
+      <c r="E148" s="115"/>
+      <c r="F148" s="116"/>
+      <c r="G148" s="124"/>
+      <c r="H148" s="124"/>
+      <c r="I148" s="124"/>
+      <c r="J148" s="124"/>
+      <c r="K148" s="124"/>
+      <c r="L148" s="124"/>
+      <c r="M148" s="124"/>
+      <c r="N148" s="124"/>
+      <c r="O148" s="125"/>
+      <c r="P148" s="117"/>
+      <c r="Q148" s="117"/>
       <c r="R148" s="41"/>
       <c r="S148" s="42"/>
-      <c r="AD148" s="52"/>
-      <c r="AE148" s="52"/>
+      <c r="AD148" s="51"/>
+      <c r="AE148" s="51"/>
     </row>
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A149" s="59"/>
-      <c r="B149" s="59"/>
-      <c r="C149" s="60" t="s">
+      <c r="A149" s="92"/>
+      <c r="B149" s="92"/>
+      <c r="C149" s="75" t="s">
         <v>148</v>
       </c>
-      <c r="D149" s="61" t="s">
+      <c r="D149" s="76" t="s">
         <v>149</v>
       </c>
-      <c r="E149" s="110"/>
-      <c r="F149" s="111"/>
+      <c r="E149" s="118" t="s">
+        <v>175</v>
+      </c>
+      <c r="F149" s="119" t="s">
+        <v>258</v>
+      </c>
       <c r="G149" s="119"/>
       <c r="H149" s="119"/>
       <c r="I149" s="119"/>
@@ -19905,87 +20031,87 @@
       <c r="L149" s="119"/>
       <c r="M149" s="119"/>
       <c r="N149" s="119"/>
-      <c r="O149" s="112"/>
-      <c r="P149" s="112"/>
-      <c r="Q149" s="112"/>
+      <c r="O149" s="119"/>
+      <c r="P149" s="120"/>
+      <c r="Q149" s="120"/>
       <c r="R149" s="41"/>
       <c r="S149" s="42"/>
-      <c r="AD149" s="52"/>
-      <c r="AE149" s="52"/>
+      <c r="AD149" s="51"/>
+      <c r="AE149" s="51"/>
     </row>
     <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A150" s="88"/>
-      <c r="B150" s="88"/>
-      <c r="C150" s="73" t="s">
+      <c r="A150" s="98"/>
+      <c r="B150" s="98"/>
+      <c r="C150" s="99" t="s">
         <v>148</v>
       </c>
-      <c r="D150" s="74" t="s">
+      <c r="D150" s="100" t="s">
         <v>149</v>
       </c>
-      <c r="E150" s="113" t="s">
-        <v>175</v>
-      </c>
-      <c r="F150" s="114" t="s">
-        <v>255</v>
-      </c>
-      <c r="G150" s="114"/>
-      <c r="H150" s="114"/>
-      <c r="I150" s="114"/>
-      <c r="J150" s="114"/>
-      <c r="K150" s="114"/>
-      <c r="L150" s="114"/>
-      <c r="M150" s="114"/>
-      <c r="N150" s="114"/>
-      <c r="O150" s="114"/>
-      <c r="P150" s="115"/>
-      <c r="Q150" s="115"/>
+      <c r="E150" s="121" t="s">
+        <v>178</v>
+      </c>
+      <c r="F150" s="122" t="s">
+        <v>259</v>
+      </c>
+      <c r="G150" s="122"/>
+      <c r="H150" s="122"/>
+      <c r="I150" s="122"/>
+      <c r="J150" s="122"/>
+      <c r="K150" s="122"/>
+      <c r="L150" s="122"/>
+      <c r="M150" s="122"/>
+      <c r="N150" s="122"/>
+      <c r="O150" s="122"/>
+      <c r="P150" s="123"/>
+      <c r="Q150" s="123"/>
       <c r="R150" s="41"/>
       <c r="S150" s="42"/>
-      <c r="AD150" s="52"/>
-      <c r="AE150" s="52"/>
+      <c r="AD150" s="51"/>
+      <c r="AE150" s="51"/>
     </row>
     <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A151" s="94"/>
-      <c r="B151" s="94"/>
-      <c r="C151" s="95" t="s">
+      <c r="A151" s="59"/>
+      <c r="B151" s="59"/>
+      <c r="C151" s="60" t="s">
         <v>148</v>
       </c>
-      <c r="D151" s="96" t="s">
+      <c r="D151" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="E151" s="116" t="s">
-        <v>178</v>
-      </c>
-      <c r="F151" s="117" t="s">
-        <v>256</v>
-      </c>
-      <c r="G151" s="117"/>
-      <c r="H151" s="117"/>
-      <c r="I151" s="117"/>
-      <c r="J151" s="117"/>
-      <c r="K151" s="117"/>
-      <c r="L151" s="117"/>
-      <c r="M151" s="117"/>
-      <c r="N151" s="117"/>
-      <c r="O151" s="117"/>
-      <c r="P151" s="118"/>
-      <c r="Q151" s="118"/>
+      <c r="E151" s="115"/>
+      <c r="F151" s="116"/>
+      <c r="G151" s="124"/>
+      <c r="H151" s="124"/>
+      <c r="I151" s="124"/>
+      <c r="J151" s="124"/>
+      <c r="K151" s="124"/>
+      <c r="L151" s="124"/>
+      <c r="M151" s="124"/>
+      <c r="N151" s="124"/>
+      <c r="O151" s="125"/>
+      <c r="P151" s="117"/>
+      <c r="Q151" s="117"/>
       <c r="R151" s="41"/>
       <c r="S151" s="42"/>
-      <c r="AD151" s="52"/>
-      <c r="AE151" s="52"/>
+      <c r="AD151" s="51"/>
+      <c r="AE151" s="51"/>
     </row>
     <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A152" s="59"/>
-      <c r="B152" s="59"/>
-      <c r="C152" s="60" t="s">
+      <c r="A152" s="92"/>
+      <c r="B152" s="92"/>
+      <c r="C152" s="75" t="s">
         <v>148</v>
       </c>
-      <c r="D152" s="61" t="s">
+      <c r="D152" s="76" t="s">
         <v>149</v>
       </c>
-      <c r="E152" s="110"/>
-      <c r="F152" s="111"/>
+      <c r="E152" s="118" t="s">
+        <v>175</v>
+      </c>
+      <c r="F152" s="119" t="s">
+        <v>260</v>
+      </c>
       <c r="G152" s="119"/>
       <c r="H152" s="119"/>
       <c r="I152" s="119"/>
@@ -19994,87 +20120,87 @@
       <c r="L152" s="119"/>
       <c r="M152" s="119"/>
       <c r="N152" s="119"/>
-      <c r="O152" s="112"/>
-      <c r="P152" s="112"/>
-      <c r="Q152" s="112"/>
+      <c r="O152" s="119"/>
+      <c r="P152" s="120"/>
+      <c r="Q152" s="120"/>
       <c r="R152" s="41"/>
       <c r="S152" s="42"/>
-      <c r="AD152" s="52"/>
-      <c r="AE152" s="52"/>
+      <c r="AD152" s="51"/>
+      <c r="AE152" s="51"/>
     </row>
     <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A153" s="88"/>
-      <c r="B153" s="88"/>
-      <c r="C153" s="73" t="s">
+      <c r="A153" s="98"/>
+      <c r="B153" s="98"/>
+      <c r="C153" s="99" t="s">
         <v>148</v>
       </c>
-      <c r="D153" s="74" t="s">
+      <c r="D153" s="100" t="s">
         <v>149</v>
       </c>
-      <c r="E153" s="113" t="s">
-        <v>175</v>
-      </c>
-      <c r="F153" s="114" t="s">
-        <v>257</v>
-      </c>
-      <c r="G153" s="114"/>
-      <c r="H153" s="114"/>
-      <c r="I153" s="114"/>
-      <c r="J153" s="114"/>
-      <c r="K153" s="114"/>
-      <c r="L153" s="114"/>
-      <c r="M153" s="114"/>
-      <c r="N153" s="114"/>
-      <c r="O153" s="114"/>
-      <c r="P153" s="115"/>
-      <c r="Q153" s="115"/>
+      <c r="E153" s="121" t="s">
+        <v>178</v>
+      </c>
+      <c r="F153" s="122" t="s">
+        <v>261</v>
+      </c>
+      <c r="G153" s="122"/>
+      <c r="H153" s="122"/>
+      <c r="I153" s="122"/>
+      <c r="J153" s="122"/>
+      <c r="K153" s="122"/>
+      <c r="L153" s="122"/>
+      <c r="M153" s="122"/>
+      <c r="N153" s="122"/>
+      <c r="O153" s="122"/>
+      <c r="P153" s="123"/>
+      <c r="Q153" s="123"/>
       <c r="R153" s="41"/>
       <c r="S153" s="42"/>
-      <c r="AD153" s="52"/>
-      <c r="AE153" s="52"/>
+      <c r="AD153" s="51"/>
+      <c r="AE153" s="51"/>
     </row>
     <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A154" s="94"/>
-      <c r="B154" s="94"/>
-      <c r="C154" s="95" t="s">
+      <c r="A154" s="59"/>
+      <c r="B154" s="59"/>
+      <c r="C154" s="60" t="s">
         <v>148</v>
       </c>
-      <c r="D154" s="96" t="s">
+      <c r="D154" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="E154" s="116" t="s">
-        <v>178</v>
-      </c>
-      <c r="F154" s="117" t="s">
-        <v>258</v>
-      </c>
-      <c r="G154" s="117"/>
-      <c r="H154" s="117"/>
-      <c r="I154" s="117"/>
-      <c r="J154" s="117"/>
-      <c r="K154" s="117"/>
-      <c r="L154" s="117"/>
-      <c r="M154" s="117"/>
-      <c r="N154" s="117"/>
-      <c r="O154" s="117"/>
-      <c r="P154" s="118"/>
-      <c r="Q154" s="118"/>
+      <c r="E154" s="115"/>
+      <c r="F154" s="116"/>
+      <c r="G154" s="124"/>
+      <c r="H154" s="124"/>
+      <c r="I154" s="124"/>
+      <c r="J154" s="124"/>
+      <c r="K154" s="124"/>
+      <c r="L154" s="124"/>
+      <c r="M154" s="124"/>
+      <c r="N154" s="124"/>
+      <c r="O154" s="125"/>
+      <c r="P154" s="117"/>
+      <c r="Q154" s="117"/>
       <c r="R154" s="41"/>
       <c r="S154" s="42"/>
-      <c r="AD154" s="52"/>
-      <c r="AE154" s="52"/>
+      <c r="AD154" s="51"/>
+      <c r="AE154" s="51"/>
     </row>
     <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A155" s="59"/>
-      <c r="B155" s="59"/>
-      <c r="C155" s="60" t="s">
+      <c r="A155" s="92"/>
+      <c r="B155" s="92"/>
+      <c r="C155" s="75" t="s">
         <v>148</v>
       </c>
-      <c r="D155" s="61" t="s">
+      <c r="D155" s="76" t="s">
         <v>149</v>
       </c>
-      <c r="E155" s="110"/>
-      <c r="F155" s="111"/>
+      <c r="E155" s="118" t="s">
+        <v>175</v>
+      </c>
+      <c r="F155" s="119" t="s">
+        <v>262</v>
+      </c>
       <c r="G155" s="119"/>
       <c r="H155" s="119"/>
       <c r="I155" s="119"/>
@@ -20083,44 +20209,44 @@
       <c r="L155" s="119"/>
       <c r="M155" s="119"/>
       <c r="N155" s="119"/>
-      <c r="O155" s="112"/>
-      <c r="P155" s="112"/>
-      <c r="Q155" s="112"/>
+      <c r="O155" s="119"/>
+      <c r="P155" s="120"/>
+      <c r="Q155" s="120"/>
       <c r="R155" s="41"/>
       <c r="S155" s="42"/>
-      <c r="AD155" s="52"/>
-      <c r="AE155" s="52"/>
+      <c r="AD155" s="51"/>
+      <c r="AE155" s="51"/>
     </row>
     <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A156" s="94"/>
-      <c r="B156" s="94"/>
-      <c r="C156" s="95" t="s">
+      <c r="A156" s="98"/>
+      <c r="B156" s="98"/>
+      <c r="C156" s="99" t="s">
         <v>148</v>
       </c>
-      <c r="D156" s="96" t="s">
+      <c r="D156" s="100" t="s">
         <v>149</v>
       </c>
-      <c r="E156" s="116" t="s">
+      <c r="E156" s="121" t="s">
         <v>178</v>
       </c>
-      <c r="F156" s="117" t="s">
-        <v>259</v>
-      </c>
-      <c r="G156" s="117"/>
-      <c r="H156" s="117"/>
-      <c r="I156" s="117"/>
-      <c r="J156" s="117"/>
-      <c r="K156" s="117"/>
-      <c r="L156" s="117"/>
-      <c r="M156" s="117"/>
-      <c r="N156" s="117"/>
-      <c r="O156" s="117"/>
-      <c r="P156" s="118"/>
-      <c r="Q156" s="118"/>
+      <c r="F156" s="122" t="s">
+        <v>263</v>
+      </c>
+      <c r="G156" s="122"/>
+      <c r="H156" s="122"/>
+      <c r="I156" s="122"/>
+      <c r="J156" s="122"/>
+      <c r="K156" s="122"/>
+      <c r="L156" s="122"/>
+      <c r="M156" s="122"/>
+      <c r="N156" s="122"/>
+      <c r="O156" s="122"/>
+      <c r="P156" s="123"/>
+      <c r="Q156" s="123"/>
       <c r="R156" s="41"/>
       <c r="S156" s="42"/>
-      <c r="AD156" s="52"/>
-      <c r="AE156" s="52"/>
+      <c r="AD156" s="51"/>
+      <c r="AE156" s="51"/>
     </row>
     <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A157" s="59"/>
@@ -20131,143 +20257,143 @@
       <c r="D157" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="E157" s="110"/>
-      <c r="F157" s="111"/>
-      <c r="G157" s="119"/>
-      <c r="H157" s="119"/>
-      <c r="I157" s="119"/>
-      <c r="J157" s="119"/>
-      <c r="K157" s="119"/>
-      <c r="L157" s="119"/>
-      <c r="M157" s="119"/>
-      <c r="N157" s="119"/>
-      <c r="O157" s="112"/>
-      <c r="P157" s="112"/>
-      <c r="Q157" s="112"/>
+      <c r="E157" s="115"/>
+      <c r="F157" s="116"/>
+      <c r="G157" s="124"/>
+      <c r="H157" s="124"/>
+      <c r="I157" s="124"/>
+      <c r="J157" s="124"/>
+      <c r="K157" s="124"/>
+      <c r="L157" s="124"/>
+      <c r="M157" s="124"/>
+      <c r="N157" s="124"/>
+      <c r="O157" s="125"/>
+      <c r="P157" s="117"/>
+      <c r="Q157" s="117"/>
       <c r="R157" s="41"/>
       <c r="S157" s="42"/>
-      <c r="AD157" s="52"/>
-      <c r="AE157" s="52"/>
+      <c r="AD157" s="51"/>
+      <c r="AE157" s="51"/>
     </row>
     <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A158" s="94"/>
-      <c r="B158" s="94"/>
-      <c r="C158" s="95" t="s">
+      <c r="A158" s="92"/>
+      <c r="B158" s="92"/>
+      <c r="C158" s="75" t="s">
         <v>148</v>
       </c>
-      <c r="D158" s="96" t="s">
+      <c r="D158" s="76" t="s">
         <v>149</v>
       </c>
-      <c r="E158" s="116" t="s">
-        <v>178</v>
-      </c>
-      <c r="F158" s="117" t="s">
-        <v>260</v>
-      </c>
-      <c r="G158" s="117"/>
-      <c r="H158" s="117"/>
-      <c r="I158" s="117"/>
-      <c r="J158" s="117"/>
-      <c r="K158" s="117"/>
-      <c r="L158" s="117"/>
-      <c r="M158" s="117"/>
-      <c r="N158" s="117"/>
-      <c r="O158" s="117"/>
-      <c r="P158" s="118"/>
-      <c r="Q158" s="118"/>
+      <c r="E158" s="118" t="s">
+        <v>175</v>
+      </c>
+      <c r="F158" s="119" t="s">
+        <v>264</v>
+      </c>
+      <c r="G158" s="119"/>
+      <c r="H158" s="119"/>
+      <c r="I158" s="119"/>
+      <c r="J158" s="119"/>
+      <c r="K158" s="119"/>
+      <c r="L158" s="119"/>
+      <c r="M158" s="119"/>
+      <c r="N158" s="119"/>
+      <c r="O158" s="119"/>
+      <c r="P158" s="120"/>
+      <c r="Q158" s="120"/>
       <c r="R158" s="41"/>
       <c r="S158" s="42"/>
-      <c r="AD158" s="52"/>
-      <c r="AE158" s="52"/>
+      <c r="AD158" s="51"/>
+      <c r="AE158" s="51"/>
     </row>
     <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A159" s="59"/>
-      <c r="B159" s="59"/>
-      <c r="C159" s="60" t="s">
+      <c r="A159" s="98"/>
+      <c r="B159" s="98"/>
+      <c r="C159" s="99" t="s">
         <v>148</v>
       </c>
-      <c r="D159" s="61" t="s">
+      <c r="D159" s="100" t="s">
         <v>149</v>
       </c>
-      <c r="E159" s="110"/>
-      <c r="F159" s="111"/>
-      <c r="G159" s="119"/>
-      <c r="H159" s="119"/>
-      <c r="I159" s="119"/>
-      <c r="J159" s="119"/>
-      <c r="K159" s="119"/>
-      <c r="L159" s="119"/>
-      <c r="M159" s="119"/>
-      <c r="N159" s="119"/>
-      <c r="O159" s="112"/>
-      <c r="P159" s="112"/>
-      <c r="Q159" s="112"/>
+      <c r="E159" s="121" t="s">
+        <v>178</v>
+      </c>
+      <c r="F159" s="122" t="s">
+        <v>265</v>
+      </c>
+      <c r="G159" s="122"/>
+      <c r="H159" s="122"/>
+      <c r="I159" s="122"/>
+      <c r="J159" s="122"/>
+      <c r="K159" s="122"/>
+      <c r="L159" s="122"/>
+      <c r="M159" s="122"/>
+      <c r="N159" s="122"/>
+      <c r="O159" s="122"/>
+      <c r="P159" s="123"/>
+      <c r="Q159" s="123"/>
       <c r="R159" s="41"/>
       <c r="S159" s="42"/>
-      <c r="AD159" s="52"/>
-      <c r="AE159" s="52"/>
+      <c r="AD159" s="51"/>
+      <c r="AE159" s="51"/>
     </row>
     <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A160" s="88"/>
-      <c r="B160" s="88"/>
-      <c r="C160" s="73" t="s">
+      <c r="A160" s="59"/>
+      <c r="B160" s="59"/>
+      <c r="C160" s="60" t="s">
         <v>148</v>
       </c>
-      <c r="D160" s="74" t="s">
+      <c r="D160" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="E160" s="113" t="s">
-        <v>175</v>
-      </c>
-      <c r="F160" s="114" t="s">
-        <v>261</v>
-      </c>
-      <c r="G160" s="114"/>
-      <c r="H160" s="114"/>
-      <c r="I160" s="114"/>
-      <c r="J160" s="114"/>
-      <c r="K160" s="114"/>
-      <c r="L160" s="114"/>
-      <c r="M160" s="114"/>
-      <c r="N160" s="114"/>
-      <c r="O160" s="114"/>
-      <c r="P160" s="115"/>
-      <c r="Q160" s="115"/>
+      <c r="E160" s="115"/>
+      <c r="F160" s="116"/>
+      <c r="G160" s="124"/>
+      <c r="H160" s="124"/>
+      <c r="I160" s="124"/>
+      <c r="J160" s="124"/>
+      <c r="K160" s="124"/>
+      <c r="L160" s="124"/>
+      <c r="M160" s="124"/>
+      <c r="N160" s="124"/>
+      <c r="O160" s="125"/>
+      <c r="P160" s="117"/>
+      <c r="Q160" s="117"/>
       <c r="R160" s="41"/>
       <c r="S160" s="42"/>
-      <c r="AD160" s="52"/>
-      <c r="AE160" s="52"/>
+      <c r="AD160" s="51"/>
+      <c r="AE160" s="51"/>
     </row>
     <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A161" s="94"/>
-      <c r="B161" s="94"/>
-      <c r="C161" s="95" t="s">
+      <c r="A161" s="98"/>
+      <c r="B161" s="98"/>
+      <c r="C161" s="99" t="s">
         <v>148</v>
       </c>
-      <c r="D161" s="96" t="s">
+      <c r="D161" s="100" t="s">
         <v>149</v>
       </c>
-      <c r="E161" s="116" t="s">
+      <c r="E161" s="121" t="s">
         <v>178</v>
       </c>
-      <c r="F161" s="117" t="s">
-        <v>262</v>
-      </c>
-      <c r="G161" s="117"/>
-      <c r="H161" s="117"/>
-      <c r="I161" s="117"/>
-      <c r="J161" s="117"/>
-      <c r="K161" s="117"/>
-      <c r="L161" s="117"/>
-      <c r="M161" s="117"/>
-      <c r="N161" s="117"/>
-      <c r="O161" s="117"/>
-      <c r="P161" s="118"/>
-      <c r="Q161" s="118"/>
+      <c r="F161" s="122" t="s">
+        <v>266</v>
+      </c>
+      <c r="G161" s="122"/>
+      <c r="H161" s="122"/>
+      <c r="I161" s="122"/>
+      <c r="J161" s="122"/>
+      <c r="K161" s="122"/>
+      <c r="L161" s="122"/>
+      <c r="M161" s="122"/>
+      <c r="N161" s="122"/>
+      <c r="O161" s="122"/>
+      <c r="P161" s="123"/>
+      <c r="Q161" s="123"/>
       <c r="R161" s="41"/>
       <c r="S161" s="42"/>
-      <c r="AD161" s="52"/>
-      <c r="AE161" s="52"/>
+      <c r="AD161" s="51"/>
+      <c r="AE161" s="51"/>
     </row>
     <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A162" s="59"/>
@@ -20278,339 +20404,487 @@
       <c r="D162" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="E162" s="110"/>
-      <c r="F162" s="111"/>
-      <c r="G162" s="119"/>
-      <c r="H162" s="119"/>
-      <c r="I162" s="119"/>
-      <c r="J162" s="119"/>
-      <c r="K162" s="119"/>
-      <c r="L162" s="119"/>
-      <c r="M162" s="119"/>
-      <c r="N162" s="119"/>
-      <c r="O162" s="112"/>
-      <c r="P162" s="112"/>
-      <c r="Q162" s="112"/>
+      <c r="E162" s="115"/>
+      <c r="F162" s="116"/>
+      <c r="G162" s="124"/>
+      <c r="H162" s="124"/>
+      <c r="I162" s="124"/>
+      <c r="J162" s="124"/>
+      <c r="K162" s="124"/>
+      <c r="L162" s="124"/>
+      <c r="M162" s="124"/>
+      <c r="N162" s="124"/>
+      <c r="O162" s="125"/>
+      <c r="P162" s="117"/>
+      <c r="Q162" s="117"/>
       <c r="R162" s="41"/>
       <c r="S162" s="42"/>
-      <c r="AD162" s="52"/>
-      <c r="AE162" s="52"/>
+      <c r="AD162" s="51"/>
+      <c r="AE162" s="51"/>
     </row>
     <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A163" s="94"/>
-      <c r="B163" s="94"/>
-      <c r="C163" s="95" t="s">
+      <c r="A163" s="98"/>
+      <c r="B163" s="98"/>
+      <c r="C163" s="99" t="s">
         <v>148</v>
       </c>
-      <c r="D163" s="96" t="s">
+      <c r="D163" s="100" t="s">
         <v>149</v>
       </c>
-      <c r="E163" s="116" t="s">
+      <c r="E163" s="121" t="s">
         <v>178</v>
       </c>
-      <c r="F163" s="117" t="s">
-        <v>263</v>
-      </c>
-      <c r="G163" s="117"/>
-      <c r="H163" s="117"/>
-      <c r="I163" s="117"/>
-      <c r="J163" s="117"/>
-      <c r="K163" s="117"/>
-      <c r="L163" s="117"/>
-      <c r="M163" s="117"/>
-      <c r="N163" s="117"/>
-      <c r="O163" s="117"/>
-      <c r="P163" s="118"/>
-      <c r="Q163" s="118"/>
+      <c r="F163" s="122" t="s">
+        <v>267</v>
+      </c>
+      <c r="G163" s="122"/>
+      <c r="H163" s="122"/>
+      <c r="I163" s="122"/>
+      <c r="J163" s="122"/>
+      <c r="K163" s="122"/>
+      <c r="L163" s="122"/>
+      <c r="M163" s="122"/>
+      <c r="N163" s="122"/>
+      <c r="O163" s="122"/>
+      <c r="P163" s="123"/>
+      <c r="Q163" s="123"/>
       <c r="R163" s="41"/>
       <c r="S163" s="42"/>
-      <c r="AD163" s="52"/>
-      <c r="AE163" s="52"/>
+      <c r="AD163" s="51"/>
+      <c r="AE163" s="51"/>
     </row>
     <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A164" s="59"/>
       <c r="B164" s="59"/>
-      <c r="C164" s="60"/>
-      <c r="D164" s="61"/>
-      <c r="E164" s="110"/>
-      <c r="F164" s="111"/>
-      <c r="G164" s="119"/>
-      <c r="H164" s="119"/>
-      <c r="I164" s="119"/>
-      <c r="J164" s="119"/>
-      <c r="K164" s="119"/>
-      <c r="L164" s="119"/>
-      <c r="M164" s="119"/>
-      <c r="N164" s="119"/>
-      <c r="O164" s="112"/>
-      <c r="P164" s="112"/>
-      <c r="Q164" s="112"/>
+      <c r="C164" s="60" t="s">
+        <v>148</v>
+      </c>
+      <c r="D164" s="61" t="s">
+        <v>149</v>
+      </c>
+      <c r="E164" s="115"/>
+      <c r="F164" s="116"/>
+      <c r="G164" s="124"/>
+      <c r="H164" s="124"/>
+      <c r="I164" s="124"/>
+      <c r="J164" s="124"/>
+      <c r="K164" s="124"/>
+      <c r="L164" s="124"/>
+      <c r="M164" s="124"/>
+      <c r="N164" s="124"/>
+      <c r="O164" s="125"/>
+      <c r="P164" s="117"/>
+      <c r="Q164" s="117"/>
       <c r="R164" s="41"/>
       <c r="S164" s="42"/>
-      <c r="AD164" s="52"/>
-      <c r="AE164" s="52"/>
-    </row>
-    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="41"/>
-      <c r="B165" s="41"/>
-      <c r="C165" s="41"/>
-      <c r="D165" s="41"/>
-      <c r="E165" s="41"/>
-      <c r="F165" s="41"/>
-      <c r="G165" s="41"/>
-      <c r="H165" s="41"/>
-      <c r="I165" s="41"/>
-      <c r="J165" s="41"/>
-      <c r="K165" s="41"/>
-      <c r="L165" s="41"/>
-      <c r="M165" s="41"/>
-      <c r="N165" s="41"/>
-      <c r="O165" s="41"/>
-      <c r="P165" s="41"/>
-      <c r="Q165" s="41"/>
+      <c r="AD164" s="51"/>
+      <c r="AE164" s="51"/>
+    </row>
+    <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A165" s="92"/>
+      <c r="B165" s="92"/>
+      <c r="C165" s="75" t="s">
+        <v>148</v>
+      </c>
+      <c r="D165" s="76" t="s">
+        <v>149</v>
+      </c>
+      <c r="E165" s="118" t="s">
+        <v>175</v>
+      </c>
+      <c r="F165" s="119" t="s">
+        <v>268</v>
+      </c>
+      <c r="G165" s="119"/>
+      <c r="H165" s="119"/>
+      <c r="I165" s="119"/>
+      <c r="J165" s="119"/>
+      <c r="K165" s="119"/>
+      <c r="L165" s="119"/>
+      <c r="M165" s="119"/>
+      <c r="N165" s="119"/>
+      <c r="O165" s="119"/>
+      <c r="P165" s="120"/>
+      <c r="Q165" s="120"/>
       <c r="R165" s="41"/>
       <c r="S165" s="42"/>
-      <c r="Y165" s="52"/>
-      <c r="Z165" s="52"/>
-      <c r="AD165" s="52"/>
-      <c r="AE165" s="52"/>
-    </row>
-    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="42"/>
-      <c r="B166" s="42"/>
-      <c r="C166" s="120"/>
-      <c r="D166" s="120"/>
-      <c r="E166" s="120"/>
-      <c r="F166" s="121" t="n">
+      <c r="AD165" s="51"/>
+      <c r="AE165" s="51"/>
+    </row>
+    <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A166" s="98"/>
+      <c r="B166" s="98"/>
+      <c r="C166" s="99" t="s">
+        <v>148</v>
+      </c>
+      <c r="D166" s="100" t="s">
+        <v>149</v>
+      </c>
+      <c r="E166" s="121" t="s">
+        <v>178</v>
+      </c>
+      <c r="F166" s="122" t="s">
+        <v>269</v>
+      </c>
+      <c r="G166" s="122"/>
+      <c r="H166" s="122"/>
+      <c r="I166" s="122"/>
+      <c r="J166" s="122"/>
+      <c r="K166" s="122"/>
+      <c r="L166" s="122"/>
+      <c r="M166" s="122"/>
+      <c r="N166" s="122"/>
+      <c r="O166" s="122"/>
+      <c r="P166" s="123"/>
+      <c r="Q166" s="123"/>
+      <c r="R166" s="41"/>
+      <c r="S166" s="42"/>
+      <c r="AD166" s="51"/>
+      <c r="AE166" s="51"/>
+    </row>
+    <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A167" s="59"/>
+      <c r="B167" s="59"/>
+      <c r="C167" s="60" t="s">
+        <v>148</v>
+      </c>
+      <c r="D167" s="61" t="s">
+        <v>149</v>
+      </c>
+      <c r="E167" s="115"/>
+      <c r="F167" s="116"/>
+      <c r="G167" s="124"/>
+      <c r="H167" s="124"/>
+      <c r="I167" s="124"/>
+      <c r="J167" s="124"/>
+      <c r="K167" s="124"/>
+      <c r="L167" s="124"/>
+      <c r="M167" s="124"/>
+      <c r="N167" s="124"/>
+      <c r="O167" s="125"/>
+      <c r="P167" s="117"/>
+      <c r="Q167" s="117"/>
+      <c r="R167" s="41"/>
+      <c r="S167" s="42"/>
+      <c r="AD167" s="51"/>
+      <c r="AE167" s="51"/>
+    </row>
+    <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A168" s="98"/>
+      <c r="B168" s="98"/>
+      <c r="C168" s="99" t="s">
+        <v>148</v>
+      </c>
+      <c r="D168" s="100" t="s">
+        <v>149</v>
+      </c>
+      <c r="E168" s="121" t="s">
+        <v>178</v>
+      </c>
+      <c r="F168" s="122" t="s">
+        <v>270</v>
+      </c>
+      <c r="G168" s="122"/>
+      <c r="H168" s="122"/>
+      <c r="I168" s="122"/>
+      <c r="J168" s="122"/>
+      <c r="K168" s="122"/>
+      <c r="L168" s="122"/>
+      <c r="M168" s="122"/>
+      <c r="N168" s="122"/>
+      <c r="O168" s="122"/>
+      <c r="P168" s="123"/>
+      <c r="Q168" s="123"/>
+      <c r="R168" s="41"/>
+      <c r="S168" s="42"/>
+      <c r="AD168" s="51"/>
+      <c r="AE168" s="51"/>
+    </row>
+    <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A169" s="59"/>
+      <c r="B169" s="59"/>
+      <c r="C169" s="60"/>
+      <c r="D169" s="61"/>
+      <c r="E169" s="115"/>
+      <c r="F169" s="116"/>
+      <c r="G169" s="124"/>
+      <c r="H169" s="124"/>
+      <c r="I169" s="124"/>
+      <c r="J169" s="124"/>
+      <c r="K169" s="124"/>
+      <c r="L169" s="124"/>
+      <c r="M169" s="124"/>
+      <c r="N169" s="124"/>
+      <c r="O169" s="125"/>
+      <c r="P169" s="117"/>
+      <c r="Q169" s="117"/>
+      <c r="R169" s="41"/>
+      <c r="S169" s="42"/>
+      <c r="AD169" s="51"/>
+      <c r="AE169" s="51"/>
+    </row>
+    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="41"/>
+      <c r="B170" s="41"/>
+      <c r="C170" s="41"/>
+      <c r="D170" s="41"/>
+      <c r="E170" s="41"/>
+      <c r="F170" s="41"/>
+      <c r="G170" s="41"/>
+      <c r="H170" s="41"/>
+      <c r="I170" s="41"/>
+      <c r="J170" s="41"/>
+      <c r="K170" s="41"/>
+      <c r="L170" s="41"/>
+      <c r="M170" s="41"/>
+      <c r="N170" s="41"/>
+      <c r="O170" s="41"/>
+      <c r="P170" s="41"/>
+      <c r="Q170" s="41"/>
+      <c r="R170" s="41"/>
+      <c r="S170" s="42"/>
+      <c r="Y170" s="51"/>
+      <c r="Z170" s="51"/>
+      <c r="AD170" s="51"/>
+      <c r="AE170" s="51"/>
+    </row>
+    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="42"/>
+      <c r="B171" s="42"/>
+      <c r="C171" s="126"/>
+      <c r="D171" s="126"/>
+      <c r="E171" s="126"/>
+      <c r="F171" s="127" t="n">
         <v>0</v>
       </c>
-      <c r="G166" s="121" t="n">
+      <c r="G171" s="127" t="n">
         <v>1</v>
       </c>
-      <c r="H166" s="121" t="n">
+      <c r="H171" s="127" t="n">
         <v>2</v>
       </c>
-      <c r="I166" s="121" t="n">
+      <c r="I171" s="127" t="n">
         <v>3</v>
       </c>
-      <c r="J166" s="121" t="n">
-        <v>4</v>
-      </c>
-      <c r="K166" s="121" t="n">
-        <v>5</v>
-      </c>
-      <c r="L166" s="121" t="n">
+      <c r="J171" s="127" t="n">
+        <v>4</v>
+      </c>
+      <c r="K171" s="127" t="n">
+        <v>5</v>
+      </c>
+      <c r="L171" s="127" t="n">
         <v>6</v>
       </c>
-      <c r="M166" s="121" t="n">
+      <c r="M171" s="127" t="n">
         <v>7</v>
       </c>
-      <c r="N166" s="121" t="n">
+      <c r="N171" s="127" t="n">
         <v>8</v>
       </c>
-      <c r="O166" s="121" t="n">
+      <c r="O171" s="127" t="n">
         <v>9</v>
       </c>
-      <c r="P166" s="42"/>
-      <c r="Q166" s="42"/>
-      <c r="R166" s="42"/>
-      <c r="S166" s="42"/>
-      <c r="Y166" s="52"/>
-      <c r="Z166" s="52"/>
-      <c r="AD166" s="52"/>
-      <c r="AE166" s="52"/>
-    </row>
-    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Y167" s="52"/>
-      <c r="Z167" s="52"/>
-      <c r="AD167" s="52"/>
-      <c r="AE167" s="52"/>
-    </row>
-    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Y168" s="52"/>
-      <c r="Z168" s="52"/>
-      <c r="AD168" s="52"/>
-      <c r="AE168" s="52"/>
-    </row>
-    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Y169" s="52"/>
-      <c r="Z169" s="52"/>
-      <c r="AD169" s="52"/>
-      <c r="AE169" s="52"/>
-    </row>
-    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Y170" s="52"/>
-      <c r="Z170" s="52"/>
-      <c r="AD170" s="52"/>
-      <c r="AE170" s="52"/>
-    </row>
-    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Y171" s="52"/>
-      <c r="Z171" s="52"/>
-      <c r="AD171" s="52"/>
-      <c r="AE171" s="52"/>
+      <c r="P171" s="42"/>
+      <c r="Q171" s="42"/>
+      <c r="R171" s="42"/>
+      <c r="S171" s="42"/>
+      <c r="Y171" s="51"/>
+      <c r="Z171" s="51"/>
+      <c r="AD171" s="51"/>
+      <c r="AE171" s="51"/>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Y172" s="52"/>
-      <c r="Z172" s="52"/>
-      <c r="AD172" s="52"/>
-      <c r="AE172" s="52"/>
+      <c r="Y172" s="51"/>
+      <c r="Z172" s="51"/>
+      <c r="AD172" s="51"/>
+      <c r="AE172" s="51"/>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Y173" s="52"/>
-      <c r="Z173" s="52"/>
-      <c r="AD173" s="52"/>
-      <c r="AE173" s="52"/>
+      <c r="Y173" s="51"/>
+      <c r="Z173" s="51"/>
+      <c r="AD173" s="51"/>
+      <c r="AE173" s="51"/>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Y174" s="52"/>
-      <c r="Z174" s="52"/>
-      <c r="AD174" s="52"/>
-      <c r="AE174" s="52"/>
+      <c r="Y174" s="51"/>
+      <c r="Z174" s="51"/>
+      <c r="AD174" s="51"/>
+      <c r="AE174" s="51"/>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Y175" s="52"/>
-      <c r="Z175" s="52"/>
-      <c r="AD175" s="52"/>
-      <c r="AE175" s="52"/>
+      <c r="Y175" s="51"/>
+      <c r="Z175" s="51"/>
+      <c r="AD175" s="51"/>
+      <c r="AE175" s="51"/>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Y176" s="52"/>
-      <c r="Z176" s="52"/>
-      <c r="AD176" s="52"/>
-      <c r="AE176" s="52"/>
+      <c r="Y176" s="51"/>
+      <c r="Z176" s="51"/>
+      <c r="AD176" s="51"/>
+      <c r="AE176" s="51"/>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Y177" s="52"/>
-      <c r="Z177" s="52"/>
-      <c r="AD177" s="52"/>
-      <c r="AE177" s="52"/>
+      <c r="Y177" s="51"/>
+      <c r="Z177" s="51"/>
+      <c r="AD177" s="51"/>
+      <c r="AE177" s="51"/>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Y178" s="52"/>
-      <c r="Z178" s="52"/>
-      <c r="AD178" s="52"/>
-      <c r="AE178" s="52"/>
+      <c r="Y178" s="51"/>
+      <c r="Z178" s="51"/>
+      <c r="AD178" s="51"/>
+      <c r="AE178" s="51"/>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Y179" s="52"/>
-      <c r="Z179" s="52"/>
-      <c r="AD179" s="52"/>
-      <c r="AE179" s="52"/>
+      <c r="Y179" s="51"/>
+      <c r="Z179" s="51"/>
+      <c r="AD179" s="51"/>
+      <c r="AE179" s="51"/>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Y180" s="52"/>
-      <c r="Z180" s="52"/>
-      <c r="AD180" s="52"/>
-      <c r="AE180" s="52"/>
+      <c r="Y180" s="51"/>
+      <c r="Z180" s="51"/>
+      <c r="AD180" s="51"/>
+      <c r="AE180" s="51"/>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Y181" s="52"/>
-      <c r="Z181" s="52"/>
-      <c r="AD181" s="52"/>
-      <c r="AE181" s="52"/>
+      <c r="Y181" s="51"/>
+      <c r="Z181" s="51"/>
+      <c r="AD181" s="51"/>
+      <c r="AE181" s="51"/>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Y182" s="52"/>
-      <c r="Z182" s="52"/>
-      <c r="AD182" s="52"/>
-      <c r="AE182" s="52"/>
+      <c r="Y182" s="51"/>
+      <c r="Z182" s="51"/>
+      <c r="AD182" s="51"/>
+      <c r="AE182" s="51"/>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Y183" s="52"/>
-      <c r="Z183" s="52"/>
-      <c r="AD183" s="52"/>
-      <c r="AE183" s="52"/>
+      <c r="Y183" s="51"/>
+      <c r="Z183" s="51"/>
+      <c r="AD183" s="51"/>
+      <c r="AE183" s="51"/>
+    </row>
+    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Y184" s="51"/>
+      <c r="Z184" s="51"/>
+      <c r="AD184" s="51"/>
+      <c r="AE184" s="51"/>
+    </row>
+    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Y185" s="51"/>
+      <c r="Z185" s="51"/>
+      <c r="AD185" s="51"/>
+      <c r="AE185" s="51"/>
+    </row>
+    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Y186" s="51"/>
+      <c r="Z186" s="51"/>
+      <c r="AD186" s="51"/>
+      <c r="AE186" s="51"/>
+    </row>
+    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Y187" s="51"/>
+      <c r="Z187" s="51"/>
+      <c r="AD187" s="51"/>
+      <c r="AE187" s="51"/>
+    </row>
+    <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Y188" s="51"/>
+      <c r="Z188" s="51"/>
+      <c r="AD188" s="51"/>
+      <c r="AE188" s="51"/>
     </row>
   </sheetData>
-  <mergeCells count="87">
+  <mergeCells count="88">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:O1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="F3:O3"/>
-    <mergeCell ref="F6:Q6"/>
-    <mergeCell ref="H8:Q8"/>
-    <mergeCell ref="H9:Q9"/>
-    <mergeCell ref="H10:Q10"/>
-    <mergeCell ref="H13:Q13"/>
-    <mergeCell ref="J14:Q14"/>
-    <mergeCell ref="J15:Q15"/>
-    <mergeCell ref="J16:Q16"/>
-    <mergeCell ref="J17:Q17"/>
-    <mergeCell ref="J18:Q18"/>
-    <mergeCell ref="F22:O22"/>
+    <mergeCell ref="E1:Q1"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="E2:Q2"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:O4"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="F7:O7"/>
+    <mergeCell ref="H9:O9"/>
+    <mergeCell ref="H10:O10"/>
+    <mergeCell ref="H11:O11"/>
+    <mergeCell ref="H14:O14"/>
+    <mergeCell ref="J15:O15"/>
+    <mergeCell ref="J16:O16"/>
+    <mergeCell ref="J17:O17"/>
+    <mergeCell ref="J18:O18"/>
+    <mergeCell ref="J19:O19"/>
     <mergeCell ref="F23:O23"/>
     <mergeCell ref="F24:O24"/>
-    <mergeCell ref="F25:Q25"/>
-    <mergeCell ref="F26:Q26"/>
+    <mergeCell ref="F25:O25"/>
+    <mergeCell ref="F26:O26"/>
     <mergeCell ref="F27:O27"/>
     <mergeCell ref="F28:O28"/>
     <mergeCell ref="F29:O29"/>
     <mergeCell ref="F30:O30"/>
     <mergeCell ref="F31:O31"/>
-    <mergeCell ref="F39:O39"/>
+    <mergeCell ref="F32:O32"/>
     <mergeCell ref="F40:O40"/>
-    <mergeCell ref="F46:O46"/>
+    <mergeCell ref="F41:O41"/>
     <mergeCell ref="F47:O47"/>
-    <mergeCell ref="F53:O53"/>
+    <mergeCell ref="F48:O48"/>
     <mergeCell ref="F54:O54"/>
     <mergeCell ref="F55:O55"/>
     <mergeCell ref="F56:O56"/>
     <mergeCell ref="F57:O57"/>
-    <mergeCell ref="F63:O63"/>
+    <mergeCell ref="F58:O58"/>
     <mergeCell ref="F64:O64"/>
     <mergeCell ref="F65:O65"/>
     <mergeCell ref="F66:O66"/>
-    <mergeCell ref="F73:O73"/>
+    <mergeCell ref="F67:O67"/>
     <mergeCell ref="F74:O74"/>
     <mergeCell ref="F75:O75"/>
     <mergeCell ref="F76:O76"/>
-    <mergeCell ref="F80:O80"/>
+    <mergeCell ref="F77:O77"/>
     <mergeCell ref="F81:O81"/>
     <mergeCell ref="F82:O82"/>
     <mergeCell ref="F83:O83"/>
-    <mergeCell ref="F87:O87"/>
+    <mergeCell ref="F84:O84"/>
     <mergeCell ref="F88:O88"/>
     <mergeCell ref="F89:O89"/>
     <mergeCell ref="F90:O90"/>
-    <mergeCell ref="F96:Q96"/>
+    <mergeCell ref="F91:O91"/>
     <mergeCell ref="F97:O97"/>
-    <mergeCell ref="F115:O115"/>
-    <mergeCell ref="F121:O121"/>
-    <mergeCell ref="F122:O122"/>
-    <mergeCell ref="F123:O123"/>
-    <mergeCell ref="F124:O124"/>
-    <mergeCell ref="F125:O125"/>
+    <mergeCell ref="F98:O98"/>
+    <mergeCell ref="F116:O116"/>
+    <mergeCell ref="F126:O126"/>
     <mergeCell ref="F127:O127"/>
+    <mergeCell ref="F128:O128"/>
     <mergeCell ref="F129:O129"/>
     <mergeCell ref="F130:O130"/>
     <mergeCell ref="F132:O132"/>
     <mergeCell ref="F134:O134"/>
     <mergeCell ref="F135:O135"/>
     <mergeCell ref="F137:O137"/>
-    <mergeCell ref="F138:O138"/>
     <mergeCell ref="F139:O139"/>
-    <mergeCell ref="F141:O141"/>
+    <mergeCell ref="F140:O140"/>
     <mergeCell ref="F142:O142"/>
+    <mergeCell ref="F143:O143"/>
     <mergeCell ref="F144:O144"/>
-    <mergeCell ref="F145:O145"/>
+    <mergeCell ref="F146:O146"/>
     <mergeCell ref="F147:O147"/>
-    <mergeCell ref="F148:O148"/>
+    <mergeCell ref="F149:O149"/>
     <mergeCell ref="F150:O150"/>
-    <mergeCell ref="F151:O151"/>
+    <mergeCell ref="F152:O152"/>
     <mergeCell ref="F153:O153"/>
-    <mergeCell ref="F154:O154"/>
+    <mergeCell ref="F155:O155"/>
     <mergeCell ref="F156:O156"/>
     <mergeCell ref="F158:O158"/>
-    <mergeCell ref="F160:O160"/>
+    <mergeCell ref="F159:O159"/>
     <mergeCell ref="F161:O161"/>
     <mergeCell ref="F163:O163"/>
+    <mergeCell ref="F165:O165"/>
+    <mergeCell ref="F166:O166"/>
+    <mergeCell ref="F168:O168"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -20630,7 +20904,7 @@
   </sheetPr>
   <dimension ref="A1:AC40"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
@@ -20713,11 +20987,11 @@
       <c r="B3" s="43"/>
       <c r="C3" s="44"/>
       <c r="D3" s="44"/>
-      <c r="E3" s="47" t="s">
+      <c r="E3" s="46" t="s">
+        <v>142</v>
+      </c>
+      <c r="F3" s="43" t="s">
         <v>143</v>
-      </c>
-      <c r="F3" s="43" t="s">
-        <v>144</v>
       </c>
       <c r="G3" s="43"/>
       <c r="H3" s="43"/>
@@ -20737,418 +21011,418 @@
         <v>21</v>
       </c>
       <c r="B4" s="50" t="s">
-        <v>264</v>
-      </c>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="51"/>
-      <c r="N4" s="51"/>
-      <c r="O4" s="51"/>
+        <v>271</v>
+      </c>
+      <c r="C4" s="128"/>
+      <c r="D4" s="128"/>
+      <c r="E4" s="128"/>
+      <c r="F4" s="128"/>
+      <c r="G4" s="128"/>
+      <c r="H4" s="128"/>
+      <c r="I4" s="128"/>
+      <c r="J4" s="128"/>
+      <c r="K4" s="128"/>
+      <c r="L4" s="128"/>
+      <c r="M4" s="128"/>
+      <c r="N4" s="128"/>
+      <c r="O4" s="128"/>
       <c r="P4" s="41"/>
       <c r="Q4" s="42"/>
-      <c r="AB4" s="52"/>
-      <c r="AC4" s="52"/>
+      <c r="AB4" s="51"/>
+      <c r="AC4" s="51"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="53"/>
-      <c r="B5" s="53"/>
-      <c r="C5" s="54" t="s">
+      <c r="A5" s="52"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="53" t="s">
         <v>148</v>
       </c>
-      <c r="D5" s="55" t="s">
+      <c r="D5" s="54" t="s">
         <v>149</v>
       </c>
-      <c r="E5" s="56" t="s">
+      <c r="E5" s="55" t="s">
         <v>150</v>
       </c>
-      <c r="F5" s="57" t="s">
-        <v>265</v>
-      </c>
-      <c r="G5" s="58"/>
-      <c r="H5" s="58"/>
-      <c r="I5" s="58"/>
-      <c r="J5" s="58"/>
-      <c r="K5" s="58"/>
-      <c r="L5" s="58"/>
-      <c r="M5" s="58"/>
-      <c r="N5" s="58"/>
-      <c r="O5" s="58"/>
+      <c r="F5" s="56" t="s">
+        <v>272</v>
+      </c>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="57"/>
+      <c r="K5" s="57"/>
+      <c r="L5" s="57"/>
+      <c r="M5" s="57"/>
+      <c r="N5" s="57"/>
+      <c r="O5" s="57"/>
       <c r="P5" s="41"/>
       <c r="Q5" s="42"/>
-      <c r="AB5" s="52"/>
-      <c r="AC5" s="52"/>
+      <c r="AB5" s="51"/>
+      <c r="AC5" s="51"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="53"/>
-      <c r="B6" s="53"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="58"/>
-      <c r="I6" s="58"/>
-      <c r="J6" s="58"/>
-      <c r="K6" s="58"/>
-      <c r="L6" s="58"/>
-      <c r="M6" s="58"/>
-      <c r="N6" s="58"/>
-      <c r="O6" s="58"/>
+      <c r="A6" s="52"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="57"/>
+      <c r="N6" s="57"/>
+      <c r="O6" s="57"/>
       <c r="P6" s="41"/>
       <c r="Q6" s="42"/>
-      <c r="AB6" s="52"/>
-      <c r="AC6" s="52"/>
+      <c r="AB6" s="51"/>
+      <c r="AC6" s="51"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="53"/>
-      <c r="B7" s="53"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="57" t="s">
+      <c r="A7" s="52"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="56" t="s">
         <v>102</v>
       </c>
-      <c r="G7" s="58"/>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
-      <c r="K7" s="58"/>
-      <c r="L7" s="58"/>
-      <c r="M7" s="58"/>
-      <c r="N7" s="58"/>
-      <c r="O7" s="58"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
+      <c r="K7" s="57"/>
+      <c r="L7" s="57"/>
+      <c r="M7" s="57"/>
+      <c r="N7" s="57"/>
+      <c r="O7" s="57"/>
       <c r="P7" s="41"/>
       <c r="Q7" s="42"/>
-      <c r="AB7" s="52"/>
-      <c r="AC7" s="52"/>
+      <c r="AB7" s="51"/>
+      <c r="AC7" s="51"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="53"/>
-      <c r="B8" s="53"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="57" t="s">
+      <c r="A8" s="52"/>
+      <c r="B8" s="52"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="56" t="s">
         <v>103</v>
       </c>
-      <c r="G8" s="58"/>
-      <c r="H8" s="58"/>
-      <c r="I8" s="58"/>
-      <c r="J8" s="58"/>
-      <c r="K8" s="58"/>
-      <c r="L8" s="58"/>
-      <c r="M8" s="58"/>
-      <c r="N8" s="58"/>
-      <c r="O8" s="58"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="57"/>
+      <c r="M8" s="57"/>
+      <c r="N8" s="57"/>
+      <c r="O8" s="57"/>
       <c r="P8" s="41"/>
       <c r="Q8" s="42"/>
-      <c r="AB8" s="52"/>
-      <c r="AC8" s="52"/>
+      <c r="AB8" s="51"/>
+      <c r="AC8" s="51"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="53"/>
-      <c r="B9" s="53"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="57" t="s">
+      <c r="A9" s="52"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="56" t="s">
         <v>104</v>
       </c>
-      <c r="G9" s="58"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="58"/>
-      <c r="L9" s="58"/>
-      <c r="M9" s="58"/>
-      <c r="N9" s="58"/>
-      <c r="O9" s="58"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="57"/>
+      <c r="L9" s="57"/>
+      <c r="M9" s="57"/>
+      <c r="N9" s="57"/>
+      <c r="O9" s="57"/>
       <c r="P9" s="41"/>
       <c r="Q9" s="42"/>
-      <c r="AB9" s="52"/>
-      <c r="AC9" s="52"/>
+      <c r="AB9" s="51"/>
+      <c r="AC9" s="51"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="53"/>
-      <c r="B10" s="53"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="57" t="s">
+      <c r="A10" s="52"/>
+      <c r="B10" s="52"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="56" t="s">
         <v>105</v>
       </c>
-      <c r="G10" s="58"/>
-      <c r="H10" s="58"/>
-      <c r="I10" s="58"/>
-      <c r="J10" s="58"/>
-      <c r="K10" s="58"/>
-      <c r="L10" s="58"/>
-      <c r="M10" s="58"/>
-      <c r="N10" s="58"/>
-      <c r="O10" s="58"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="57"/>
+      <c r="K10" s="57"/>
+      <c r="L10" s="57"/>
+      <c r="M10" s="57"/>
+      <c r="N10" s="57"/>
+      <c r="O10" s="57"/>
       <c r="P10" s="41"/>
       <c r="Q10" s="42"/>
-      <c r="AB10" s="52"/>
-      <c r="AC10" s="52"/>
+      <c r="AB10" s="51"/>
+      <c r="AC10" s="51"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="53"/>
-      <c r="B11" s="53"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="57" t="s">
+      <c r="A11" s="52"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="56" t="s">
         <v>121</v>
       </c>
-      <c r="G11" s="58"/>
-      <c r="H11" s="58"/>
-      <c r="I11" s="58"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="58"/>
-      <c r="L11" s="58"/>
-      <c r="M11" s="58"/>
-      <c r="N11" s="58"/>
-      <c r="O11" s="58"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="57"/>
+      <c r="O11" s="57"/>
       <c r="P11" s="41"/>
       <c r="Q11" s="42"/>
-      <c r="AB11" s="52"/>
-      <c r="AC11" s="52"/>
+      <c r="AB11" s="51"/>
+      <c r="AC11" s="51"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="53"/>
-      <c r="B12" s="53"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="58"/>
-      <c r="I12" s="58"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="58"/>
-      <c r="L12" s="58"/>
-      <c r="M12" s="58"/>
-      <c r="N12" s="58"/>
-      <c r="O12" s="58"/>
+      <c r="A12" s="52"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="57"/>
+      <c r="L12" s="57"/>
+      <c r="M12" s="57"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="57"/>
       <c r="P12" s="41"/>
       <c r="Q12" s="42"/>
-      <c r="AB12" s="52"/>
-      <c r="AC12" s="52"/>
+      <c r="AB12" s="51"/>
+      <c r="AC12" s="51"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="53"/>
-      <c r="B13" s="53"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="57" t="s">
+      <c r="A13" s="52"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="56" t="s">
         <v>102</v>
       </c>
-      <c r="G13" s="58"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="58"/>
-      <c r="K13" s="58"/>
-      <c r="L13" s="58"/>
-      <c r="M13" s="58"/>
-      <c r="N13" s="58"/>
-      <c r="O13" s="58"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="57"/>
+      <c r="K13" s="57"/>
+      <c r="L13" s="57"/>
+      <c r="M13" s="57"/>
+      <c r="N13" s="57"/>
+      <c r="O13" s="57"/>
       <c r="P13" s="41"/>
       <c r="Q13" s="42"/>
-      <c r="AB13" s="52"/>
-      <c r="AC13" s="52"/>
+      <c r="AB13" s="51"/>
+      <c r="AC13" s="51"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="53"/>
-      <c r="B14" s="53"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="57" t="s">
-        <v>266</v>
-      </c>
-      <c r="G14" s="58"/>
-      <c r="H14" s="58"/>
-      <c r="I14" s="58"/>
-      <c r="J14" s="58"/>
-      <c r="K14" s="58"/>
-      <c r="L14" s="58"/>
-      <c r="M14" s="58"/>
-      <c r="N14" s="58"/>
-      <c r="O14" s="58"/>
+      <c r="A14" s="52"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="56" t="s">
+        <v>273</v>
+      </c>
+      <c r="G14" s="57"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="57"/>
+      <c r="L14" s="57"/>
+      <c r="M14" s="57"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="57"/>
       <c r="P14" s="41"/>
       <c r="Q14" s="42"/>
-      <c r="AB14" s="52"/>
-      <c r="AC14" s="52"/>
+      <c r="AB14" s="51"/>
+      <c r="AC14" s="51"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="53"/>
-      <c r="B15" s="53"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="57" t="s">
-        <v>267</v>
-      </c>
-      <c r="G15" s="58"/>
-      <c r="H15" s="58"/>
-      <c r="I15" s="58"/>
-      <c r="J15" s="58"/>
-      <c r="K15" s="58"/>
-      <c r="L15" s="58"/>
-      <c r="M15" s="58"/>
-      <c r="N15" s="58"/>
-      <c r="O15" s="58"/>
+      <c r="A15" s="52"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="56" t="s">
+        <v>274</v>
+      </c>
+      <c r="G15" s="57"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="57"/>
+      <c r="L15" s="57"/>
+      <c r="M15" s="57"/>
+      <c r="N15" s="57"/>
+      <c r="O15" s="57"/>
       <c r="P15" s="41"/>
       <c r="Q15" s="42"/>
-      <c r="AB15" s="52"/>
-      <c r="AC15" s="52"/>
+      <c r="AB15" s="51"/>
+      <c r="AC15" s="51"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="53"/>
-      <c r="B16" s="53"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="57" t="s">
+      <c r="A16" s="52"/>
+      <c r="B16" s="52"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="56" t="s">
         <v>103</v>
       </c>
-      <c r="G16" s="58"/>
-      <c r="H16" s="58"/>
-      <c r="I16" s="58"/>
-      <c r="J16" s="58"/>
-      <c r="K16" s="58"/>
-      <c r="L16" s="58"/>
-      <c r="M16" s="58"/>
-      <c r="N16" s="58"/>
-      <c r="O16" s="58"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="57"/>
+      <c r="M16" s="57"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="57"/>
       <c r="P16" s="41"/>
       <c r="Q16" s="42"/>
-      <c r="AB16" s="52"/>
-      <c r="AC16" s="52"/>
+      <c r="AB16" s="51"/>
+      <c r="AC16" s="51"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="53"/>
-      <c r="B17" s="53"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="57" t="s">
+      <c r="A17" s="52"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="56" t="s">
         <v>104</v>
       </c>
-      <c r="G17" s="58"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="58"/>
-      <c r="J17" s="58"/>
-      <c r="K17" s="58"/>
-      <c r="L17" s="58"/>
-      <c r="M17" s="58"/>
-      <c r="N17" s="58"/>
-      <c r="O17" s="58"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="57"/>
+      <c r="M17" s="57"/>
+      <c r="N17" s="57"/>
+      <c r="O17" s="57"/>
       <c r="P17" s="41"/>
       <c r="Q17" s="42"/>
-      <c r="AB17" s="52"/>
-      <c r="AC17" s="52"/>
+      <c r="AB17" s="51"/>
+      <c r="AC17" s="51"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="53"/>
-      <c r="B18" s="53"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="57" t="s">
-        <v>268</v>
-      </c>
-      <c r="G18" s="58"/>
-      <c r="H18" s="58"/>
-      <c r="I18" s="58"/>
-      <c r="J18" s="58"/>
-      <c r="K18" s="58"/>
-      <c r="L18" s="58"/>
-      <c r="M18" s="58"/>
-      <c r="N18" s="58"/>
-      <c r="O18" s="58"/>
+      <c r="A18" s="52"/>
+      <c r="B18" s="52"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="56" t="s">
+        <v>275</v>
+      </c>
+      <c r="G18" s="57"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="57"/>
+      <c r="K18" s="57"/>
+      <c r="L18" s="57"/>
+      <c r="M18" s="57"/>
+      <c r="N18" s="57"/>
+      <c r="O18" s="57"/>
       <c r="P18" s="41"/>
       <c r="Q18" s="42"/>
-      <c r="AB18" s="52"/>
-      <c r="AC18" s="52"/>
+      <c r="AB18" s="51"/>
+      <c r="AC18" s="51"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="53"/>
-      <c r="B19" s="53"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="57" t="s">
+      <c r="A19" s="52"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="56" t="s">
         <v>105</v>
       </c>
-      <c r="G19" s="58"/>
-      <c r="H19" s="58"/>
-      <c r="I19" s="58"/>
-      <c r="J19" s="58"/>
-      <c r="K19" s="58"/>
-      <c r="L19" s="58"/>
-      <c r="M19" s="58"/>
-      <c r="N19" s="58"/>
-      <c r="O19" s="58"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="57"/>
+      <c r="K19" s="57"/>
+      <c r="L19" s="57"/>
+      <c r="M19" s="57"/>
+      <c r="N19" s="57"/>
+      <c r="O19" s="57"/>
       <c r="P19" s="41"/>
       <c r="Q19" s="42"/>
-      <c r="AB19" s="52"/>
-      <c r="AC19" s="52"/>
+      <c r="AB19" s="51"/>
+      <c r="AC19" s="51"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="53"/>
-      <c r="B20" s="53"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="57" t="s">
+      <c r="A20" s="52"/>
+      <c r="B20" s="52"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="56" t="s">
         <v>121</v>
       </c>
-      <c r="G20" s="58"/>
-      <c r="H20" s="58"/>
-      <c r="I20" s="58"/>
-      <c r="J20" s="58"/>
-      <c r="K20" s="58"/>
-      <c r="L20" s="58"/>
-      <c r="M20" s="58"/>
-      <c r="N20" s="58"/>
-      <c r="O20" s="58"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="57"/>
+      <c r="K20" s="57"/>
+      <c r="L20" s="57"/>
+      <c r="M20" s="57"/>
+      <c r="N20" s="57"/>
+      <c r="O20" s="57"/>
       <c r="P20" s="41"/>
       <c r="Q20" s="42"/>
-      <c r="AB20" s="52"/>
-      <c r="AC20" s="52"/>
+      <c r="AB20" s="51"/>
+      <c r="AC20" s="51"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="53"/>
-      <c r="B21" s="53"/>
-      <c r="C21" s="54"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="56"/>
-      <c r="F21" s="57" t="s">
+      <c r="A21" s="52"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="56" t="s">
         <v>122</v>
       </c>
-      <c r="G21" s="58"/>
-      <c r="H21" s="58"/>
-      <c r="I21" s="58"/>
-      <c r="J21" s="58"/>
-      <c r="K21" s="58"/>
-      <c r="L21" s="58"/>
-      <c r="M21" s="58"/>
-      <c r="N21" s="58"/>
-      <c r="O21" s="58"/>
+      <c r="G21" s="57"/>
+      <c r="H21" s="57"/>
+      <c r="I21" s="57"/>
+      <c r="J21" s="57"/>
+      <c r="K21" s="57"/>
+      <c r="L21" s="57"/>
+      <c r="M21" s="57"/>
+      <c r="N21" s="57"/>
+      <c r="O21" s="57"/>
       <c r="P21" s="41"/>
       <c r="Q21" s="42"/>
-      <c r="AB21" s="52"/>
-      <c r="AC21" s="52"/>
+      <c r="AB21" s="51"/>
+      <c r="AC21" s="51"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="41"/>
@@ -21168,155 +21442,155 @@
       <c r="O22" s="41"/>
       <c r="P22" s="41"/>
       <c r="Q22" s="42"/>
-      <c r="W22" s="52"/>
-      <c r="X22" s="52"/>
-      <c r="AB22" s="52"/>
-      <c r="AC22" s="52"/>
+      <c r="W22" s="51"/>
+      <c r="X22" s="51"/>
+      <c r="AB22" s="51"/>
+      <c r="AC22" s="51"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="42"/>
       <c r="B23" s="42"/>
-      <c r="C23" s="120"/>
-      <c r="D23" s="120"/>
-      <c r="E23" s="120"/>
-      <c r="F23" s="121" t="n">
+      <c r="C23" s="126"/>
+      <c r="D23" s="126"/>
+      <c r="E23" s="126"/>
+      <c r="F23" s="127" t="n">
         <v>0</v>
       </c>
-      <c r="G23" s="121" t="n">
+      <c r="G23" s="127" t="n">
         <v>1</v>
       </c>
-      <c r="H23" s="121" t="n">
+      <c r="H23" s="127" t="n">
         <v>2</v>
       </c>
-      <c r="I23" s="121" t="n">
+      <c r="I23" s="127" t="n">
         <v>3</v>
       </c>
-      <c r="J23" s="121" t="n">
-        <v>4</v>
-      </c>
-      <c r="K23" s="121" t="n">
-        <v>5</v>
-      </c>
-      <c r="L23" s="121" t="n">
+      <c r="J23" s="127" t="n">
+        <v>4</v>
+      </c>
+      <c r="K23" s="127" t="n">
+        <v>5</v>
+      </c>
+      <c r="L23" s="127" t="n">
         <v>6</v>
       </c>
-      <c r="M23" s="121" t="n">
+      <c r="M23" s="127" t="n">
         <v>7</v>
       </c>
-      <c r="N23" s="121" t="n">
+      <c r="N23" s="127" t="n">
         <v>8</v>
       </c>
-      <c r="O23" s="121" t="n">
+      <c r="O23" s="127" t="n">
         <v>9</v>
       </c>
       <c r="P23" s="42"/>
       <c r="Q23" s="42"/>
-      <c r="W23" s="52"/>
-      <c r="X23" s="52"/>
-      <c r="AB23" s="52"/>
-      <c r="AC23" s="52"/>
+      <c r="W23" s="51"/>
+      <c r="X23" s="51"/>
+      <c r="AB23" s="51"/>
+      <c r="AC23" s="51"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W24" s="52"/>
-      <c r="X24" s="52"/>
-      <c r="AB24" s="52"/>
-      <c r="AC24" s="52"/>
+      <c r="W24" s="51"/>
+      <c r="X24" s="51"/>
+      <c r="AB24" s="51"/>
+      <c r="AC24" s="51"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W25" s="52"/>
-      <c r="X25" s="52"/>
-      <c r="AB25" s="52"/>
-      <c r="AC25" s="52"/>
+      <c r="W25" s="51"/>
+      <c r="X25" s="51"/>
+      <c r="AB25" s="51"/>
+      <c r="AC25" s="51"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W26" s="52"/>
-      <c r="X26" s="52"/>
-      <c r="AB26" s="52"/>
-      <c r="AC26" s="52"/>
+      <c r="W26" s="51"/>
+      <c r="X26" s="51"/>
+      <c r="AB26" s="51"/>
+      <c r="AC26" s="51"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W27" s="52"/>
-      <c r="X27" s="52"/>
-      <c r="AB27" s="52"/>
-      <c r="AC27" s="52"/>
+      <c r="W27" s="51"/>
+      <c r="X27" s="51"/>
+      <c r="AB27" s="51"/>
+      <c r="AC27" s="51"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W28" s="52"/>
-      <c r="X28" s="52"/>
-      <c r="AB28" s="52"/>
-      <c r="AC28" s="52"/>
+      <c r="W28" s="51"/>
+      <c r="X28" s="51"/>
+      <c r="AB28" s="51"/>
+      <c r="AC28" s="51"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W29" s="52"/>
-      <c r="X29" s="52"/>
-      <c r="AB29" s="52"/>
-      <c r="AC29" s="52"/>
+      <c r="W29" s="51"/>
+      <c r="X29" s="51"/>
+      <c r="AB29" s="51"/>
+      <c r="AC29" s="51"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W30" s="52"/>
-      <c r="X30" s="52"/>
-      <c r="AB30" s="52"/>
-      <c r="AC30" s="52"/>
+      <c r="W30" s="51"/>
+      <c r="X30" s="51"/>
+      <c r="AB30" s="51"/>
+      <c r="AC30" s="51"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W31" s="52"/>
-      <c r="X31" s="52"/>
-      <c r="AB31" s="52"/>
-      <c r="AC31" s="52"/>
+      <c r="W31" s="51"/>
+      <c r="X31" s="51"/>
+      <c r="AB31" s="51"/>
+      <c r="AC31" s="51"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W32" s="52"/>
-      <c r="X32" s="52"/>
-      <c r="AB32" s="52"/>
-      <c r="AC32" s="52"/>
+      <c r="W32" s="51"/>
+      <c r="X32" s="51"/>
+      <c r="AB32" s="51"/>
+      <c r="AC32" s="51"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W33" s="52"/>
-      <c r="X33" s="52"/>
-      <c r="AB33" s="52"/>
-      <c r="AC33" s="52"/>
+      <c r="W33" s="51"/>
+      <c r="X33" s="51"/>
+      <c r="AB33" s="51"/>
+      <c r="AC33" s="51"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W34" s="52"/>
-      <c r="X34" s="52"/>
-      <c r="AB34" s="52"/>
-      <c r="AC34" s="52"/>
+      <c r="W34" s="51"/>
+      <c r="X34" s="51"/>
+      <c r="AB34" s="51"/>
+      <c r="AC34" s="51"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W35" s="52"/>
-      <c r="X35" s="52"/>
-      <c r="AB35" s="52"/>
-      <c r="AC35" s="52"/>
+      <c r="W35" s="51"/>
+      <c r="X35" s="51"/>
+      <c r="AB35" s="51"/>
+      <c r="AC35" s="51"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W36" s="52"/>
-      <c r="X36" s="52"/>
-      <c r="AB36" s="52"/>
-      <c r="AC36" s="52"/>
+      <c r="W36" s="51"/>
+      <c r="X36" s="51"/>
+      <c r="AB36" s="51"/>
+      <c r="AC36" s="51"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W37" s="52"/>
-      <c r="X37" s="52"/>
-      <c r="AB37" s="52"/>
-      <c r="AC37" s="52"/>
+      <c r="W37" s="51"/>
+      <c r="X37" s="51"/>
+      <c r="AB37" s="51"/>
+      <c r="AC37" s="51"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W38" s="52"/>
-      <c r="X38" s="52"/>
-      <c r="AB38" s="52"/>
-      <c r="AC38" s="52"/>
+      <c r="W38" s="51"/>
+      <c r="X38" s="51"/>
+      <c r="AB38" s="51"/>
+      <c r="AC38" s="51"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W39" s="52"/>
-      <c r="X39" s="52"/>
-      <c r="AB39" s="52"/>
-      <c r="AC39" s="52"/>
+      <c r="W39" s="51"/>
+      <c r="X39" s="51"/>
+      <c r="AB39" s="51"/>
+      <c r="AC39" s="51"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W40" s="52"/>
-      <c r="X40" s="52"/>
-      <c r="AB40" s="52"/>
-      <c r="AC40" s="52"/>
+      <c r="W40" s="51"/>
+      <c r="X40" s="51"/>
+      <c r="AB40" s="51"/>
+      <c r="AC40" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/designment/mvc-framework-document.xlsx
+++ b/designment/mvc-framework-document.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="238">
   <si>
     <t xml:space="preserve">fs</t>
   </si>
@@ -498,27 +498,217 @@
     <t xml:space="preserve">Dynamic Event Target (DET) Guide</t>
   </si>
   <si>
-    <t xml:space="preserve">Dynamic Event Target (DET) ventilates Object, Array, and Map Modifier Functions  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">- DET Object
-- DET Array
-- DET Map</t>
+    <t xml:space="preserve">Dynamic Event Target (DET) ventilates Object, Array, and Map Property Modifier Functions  </t>
   </si>
   <si>
     <t xml:space="preserve">DET Object Guide</t>
   </si>
   <si>
-    <t xml:space="preserve">DET Object</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dynamic Event Target (DET) ventilates Object Modifier Functions</t>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="FreeMono"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Dynamic Event Target (</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="FreeMono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">DET)</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="FreeMono"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Object</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Dynamic Event Target (DET) ventilates Object Property Modifier Functions: </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="FreeMono"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">- **6** Object Property Modifier Functions  
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="FreeMono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">- **8** Object Property Modifier Function Event Emissions  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="FreeMono"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1. **</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="FreeMono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">Object Assign**
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="FreeMono"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">   1. assignSourceProperty
+   2. assignSource
+   3. assign
+2. **</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="FreeMono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">Object Define Properties**
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="FreeMono"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">   1. defineProperties
+3. **</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="FreeMono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">Object Define Property**
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="FreeMono"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">   1. defineProperty
+4. **</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="FreeMono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">Object Freeze**
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="FreeMono"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">   1. freeze
+5. **</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="FreeMono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">Object Seal**
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="FreeMono"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">   1. seal
+6. **</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="FreeMono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">Object Set Prototype**
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="FreeMono"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">   1. setPrototypeOf</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">DET Object Instantiation</t>
   </si>
   <si>
     <t xml:space="preserve">Object Creation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">####</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New DET Object</t>
   </si>
   <si>
     <t xml:space="preserve">```
@@ -543,9 +733,6 @@
     <t xml:space="preserve">Object Event Listener Signment</t>
   </si>
   <si>
-    <t xml:space="preserve">####</t>
-  </si>
-  <si>
     <t xml:space="preserve">Add Event Listener</t>
   </si>
   <si>
@@ -570,44 +757,6 @@
   </si>
   <si>
     <t xml:space="preserve">DET Object Ventilation</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="FreeMono"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">**6** Object Property Modifier Functions  
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="FreeMono"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">**8** Object Property Modifier Function Event Emissions  </t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Object Assign
-   1. assignSourceProperty
-   2. assignSource
-   3. assign
-2. Object Define Properties
-   1. defineProperties
-3. Object Define Property
-   1.defineProperty
-4. Object Freeze
-   1. freeze
-5. Object Seal
-   1. seal
-6. Object Set Prototype
-   1. setPrototypeOf</t>
   </si>
   <si>
     <t xml:space="preserve">1. Object Assign</t>
@@ -1219,6 +1368,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF8D6E63"/>
+        <bgColor rgb="FF757575"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD81B60"/>
+        <bgColor rgb="FFC2185B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBCAAA4"/>
+        <bgColor rgb="FFB7B3B2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEC407A"/>
+        <bgColor rgb="FFD81B60"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFD7CCC8"/>
         <bgColor rgb="FFE1BEE7"/>
       </patternFill>
@@ -1231,32 +1404,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF8D6E63"/>
-        <bgColor rgb="FF757575"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD81B60"/>
-        <bgColor rgb="FFC2185B"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFEFEBE9"/>
         <bgColor rgb="FFEDE7F6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFBCAAA4"/>
-        <bgColor rgb="FFB7B3B2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEC407A"/>
-        <bgColor rgb="FFD81B60"/>
       </patternFill>
     </fill>
     <fill>
@@ -1468,7 +1617,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="105">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1745,7 +1894,7 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="33" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="33" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1785,28 +1934,24 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="36" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="40" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="40" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="40" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="36" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="19" fillId="40" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="33" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="40" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="41" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="41" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="41" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="20" fillId="24" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -2090,7 +2235,7 @@
   </sheetPr>
   <dimension ref="A1:Z244"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="L257" activeCellId="0" sqref="L257"/>
     </sheetView>
   </sheetViews>
@@ -14395,8 +14540,8 @@
   </sheetPr>
   <dimension ref="A1:R135"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D34" activeCellId="0" sqref="D34"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A35" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D37" activeCellId="0" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
@@ -14702,40 +14847,40 @@
       <c r="Q24" s="50"/>
       <c r="R24" s="50"/>
     </row>
-    <row r="25" customFormat="false" ht="32.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="54"/>
-      <c r="B25" s="54"/>
-      <c r="C25" s="68"/>
-      <c r="D25" s="69" t="s">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="48" t="n">
+        <f aca="false">VINE_Documents!$A$17</f>
+        <v>13</v>
+      </c>
+      <c r="B25" s="49" t="s">
         <v>153</v>
       </c>
+      <c r="C25" s="49"/>
+      <c r="D25" s="49"/>
       <c r="E25" s="43"/>
       <c r="F25" s="44"/>
       <c r="Q25" s="50"/>
       <c r="R25" s="50"/>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="48" t="n">
-        <f aca="false">VINE_Documents!$A$17</f>
-        <v>13</v>
-      </c>
-      <c r="B26" s="49" t="s">
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="66"/>
+      <c r="B26" s="66"/>
+      <c r="C26" s="52" t="s">
+        <v>139</v>
+      </c>
+      <c r="D26" s="67" t="s">
         <v>154</v>
       </c>
-      <c r="C26" s="49"/>
-      <c r="D26" s="49"/>
       <c r="E26" s="43"/>
       <c r="F26" s="44"/>
       <c r="Q26" s="50"/>
       <c r="R26" s="50"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="66"/>
-      <c r="B27" s="66"/>
-      <c r="C27" s="52" t="s">
-        <v>139</v>
-      </c>
-      <c r="D27" s="67" t="s">
+      <c r="A27" s="54"/>
+      <c r="B27" s="54"/>
+      <c r="C27" s="65"/>
+      <c r="D27" s="56" t="s">
         <v>155</v>
       </c>
       <c r="E27" s="43"/>
@@ -14743,7 +14888,7 @@
       <c r="Q27" s="50"/>
       <c r="R27" s="50"/>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="21.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="54"/>
       <c r="B28" s="54"/>
       <c r="C28" s="65"/>
@@ -14755,13 +14900,11 @@
       <c r="Q28" s="50"/>
       <c r="R28" s="50"/>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="70"/>
-      <c r="B29" s="70"/>
-      <c r="C29" s="61" t="s">
-        <v>142</v>
-      </c>
-      <c r="D29" s="71" t="s">
+    <row r="29" customFormat="false" ht="141.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="54"/>
+      <c r="B29" s="54"/>
+      <c r="C29" s="68"/>
+      <c r="D29" s="69" t="s">
         <v>157</v>
       </c>
       <c r="E29" s="43"/>
@@ -14773,7 +14916,7 @@
       <c r="A30" s="70"/>
       <c r="B30" s="70"/>
       <c r="C30" s="61" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D30" s="71" t="s">
         <v>158</v>
@@ -14783,10 +14926,12 @@
       <c r="Q30" s="50"/>
       <c r="R30" s="50"/>
     </row>
-    <row r="31" customFormat="false" ht="175.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="72"/>
       <c r="B31" s="72"/>
-      <c r="C31" s="73"/>
+      <c r="C31" s="73" t="s">
+        <v>148</v>
+      </c>
       <c r="D31" s="74" t="s">
         <v>159</v>
       </c>
@@ -14799,23 +14944,21 @@
       <c r="A32" s="75"/>
       <c r="B32" s="75"/>
       <c r="C32" s="76" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="D32" s="77" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E32" s="43"/>
       <c r="F32" s="44"/>
       <c r="Q32" s="50"/>
       <c r="R32" s="50"/>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="175.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="78"/>
       <c r="B33" s="78"/>
-      <c r="C33" s="65" t="s">
-        <v>161</v>
-      </c>
-      <c r="D33" s="56" t="s">
+      <c r="C33" s="79"/>
+      <c r="D33" s="80" t="s">
         <v>162</v>
       </c>
       <c r="E33" s="43"/>
@@ -14823,10 +14966,12 @@
       <c r="Q33" s="50"/>
       <c r="R33" s="50"/>
     </row>
-    <row r="34" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="72"/>
       <c r="B34" s="72"/>
-      <c r="C34" s="73"/>
+      <c r="C34" s="73" t="s">
+        <v>148</v>
+      </c>
       <c r="D34" s="74" t="s">
         <v>163</v>
       </c>
@@ -14836,12 +14981,12 @@
       <c r="R34" s="50"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="78"/>
-      <c r="B35" s="78"/>
-      <c r="C35" s="65" t="s">
-        <v>161</v>
-      </c>
-      <c r="D35" s="56" t="s">
+      <c r="A35" s="75"/>
+      <c r="B35" s="75"/>
+      <c r="C35" s="76" t="s">
+        <v>160</v>
+      </c>
+      <c r="D35" s="77" t="s">
         <v>164</v>
       </c>
       <c r="E35" s="43"/>
@@ -14849,9 +14994,9 @@
       <c r="Q35" s="50"/>
       <c r="R35" s="50"/>
     </row>
-    <row r="36" customFormat="false" ht="51.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="72"/>
-      <c r="B36" s="72"/>
+    <row r="36" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="78"/>
+      <c r="B36" s="78"/>
       <c r="C36" s="79"/>
       <c r="D36" s="80" t="s">
         <v>165</v>
@@ -14862,12 +15007,12 @@
       <c r="R36" s="50"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="70"/>
-      <c r="B37" s="70"/>
-      <c r="C37" s="61" t="s">
-        <v>142</v>
-      </c>
-      <c r="D37" s="71" t="s">
+      <c r="A37" s="75"/>
+      <c r="B37" s="75"/>
+      <c r="C37" s="76" t="s">
+        <v>160</v>
+      </c>
+      <c r="D37" s="77" t="s">
         <v>166</v>
       </c>
       <c r="E37" s="43"/>
@@ -14875,11 +15020,11 @@
       <c r="Q37" s="50"/>
       <c r="R37" s="50"/>
     </row>
-    <row r="38" customFormat="false" ht="21.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="54"/>
-      <c r="B38" s="54"/>
-      <c r="C38" s="65"/>
-      <c r="D38" s="56" t="s">
+    <row r="38" customFormat="false" ht="51.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="78"/>
+      <c r="B38" s="78"/>
+      <c r="C38" s="81"/>
+      <c r="D38" s="82" t="s">
         <v>167</v>
       </c>
       <c r="E38" s="43"/>
@@ -14887,11 +15032,13 @@
       <c r="Q38" s="50"/>
       <c r="R38" s="50"/>
     </row>
-    <row r="39" customFormat="false" ht="144.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="54"/>
-      <c r="B39" s="54"/>
-      <c r="C39" s="68"/>
-      <c r="D39" s="81" t="s">
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="70"/>
+      <c r="B39" s="70"/>
+      <c r="C39" s="61" t="s">
+        <v>142</v>
+      </c>
+      <c r="D39" s="71" t="s">
         <v>168</v>
       </c>
       <c r="E39" s="43"/>
@@ -14900,12 +15047,12 @@
       <c r="R39" s="50"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="75"/>
-      <c r="B40" s="75"/>
-      <c r="C40" s="76" t="s">
+      <c r="A40" s="72"/>
+      <c r="B40" s="72"/>
+      <c r="C40" s="73" t="s">
         <v>148</v>
       </c>
-      <c r="D40" s="77" t="s">
+      <c r="D40" s="74" t="s">
         <v>169</v>
       </c>
       <c r="E40" s="43"/>
@@ -14913,13 +15060,13 @@
       <c r="Q40" s="50"/>
       <c r="R40" s="50"/>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A41" s="82"/>
-      <c r="B41" s="82"/>
-      <c r="C41" s="83" t="s">
-        <v>161</v>
-      </c>
-      <c r="D41" s="84" t="s">
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A41" s="75"/>
+      <c r="B41" s="75"/>
+      <c r="C41" s="76" t="s">
+        <v>160</v>
+      </c>
+      <c r="D41" s="77" t="s">
         <v>170</v>
       </c>
       <c r="E41" s="43"/>
@@ -14927,7 +15074,7 @@
       <c r="Q41" s="50"/>
       <c r="R41" s="50"/>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A42" s="54"/>
       <c r="B42" s="54"/>
       <c r="C42" s="65"/>
@@ -14939,11 +15086,11 @@
       <c r="Q42" s="50"/>
       <c r="R42" s="50"/>
     </row>
-    <row r="43" customFormat="false" ht="83.25" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="43" customFormat="false" ht="83.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A43" s="54"/>
       <c r="B43" s="54"/>
-      <c r="C43" s="73"/>
-      <c r="D43" s="80" t="s">
+      <c r="C43" s="79"/>
+      <c r="D43" s="82" t="s">
         <v>172</v>
       </c>
       <c r="E43" s="43"/>
@@ -14951,13 +15098,13 @@
       <c r="Q43" s="50"/>
       <c r="R43" s="50"/>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A44" s="82"/>
-      <c r="B44" s="82"/>
-      <c r="C44" s="83" t="s">
-        <v>161</v>
-      </c>
-      <c r="D44" s="84" t="s">
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A44" s="75"/>
+      <c r="B44" s="75"/>
+      <c r="C44" s="76" t="s">
+        <v>160</v>
+      </c>
+      <c r="D44" s="77" t="s">
         <v>173</v>
       </c>
       <c r="E44" s="43"/>
@@ -14965,7 +15112,7 @@
       <c r="Q44" s="50"/>
       <c r="R44" s="50"/>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A45" s="54"/>
       <c r="B45" s="54"/>
       <c r="C45" s="65"/>
@@ -14977,11 +15124,11 @@
       <c r="Q45" s="50"/>
       <c r="R45" s="50"/>
     </row>
-    <row r="46" customFormat="false" ht="52.6" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="46" customFormat="false" ht="52.6" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A46" s="54"/>
       <c r="B46" s="54"/>
-      <c r="C46" s="73"/>
-      <c r="D46" s="80" t="s">
+      <c r="C46" s="79"/>
+      <c r="D46" s="82" t="s">
         <v>175</v>
       </c>
       <c r="E46" s="43"/>
@@ -14989,13 +15136,13 @@
       <c r="Q46" s="50"/>
       <c r="R46" s="50"/>
     </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A47" s="82"/>
-      <c r="B47" s="82"/>
-      <c r="C47" s="83" t="s">
-        <v>161</v>
-      </c>
-      <c r="D47" s="84" t="s">
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A47" s="75"/>
+      <c r="B47" s="75"/>
+      <c r="C47" s="76" t="s">
+        <v>160</v>
+      </c>
+      <c r="D47" s="77" t="s">
         <v>176</v>
       </c>
       <c r="E47" s="43"/>
@@ -15003,7 +15150,7 @@
       <c r="Q47" s="50"/>
       <c r="R47" s="50"/>
     </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A48" s="54"/>
       <c r="B48" s="54"/>
       <c r="C48" s="65"/>
@@ -15015,11 +15162,11 @@
       <c r="Q48" s="50"/>
       <c r="R48" s="50"/>
     </row>
-    <row r="49" customFormat="false" ht="52.6" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="49" customFormat="false" ht="52.6" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A49" s="54"/>
       <c r="B49" s="54"/>
-      <c r="C49" s="73"/>
-      <c r="D49" s="80" t="s">
+      <c r="C49" s="79"/>
+      <c r="D49" s="82" t="s">
         <v>178</v>
       </c>
       <c r="E49" s="43"/>
@@ -15027,13 +15174,13 @@
       <c r="Q49" s="50"/>
       <c r="R49" s="50"/>
     </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A50" s="75"/>
-      <c r="B50" s="75"/>
-      <c r="C50" s="76" t="s">
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A50" s="72"/>
+      <c r="B50" s="72"/>
+      <c r="C50" s="73" t="s">
         <v>148</v>
       </c>
-      <c r="D50" s="77" t="s">
+      <c r="D50" s="74" t="s">
         <v>179</v>
       </c>
       <c r="E50" s="43"/>
@@ -15041,7 +15188,7 @@
       <c r="Q50" s="50"/>
       <c r="R50" s="50"/>
     </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A51" s="54"/>
       <c r="B51" s="54"/>
       <c r="C51" s="65"/>
@@ -15053,13 +15200,13 @@
       <c r="Q51" s="50"/>
       <c r="R51" s="50"/>
     </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A52" s="82"/>
-      <c r="B52" s="82"/>
-      <c r="C52" s="83" t="s">
-        <v>161</v>
-      </c>
-      <c r="D52" s="84" t="s">
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A52" s="75"/>
+      <c r="B52" s="75"/>
+      <c r="C52" s="76" t="s">
+        <v>160</v>
+      </c>
+      <c r="D52" s="77" t="s">
         <v>181</v>
       </c>
       <c r="E52" s="43"/>
@@ -15067,7 +15214,7 @@
       <c r="Q52" s="50"/>
       <c r="R52" s="50"/>
     </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A53" s="54"/>
       <c r="B53" s="54"/>
       <c r="C53" s="65"/>
@@ -15079,11 +15226,11 @@
       <c r="Q53" s="50"/>
       <c r="R53" s="50"/>
     </row>
-    <row r="54" customFormat="false" ht="52.6" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="54" customFormat="false" ht="52.6" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A54" s="54"/>
       <c r="B54" s="54"/>
-      <c r="C54" s="73"/>
-      <c r="D54" s="80" t="s">
+      <c r="C54" s="79"/>
+      <c r="D54" s="82" t="s">
         <v>183</v>
       </c>
       <c r="E54" s="43"/>
@@ -15091,13 +15238,13 @@
       <c r="Q54" s="50"/>
       <c r="R54" s="50"/>
     </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A55" s="75"/>
-      <c r="B55" s="75"/>
-      <c r="C55" s="76" t="s">
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A55" s="72"/>
+      <c r="B55" s="72"/>
+      <c r="C55" s="73" t="s">
         <v>148</v>
       </c>
-      <c r="D55" s="77" t="s">
+      <c r="D55" s="74" t="s">
         <v>184</v>
       </c>
       <c r="E55" s="43"/>
@@ -15105,13 +15252,13 @@
       <c r="Q55" s="50"/>
       <c r="R55" s="50"/>
     </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A56" s="82"/>
-      <c r="B56" s="82"/>
-      <c r="C56" s="83" t="s">
-        <v>161</v>
-      </c>
-      <c r="D56" s="84" t="s">
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A56" s="75"/>
+      <c r="B56" s="75"/>
+      <c r="C56" s="76" t="s">
+        <v>160</v>
+      </c>
+      <c r="D56" s="77" t="s">
         <v>185</v>
       </c>
       <c r="E56" s="43"/>
@@ -15119,7 +15266,7 @@
       <c r="Q56" s="50"/>
       <c r="R56" s="50"/>
     </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A57" s="54"/>
       <c r="B57" s="54"/>
       <c r="C57" s="65"/>
@@ -15131,11 +15278,11 @@
       <c r="Q57" s="50"/>
       <c r="R57" s="50"/>
     </row>
-    <row r="58" customFormat="false" ht="73.05" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="58" customFormat="false" ht="73.05" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A58" s="54"/>
       <c r="B58" s="54"/>
-      <c r="C58" s="73"/>
-      <c r="D58" s="74" t="s">
+      <c r="C58" s="79"/>
+      <c r="D58" s="80" t="s">
         <v>187</v>
       </c>
       <c r="E58" s="43"/>
@@ -15143,13 +15290,13 @@
       <c r="Q58" s="50"/>
       <c r="R58" s="50"/>
     </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A59" s="75"/>
-      <c r="B59" s="75"/>
-      <c r="C59" s="76" t="s">
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A59" s="72"/>
+      <c r="B59" s="72"/>
+      <c r="C59" s="73" t="s">
         <v>148</v>
       </c>
-      <c r="D59" s="77" t="s">
+      <c r="D59" s="74" t="s">
         <v>188</v>
       </c>
       <c r="E59" s="43"/>
@@ -15157,13 +15304,13 @@
       <c r="Q59" s="50"/>
       <c r="R59" s="50"/>
     </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A60" s="82"/>
-      <c r="B60" s="82"/>
-      <c r="C60" s="83" t="s">
-        <v>161</v>
-      </c>
-      <c r="D60" s="84" t="s">
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A60" s="75"/>
+      <c r="B60" s="75"/>
+      <c r="C60" s="76" t="s">
+        <v>160</v>
+      </c>
+      <c r="D60" s="77" t="s">
         <v>189</v>
       </c>
       <c r="E60" s="43"/>
@@ -15171,9 +15318,9 @@
       <c r="Q60" s="50"/>
       <c r="R60" s="50"/>
     </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A61" s="78"/>
-      <c r="B61" s="78"/>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A61" s="83"/>
+      <c r="B61" s="83"/>
       <c r="C61" s="65"/>
       <c r="D61" s="56" t="s">
         <v>190</v>
@@ -15183,11 +15330,11 @@
       <c r="Q61" s="50"/>
       <c r="R61" s="50"/>
     </row>
-    <row r="62" customFormat="false" ht="32.2" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A62" s="72"/>
-      <c r="B62" s="72"/>
-      <c r="C62" s="73"/>
-      <c r="D62" s="74" t="s">
+    <row r="62" customFormat="false" ht="32.2" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A62" s="78"/>
+      <c r="B62" s="78"/>
+      <c r="C62" s="79"/>
+      <c r="D62" s="80" t="s">
         <v>191</v>
       </c>
       <c r="E62" s="43"/>
@@ -15195,13 +15342,13 @@
       <c r="Q62" s="50"/>
       <c r="R62" s="50"/>
     </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A63" s="75"/>
-      <c r="B63" s="75"/>
-      <c r="C63" s="76" t="s">
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A63" s="72"/>
+      <c r="B63" s="72"/>
+      <c r="C63" s="73" t="s">
         <v>148</v>
       </c>
-      <c r="D63" s="77" t="s">
+      <c r="D63" s="74" t="s">
         <v>192</v>
       </c>
       <c r="E63" s="43"/>
@@ -15209,13 +15356,13 @@
       <c r="Q63" s="50"/>
       <c r="R63" s="50"/>
     </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A64" s="82"/>
-      <c r="B64" s="82"/>
-      <c r="C64" s="83" t="s">
-        <v>161</v>
-      </c>
-      <c r="D64" s="84" t="s">
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A64" s="75"/>
+      <c r="B64" s="75"/>
+      <c r="C64" s="76" t="s">
+        <v>160</v>
+      </c>
+      <c r="D64" s="77" t="s">
         <v>193</v>
       </c>
       <c r="E64" s="43"/>
@@ -15223,9 +15370,9 @@
       <c r="Q64" s="50"/>
       <c r="R64" s="50"/>
     </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A65" s="78"/>
-      <c r="B65" s="78"/>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A65" s="83"/>
+      <c r="B65" s="83"/>
       <c r="C65" s="65"/>
       <c r="D65" s="56" t="s">
         <v>194</v>
@@ -15235,11 +15382,11 @@
       <c r="Q65" s="50"/>
       <c r="R65" s="50"/>
     </row>
-    <row r="66" customFormat="false" ht="32.2" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A66" s="72"/>
-      <c r="B66" s="72"/>
-      <c r="C66" s="73"/>
-      <c r="D66" s="74" t="s">
+    <row r="66" customFormat="false" ht="32.2" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A66" s="78"/>
+      <c r="B66" s="78"/>
+      <c r="C66" s="79"/>
+      <c r="D66" s="80" t="s">
         <v>191</v>
       </c>
       <c r="E66" s="43"/>
@@ -15247,13 +15394,13 @@
       <c r="Q66" s="50"/>
       <c r="R66" s="50"/>
     </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A67" s="75"/>
-      <c r="B67" s="75"/>
-      <c r="C67" s="76" t="s">
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A67" s="72"/>
+      <c r="B67" s="72"/>
+      <c r="C67" s="73" t="s">
         <v>148</v>
       </c>
-      <c r="D67" s="77" t="s">
+      <c r="D67" s="74" t="s">
         <v>195</v>
       </c>
       <c r="E67" s="43"/>
@@ -15261,13 +15408,13 @@
       <c r="Q67" s="50"/>
       <c r="R67" s="50"/>
     </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A68" s="82"/>
-      <c r="B68" s="82"/>
-      <c r="C68" s="83" t="s">
-        <v>161</v>
-      </c>
-      <c r="D68" s="84" t="s">
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A68" s="75"/>
+      <c r="B68" s="75"/>
+      <c r="C68" s="76" t="s">
+        <v>160</v>
+      </c>
+      <c r="D68" s="77" t="s">
         <v>196</v>
       </c>
       <c r="E68" s="43"/>
@@ -15275,9 +15422,9 @@
       <c r="Q68" s="50"/>
       <c r="R68" s="50"/>
     </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A69" s="78"/>
-      <c r="B69" s="78"/>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A69" s="83"/>
+      <c r="B69" s="83"/>
       <c r="C69" s="65"/>
       <c r="D69" s="56" t="s">
         <v>197</v>
@@ -15287,11 +15434,11 @@
       <c r="Q69" s="50"/>
       <c r="R69" s="50"/>
     </row>
-    <row r="70" customFormat="false" ht="52.6" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A70" s="72"/>
-      <c r="B70" s="72"/>
-      <c r="C70" s="73"/>
-      <c r="D70" s="74" t="s">
+    <row r="70" customFormat="false" ht="52.6" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A70" s="78"/>
+      <c r="B70" s="78"/>
+      <c r="C70" s="79"/>
+      <c r="D70" s="80" t="s">
         <v>198</v>
       </c>
       <c r="E70" s="43"/>
@@ -15300,7 +15447,7 @@
       <c r="R70" s="50"/>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="85" t="n">
+      <c r="A71" s="84" t="n">
         <f aca="false">VINE_Documents!$A$19</f>
         <v>15</v>
       </c>
@@ -15308,7 +15455,7 @@
         <v>199</v>
       </c>
       <c r="C71" s="49"/>
-      <c r="D71" s="86"/>
+      <c r="D71" s="85"/>
       <c r="E71" s="43"/>
       <c r="F71" s="44"/>
       <c r="Q71" s="50"/>
@@ -15317,10 +15464,10 @@
     <row r="72" customFormat="false" ht="19.7" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A72" s="51"/>
       <c r="B72" s="51"/>
-      <c r="C72" s="87" t="s">
+      <c r="C72" s="86" t="s">
         <v>139</v>
       </c>
-      <c r="D72" s="88" t="s">
+      <c r="D72" s="87" t="s">
         <v>200</v>
       </c>
       <c r="E72" s="43"/>
@@ -15331,10 +15478,10 @@
     <row r="73" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A73" s="70"/>
       <c r="B73" s="70"/>
-      <c r="C73" s="89" t="s">
+      <c r="C73" s="88" t="s">
         <v>142</v>
       </c>
-      <c r="D73" s="90"/>
+      <c r="D73" s="89"/>
       <c r="E73" s="43"/>
       <c r="F73" s="44"/>
       <c r="Q73" s="50"/>
@@ -15343,8 +15490,8 @@
     <row r="74" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A74" s="54"/>
       <c r="B74" s="54"/>
-      <c r="C74" s="91"/>
-      <c r="D74" s="92" t="s">
+      <c r="C74" s="90"/>
+      <c r="D74" s="91" t="s">
         <v>201</v>
       </c>
       <c r="E74" s="43"/>
@@ -15355,8 +15502,8 @@
     <row r="75" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A75" s="54"/>
       <c r="B75" s="54"/>
-      <c r="C75" s="91"/>
-      <c r="D75" s="92" t="s">
+      <c r="C75" s="90"/>
+      <c r="D75" s="91" t="s">
         <v>202</v>
       </c>
       <c r="E75" s="43"/>
@@ -15365,12 +15512,12 @@
       <c r="R75" s="50"/>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A76" s="93"/>
-      <c r="B76" s="93"/>
-      <c r="C76" s="94" t="s">
+      <c r="A76" s="92"/>
+      <c r="B76" s="92"/>
+      <c r="C76" s="93" t="s">
         <v>148</v>
       </c>
-      <c r="D76" s="95" t="s">
+      <c r="D76" s="94" t="s">
         <v>203</v>
       </c>
       <c r="E76" s="43"/>
@@ -15379,12 +15526,12 @@
       <c r="R76" s="50"/>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A77" s="96"/>
-      <c r="B77" s="96"/>
-      <c r="C77" s="97" t="s">
-        <v>161</v>
-      </c>
-      <c r="D77" s="98" t="s">
+      <c r="A77" s="95"/>
+      <c r="B77" s="95"/>
+      <c r="C77" s="96" t="s">
+        <v>160</v>
+      </c>
+      <c r="D77" s="97" t="s">
         <v>204</v>
       </c>
       <c r="E77" s="43"/>
@@ -15395,20 +15542,20 @@
     <row r="78" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A78" s="54"/>
       <c r="B78" s="54"/>
-      <c r="C78" s="91"/>
-      <c r="D78" s="92"/>
+      <c r="C78" s="90"/>
+      <c r="D78" s="91"/>
       <c r="E78" s="43"/>
       <c r="F78" s="44"/>
       <c r="Q78" s="50"/>
       <c r="R78" s="50"/>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A79" s="96"/>
-      <c r="B79" s="96"/>
-      <c r="C79" s="97" t="s">
-        <v>161</v>
-      </c>
-      <c r="D79" s="98" t="s">
+      <c r="A79" s="95"/>
+      <c r="B79" s="95"/>
+      <c r="C79" s="96" t="s">
+        <v>160</v>
+      </c>
+      <c r="D79" s="97" t="s">
         <v>205</v>
       </c>
       <c r="E79" s="43"/>
@@ -15419,20 +15566,20 @@
     <row r="80" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A80" s="54"/>
       <c r="B80" s="54"/>
-      <c r="C80" s="91"/>
-      <c r="D80" s="92"/>
+      <c r="C80" s="90"/>
+      <c r="D80" s="91"/>
       <c r="E80" s="43"/>
       <c r="F80" s="44"/>
       <c r="Q80" s="50"/>
       <c r="R80" s="50"/>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A81" s="93"/>
-      <c r="B81" s="93"/>
-      <c r="C81" s="94" t="s">
+      <c r="A81" s="92"/>
+      <c r="B81" s="92"/>
+      <c r="C81" s="93" t="s">
         <v>148</v>
       </c>
-      <c r="D81" s="95" t="s">
+      <c r="D81" s="94" t="s">
         <v>206</v>
       </c>
       <c r="E81" s="43"/>
@@ -15441,12 +15588,12 @@
       <c r="R81" s="50"/>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A82" s="96"/>
-      <c r="B82" s="96"/>
-      <c r="C82" s="97" t="s">
-        <v>161</v>
-      </c>
-      <c r="D82" s="98" t="s">
+      <c r="A82" s="95"/>
+      <c r="B82" s="95"/>
+      <c r="C82" s="96" t="s">
+        <v>160</v>
+      </c>
+      <c r="D82" s="97" t="s">
         <v>207</v>
       </c>
       <c r="E82" s="43"/>
@@ -15457,20 +15604,20 @@
     <row r="83" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A83" s="54"/>
       <c r="B83" s="54"/>
-      <c r="C83" s="91"/>
-      <c r="D83" s="92"/>
+      <c r="C83" s="90"/>
+      <c r="D83" s="91"/>
       <c r="E83" s="43"/>
       <c r="F83" s="44"/>
       <c r="Q83" s="50"/>
       <c r="R83" s="50"/>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A84" s="96"/>
-      <c r="B84" s="96"/>
-      <c r="C84" s="97" t="s">
-        <v>161</v>
-      </c>
-      <c r="D84" s="98" t="s">
+      <c r="A84" s="95"/>
+      <c r="B84" s="95"/>
+      <c r="C84" s="96" t="s">
+        <v>160</v>
+      </c>
+      <c r="D84" s="97" t="s">
         <v>208</v>
       </c>
       <c r="E84" s="43"/>
@@ -15481,20 +15628,20 @@
     <row r="85" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A85" s="54"/>
       <c r="B85" s="54"/>
-      <c r="C85" s="91"/>
-      <c r="D85" s="92"/>
+      <c r="C85" s="90"/>
+      <c r="D85" s="91"/>
       <c r="E85" s="43"/>
       <c r="F85" s="44"/>
       <c r="Q85" s="50"/>
       <c r="R85" s="50"/>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A86" s="93"/>
-      <c r="B86" s="93"/>
-      <c r="C86" s="94" t="s">
+      <c r="A86" s="92"/>
+      <c r="B86" s="92"/>
+      <c r="C86" s="93" t="s">
         <v>148</v>
       </c>
-      <c r="D86" s="95" t="s">
+      <c r="D86" s="94" t="s">
         <v>209</v>
       </c>
       <c r="E86" s="43"/>
@@ -15503,12 +15650,12 @@
       <c r="R86" s="50"/>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A87" s="96"/>
-      <c r="B87" s="96"/>
-      <c r="C87" s="97" t="s">
-        <v>161</v>
-      </c>
-      <c r="D87" s="98" t="s">
+      <c r="A87" s="95"/>
+      <c r="B87" s="95"/>
+      <c r="C87" s="96" t="s">
+        <v>160</v>
+      </c>
+      <c r="D87" s="97" t="s">
         <v>210</v>
       </c>
       <c r="E87" s="43"/>
@@ -15519,20 +15666,20 @@
     <row r="88" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A88" s="54"/>
       <c r="B88" s="54"/>
-      <c r="C88" s="91"/>
-      <c r="D88" s="92"/>
+      <c r="C88" s="90"/>
+      <c r="D88" s="91"/>
       <c r="E88" s="43"/>
       <c r="F88" s="44"/>
       <c r="Q88" s="50"/>
       <c r="R88" s="50"/>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A89" s="93"/>
-      <c r="B89" s="93"/>
-      <c r="C89" s="94" t="s">
+      <c r="A89" s="92"/>
+      <c r="B89" s="92"/>
+      <c r="C89" s="93" t="s">
         <v>148</v>
       </c>
-      <c r="D89" s="95" t="s">
+      <c r="D89" s="94" t="s">
         <v>211</v>
       </c>
       <c r="E89" s="43"/>
@@ -15541,12 +15688,12 @@
       <c r="R89" s="50"/>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A90" s="96"/>
-      <c r="B90" s="96"/>
-      <c r="C90" s="97" t="s">
-        <v>161</v>
-      </c>
-      <c r="D90" s="98" t="s">
+      <c r="A90" s="95"/>
+      <c r="B90" s="95"/>
+      <c r="C90" s="96" t="s">
+        <v>160</v>
+      </c>
+      <c r="D90" s="97" t="s">
         <v>212</v>
       </c>
       <c r="E90" s="43"/>
@@ -15555,12 +15702,12 @@
       <c r="R90" s="50"/>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A91" s="96"/>
-      <c r="B91" s="96"/>
-      <c r="C91" s="97" t="s">
-        <v>161</v>
-      </c>
-      <c r="D91" s="98" t="s">
+      <c r="A91" s="95"/>
+      <c r="B91" s="95"/>
+      <c r="C91" s="96" t="s">
+        <v>160</v>
+      </c>
+      <c r="D91" s="97" t="s">
         <v>213</v>
       </c>
       <c r="E91" s="43"/>
@@ -15571,20 +15718,20 @@
     <row r="92" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A92" s="54"/>
       <c r="B92" s="54"/>
-      <c r="C92" s="91"/>
-      <c r="D92" s="92"/>
+      <c r="C92" s="90"/>
+      <c r="D92" s="91"/>
       <c r="E92" s="43"/>
       <c r="F92" s="44"/>
       <c r="Q92" s="50"/>
       <c r="R92" s="50"/>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A93" s="93"/>
-      <c r="B93" s="93"/>
-      <c r="C93" s="94" t="s">
+      <c r="A93" s="92"/>
+      <c r="B93" s="92"/>
+      <c r="C93" s="93" t="s">
         <v>148</v>
       </c>
-      <c r="D93" s="95" t="s">
+      <c r="D93" s="94" t="s">
         <v>214</v>
       </c>
       <c r="E93" s="43"/>
@@ -15593,12 +15740,12 @@
       <c r="R93" s="50"/>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A94" s="96"/>
-      <c r="B94" s="96"/>
-      <c r="C94" s="97" t="s">
-        <v>161</v>
-      </c>
-      <c r="D94" s="98" t="s">
+      <c r="A94" s="95"/>
+      <c r="B94" s="95"/>
+      <c r="C94" s="96" t="s">
+        <v>160</v>
+      </c>
+      <c r="D94" s="97" t="s">
         <v>215</v>
       </c>
       <c r="E94" s="43"/>
@@ -15609,20 +15756,20 @@
     <row r="95" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A95" s="54"/>
       <c r="B95" s="54"/>
-      <c r="C95" s="91"/>
-      <c r="D95" s="92"/>
+      <c r="C95" s="90"/>
+      <c r="D95" s="91"/>
       <c r="E95" s="43"/>
       <c r="F95" s="44"/>
       <c r="Q95" s="50"/>
       <c r="R95" s="50"/>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A96" s="93"/>
-      <c r="B96" s="93"/>
-      <c r="C96" s="94" t="s">
+      <c r="A96" s="92"/>
+      <c r="B96" s="92"/>
+      <c r="C96" s="93" t="s">
         <v>148</v>
       </c>
-      <c r="D96" s="95" t="s">
+      <c r="D96" s="94" t="s">
         <v>216</v>
       </c>
       <c r="E96" s="43"/>
@@ -15631,12 +15778,12 @@
       <c r="R96" s="50"/>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A97" s="96"/>
-      <c r="B97" s="96"/>
-      <c r="C97" s="97" t="s">
-        <v>161</v>
-      </c>
-      <c r="D97" s="98" t="s">
+      <c r="A97" s="95"/>
+      <c r="B97" s="95"/>
+      <c r="C97" s="96" t="s">
+        <v>160</v>
+      </c>
+      <c r="D97" s="97" t="s">
         <v>217</v>
       </c>
       <c r="E97" s="43"/>
@@ -15647,20 +15794,20 @@
     <row r="98" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A98" s="54"/>
       <c r="B98" s="54"/>
-      <c r="C98" s="91"/>
-      <c r="D98" s="92"/>
+      <c r="C98" s="90"/>
+      <c r="D98" s="91"/>
       <c r="E98" s="43"/>
       <c r="F98" s="44"/>
       <c r="Q98" s="50"/>
       <c r="R98" s="50"/>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A99" s="93"/>
-      <c r="B99" s="93"/>
-      <c r="C99" s="94" t="s">
+      <c r="A99" s="92"/>
+      <c r="B99" s="92"/>
+      <c r="C99" s="93" t="s">
         <v>148</v>
       </c>
-      <c r="D99" s="95" t="s">
+      <c r="D99" s="94" t="s">
         <v>218</v>
       </c>
       <c r="E99" s="43"/>
@@ -15669,12 +15816,12 @@
       <c r="R99" s="50"/>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A100" s="96"/>
-      <c r="B100" s="96"/>
-      <c r="C100" s="97" t="s">
-        <v>161</v>
-      </c>
-      <c r="D100" s="98" t="s">
+      <c r="A100" s="95"/>
+      <c r="B100" s="95"/>
+      <c r="C100" s="96" t="s">
+        <v>160</v>
+      </c>
+      <c r="D100" s="97" t="s">
         <v>219</v>
       </c>
       <c r="E100" s="43"/>
@@ -15685,20 +15832,20 @@
     <row r="101" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A101" s="54"/>
       <c r="B101" s="54"/>
-      <c r="C101" s="91"/>
-      <c r="D101" s="92"/>
+      <c r="C101" s="90"/>
+      <c r="D101" s="91"/>
       <c r="E101" s="43"/>
       <c r="F101" s="44"/>
       <c r="Q101" s="50"/>
       <c r="R101" s="50"/>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A102" s="93"/>
-      <c r="B102" s="93"/>
-      <c r="C102" s="94" t="s">
+      <c r="A102" s="92"/>
+      <c r="B102" s="92"/>
+      <c r="C102" s="93" t="s">
         <v>148</v>
       </c>
-      <c r="D102" s="95" t="s">
+      <c r="D102" s="94" t="s">
         <v>220</v>
       </c>
       <c r="E102" s="43"/>
@@ -15707,12 +15854,12 @@
       <c r="R102" s="50"/>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A103" s="96"/>
-      <c r="B103" s="96"/>
-      <c r="C103" s="97" t="s">
-        <v>161</v>
-      </c>
-      <c r="D103" s="98" t="s">
+      <c r="A103" s="95"/>
+      <c r="B103" s="95"/>
+      <c r="C103" s="96" t="s">
+        <v>160</v>
+      </c>
+      <c r="D103" s="97" t="s">
         <v>221</v>
       </c>
       <c r="E103" s="43"/>
@@ -15723,20 +15870,20 @@
     <row r="104" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A104" s="54"/>
       <c r="B104" s="54"/>
-      <c r="C104" s="91"/>
-      <c r="D104" s="92"/>
+      <c r="C104" s="90"/>
+      <c r="D104" s="91"/>
       <c r="E104" s="43"/>
       <c r="F104" s="44"/>
       <c r="Q104" s="50"/>
       <c r="R104" s="50"/>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A105" s="93"/>
-      <c r="B105" s="93"/>
-      <c r="C105" s="94" t="s">
+      <c r="A105" s="92"/>
+      <c r="B105" s="92"/>
+      <c r="C105" s="93" t="s">
         <v>148</v>
       </c>
-      <c r="D105" s="95" t="s">
+      <c r="D105" s="94" t="s">
         <v>222</v>
       </c>
       <c r="E105" s="43"/>
@@ -15745,12 +15892,12 @@
       <c r="R105" s="50"/>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A106" s="96"/>
-      <c r="B106" s="96"/>
-      <c r="C106" s="97" t="s">
-        <v>161</v>
-      </c>
-      <c r="D106" s="98" t="s">
+      <c r="A106" s="95"/>
+      <c r="B106" s="95"/>
+      <c r="C106" s="96" t="s">
+        <v>160</v>
+      </c>
+      <c r="D106" s="97" t="s">
         <v>223</v>
       </c>
       <c r="E106" s="43"/>
@@ -15761,20 +15908,20 @@
     <row r="107" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A107" s="54"/>
       <c r="B107" s="54"/>
-      <c r="C107" s="91"/>
-      <c r="D107" s="92"/>
+      <c r="C107" s="90"/>
+      <c r="D107" s="91"/>
       <c r="E107" s="43"/>
       <c r="F107" s="44"/>
       <c r="Q107" s="50"/>
       <c r="R107" s="50"/>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A108" s="96"/>
-      <c r="B108" s="96"/>
-      <c r="C108" s="97" t="s">
-        <v>161</v>
-      </c>
-      <c r="D108" s="98" t="s">
+      <c r="A108" s="95"/>
+      <c r="B108" s="95"/>
+      <c r="C108" s="96" t="s">
+        <v>160</v>
+      </c>
+      <c r="D108" s="97" t="s">
         <v>224</v>
       </c>
       <c r="E108" s="43"/>
@@ -15785,20 +15932,20 @@
     <row r="109" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A109" s="54"/>
       <c r="B109" s="54"/>
-      <c r="C109" s="91"/>
-      <c r="D109" s="92"/>
+      <c r="C109" s="90"/>
+      <c r="D109" s="91"/>
       <c r="E109" s="43"/>
       <c r="F109" s="44"/>
       <c r="Q109" s="50"/>
       <c r="R109" s="50"/>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A110" s="96"/>
-      <c r="B110" s="96"/>
-      <c r="C110" s="97" t="s">
-        <v>161</v>
-      </c>
-      <c r="D110" s="98" t="s">
+      <c r="A110" s="95"/>
+      <c r="B110" s="95"/>
+      <c r="C110" s="96" t="s">
+        <v>160</v>
+      </c>
+      <c r="D110" s="97" t="s">
         <v>225</v>
       </c>
       <c r="E110" s="43"/>
@@ -15809,20 +15956,20 @@
     <row r="111" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A111" s="54"/>
       <c r="B111" s="54"/>
-      <c r="C111" s="91"/>
-      <c r="D111" s="92"/>
+      <c r="C111" s="90"/>
+      <c r="D111" s="91"/>
       <c r="E111" s="43"/>
       <c r="F111" s="44"/>
       <c r="Q111" s="50"/>
       <c r="R111" s="50"/>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A112" s="93"/>
-      <c r="B112" s="93"/>
-      <c r="C112" s="94" t="s">
+      <c r="A112" s="92"/>
+      <c r="B112" s="92"/>
+      <c r="C112" s="93" t="s">
         <v>148</v>
       </c>
-      <c r="D112" s="95" t="s">
+      <c r="D112" s="94" t="s">
         <v>226</v>
       </c>
       <c r="E112" s="43"/>
@@ -15831,12 +15978,12 @@
       <c r="R112" s="50"/>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A113" s="96"/>
-      <c r="B113" s="96"/>
-      <c r="C113" s="97" t="s">
-        <v>161</v>
-      </c>
-      <c r="D113" s="98" t="s">
+      <c r="A113" s="95"/>
+      <c r="B113" s="95"/>
+      <c r="C113" s="96" t="s">
+        <v>160</v>
+      </c>
+      <c r="D113" s="97" t="s">
         <v>227</v>
       </c>
       <c r="E113" s="43"/>
@@ -15847,20 +15994,20 @@
     <row r="114" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A114" s="54"/>
       <c r="B114" s="54"/>
-      <c r="C114" s="91"/>
-      <c r="D114" s="92"/>
+      <c r="C114" s="90"/>
+      <c r="D114" s="91"/>
       <c r="E114" s="43"/>
       <c r="F114" s="44"/>
       <c r="Q114" s="50"/>
       <c r="R114" s="50"/>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A115" s="96"/>
-      <c r="B115" s="96"/>
-      <c r="C115" s="97" t="s">
-        <v>161</v>
-      </c>
-      <c r="D115" s="98" t="s">
+      <c r="A115" s="95"/>
+      <c r="B115" s="95"/>
+      <c r="C115" s="96" t="s">
+        <v>160</v>
+      </c>
+      <c r="D115" s="97" t="s">
         <v>228</v>
       </c>
       <c r="E115" s="43"/>
@@ -15871,8 +16018,8 @@
     <row r="116" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A116" s="54"/>
       <c r="B116" s="54"/>
-      <c r="C116" s="91"/>
-      <c r="D116" s="92"/>
+      <c r="C116" s="90"/>
+      <c r="D116" s="91"/>
       <c r="E116" s="43"/>
       <c r="F116" s="44"/>
       <c r="Q116" s="50"/>
@@ -15893,8 +16040,8 @@
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="44"/>
       <c r="B118" s="44"/>
-      <c r="C118" s="99"/>
-      <c r="D118" s="100" t="n">
+      <c r="C118" s="98"/>
+      <c r="D118" s="99" t="n">
         <v>0</v>
       </c>
       <c r="E118" s="44"/>
@@ -16034,7 +16181,7 @@
   </sheetPr>
   <dimension ref="A1:AC40"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
@@ -16090,10 +16237,10 @@
       <c r="B2" s="45" t="s">
         <v>134</v>
       </c>
-      <c r="C2" s="101" t="s">
+      <c r="C2" s="100" t="s">
         <v>229</v>
       </c>
-      <c r="D2" s="101" t="s">
+      <c r="D2" s="100" t="s">
         <v>230</v>
       </c>
       <c r="E2" s="46" t="s">
@@ -16115,8 +16262,8 @@
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="45"/>
       <c r="B3" s="45"/>
-      <c r="C3" s="101"/>
-      <c r="D3" s="101"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
       <c r="E3" s="47" t="s">
         <v>136</v>
       </c>
@@ -16143,19 +16290,19 @@
       <c r="B4" s="49" t="s">
         <v>231</v>
       </c>
-      <c r="C4" s="102"/>
-      <c r="D4" s="102"/>
-      <c r="E4" s="102"/>
-      <c r="F4" s="102"/>
-      <c r="G4" s="102"/>
-      <c r="H4" s="102"/>
-      <c r="I4" s="102"/>
-      <c r="J4" s="102"/>
-      <c r="K4" s="102"/>
-      <c r="L4" s="102"/>
-      <c r="M4" s="102"/>
-      <c r="N4" s="102"/>
-      <c r="O4" s="102"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="101"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="101"/>
+      <c r="K4" s="101"/>
+      <c r="L4" s="101"/>
+      <c r="M4" s="101"/>
+      <c r="N4" s="101"/>
+      <c r="O4" s="101"/>
       <c r="P4" s="43"/>
       <c r="Q4" s="44"/>
       <c r="AB4" s="50"/>
@@ -16164,10 +16311,10 @@
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="51"/>
       <c r="B5" s="51"/>
-      <c r="C5" s="103" t="s">
+      <c r="C5" s="102" t="s">
         <v>232</v>
       </c>
-      <c r="D5" s="104" t="s">
+      <c r="D5" s="103" t="s">
         <v>233</v>
       </c>
       <c r="E5" s="52" t="s">
@@ -16176,15 +16323,15 @@
       <c r="F5" s="53" t="s">
         <v>234</v>
       </c>
-      <c r="G5" s="105"/>
-      <c r="H5" s="105"/>
-      <c r="I5" s="105"/>
-      <c r="J5" s="105"/>
-      <c r="K5" s="105"/>
-      <c r="L5" s="105"/>
-      <c r="M5" s="105"/>
-      <c r="N5" s="105"/>
-      <c r="O5" s="105"/>
+      <c r="G5" s="104"/>
+      <c r="H5" s="104"/>
+      <c r="I5" s="104"/>
+      <c r="J5" s="104"/>
+      <c r="K5" s="104"/>
+      <c r="L5" s="104"/>
+      <c r="M5" s="104"/>
+      <c r="N5" s="104"/>
+      <c r="O5" s="104"/>
       <c r="P5" s="43"/>
       <c r="Q5" s="44"/>
       <c r="AB5" s="50"/>
@@ -16193,19 +16340,19 @@
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="51"/>
       <c r="B6" s="51"/>
-      <c r="C6" s="103"/>
-      <c r="D6" s="104"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="103"/>
       <c r="E6" s="52"/>
       <c r="F6" s="53"/>
-      <c r="G6" s="105"/>
-      <c r="H6" s="105"/>
-      <c r="I6" s="105"/>
-      <c r="J6" s="105"/>
-      <c r="K6" s="105"/>
-      <c r="L6" s="105"/>
-      <c r="M6" s="105"/>
-      <c r="N6" s="105"/>
-      <c r="O6" s="105"/>
+      <c r="G6" s="104"/>
+      <c r="H6" s="104"/>
+      <c r="I6" s="104"/>
+      <c r="J6" s="104"/>
+      <c r="K6" s="104"/>
+      <c r="L6" s="104"/>
+      <c r="M6" s="104"/>
+      <c r="N6" s="104"/>
+      <c r="O6" s="104"/>
       <c r="P6" s="43"/>
       <c r="Q6" s="44"/>
       <c r="AB6" s="50"/>
@@ -16214,21 +16361,21 @@
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="51"/>
       <c r="B7" s="51"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="104"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="103"/>
       <c r="E7" s="52"/>
       <c r="F7" s="53" t="s">
         <v>97</v>
       </c>
-      <c r="G7" s="105"/>
-      <c r="H7" s="105"/>
-      <c r="I7" s="105"/>
-      <c r="J7" s="105"/>
-      <c r="K7" s="105"/>
-      <c r="L7" s="105"/>
-      <c r="M7" s="105"/>
-      <c r="N7" s="105"/>
-      <c r="O7" s="105"/>
+      <c r="G7" s="104"/>
+      <c r="H7" s="104"/>
+      <c r="I7" s="104"/>
+      <c r="J7" s="104"/>
+      <c r="K7" s="104"/>
+      <c r="L7" s="104"/>
+      <c r="M7" s="104"/>
+      <c r="N7" s="104"/>
+      <c r="O7" s="104"/>
       <c r="P7" s="43"/>
       <c r="Q7" s="44"/>
       <c r="AB7" s="50"/>
@@ -16237,21 +16384,21 @@
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="51"/>
       <c r="B8" s="51"/>
-      <c r="C8" s="103"/>
-      <c r="D8" s="104"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="103"/>
       <c r="E8" s="52"/>
       <c r="F8" s="53" t="s">
         <v>98</v>
       </c>
-      <c r="G8" s="105"/>
-      <c r="H8" s="105"/>
-      <c r="I8" s="105"/>
-      <c r="J8" s="105"/>
-      <c r="K8" s="105"/>
-      <c r="L8" s="105"/>
-      <c r="M8" s="105"/>
-      <c r="N8" s="105"/>
-      <c r="O8" s="105"/>
+      <c r="G8" s="104"/>
+      <c r="H8" s="104"/>
+      <c r="I8" s="104"/>
+      <c r="J8" s="104"/>
+      <c r="K8" s="104"/>
+      <c r="L8" s="104"/>
+      <c r="M8" s="104"/>
+      <c r="N8" s="104"/>
+      <c r="O8" s="104"/>
       <c r="P8" s="43"/>
       <c r="Q8" s="44"/>
       <c r="AB8" s="50"/>
@@ -16260,21 +16407,21 @@
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="51"/>
       <c r="B9" s="51"/>
-      <c r="C9" s="103"/>
-      <c r="D9" s="104"/>
+      <c r="C9" s="102"/>
+      <c r="D9" s="103"/>
       <c r="E9" s="52"/>
       <c r="F9" s="53" t="s">
         <v>99</v>
       </c>
-      <c r="G9" s="105"/>
-      <c r="H9" s="105"/>
-      <c r="I9" s="105"/>
-      <c r="J9" s="105"/>
-      <c r="K9" s="105"/>
-      <c r="L9" s="105"/>
-      <c r="M9" s="105"/>
-      <c r="N9" s="105"/>
-      <c r="O9" s="105"/>
+      <c r="G9" s="104"/>
+      <c r="H9" s="104"/>
+      <c r="I9" s="104"/>
+      <c r="J9" s="104"/>
+      <c r="K9" s="104"/>
+      <c r="L9" s="104"/>
+      <c r="M9" s="104"/>
+      <c r="N9" s="104"/>
+      <c r="O9" s="104"/>
       <c r="P9" s="43"/>
       <c r="Q9" s="44"/>
       <c r="AB9" s="50"/>
@@ -16283,21 +16430,21 @@
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="51"/>
       <c r="B10" s="51"/>
-      <c r="C10" s="103"/>
-      <c r="D10" s="104"/>
+      <c r="C10" s="102"/>
+      <c r="D10" s="103"/>
       <c r="E10" s="52"/>
       <c r="F10" s="53" t="s">
         <v>100</v>
       </c>
-      <c r="G10" s="105"/>
-      <c r="H10" s="105"/>
-      <c r="I10" s="105"/>
-      <c r="J10" s="105"/>
-      <c r="K10" s="105"/>
-      <c r="L10" s="105"/>
-      <c r="M10" s="105"/>
-      <c r="N10" s="105"/>
-      <c r="O10" s="105"/>
+      <c r="G10" s="104"/>
+      <c r="H10" s="104"/>
+      <c r="I10" s="104"/>
+      <c r="J10" s="104"/>
+      <c r="K10" s="104"/>
+      <c r="L10" s="104"/>
+      <c r="M10" s="104"/>
+      <c r="N10" s="104"/>
+      <c r="O10" s="104"/>
       <c r="P10" s="43"/>
       <c r="Q10" s="44"/>
       <c r="AB10" s="50"/>
@@ -16306,21 +16453,21 @@
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="51"/>
       <c r="B11" s="51"/>
-      <c r="C11" s="103"/>
-      <c r="D11" s="104"/>
+      <c r="C11" s="102"/>
+      <c r="D11" s="103"/>
       <c r="E11" s="52"/>
       <c r="F11" s="53" t="s">
         <v>116</v>
       </c>
-      <c r="G11" s="105"/>
-      <c r="H11" s="105"/>
-      <c r="I11" s="105"/>
-      <c r="J11" s="105"/>
-      <c r="K11" s="105"/>
-      <c r="L11" s="105"/>
-      <c r="M11" s="105"/>
-      <c r="N11" s="105"/>
-      <c r="O11" s="105"/>
+      <c r="G11" s="104"/>
+      <c r="H11" s="104"/>
+      <c r="I11" s="104"/>
+      <c r="J11" s="104"/>
+      <c r="K11" s="104"/>
+      <c r="L11" s="104"/>
+      <c r="M11" s="104"/>
+      <c r="N11" s="104"/>
+      <c r="O11" s="104"/>
       <c r="P11" s="43"/>
       <c r="Q11" s="44"/>
       <c r="AB11" s="50"/>
@@ -16329,19 +16476,19 @@
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="51"/>
       <c r="B12" s="51"/>
-      <c r="C12" s="103"/>
-      <c r="D12" s="104"/>
+      <c r="C12" s="102"/>
+      <c r="D12" s="103"/>
       <c r="E12" s="52"/>
       <c r="F12" s="53"/>
-      <c r="G12" s="105"/>
-      <c r="H12" s="105"/>
-      <c r="I12" s="105"/>
-      <c r="J12" s="105"/>
-      <c r="K12" s="105"/>
-      <c r="L12" s="105"/>
-      <c r="M12" s="105"/>
-      <c r="N12" s="105"/>
-      <c r="O12" s="105"/>
+      <c r="G12" s="104"/>
+      <c r="H12" s="104"/>
+      <c r="I12" s="104"/>
+      <c r="J12" s="104"/>
+      <c r="K12" s="104"/>
+      <c r="L12" s="104"/>
+      <c r="M12" s="104"/>
+      <c r="N12" s="104"/>
+      <c r="O12" s="104"/>
       <c r="P12" s="43"/>
       <c r="Q12" s="44"/>
       <c r="AB12" s="50"/>
@@ -16350,21 +16497,21 @@
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="51"/>
       <c r="B13" s="51"/>
-      <c r="C13" s="103"/>
-      <c r="D13" s="104"/>
+      <c r="C13" s="102"/>
+      <c r="D13" s="103"/>
       <c r="E13" s="52"/>
       <c r="F13" s="53" t="s">
         <v>97</v>
       </c>
-      <c r="G13" s="105"/>
-      <c r="H13" s="105"/>
-      <c r="I13" s="105"/>
-      <c r="J13" s="105"/>
-      <c r="K13" s="105"/>
-      <c r="L13" s="105"/>
-      <c r="M13" s="105"/>
-      <c r="N13" s="105"/>
-      <c r="O13" s="105"/>
+      <c r="G13" s="104"/>
+      <c r="H13" s="104"/>
+      <c r="I13" s="104"/>
+      <c r="J13" s="104"/>
+      <c r="K13" s="104"/>
+      <c r="L13" s="104"/>
+      <c r="M13" s="104"/>
+      <c r="N13" s="104"/>
+      <c r="O13" s="104"/>
       <c r="P13" s="43"/>
       <c r="Q13" s="44"/>
       <c r="AB13" s="50"/>
@@ -16373,21 +16520,21 @@
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="51"/>
       <c r="B14" s="51"/>
-      <c r="C14" s="103"/>
-      <c r="D14" s="104"/>
+      <c r="C14" s="102"/>
+      <c r="D14" s="103"/>
       <c r="E14" s="52"/>
       <c r="F14" s="53" t="s">
         <v>235</v>
       </c>
-      <c r="G14" s="105"/>
-      <c r="H14" s="105"/>
-      <c r="I14" s="105"/>
-      <c r="J14" s="105"/>
-      <c r="K14" s="105"/>
-      <c r="L14" s="105"/>
-      <c r="M14" s="105"/>
-      <c r="N14" s="105"/>
-      <c r="O14" s="105"/>
+      <c r="G14" s="104"/>
+      <c r="H14" s="104"/>
+      <c r="I14" s="104"/>
+      <c r="J14" s="104"/>
+      <c r="K14" s="104"/>
+      <c r="L14" s="104"/>
+      <c r="M14" s="104"/>
+      <c r="N14" s="104"/>
+      <c r="O14" s="104"/>
       <c r="P14" s="43"/>
       <c r="Q14" s="44"/>
       <c r="AB14" s="50"/>
@@ -16396,21 +16543,21 @@
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="51"/>
       <c r="B15" s="51"/>
-      <c r="C15" s="103"/>
-      <c r="D15" s="104"/>
+      <c r="C15" s="102"/>
+      <c r="D15" s="103"/>
       <c r="E15" s="52"/>
       <c r="F15" s="53" t="s">
         <v>236</v>
       </c>
-      <c r="G15" s="105"/>
-      <c r="H15" s="105"/>
-      <c r="I15" s="105"/>
-      <c r="J15" s="105"/>
-      <c r="K15" s="105"/>
-      <c r="L15" s="105"/>
-      <c r="M15" s="105"/>
-      <c r="N15" s="105"/>
-      <c r="O15" s="105"/>
+      <c r="G15" s="104"/>
+      <c r="H15" s="104"/>
+      <c r="I15" s="104"/>
+      <c r="J15" s="104"/>
+      <c r="K15" s="104"/>
+      <c r="L15" s="104"/>
+      <c r="M15" s="104"/>
+      <c r="N15" s="104"/>
+      <c r="O15" s="104"/>
       <c r="P15" s="43"/>
       <c r="Q15" s="44"/>
       <c r="AB15" s="50"/>
@@ -16419,21 +16566,21 @@
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="51"/>
       <c r="B16" s="51"/>
-      <c r="C16" s="103"/>
-      <c r="D16" s="104"/>
+      <c r="C16" s="102"/>
+      <c r="D16" s="103"/>
       <c r="E16" s="52"/>
       <c r="F16" s="53" t="s">
         <v>98</v>
       </c>
-      <c r="G16" s="105"/>
-      <c r="H16" s="105"/>
-      <c r="I16" s="105"/>
-      <c r="J16" s="105"/>
-      <c r="K16" s="105"/>
-      <c r="L16" s="105"/>
-      <c r="M16" s="105"/>
-      <c r="N16" s="105"/>
-      <c r="O16" s="105"/>
+      <c r="G16" s="104"/>
+      <c r="H16" s="104"/>
+      <c r="I16" s="104"/>
+      <c r="J16" s="104"/>
+      <c r="K16" s="104"/>
+      <c r="L16" s="104"/>
+      <c r="M16" s="104"/>
+      <c r="N16" s="104"/>
+      <c r="O16" s="104"/>
       <c r="P16" s="43"/>
       <c r="Q16" s="44"/>
       <c r="AB16" s="50"/>
@@ -16442,21 +16589,21 @@
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="51"/>
       <c r="B17" s="51"/>
-      <c r="C17" s="103"/>
-      <c r="D17" s="104"/>
+      <c r="C17" s="102"/>
+      <c r="D17" s="103"/>
       <c r="E17" s="52"/>
       <c r="F17" s="53" t="s">
         <v>99</v>
       </c>
-      <c r="G17" s="105"/>
-      <c r="H17" s="105"/>
-      <c r="I17" s="105"/>
-      <c r="J17" s="105"/>
-      <c r="K17" s="105"/>
-      <c r="L17" s="105"/>
-      <c r="M17" s="105"/>
-      <c r="N17" s="105"/>
-      <c r="O17" s="105"/>
+      <c r="G17" s="104"/>
+      <c r="H17" s="104"/>
+      <c r="I17" s="104"/>
+      <c r="J17" s="104"/>
+      <c r="K17" s="104"/>
+      <c r="L17" s="104"/>
+      <c r="M17" s="104"/>
+      <c r="N17" s="104"/>
+      <c r="O17" s="104"/>
       <c r="P17" s="43"/>
       <c r="Q17" s="44"/>
       <c r="AB17" s="50"/>
@@ -16465,21 +16612,21 @@
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="51"/>
       <c r="B18" s="51"/>
-      <c r="C18" s="103"/>
-      <c r="D18" s="104"/>
+      <c r="C18" s="102"/>
+      <c r="D18" s="103"/>
       <c r="E18" s="52"/>
       <c r="F18" s="53" t="s">
         <v>237</v>
       </c>
-      <c r="G18" s="105"/>
-      <c r="H18" s="105"/>
-      <c r="I18" s="105"/>
-      <c r="J18" s="105"/>
-      <c r="K18" s="105"/>
-      <c r="L18" s="105"/>
-      <c r="M18" s="105"/>
-      <c r="N18" s="105"/>
-      <c r="O18" s="105"/>
+      <c r="G18" s="104"/>
+      <c r="H18" s="104"/>
+      <c r="I18" s="104"/>
+      <c r="J18" s="104"/>
+      <c r="K18" s="104"/>
+      <c r="L18" s="104"/>
+      <c r="M18" s="104"/>
+      <c r="N18" s="104"/>
+      <c r="O18" s="104"/>
       <c r="P18" s="43"/>
       <c r="Q18" s="44"/>
       <c r="AB18" s="50"/>
@@ -16488,21 +16635,21 @@
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="51"/>
       <c r="B19" s="51"/>
-      <c r="C19" s="103"/>
-      <c r="D19" s="104"/>
+      <c r="C19" s="102"/>
+      <c r="D19" s="103"/>
       <c r="E19" s="52"/>
       <c r="F19" s="53" t="s">
         <v>100</v>
       </c>
-      <c r="G19" s="105"/>
-      <c r="H19" s="105"/>
-      <c r="I19" s="105"/>
-      <c r="J19" s="105"/>
-      <c r="K19" s="105"/>
-      <c r="L19" s="105"/>
-      <c r="M19" s="105"/>
-      <c r="N19" s="105"/>
-      <c r="O19" s="105"/>
+      <c r="G19" s="104"/>
+      <c r="H19" s="104"/>
+      <c r="I19" s="104"/>
+      <c r="J19" s="104"/>
+      <c r="K19" s="104"/>
+      <c r="L19" s="104"/>
+      <c r="M19" s="104"/>
+      <c r="N19" s="104"/>
+      <c r="O19" s="104"/>
       <c r="P19" s="43"/>
       <c r="Q19" s="44"/>
       <c r="AB19" s="50"/>
@@ -16511,21 +16658,21 @@
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="51"/>
       <c r="B20" s="51"/>
-      <c r="C20" s="103"/>
-      <c r="D20" s="104"/>
+      <c r="C20" s="102"/>
+      <c r="D20" s="103"/>
       <c r="E20" s="52"/>
       <c r="F20" s="53" t="s">
         <v>116</v>
       </c>
-      <c r="G20" s="105"/>
-      <c r="H20" s="105"/>
-      <c r="I20" s="105"/>
-      <c r="J20" s="105"/>
-      <c r="K20" s="105"/>
-      <c r="L20" s="105"/>
-      <c r="M20" s="105"/>
-      <c r="N20" s="105"/>
-      <c r="O20" s="105"/>
+      <c r="G20" s="104"/>
+      <c r="H20" s="104"/>
+      <c r="I20" s="104"/>
+      <c r="J20" s="104"/>
+      <c r="K20" s="104"/>
+      <c r="L20" s="104"/>
+      <c r="M20" s="104"/>
+      <c r="N20" s="104"/>
+      <c r="O20" s="104"/>
       <c r="P20" s="43"/>
       <c r="Q20" s="44"/>
       <c r="AB20" s="50"/>
@@ -16534,21 +16681,21 @@
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="51"/>
       <c r="B21" s="51"/>
-      <c r="C21" s="103"/>
-      <c r="D21" s="104"/>
+      <c r="C21" s="102"/>
+      <c r="D21" s="103"/>
       <c r="E21" s="52"/>
       <c r="F21" s="53" t="s">
         <v>117</v>
       </c>
-      <c r="G21" s="105"/>
-      <c r="H21" s="105"/>
-      <c r="I21" s="105"/>
-      <c r="J21" s="105"/>
-      <c r="K21" s="105"/>
-      <c r="L21" s="105"/>
-      <c r="M21" s="105"/>
-      <c r="N21" s="105"/>
-      <c r="O21" s="105"/>
+      <c r="G21" s="104"/>
+      <c r="H21" s="104"/>
+      <c r="I21" s="104"/>
+      <c r="J21" s="104"/>
+      <c r="K21" s="104"/>
+      <c r="L21" s="104"/>
+      <c r="M21" s="104"/>
+      <c r="N21" s="104"/>
+      <c r="O21" s="104"/>
       <c r="P21" s="43"/>
       <c r="Q21" s="44"/>
       <c r="AB21" s="50"/>
@@ -16580,37 +16727,37 @@
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="44"/>
       <c r="B23" s="44"/>
-      <c r="C23" s="99"/>
-      <c r="D23" s="99"/>
-      <c r="E23" s="99"/>
-      <c r="F23" s="100" t="n">
+      <c r="C23" s="98"/>
+      <c r="D23" s="98"/>
+      <c r="E23" s="98"/>
+      <c r="F23" s="99" t="n">
         <v>0</v>
       </c>
-      <c r="G23" s="100" t="n">
-        <v>1</v>
-      </c>
-      <c r="H23" s="100" t="n">
+      <c r="G23" s="99" t="n">
+        <v>1</v>
+      </c>
+      <c r="H23" s="99" t="n">
         <v>2</v>
       </c>
-      <c r="I23" s="100" t="n">
+      <c r="I23" s="99" t="n">
         <v>3</v>
       </c>
-      <c r="J23" s="100" t="n">
-        <v>4</v>
-      </c>
-      <c r="K23" s="100" t="n">
-        <v>5</v>
-      </c>
-      <c r="L23" s="100" t="n">
+      <c r="J23" s="99" t="n">
+        <v>4</v>
+      </c>
+      <c r="K23" s="99" t="n">
+        <v>5</v>
+      </c>
+      <c r="L23" s="99" t="n">
         <v>6</v>
       </c>
-      <c r="M23" s="100" t="n">
+      <c r="M23" s="99" t="n">
         <v>7</v>
       </c>
-      <c r="N23" s="100" t="n">
+      <c r="N23" s="99" t="n">
         <v>8</v>
       </c>
-      <c r="O23" s="100" t="n">
+      <c r="O23" s="99" t="n">
         <v>9</v>
       </c>
       <c r="P23" s="44"/>

--- a/designment/mvc-framework-document.xlsx
+++ b/designment/mvc-framework-document.xlsx
@@ -19,10 +19,10 @@
     <definedName function="false" hidden="false" localSheetId="0" name="MOD_0" vbProcedure="false">VINE_Documents!$A$1:$Y$237</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="MOD_0_COM" vbProcedure="false">VINE_Documents!$A$4:$Y$237</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="MOD_0_SUP" vbProcedure="false">VINE_Documents!$A$1:$Y$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="AREA" vbProcedure="false">VORM_0_Guide_DET!$A$1:$E$117</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="LMN_0" vbProcedure="false">VORM_0_Guide_DET!$D$1:$D$117</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="MOD_0" vbProcedure="false">VORM_0_Guide_DET!$A$1:$E$117</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="MOD_0_COM" vbProcedure="false">VORM_0_Guide_DET!$A$5:$E$117</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="AREA" vbProcedure="false">VORM_0_Guide_DET!$A$1:$E$137</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="LMN_0" vbProcedure="false">VORM_0_Guide_DET!$D$1:$D$137</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="MOD_0" vbProcedure="false">VORM_0_Guide_DET!$A$1:$E$137</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="MOD_0_COM" vbProcedure="false">VORM_0_Guide_DET!$A$5:$E$137</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="MOD_0_SUP" vbProcedure="false">VORM_0_Guide_DET!$A$1:$E$4</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="AREA" vbProcedure="false">VORM_0_Classification!$A$1:$P$22</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="LMN_0" vbProcedure="false">VORM_0_Classification!$F$1:$O$22</definedName>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1241" uniqueCount="258">
   <si>
     <t xml:space="preserve">fs</t>
   </si>
@@ -457,51 +457,6 @@
   </si>
   <si>
     <t xml:space="preserve">README</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MVC Framework</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MVC Framework is a Javascript implementation of the **[Presentation-Abstraction-Control (PAC) Pattern](https://en.wikipedia.org/wiki/Presentation%E2%80%93abstraction%E2%80%93control)**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">##</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Features</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Dynamic Event Target (DET) ventilates Object, Array, and Map property modifier functions. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Dynamic Event System (DES) facilitates Event Target/Dynamic Event Target property assignment and ablement.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Fetch Router interfacilitates client/server endpoint calls and callbacks. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Documents</t>
-  </si>
-  <si>
-    <t xml:space="preserve">###</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- [Classification](./document/Classification/index.md)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demonstration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dynamic Event Target (DET) Guide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dynamic Event Target (DET) ventilates Object, Array, and Map Property Modifier Functions  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DET Object Guide</t>
   </si>
   <si>
     <r>
@@ -512,41 +467,8 @@
         <family val="3"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Dynamic Event Target (</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="FreeMono"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">DET)</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="FreeMono"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> Object</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Dynamic Event Target (DET) ventilates Object Property Modifier Functions: </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="FreeMono"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">- **6** Object Property Modifier Functions  
+      <t xml:space="preserve">&gt; [!WARNING]  
+&gt; Early Stage Development  
 </t>
     </r>
     <r>
@@ -556,156 +478,125 @@
         <rFont val="FreeMono"/>
         <family val="3"/>
       </rPr>
-      <t xml:space="preserve">- **8** Object Property Modifier Function Event Emissions  </t>
+      <t xml:space="preserve">&gt; [!CAUTION]  
+&gt; Use At Own Risk  
+&gt; [!NOTE]  
+&gt; Interested in MVC Framework? 
+&gt; thomas.patrick.welborn@outlook.com</t>
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="FreeMono"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">1. **</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="FreeMono"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">Object Assign**
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="FreeMono"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">   1. assignSourceProperty
+    <t xml:space="preserve">#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MVC Framework</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MVC Framework is a Javascript implementation of the **[Presentation-Abstraction-Control (PAC) Pattern](https://en.wikipedia.org/wiki/Presentation%E2%80%93abstraction%E2%80%93control)**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">##</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Features</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Dynamic Event Target (DET) ventilates Object, Array, and Map property modifier functions. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Dynamic Event System (DES) facilitates Event Target/Dynamic Event Target property assignment and ablement.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Fetch Router interfacilitates client/server endpoint calls and callbacks. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Documents</t>
+  </si>
+  <si>
+    <t xml:space="preserve">###</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- [Classification](./document/Classification/index.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demonstration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dynamic Event Target (DET) Guide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dynamic Event Target (DET) ventilates Object, Array, and Map Property Modifier Functions  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DET Methodology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DET Class Constructor Root Argument may be an Object, Array, or Map Instance.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Root Argument defines DET Class Instance Properties</t>
+  </si>
+  <si>
+    <t xml:space="preserve">####</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DET Class Instance Type Property</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#####</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Property: Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Property: Root</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Property: Proxy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DET Class Instance Root Property</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- {}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- []</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DET Object Guide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dynamic Event Target (DET) Object</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dynamic Event Target (DET) ventilates **Object Property Modifier Functions**: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">- **6** Object Property Modifier Functions  
+- **8** Object Property Modifier Function Event Emissions  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. **Object Assign**
+   1. assignSourceProperty
    2. assignSource
    3. assign
-2. **</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="FreeMono"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">Object Define Properties**
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="FreeMono"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">   1. defineProperties
-3. **</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="FreeMono"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">Object Define Property**
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="FreeMono"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">   1. defineProperty
-4. **</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="FreeMono"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">Object Freeze**
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="FreeMono"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">   1. freeze
-5. **</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="FreeMono"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">Object Seal**
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="FreeMono"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">   1. seal
-6. **</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="FreeMono"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">Object Set Prototype**
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="FreeMono"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">   1. setPrototypeOf</t>
-    </r>
+2. **Object Define Properties**
+   1. defineProperties
+3. **Object Define Property**
+   1. defineProperty
+4. **Object Freeze**
+   1. freeze
+5. **Object Seal**
+   1. seal
+6. **Object Set Prototype**
+   1. setPrototypeOf</t>
   </si>
   <si>
     <t xml:space="preserve">DET Object Instantiation</t>
   </si>
   <si>
-    <t xml:space="preserve">Object Creation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">####</t>
+    <t xml:space="preserve">DET Object Creation</t>
   </si>
   <si>
     <t xml:space="preserve">New DET Object</t>
@@ -730,7 +621,7 @@
 ```</t>
   </si>
   <si>
-    <t xml:space="preserve">Object Event Listener Signment</t>
+    <t xml:space="preserve">DET Object Event Listener Signment</t>
   </si>
   <si>
     <t xml:space="preserve">Add Event Listener</t>
@@ -759,10 +650,10 @@
     <t xml:space="preserve">DET Object Ventilation</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Object Assign</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1. assignSourceProperty</t>
+    <t xml:space="preserve">1. DET Object Assign Events</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1. "assignSourceProperty" Event</t>
   </si>
   <si>
     <t xml:space="preserve">`assignSourceProperty` event occurs after each source property assignment to DET instance. </t>
@@ -777,7 +668,14 @@
 ```</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2. assignSource</t>
+    <t xml:space="preserve">|Property Key|Property Val Type|Property Description|
+|-|-|-|
+|key|String, Number|Assigned Source Property Key|
+|val|Any|Assigned Source Property Val|
+|source|Object|Assigned Source|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2. "assignSource" Event</t>
   </si>
   <si>
     <t xml:space="preserve">`assignSource` event occurs after each source assignment to DET instance. </t>
@@ -790,7 +688,12 @@
 ```</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3. assign</t>
+    <t xml:space="preserve">|Property Key|Property Val Type|Property Description|
+|-|-|-|
+|source|Object|Assigned Source|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3. "assign" Event</t>
   </si>
   <si>
     <t xml:space="preserve">`assign` event occurs after all sources assigned to DET instance. </t>
@@ -803,13 +706,18 @@
 ```</t>
   </si>
   <si>
-    <t xml:space="preserve">2. Object Define Properties</t>
-  </si>
-  <si>
-    <t xml:space="preserve">**Triggers** Define Property Event</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1. defineProperties</t>
+    <t xml:space="preserve">|Property Key|Property Val Type|Property Description|
+|-|-|-|
+|sources|Object|Assigned Sources|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. DET Object Define Properties Events</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Triggers** Define Property Events before Define Properties Event</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1. "defineProperties" Event</t>
   </si>
   <si>
     <t xml:space="preserve">`defineProperties` event occurs after all properties defined on DET instance. </t>
@@ -822,10 +730,15 @@
 ```</t>
   </si>
   <si>
-    <t xml:space="preserve">3. Object Define Property</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1. defineProperty</t>
+    <t xml:space="preserve">|Property Key|Property Val Type|Property Description|
+|-|-|-|
+|descriptors|Object|Assigned Property Descriptors|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. DET Object Define Property Event</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1. "defineProperty" Event</t>
   </si>
   <si>
     <t xml:space="preserve">`defineProperty` event occurs after each property definition on DET instance. </t>
@@ -840,20 +753,33 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">4. Object Freeze</t>
+    <t xml:space="preserve">|Property Key|Property Val Type|Property Description|
+|-|-|-|
+|prop|String|Property Key|
+|descriptor|Object|Assigned Property Descriptor|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. DET Object Freeze Event</t>
   </si>
   <si>
     <t xml:space="preserve">4.1. freeze</t>
   </si>
   <si>
-    <t xml:space="preserve">`freeze` event occurs after DET instance frozen. </t>
+    <t xml:space="preserve">`freeze` event occurs after DET instance frozen.</t>
   </si>
   <si>
     <t xml:space="preserve">```
-{}
+{
+  isFrozen
+}
 ```</t>
   </si>
   <si>
+    <t xml:space="preserve">|Property Key|Property Val Type|Property Description|
+|-|-|-|
+|isFrozen|Boolean|Frozen Property Is Frozen|</t>
+  </si>
+  <si>
     <t xml:space="preserve">5. Object Seal</t>
   </si>
   <si>
@@ -861,6 +787,18 @@
   </si>
   <si>
     <t xml:space="preserve">`seal` event occurs after DET instance sealed. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">```
+{
+  isSealed
+}
+```</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|Property Key|Property Val Type|Property Description|
+|-|-|-|
+|isSealed|Boolean|Sealed Property Is Frozen|</t>
   </si>
   <si>
     <t xml:space="preserve">6. Object Set Prototype</t>
@@ -1152,6 +1090,7 @@
       <color rgb="FFFFE082"/>
       <name val="FreeMono"/>
       <family val="3"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -1161,7 +1100,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="48">
+  <fills count="46">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1314,12 +1253,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF880E4F"/>
-        <bgColor rgb="FFA61137"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFAFAFA"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
@@ -1328,6 +1261,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFCE4EC"/>
         <bgColor rgb="FFF3E5F5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF880E4F"/>
+        <bgColor rgb="FFA61137"/>
       </patternFill>
     </fill>
     <fill>
@@ -1352,12 +1291,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF3E2723"/>
         <bgColor rgb="FF332B34"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE1BEE7"/>
-        <bgColor rgb="FFF8BBD0"/>
       </patternFill>
     </fill>
     <fill>
@@ -1392,20 +1325,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD7CCC8"/>
-        <bgColor rgb="FFE1BEE7"/>
+        <fgColor rgb="FFE1BEE7"/>
+        <bgColor rgb="FFF8BBD0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF8BBD0"/>
         <bgColor rgb="FFE1BEE7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEFEBE9"/>
-        <bgColor rgb="FFEDE7F6"/>
       </patternFill>
     </fill>
     <fill>
@@ -1617,7 +1544,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="102">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1822,19 +1749,19 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="26" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="26" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="27" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="26" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="27" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="27" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1843,7 +1770,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="28" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="29" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -1870,15 +1797,15 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="28" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="27" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="28" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="27" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="28" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="27" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1886,15 +1813,15 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="26" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="28" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="33" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="33" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="33" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="31" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1902,27 +1829,27 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="31" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="35" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="35" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="35" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="36" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="36" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="37" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="36" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="37" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="37" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="38" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="38" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1930,27 +1857,15 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="39" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="40" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="39" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="40" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="39" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="40" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="40" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="41" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="39" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1958,7 +1873,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="25" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="25" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1966,15 +1881,27 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="7" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="42" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="18" fillId="40" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="42" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="40" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="41" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="41" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="42" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1995,18 +1922,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="45" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="46" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="47" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="47" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2034,7 +1949,7 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="26" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="28" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2086,23 +2001,23 @@
       <rgbColor rgb="FFE1BEE7"/>
       <rgbColor rgb="FF28222A"/>
       <rgbColor rgb="FFEC407A"/>
-      <rgbColor rgb="FFFCE4EC"/>
+      <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF7B1FA2"/>
       <rgbColor rgb="FF5D4037"/>
       <rgbColor rgb="FF424242"/>
       <rgbColor rgb="FF5E35B1"/>
-      <rgbColor rgb="FFFE5E05"/>
-      <rgbColor rgb="FFEFEBE9"/>
+      <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFEDE7F6"/>
+      <rgbColor rgb="FFF3E5F5"/>
       <rgbColor rgb="FFFFE082"/>
-      <rgbColor rgb="FFD7CCC8"/>
+      <rgbColor rgb="FFFCE4EC"/>
       <rgbColor rgb="FFF8BBD0"/>
       <rgbColor rgb="FFB7B3B2"/>
       <rgbColor rgb="FFFFDE8A"/>
       <rgbColor rgb="FF0D47A1"/>
       <rgbColor rgb="FFAB47BC"/>
-      <rgbColor rgb="FFF3E5F5"/>
+      <rgbColor rgb="FFFE5E05"/>
       <rgbColor rgb="FFFFD740"/>
       <rgbColor rgb="FFFFA000"/>
       <rgbColor rgb="FFFF6201"/>
@@ -2236,7 +2151,7 @@
   <dimension ref="A1:Z244"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L257" activeCellId="0" sqref="L257"/>
+      <selection pane="topLeft" activeCell="L261" activeCellId="0" sqref="L261"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="2" outlineLevelCol="0"/>
@@ -14538,10 +14453,10 @@
     <tabColor rgb="FFD500F9"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R135"/>
+  <dimension ref="A1:R155"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A35" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D37" activeCellId="0" sqref="D37"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
@@ -14601,7 +14516,7 @@
       <c r="E4" s="43"/>
       <c r="F4" s="44"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="48" t="n">
         <f aca="false">VINE_Documents!$A$10</f>
         <v>6</v>
@@ -14616,51 +14531,53 @@
       <c r="Q5" s="50"/>
       <c r="R5" s="50"/>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="6" customFormat="false" ht="88.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="51"/>
       <c r="B6" s="51"/>
-      <c r="C6" s="52" t="s">
+      <c r="C6" s="52"/>
+      <c r="D6" s="53" t="s">
         <v>139</v>
-      </c>
-      <c r="D6" s="53" t="s">
-        <v>140</v>
       </c>
       <c r="E6" s="43"/>
       <c r="F6" s="44"/>
       <c r="Q6" s="50"/>
       <c r="R6" s="50"/>
     </row>
-    <row r="7" customFormat="false" ht="32.2" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A7" s="54"/>
       <c r="B7" s="54"/>
-      <c r="C7" s="55"/>
+      <c r="C7" s="55" t="s">
+        <v>140</v>
+      </c>
       <c r="D7" s="56" t="s">
         <v>141</v>
       </c>
-      <c r="E7" s="43"/>
+      <c r="E7" s="43" t="s">
+        <v>2</v>
+      </c>
       <c r="F7" s="44"/>
       <c r="Q7" s="50"/>
       <c r="R7" s="50"/>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A8" s="57"/>
-      <c r="B8" s="57"/>
-      <c r="C8" s="58" t="s">
+    <row r="8" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A8" s="51"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="53" t="s">
         <v>142</v>
-      </c>
-      <c r="D8" s="59" t="s">
-        <v>143</v>
       </c>
       <c r="E8" s="43"/>
       <c r="F8" s="44"/>
       <c r="Q8" s="50"/>
       <c r="R8" s="50"/>
     </row>
-    <row r="9" customFormat="false" ht="21.95" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A9" s="54"/>
-      <c r="B9" s="54"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="56" t="s">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A9" s="57"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="58" t="s">
+        <v>143</v>
+      </c>
+      <c r="D9" s="59" t="s">
         <v>144</v>
       </c>
       <c r="E9" s="43"/>
@@ -14668,11 +14585,11 @@
       <c r="Q9" s="50"/>
       <c r="R9" s="50"/>
     </row>
-    <row r="10" customFormat="false" ht="21.95" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A10" s="54"/>
-      <c r="B10" s="54"/>
-      <c r="C10" s="55"/>
-      <c r="D10" s="56" t="s">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A10" s="51"/>
+      <c r="B10" s="51"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="53" t="s">
         <v>145</v>
       </c>
       <c r="E10" s="43"/>
@@ -14680,11 +14597,11 @@
       <c r="Q10" s="50"/>
       <c r="R10" s="50"/>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A11" s="54"/>
-      <c r="B11" s="54"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="56" t="s">
+    <row r="11" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A11" s="51"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="53" t="s">
         <v>146</v>
       </c>
       <c r="E11" s="43"/>
@@ -14692,13 +14609,11 @@
       <c r="Q11" s="50"/>
       <c r="R11" s="50"/>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A12" s="57"/>
-      <c r="B12" s="57"/>
-      <c r="C12" s="58" t="s">
-        <v>142</v>
-      </c>
-      <c r="D12" s="59" t="s">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A12" s="51"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="53" t="s">
         <v>147</v>
       </c>
       <c r="E12" s="43"/>
@@ -14706,140 +14621,142 @@
       <c r="Q12" s="50"/>
       <c r="R12" s="50"/>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A13" s="60"/>
-      <c r="B13" s="60"/>
-      <c r="C13" s="61" t="s">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A13" s="57"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="58" t="s">
+        <v>143</v>
+      </c>
+      <c r="D13" s="59" t="s">
         <v>148</v>
-      </c>
-      <c r="D13" s="62" t="s">
-        <v>39</v>
       </c>
       <c r="E13" s="43"/>
       <c r="F13" s="44"/>
       <c r="Q13" s="50"/>
       <c r="R13" s="50"/>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A14" s="54"/>
-      <c r="B14" s="54"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="63" t="s">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A14" s="60"/>
+      <c r="B14" s="60"/>
+      <c r="C14" s="61" t="s">
         <v>149</v>
+      </c>
+      <c r="D14" s="62" t="s">
+        <v>39</v>
       </c>
       <c r="E14" s="43"/>
       <c r="F14" s="44"/>
       <c r="Q14" s="50"/>
       <c r="R14" s="50"/>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A15" s="54"/>
-      <c r="B15" s="54"/>
-      <c r="C15" s="55"/>
-      <c r="D15" s="64"/>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A15" s="51"/>
+      <c r="B15" s="51"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="63" t="s">
+        <v>150</v>
+      </c>
       <c r="E15" s="43"/>
       <c r="F15" s="44"/>
       <c r="Q15" s="50"/>
       <c r="R15" s="50"/>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A16" s="54"/>
-      <c r="B16" s="54"/>
-      <c r="C16" s="55"/>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A16" s="51"/>
+      <c r="B16" s="51"/>
+      <c r="C16" s="52"/>
       <c r="D16" s="64"/>
       <c r="E16" s="43"/>
       <c r="F16" s="44"/>
       <c r="Q16" s="50"/>
       <c r="R16" s="50"/>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A17" s="54"/>
-      <c r="B17" s="54"/>
-      <c r="C17" s="55"/>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A17" s="51"/>
+      <c r="B17" s="51"/>
+      <c r="C17" s="52"/>
       <c r="D17" s="64"/>
       <c r="E17" s="43"/>
       <c r="F17" s="44"/>
       <c r="Q17" s="50"/>
       <c r="R17" s="50"/>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A18" s="54"/>
-      <c r="B18" s="54"/>
-      <c r="C18" s="55"/>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A18" s="51"/>
+      <c r="B18" s="51"/>
+      <c r="C18" s="52"/>
       <c r="D18" s="64"/>
       <c r="E18" s="43"/>
       <c r="F18" s="44"/>
       <c r="Q18" s="50"/>
       <c r="R18" s="50"/>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A19" s="54"/>
-      <c r="B19" s="54"/>
-      <c r="C19" s="55"/>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A19" s="51"/>
+      <c r="B19" s="51"/>
+      <c r="C19" s="52"/>
       <c r="D19" s="64"/>
       <c r="E19" s="43"/>
       <c r="F19" s="44"/>
       <c r="Q19" s="50"/>
       <c r="R19" s="50"/>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A20" s="60"/>
-      <c r="B20" s="60"/>
-      <c r="C20" s="61" t="s">
-        <v>148</v>
-      </c>
-      <c r="D20" s="62" t="s">
-        <v>150</v>
-      </c>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A20" s="51"/>
+      <c r="B20" s="51"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="64"/>
       <c r="E20" s="43"/>
       <c r="F20" s="44"/>
       <c r="Q20" s="50"/>
       <c r="R20" s="50"/>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A21" s="54"/>
-      <c r="B21" s="54"/>
-      <c r="C21" s="65"/>
-      <c r="D21" s="63"/>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A21" s="60"/>
+      <c r="B21" s="60"/>
+      <c r="C21" s="61" t="s">
+        <v>149</v>
+      </c>
+      <c r="D21" s="62" t="s">
+        <v>151</v>
+      </c>
       <c r="E21" s="43"/>
       <c r="F21" s="44"/>
       <c r="Q21" s="50"/>
       <c r="R21" s="50"/>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="48" t="n">
-        <f aca="false">VINE_Documents!$A$15</f>
-        <v>11</v>
-      </c>
-      <c r="B22" s="49" t="s">
-        <v>151</v>
-      </c>
-      <c r="C22" s="49"/>
-      <c r="D22" s="49"/>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A22" s="51"/>
+      <c r="B22" s="51"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="63"/>
       <c r="E22" s="43"/>
       <c r="F22" s="44"/>
       <c r="Q22" s="50"/>
       <c r="R22" s="50"/>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="66"/>
-      <c r="B23" s="66"/>
-      <c r="C23" s="52" t="s">
-        <v>139</v>
-      </c>
-      <c r="D23" s="67" t="s">
-        <v>151</v>
-      </c>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="48" t="n">
+        <f aca="false">VINE_Documents!$A$15</f>
+        <v>11</v>
+      </c>
+      <c r="B23" s="49" t="s">
+        <v>152</v>
+      </c>
+      <c r="C23" s="49"/>
+      <c r="D23" s="49"/>
       <c r="E23" s="43"/>
       <c r="F23" s="44"/>
       <c r="Q23" s="50"/>
       <c r="R23" s="50"/>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="54"/>
-      <c r="B24" s="54"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="56" t="s">
+    <row r="24" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A24" s="66"/>
+      <c r="B24" s="66"/>
+      <c r="C24" s="55" t="s">
+        <v>140</v>
+      </c>
+      <c r="D24" s="67" t="s">
         <v>152</v>
       </c>
       <c r="E24" s="43"/>
@@ -14847,28 +14764,25 @@
       <c r="Q24" s="50"/>
       <c r="R24" s="50"/>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="48" t="n">
-        <f aca="false">VINE_Documents!$A$17</f>
-        <v>13</v>
-      </c>
-      <c r="B25" s="49" t="s">
+    <row r="25" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A25" s="51"/>
+      <c r="B25" s="51"/>
+      <c r="C25" s="65"/>
+      <c r="D25" s="53" t="s">
         <v>153</v>
       </c>
-      <c r="C25" s="49"/>
-      <c r="D25" s="49"/>
       <c r="E25" s="43"/>
       <c r="F25" s="44"/>
       <c r="Q25" s="50"/>
       <c r="R25" s="50"/>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="66"/>
-      <c r="B26" s="66"/>
-      <c r="C26" s="52" t="s">
-        <v>139</v>
-      </c>
-      <c r="D26" s="67" t="s">
+    <row r="26" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A26" s="68"/>
+      <c r="B26" s="68"/>
+      <c r="C26" s="61" t="s">
+        <v>143</v>
+      </c>
+      <c r="D26" s="69" t="s">
         <v>154</v>
       </c>
       <c r="E26" s="43"/>
@@ -14876,11 +14790,11 @@
       <c r="Q26" s="50"/>
       <c r="R26" s="50"/>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="54"/>
-      <c r="B27" s="54"/>
+    <row r="27" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A27" s="51"/>
+      <c r="B27" s="51"/>
       <c r="C27" s="65"/>
-      <c r="D27" s="56" t="s">
+      <c r="D27" s="53" t="s">
         <v>155</v>
       </c>
       <c r="E27" s="43"/>
@@ -14888,11 +14802,13 @@
       <c r="Q27" s="50"/>
       <c r="R27" s="50"/>
     </row>
-    <row r="28" customFormat="false" ht="21.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="54"/>
-      <c r="B28" s="54"/>
-      <c r="C28" s="65"/>
-      <c r="D28" s="56" t="s">
+    <row r="28" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A28" s="70"/>
+      <c r="B28" s="70"/>
+      <c r="C28" s="71" t="s">
+        <v>149</v>
+      </c>
+      <c r="D28" s="72" t="s">
         <v>156</v>
       </c>
       <c r="E28" s="43"/>
@@ -14900,300 +14816,305 @@
       <c r="Q28" s="50"/>
       <c r="R28" s="50"/>
     </row>
-    <row r="29" customFormat="false" ht="141.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="54"/>
-      <c r="B29" s="54"/>
-      <c r="C29" s="68"/>
-      <c r="D29" s="69" t="s">
+    <row r="29" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A29" s="73"/>
+      <c r="B29" s="73"/>
+      <c r="C29" s="74" t="s">
         <v>157</v>
+      </c>
+      <c r="D29" s="75" t="s">
+        <v>158</v>
       </c>
       <c r="E29" s="43"/>
       <c r="F29" s="44"/>
       <c r="Q29" s="50"/>
       <c r="R29" s="50"/>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="70"/>
-      <c r="B30" s="70"/>
-      <c r="C30" s="61" t="s">
-        <v>142</v>
-      </c>
-      <c r="D30" s="71" t="s">
-        <v>158</v>
+    <row r="30" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A30" s="51"/>
+      <c r="B30" s="51"/>
+      <c r="C30" s="65" t="s">
+        <v>159</v>
+      </c>
+      <c r="D30" s="53" t="s">
+        <v>160</v>
       </c>
       <c r="E30" s="43"/>
       <c r="F30" s="44"/>
       <c r="Q30" s="50"/>
       <c r="R30" s="50"/>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="72"/>
-      <c r="B31" s="72"/>
-      <c r="C31" s="73" t="s">
-        <v>148</v>
-      </c>
-      <c r="D31" s="74" t="s">
+    <row r="31" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A31" s="51"/>
+      <c r="B31" s="51"/>
+      <c r="C31" s="65" t="s">
         <v>159</v>
+      </c>
+      <c r="D31" s="53" t="s">
+        <v>161</v>
       </c>
       <c r="E31" s="43"/>
       <c r="F31" s="44"/>
       <c r="Q31" s="50"/>
       <c r="R31" s="50"/>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="75"/>
-      <c r="B32" s="75"/>
-      <c r="C32" s="76" t="s">
-        <v>160</v>
-      </c>
-      <c r="D32" s="77" t="s">
-        <v>161</v>
+    <row r="32" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A32" s="51"/>
+      <c r="B32" s="51"/>
+      <c r="C32" s="65" t="s">
+        <v>159</v>
+      </c>
+      <c r="D32" s="53" t="s">
+        <v>162</v>
       </c>
       <c r="E32" s="43"/>
       <c r="F32" s="44"/>
       <c r="Q32" s="50"/>
       <c r="R32" s="50"/>
     </row>
-    <row r="33" customFormat="false" ht="175.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="78"/>
-      <c r="B33" s="78"/>
-      <c r="C33" s="79"/>
-      <c r="D33" s="80" t="s">
-        <v>162</v>
+    <row r="33" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A33" s="51"/>
+      <c r="B33" s="51"/>
+      <c r="C33" s="65"/>
+      <c r="D33" s="53" t="s">
+        <v>163</v>
       </c>
       <c r="E33" s="43"/>
       <c r="F33" s="44"/>
       <c r="Q33" s="50"/>
       <c r="R33" s="50"/>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="72"/>
-      <c r="B34" s="72"/>
-      <c r="C34" s="73" t="s">
-        <v>148</v>
-      </c>
-      <c r="D34" s="74" t="s">
-        <v>163</v>
+    <row r="34" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A34" s="51"/>
+      <c r="B34" s="51"/>
+      <c r="C34" s="65"/>
+      <c r="D34" s="53" t="s">
+        <v>164</v>
       </c>
       <c r="E34" s="43"/>
       <c r="F34" s="44"/>
       <c r="Q34" s="50"/>
       <c r="R34" s="50"/>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="75"/>
-      <c r="B35" s="75"/>
-      <c r="C35" s="76" t="s">
-        <v>160</v>
-      </c>
-      <c r="D35" s="77" t="s">
-        <v>164</v>
+    <row r="35" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A35" s="51"/>
+      <c r="B35" s="51"/>
+      <c r="C35" s="65"/>
+      <c r="D35" s="53" t="s">
+        <v>165</v>
       </c>
       <c r="E35" s="43"/>
       <c r="F35" s="44"/>
       <c r="Q35" s="50"/>
       <c r="R35" s="50"/>
     </row>
-    <row r="36" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="78"/>
-      <c r="B36" s="78"/>
-      <c r="C36" s="79"/>
-      <c r="D36" s="80" t="s">
-        <v>165</v>
-      </c>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="48" t="n">
+        <f aca="false">VINE_Documents!$A$17</f>
+        <v>13</v>
+      </c>
+      <c r="B36" s="49" t="s">
+        <v>166</v>
+      </c>
+      <c r="C36" s="49"/>
+      <c r="D36" s="49"/>
       <c r="E36" s="43"/>
       <c r="F36" s="44"/>
       <c r="Q36" s="50"/>
       <c r="R36" s="50"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="75"/>
-      <c r="B37" s="75"/>
-      <c r="C37" s="76" t="s">
-        <v>160</v>
-      </c>
-      <c r="D37" s="77" t="s">
-        <v>166</v>
+      <c r="A37" s="66"/>
+      <c r="B37" s="66"/>
+      <c r="C37" s="55" t="s">
+        <v>140</v>
+      </c>
+      <c r="D37" s="67" t="s">
+        <v>167</v>
       </c>
       <c r="E37" s="43"/>
       <c r="F37" s="44"/>
       <c r="Q37" s="50"/>
       <c r="R37" s="50"/>
     </row>
-    <row r="38" customFormat="false" ht="51.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="78"/>
-      <c r="B38" s="78"/>
-      <c r="C38" s="81"/>
-      <c r="D38" s="82" t="s">
-        <v>167</v>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="66"/>
+      <c r="B38" s="66"/>
+      <c r="C38" s="65"/>
+      <c r="D38" s="53" t="s">
+        <v>168</v>
       </c>
       <c r="E38" s="43"/>
       <c r="F38" s="44"/>
       <c r="Q38" s="50"/>
       <c r="R38" s="50"/>
     </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="70"/>
-      <c r="B39" s="70"/>
-      <c r="C39" s="61" t="s">
-        <v>142</v>
-      </c>
-      <c r="D39" s="71" t="s">
-        <v>168</v>
+    <row r="39" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="66"/>
+      <c r="B39" s="66"/>
+      <c r="C39" s="65"/>
+      <c r="D39" s="53" t="s">
+        <v>169</v>
       </c>
       <c r="E39" s="43"/>
       <c r="F39" s="44"/>
       <c r="Q39" s="50"/>
       <c r="R39" s="50"/>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="72"/>
-      <c r="B40" s="72"/>
-      <c r="C40" s="73" t="s">
-        <v>148</v>
-      </c>
-      <c r="D40" s="74" t="s">
-        <v>169</v>
+    <row r="40" customFormat="false" ht="137.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="66"/>
+      <c r="B40" s="66"/>
+      <c r="C40" s="76"/>
+      <c r="D40" s="77" t="s">
+        <v>170</v>
       </c>
       <c r="E40" s="43"/>
       <c r="F40" s="44"/>
       <c r="Q40" s="50"/>
       <c r="R40" s="50"/>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A41" s="75"/>
-      <c r="B41" s="75"/>
-      <c r="C41" s="76" t="s">
-        <v>160</v>
-      </c>
-      <c r="D41" s="77" t="s">
-        <v>170</v>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="66"/>
+      <c r="B41" s="66"/>
+      <c r="C41" s="61" t="s">
+        <v>143</v>
+      </c>
+      <c r="D41" s="69" t="s">
+        <v>171</v>
       </c>
       <c r="E41" s="43"/>
       <c r="F41" s="44"/>
       <c r="Q41" s="50"/>
       <c r="R41" s="50"/>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A42" s="54"/>
-      <c r="B42" s="54"/>
-      <c r="C42" s="65"/>
-      <c r="D42" s="56" t="s">
-        <v>171</v>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="66"/>
+      <c r="B42" s="66"/>
+      <c r="C42" s="71" t="s">
+        <v>149</v>
+      </c>
+      <c r="D42" s="72" t="s">
+        <v>172</v>
       </c>
       <c r="E42" s="43"/>
       <c r="F42" s="44"/>
       <c r="Q42" s="50"/>
       <c r="R42" s="50"/>
     </row>
-    <row r="43" customFormat="false" ht="83.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A43" s="54"/>
-      <c r="B43" s="54"/>
-      <c r="C43" s="79"/>
-      <c r="D43" s="82" t="s">
-        <v>172</v>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="66"/>
+      <c r="B43" s="66"/>
+      <c r="C43" s="74" t="s">
+        <v>157</v>
+      </c>
+      <c r="D43" s="75" t="s">
+        <v>173</v>
       </c>
       <c r="E43" s="43"/>
       <c r="F43" s="44"/>
       <c r="Q43" s="50"/>
       <c r="R43" s="50"/>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A44" s="75"/>
-      <c r="B44" s="75"/>
-      <c r="C44" s="76" t="s">
-        <v>160</v>
-      </c>
-      <c r="D44" s="77" t="s">
-        <v>173</v>
+    <row r="44" customFormat="false" ht="166.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="66"/>
+      <c r="B44" s="66"/>
+      <c r="C44" s="78"/>
+      <c r="D44" s="79" t="s">
+        <v>174</v>
       </c>
       <c r="E44" s="43"/>
       <c r="F44" s="44"/>
       <c r="Q44" s="50"/>
       <c r="R44" s="50"/>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A45" s="54"/>
-      <c r="B45" s="54"/>
-      <c r="C45" s="65"/>
-      <c r="D45" s="56" t="s">
-        <v>174</v>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="66"/>
+      <c r="B45" s="66"/>
+      <c r="C45" s="71" t="s">
+        <v>149</v>
+      </c>
+      <c r="D45" s="72" t="s">
+        <v>175</v>
       </c>
       <c r="E45" s="43"/>
       <c r="F45" s="44"/>
       <c r="Q45" s="50"/>
       <c r="R45" s="50"/>
     </row>
-    <row r="46" customFormat="false" ht="52.6" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A46" s="54"/>
-      <c r="B46" s="54"/>
-      <c r="C46" s="79"/>
-      <c r="D46" s="82" t="s">
-        <v>175</v>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="66"/>
+      <c r="B46" s="66"/>
+      <c r="C46" s="74" t="s">
+        <v>157</v>
+      </c>
+      <c r="D46" s="75" t="s">
+        <v>176</v>
       </c>
       <c r="E46" s="43"/>
       <c r="F46" s="44"/>
       <c r="Q46" s="50"/>
       <c r="R46" s="50"/>
     </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A47" s="75"/>
-      <c r="B47" s="75"/>
-      <c r="C47" s="76" t="s">
-        <v>160</v>
-      </c>
-      <c r="D47" s="77" t="s">
-        <v>176</v>
+    <row r="47" customFormat="false" ht="88.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="66"/>
+      <c r="B47" s="66"/>
+      <c r="C47" s="78"/>
+      <c r="D47" s="79" t="s">
+        <v>177</v>
       </c>
       <c r="E47" s="43"/>
       <c r="F47" s="44"/>
       <c r="Q47" s="50"/>
       <c r="R47" s="50"/>
     </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A48" s="54"/>
-      <c r="B48" s="54"/>
-      <c r="C48" s="65"/>
-      <c r="D48" s="56" t="s">
-        <v>177</v>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="66"/>
+      <c r="B48" s="66"/>
+      <c r="C48" s="74" t="s">
+        <v>157</v>
+      </c>
+      <c r="D48" s="75" t="s">
+        <v>178</v>
       </c>
       <c r="E48" s="43"/>
       <c r="F48" s="44"/>
       <c r="Q48" s="50"/>
       <c r="R48" s="50"/>
     </row>
-    <row r="49" customFormat="false" ht="52.6" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A49" s="54"/>
-      <c r="B49" s="54"/>
-      <c r="C49" s="79"/>
-      <c r="D49" s="82" t="s">
-        <v>178</v>
+    <row r="49" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="66"/>
+      <c r="B49" s="66"/>
+      <c r="C49" s="80"/>
+      <c r="D49" s="79" t="s">
+        <v>179</v>
       </c>
       <c r="E49" s="43"/>
       <c r="F49" s="44"/>
       <c r="Q49" s="50"/>
       <c r="R49" s="50"/>
     </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A50" s="72"/>
-      <c r="B50" s="72"/>
-      <c r="C50" s="73" t="s">
-        <v>148</v>
-      </c>
-      <c r="D50" s="74" t="s">
-        <v>179</v>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="66"/>
+      <c r="B50" s="66"/>
+      <c r="C50" s="61" t="s">
+        <v>143</v>
+      </c>
+      <c r="D50" s="69" t="s">
+        <v>180</v>
       </c>
       <c r="E50" s="43"/>
       <c r="F50" s="44"/>
       <c r="Q50" s="50"/>
       <c r="R50" s="50"/>
     </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A51" s="54"/>
-      <c r="B51" s="54"/>
-      <c r="C51" s="65"/>
-      <c r="D51" s="56" t="s">
-        <v>180</v>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="66"/>
+      <c r="B51" s="66"/>
+      <c r="C51" s="71" t="s">
+        <v>149</v>
+      </c>
+      <c r="D51" s="72" t="s">
+        <v>181</v>
       </c>
       <c r="E51" s="43"/>
       <c r="F51" s="44"/>
@@ -15201,13 +15122,13 @@
       <c r="R51" s="50"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A52" s="75"/>
-      <c r="B52" s="75"/>
-      <c r="C52" s="76" t="s">
-        <v>160</v>
-      </c>
-      <c r="D52" s="77" t="s">
-        <v>181</v>
+      <c r="A52" s="66"/>
+      <c r="B52" s="66"/>
+      <c r="C52" s="74" t="s">
+        <v>157</v>
+      </c>
+      <c r="D52" s="75" t="s">
+        <v>182</v>
       </c>
       <c r="E52" s="43"/>
       <c r="F52" s="44"/>
@@ -15215,62 +15136,68 @@
       <c r="R52" s="50"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A53" s="54"/>
-      <c r="B53" s="54"/>
+      <c r="A53" s="66"/>
+      <c r="B53" s="66"/>
       <c r="C53" s="65"/>
-      <c r="D53" s="56" t="s">
-        <v>182</v>
+      <c r="D53" s="53" t="s">
+        <v>183</v>
       </c>
       <c r="E53" s="43"/>
       <c r="F53" s="44"/>
       <c r="Q53" s="50"/>
       <c r="R53" s="50"/>
     </row>
-    <row r="54" customFormat="false" ht="52.6" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A54" s="54"/>
-      <c r="B54" s="54"/>
-      <c r="C54" s="79"/>
-      <c r="D54" s="82" t="s">
-        <v>183</v>
+    <row r="54" customFormat="false" ht="69.35" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A54" s="66"/>
+      <c r="B54" s="66"/>
+      <c r="C54" s="78"/>
+      <c r="D54" s="79" t="s">
+        <v>184</v>
       </c>
       <c r="E54" s="43"/>
       <c r="F54" s="44"/>
       <c r="Q54" s="50"/>
       <c r="R54" s="50"/>
     </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A55" s="72"/>
-      <c r="B55" s="72"/>
-      <c r="C55" s="73" t="s">
-        <v>148</v>
-      </c>
-      <c r="D55" s="74" t="s">
-        <v>184</v>
+    <row r="55" s="1" customFormat="true" ht="49.95" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A55" s="66"/>
+      <c r="B55" s="66"/>
+      <c r="C55" s="65"/>
+      <c r="D55" s="53" t="s">
+        <v>185</v>
       </c>
       <c r="E55" s="43"/>
       <c r="F55" s="44"/>
+      <c r="G55" s="39"/>
+      <c r="H55" s="39"/>
+      <c r="I55" s="39"/>
+      <c r="J55" s="39"/>
+      <c r="K55" s="39"/>
+      <c r="L55" s="39"/>
+      <c r="M55" s="39"/>
+      <c r="N55" s="39"/>
+      <c r="O55" s="39"/>
+      <c r="P55" s="39"/>
       <c r="Q55" s="50"/>
       <c r="R55" s="50"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A56" s="75"/>
-      <c r="B56" s="75"/>
-      <c r="C56" s="76" t="s">
-        <v>160</v>
-      </c>
-      <c r="D56" s="77" t="s">
-        <v>185</v>
-      </c>
+      <c r="A56" s="66"/>
+      <c r="B56" s="66"/>
+      <c r="C56" s="65"/>
+      <c r="D56" s="53"/>
       <c r="E56" s="43"/>
       <c r="F56" s="44"/>
       <c r="Q56" s="50"/>
       <c r="R56" s="50"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A57" s="54"/>
-      <c r="B57" s="54"/>
-      <c r="C57" s="65"/>
-      <c r="D57" s="56" t="s">
+      <c r="A57" s="66"/>
+      <c r="B57" s="66"/>
+      <c r="C57" s="74" t="s">
+        <v>157</v>
+      </c>
+      <c r="D57" s="75" t="s">
         <v>186</v>
       </c>
       <c r="E57" s="43"/>
@@ -15278,11 +15205,11 @@
       <c r="Q57" s="50"/>
       <c r="R57" s="50"/>
     </row>
-    <row r="58" customFormat="false" ht="73.05" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A58" s="54"/>
-      <c r="B58" s="54"/>
-      <c r="C58" s="79"/>
-      <c r="D58" s="80" t="s">
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A58" s="66"/>
+      <c r="B58" s="66"/>
+      <c r="C58" s="65"/>
+      <c r="D58" s="53" t="s">
         <v>187</v>
       </c>
       <c r="E58" s="43"/>
@@ -15290,13 +15217,11 @@
       <c r="Q58" s="50"/>
       <c r="R58" s="50"/>
     </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A59" s="72"/>
-      <c r="B59" s="72"/>
-      <c r="C59" s="73" t="s">
-        <v>148</v>
-      </c>
-      <c r="D59" s="74" t="s">
+    <row r="59" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A59" s="66"/>
+      <c r="B59" s="66"/>
+      <c r="C59" s="78"/>
+      <c r="D59" s="79" t="s">
         <v>188</v>
       </c>
       <c r="E59" s="43"/>
@@ -15304,13 +15229,11 @@
       <c r="Q59" s="50"/>
       <c r="R59" s="50"/>
     </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A60" s="75"/>
-      <c r="B60" s="75"/>
-      <c r="C60" s="76" t="s">
-        <v>160</v>
-      </c>
-      <c r="D60" s="77" t="s">
+    <row r="60" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A60" s="66"/>
+      <c r="B60" s="66"/>
+      <c r="C60" s="65"/>
+      <c r="D60" s="53" t="s">
         <v>189</v>
       </c>
       <c r="E60" s="43"/>
@@ -15319,10 +15242,12 @@
       <c r="R60" s="50"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A61" s="83"/>
-      <c r="B61" s="83"/>
-      <c r="C61" s="65"/>
-      <c r="D61" s="56" t="s">
+      <c r="A61" s="66"/>
+      <c r="B61" s="66"/>
+      <c r="C61" s="74" t="s">
+        <v>157</v>
+      </c>
+      <c r="D61" s="75" t="s">
         <v>190</v>
       </c>
       <c r="E61" s="43"/>
@@ -15330,11 +15255,11 @@
       <c r="Q61" s="50"/>
       <c r="R61" s="50"/>
     </row>
-    <row r="62" customFormat="false" ht="32.2" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A62" s="78"/>
-      <c r="B62" s="78"/>
-      <c r="C62" s="79"/>
-      <c r="D62" s="80" t="s">
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A62" s="66"/>
+      <c r="B62" s="66"/>
+      <c r="C62" s="65"/>
+      <c r="D62" s="53" t="s">
         <v>191</v>
       </c>
       <c r="E62" s="43"/>
@@ -15342,13 +15267,11 @@
       <c r="Q62" s="50"/>
       <c r="R62" s="50"/>
     </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A63" s="72"/>
-      <c r="B63" s="72"/>
-      <c r="C63" s="73" t="s">
-        <v>148</v>
-      </c>
-      <c r="D63" s="74" t="s">
+    <row r="63" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A63" s="66"/>
+      <c r="B63" s="66"/>
+      <c r="C63" s="78"/>
+      <c r="D63" s="79" t="s">
         <v>192</v>
       </c>
       <c r="E63" s="43"/>
@@ -15356,13 +15279,11 @@
       <c r="Q63" s="50"/>
       <c r="R63" s="50"/>
     </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A64" s="75"/>
-      <c r="B64" s="75"/>
-      <c r="C64" s="76" t="s">
-        <v>160</v>
-      </c>
-      <c r="D64" s="77" t="s">
+    <row r="64" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A64" s="66"/>
+      <c r="B64" s="66"/>
+      <c r="C64" s="65"/>
+      <c r="D64" s="53" t="s">
         <v>193</v>
       </c>
       <c r="E64" s="43"/>
@@ -15371,10 +15292,12 @@
       <c r="R64" s="50"/>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A65" s="83"/>
-      <c r="B65" s="83"/>
-      <c r="C65" s="65"/>
-      <c r="D65" s="56" t="s">
+      <c r="A65" s="66"/>
+      <c r="B65" s="66"/>
+      <c r="C65" s="71" t="s">
+        <v>149</v>
+      </c>
+      <c r="D65" s="72" t="s">
         <v>194</v>
       </c>
       <c r="E65" s="43"/>
@@ -15382,12 +15305,12 @@
       <c r="Q65" s="50"/>
       <c r="R65" s="50"/>
     </row>
-    <row r="66" customFormat="false" ht="32.2" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A66" s="78"/>
-      <c r="B66" s="78"/>
-      <c r="C66" s="79"/>
-      <c r="D66" s="80" t="s">
-        <v>191</v>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A66" s="66"/>
+      <c r="B66" s="66"/>
+      <c r="C66" s="65"/>
+      <c r="D66" s="53" t="s">
+        <v>195</v>
       </c>
       <c r="E66" s="43"/>
       <c r="F66" s="44"/>
@@ -15395,13 +15318,13 @@
       <c r="R66" s="50"/>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A67" s="72"/>
-      <c r="B67" s="72"/>
-      <c r="C67" s="73" t="s">
-        <v>148</v>
-      </c>
-      <c r="D67" s="74" t="s">
-        <v>195</v>
+      <c r="A67" s="66"/>
+      <c r="B67" s="66"/>
+      <c r="C67" s="74" t="s">
+        <v>157</v>
+      </c>
+      <c r="D67" s="75" t="s">
+        <v>196</v>
       </c>
       <c r="E67" s="43"/>
       <c r="F67" s="44"/>
@@ -15409,344 +15332,342 @@
       <c r="R67" s="50"/>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A68" s="75"/>
-      <c r="B68" s="75"/>
-      <c r="C68" s="76" t="s">
-        <v>160</v>
-      </c>
-      <c r="D68" s="77" t="s">
-        <v>196</v>
+      <c r="A68" s="66"/>
+      <c r="B68" s="66"/>
+      <c r="C68" s="65"/>
+      <c r="D68" s="53" t="s">
+        <v>197</v>
       </c>
       <c r="E68" s="43"/>
       <c r="F68" s="44"/>
       <c r="Q68" s="50"/>
       <c r="R68" s="50"/>
     </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A69" s="83"/>
-      <c r="B69" s="83"/>
-      <c r="C69" s="65"/>
-      <c r="D69" s="56" t="s">
-        <v>197</v>
+    <row r="69" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A69" s="66"/>
+      <c r="B69" s="66"/>
+      <c r="C69" s="78"/>
+      <c r="D69" s="79" t="s">
+        <v>198</v>
       </c>
       <c r="E69" s="43"/>
       <c r="F69" s="44"/>
       <c r="Q69" s="50"/>
       <c r="R69" s="50"/>
     </row>
-    <row r="70" customFormat="false" ht="52.6" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A70" s="78"/>
-      <c r="B70" s="78"/>
-      <c r="C70" s="79"/>
-      <c r="D70" s="80" t="s">
-        <v>198</v>
+    <row r="70" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A70" s="66"/>
+      <c r="B70" s="66"/>
+      <c r="C70" s="65"/>
+      <c r="D70" s="53" t="s">
+        <v>199</v>
       </c>
       <c r="E70" s="43"/>
       <c r="F70" s="44"/>
       <c r="Q70" s="50"/>
       <c r="R70" s="50"/>
     </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="84" t="n">
-        <f aca="false">VINE_Documents!$A$19</f>
-        <v>15</v>
-      </c>
-      <c r="B71" s="49" t="s">
-        <v>199</v>
-      </c>
-      <c r="C71" s="49"/>
-      <c r="D71" s="85"/>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A71" s="66"/>
+      <c r="B71" s="66"/>
+      <c r="C71" s="71" t="s">
+        <v>149</v>
+      </c>
+      <c r="D71" s="72" t="s">
+        <v>200</v>
+      </c>
       <c r="E71" s="43"/>
       <c r="F71" s="44"/>
       <c r="Q71" s="50"/>
       <c r="R71" s="50"/>
     </row>
-    <row r="72" customFormat="false" ht="19.7" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A72" s="51"/>
-      <c r="B72" s="51"/>
-      <c r="C72" s="86" t="s">
-        <v>139</v>
-      </c>
-      <c r="D72" s="87" t="s">
-        <v>200</v>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A72" s="66"/>
+      <c r="B72" s="66"/>
+      <c r="C72" s="74" t="s">
+        <v>157</v>
+      </c>
+      <c r="D72" s="75" t="s">
+        <v>201</v>
       </c>
       <c r="E72" s="43"/>
       <c r="F72" s="44"/>
       <c r="Q72" s="50"/>
       <c r="R72" s="50"/>
     </row>
-    <row r="73" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A73" s="70"/>
-      <c r="B73" s="70"/>
-      <c r="C73" s="88" t="s">
-        <v>142</v>
-      </c>
-      <c r="D73" s="89"/>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A73" s="66"/>
+      <c r="B73" s="66"/>
+      <c r="C73" s="65"/>
+      <c r="D73" s="53" t="s">
+        <v>202</v>
+      </c>
       <c r="E73" s="43"/>
       <c r="F73" s="44"/>
       <c r="Q73" s="50"/>
       <c r="R73" s="50"/>
     </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A74" s="54"/>
-      <c r="B74" s="54"/>
-      <c r="C74" s="90"/>
-      <c r="D74" s="91" t="s">
-        <v>201</v>
+    <row r="74" customFormat="false" ht="69.35" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A74" s="66"/>
+      <c r="B74" s="66"/>
+      <c r="C74" s="78"/>
+      <c r="D74" s="79" t="s">
+        <v>203</v>
       </c>
       <c r="E74" s="43"/>
       <c r="F74" s="44"/>
       <c r="Q74" s="50"/>
       <c r="R74" s="50"/>
     </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A75" s="54"/>
-      <c r="B75" s="54"/>
-      <c r="C75" s="90"/>
-      <c r="D75" s="91" t="s">
-        <v>202</v>
+    <row r="75" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A75" s="66"/>
+      <c r="B75" s="66"/>
+      <c r="C75" s="65"/>
+      <c r="D75" s="53" t="s">
+        <v>204</v>
       </c>
       <c r="E75" s="43"/>
       <c r="F75" s="44"/>
       <c r="Q75" s="50"/>
       <c r="R75" s="50"/>
     </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A76" s="92"/>
-      <c r="B76" s="92"/>
-      <c r="C76" s="93" t="s">
-        <v>148</v>
-      </c>
-      <c r="D76" s="94" t="s">
-        <v>203</v>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A76" s="66"/>
+      <c r="B76" s="66"/>
+      <c r="C76" s="71" t="s">
+        <v>149</v>
+      </c>
+      <c r="D76" s="72" t="s">
+        <v>205</v>
       </c>
       <c r="E76" s="43"/>
       <c r="F76" s="44"/>
       <c r="Q76" s="50"/>
       <c r="R76" s="50"/>
     </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A77" s="95"/>
-      <c r="B77" s="95"/>
-      <c r="C77" s="96" t="s">
-        <v>160</v>
-      </c>
-      <c r="D77" s="97" t="s">
-        <v>204</v>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A77" s="66"/>
+      <c r="B77" s="66"/>
+      <c r="C77" s="74" t="s">
+        <v>157</v>
+      </c>
+      <c r="D77" s="75" t="s">
+        <v>206</v>
       </c>
       <c r="E77" s="43"/>
       <c r="F77" s="44"/>
       <c r="Q77" s="50"/>
       <c r="R77" s="50"/>
     </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A78" s="54"/>
-      <c r="B78" s="54"/>
-      <c r="C78" s="90"/>
-      <c r="D78" s="91"/>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A78" s="66"/>
+      <c r="B78" s="66"/>
+      <c r="C78" s="65"/>
+      <c r="D78" s="53" t="s">
+        <v>207</v>
+      </c>
       <c r="E78" s="43"/>
       <c r="F78" s="44"/>
       <c r="Q78" s="50"/>
       <c r="R78" s="50"/>
     </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A79" s="95"/>
-      <c r="B79" s="95"/>
-      <c r="C79" s="96" t="s">
-        <v>160</v>
-      </c>
-      <c r="D79" s="97" t="s">
-        <v>205</v>
+    <row r="79" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A79" s="66"/>
+      <c r="B79" s="66"/>
+      <c r="C79" s="78"/>
+      <c r="D79" s="79" t="s">
+        <v>208</v>
       </c>
       <c r="E79" s="43"/>
       <c r="F79" s="44"/>
       <c r="Q79" s="50"/>
       <c r="R79" s="50"/>
     </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A80" s="54"/>
-      <c r="B80" s="54"/>
-      <c r="C80" s="90"/>
-      <c r="D80" s="91"/>
+    <row r="80" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A80" s="66"/>
+      <c r="B80" s="66"/>
+      <c r="C80" s="65"/>
+      <c r="D80" s="53" t="s">
+        <v>209</v>
+      </c>
       <c r="E80" s="43"/>
       <c r="F80" s="44"/>
       <c r="Q80" s="50"/>
       <c r="R80" s="50"/>
     </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A81" s="92"/>
-      <c r="B81" s="92"/>
-      <c r="C81" s="93" t="s">
-        <v>148</v>
-      </c>
-      <c r="D81" s="94" t="s">
-        <v>206</v>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A81" s="66"/>
+      <c r="B81" s="66"/>
+      <c r="C81" s="71" t="s">
+        <v>149</v>
+      </c>
+      <c r="D81" s="72" t="s">
+        <v>210</v>
       </c>
       <c r="E81" s="43"/>
       <c r="F81" s="44"/>
       <c r="Q81" s="50"/>
       <c r="R81" s="50"/>
     </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A82" s="95"/>
-      <c r="B82" s="95"/>
-      <c r="C82" s="96" t="s">
-        <v>160</v>
-      </c>
-      <c r="D82" s="97" t="s">
-        <v>207</v>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A82" s="66"/>
+      <c r="B82" s="66"/>
+      <c r="C82" s="74" t="s">
+        <v>157</v>
+      </c>
+      <c r="D82" s="75" t="s">
+        <v>211</v>
       </c>
       <c r="E82" s="43"/>
       <c r="F82" s="44"/>
       <c r="Q82" s="50"/>
       <c r="R82" s="50"/>
     </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A83" s="54"/>
-      <c r="B83" s="54"/>
-      <c r="C83" s="90"/>
-      <c r="D83" s="91"/>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A83" s="66"/>
+      <c r="B83" s="66"/>
+      <c r="C83" s="65"/>
+      <c r="D83" s="53" t="s">
+        <v>212</v>
+      </c>
       <c r="E83" s="43"/>
       <c r="F83" s="44"/>
       <c r="Q83" s="50"/>
       <c r="R83" s="50"/>
     </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A84" s="95"/>
-      <c r="B84" s="95"/>
-      <c r="C84" s="96" t="s">
-        <v>160</v>
-      </c>
-      <c r="D84" s="97" t="s">
-        <v>208</v>
+    <row r="84" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A84" s="66"/>
+      <c r="B84" s="66"/>
+      <c r="C84" s="78"/>
+      <c r="D84" s="79" t="s">
+        <v>213</v>
       </c>
       <c r="E84" s="43"/>
       <c r="F84" s="44"/>
       <c r="Q84" s="50"/>
       <c r="R84" s="50"/>
     </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A85" s="54"/>
-      <c r="B85" s="54"/>
-      <c r="C85" s="90"/>
-      <c r="D85" s="91"/>
+    <row r="85" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A85" s="66"/>
+      <c r="B85" s="66"/>
+      <c r="C85" s="65"/>
+      <c r="D85" s="53" t="s">
+        <v>214</v>
+      </c>
       <c r="E85" s="43"/>
       <c r="F85" s="44"/>
       <c r="Q85" s="50"/>
       <c r="R85" s="50"/>
     </row>
-    <row r="86" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A86" s="92"/>
-      <c r="B86" s="92"/>
-      <c r="C86" s="93" t="s">
-        <v>148</v>
-      </c>
-      <c r="D86" s="94" t="s">
-        <v>209</v>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A86" s="66"/>
+      <c r="B86" s="66"/>
+      <c r="C86" s="71" t="s">
+        <v>149</v>
+      </c>
+      <c r="D86" s="72" t="s">
+        <v>215</v>
       </c>
       <c r="E86" s="43"/>
       <c r="F86" s="44"/>
       <c r="Q86" s="50"/>
       <c r="R86" s="50"/>
     </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A87" s="95"/>
-      <c r="B87" s="95"/>
-      <c r="C87" s="96" t="s">
-        <v>160</v>
-      </c>
-      <c r="D87" s="97" t="s">
-        <v>210</v>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A87" s="66"/>
+      <c r="B87" s="66"/>
+      <c r="C87" s="74" t="s">
+        <v>157</v>
+      </c>
+      <c r="D87" s="75" t="s">
+        <v>216</v>
       </c>
       <c r="E87" s="43"/>
       <c r="F87" s="44"/>
       <c r="Q87" s="50"/>
       <c r="R87" s="50"/>
     </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A88" s="54"/>
-      <c r="B88" s="54"/>
-      <c r="C88" s="90"/>
-      <c r="D88" s="91"/>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A88" s="66"/>
+      <c r="B88" s="66"/>
+      <c r="C88" s="65"/>
+      <c r="D88" s="53" t="s">
+        <v>217</v>
+      </c>
       <c r="E88" s="43"/>
       <c r="F88" s="44"/>
       <c r="Q88" s="50"/>
       <c r="R88" s="50"/>
     </row>
-    <row r="89" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A89" s="92"/>
-      <c r="B89" s="92"/>
-      <c r="C89" s="93" t="s">
-        <v>148</v>
-      </c>
-      <c r="D89" s="94" t="s">
-        <v>211</v>
+    <row r="89" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A89" s="66"/>
+      <c r="B89" s="66"/>
+      <c r="C89" s="78"/>
+      <c r="D89" s="79" t="s">
+        <v>218</v>
       </c>
       <c r="E89" s="43"/>
       <c r="F89" s="44"/>
       <c r="Q89" s="50"/>
       <c r="R89" s="50"/>
     </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A90" s="95"/>
-      <c r="B90" s="95"/>
-      <c r="C90" s="96" t="s">
-        <v>160</v>
-      </c>
-      <c r="D90" s="97" t="s">
-        <v>212</v>
-      </c>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A90" s="66"/>
+      <c r="B90" s="66"/>
+      <c r="C90" s="78"/>
+      <c r="D90" s="79"/>
       <c r="E90" s="43"/>
       <c r="F90" s="44"/>
       <c r="Q90" s="50"/>
       <c r="R90" s="50"/>
     </row>
-    <row r="91" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A91" s="95"/>
-      <c r="B91" s="95"/>
-      <c r="C91" s="96" t="s">
-        <v>160</v>
-      </c>
-      <c r="D91" s="97" t="s">
-        <v>213</v>
-      </c>
+    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="81" t="n">
+        <f aca="false">VINE_Documents!$A$19</f>
+        <v>15</v>
+      </c>
+      <c r="B91" s="49" t="s">
+        <v>219</v>
+      </c>
+      <c r="C91" s="49"/>
+      <c r="D91" s="82"/>
       <c r="E91" s="43"/>
       <c r="F91" s="44"/>
       <c r="Q91" s="50"/>
       <c r="R91" s="50"/>
     </row>
-    <row r="92" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="92" customFormat="false" ht="19.7" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A92" s="54"/>
       <c r="B92" s="54"/>
-      <c r="C92" s="90"/>
-      <c r="D92" s="91"/>
+      <c r="C92" s="83" t="s">
+        <v>140</v>
+      </c>
+      <c r="D92" s="84" t="s">
+        <v>220</v>
+      </c>
       <c r="E92" s="43"/>
       <c r="F92" s="44"/>
       <c r="Q92" s="50"/>
       <c r="R92" s="50"/>
     </row>
-    <row r="93" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A93" s="92"/>
-      <c r="B93" s="92"/>
-      <c r="C93" s="93" t="s">
-        <v>148</v>
-      </c>
-      <c r="D93" s="94" t="s">
-        <v>214</v>
-      </c>
+    <row r="93" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A93" s="68"/>
+      <c r="B93" s="68"/>
+      <c r="C93" s="85" t="s">
+        <v>143</v>
+      </c>
+      <c r="D93" s="86"/>
       <c r="E93" s="43"/>
       <c r="F93" s="44"/>
       <c r="Q93" s="50"/>
       <c r="R93" s="50"/>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A94" s="95"/>
-      <c r="B94" s="95"/>
-      <c r="C94" s="96" t="s">
-        <v>160</v>
-      </c>
-      <c r="D94" s="97" t="s">
-        <v>215</v>
+      <c r="A94" s="51"/>
+      <c r="B94" s="51"/>
+      <c r="C94" s="87"/>
+      <c r="D94" s="88" t="s">
+        <v>221</v>
       </c>
       <c r="E94" s="43"/>
       <c r="F94" s="44"/>
@@ -15754,23 +15675,25 @@
       <c r="R94" s="50"/>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A95" s="54"/>
-      <c r="B95" s="54"/>
-      <c r="C95" s="90"/>
-      <c r="D95" s="91"/>
+      <c r="A95" s="51"/>
+      <c r="B95" s="51"/>
+      <c r="C95" s="87"/>
+      <c r="D95" s="88" t="s">
+        <v>222</v>
+      </c>
       <c r="E95" s="43"/>
       <c r="F95" s="44"/>
       <c r="Q95" s="50"/>
       <c r="R95" s="50"/>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A96" s="92"/>
-      <c r="B96" s="92"/>
-      <c r="C96" s="93" t="s">
-        <v>148</v>
-      </c>
-      <c r="D96" s="94" t="s">
-        <v>216</v>
+      <c r="A96" s="89"/>
+      <c r="B96" s="89"/>
+      <c r="C96" s="90" t="s">
+        <v>149</v>
+      </c>
+      <c r="D96" s="91" t="s">
+        <v>223</v>
       </c>
       <c r="E96" s="43"/>
       <c r="F96" s="44"/>
@@ -15778,13 +15701,13 @@
       <c r="R96" s="50"/>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A97" s="95"/>
-      <c r="B97" s="95"/>
-      <c r="C97" s="96" t="s">
-        <v>160</v>
-      </c>
-      <c r="D97" s="97" t="s">
-        <v>217</v>
+      <c r="A97" s="92"/>
+      <c r="B97" s="92"/>
+      <c r="C97" s="93" t="s">
+        <v>157</v>
+      </c>
+      <c r="D97" s="94" t="s">
+        <v>224</v>
       </c>
       <c r="E97" s="43"/>
       <c r="F97" s="44"/>
@@ -15792,10 +15715,10 @@
       <c r="R97" s="50"/>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A98" s="54"/>
-      <c r="B98" s="54"/>
-      <c r="C98" s="90"/>
-      <c r="D98" s="91"/>
+      <c r="A98" s="51"/>
+      <c r="B98" s="51"/>
+      <c r="C98" s="87"/>
+      <c r="D98" s="88"/>
       <c r="E98" s="43"/>
       <c r="F98" s="44"/>
       <c r="Q98" s="50"/>
@@ -15805,10 +15728,10 @@
       <c r="A99" s="92"/>
       <c r="B99" s="92"/>
       <c r="C99" s="93" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="D99" s="94" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="E99" s="43"/>
       <c r="F99" s="44"/>
@@ -15816,24 +15739,24 @@
       <c r="R99" s="50"/>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A100" s="95"/>
-      <c r="B100" s="95"/>
-      <c r="C100" s="96" t="s">
-        <v>160</v>
-      </c>
-      <c r="D100" s="97" t="s">
-        <v>219</v>
-      </c>
+      <c r="A100" s="51"/>
+      <c r="B100" s="51"/>
+      <c r="C100" s="87"/>
+      <c r="D100" s="88"/>
       <c r="E100" s="43"/>
       <c r="F100" s="44"/>
       <c r="Q100" s="50"/>
       <c r="R100" s="50"/>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A101" s="54"/>
-      <c r="B101" s="54"/>
-      <c r="C101" s="90"/>
-      <c r="D101" s="91"/>
+      <c r="A101" s="89"/>
+      <c r="B101" s="89"/>
+      <c r="C101" s="90" t="s">
+        <v>149</v>
+      </c>
+      <c r="D101" s="91" t="s">
+        <v>226</v>
+      </c>
       <c r="E101" s="43"/>
       <c r="F101" s="44"/>
       <c r="Q101" s="50"/>
@@ -15843,10 +15766,10 @@
       <c r="A102" s="92"/>
       <c r="B102" s="92"/>
       <c r="C102" s="93" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="D102" s="94" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="E102" s="43"/>
       <c r="F102" s="44"/>
@@ -15854,51 +15777,47 @@
       <c r="R102" s="50"/>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A103" s="95"/>
-      <c r="B103" s="95"/>
-      <c r="C103" s="96" t="s">
-        <v>160</v>
-      </c>
-      <c r="D103" s="97" t="s">
-        <v>221</v>
-      </c>
+      <c r="A103" s="51"/>
+      <c r="B103" s="51"/>
+      <c r="C103" s="87"/>
+      <c r="D103" s="88"/>
       <c r="E103" s="43"/>
       <c r="F103" s="44"/>
       <c r="Q103" s="50"/>
       <c r="R103" s="50"/>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A104" s="54"/>
-      <c r="B104" s="54"/>
-      <c r="C104" s="90"/>
-      <c r="D104" s="91"/>
+      <c r="A104" s="92"/>
+      <c r="B104" s="92"/>
+      <c r="C104" s="93" t="s">
+        <v>157</v>
+      </c>
+      <c r="D104" s="94" t="s">
+        <v>228</v>
+      </c>
       <c r="E104" s="43"/>
       <c r="F104" s="44"/>
       <c r="Q104" s="50"/>
       <c r="R104" s="50"/>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A105" s="92"/>
-      <c r="B105" s="92"/>
-      <c r="C105" s="93" t="s">
-        <v>148</v>
-      </c>
-      <c r="D105" s="94" t="s">
-        <v>222</v>
-      </c>
+      <c r="A105" s="51"/>
+      <c r="B105" s="51"/>
+      <c r="C105" s="87"/>
+      <c r="D105" s="88"/>
       <c r="E105" s="43"/>
       <c r="F105" s="44"/>
       <c r="Q105" s="50"/>
       <c r="R105" s="50"/>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A106" s="95"/>
-      <c r="B106" s="95"/>
-      <c r="C106" s="96" t="s">
-        <v>160</v>
-      </c>
-      <c r="D106" s="97" t="s">
-        <v>223</v>
+      <c r="A106" s="89"/>
+      <c r="B106" s="89"/>
+      <c r="C106" s="90" t="s">
+        <v>149</v>
+      </c>
+      <c r="D106" s="91" t="s">
+        <v>229</v>
       </c>
       <c r="E106" s="43"/>
       <c r="F106" s="44"/>
@@ -15906,47 +15825,51 @@
       <c r="R106" s="50"/>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A107" s="54"/>
-      <c r="B107" s="54"/>
-      <c r="C107" s="90"/>
-      <c r="D107" s="91"/>
+      <c r="A107" s="92"/>
+      <c r="B107" s="92"/>
+      <c r="C107" s="93" t="s">
+        <v>157</v>
+      </c>
+      <c r="D107" s="94" t="s">
+        <v>230</v>
+      </c>
       <c r="E107" s="43"/>
       <c r="F107" s="44"/>
       <c r="Q107" s="50"/>
       <c r="R107" s="50"/>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A108" s="95"/>
-      <c r="B108" s="95"/>
-      <c r="C108" s="96" t="s">
-        <v>160</v>
-      </c>
-      <c r="D108" s="97" t="s">
-        <v>224</v>
-      </c>
+      <c r="A108" s="51"/>
+      <c r="B108" s="51"/>
+      <c r="C108" s="87"/>
+      <c r="D108" s="88"/>
       <c r="E108" s="43"/>
       <c r="F108" s="44"/>
       <c r="Q108" s="50"/>
       <c r="R108" s="50"/>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A109" s="54"/>
-      <c r="B109" s="54"/>
-      <c r="C109" s="90"/>
-      <c r="D109" s="91"/>
+      <c r="A109" s="89"/>
+      <c r="B109" s="89"/>
+      <c r="C109" s="90" t="s">
+        <v>149</v>
+      </c>
+      <c r="D109" s="91" t="s">
+        <v>231</v>
+      </c>
       <c r="E109" s="43"/>
       <c r="F109" s="44"/>
       <c r="Q109" s="50"/>
       <c r="R109" s="50"/>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A110" s="95"/>
-      <c r="B110" s="95"/>
-      <c r="C110" s="96" t="s">
-        <v>160</v>
-      </c>
-      <c r="D110" s="97" t="s">
-        <v>225</v>
+      <c r="A110" s="92"/>
+      <c r="B110" s="92"/>
+      <c r="C110" s="93" t="s">
+        <v>157</v>
+      </c>
+      <c r="D110" s="94" t="s">
+        <v>232</v>
       </c>
       <c r="E110" s="43"/>
       <c r="F110" s="44"/>
@@ -15954,37 +15877,37 @@
       <c r="R110" s="50"/>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A111" s="54"/>
-      <c r="B111" s="54"/>
-      <c r="C111" s="90"/>
-      <c r="D111" s="91"/>
+      <c r="A111" s="92"/>
+      <c r="B111" s="92"/>
+      <c r="C111" s="93" t="s">
+        <v>157</v>
+      </c>
+      <c r="D111" s="94" t="s">
+        <v>233</v>
+      </c>
       <c r="E111" s="43"/>
       <c r="F111" s="44"/>
       <c r="Q111" s="50"/>
       <c r="R111" s="50"/>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A112" s="92"/>
-      <c r="B112" s="92"/>
-      <c r="C112" s="93" t="s">
-        <v>148</v>
-      </c>
-      <c r="D112" s="94" t="s">
-        <v>226</v>
-      </c>
+      <c r="A112" s="51"/>
+      <c r="B112" s="51"/>
+      <c r="C112" s="87"/>
+      <c r="D112" s="88"/>
       <c r="E112" s="43"/>
       <c r="F112" s="44"/>
       <c r="Q112" s="50"/>
       <c r="R112" s="50"/>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A113" s="95"/>
-      <c r="B113" s="95"/>
-      <c r="C113" s="96" t="s">
-        <v>160</v>
-      </c>
-      <c r="D113" s="97" t="s">
-        <v>227</v>
+      <c r="A113" s="89"/>
+      <c r="B113" s="89"/>
+      <c r="C113" s="90" t="s">
+        <v>149</v>
+      </c>
+      <c r="D113" s="91" t="s">
+        <v>234</v>
       </c>
       <c r="E113" s="43"/>
       <c r="F113" s="44"/>
@@ -15992,166 +15915,418 @@
       <c r="R113" s="50"/>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A114" s="54"/>
-      <c r="B114" s="54"/>
-      <c r="C114" s="90"/>
-      <c r="D114" s="91"/>
+      <c r="A114" s="92"/>
+      <c r="B114" s="92"/>
+      <c r="C114" s="93" t="s">
+        <v>157</v>
+      </c>
+      <c r="D114" s="94" t="s">
+        <v>235</v>
+      </c>
       <c r="E114" s="43"/>
       <c r="F114" s="44"/>
       <c r="Q114" s="50"/>
       <c r="R114" s="50"/>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A115" s="95"/>
-      <c r="B115" s="95"/>
-      <c r="C115" s="96" t="s">
-        <v>160</v>
-      </c>
-      <c r="D115" s="97" t="s">
-        <v>228</v>
-      </c>
+      <c r="A115" s="51"/>
+      <c r="B115" s="51"/>
+      <c r="C115" s="87"/>
+      <c r="D115" s="88"/>
       <c r="E115" s="43"/>
       <c r="F115" s="44"/>
       <c r="Q115" s="50"/>
       <c r="R115" s="50"/>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A116" s="54"/>
-      <c r="B116" s="54"/>
-      <c r="C116" s="90"/>
-      <c r="D116" s="91"/>
+      <c r="A116" s="89"/>
+      <c r="B116" s="89"/>
+      <c r="C116" s="90" t="s">
+        <v>149</v>
+      </c>
+      <c r="D116" s="91" t="s">
+        <v>236</v>
+      </c>
       <c r="E116" s="43"/>
       <c r="F116" s="44"/>
       <c r="Q116" s="50"/>
       <c r="R116" s="50"/>
     </row>
-    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="43"/>
-      <c r="B117" s="43"/>
-      <c r="C117" s="43"/>
-      <c r="D117" s="43"/>
+    <row r="117" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A117" s="92"/>
+      <c r="B117" s="92"/>
+      <c r="C117" s="93" t="s">
+        <v>157</v>
+      </c>
+      <c r="D117" s="94" t="s">
+        <v>237</v>
+      </c>
       <c r="E117" s="43"/>
       <c r="F117" s="44"/>
-      <c r="L117" s="50"/>
-      <c r="M117" s="50"/>
       <c r="Q117" s="50"/>
       <c r="R117" s="50"/>
     </row>
-    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="44"/>
-      <c r="B118" s="44"/>
-      <c r="C118" s="98"/>
-      <c r="D118" s="99" t="n">
-        <v>0</v>
-      </c>
-      <c r="E118" s="44"/>
+    <row r="118" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A118" s="51"/>
+      <c r="B118" s="51"/>
+      <c r="C118" s="87"/>
+      <c r="D118" s="88"/>
+      <c r="E118" s="43"/>
       <c r="F118" s="44"/>
-      <c r="L118" s="50"/>
-      <c r="M118" s="50"/>
       <c r="Q118" s="50"/>
       <c r="R118" s="50"/>
     </row>
-    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L119" s="50"/>
-      <c r="M119" s="50"/>
+    <row r="119" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A119" s="89"/>
+      <c r="B119" s="89"/>
+      <c r="C119" s="90" t="s">
+        <v>149</v>
+      </c>
+      <c r="D119" s="91" t="s">
+        <v>238</v>
+      </c>
+      <c r="E119" s="43"/>
+      <c r="F119" s="44"/>
       <c r="Q119" s="50"/>
       <c r="R119" s="50"/>
     </row>
-    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L120" s="50"/>
-      <c r="M120" s="50"/>
+    <row r="120" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A120" s="92"/>
+      <c r="B120" s="92"/>
+      <c r="C120" s="93" t="s">
+        <v>157</v>
+      </c>
+      <c r="D120" s="94" t="s">
+        <v>239</v>
+      </c>
+      <c r="E120" s="43"/>
+      <c r="F120" s="44"/>
       <c r="Q120" s="50"/>
       <c r="R120" s="50"/>
     </row>
-    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L121" s="50"/>
-      <c r="M121" s="50"/>
+    <row r="121" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A121" s="51"/>
+      <c r="B121" s="51"/>
+      <c r="C121" s="87"/>
+      <c r="D121" s="88"/>
+      <c r="E121" s="43"/>
+      <c r="F121" s="44"/>
       <c r="Q121" s="50"/>
       <c r="R121" s="50"/>
     </row>
-    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L122" s="50"/>
-      <c r="M122" s="50"/>
+    <row r="122" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A122" s="89"/>
+      <c r="B122" s="89"/>
+      <c r="C122" s="90" t="s">
+        <v>149</v>
+      </c>
+      <c r="D122" s="91" t="s">
+        <v>240</v>
+      </c>
+      <c r="E122" s="43"/>
+      <c r="F122" s="44"/>
       <c r="Q122" s="50"/>
       <c r="R122" s="50"/>
     </row>
-    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L123" s="50"/>
-      <c r="M123" s="50"/>
+    <row r="123" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A123" s="92"/>
+      <c r="B123" s="92"/>
+      <c r="C123" s="93" t="s">
+        <v>157</v>
+      </c>
+      <c r="D123" s="94" t="s">
+        <v>241</v>
+      </c>
+      <c r="E123" s="43"/>
+      <c r="F123" s="44"/>
       <c r="Q123" s="50"/>
       <c r="R123" s="50"/>
     </row>
-    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L124" s="50"/>
-      <c r="M124" s="50"/>
+    <row r="124" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A124" s="51"/>
+      <c r="B124" s="51"/>
+      <c r="C124" s="87"/>
+      <c r="D124" s="88"/>
+      <c r="E124" s="43"/>
+      <c r="F124" s="44"/>
       <c r="Q124" s="50"/>
       <c r="R124" s="50"/>
     </row>
-    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L125" s="50"/>
-      <c r="M125" s="50"/>
+    <row r="125" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A125" s="89"/>
+      <c r="B125" s="89"/>
+      <c r="C125" s="90" t="s">
+        <v>149</v>
+      </c>
+      <c r="D125" s="91" t="s">
+        <v>242</v>
+      </c>
+      <c r="E125" s="43"/>
+      <c r="F125" s="44"/>
       <c r="Q125" s="50"/>
       <c r="R125" s="50"/>
     </row>
-    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L126" s="50"/>
-      <c r="M126" s="50"/>
+    <row r="126" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A126" s="92"/>
+      <c r="B126" s="92"/>
+      <c r="C126" s="93" t="s">
+        <v>157</v>
+      </c>
+      <c r="D126" s="94" t="s">
+        <v>243</v>
+      </c>
+      <c r="E126" s="43"/>
+      <c r="F126" s="44"/>
       <c r="Q126" s="50"/>
       <c r="R126" s="50"/>
     </row>
-    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L127" s="50"/>
-      <c r="M127" s="50"/>
+    <row r="127" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A127" s="51"/>
+      <c r="B127" s="51"/>
+      <c r="C127" s="87"/>
+      <c r="D127" s="88"/>
+      <c r="E127" s="43"/>
+      <c r="F127" s="44"/>
       <c r="Q127" s="50"/>
       <c r="R127" s="50"/>
     </row>
-    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L128" s="50"/>
-      <c r="M128" s="50"/>
+    <row r="128" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A128" s="92"/>
+      <c r="B128" s="92"/>
+      <c r="C128" s="93" t="s">
+        <v>157</v>
+      </c>
+      <c r="D128" s="94" t="s">
+        <v>244</v>
+      </c>
+      <c r="E128" s="43"/>
+      <c r="F128" s="44"/>
       <c r="Q128" s="50"/>
       <c r="R128" s="50"/>
     </row>
-    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L129" s="50"/>
-      <c r="M129" s="50"/>
+    <row r="129" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A129" s="51"/>
+      <c r="B129" s="51"/>
+      <c r="C129" s="87"/>
+      <c r="D129" s="88"/>
+      <c r="E129" s="43"/>
+      <c r="F129" s="44"/>
       <c r="Q129" s="50"/>
       <c r="R129" s="50"/>
     </row>
-    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L130" s="50"/>
-      <c r="M130" s="50"/>
+    <row r="130" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A130" s="92"/>
+      <c r="B130" s="92"/>
+      <c r="C130" s="93" t="s">
+        <v>157</v>
+      </c>
+      <c r="D130" s="94" t="s">
+        <v>245</v>
+      </c>
+      <c r="E130" s="43"/>
+      <c r="F130" s="44"/>
       <c r="Q130" s="50"/>
       <c r="R130" s="50"/>
     </row>
-    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L131" s="50"/>
-      <c r="M131" s="50"/>
+    <row r="131" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A131" s="51"/>
+      <c r="B131" s="51"/>
+      <c r="C131" s="87"/>
+      <c r="D131" s="88"/>
+      <c r="E131" s="43"/>
+      <c r="F131" s="44"/>
       <c r="Q131" s="50"/>
       <c r="R131" s="50"/>
     </row>
-    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L132" s="50"/>
-      <c r="M132" s="50"/>
+    <row r="132" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A132" s="89"/>
+      <c r="B132" s="89"/>
+      <c r="C132" s="90" t="s">
+        <v>149</v>
+      </c>
+      <c r="D132" s="91" t="s">
+        <v>246</v>
+      </c>
+      <c r="E132" s="43"/>
+      <c r="F132" s="44"/>
       <c r="Q132" s="50"/>
       <c r="R132" s="50"/>
     </row>
-    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L133" s="50"/>
-      <c r="M133" s="50"/>
+    <row r="133" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A133" s="92"/>
+      <c r="B133" s="92"/>
+      <c r="C133" s="93" t="s">
+        <v>157</v>
+      </c>
+      <c r="D133" s="94" t="s">
+        <v>247</v>
+      </c>
+      <c r="E133" s="43"/>
+      <c r="F133" s="44"/>
       <c r="Q133" s="50"/>
       <c r="R133" s="50"/>
     </row>
-    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L134" s="50"/>
-      <c r="M134" s="50"/>
+    <row r="134" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A134" s="51"/>
+      <c r="B134" s="51"/>
+      <c r="C134" s="87"/>
+      <c r="D134" s="88"/>
+      <c r="E134" s="43"/>
+      <c r="F134" s="44"/>
       <c r="Q134" s="50"/>
       <c r="R134" s="50"/>
     </row>
-    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L135" s="50"/>
-      <c r="M135" s="50"/>
+    <row r="135" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A135" s="92"/>
+      <c r="B135" s="92"/>
+      <c r="C135" s="93" t="s">
+        <v>157</v>
+      </c>
+      <c r="D135" s="94" t="s">
+        <v>248</v>
+      </c>
+      <c r="E135" s="43"/>
+      <c r="F135" s="44"/>
       <c r="Q135" s="50"/>
       <c r="R135" s="50"/>
+    </row>
+    <row r="136" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A136" s="51"/>
+      <c r="B136" s="51"/>
+      <c r="C136" s="87"/>
+      <c r="D136" s="88"/>
+      <c r="E136" s="43"/>
+      <c r="F136" s="44"/>
+      <c r="Q136" s="50"/>
+      <c r="R136" s="50"/>
+    </row>
+    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="43"/>
+      <c r="B137" s="43"/>
+      <c r="C137" s="43"/>
+      <c r="D137" s="43"/>
+      <c r="E137" s="43"/>
+      <c r="F137" s="44"/>
+      <c r="L137" s="50"/>
+      <c r="M137" s="50"/>
+      <c r="Q137" s="50"/>
+      <c r="R137" s="50"/>
+    </row>
+    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="44"/>
+      <c r="B138" s="44"/>
+      <c r="C138" s="95"/>
+      <c r="D138" s="96" t="n">
+        <v>0</v>
+      </c>
+      <c r="E138" s="44"/>
+      <c r="F138" s="44"/>
+      <c r="L138" s="50"/>
+      <c r="M138" s="50"/>
+      <c r="Q138" s="50"/>
+      <c r="R138" s="50"/>
+    </row>
+    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L139" s="50"/>
+      <c r="M139" s="50"/>
+      <c r="Q139" s="50"/>
+      <c r="R139" s="50"/>
+    </row>
+    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L140" s="50"/>
+      <c r="M140" s="50"/>
+      <c r="Q140" s="50"/>
+      <c r="R140" s="50"/>
+    </row>
+    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L141" s="50"/>
+      <c r="M141" s="50"/>
+      <c r="Q141" s="50"/>
+      <c r="R141" s="50"/>
+    </row>
+    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L142" s="50"/>
+      <c r="M142" s="50"/>
+      <c r="Q142" s="50"/>
+      <c r="R142" s="50"/>
+    </row>
+    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L143" s="50"/>
+      <c r="M143" s="50"/>
+      <c r="Q143" s="50"/>
+      <c r="R143" s="50"/>
+    </row>
+    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L144" s="50"/>
+      <c r="M144" s="50"/>
+      <c r="Q144" s="50"/>
+      <c r="R144" s="50"/>
+    </row>
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L145" s="50"/>
+      <c r="M145" s="50"/>
+      <c r="Q145" s="50"/>
+      <c r="R145" s="50"/>
+    </row>
+    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L146" s="50"/>
+      <c r="M146" s="50"/>
+      <c r="Q146" s="50"/>
+      <c r="R146" s="50"/>
+    </row>
+    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L147" s="50"/>
+      <c r="M147" s="50"/>
+      <c r="Q147" s="50"/>
+      <c r="R147" s="50"/>
+    </row>
+    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L148" s="50"/>
+      <c r="M148" s="50"/>
+      <c r="Q148" s="50"/>
+      <c r="R148" s="50"/>
+    </row>
+    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L149" s="50"/>
+      <c r="M149" s="50"/>
+      <c r="Q149" s="50"/>
+      <c r="R149" s="50"/>
+    </row>
+    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L150" s="50"/>
+      <c r="M150" s="50"/>
+      <c r="Q150" s="50"/>
+      <c r="R150" s="50"/>
+    </row>
+    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L151" s="50"/>
+      <c r="M151" s="50"/>
+      <c r="Q151" s="50"/>
+      <c r="R151" s="50"/>
+    </row>
+    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L152" s="50"/>
+      <c r="M152" s="50"/>
+      <c r="Q152" s="50"/>
+      <c r="R152" s="50"/>
+    </row>
+    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L153" s="50"/>
+      <c r="M153" s="50"/>
+      <c r="Q153" s="50"/>
+      <c r="R153" s="50"/>
+    </row>
+    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L154" s="50"/>
+      <c r="M154" s="50"/>
+      <c r="Q154" s="50"/>
+      <c r="R154" s="50"/>
+    </row>
+    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L155" s="50"/>
+      <c r="M155" s="50"/>
+      <c r="Q155" s="50"/>
+      <c r="R155" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -16237,11 +16412,11 @@
       <c r="B2" s="45" t="s">
         <v>134</v>
       </c>
-      <c r="C2" s="100" t="s">
-        <v>229</v>
-      </c>
-      <c r="D2" s="100" t="s">
-        <v>230</v>
+      <c r="C2" s="97" t="s">
+        <v>249</v>
+      </c>
+      <c r="D2" s="97" t="s">
+        <v>250</v>
       </c>
       <c r="E2" s="46" t="s">
         <v>135</v>
@@ -16262,8 +16437,8 @@
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="45"/>
       <c r="B3" s="45"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
       <c r="E3" s="47" t="s">
         <v>136</v>
       </c>
@@ -16288,414 +16463,414 @@
         <v>25</v>
       </c>
       <c r="B4" s="49" t="s">
-        <v>231</v>
-      </c>
-      <c r="C4" s="101"/>
-      <c r="D4" s="101"/>
-      <c r="E4" s="101"/>
-      <c r="F4" s="101"/>
-      <c r="G4" s="101"/>
-      <c r="H4" s="101"/>
-      <c r="I4" s="101"/>
-      <c r="J4" s="101"/>
-      <c r="K4" s="101"/>
-      <c r="L4" s="101"/>
-      <c r="M4" s="101"/>
-      <c r="N4" s="101"/>
-      <c r="O4" s="101"/>
+        <v>251</v>
+      </c>
+      <c r="C4" s="98"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="98"/>
+      <c r="I4" s="98"/>
+      <c r="J4" s="98"/>
+      <c r="K4" s="98"/>
+      <c r="L4" s="98"/>
+      <c r="M4" s="98"/>
+      <c r="N4" s="98"/>
+      <c r="O4" s="98"/>
       <c r="P4" s="43"/>
       <c r="Q4" s="44"/>
       <c r="AB4" s="50"/>
       <c r="AC4" s="50"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="51"/>
-      <c r="B5" s="51"/>
-      <c r="C5" s="102" t="s">
-        <v>232</v>
-      </c>
-      <c r="D5" s="103" t="s">
-        <v>233</v>
-      </c>
-      <c r="E5" s="52" t="s">
-        <v>139</v>
-      </c>
-      <c r="F5" s="53" t="s">
-        <v>234</v>
-      </c>
-      <c r="G5" s="104"/>
-      <c r="H5" s="104"/>
-      <c r="I5" s="104"/>
-      <c r="J5" s="104"/>
-      <c r="K5" s="104"/>
-      <c r="L5" s="104"/>
-      <c r="M5" s="104"/>
-      <c r="N5" s="104"/>
-      <c r="O5" s="104"/>
+      <c r="A5" s="54"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="99" t="s">
+        <v>252</v>
+      </c>
+      <c r="D5" s="100" t="s">
+        <v>253</v>
+      </c>
+      <c r="E5" s="55" t="s">
+        <v>140</v>
+      </c>
+      <c r="F5" s="56" t="s">
+        <v>254</v>
+      </c>
+      <c r="G5" s="101"/>
+      <c r="H5" s="101"/>
+      <c r="I5" s="101"/>
+      <c r="J5" s="101"/>
+      <c r="K5" s="101"/>
+      <c r="L5" s="101"/>
+      <c r="M5" s="101"/>
+      <c r="N5" s="101"/>
+      <c r="O5" s="101"/>
       <c r="P5" s="43"/>
       <c r="Q5" s="44"/>
       <c r="AB5" s="50"/>
       <c r="AC5" s="50"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="51"/>
-      <c r="B6" s="51"/>
-      <c r="C6" s="102"/>
-      <c r="D6" s="103"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="104"/>
-      <c r="H6" s="104"/>
-      <c r="I6" s="104"/>
-      <c r="J6" s="104"/>
-      <c r="K6" s="104"/>
-      <c r="L6" s="104"/>
-      <c r="M6" s="104"/>
-      <c r="N6" s="104"/>
-      <c r="O6" s="104"/>
+      <c r="A6" s="54"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="99"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="101"/>
+      <c r="H6" s="101"/>
+      <c r="I6" s="101"/>
+      <c r="J6" s="101"/>
+      <c r="K6" s="101"/>
+      <c r="L6" s="101"/>
+      <c r="M6" s="101"/>
+      <c r="N6" s="101"/>
+      <c r="O6" s="101"/>
       <c r="P6" s="43"/>
       <c r="Q6" s="44"/>
       <c r="AB6" s="50"/>
       <c r="AC6" s="50"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="51"/>
-      <c r="B7" s="51"/>
-      <c r="C7" s="102"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="53" t="s">
+      <c r="A7" s="54"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="99"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="56" t="s">
         <v>97</v>
       </c>
-      <c r="G7" s="104"/>
-      <c r="H7" s="104"/>
-      <c r="I7" s="104"/>
-      <c r="J7" s="104"/>
-      <c r="K7" s="104"/>
-      <c r="L7" s="104"/>
-      <c r="M7" s="104"/>
-      <c r="N7" s="104"/>
-      <c r="O7" s="104"/>
+      <c r="G7" s="101"/>
+      <c r="H7" s="101"/>
+      <c r="I7" s="101"/>
+      <c r="J7" s="101"/>
+      <c r="K7" s="101"/>
+      <c r="L7" s="101"/>
+      <c r="M7" s="101"/>
+      <c r="N7" s="101"/>
+      <c r="O7" s="101"/>
       <c r="P7" s="43"/>
       <c r="Q7" s="44"/>
       <c r="AB7" s="50"/>
       <c r="AC7" s="50"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="51"/>
-      <c r="B8" s="51"/>
-      <c r="C8" s="102"/>
-      <c r="D8" s="103"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="53" t="s">
+      <c r="A8" s="54"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="56" t="s">
         <v>98</v>
       </c>
-      <c r="G8" s="104"/>
-      <c r="H8" s="104"/>
-      <c r="I8" s="104"/>
-      <c r="J8" s="104"/>
-      <c r="K8" s="104"/>
-      <c r="L8" s="104"/>
-      <c r="M8" s="104"/>
-      <c r="N8" s="104"/>
-      <c r="O8" s="104"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="101"/>
+      <c r="I8" s="101"/>
+      <c r="J8" s="101"/>
+      <c r="K8" s="101"/>
+      <c r="L8" s="101"/>
+      <c r="M8" s="101"/>
+      <c r="N8" s="101"/>
+      <c r="O8" s="101"/>
       <c r="P8" s="43"/>
       <c r="Q8" s="44"/>
       <c r="AB8" s="50"/>
       <c r="AC8" s="50"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="51"/>
-      <c r="B9" s="51"/>
-      <c r="C9" s="102"/>
-      <c r="D9" s="103"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="53" t="s">
+      <c r="A9" s="54"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="99"/>
+      <c r="D9" s="100"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="56" t="s">
         <v>99</v>
       </c>
-      <c r="G9" s="104"/>
-      <c r="H9" s="104"/>
-      <c r="I9" s="104"/>
-      <c r="J9" s="104"/>
-      <c r="K9" s="104"/>
-      <c r="L9" s="104"/>
-      <c r="M9" s="104"/>
-      <c r="N9" s="104"/>
-      <c r="O9" s="104"/>
+      <c r="G9" s="101"/>
+      <c r="H9" s="101"/>
+      <c r="I9" s="101"/>
+      <c r="J9" s="101"/>
+      <c r="K9" s="101"/>
+      <c r="L9" s="101"/>
+      <c r="M9" s="101"/>
+      <c r="N9" s="101"/>
+      <c r="O9" s="101"/>
       <c r="P9" s="43"/>
       <c r="Q9" s="44"/>
       <c r="AB9" s="50"/>
       <c r="AC9" s="50"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="51"/>
-      <c r="B10" s="51"/>
-      <c r="C10" s="102"/>
-      <c r="D10" s="103"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="53" t="s">
+      <c r="A10" s="54"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="99"/>
+      <c r="D10" s="100"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="56" t="s">
         <v>100</v>
       </c>
-      <c r="G10" s="104"/>
-      <c r="H10" s="104"/>
-      <c r="I10" s="104"/>
-      <c r="J10" s="104"/>
-      <c r="K10" s="104"/>
-      <c r="L10" s="104"/>
-      <c r="M10" s="104"/>
-      <c r="N10" s="104"/>
-      <c r="O10" s="104"/>
+      <c r="G10" s="101"/>
+      <c r="H10" s="101"/>
+      <c r="I10" s="101"/>
+      <c r="J10" s="101"/>
+      <c r="K10" s="101"/>
+      <c r="L10" s="101"/>
+      <c r="M10" s="101"/>
+      <c r="N10" s="101"/>
+      <c r="O10" s="101"/>
       <c r="P10" s="43"/>
       <c r="Q10" s="44"/>
       <c r="AB10" s="50"/>
       <c r="AC10" s="50"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="51"/>
-      <c r="B11" s="51"/>
-      <c r="C11" s="102"/>
-      <c r="D11" s="103"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="53" t="s">
+      <c r="A11" s="54"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="99"/>
+      <c r="D11" s="100"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="56" t="s">
         <v>116</v>
       </c>
-      <c r="G11" s="104"/>
-      <c r="H11" s="104"/>
-      <c r="I11" s="104"/>
-      <c r="J11" s="104"/>
-      <c r="K11" s="104"/>
-      <c r="L11" s="104"/>
-      <c r="M11" s="104"/>
-      <c r="N11" s="104"/>
-      <c r="O11" s="104"/>
+      <c r="G11" s="101"/>
+      <c r="H11" s="101"/>
+      <c r="I11" s="101"/>
+      <c r="J11" s="101"/>
+      <c r="K11" s="101"/>
+      <c r="L11" s="101"/>
+      <c r="M11" s="101"/>
+      <c r="N11" s="101"/>
+      <c r="O11" s="101"/>
       <c r="P11" s="43"/>
       <c r="Q11" s="44"/>
       <c r="AB11" s="50"/>
       <c r="AC11" s="50"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="51"/>
-      <c r="B12" s="51"/>
-      <c r="C12" s="102"/>
-      <c r="D12" s="103"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="104"/>
-      <c r="H12" s="104"/>
-      <c r="I12" s="104"/>
-      <c r="J12" s="104"/>
-      <c r="K12" s="104"/>
-      <c r="L12" s="104"/>
-      <c r="M12" s="104"/>
-      <c r="N12" s="104"/>
-      <c r="O12" s="104"/>
+      <c r="A12" s="54"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="99"/>
+      <c r="D12" s="100"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="101"/>
+      <c r="H12" s="101"/>
+      <c r="I12" s="101"/>
+      <c r="J12" s="101"/>
+      <c r="K12" s="101"/>
+      <c r="L12" s="101"/>
+      <c r="M12" s="101"/>
+      <c r="N12" s="101"/>
+      <c r="O12" s="101"/>
       <c r="P12" s="43"/>
       <c r="Q12" s="44"/>
       <c r="AB12" s="50"/>
       <c r="AC12" s="50"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="51"/>
-      <c r="B13" s="51"/>
-      <c r="C13" s="102"/>
-      <c r="D13" s="103"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="53" t="s">
+      <c r="A13" s="54"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="99"/>
+      <c r="D13" s="100"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="56" t="s">
         <v>97</v>
       </c>
-      <c r="G13" s="104"/>
-      <c r="H13" s="104"/>
-      <c r="I13" s="104"/>
-      <c r="J13" s="104"/>
-      <c r="K13" s="104"/>
-      <c r="L13" s="104"/>
-      <c r="M13" s="104"/>
-      <c r="N13" s="104"/>
-      <c r="O13" s="104"/>
+      <c r="G13" s="101"/>
+      <c r="H13" s="101"/>
+      <c r="I13" s="101"/>
+      <c r="J13" s="101"/>
+      <c r="K13" s="101"/>
+      <c r="L13" s="101"/>
+      <c r="M13" s="101"/>
+      <c r="N13" s="101"/>
+      <c r="O13" s="101"/>
       <c r="P13" s="43"/>
       <c r="Q13" s="44"/>
       <c r="AB13" s="50"/>
       <c r="AC13" s="50"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="51"/>
-      <c r="B14" s="51"/>
-      <c r="C14" s="102"/>
-      <c r="D14" s="103"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="53" t="s">
-        <v>235</v>
-      </c>
-      <c r="G14" s="104"/>
-      <c r="H14" s="104"/>
-      <c r="I14" s="104"/>
-      <c r="J14" s="104"/>
-      <c r="K14" s="104"/>
-      <c r="L14" s="104"/>
-      <c r="M14" s="104"/>
-      <c r="N14" s="104"/>
-      <c r="O14" s="104"/>
+      <c r="A14" s="54"/>
+      <c r="B14" s="54"/>
+      <c r="C14" s="99"/>
+      <c r="D14" s="100"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="56" t="s">
+        <v>255</v>
+      </c>
+      <c r="G14" s="101"/>
+      <c r="H14" s="101"/>
+      <c r="I14" s="101"/>
+      <c r="J14" s="101"/>
+      <c r="K14" s="101"/>
+      <c r="L14" s="101"/>
+      <c r="M14" s="101"/>
+      <c r="N14" s="101"/>
+      <c r="O14" s="101"/>
       <c r="P14" s="43"/>
       <c r="Q14" s="44"/>
       <c r="AB14" s="50"/>
       <c r="AC14" s="50"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="51"/>
-      <c r="B15" s="51"/>
-      <c r="C15" s="102"/>
-      <c r="D15" s="103"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="53" t="s">
-        <v>236</v>
-      </c>
-      <c r="G15" s="104"/>
-      <c r="H15" s="104"/>
-      <c r="I15" s="104"/>
-      <c r="J15" s="104"/>
-      <c r="K15" s="104"/>
-      <c r="L15" s="104"/>
-      <c r="M15" s="104"/>
-      <c r="N15" s="104"/>
-      <c r="O15" s="104"/>
+      <c r="A15" s="54"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="99"/>
+      <c r="D15" s="100"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="56" t="s">
+        <v>256</v>
+      </c>
+      <c r="G15" s="101"/>
+      <c r="H15" s="101"/>
+      <c r="I15" s="101"/>
+      <c r="J15" s="101"/>
+      <c r="K15" s="101"/>
+      <c r="L15" s="101"/>
+      <c r="M15" s="101"/>
+      <c r="N15" s="101"/>
+      <c r="O15" s="101"/>
       <c r="P15" s="43"/>
       <c r="Q15" s="44"/>
       <c r="AB15" s="50"/>
       <c r="AC15" s="50"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="51"/>
-      <c r="B16" s="51"/>
-      <c r="C16" s="102"/>
-      <c r="D16" s="103"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="53" t="s">
+      <c r="A16" s="54"/>
+      <c r="B16" s="54"/>
+      <c r="C16" s="99"/>
+      <c r="D16" s="100"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="56" t="s">
         <v>98</v>
       </c>
-      <c r="G16" s="104"/>
-      <c r="H16" s="104"/>
-      <c r="I16" s="104"/>
-      <c r="J16" s="104"/>
-      <c r="K16" s="104"/>
-      <c r="L16" s="104"/>
-      <c r="M16" s="104"/>
-      <c r="N16" s="104"/>
-      <c r="O16" s="104"/>
+      <c r="G16" s="101"/>
+      <c r="H16" s="101"/>
+      <c r="I16" s="101"/>
+      <c r="J16" s="101"/>
+      <c r="K16" s="101"/>
+      <c r="L16" s="101"/>
+      <c r="M16" s="101"/>
+      <c r="N16" s="101"/>
+      <c r="O16" s="101"/>
       <c r="P16" s="43"/>
       <c r="Q16" s="44"/>
       <c r="AB16" s="50"/>
       <c r="AC16" s="50"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="51"/>
-      <c r="B17" s="51"/>
-      <c r="C17" s="102"/>
-      <c r="D17" s="103"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="53" t="s">
+      <c r="A17" s="54"/>
+      <c r="B17" s="54"/>
+      <c r="C17" s="99"/>
+      <c r="D17" s="100"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="56" t="s">
         <v>99</v>
       </c>
-      <c r="G17" s="104"/>
-      <c r="H17" s="104"/>
-      <c r="I17" s="104"/>
-      <c r="J17" s="104"/>
-      <c r="K17" s="104"/>
-      <c r="L17" s="104"/>
-      <c r="M17" s="104"/>
-      <c r="N17" s="104"/>
-      <c r="O17" s="104"/>
+      <c r="G17" s="101"/>
+      <c r="H17" s="101"/>
+      <c r="I17" s="101"/>
+      <c r="J17" s="101"/>
+      <c r="K17" s="101"/>
+      <c r="L17" s="101"/>
+      <c r="M17" s="101"/>
+      <c r="N17" s="101"/>
+      <c r="O17" s="101"/>
       <c r="P17" s="43"/>
       <c r="Q17" s="44"/>
       <c r="AB17" s="50"/>
       <c r="AC17" s="50"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="51"/>
-      <c r="B18" s="51"/>
-      <c r="C18" s="102"/>
-      <c r="D18" s="103"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="53" t="s">
-        <v>237</v>
-      </c>
-      <c r="G18" s="104"/>
-      <c r="H18" s="104"/>
-      <c r="I18" s="104"/>
-      <c r="J18" s="104"/>
-      <c r="K18" s="104"/>
-      <c r="L18" s="104"/>
-      <c r="M18" s="104"/>
-      <c r="N18" s="104"/>
-      <c r="O18" s="104"/>
+      <c r="A18" s="54"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="99"/>
+      <c r="D18" s="100"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="56" t="s">
+        <v>257</v>
+      </c>
+      <c r="G18" s="101"/>
+      <c r="H18" s="101"/>
+      <c r="I18" s="101"/>
+      <c r="J18" s="101"/>
+      <c r="K18" s="101"/>
+      <c r="L18" s="101"/>
+      <c r="M18" s="101"/>
+      <c r="N18" s="101"/>
+      <c r="O18" s="101"/>
       <c r="P18" s="43"/>
       <c r="Q18" s="44"/>
       <c r="AB18" s="50"/>
       <c r="AC18" s="50"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="51"/>
-      <c r="B19" s="51"/>
-      <c r="C19" s="102"/>
-      <c r="D19" s="103"/>
-      <c r="E19" s="52"/>
-      <c r="F19" s="53" t="s">
+      <c r="A19" s="54"/>
+      <c r="B19" s="54"/>
+      <c r="C19" s="99"/>
+      <c r="D19" s="100"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="56" t="s">
         <v>100</v>
       </c>
-      <c r="G19" s="104"/>
-      <c r="H19" s="104"/>
-      <c r="I19" s="104"/>
-      <c r="J19" s="104"/>
-      <c r="K19" s="104"/>
-      <c r="L19" s="104"/>
-      <c r="M19" s="104"/>
-      <c r="N19" s="104"/>
-      <c r="O19" s="104"/>
+      <c r="G19" s="101"/>
+      <c r="H19" s="101"/>
+      <c r="I19" s="101"/>
+      <c r="J19" s="101"/>
+      <c r="K19" s="101"/>
+      <c r="L19" s="101"/>
+      <c r="M19" s="101"/>
+      <c r="N19" s="101"/>
+      <c r="O19" s="101"/>
       <c r="P19" s="43"/>
       <c r="Q19" s="44"/>
       <c r="AB19" s="50"/>
       <c r="AC19" s="50"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="51"/>
-      <c r="B20" s="51"/>
-      <c r="C20" s="102"/>
-      <c r="D20" s="103"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="53" t="s">
+      <c r="A20" s="54"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="99"/>
+      <c r="D20" s="100"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="56" t="s">
         <v>116</v>
       </c>
-      <c r="G20" s="104"/>
-      <c r="H20" s="104"/>
-      <c r="I20" s="104"/>
-      <c r="J20" s="104"/>
-      <c r="K20" s="104"/>
-      <c r="L20" s="104"/>
-      <c r="M20" s="104"/>
-      <c r="N20" s="104"/>
-      <c r="O20" s="104"/>
+      <c r="G20" s="101"/>
+      <c r="H20" s="101"/>
+      <c r="I20" s="101"/>
+      <c r="J20" s="101"/>
+      <c r="K20" s="101"/>
+      <c r="L20" s="101"/>
+      <c r="M20" s="101"/>
+      <c r="N20" s="101"/>
+      <c r="O20" s="101"/>
       <c r="P20" s="43"/>
       <c r="Q20" s="44"/>
       <c r="AB20" s="50"/>
       <c r="AC20" s="50"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="51"/>
-      <c r="B21" s="51"/>
-      <c r="C21" s="102"/>
-      <c r="D21" s="103"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="53" t="s">
+      <c r="A21" s="54"/>
+      <c r="B21" s="54"/>
+      <c r="C21" s="99"/>
+      <c r="D21" s="100"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="56" t="s">
         <v>117</v>
       </c>
-      <c r="G21" s="104"/>
-      <c r="H21" s="104"/>
-      <c r="I21" s="104"/>
-      <c r="J21" s="104"/>
-      <c r="K21" s="104"/>
-      <c r="L21" s="104"/>
-      <c r="M21" s="104"/>
-      <c r="N21" s="104"/>
-      <c r="O21" s="104"/>
+      <c r="G21" s="101"/>
+      <c r="H21" s="101"/>
+      <c r="I21" s="101"/>
+      <c r="J21" s="101"/>
+      <c r="K21" s="101"/>
+      <c r="L21" s="101"/>
+      <c r="M21" s="101"/>
+      <c r="N21" s="101"/>
+      <c r="O21" s="101"/>
       <c r="P21" s="43"/>
       <c r="Q21" s="44"/>
       <c r="AB21" s="50"/>
@@ -16727,37 +16902,37 @@
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="44"/>
       <c r="B23" s="44"/>
-      <c r="C23" s="98"/>
-      <c r="D23" s="98"/>
-      <c r="E23" s="98"/>
-      <c r="F23" s="99" t="n">
+      <c r="C23" s="95"/>
+      <c r="D23" s="95"/>
+      <c r="E23" s="95"/>
+      <c r="F23" s="96" t="n">
         <v>0</v>
       </c>
-      <c r="G23" s="99" t="n">
-        <v>1</v>
-      </c>
-      <c r="H23" s="99" t="n">
+      <c r="G23" s="96" t="n">
+        <v>1</v>
+      </c>
+      <c r="H23" s="96" t="n">
         <v>2</v>
       </c>
-      <c r="I23" s="99" t="n">
+      <c r="I23" s="96" t="n">
         <v>3</v>
       </c>
-      <c r="J23" s="99" t="n">
-        <v>4</v>
-      </c>
-      <c r="K23" s="99" t="n">
-        <v>5</v>
-      </c>
-      <c r="L23" s="99" t="n">
+      <c r="J23" s="96" t="n">
+        <v>4</v>
+      </c>
+      <c r="K23" s="96" t="n">
+        <v>5</v>
+      </c>
+      <c r="L23" s="96" t="n">
         <v>6</v>
       </c>
-      <c r="M23" s="99" t="n">
+      <c r="M23" s="96" t="n">
         <v>7</v>
       </c>
-      <c r="N23" s="99" t="n">
+      <c r="N23" s="96" t="n">
         <v>8</v>
       </c>
-      <c r="O23" s="99" t="n">
+      <c r="O23" s="96" t="n">
         <v>9</v>
       </c>
       <c r="P23" s="44"/>

--- a/designment/mvc-framework-document.xlsx
+++ b/designment/mvc-framework-document.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1241" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="261">
   <si>
     <t xml:space="preserve">fs</t>
   </si>
@@ -507,7 +507,7 @@
     <t xml:space="preserve">- Dynamic Event System (DES) facilitates Event Target/Dynamic Event Target property assignment and ablement.</t>
   </si>
   <si>
-    <t xml:space="preserve">- Fetch Router interfacilitates client/server endpoint calls and callbacks. </t>
+    <t xml:space="preserve">- Fetch Router interfacilates client/server endpoint calls and callbacks. </t>
   </si>
   <si>
     <t xml:space="preserve">Documents</t>
@@ -516,7 +516,57 @@
     <t xml:space="preserve">###</t>
   </si>
   <si>
-    <t xml:space="preserve">- [Classification](./document/Classification/index.md)</t>
+    <t xml:space="preserve">MVC Framework Guide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DET Guide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DET Object Guide</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="FreeMono"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">- Document
+  - Guide
+    - [</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="FreeMono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">Dynamic Event Target (DET)](./document/guide/DynamicEventTarget/index.md)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="FreeMono"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">      - [</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="FreeMono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">DET Object](./document/guide/DynamicEventTarget/DET-Object/index.md)
+    - [Dynamic Event System (DES)](./document/guid/DynamicEventSystem/index.md)</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Demonstration</t>
@@ -562,9 +612,6 @@
   </si>
   <si>
     <t xml:space="preserve">- []</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DET Object Guide</t>
   </si>
   <si>
     <t xml:space="preserve">Dynamic Event Target (DET) Object</t>
@@ -815,6 +862,11 @@
   prototype
 }
 ```</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|Property Key|Property Val Type|Property Description|
+|-|-|-|
+|prototype|Any|Set Prototype|</t>
   </si>
   <si>
     <t xml:space="preserve">DET Array Guide</t>
@@ -1544,7 +1596,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="101">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1799,10 +1851,6 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="27" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="27" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="27" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -2151,7 +2199,7 @@
   <dimension ref="A1:Z244"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L261" activeCellId="0" sqref="L261"/>
+      <selection pane="topLeft" activeCell="F16" activeCellId="0" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="2" outlineLevelCol="0"/>
@@ -14455,8 +14503,8 @@
   </sheetPr>
   <dimension ref="A1:R155"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A70" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D91" activeCellId="0" sqref="D91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
@@ -14642,7 +14690,7 @@
         <v>149</v>
       </c>
       <c r="D14" s="62" t="s">
-        <v>39</v>
+        <v>150</v>
       </c>
       <c r="E14" s="43"/>
       <c r="F14" s="44"/>
@@ -14654,7 +14702,7 @@
       <c r="B15" s="51"/>
       <c r="C15" s="52"/>
       <c r="D15" s="63" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E15" s="43"/>
       <c r="F15" s="44"/>
@@ -14665,17 +14713,21 @@
       <c r="A16" s="51"/>
       <c r="B16" s="51"/>
       <c r="C16" s="52"/>
-      <c r="D16" s="64"/>
+      <c r="D16" s="63" t="s">
+        <v>152</v>
+      </c>
       <c r="E16" s="43"/>
       <c r="F16" s="44"/>
       <c r="Q16" s="50"/>
       <c r="R16" s="50"/>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="17" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A17" s="51"/>
       <c r="B17" s="51"/>
       <c r="C17" s="52"/>
-      <c r="D17" s="64"/>
+      <c r="D17" s="53" t="s">
+        <v>153</v>
+      </c>
       <c r="E17" s="43"/>
       <c r="F17" s="44"/>
       <c r="Q17" s="50"/>
@@ -14685,7 +14737,7 @@
       <c r="A18" s="51"/>
       <c r="B18" s="51"/>
       <c r="C18" s="52"/>
-      <c r="D18" s="64"/>
+      <c r="D18" s="63"/>
       <c r="E18" s="43"/>
       <c r="F18" s="44"/>
       <c r="Q18" s="50"/>
@@ -14695,7 +14747,7 @@
       <c r="A19" s="51"/>
       <c r="B19" s="51"/>
       <c r="C19" s="52"/>
-      <c r="D19" s="64"/>
+      <c r="D19" s="63"/>
       <c r="E19" s="43"/>
       <c r="F19" s="44"/>
       <c r="Q19" s="50"/>
@@ -14705,7 +14757,7 @@
       <c r="A20" s="51"/>
       <c r="B20" s="51"/>
       <c r="C20" s="52"/>
-      <c r="D20" s="64"/>
+      <c r="D20" s="63"/>
       <c r="E20" s="43"/>
       <c r="F20" s="44"/>
       <c r="Q20" s="50"/>
@@ -14718,7 +14770,7 @@
         <v>149</v>
       </c>
       <c r="D21" s="62" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E21" s="43"/>
       <c r="F21" s="44"/>
@@ -14728,7 +14780,7 @@
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A22" s="51"/>
       <c r="B22" s="51"/>
-      <c r="C22" s="65"/>
+      <c r="C22" s="64"/>
       <c r="D22" s="63"/>
       <c r="E22" s="43"/>
       <c r="F22" s="44"/>
@@ -14741,7 +14793,7 @@
         <v>11</v>
       </c>
       <c r="B23" s="49" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C23" s="49"/>
       <c r="D23" s="49"/>
@@ -14751,13 +14803,13 @@
       <c r="R23" s="50"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A24" s="66"/>
-      <c r="B24" s="66"/>
+      <c r="A24" s="65"/>
+      <c r="B24" s="65"/>
       <c r="C24" s="55" t="s">
         <v>140</v>
       </c>
-      <c r="D24" s="67" t="s">
-        <v>152</v>
+      <c r="D24" s="66" t="s">
+        <v>155</v>
       </c>
       <c r="E24" s="43"/>
       <c r="F24" s="44"/>
@@ -14767,9 +14819,9 @@
     <row r="25" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A25" s="51"/>
       <c r="B25" s="51"/>
-      <c r="C25" s="65"/>
+      <c r="C25" s="64"/>
       <c r="D25" s="53" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E25" s="43"/>
       <c r="F25" s="44"/>
@@ -14777,13 +14829,13 @@
       <c r="R25" s="50"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A26" s="68"/>
-      <c r="B26" s="68"/>
+      <c r="A26" s="67"/>
+      <c r="B26" s="67"/>
       <c r="C26" s="61" t="s">
         <v>143</v>
       </c>
-      <c r="D26" s="69" t="s">
-        <v>154</v>
+      <c r="D26" s="68" t="s">
+        <v>157</v>
       </c>
       <c r="E26" s="43"/>
       <c r="F26" s="44"/>
@@ -14793,9 +14845,9 @@
     <row r="27" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A27" s="51"/>
       <c r="B27" s="51"/>
-      <c r="C27" s="65"/>
+      <c r="C27" s="64"/>
       <c r="D27" s="53" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E27" s="43"/>
       <c r="F27" s="44"/>
@@ -14803,13 +14855,13 @@
       <c r="R27" s="50"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A28" s="70"/>
-      <c r="B28" s="70"/>
-      <c r="C28" s="71" t="s">
+      <c r="A28" s="69"/>
+      <c r="B28" s="69"/>
+      <c r="C28" s="70" t="s">
         <v>149</v>
       </c>
-      <c r="D28" s="72" t="s">
-        <v>156</v>
+      <c r="D28" s="71" t="s">
+        <v>159</v>
       </c>
       <c r="E28" s="43"/>
       <c r="F28" s="44"/>
@@ -14817,13 +14869,13 @@
       <c r="R28" s="50"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A29" s="73"/>
-      <c r="B29" s="73"/>
-      <c r="C29" s="74" t="s">
-        <v>157</v>
-      </c>
-      <c r="D29" s="75" t="s">
-        <v>158</v>
+      <c r="A29" s="72"/>
+      <c r="B29" s="72"/>
+      <c r="C29" s="73" t="s">
+        <v>160</v>
+      </c>
+      <c r="D29" s="74" t="s">
+        <v>161</v>
       </c>
       <c r="E29" s="43"/>
       <c r="F29" s="44"/>
@@ -14833,11 +14885,11 @@
     <row r="30" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A30" s="51"/>
       <c r="B30" s="51"/>
-      <c r="C30" s="65" t="s">
-        <v>159</v>
+      <c r="C30" s="64" t="s">
+        <v>162</v>
       </c>
       <c r="D30" s="53" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="E30" s="43"/>
       <c r="F30" s="44"/>
@@ -14847,11 +14899,11 @@
     <row r="31" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A31" s="51"/>
       <c r="B31" s="51"/>
-      <c r="C31" s="65" t="s">
-        <v>159</v>
+      <c r="C31" s="64" t="s">
+        <v>162</v>
       </c>
       <c r="D31" s="53" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E31" s="43"/>
       <c r="F31" s="44"/>
@@ -14861,11 +14913,11 @@
     <row r="32" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A32" s="51"/>
       <c r="B32" s="51"/>
-      <c r="C32" s="65" t="s">
-        <v>159</v>
+      <c r="C32" s="64" t="s">
+        <v>162</v>
       </c>
       <c r="D32" s="53" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E32" s="43"/>
       <c r="F32" s="44"/>
@@ -14875,9 +14927,9 @@
     <row r="33" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A33" s="51"/>
       <c r="B33" s="51"/>
-      <c r="C33" s="65"/>
+      <c r="C33" s="64"/>
       <c r="D33" s="53" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E33" s="43"/>
       <c r="F33" s="44"/>
@@ -14887,9 +14939,9 @@
     <row r="34" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A34" s="51"/>
       <c r="B34" s="51"/>
-      <c r="C34" s="65"/>
+      <c r="C34" s="64"/>
       <c r="D34" s="53" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="E34" s="43"/>
       <c r="F34" s="44"/>
@@ -14899,9 +14951,9 @@
     <row r="35" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A35" s="51"/>
       <c r="B35" s="51"/>
-      <c r="C35" s="65"/>
+      <c r="C35" s="64"/>
       <c r="D35" s="53" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E35" s="43"/>
       <c r="F35" s="44"/>
@@ -14914,7 +14966,7 @@
         <v>13</v>
       </c>
       <c r="B36" s="49" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="C36" s="49"/>
       <c r="D36" s="49"/>
@@ -14924,13 +14976,13 @@
       <c r="R36" s="50"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="66"/>
-      <c r="B37" s="66"/>
+      <c r="A37" s="65"/>
+      <c r="B37" s="65"/>
       <c r="C37" s="55" t="s">
         <v>140</v>
       </c>
-      <c r="D37" s="67" t="s">
-        <v>167</v>
+      <c r="D37" s="66" t="s">
+        <v>169</v>
       </c>
       <c r="E37" s="43"/>
       <c r="F37" s="44"/>
@@ -14938,11 +14990,11 @@
       <c r="R37" s="50"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="66"/>
-      <c r="B38" s="66"/>
-      <c r="C38" s="65"/>
+      <c r="A38" s="65"/>
+      <c r="B38" s="65"/>
+      <c r="C38" s="64"/>
       <c r="D38" s="53" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E38" s="43"/>
       <c r="F38" s="44"/>
@@ -14950,11 +15002,11 @@
       <c r="R38" s="50"/>
     </row>
     <row r="39" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="66"/>
-      <c r="B39" s="66"/>
-      <c r="C39" s="65"/>
+      <c r="A39" s="65"/>
+      <c r="B39" s="65"/>
+      <c r="C39" s="64"/>
       <c r="D39" s="53" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E39" s="43"/>
       <c r="F39" s="44"/>
@@ -14962,11 +15014,11 @@
       <c r="R39" s="50"/>
     </row>
     <row r="40" customFormat="false" ht="137.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="66"/>
-      <c r="B40" s="66"/>
-      <c r="C40" s="76"/>
-      <c r="D40" s="77" t="s">
-        <v>170</v>
+      <c r="A40" s="65"/>
+      <c r="B40" s="65"/>
+      <c r="C40" s="75"/>
+      <c r="D40" s="76" t="s">
+        <v>172</v>
       </c>
       <c r="E40" s="43"/>
       <c r="F40" s="44"/>
@@ -14974,13 +15026,13 @@
       <c r="R40" s="50"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="66"/>
-      <c r="B41" s="66"/>
+      <c r="A41" s="65"/>
+      <c r="B41" s="65"/>
       <c r="C41" s="61" t="s">
         <v>143</v>
       </c>
-      <c r="D41" s="69" t="s">
-        <v>171</v>
+      <c r="D41" s="68" t="s">
+        <v>173</v>
       </c>
       <c r="E41" s="43"/>
       <c r="F41" s="44"/>
@@ -14988,13 +15040,13 @@
       <c r="R41" s="50"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="66"/>
-      <c r="B42" s="66"/>
-      <c r="C42" s="71" t="s">
+      <c r="A42" s="65"/>
+      <c r="B42" s="65"/>
+      <c r="C42" s="70" t="s">
         <v>149</v>
       </c>
-      <c r="D42" s="72" t="s">
-        <v>172</v>
+      <c r="D42" s="71" t="s">
+        <v>174</v>
       </c>
       <c r="E42" s="43"/>
       <c r="F42" s="44"/>
@@ -15002,13 +15054,13 @@
       <c r="R42" s="50"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="66"/>
-      <c r="B43" s="66"/>
-      <c r="C43" s="74" t="s">
-        <v>157</v>
-      </c>
-      <c r="D43" s="75" t="s">
-        <v>173</v>
+      <c r="A43" s="65"/>
+      <c r="B43" s="65"/>
+      <c r="C43" s="73" t="s">
+        <v>160</v>
+      </c>
+      <c r="D43" s="74" t="s">
+        <v>175</v>
       </c>
       <c r="E43" s="43"/>
       <c r="F43" s="44"/>
@@ -15016,11 +15068,11 @@
       <c r="R43" s="50"/>
     </row>
     <row r="44" customFormat="false" ht="166.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="66"/>
-      <c r="B44" s="66"/>
-      <c r="C44" s="78"/>
-      <c r="D44" s="79" t="s">
-        <v>174</v>
+      <c r="A44" s="65"/>
+      <c r="B44" s="65"/>
+      <c r="C44" s="77"/>
+      <c r="D44" s="78" t="s">
+        <v>176</v>
       </c>
       <c r="E44" s="43"/>
       <c r="F44" s="44"/>
@@ -15028,13 +15080,13 @@
       <c r="R44" s="50"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="66"/>
-      <c r="B45" s="66"/>
-      <c r="C45" s="71" t="s">
+      <c r="A45" s="65"/>
+      <c r="B45" s="65"/>
+      <c r="C45" s="70" t="s">
         <v>149</v>
       </c>
-      <c r="D45" s="72" t="s">
-        <v>175</v>
+      <c r="D45" s="71" t="s">
+        <v>177</v>
       </c>
       <c r="E45" s="43"/>
       <c r="F45" s="44"/>
@@ -15042,13 +15094,13 @@
       <c r="R45" s="50"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="66"/>
-      <c r="B46" s="66"/>
-      <c r="C46" s="74" t="s">
-        <v>157</v>
-      </c>
-      <c r="D46" s="75" t="s">
-        <v>176</v>
+      <c r="A46" s="65"/>
+      <c r="B46" s="65"/>
+      <c r="C46" s="73" t="s">
+        <v>160</v>
+      </c>
+      <c r="D46" s="74" t="s">
+        <v>178</v>
       </c>
       <c r="E46" s="43"/>
       <c r="F46" s="44"/>
@@ -15056,11 +15108,11 @@
       <c r="R46" s="50"/>
     </row>
     <row r="47" customFormat="false" ht="88.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="66"/>
-      <c r="B47" s="66"/>
-      <c r="C47" s="78"/>
-      <c r="D47" s="79" t="s">
-        <v>177</v>
+      <c r="A47" s="65"/>
+      <c r="B47" s="65"/>
+      <c r="C47" s="77"/>
+      <c r="D47" s="78" t="s">
+        <v>179</v>
       </c>
       <c r="E47" s="43"/>
       <c r="F47" s="44"/>
@@ -15068,13 +15120,13 @@
       <c r="R47" s="50"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="66"/>
-      <c r="B48" s="66"/>
-      <c r="C48" s="74" t="s">
-        <v>157</v>
-      </c>
-      <c r="D48" s="75" t="s">
-        <v>178</v>
+      <c r="A48" s="65"/>
+      <c r="B48" s="65"/>
+      <c r="C48" s="73" t="s">
+        <v>160</v>
+      </c>
+      <c r="D48" s="74" t="s">
+        <v>180</v>
       </c>
       <c r="E48" s="43"/>
       <c r="F48" s="44"/>
@@ -15082,11 +15134,11 @@
       <c r="R48" s="50"/>
     </row>
     <row r="49" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="66"/>
-      <c r="B49" s="66"/>
-      <c r="C49" s="80"/>
-      <c r="D49" s="79" t="s">
-        <v>179</v>
+      <c r="A49" s="65"/>
+      <c r="B49" s="65"/>
+      <c r="C49" s="79"/>
+      <c r="D49" s="78" t="s">
+        <v>181</v>
       </c>
       <c r="E49" s="43"/>
       <c r="F49" s="44"/>
@@ -15094,13 +15146,13 @@
       <c r="R49" s="50"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="66"/>
-      <c r="B50" s="66"/>
+      <c r="A50" s="65"/>
+      <c r="B50" s="65"/>
       <c r="C50" s="61" t="s">
         <v>143</v>
       </c>
-      <c r="D50" s="69" t="s">
-        <v>180</v>
+      <c r="D50" s="68" t="s">
+        <v>182</v>
       </c>
       <c r="E50" s="43"/>
       <c r="F50" s="44"/>
@@ -15108,13 +15160,13 @@
       <c r="R50" s="50"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="66"/>
-      <c r="B51" s="66"/>
-      <c r="C51" s="71" t="s">
+      <c r="A51" s="65"/>
+      <c r="B51" s="65"/>
+      <c r="C51" s="70" t="s">
         <v>149</v>
       </c>
-      <c r="D51" s="72" t="s">
-        <v>181</v>
+      <c r="D51" s="71" t="s">
+        <v>183</v>
       </c>
       <c r="E51" s="43"/>
       <c r="F51" s="44"/>
@@ -15122,13 +15174,13 @@
       <c r="R51" s="50"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A52" s="66"/>
-      <c r="B52" s="66"/>
-      <c r="C52" s="74" t="s">
-        <v>157</v>
-      </c>
-      <c r="D52" s="75" t="s">
-        <v>182</v>
+      <c r="A52" s="65"/>
+      <c r="B52" s="65"/>
+      <c r="C52" s="73" t="s">
+        <v>160</v>
+      </c>
+      <c r="D52" s="74" t="s">
+        <v>184</v>
       </c>
       <c r="E52" s="43"/>
       <c r="F52" s="44"/>
@@ -15136,11 +15188,11 @@
       <c r="R52" s="50"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A53" s="66"/>
-      <c r="B53" s="66"/>
-      <c r="C53" s="65"/>
+      <c r="A53" s="65"/>
+      <c r="B53" s="65"/>
+      <c r="C53" s="64"/>
       <c r="D53" s="53" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E53" s="43"/>
       <c r="F53" s="44"/>
@@ -15148,11 +15200,11 @@
       <c r="R53" s="50"/>
     </row>
     <row r="54" customFormat="false" ht="69.35" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A54" s="66"/>
-      <c r="B54" s="66"/>
-      <c r="C54" s="78"/>
-      <c r="D54" s="79" t="s">
-        <v>184</v>
+      <c r="A54" s="65"/>
+      <c r="B54" s="65"/>
+      <c r="C54" s="77"/>
+      <c r="D54" s="78" t="s">
+        <v>186</v>
       </c>
       <c r="E54" s="43"/>
       <c r="F54" s="44"/>
@@ -15160,11 +15212,11 @@
       <c r="R54" s="50"/>
     </row>
     <row r="55" s="1" customFormat="true" ht="49.95" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A55" s="66"/>
-      <c r="B55" s="66"/>
-      <c r="C55" s="65"/>
+      <c r="A55" s="65"/>
+      <c r="B55" s="65"/>
+      <c r="C55" s="64"/>
       <c r="D55" s="53" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E55" s="43"/>
       <c r="F55" s="44"/>
@@ -15182,9 +15234,9 @@
       <c r="R55" s="50"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A56" s="66"/>
-      <c r="B56" s="66"/>
-      <c r="C56" s="65"/>
+      <c r="A56" s="65"/>
+      <c r="B56" s="65"/>
+      <c r="C56" s="64"/>
       <c r="D56" s="53"/>
       <c r="E56" s="43"/>
       <c r="F56" s="44"/>
@@ -15192,13 +15244,13 @@
       <c r="R56" s="50"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A57" s="66"/>
-      <c r="B57" s="66"/>
-      <c r="C57" s="74" t="s">
-        <v>157</v>
-      </c>
-      <c r="D57" s="75" t="s">
-        <v>186</v>
+      <c r="A57" s="65"/>
+      <c r="B57" s="65"/>
+      <c r="C57" s="73" t="s">
+        <v>160</v>
+      </c>
+      <c r="D57" s="74" t="s">
+        <v>188</v>
       </c>
       <c r="E57" s="43"/>
       <c r="F57" s="44"/>
@@ -15206,11 +15258,11 @@
       <c r="R57" s="50"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A58" s="66"/>
-      <c r="B58" s="66"/>
-      <c r="C58" s="65"/>
+      <c r="A58" s="65"/>
+      <c r="B58" s="65"/>
+      <c r="C58" s="64"/>
       <c r="D58" s="53" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E58" s="43"/>
       <c r="F58" s="44"/>
@@ -15218,11 +15270,11 @@
       <c r="R58" s="50"/>
     </row>
     <row r="59" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A59" s="66"/>
-      <c r="B59" s="66"/>
-      <c r="C59" s="78"/>
-      <c r="D59" s="79" t="s">
-        <v>188</v>
+      <c r="A59" s="65"/>
+      <c r="B59" s="65"/>
+      <c r="C59" s="77"/>
+      <c r="D59" s="78" t="s">
+        <v>190</v>
       </c>
       <c r="E59" s="43"/>
       <c r="F59" s="44"/>
@@ -15230,11 +15282,11 @@
       <c r="R59" s="50"/>
     </row>
     <row r="60" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A60" s="66"/>
-      <c r="B60" s="66"/>
-      <c r="C60" s="65"/>
+      <c r="A60" s="65"/>
+      <c r="B60" s="65"/>
+      <c r="C60" s="64"/>
       <c r="D60" s="53" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E60" s="43"/>
       <c r="F60" s="44"/>
@@ -15242,13 +15294,13 @@
       <c r="R60" s="50"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A61" s="66"/>
-      <c r="B61" s="66"/>
-      <c r="C61" s="74" t="s">
-        <v>157</v>
-      </c>
-      <c r="D61" s="75" t="s">
-        <v>190</v>
+      <c r="A61" s="65"/>
+      <c r="B61" s="65"/>
+      <c r="C61" s="73" t="s">
+        <v>160</v>
+      </c>
+      <c r="D61" s="74" t="s">
+        <v>192</v>
       </c>
       <c r="E61" s="43"/>
       <c r="F61" s="44"/>
@@ -15256,11 +15308,11 @@
       <c r="R61" s="50"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A62" s="66"/>
-      <c r="B62" s="66"/>
-      <c r="C62" s="65"/>
+      <c r="A62" s="65"/>
+      <c r="B62" s="65"/>
+      <c r="C62" s="64"/>
       <c r="D62" s="53" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E62" s="43"/>
       <c r="F62" s="44"/>
@@ -15268,11 +15320,11 @@
       <c r="R62" s="50"/>
     </row>
     <row r="63" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A63" s="66"/>
-      <c r="B63" s="66"/>
-      <c r="C63" s="78"/>
-      <c r="D63" s="79" t="s">
-        <v>192</v>
+      <c r="A63" s="65"/>
+      <c r="B63" s="65"/>
+      <c r="C63" s="77"/>
+      <c r="D63" s="78" t="s">
+        <v>194</v>
       </c>
       <c r="E63" s="43"/>
       <c r="F63" s="44"/>
@@ -15280,11 +15332,11 @@
       <c r="R63" s="50"/>
     </row>
     <row r="64" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A64" s="66"/>
-      <c r="B64" s="66"/>
-      <c r="C64" s="65"/>
+      <c r="A64" s="65"/>
+      <c r="B64" s="65"/>
+      <c r="C64" s="64"/>
       <c r="D64" s="53" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E64" s="43"/>
       <c r="F64" s="44"/>
@@ -15292,13 +15344,13 @@
       <c r="R64" s="50"/>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A65" s="66"/>
-      <c r="B65" s="66"/>
-      <c r="C65" s="71" t="s">
+      <c r="A65" s="65"/>
+      <c r="B65" s="65"/>
+      <c r="C65" s="70" t="s">
         <v>149</v>
       </c>
-      <c r="D65" s="72" t="s">
-        <v>194</v>
+      <c r="D65" s="71" t="s">
+        <v>196</v>
       </c>
       <c r="E65" s="43"/>
       <c r="F65" s="44"/>
@@ -15306,11 +15358,11 @@
       <c r="R65" s="50"/>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A66" s="66"/>
-      <c r="B66" s="66"/>
-      <c r="C66" s="65"/>
+      <c r="A66" s="65"/>
+      <c r="B66" s="65"/>
+      <c r="C66" s="64"/>
       <c r="D66" s="53" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E66" s="43"/>
       <c r="F66" s="44"/>
@@ -15318,13 +15370,13 @@
       <c r="R66" s="50"/>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A67" s="66"/>
-      <c r="B67" s="66"/>
-      <c r="C67" s="74" t="s">
-        <v>157</v>
-      </c>
-      <c r="D67" s="75" t="s">
-        <v>196</v>
+      <c r="A67" s="65"/>
+      <c r="B67" s="65"/>
+      <c r="C67" s="73" t="s">
+        <v>160</v>
+      </c>
+      <c r="D67" s="74" t="s">
+        <v>198</v>
       </c>
       <c r="E67" s="43"/>
       <c r="F67" s="44"/>
@@ -15332,11 +15384,11 @@
       <c r="R67" s="50"/>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A68" s="66"/>
-      <c r="B68" s="66"/>
-      <c r="C68" s="65"/>
+      <c r="A68" s="65"/>
+      <c r="B68" s="65"/>
+      <c r="C68" s="64"/>
       <c r="D68" s="53" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E68" s="43"/>
       <c r="F68" s="44"/>
@@ -15344,11 +15396,11 @@
       <c r="R68" s="50"/>
     </row>
     <row r="69" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A69" s="66"/>
-      <c r="B69" s="66"/>
-      <c r="C69" s="78"/>
-      <c r="D69" s="79" t="s">
-        <v>198</v>
+      <c r="A69" s="65"/>
+      <c r="B69" s="65"/>
+      <c r="C69" s="77"/>
+      <c r="D69" s="78" t="s">
+        <v>200</v>
       </c>
       <c r="E69" s="43"/>
       <c r="F69" s="44"/>
@@ -15356,11 +15408,11 @@
       <c r="R69" s="50"/>
     </row>
     <row r="70" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A70" s="66"/>
-      <c r="B70" s="66"/>
-      <c r="C70" s="65"/>
+      <c r="A70" s="65"/>
+      <c r="B70" s="65"/>
+      <c r="C70" s="64"/>
       <c r="D70" s="53" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E70" s="43"/>
       <c r="F70" s="44"/>
@@ -15368,13 +15420,13 @@
       <c r="R70" s="50"/>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A71" s="66"/>
-      <c r="B71" s="66"/>
-      <c r="C71" s="71" t="s">
+      <c r="A71" s="65"/>
+      <c r="B71" s="65"/>
+      <c r="C71" s="70" t="s">
         <v>149</v>
       </c>
-      <c r="D71" s="72" t="s">
-        <v>200</v>
+      <c r="D71" s="71" t="s">
+        <v>202</v>
       </c>
       <c r="E71" s="43"/>
       <c r="F71" s="44"/>
@@ -15382,13 +15434,13 @@
       <c r="R71" s="50"/>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A72" s="66"/>
-      <c r="B72" s="66"/>
-      <c r="C72" s="74" t="s">
-        <v>157</v>
-      </c>
-      <c r="D72" s="75" t="s">
-        <v>201</v>
+      <c r="A72" s="65"/>
+      <c r="B72" s="65"/>
+      <c r="C72" s="73" t="s">
+        <v>160</v>
+      </c>
+      <c r="D72" s="74" t="s">
+        <v>203</v>
       </c>
       <c r="E72" s="43"/>
       <c r="F72" s="44"/>
@@ -15396,11 +15448,11 @@
       <c r="R72" s="50"/>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A73" s="66"/>
-      <c r="B73" s="66"/>
-      <c r="C73" s="65"/>
+      <c r="A73" s="65"/>
+      <c r="B73" s="65"/>
+      <c r="C73" s="64"/>
       <c r="D73" s="53" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E73" s="43"/>
       <c r="F73" s="44"/>
@@ -15408,11 +15460,11 @@
       <c r="R73" s="50"/>
     </row>
     <row r="74" customFormat="false" ht="69.35" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A74" s="66"/>
-      <c r="B74" s="66"/>
-      <c r="C74" s="78"/>
-      <c r="D74" s="79" t="s">
-        <v>203</v>
+      <c r="A74" s="65"/>
+      <c r="B74" s="65"/>
+      <c r="C74" s="77"/>
+      <c r="D74" s="78" t="s">
+        <v>205</v>
       </c>
       <c r="E74" s="43"/>
       <c r="F74" s="44"/>
@@ -15420,11 +15472,11 @@
       <c r="R74" s="50"/>
     </row>
     <row r="75" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A75" s="66"/>
-      <c r="B75" s="66"/>
-      <c r="C75" s="65"/>
+      <c r="A75" s="65"/>
+      <c r="B75" s="65"/>
+      <c r="C75" s="64"/>
       <c r="D75" s="53" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E75" s="43"/>
       <c r="F75" s="44"/>
@@ -15432,13 +15484,13 @@
       <c r="R75" s="50"/>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A76" s="66"/>
-      <c r="B76" s="66"/>
-      <c r="C76" s="71" t="s">
+      <c r="A76" s="65"/>
+      <c r="B76" s="65"/>
+      <c r="C76" s="70" t="s">
         <v>149</v>
       </c>
-      <c r="D76" s="72" t="s">
-        <v>205</v>
+      <c r="D76" s="71" t="s">
+        <v>207</v>
       </c>
       <c r="E76" s="43"/>
       <c r="F76" s="44"/>
@@ -15446,13 +15498,13 @@
       <c r="R76" s="50"/>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A77" s="66"/>
-      <c r="B77" s="66"/>
-      <c r="C77" s="74" t="s">
-        <v>157</v>
-      </c>
-      <c r="D77" s="75" t="s">
-        <v>206</v>
+      <c r="A77" s="65"/>
+      <c r="B77" s="65"/>
+      <c r="C77" s="73" t="s">
+        <v>160</v>
+      </c>
+      <c r="D77" s="74" t="s">
+        <v>208</v>
       </c>
       <c r="E77" s="43"/>
       <c r="F77" s="44"/>
@@ -15460,11 +15512,11 @@
       <c r="R77" s="50"/>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A78" s="66"/>
-      <c r="B78" s="66"/>
-      <c r="C78" s="65"/>
+      <c r="A78" s="65"/>
+      <c r="B78" s="65"/>
+      <c r="C78" s="64"/>
       <c r="D78" s="53" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E78" s="43"/>
       <c r="F78" s="44"/>
@@ -15472,11 +15524,11 @@
       <c r="R78" s="50"/>
     </row>
     <row r="79" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A79" s="66"/>
-      <c r="B79" s="66"/>
-      <c r="C79" s="78"/>
-      <c r="D79" s="79" t="s">
-        <v>208</v>
+      <c r="A79" s="65"/>
+      <c r="B79" s="65"/>
+      <c r="C79" s="77"/>
+      <c r="D79" s="78" t="s">
+        <v>210</v>
       </c>
       <c r="E79" s="43"/>
       <c r="F79" s="44"/>
@@ -15484,11 +15536,11 @@
       <c r="R79" s="50"/>
     </row>
     <row r="80" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A80" s="66"/>
-      <c r="B80" s="66"/>
-      <c r="C80" s="65"/>
+      <c r="A80" s="65"/>
+      <c r="B80" s="65"/>
+      <c r="C80" s="64"/>
       <c r="D80" s="53" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E80" s="43"/>
       <c r="F80" s="44"/>
@@ -15496,13 +15548,13 @@
       <c r="R80" s="50"/>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A81" s="66"/>
-      <c r="B81" s="66"/>
-      <c r="C81" s="71" t="s">
+      <c r="A81" s="65"/>
+      <c r="B81" s="65"/>
+      <c r="C81" s="70" t="s">
         <v>149</v>
       </c>
-      <c r="D81" s="72" t="s">
-        <v>210</v>
+      <c r="D81" s="71" t="s">
+        <v>212</v>
       </c>
       <c r="E81" s="43"/>
       <c r="F81" s="44"/>
@@ -15510,13 +15562,13 @@
       <c r="R81" s="50"/>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A82" s="66"/>
-      <c r="B82" s="66"/>
-      <c r="C82" s="74" t="s">
-        <v>157</v>
-      </c>
-      <c r="D82" s="75" t="s">
-        <v>211</v>
+      <c r="A82" s="65"/>
+      <c r="B82" s="65"/>
+      <c r="C82" s="73" t="s">
+        <v>160</v>
+      </c>
+      <c r="D82" s="74" t="s">
+        <v>213</v>
       </c>
       <c r="E82" s="43"/>
       <c r="F82" s="44"/>
@@ -15524,11 +15576,11 @@
       <c r="R82" s="50"/>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A83" s="66"/>
-      <c r="B83" s="66"/>
-      <c r="C83" s="65"/>
+      <c r="A83" s="65"/>
+      <c r="B83" s="65"/>
+      <c r="C83" s="64"/>
       <c r="D83" s="53" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E83" s="43"/>
       <c r="F83" s="44"/>
@@ -15536,11 +15588,11 @@
       <c r="R83" s="50"/>
     </row>
     <row r="84" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A84" s="66"/>
-      <c r="B84" s="66"/>
-      <c r="C84" s="78"/>
-      <c r="D84" s="79" t="s">
-        <v>213</v>
+      <c r="A84" s="65"/>
+      <c r="B84" s="65"/>
+      <c r="C84" s="77"/>
+      <c r="D84" s="78" t="s">
+        <v>215</v>
       </c>
       <c r="E84" s="43"/>
       <c r="F84" s="44"/>
@@ -15548,11 +15600,11 @@
       <c r="R84" s="50"/>
     </row>
     <row r="85" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A85" s="66"/>
-      <c r="B85" s="66"/>
-      <c r="C85" s="65"/>
+      <c r="A85" s="65"/>
+      <c r="B85" s="65"/>
+      <c r="C85" s="64"/>
       <c r="D85" s="53" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E85" s="43"/>
       <c r="F85" s="44"/>
@@ -15560,13 +15612,13 @@
       <c r="R85" s="50"/>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A86" s="66"/>
-      <c r="B86" s="66"/>
-      <c r="C86" s="71" t="s">
+      <c r="A86" s="65"/>
+      <c r="B86" s="65"/>
+      <c r="C86" s="70" t="s">
         <v>149</v>
       </c>
-      <c r="D86" s="72" t="s">
-        <v>215</v>
+      <c r="D86" s="71" t="s">
+        <v>217</v>
       </c>
       <c r="E86" s="43"/>
       <c r="F86" s="44"/>
@@ -15574,13 +15626,13 @@
       <c r="R86" s="50"/>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A87" s="66"/>
-      <c r="B87" s="66"/>
-      <c r="C87" s="74" t="s">
-        <v>157</v>
-      </c>
-      <c r="D87" s="75" t="s">
-        <v>216</v>
+      <c r="A87" s="65"/>
+      <c r="B87" s="65"/>
+      <c r="C87" s="73" t="s">
+        <v>160</v>
+      </c>
+      <c r="D87" s="74" t="s">
+        <v>218</v>
       </c>
       <c r="E87" s="43"/>
       <c r="F87" s="44"/>
@@ -15588,49 +15640,51 @@
       <c r="R87" s="50"/>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A88" s="66"/>
-      <c r="B88" s="66"/>
-      <c r="C88" s="65"/>
+      <c r="A88" s="65"/>
+      <c r="B88" s="65"/>
+      <c r="C88" s="64"/>
       <c r="D88" s="53" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E88" s="43"/>
       <c r="F88" s="44"/>
       <c r="Q88" s="50"/>
       <c r="R88" s="50"/>
     </row>
-    <row r="89" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A89" s="66"/>
-      <c r="B89" s="66"/>
-      <c r="C89" s="78"/>
-      <c r="D89" s="79" t="s">
-        <v>218</v>
+    <row r="89" customFormat="false" ht="50" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A89" s="65"/>
+      <c r="B89" s="65"/>
+      <c r="C89" s="77"/>
+      <c r="D89" s="78" t="s">
+        <v>220</v>
       </c>
       <c r="E89" s="43"/>
       <c r="F89" s="44"/>
       <c r="Q89" s="50"/>
       <c r="R89" s="50"/>
     </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A90" s="66"/>
-      <c r="B90" s="66"/>
-      <c r="C90" s="78"/>
-      <c r="D90" s="79"/>
+    <row r="90" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A90" s="65"/>
+      <c r="B90" s="65"/>
+      <c r="C90" s="64"/>
+      <c r="D90" s="53" t="s">
+        <v>221</v>
+      </c>
       <c r="E90" s="43"/>
       <c r="F90" s="44"/>
       <c r="Q90" s="50"/>
       <c r="R90" s="50"/>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="81" t="n">
+      <c r="A91" s="80" t="n">
         <f aca="false">VINE_Documents!$A$19</f>
         <v>15</v>
       </c>
       <c r="B91" s="49" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C91" s="49"/>
-      <c r="D91" s="82"/>
+      <c r="D91" s="81"/>
       <c r="E91" s="43"/>
       <c r="F91" s="44"/>
       <c r="Q91" s="50"/>
@@ -15639,11 +15693,11 @@
     <row r="92" customFormat="false" ht="19.7" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A92" s="54"/>
       <c r="B92" s="54"/>
-      <c r="C92" s="83" t="s">
+      <c r="C92" s="82" t="s">
         <v>140</v>
       </c>
-      <c r="D92" s="84" t="s">
-        <v>220</v>
+      <c r="D92" s="83" t="s">
+        <v>223</v>
       </c>
       <c r="E92" s="43"/>
       <c r="F92" s="44"/>
@@ -15651,12 +15705,12 @@
       <c r="R92" s="50"/>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A93" s="68"/>
-      <c r="B93" s="68"/>
-      <c r="C93" s="85" t="s">
+      <c r="A93" s="67"/>
+      <c r="B93" s="67"/>
+      <c r="C93" s="84" t="s">
         <v>143</v>
       </c>
-      <c r="D93" s="86"/>
+      <c r="D93" s="85"/>
       <c r="E93" s="43"/>
       <c r="F93" s="44"/>
       <c r="Q93" s="50"/>
@@ -15665,9 +15719,9 @@
     <row r="94" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A94" s="51"/>
       <c r="B94" s="51"/>
-      <c r="C94" s="87"/>
-      <c r="D94" s="88" t="s">
-        <v>221</v>
+      <c r="C94" s="86"/>
+      <c r="D94" s="87" t="s">
+        <v>224</v>
       </c>
       <c r="E94" s="43"/>
       <c r="F94" s="44"/>
@@ -15677,9 +15731,9 @@
     <row r="95" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A95" s="51"/>
       <c r="B95" s="51"/>
-      <c r="C95" s="87"/>
-      <c r="D95" s="88" t="s">
-        <v>222</v>
+      <c r="C95" s="86"/>
+      <c r="D95" s="87" t="s">
+        <v>225</v>
       </c>
       <c r="E95" s="43"/>
       <c r="F95" s="44"/>
@@ -15687,13 +15741,13 @@
       <c r="R95" s="50"/>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A96" s="89"/>
-      <c r="B96" s="89"/>
-      <c r="C96" s="90" t="s">
+      <c r="A96" s="88"/>
+      <c r="B96" s="88"/>
+      <c r="C96" s="89" t="s">
         <v>149</v>
       </c>
-      <c r="D96" s="91" t="s">
-        <v>223</v>
+      <c r="D96" s="90" t="s">
+        <v>226</v>
       </c>
       <c r="E96" s="43"/>
       <c r="F96" s="44"/>
@@ -15701,13 +15755,13 @@
       <c r="R96" s="50"/>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A97" s="92"/>
-      <c r="B97" s="92"/>
-      <c r="C97" s="93" t="s">
-        <v>157</v>
-      </c>
-      <c r="D97" s="94" t="s">
-        <v>224</v>
+      <c r="A97" s="91"/>
+      <c r="B97" s="91"/>
+      <c r="C97" s="92" t="s">
+        <v>160</v>
+      </c>
+      <c r="D97" s="93" t="s">
+        <v>227</v>
       </c>
       <c r="E97" s="43"/>
       <c r="F97" s="44"/>
@@ -15717,21 +15771,21 @@
     <row r="98" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A98" s="51"/>
       <c r="B98" s="51"/>
-      <c r="C98" s="87"/>
-      <c r="D98" s="88"/>
+      <c r="C98" s="86"/>
+      <c r="D98" s="87"/>
       <c r="E98" s="43"/>
       <c r="F98" s="44"/>
       <c r="Q98" s="50"/>
       <c r="R98" s="50"/>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A99" s="92"/>
-      <c r="B99" s="92"/>
-      <c r="C99" s="93" t="s">
-        <v>157</v>
-      </c>
-      <c r="D99" s="94" t="s">
-        <v>225</v>
+      <c r="A99" s="91"/>
+      <c r="B99" s="91"/>
+      <c r="C99" s="92" t="s">
+        <v>160</v>
+      </c>
+      <c r="D99" s="93" t="s">
+        <v>228</v>
       </c>
       <c r="E99" s="43"/>
       <c r="F99" s="44"/>
@@ -15741,21 +15795,21 @@
     <row r="100" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A100" s="51"/>
       <c r="B100" s="51"/>
-      <c r="C100" s="87"/>
-      <c r="D100" s="88"/>
+      <c r="C100" s="86"/>
+      <c r="D100" s="87"/>
       <c r="E100" s="43"/>
       <c r="F100" s="44"/>
       <c r="Q100" s="50"/>
       <c r="R100" s="50"/>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A101" s="89"/>
-      <c r="B101" s="89"/>
-      <c r="C101" s="90" t="s">
+      <c r="A101" s="88"/>
+      <c r="B101" s="88"/>
+      <c r="C101" s="89" t="s">
         <v>149</v>
       </c>
-      <c r="D101" s="91" t="s">
-        <v>226</v>
+      <c r="D101" s="90" t="s">
+        <v>229</v>
       </c>
       <c r="E101" s="43"/>
       <c r="F101" s="44"/>
@@ -15763,13 +15817,13 @@
       <c r="R101" s="50"/>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A102" s="92"/>
-      <c r="B102" s="92"/>
-      <c r="C102" s="93" t="s">
-        <v>157</v>
-      </c>
-      <c r="D102" s="94" t="s">
-        <v>227</v>
+      <c r="A102" s="91"/>
+      <c r="B102" s="91"/>
+      <c r="C102" s="92" t="s">
+        <v>160</v>
+      </c>
+      <c r="D102" s="93" t="s">
+        <v>230</v>
       </c>
       <c r="E102" s="43"/>
       <c r="F102" s="44"/>
@@ -15779,21 +15833,21 @@
     <row r="103" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A103" s="51"/>
       <c r="B103" s="51"/>
-      <c r="C103" s="87"/>
-      <c r="D103" s="88"/>
+      <c r="C103" s="86"/>
+      <c r="D103" s="87"/>
       <c r="E103" s="43"/>
       <c r="F103" s="44"/>
       <c r="Q103" s="50"/>
       <c r="R103" s="50"/>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A104" s="92"/>
-      <c r="B104" s="92"/>
-      <c r="C104" s="93" t="s">
-        <v>157</v>
-      </c>
-      <c r="D104" s="94" t="s">
-        <v>228</v>
+      <c r="A104" s="91"/>
+      <c r="B104" s="91"/>
+      <c r="C104" s="92" t="s">
+        <v>160</v>
+      </c>
+      <c r="D104" s="93" t="s">
+        <v>231</v>
       </c>
       <c r="E104" s="43"/>
       <c r="F104" s="44"/>
@@ -15803,21 +15857,21 @@
     <row r="105" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A105" s="51"/>
       <c r="B105" s="51"/>
-      <c r="C105" s="87"/>
-      <c r="D105" s="88"/>
+      <c r="C105" s="86"/>
+      <c r="D105" s="87"/>
       <c r="E105" s="43"/>
       <c r="F105" s="44"/>
       <c r="Q105" s="50"/>
       <c r="R105" s="50"/>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A106" s="89"/>
-      <c r="B106" s="89"/>
-      <c r="C106" s="90" t="s">
+      <c r="A106" s="88"/>
+      <c r="B106" s="88"/>
+      <c r="C106" s="89" t="s">
         <v>149</v>
       </c>
-      <c r="D106" s="91" t="s">
-        <v>229</v>
+      <c r="D106" s="90" t="s">
+        <v>232</v>
       </c>
       <c r="E106" s="43"/>
       <c r="F106" s="44"/>
@@ -15825,13 +15879,13 @@
       <c r="R106" s="50"/>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A107" s="92"/>
-      <c r="B107" s="92"/>
-      <c r="C107" s="93" t="s">
-        <v>157</v>
-      </c>
-      <c r="D107" s="94" t="s">
-        <v>230</v>
+      <c r="A107" s="91"/>
+      <c r="B107" s="91"/>
+      <c r="C107" s="92" t="s">
+        <v>160</v>
+      </c>
+      <c r="D107" s="93" t="s">
+        <v>233</v>
       </c>
       <c r="E107" s="43"/>
       <c r="F107" s="44"/>
@@ -15841,21 +15895,21 @@
     <row r="108" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A108" s="51"/>
       <c r="B108" s="51"/>
-      <c r="C108" s="87"/>
-      <c r="D108" s="88"/>
+      <c r="C108" s="86"/>
+      <c r="D108" s="87"/>
       <c r="E108" s="43"/>
       <c r="F108" s="44"/>
       <c r="Q108" s="50"/>
       <c r="R108" s="50"/>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A109" s="89"/>
-      <c r="B109" s="89"/>
-      <c r="C109" s="90" t="s">
+      <c r="A109" s="88"/>
+      <c r="B109" s="88"/>
+      <c r="C109" s="89" t="s">
         <v>149</v>
       </c>
-      <c r="D109" s="91" t="s">
-        <v>231</v>
+      <c r="D109" s="90" t="s">
+        <v>234</v>
       </c>
       <c r="E109" s="43"/>
       <c r="F109" s="44"/>
@@ -15863,13 +15917,13 @@
       <c r="R109" s="50"/>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A110" s="92"/>
-      <c r="B110" s="92"/>
-      <c r="C110" s="93" t="s">
-        <v>157</v>
-      </c>
-      <c r="D110" s="94" t="s">
-        <v>232</v>
+      <c r="A110" s="91"/>
+      <c r="B110" s="91"/>
+      <c r="C110" s="92" t="s">
+        <v>160</v>
+      </c>
+      <c r="D110" s="93" t="s">
+        <v>235</v>
       </c>
       <c r="E110" s="43"/>
       <c r="F110" s="44"/>
@@ -15877,13 +15931,13 @@
       <c r="R110" s="50"/>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A111" s="92"/>
-      <c r="B111" s="92"/>
-      <c r="C111" s="93" t="s">
-        <v>157</v>
-      </c>
-      <c r="D111" s="94" t="s">
-        <v>233</v>
+      <c r="A111" s="91"/>
+      <c r="B111" s="91"/>
+      <c r="C111" s="92" t="s">
+        <v>160</v>
+      </c>
+      <c r="D111" s="93" t="s">
+        <v>236</v>
       </c>
       <c r="E111" s="43"/>
       <c r="F111" s="44"/>
@@ -15893,21 +15947,21 @@
     <row r="112" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A112" s="51"/>
       <c r="B112" s="51"/>
-      <c r="C112" s="87"/>
-      <c r="D112" s="88"/>
+      <c r="C112" s="86"/>
+      <c r="D112" s="87"/>
       <c r="E112" s="43"/>
       <c r="F112" s="44"/>
       <c r="Q112" s="50"/>
       <c r="R112" s="50"/>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A113" s="89"/>
-      <c r="B113" s="89"/>
-      <c r="C113" s="90" t="s">
+      <c r="A113" s="88"/>
+      <c r="B113" s="88"/>
+      <c r="C113" s="89" t="s">
         <v>149</v>
       </c>
-      <c r="D113" s="91" t="s">
-        <v>234</v>
+      <c r="D113" s="90" t="s">
+        <v>237</v>
       </c>
       <c r="E113" s="43"/>
       <c r="F113" s="44"/>
@@ -15915,13 +15969,13 @@
       <c r="R113" s="50"/>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A114" s="92"/>
-      <c r="B114" s="92"/>
-      <c r="C114" s="93" t="s">
-        <v>157</v>
-      </c>
-      <c r="D114" s="94" t="s">
-        <v>235</v>
+      <c r="A114" s="91"/>
+      <c r="B114" s="91"/>
+      <c r="C114" s="92" t="s">
+        <v>160</v>
+      </c>
+      <c r="D114" s="93" t="s">
+        <v>238</v>
       </c>
       <c r="E114" s="43"/>
       <c r="F114" s="44"/>
@@ -15931,21 +15985,21 @@
     <row r="115" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A115" s="51"/>
       <c r="B115" s="51"/>
-      <c r="C115" s="87"/>
-      <c r="D115" s="88"/>
+      <c r="C115" s="86"/>
+      <c r="D115" s="87"/>
       <c r="E115" s="43"/>
       <c r="F115" s="44"/>
       <c r="Q115" s="50"/>
       <c r="R115" s="50"/>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A116" s="89"/>
-      <c r="B116" s="89"/>
-      <c r="C116" s="90" t="s">
+      <c r="A116" s="88"/>
+      <c r="B116" s="88"/>
+      <c r="C116" s="89" t="s">
         <v>149</v>
       </c>
-      <c r="D116" s="91" t="s">
-        <v>236</v>
+      <c r="D116" s="90" t="s">
+        <v>239</v>
       </c>
       <c r="E116" s="43"/>
       <c r="F116" s="44"/>
@@ -15953,13 +16007,13 @@
       <c r="R116" s="50"/>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A117" s="92"/>
-      <c r="B117" s="92"/>
-      <c r="C117" s="93" t="s">
-        <v>157</v>
-      </c>
-      <c r="D117" s="94" t="s">
-        <v>237</v>
+      <c r="A117" s="91"/>
+      <c r="B117" s="91"/>
+      <c r="C117" s="92" t="s">
+        <v>160</v>
+      </c>
+      <c r="D117" s="93" t="s">
+        <v>240</v>
       </c>
       <c r="E117" s="43"/>
       <c r="F117" s="44"/>
@@ -15969,21 +16023,21 @@
     <row r="118" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A118" s="51"/>
       <c r="B118" s="51"/>
-      <c r="C118" s="87"/>
-      <c r="D118" s="88"/>
+      <c r="C118" s="86"/>
+      <c r="D118" s="87"/>
       <c r="E118" s="43"/>
       <c r="F118" s="44"/>
       <c r="Q118" s="50"/>
       <c r="R118" s="50"/>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A119" s="89"/>
-      <c r="B119" s="89"/>
-      <c r="C119" s="90" t="s">
+      <c r="A119" s="88"/>
+      <c r="B119" s="88"/>
+      <c r="C119" s="89" t="s">
         <v>149</v>
       </c>
-      <c r="D119" s="91" t="s">
-        <v>238</v>
+      <c r="D119" s="90" t="s">
+        <v>241</v>
       </c>
       <c r="E119" s="43"/>
       <c r="F119" s="44"/>
@@ -15991,13 +16045,13 @@
       <c r="R119" s="50"/>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A120" s="92"/>
-      <c r="B120" s="92"/>
-      <c r="C120" s="93" t="s">
-        <v>157</v>
-      </c>
-      <c r="D120" s="94" t="s">
-        <v>239</v>
+      <c r="A120" s="91"/>
+      <c r="B120" s="91"/>
+      <c r="C120" s="92" t="s">
+        <v>160</v>
+      </c>
+      <c r="D120" s="93" t="s">
+        <v>242</v>
       </c>
       <c r="E120" s="43"/>
       <c r="F120" s="44"/>
@@ -16007,21 +16061,21 @@
     <row r="121" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A121" s="51"/>
       <c r="B121" s="51"/>
-      <c r="C121" s="87"/>
-      <c r="D121" s="88"/>
+      <c r="C121" s="86"/>
+      <c r="D121" s="87"/>
       <c r="E121" s="43"/>
       <c r="F121" s="44"/>
       <c r="Q121" s="50"/>
       <c r="R121" s="50"/>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A122" s="89"/>
-      <c r="B122" s="89"/>
-      <c r="C122" s="90" t="s">
+      <c r="A122" s="88"/>
+      <c r="B122" s="88"/>
+      <c r="C122" s="89" t="s">
         <v>149</v>
       </c>
-      <c r="D122" s="91" t="s">
-        <v>240</v>
+      <c r="D122" s="90" t="s">
+        <v>243</v>
       </c>
       <c r="E122" s="43"/>
       <c r="F122" s="44"/>
@@ -16029,13 +16083,13 @@
       <c r="R122" s="50"/>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A123" s="92"/>
-      <c r="B123" s="92"/>
-      <c r="C123" s="93" t="s">
-        <v>157</v>
-      </c>
-      <c r="D123" s="94" t="s">
-        <v>241</v>
+      <c r="A123" s="91"/>
+      <c r="B123" s="91"/>
+      <c r="C123" s="92" t="s">
+        <v>160</v>
+      </c>
+      <c r="D123" s="93" t="s">
+        <v>244</v>
       </c>
       <c r="E123" s="43"/>
       <c r="F123" s="44"/>
@@ -16045,21 +16099,21 @@
     <row r="124" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A124" s="51"/>
       <c r="B124" s="51"/>
-      <c r="C124" s="87"/>
-      <c r="D124" s="88"/>
+      <c r="C124" s="86"/>
+      <c r="D124" s="87"/>
       <c r="E124" s="43"/>
       <c r="F124" s="44"/>
       <c r="Q124" s="50"/>
       <c r="R124" s="50"/>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A125" s="89"/>
-      <c r="B125" s="89"/>
-      <c r="C125" s="90" t="s">
+      <c r="A125" s="88"/>
+      <c r="B125" s="88"/>
+      <c r="C125" s="89" t="s">
         <v>149</v>
       </c>
-      <c r="D125" s="91" t="s">
-        <v>242</v>
+      <c r="D125" s="90" t="s">
+        <v>245</v>
       </c>
       <c r="E125" s="43"/>
       <c r="F125" s="44"/>
@@ -16067,13 +16121,13 @@
       <c r="R125" s="50"/>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A126" s="92"/>
-      <c r="B126" s="92"/>
-      <c r="C126" s="93" t="s">
-        <v>157</v>
-      </c>
-      <c r="D126" s="94" t="s">
-        <v>243</v>
+      <c r="A126" s="91"/>
+      <c r="B126" s="91"/>
+      <c r="C126" s="92" t="s">
+        <v>160</v>
+      </c>
+      <c r="D126" s="93" t="s">
+        <v>246</v>
       </c>
       <c r="E126" s="43"/>
       <c r="F126" s="44"/>
@@ -16083,21 +16137,21 @@
     <row r="127" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A127" s="51"/>
       <c r="B127" s="51"/>
-      <c r="C127" s="87"/>
-      <c r="D127" s="88"/>
+      <c r="C127" s="86"/>
+      <c r="D127" s="87"/>
       <c r="E127" s="43"/>
       <c r="F127" s="44"/>
       <c r="Q127" s="50"/>
       <c r="R127" s="50"/>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A128" s="92"/>
-      <c r="B128" s="92"/>
-      <c r="C128" s="93" t="s">
-        <v>157</v>
-      </c>
-      <c r="D128" s="94" t="s">
-        <v>244</v>
+      <c r="A128" s="91"/>
+      <c r="B128" s="91"/>
+      <c r="C128" s="92" t="s">
+        <v>160</v>
+      </c>
+      <c r="D128" s="93" t="s">
+        <v>247</v>
       </c>
       <c r="E128" s="43"/>
       <c r="F128" s="44"/>
@@ -16107,21 +16161,21 @@
     <row r="129" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A129" s="51"/>
       <c r="B129" s="51"/>
-      <c r="C129" s="87"/>
-      <c r="D129" s="88"/>
+      <c r="C129" s="86"/>
+      <c r="D129" s="87"/>
       <c r="E129" s="43"/>
       <c r="F129" s="44"/>
       <c r="Q129" s="50"/>
       <c r="R129" s="50"/>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A130" s="92"/>
-      <c r="B130" s="92"/>
-      <c r="C130" s="93" t="s">
-        <v>157</v>
-      </c>
-      <c r="D130" s="94" t="s">
-        <v>245</v>
+      <c r="A130" s="91"/>
+      <c r="B130" s="91"/>
+      <c r="C130" s="92" t="s">
+        <v>160</v>
+      </c>
+      <c r="D130" s="93" t="s">
+        <v>248</v>
       </c>
       <c r="E130" s="43"/>
       <c r="F130" s="44"/>
@@ -16131,21 +16185,21 @@
     <row r="131" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A131" s="51"/>
       <c r="B131" s="51"/>
-      <c r="C131" s="87"/>
-      <c r="D131" s="88"/>
+      <c r="C131" s="86"/>
+      <c r="D131" s="87"/>
       <c r="E131" s="43"/>
       <c r="F131" s="44"/>
       <c r="Q131" s="50"/>
       <c r="R131" s="50"/>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A132" s="89"/>
-      <c r="B132" s="89"/>
-      <c r="C132" s="90" t="s">
+      <c r="A132" s="88"/>
+      <c r="B132" s="88"/>
+      <c r="C132" s="89" t="s">
         <v>149</v>
       </c>
-      <c r="D132" s="91" t="s">
-        <v>246</v>
+      <c r="D132" s="90" t="s">
+        <v>249</v>
       </c>
       <c r="E132" s="43"/>
       <c r="F132" s="44"/>
@@ -16153,13 +16207,13 @@
       <c r="R132" s="50"/>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A133" s="92"/>
-      <c r="B133" s="92"/>
-      <c r="C133" s="93" t="s">
-        <v>157</v>
-      </c>
-      <c r="D133" s="94" t="s">
-        <v>247</v>
+      <c r="A133" s="91"/>
+      <c r="B133" s="91"/>
+      <c r="C133" s="92" t="s">
+        <v>160</v>
+      </c>
+      <c r="D133" s="93" t="s">
+        <v>250</v>
       </c>
       <c r="E133" s="43"/>
       <c r="F133" s="44"/>
@@ -16169,21 +16223,21 @@
     <row r="134" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A134" s="51"/>
       <c r="B134" s="51"/>
-      <c r="C134" s="87"/>
-      <c r="D134" s="88"/>
+      <c r="C134" s="86"/>
+      <c r="D134" s="87"/>
       <c r="E134" s="43"/>
       <c r="F134" s="44"/>
       <c r="Q134" s="50"/>
       <c r="R134" s="50"/>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A135" s="92"/>
-      <c r="B135" s="92"/>
-      <c r="C135" s="93" t="s">
-        <v>157</v>
-      </c>
-      <c r="D135" s="94" t="s">
-        <v>248</v>
+      <c r="A135" s="91"/>
+      <c r="B135" s="91"/>
+      <c r="C135" s="92" t="s">
+        <v>160</v>
+      </c>
+      <c r="D135" s="93" t="s">
+        <v>251</v>
       </c>
       <c r="E135" s="43"/>
       <c r="F135" s="44"/>
@@ -16193,8 +16247,8 @@
     <row r="136" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A136" s="51"/>
       <c r="B136" s="51"/>
-      <c r="C136" s="87"/>
-      <c r="D136" s="88"/>
+      <c r="C136" s="86"/>
+      <c r="D136" s="87"/>
       <c r="E136" s="43"/>
       <c r="F136" s="44"/>
       <c r="Q136" s="50"/>
@@ -16215,8 +16269,8 @@
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="44"/>
       <c r="B138" s="44"/>
-      <c r="C138" s="95"/>
-      <c r="D138" s="96" t="n">
+      <c r="C138" s="94"/>
+      <c r="D138" s="95" t="n">
         <v>0</v>
       </c>
       <c r="E138" s="44"/>
@@ -16412,11 +16466,11 @@
       <c r="B2" s="45" t="s">
         <v>134</v>
       </c>
-      <c r="C2" s="97" t="s">
-        <v>249</v>
-      </c>
-      <c r="D2" s="97" t="s">
-        <v>250</v>
+      <c r="C2" s="96" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2" s="96" t="s">
+        <v>253</v>
       </c>
       <c r="E2" s="46" t="s">
         <v>135</v>
@@ -16437,8 +16491,8 @@
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="45"/>
       <c r="B3" s="45"/>
-      <c r="C3" s="97"/>
-      <c r="D3" s="97"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
       <c r="E3" s="47" t="s">
         <v>136</v>
       </c>
@@ -16463,21 +16517,21 @@
         <v>25</v>
       </c>
       <c r="B4" s="49" t="s">
-        <v>251</v>
-      </c>
-      <c r="C4" s="98"/>
-      <c r="D4" s="98"/>
-      <c r="E4" s="98"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="98"/>
-      <c r="H4" s="98"/>
-      <c r="I4" s="98"/>
-      <c r="J4" s="98"/>
-      <c r="K4" s="98"/>
-      <c r="L4" s="98"/>
-      <c r="M4" s="98"/>
-      <c r="N4" s="98"/>
-      <c r="O4" s="98"/>
+        <v>254</v>
+      </c>
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="97"/>
+      <c r="K4" s="97"/>
+      <c r="L4" s="97"/>
+      <c r="M4" s="97"/>
+      <c r="N4" s="97"/>
+      <c r="O4" s="97"/>
       <c r="P4" s="43"/>
       <c r="Q4" s="44"/>
       <c r="AB4" s="50"/>
@@ -16486,27 +16540,27 @@
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="54"/>
       <c r="B5" s="54"/>
-      <c r="C5" s="99" t="s">
-        <v>252</v>
-      </c>
-      <c r="D5" s="100" t="s">
-        <v>253</v>
+      <c r="C5" s="98" t="s">
+        <v>255</v>
+      </c>
+      <c r="D5" s="99" t="s">
+        <v>256</v>
       </c>
       <c r="E5" s="55" t="s">
         <v>140</v>
       </c>
       <c r="F5" s="56" t="s">
-        <v>254</v>
-      </c>
-      <c r="G5" s="101"/>
-      <c r="H5" s="101"/>
-      <c r="I5" s="101"/>
-      <c r="J5" s="101"/>
-      <c r="K5" s="101"/>
-      <c r="L5" s="101"/>
-      <c r="M5" s="101"/>
-      <c r="N5" s="101"/>
-      <c r="O5" s="101"/>
+        <v>257</v>
+      </c>
+      <c r="G5" s="100"/>
+      <c r="H5" s="100"/>
+      <c r="I5" s="100"/>
+      <c r="J5" s="100"/>
+      <c r="K5" s="100"/>
+      <c r="L5" s="100"/>
+      <c r="M5" s="100"/>
+      <c r="N5" s="100"/>
+      <c r="O5" s="100"/>
       <c r="P5" s="43"/>
       <c r="Q5" s="44"/>
       <c r="AB5" s="50"/>
@@ -16515,19 +16569,19 @@
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="54"/>
       <c r="B6" s="54"/>
-      <c r="C6" s="99"/>
-      <c r="D6" s="100"/>
+      <c r="C6" s="98"/>
+      <c r="D6" s="99"/>
       <c r="E6" s="55"/>
       <c r="F6" s="56"/>
-      <c r="G6" s="101"/>
-      <c r="H6" s="101"/>
-      <c r="I6" s="101"/>
-      <c r="J6" s="101"/>
-      <c r="K6" s="101"/>
-      <c r="L6" s="101"/>
-      <c r="M6" s="101"/>
-      <c r="N6" s="101"/>
-      <c r="O6" s="101"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="100"/>
+      <c r="J6" s="100"/>
+      <c r="K6" s="100"/>
+      <c r="L6" s="100"/>
+      <c r="M6" s="100"/>
+      <c r="N6" s="100"/>
+      <c r="O6" s="100"/>
       <c r="P6" s="43"/>
       <c r="Q6" s="44"/>
       <c r="AB6" s="50"/>
@@ -16536,21 +16590,21 @@
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="54"/>
       <c r="B7" s="54"/>
-      <c r="C7" s="99"/>
-      <c r="D7" s="100"/>
+      <c r="C7" s="98"/>
+      <c r="D7" s="99"/>
       <c r="E7" s="55"/>
       <c r="F7" s="56" t="s">
         <v>97</v>
       </c>
-      <c r="G7" s="101"/>
-      <c r="H7" s="101"/>
-      <c r="I7" s="101"/>
-      <c r="J7" s="101"/>
-      <c r="K7" s="101"/>
-      <c r="L7" s="101"/>
-      <c r="M7" s="101"/>
-      <c r="N7" s="101"/>
-      <c r="O7" s="101"/>
+      <c r="G7" s="100"/>
+      <c r="H7" s="100"/>
+      <c r="I7" s="100"/>
+      <c r="J7" s="100"/>
+      <c r="K7" s="100"/>
+      <c r="L7" s="100"/>
+      <c r="M7" s="100"/>
+      <c r="N7" s="100"/>
+      <c r="O7" s="100"/>
       <c r="P7" s="43"/>
       <c r="Q7" s="44"/>
       <c r="AB7" s="50"/>
@@ -16559,21 +16613,21 @@
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="54"/>
       <c r="B8" s="54"/>
-      <c r="C8" s="99"/>
-      <c r="D8" s="100"/>
+      <c r="C8" s="98"/>
+      <c r="D8" s="99"/>
       <c r="E8" s="55"/>
       <c r="F8" s="56" t="s">
         <v>98</v>
       </c>
-      <c r="G8" s="101"/>
-      <c r="H8" s="101"/>
-      <c r="I8" s="101"/>
-      <c r="J8" s="101"/>
-      <c r="K8" s="101"/>
-      <c r="L8" s="101"/>
-      <c r="M8" s="101"/>
-      <c r="N8" s="101"/>
-      <c r="O8" s="101"/>
+      <c r="G8" s="100"/>
+      <c r="H8" s="100"/>
+      <c r="I8" s="100"/>
+      <c r="J8" s="100"/>
+      <c r="K8" s="100"/>
+      <c r="L8" s="100"/>
+      <c r="M8" s="100"/>
+      <c r="N8" s="100"/>
+      <c r="O8" s="100"/>
       <c r="P8" s="43"/>
       <c r="Q8" s="44"/>
       <c r="AB8" s="50"/>
@@ -16582,21 +16636,21 @@
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="54"/>
       <c r="B9" s="54"/>
-      <c r="C9" s="99"/>
-      <c r="D9" s="100"/>
+      <c r="C9" s="98"/>
+      <c r="D9" s="99"/>
       <c r="E9" s="55"/>
       <c r="F9" s="56" t="s">
         <v>99</v>
       </c>
-      <c r="G9" s="101"/>
-      <c r="H9" s="101"/>
-      <c r="I9" s="101"/>
-      <c r="J9" s="101"/>
-      <c r="K9" s="101"/>
-      <c r="L9" s="101"/>
-      <c r="M9" s="101"/>
-      <c r="N9" s="101"/>
-      <c r="O9" s="101"/>
+      <c r="G9" s="100"/>
+      <c r="H9" s="100"/>
+      <c r="I9" s="100"/>
+      <c r="J9" s="100"/>
+      <c r="K9" s="100"/>
+      <c r="L9" s="100"/>
+      <c r="M9" s="100"/>
+      <c r="N9" s="100"/>
+      <c r="O9" s="100"/>
       <c r="P9" s="43"/>
       <c r="Q9" s="44"/>
       <c r="AB9" s="50"/>
@@ -16605,21 +16659,21 @@
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="54"/>
       <c r="B10" s="54"/>
-      <c r="C10" s="99"/>
-      <c r="D10" s="100"/>
+      <c r="C10" s="98"/>
+      <c r="D10" s="99"/>
       <c r="E10" s="55"/>
       <c r="F10" s="56" t="s">
         <v>100</v>
       </c>
-      <c r="G10" s="101"/>
-      <c r="H10" s="101"/>
-      <c r="I10" s="101"/>
-      <c r="J10" s="101"/>
-      <c r="K10" s="101"/>
-      <c r="L10" s="101"/>
-      <c r="M10" s="101"/>
-      <c r="N10" s="101"/>
-      <c r="O10" s="101"/>
+      <c r="G10" s="100"/>
+      <c r="H10" s="100"/>
+      <c r="I10" s="100"/>
+      <c r="J10" s="100"/>
+      <c r="K10" s="100"/>
+      <c r="L10" s="100"/>
+      <c r="M10" s="100"/>
+      <c r="N10" s="100"/>
+      <c r="O10" s="100"/>
       <c r="P10" s="43"/>
       <c r="Q10" s="44"/>
       <c r="AB10" s="50"/>
@@ -16628,21 +16682,21 @@
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="54"/>
       <c r="B11" s="54"/>
-      <c r="C11" s="99"/>
-      <c r="D11" s="100"/>
+      <c r="C11" s="98"/>
+      <c r="D11" s="99"/>
       <c r="E11" s="55"/>
       <c r="F11" s="56" t="s">
         <v>116</v>
       </c>
-      <c r="G11" s="101"/>
-      <c r="H11" s="101"/>
-      <c r="I11" s="101"/>
-      <c r="J11" s="101"/>
-      <c r="K11" s="101"/>
-      <c r="L11" s="101"/>
-      <c r="M11" s="101"/>
-      <c r="N11" s="101"/>
-      <c r="O11" s="101"/>
+      <c r="G11" s="100"/>
+      <c r="H11" s="100"/>
+      <c r="I11" s="100"/>
+      <c r="J11" s="100"/>
+      <c r="K11" s="100"/>
+      <c r="L11" s="100"/>
+      <c r="M11" s="100"/>
+      <c r="N11" s="100"/>
+      <c r="O11" s="100"/>
       <c r="P11" s="43"/>
       <c r="Q11" s="44"/>
       <c r="AB11" s="50"/>
@@ -16651,19 +16705,19 @@
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="54"/>
       <c r="B12" s="54"/>
-      <c r="C12" s="99"/>
-      <c r="D12" s="100"/>
+      <c r="C12" s="98"/>
+      <c r="D12" s="99"/>
       <c r="E12" s="55"/>
       <c r="F12" s="56"/>
-      <c r="G12" s="101"/>
-      <c r="H12" s="101"/>
-      <c r="I12" s="101"/>
-      <c r="J12" s="101"/>
-      <c r="K12" s="101"/>
-      <c r="L12" s="101"/>
-      <c r="M12" s="101"/>
-      <c r="N12" s="101"/>
-      <c r="O12" s="101"/>
+      <c r="G12" s="100"/>
+      <c r="H12" s="100"/>
+      <c r="I12" s="100"/>
+      <c r="J12" s="100"/>
+      <c r="K12" s="100"/>
+      <c r="L12" s="100"/>
+      <c r="M12" s="100"/>
+      <c r="N12" s="100"/>
+      <c r="O12" s="100"/>
       <c r="P12" s="43"/>
       <c r="Q12" s="44"/>
       <c r="AB12" s="50"/>
@@ -16672,21 +16726,21 @@
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="54"/>
       <c r="B13" s="54"/>
-      <c r="C13" s="99"/>
-      <c r="D13" s="100"/>
+      <c r="C13" s="98"/>
+      <c r="D13" s="99"/>
       <c r="E13" s="55"/>
       <c r="F13" s="56" t="s">
         <v>97</v>
       </c>
-      <c r="G13" s="101"/>
-      <c r="H13" s="101"/>
-      <c r="I13" s="101"/>
-      <c r="J13" s="101"/>
-      <c r="K13" s="101"/>
-      <c r="L13" s="101"/>
-      <c r="M13" s="101"/>
-      <c r="N13" s="101"/>
-      <c r="O13" s="101"/>
+      <c r="G13" s="100"/>
+      <c r="H13" s="100"/>
+      <c r="I13" s="100"/>
+      <c r="J13" s="100"/>
+      <c r="K13" s="100"/>
+      <c r="L13" s="100"/>
+      <c r="M13" s="100"/>
+      <c r="N13" s="100"/>
+      <c r="O13" s="100"/>
       <c r="P13" s="43"/>
       <c r="Q13" s="44"/>
       <c r="AB13" s="50"/>
@@ -16695,21 +16749,21 @@
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="54"/>
       <c r="B14" s="54"/>
-      <c r="C14" s="99"/>
-      <c r="D14" s="100"/>
+      <c r="C14" s="98"/>
+      <c r="D14" s="99"/>
       <c r="E14" s="55"/>
       <c r="F14" s="56" t="s">
-        <v>255</v>
-      </c>
-      <c r="G14" s="101"/>
-      <c r="H14" s="101"/>
-      <c r="I14" s="101"/>
-      <c r="J14" s="101"/>
-      <c r="K14" s="101"/>
-      <c r="L14" s="101"/>
-      <c r="M14" s="101"/>
-      <c r="N14" s="101"/>
-      <c r="O14" s="101"/>
+        <v>258</v>
+      </c>
+      <c r="G14" s="100"/>
+      <c r="H14" s="100"/>
+      <c r="I14" s="100"/>
+      <c r="J14" s="100"/>
+      <c r="K14" s="100"/>
+      <c r="L14" s="100"/>
+      <c r="M14" s="100"/>
+      <c r="N14" s="100"/>
+      <c r="O14" s="100"/>
       <c r="P14" s="43"/>
       <c r="Q14" s="44"/>
       <c r="AB14" s="50"/>
@@ -16718,21 +16772,21 @@
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="54"/>
       <c r="B15" s="54"/>
-      <c r="C15" s="99"/>
-      <c r="D15" s="100"/>
+      <c r="C15" s="98"/>
+      <c r="D15" s="99"/>
       <c r="E15" s="55"/>
       <c r="F15" s="56" t="s">
-        <v>256</v>
-      </c>
-      <c r="G15" s="101"/>
-      <c r="H15" s="101"/>
-      <c r="I15" s="101"/>
-      <c r="J15" s="101"/>
-      <c r="K15" s="101"/>
-      <c r="L15" s="101"/>
-      <c r="M15" s="101"/>
-      <c r="N15" s="101"/>
-      <c r="O15" s="101"/>
+        <v>259</v>
+      </c>
+      <c r="G15" s="100"/>
+      <c r="H15" s="100"/>
+      <c r="I15" s="100"/>
+      <c r="J15" s="100"/>
+      <c r="K15" s="100"/>
+      <c r="L15" s="100"/>
+      <c r="M15" s="100"/>
+      <c r="N15" s="100"/>
+      <c r="O15" s="100"/>
       <c r="P15" s="43"/>
       <c r="Q15" s="44"/>
       <c r="AB15" s="50"/>
@@ -16741,21 +16795,21 @@
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="54"/>
       <c r="B16" s="54"/>
-      <c r="C16" s="99"/>
-      <c r="D16" s="100"/>
+      <c r="C16" s="98"/>
+      <c r="D16" s="99"/>
       <c r="E16" s="55"/>
       <c r="F16" s="56" t="s">
         <v>98</v>
       </c>
-      <c r="G16" s="101"/>
-      <c r="H16" s="101"/>
-      <c r="I16" s="101"/>
-      <c r="J16" s="101"/>
-      <c r="K16" s="101"/>
-      <c r="L16" s="101"/>
-      <c r="M16" s="101"/>
-      <c r="N16" s="101"/>
-      <c r="O16" s="101"/>
+      <c r="G16" s="100"/>
+      <c r="H16" s="100"/>
+      <c r="I16" s="100"/>
+      <c r="J16" s="100"/>
+      <c r="K16" s="100"/>
+      <c r="L16" s="100"/>
+      <c r="M16" s="100"/>
+      <c r="N16" s="100"/>
+      <c r="O16" s="100"/>
       <c r="P16" s="43"/>
       <c r="Q16" s="44"/>
       <c r="AB16" s="50"/>
@@ -16764,21 +16818,21 @@
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="54"/>
       <c r="B17" s="54"/>
-      <c r="C17" s="99"/>
-      <c r="D17" s="100"/>
+      <c r="C17" s="98"/>
+      <c r="D17" s="99"/>
       <c r="E17" s="55"/>
       <c r="F17" s="56" t="s">
         <v>99</v>
       </c>
-      <c r="G17" s="101"/>
-      <c r="H17" s="101"/>
-      <c r="I17" s="101"/>
-      <c r="J17" s="101"/>
-      <c r="K17" s="101"/>
-      <c r="L17" s="101"/>
-      <c r="M17" s="101"/>
-      <c r="N17" s="101"/>
-      <c r="O17" s="101"/>
+      <c r="G17" s="100"/>
+      <c r="H17" s="100"/>
+      <c r="I17" s="100"/>
+      <c r="J17" s="100"/>
+      <c r="K17" s="100"/>
+      <c r="L17" s="100"/>
+      <c r="M17" s="100"/>
+      <c r="N17" s="100"/>
+      <c r="O17" s="100"/>
       <c r="P17" s="43"/>
       <c r="Q17" s="44"/>
       <c r="AB17" s="50"/>
@@ -16787,21 +16841,21 @@
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="54"/>
       <c r="B18" s="54"/>
-      <c r="C18" s="99"/>
-      <c r="D18" s="100"/>
+      <c r="C18" s="98"/>
+      <c r="D18" s="99"/>
       <c r="E18" s="55"/>
       <c r="F18" s="56" t="s">
-        <v>257</v>
-      </c>
-      <c r="G18" s="101"/>
-      <c r="H18" s="101"/>
-      <c r="I18" s="101"/>
-      <c r="J18" s="101"/>
-      <c r="K18" s="101"/>
-      <c r="L18" s="101"/>
-      <c r="M18" s="101"/>
-      <c r="N18" s="101"/>
-      <c r="O18" s="101"/>
+        <v>260</v>
+      </c>
+      <c r="G18" s="100"/>
+      <c r="H18" s="100"/>
+      <c r="I18" s="100"/>
+      <c r="J18" s="100"/>
+      <c r="K18" s="100"/>
+      <c r="L18" s="100"/>
+      <c r="M18" s="100"/>
+      <c r="N18" s="100"/>
+      <c r="O18" s="100"/>
       <c r="P18" s="43"/>
       <c r="Q18" s="44"/>
       <c r="AB18" s="50"/>
@@ -16810,21 +16864,21 @@
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="54"/>
       <c r="B19" s="54"/>
-      <c r="C19" s="99"/>
-      <c r="D19" s="100"/>
+      <c r="C19" s="98"/>
+      <c r="D19" s="99"/>
       <c r="E19" s="55"/>
       <c r="F19" s="56" t="s">
         <v>100</v>
       </c>
-      <c r="G19" s="101"/>
-      <c r="H19" s="101"/>
-      <c r="I19" s="101"/>
-      <c r="J19" s="101"/>
-      <c r="K19" s="101"/>
-      <c r="L19" s="101"/>
-      <c r="M19" s="101"/>
-      <c r="N19" s="101"/>
-      <c r="O19" s="101"/>
+      <c r="G19" s="100"/>
+      <c r="H19" s="100"/>
+      <c r="I19" s="100"/>
+      <c r="J19" s="100"/>
+      <c r="K19" s="100"/>
+      <c r="L19" s="100"/>
+      <c r="M19" s="100"/>
+      <c r="N19" s="100"/>
+      <c r="O19" s="100"/>
       <c r="P19" s="43"/>
       <c r="Q19" s="44"/>
       <c r="AB19" s="50"/>
@@ -16833,21 +16887,21 @@
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="54"/>
       <c r="B20" s="54"/>
-      <c r="C20" s="99"/>
-      <c r="D20" s="100"/>
+      <c r="C20" s="98"/>
+      <c r="D20" s="99"/>
       <c r="E20" s="55"/>
       <c r="F20" s="56" t="s">
         <v>116</v>
       </c>
-      <c r="G20" s="101"/>
-      <c r="H20" s="101"/>
-      <c r="I20" s="101"/>
-      <c r="J20" s="101"/>
-      <c r="K20" s="101"/>
-      <c r="L20" s="101"/>
-      <c r="M20" s="101"/>
-      <c r="N20" s="101"/>
-      <c r="O20" s="101"/>
+      <c r="G20" s="100"/>
+      <c r="H20" s="100"/>
+      <c r="I20" s="100"/>
+      <c r="J20" s="100"/>
+      <c r="K20" s="100"/>
+      <c r="L20" s="100"/>
+      <c r="M20" s="100"/>
+      <c r="N20" s="100"/>
+      <c r="O20" s="100"/>
       <c r="P20" s="43"/>
       <c r="Q20" s="44"/>
       <c r="AB20" s="50"/>
@@ -16856,21 +16910,21 @@
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="54"/>
       <c r="B21" s="54"/>
-      <c r="C21" s="99"/>
-      <c r="D21" s="100"/>
+      <c r="C21" s="98"/>
+      <c r="D21" s="99"/>
       <c r="E21" s="55"/>
       <c r="F21" s="56" t="s">
         <v>117</v>
       </c>
-      <c r="G21" s="101"/>
-      <c r="H21" s="101"/>
-      <c r="I21" s="101"/>
-      <c r="J21" s="101"/>
-      <c r="K21" s="101"/>
-      <c r="L21" s="101"/>
-      <c r="M21" s="101"/>
-      <c r="N21" s="101"/>
-      <c r="O21" s="101"/>
+      <c r="G21" s="100"/>
+      <c r="H21" s="100"/>
+      <c r="I21" s="100"/>
+      <c r="J21" s="100"/>
+      <c r="K21" s="100"/>
+      <c r="L21" s="100"/>
+      <c r="M21" s="100"/>
+      <c r="N21" s="100"/>
+      <c r="O21" s="100"/>
       <c r="P21" s="43"/>
       <c r="Q21" s="44"/>
       <c r="AB21" s="50"/>
@@ -16902,37 +16956,37 @@
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="44"/>
       <c r="B23" s="44"/>
-      <c r="C23" s="95"/>
-      <c r="D23" s="95"/>
-      <c r="E23" s="95"/>
-      <c r="F23" s="96" t="n">
+      <c r="C23" s="94"/>
+      <c r="D23" s="94"/>
+      <c r="E23" s="94"/>
+      <c r="F23" s="95" t="n">
         <v>0</v>
       </c>
-      <c r="G23" s="96" t="n">
-        <v>1</v>
-      </c>
-      <c r="H23" s="96" t="n">
+      <c r="G23" s="95" t="n">
+        <v>1</v>
+      </c>
+      <c r="H23" s="95" t="n">
         <v>2</v>
       </c>
-      <c r="I23" s="96" t="n">
+      <c r="I23" s="95" t="n">
         <v>3</v>
       </c>
-      <c r="J23" s="96" t="n">
-        <v>4</v>
-      </c>
-      <c r="K23" s="96" t="n">
-        <v>5</v>
-      </c>
-      <c r="L23" s="96" t="n">
+      <c r="J23" s="95" t="n">
+        <v>4</v>
+      </c>
+      <c r="K23" s="95" t="n">
+        <v>5</v>
+      </c>
+      <c r="L23" s="95" t="n">
         <v>6</v>
       </c>
-      <c r="M23" s="96" t="n">
+      <c r="M23" s="95" t="n">
         <v>7</v>
       </c>
-      <c r="N23" s="96" t="n">
+      <c r="N23" s="95" t="n">
         <v>8</v>
       </c>
-      <c r="O23" s="96" t="n">
+      <c r="O23" s="95" t="n">
         <v>9</v>
       </c>
       <c r="P23" s="44"/>

--- a/designment/mvc-framework-document.xlsx
+++ b/designment/mvc-framework-document.xlsx
@@ -459,31 +459,13 @@
     <t xml:space="preserve">README</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="FreeMono"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">&gt; [!WARNING]  
+    <t xml:space="preserve">&gt; [!WARNING]  
 &gt; Early Stage Development  
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="FreeMono"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">&gt; [!CAUTION]  
+&gt; [!CAUTION]  
 &gt; Use At Own Risk  
 &gt; [!NOTE]  
 &gt; Interested in MVC Framework? 
 &gt; thomas.patrick.welborn@outlook.com</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">#</t>
@@ -525,48 +507,11 @@
     <t xml:space="preserve">DET Object Guide</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="FreeMono"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">- Document
+    <t xml:space="preserve">- Document
   - Guide
-    - [</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="FreeMono"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">Dynamic Event Target (DET)](./document/guide/DynamicEventTarget/index.md)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="FreeMono"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">      - [</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="FreeMono"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">DET Object](./document/guide/DynamicEventTarget/DET-Object/index.md)
+    - [Dynamic Event Target (DET)](./document/guide/DynamicEventTarget/index.md)
+      - [DET Object](./document/guide/DynamicEventTarget/DET-Object/index.md)
     - [Dynamic Event System (DES)](./document/guid/DynamicEventSystem/index.md)</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">Demonstration</t>
@@ -994,7 +939,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="General"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1129,12 +1074,6 @@
       <name val="FreeMono"/>
       <family val="3"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <name val="FreeMono"/>
-      <family val="3"/>
     </font>
     <font>
       <b val="true"/>
@@ -1917,7 +1856,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="20" fillId="24" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="19" fillId="24" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1925,7 +1864,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="7" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="20" fillId="7" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2199,7 +2138,7 @@
   <dimension ref="A1:Z244"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F16" activeCellId="0" sqref="F16"/>
+      <selection pane="topLeft" activeCell="L248" activeCellId="0" sqref="L248"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="2" outlineLevelCol="0"/>
@@ -14503,8 +14442,8 @@
   </sheetPr>
   <dimension ref="A1:R155"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A70" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D91" activeCellId="0" sqref="D91"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
@@ -15651,7 +15590,7 @@
       <c r="Q88" s="50"/>
       <c r="R88" s="50"/>
     </row>
-    <row r="89" customFormat="false" ht="50" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="89" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A89" s="65"/>
       <c r="B89" s="65"/>
       <c r="C89" s="77"/>
@@ -15663,7 +15602,7 @@
       <c r="Q89" s="50"/>
       <c r="R89" s="50"/>
     </row>
-    <row r="90" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="90" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A90" s="65"/>
       <c r="B90" s="65"/>
       <c r="C90" s="64"/>

--- a/designment/mvc-framework-document.xlsx
+++ b/designment/mvc-framework-document.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="VINE_Documents" sheetId="1" state="visible" r:id="rId3"/>
@@ -2109,7 +2109,7 @@
   </sheetPr>
   <dimension ref="A1:Z244"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="J248" activeCellId="0" sqref="J248"/>
     </sheetView>
   </sheetViews>
@@ -14414,8 +14414,8 @@
   </sheetPr>
   <dimension ref="A1:R155"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A67" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
